--- a/genSpacecraft/DownlinkSpecGolf-T.xlsx
+++ b/genSpacecraft/DownlinkSpecGolf-T.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="606">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -1280,15 +1280,60 @@
     <t xml:space="preserve">Structure:legacyErrors_t,file:legacyErrorsDownlink.h</t>
   </si>
   <si>
-    <t xml:space="preserve">Legacy Hard Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LgcyHardError</t>
-  </si>
-  <si>
     <t xml:space="preserve">Legacy  Errors</t>
   </si>
   <si>
+    <t xml:space="preserve">Tasks that have reported to watchdog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wdReports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error that caused the last reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">errorCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task executing at reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taskNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous task before reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">previousTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resets in a row that have been too soon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earlyResetCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was this reset still early in boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wasStillEarlyInBoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pad to 32 bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filler1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATUS_BOOLEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLF_TASK_NAME</t>
+  </si>
+  <si>
     <t xml:space="preserve">LegI2C1Error</t>
   </si>
   <si>
@@ -1337,46 +1382,25 @@
     <t xml:space="preserve">Primary RT Errors</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasks that have reported to watchdog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wdReports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error that caused the last reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">errorCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task executing at reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taskNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previous task before reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">previousTask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resets in a row that have been too soon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earlyResetCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was this reset still early in boot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wasStillEarlyInBoot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pad to 32 bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filler1</t>
+    <t xml:space="preserve">LegWdReports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegErrorCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegTaskNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegPreviousTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegEarlyResetCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegWasStillEarlyInBoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legFiller1</t>
   </si>
   <si>
     <t xml:space="preserve">Data passed to error call that might have caused reset</t>
@@ -2162,10 +2186,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q372"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A255" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G276" activeCellId="0" sqref="G276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11142,7 +11166,7 @@
       </c>
       <c r="F220" s="33"/>
       <c r="G220" s="33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220" s="33" t="s">
         <v>27</v>
@@ -12226,124 +12250,91 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B245" s="3" t="s">
+    <row r="245" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B245" s="21"/>
+      <c r="C245" s="21"/>
+      <c r="D245" s="21"/>
+      <c r="E245" s="21"/>
+      <c r="F245" s="21"/>
+      <c r="G245" s="21"/>
+      <c r="H245" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I245" s="22"/>
+      <c r="N245" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="O245" s="5"/>
+    </row>
+    <row r="246" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B246" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="D245" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="E245" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F245" s="33"/>
-      <c r="G245" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H245" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I245" s="33" t="s">
+      <c r="C246" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="D246" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E246" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F246" s="40"/>
+      <c r="G246" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I246" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="J245" s="37" t="n">
+      <c r="J246" s="4" t="n">
         <f aca="false">J242</f>
         <v>96</v>
       </c>
-      <c r="K245" s="25" t="n">
-        <f aca="false">J245/8</f>
-        <v>12</v>
-      </c>
-      <c r="L245" s="25" t="n">
-        <f aca="false">J245/16</f>
-        <v>6</v>
-      </c>
-      <c r="M245" s="25" t="n">
-        <f aca="false">J245/32</f>
-        <v>3</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="O245" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P245" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q245" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B246" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D246" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E246" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F246" s="33"/>
-      <c r="G246" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H246" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I246" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="J246" s="37" t="n">
-        <f aca="false">J245+D245</f>
-        <v>128</v>
-      </c>
       <c r="K246" s="25" t="n">
         <f aca="false">J246/8</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L246" s="25" t="n">
         <f aca="false">J246/16</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M246" s="25" t="n">
         <f aca="false">J246/32</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="O246" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="O246" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="P246" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q246" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B247" s="3" t="s">
+      <c r="P246" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q246" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B247" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="C247" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="C247" s="3" t="s">
-        <v>423</v>
-      </c>
       <c r="D247" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E247" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F247" s="33"/>
+      <c r="F247" s="40"/>
       <c r="G247" s="33" t="n">
         <v>0</v>
       </c>
@@ -12355,47 +12346,47 @@
       </c>
       <c r="J247" s="37" t="n">
         <f aca="false">J246+D246</f>
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="K247" s="25" t="n">
         <f aca="false">J247/8</f>
-        <v>17</v>
+        <v>13.125</v>
       </c>
       <c r="L247" s="25" t="n">
         <f aca="false">J247/16</f>
-        <v>8.5</v>
+        <v>6.5625</v>
       </c>
       <c r="M247" s="25" t="n">
         <f aca="false">J247/32</f>
-        <v>4.25</v>
+        <v>3.28125</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="O247" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="O247" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="P247" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q247" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B248" s="3" t="s">
+      <c r="P247" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q247" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B248" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="C248" s="3" t="s">
-        <v>424</v>
+      <c r="C248" s="39" t="s">
+        <v>425</v>
       </c>
       <c r="D248" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E248" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F248" s="33"/>
+      <c r="F248" s="40"/>
       <c r="G248" s="33" t="n">
         <v>0</v>
       </c>
@@ -12407,47 +12398,47 @@
       </c>
       <c r="J248" s="37" t="n">
         <f aca="false">J247+D247</f>
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="K248" s="25" t="n">
         <f aca="false">J248/8</f>
-        <v>18</v>
+        <v>13.75</v>
       </c>
       <c r="L248" s="25" t="n">
         <f aca="false">J248/16</f>
-        <v>9</v>
+        <v>6.875</v>
       </c>
       <c r="M248" s="25" t="n">
         <f aca="false">J248/32</f>
-        <v>4.5</v>
+        <v>3.4375</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="O248" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="O248" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="P248" s="1" t="n">
+      <c r="P248" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q248" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B249" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="C249" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="D249" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="Q248" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B249" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="D249" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="E249" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F249" s="33"/>
+      <c r="F249" s="40"/>
       <c r="G249" s="33" t="n">
         <v>0</v>
       </c>
@@ -12459,47 +12450,47 @@
       </c>
       <c r="J249" s="37" t="n">
         <f aca="false">J248+D248</f>
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="K249" s="25" t="n">
         <f aca="false">J249/8</f>
-        <v>19</v>
+        <v>14.25</v>
       </c>
       <c r="L249" s="25" t="n">
         <f aca="false">J249/16</f>
-        <v>9.5</v>
+        <v>7.125</v>
       </c>
       <c r="M249" s="25" t="n">
         <f aca="false">J249/32</f>
-        <v>4.75</v>
+        <v>3.5625</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="O249" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="O249" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="P249" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q249" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B250" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>426</v>
+      <c r="P249" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q249" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B250" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="C250" s="39" t="s">
+        <v>429</v>
       </c>
       <c r="D250" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E250" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F250" s="33"/>
+      <c r="F250" s="40"/>
       <c r="G250" s="33" t="n">
         <v>0</v>
       </c>
@@ -12511,47 +12502,47 @@
       </c>
       <c r="J250" s="37" t="n">
         <f aca="false">J249+D249</f>
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="K250" s="25" t="n">
         <f aca="false">J250/8</f>
-        <v>20</v>
+        <v>14.75</v>
       </c>
       <c r="L250" s="25" t="n">
         <f aca="false">J250/16</f>
-        <v>10</v>
+        <v>7.375</v>
       </c>
       <c r="M250" s="25" t="n">
         <f aca="false">J250/32</f>
+        <v>3.6875</v>
+      </c>
+      <c r="N250" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O250" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P250" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="N250" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="O250" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P250" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q250" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>427</v>
+      <c r="Q250" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B251" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="C251" s="39" t="s">
+        <v>431</v>
       </c>
       <c r="D251" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E251" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F251" s="33"/>
+      <c r="F251" s="40"/>
       <c r="G251" s="33" t="n">
         <v>0</v>
       </c>
@@ -12563,47 +12554,47 @@
       </c>
       <c r="J251" s="37" t="n">
         <f aca="false">J250+D250</f>
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="K251" s="25" t="n">
         <f aca="false">J251/8</f>
-        <v>21</v>
+        <v>15.125</v>
       </c>
       <c r="L251" s="25" t="n">
         <f aca="false">J251/16</f>
-        <v>10.5</v>
+        <v>7.5625</v>
       </c>
       <c r="M251" s="25" t="n">
         <f aca="false">J251/32</f>
-        <v>5.25</v>
+        <v>3.78125</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="O251" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="O251" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="P251" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q251" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B252" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>428</v>
+      <c r="P251" s="38" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q251" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B252" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="C252" s="39" t="s">
+        <v>433</v>
       </c>
       <c r="D252" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E252" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F252" s="33"/>
+      <c r="F252" s="40"/>
       <c r="G252" s="33" t="n">
         <v>0</v>
       </c>
@@ -12615,151 +12606,81 @@
       </c>
       <c r="J252" s="37" t="n">
         <f aca="false">J251+D251</f>
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="K252" s="25" t="n">
         <f aca="false">J252/8</f>
-        <v>22</v>
+        <v>15.25</v>
       </c>
       <c r="L252" s="25" t="n">
         <f aca="false">J252/16</f>
-        <v>11</v>
+        <v>7.625</v>
       </c>
       <c r="M252" s="25" t="n">
         <f aca="false">J252/32</f>
-        <v>5.5</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="O252" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P252" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q252" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B253" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="D253" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E253" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F253" s="33"/>
-      <c r="G253" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H253" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I253" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="J253" s="37" t="n">
-        <f aca="false">J252+D252</f>
-        <v>184</v>
-      </c>
-      <c r="K253" s="25" t="n">
-        <f aca="false">J253/8</f>
-        <v>23</v>
-      </c>
-      <c r="L253" s="25" t="n">
-        <f aca="false">J253/16</f>
-        <v>11.5</v>
-      </c>
-      <c r="M253" s="25" t="n">
-        <f aca="false">J253/32</f>
-        <v>5.75</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="O253" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P253" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q253" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D254" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E254" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F254" s="33"/>
-      <c r="G254" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H254" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I254" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="J254" s="37" t="n">
-        <f aca="false">J253+D253</f>
-        <v>192</v>
-      </c>
-      <c r="K254" s="25" t="n">
-        <f aca="false">J254/8</f>
-        <v>24</v>
-      </c>
-      <c r="L254" s="25" t="n">
-        <f aca="false">J254/16</f>
-        <v>12</v>
-      </c>
-      <c r="M254" s="25" t="n">
-        <f aca="false">J254/32</f>
+        <v>3.8125</v>
+      </c>
+      <c r="N252" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O252" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B253" s="21"/>
+      <c r="C253" s="39"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="33"/>
+      <c r="F253" s="40"/>
+      <c r="G253" s="33"/>
+      <c r="H253" s="33"/>
+      <c r="I253" s="33"/>
+      <c r="J253" s="37"/>
+      <c r="K253" s="25"/>
+      <c r="L253" s="25"/>
+      <c r="M253" s="25"/>
+    </row>
+    <row r="254" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B254" s="21"/>
+      <c r="C254" s="39"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="33"/>
+      <c r="F254" s="40"/>
+      <c r="G254" s="33"/>
+      <c r="H254" s="33"/>
+      <c r="I254" s="33"/>
+      <c r="J254" s="37"/>
+      <c r="K254" s="25"/>
+      <c r="L254" s="25"/>
+      <c r="M254" s="25"/>
+    </row>
+    <row r="255" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B255" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="C255" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="D255" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="N254" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="O254" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P254" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q254" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B255" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D255" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="E255" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F255" s="33"/>
+      <c r="F255" s="40"/>
       <c r="G255" s="33" t="n">
         <v>0</v>
       </c>
@@ -12770,50 +12691,50 @@
         <v>405</v>
       </c>
       <c r="J255" s="37" t="n">
-        <f aca="false">J254+D254</f>
-        <v>200</v>
+        <f aca="false">J242</f>
+        <v>96</v>
       </c>
       <c r="K255" s="25" t="n">
         <f aca="false">J255/8</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L255" s="25" t="n">
         <f aca="false">J255/16</f>
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="M255" s="25" t="n">
         <f aca="false">J255/32</f>
-        <v>6.25</v>
-      </c>
-      <c r="N255" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="O255" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P255" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q255" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B256" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>432</v>
+        <v>3</v>
+      </c>
+      <c r="N255" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O255" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P255" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q255" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B256" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="C256" s="39" t="s">
+        <v>431</v>
       </c>
       <c r="D256" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E256" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F256" s="33"/>
-      <c r="G256" s="33" t="n">
-        <v>0</v>
+      <c r="F256" s="40"/>
+      <c r="G256" s="33" t="s">
+        <v>434</v>
       </c>
       <c r="H256" s="33" t="s">
         <v>27</v>
@@ -12823,51 +12744,49 @@
       </c>
       <c r="J256" s="37" t="n">
         <f aca="false">J255+D255</f>
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="K256" s="25" t="n">
         <f aca="false">J256/8</f>
-        <v>26</v>
+        <v>12.75</v>
       </c>
       <c r="L256" s="25" t="n">
         <f aca="false">J256/16</f>
-        <v>13</v>
+        <v>6.375</v>
       </c>
       <c r="M256" s="25" t="n">
         <f aca="false">J256/32</f>
-        <v>6.5</v>
+        <v>3.1875</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="O256" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="O256" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="P256" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q256" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B257" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>434</v>
+      <c r="P256" s="38" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q256" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B257" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="C257" s="39" t="s">
+        <v>429</v>
       </c>
       <c r="D257" s="1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E257" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F257" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="G257" s="33" t="n">
-        <v>0</v>
+      <c r="F257" s="40"/>
+      <c r="G257" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H257" s="33" t="s">
         <v>27</v>
@@ -12877,49 +12796,49 @@
       </c>
       <c r="J257" s="37" t="n">
         <f aca="false">J256+D256</f>
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="K257" s="25" t="n">
         <f aca="false">J257/8</f>
-        <v>27</v>
+        <v>12.875</v>
       </c>
       <c r="L257" s="25" t="n">
         <f aca="false">J257/16</f>
-        <v>13.5</v>
+        <v>6.4375</v>
       </c>
       <c r="M257" s="25" t="n">
         <f aca="false">J257/32</f>
-        <v>6.75</v>
+        <v>3.21875</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="O257" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="O257" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="P257" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q257" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B258" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>435</v>
+      <c r="P257" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q257" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B258" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="C258" s="39" t="s">
+        <v>427</v>
       </c>
       <c r="D258" s="1" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E258" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F258" s="33"/>
-      <c r="G258" s="33" t="n">
-        <v>0</v>
+      <c r="F258" s="40"/>
+      <c r="G258" s="33" t="s">
+        <v>436</v>
       </c>
       <c r="H258" s="33" t="s">
         <v>27</v>
@@ -12929,155 +12848,223 @@
       </c>
       <c r="J258" s="37" t="n">
         <f aca="false">J257+D257</f>
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="K258" s="25" t="n">
         <f aca="false">J258/8</f>
-        <v>29</v>
+        <v>13.25</v>
       </c>
       <c r="L258" s="25" t="n">
         <f aca="false">J258/16</f>
-        <v>14.5</v>
+        <v>6.625</v>
       </c>
       <c r="M258" s="25" t="n">
         <f aca="false">J258/32</f>
-        <v>7.25</v>
+        <v>3.3125</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O258" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P258" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q258" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F259" s="33"/>
-      <c r="G259" s="33"/>
-      <c r="H259" s="33"/>
-      <c r="I259" s="33"/>
+        <v>419</v>
+      </c>
+      <c r="O258" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P258" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q258" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B259" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="C259" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="D259" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E259" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F259" s="40"/>
+      <c r="G259" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="H259" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I259" s="33" t="s">
+        <v>405</v>
+      </c>
       <c r="J259" s="37" t="n">
         <f aca="false">J258+D258</f>
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="K259" s="25" t="n">
         <f aca="false">J259/8</f>
-        <v>32</v>
+        <v>13.75</v>
       </c>
       <c r="L259" s="25" t="n">
         <f aca="false">J259/16</f>
-        <v>16</v>
+        <v>6.875</v>
       </c>
       <c r="M259" s="25" t="n">
         <f aca="false">J259/32</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="K260" s="25"/>
-      <c r="L260" s="25"/>
-      <c r="M260" s="25"/>
-      <c r="N260" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="261" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B261" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C261" s="13" t="s">
+        <v>3.4375</v>
+      </c>
+      <c r="N259" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O259" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P259" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q259" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B260" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="C260" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="D260" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E260" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F260" s="40"/>
+      <c r="G260" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H260" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I260" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J260" s="37" t="n">
+        <f aca="false">J259+D259</f>
+        <v>114</v>
+      </c>
+      <c r="K260" s="25" t="n">
+        <f aca="false">J260/8</f>
+        <v>14.25</v>
+      </c>
+      <c r="L260" s="25" t="n">
+        <f aca="false">J260/16</f>
+        <v>7.125</v>
+      </c>
+      <c r="M260" s="25" t="n">
+        <f aca="false">J260/32</f>
+        <v>3.5625</v>
+      </c>
+      <c r="N260" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O260" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P260" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q260" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B261" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="C261" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="D261" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D261" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E261" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F261" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G261" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H261" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I261" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J261" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K261" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L261" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M261" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="N261" s="5"/>
-      <c r="O261" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="P261" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q261" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1" t="s">
-        <v>46</v>
+      <c r="E261" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F261" s="40"/>
+      <c r="G261" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H261" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I261" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J261" s="37" t="n">
+        <f aca="false">J260+D260</f>
+        <v>119</v>
+      </c>
+      <c r="K261" s="25" t="n">
+        <f aca="false">J261/8</f>
+        <v>14.875</v>
+      </c>
+      <c r="L261" s="25" t="n">
+        <f aca="false">J261/16</f>
+        <v>7.4375</v>
+      </c>
+      <c r="M261" s="25" t="n">
+        <f aca="false">J261/32</f>
+        <v>3.71875</v>
+      </c>
+      <c r="N261" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O261" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P261" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q261" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="38" t="s">
+        <v>58</v>
       </c>
       <c r="B262" s="21"/>
-      <c r="C262" s="21"/>
-      <c r="D262" s="21"/>
-      <c r="E262" s="21"/>
-      <c r="F262" s="21"/>
-      <c r="G262" s="21"/>
-      <c r="H262" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I262" s="22"/>
-      <c r="N262" s="38" t="s">
+      <c r="C262" s="39"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="33"/>
+      <c r="F262" s="40"/>
+      <c r="G262" s="33"/>
+      <c r="H262" s="33"/>
+      <c r="I262" s="33"/>
+      <c r="J262" s="37"/>
+      <c r="K262" s="25"/>
+      <c r="L262" s="25"/>
+      <c r="M262" s="25"/>
+      <c r="N262" s="0"/>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B263" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="O262" s="5"/>
-    </row>
-    <row r="263" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="C263" s="39" t="s">
-        <v>439</v>
+      <c r="C263" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="D263" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E263" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F263" s="40"/>
-      <c r="G263" s="33" t="n">
-        <v>0</v>
+      <c r="F263" s="33"/>
+      <c r="G263" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H263" s="33" t="s">
         <v>27</v>
@@ -13085,51 +13072,51 @@
       <c r="I263" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="J263" s="4" t="n">
-        <f aca="false">J259</f>
-        <v>256</v>
+      <c r="J263" s="37" t="n">
+        <f aca="false">J252+D252</f>
+        <v>128</v>
       </c>
       <c r="K263" s="25" t="n">
         <f aca="false">J263/8</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L263" s="25" t="n">
         <f aca="false">J263/16</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M263" s="25" t="n">
         <f aca="false">J263/32</f>
-        <v>8</v>
-      </c>
-      <c r="N263" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="O263" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P263" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q263" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="C264" s="39" t="s">
-        <v>441</v>
+        <v>4</v>
+      </c>
+      <c r="N263" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O263" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P263" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q263" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B264" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="D264" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E264" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F264" s="40"/>
-      <c r="G264" s="33" t="n">
-        <v>0</v>
+      <c r="F264" s="33"/>
+      <c r="G264" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H264" s="33" t="s">
         <v>27</v>
@@ -13139,49 +13126,49 @@
       </c>
       <c r="J264" s="37" t="n">
         <f aca="false">J263+D263</f>
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="K264" s="25" t="n">
         <f aca="false">J264/8</f>
-        <v>33.125</v>
+        <v>17</v>
       </c>
       <c r="L264" s="25" t="n">
         <f aca="false">J264/16</f>
-        <v>16.5625</v>
+        <v>8.5</v>
       </c>
       <c r="M264" s="25" t="n">
         <f aca="false">J264/32</f>
-        <v>8.28125</v>
-      </c>
-      <c r="N264" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="O264" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P264" s="38" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="N264" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O264" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q264" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C265" s="39" t="s">
-        <v>443</v>
+      <c r="P264" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q264" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B265" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="D265" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E265" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F265" s="40"/>
-      <c r="G265" s="33" t="n">
-        <v>0</v>
+      <c r="F265" s="33"/>
+      <c r="G265" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H265" s="33" t="s">
         <v>27</v>
@@ -13191,49 +13178,49 @@
       </c>
       <c r="J265" s="37" t="n">
         <f aca="false">J264+D264</f>
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="K265" s="25" t="n">
         <f aca="false">J265/8</f>
-        <v>33.75</v>
+        <v>18</v>
       </c>
       <c r="L265" s="25" t="n">
         <f aca="false">J265/16</f>
-        <v>16.875</v>
+        <v>9</v>
       </c>
       <c r="M265" s="25" t="n">
         <f aca="false">J265/32</f>
-        <v>8.4375</v>
-      </c>
-      <c r="N265" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="O265" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P265" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q265" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="C266" s="39" t="s">
-        <v>445</v>
+        <v>4.5</v>
+      </c>
+      <c r="N265" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O265" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P265" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q265" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B266" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>440</v>
       </c>
       <c r="D266" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E266" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F266" s="40"/>
-      <c r="G266" s="33" t="n">
-        <v>0</v>
+      <c r="F266" s="33"/>
+      <c r="G266" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H266" s="33" t="s">
         <v>27</v>
@@ -13243,49 +13230,49 @@
       </c>
       <c r="J266" s="37" t="n">
         <f aca="false">J265+D265</f>
-        <v>274</v>
+        <v>152</v>
       </c>
       <c r="K266" s="25" t="n">
         <f aca="false">J266/8</f>
-        <v>34.25</v>
+        <v>19</v>
       </c>
       <c r="L266" s="25" t="n">
         <f aca="false">J266/16</f>
-        <v>17.125</v>
+        <v>9.5</v>
       </c>
       <c r="M266" s="25" t="n">
         <f aca="false">J266/32</f>
-        <v>8.5625</v>
-      </c>
-      <c r="N266" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="O266" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P266" s="38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q266" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="C267" s="39" t="s">
-        <v>447</v>
+        <v>4.75</v>
+      </c>
+      <c r="N266" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O266" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P266" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q266" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B267" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>441</v>
       </c>
       <c r="D267" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E267" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F267" s="40"/>
-      <c r="G267" s="33" t="n">
-        <v>0</v>
+      <c r="F267" s="33"/>
+      <c r="G267" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H267" s="33" t="s">
         <v>27</v>
@@ -13295,49 +13282,49 @@
       </c>
       <c r="J267" s="37" t="n">
         <f aca="false">J266+D266</f>
-        <v>278</v>
+        <v>160</v>
       </c>
       <c r="K267" s="25" t="n">
         <f aca="false">J267/8</f>
-        <v>34.75</v>
+        <v>20</v>
       </c>
       <c r="L267" s="25" t="n">
         <f aca="false">J267/16</f>
-        <v>17.375</v>
+        <v>10</v>
       </c>
       <c r="M267" s="25" t="n">
         <f aca="false">J267/32</f>
-        <v>8.6875</v>
-      </c>
-      <c r="N267" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="O267" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P267" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="Q267" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B268" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="C268" s="39" t="s">
-        <v>449</v>
+      <c r="N267" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O267" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P267" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q267" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B268" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>442</v>
       </c>
       <c r="D268" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E268" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F268" s="40"/>
-      <c r="G268" s="33" t="n">
-        <v>0</v>
+      <c r="F268" s="33"/>
+      <c r="G268" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H268" s="33" t="s">
         <v>27</v>
@@ -13347,49 +13334,49 @@
       </c>
       <c r="J268" s="37" t="n">
         <f aca="false">J267+D267</f>
-        <v>281</v>
+        <v>168</v>
       </c>
       <c r="K268" s="25" t="n">
         <f aca="false">J268/8</f>
-        <v>35.125</v>
+        <v>21</v>
       </c>
       <c r="L268" s="25" t="n">
         <f aca="false">J268/16</f>
-        <v>17.5625</v>
+        <v>10.5</v>
       </c>
       <c r="M268" s="25" t="n">
         <f aca="false">J268/32</f>
-        <v>8.78125</v>
-      </c>
-      <c r="N268" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="O268" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P268" s="38" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q268" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B269" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="C269" s="39" t="s">
-        <v>451</v>
+        <v>5.25</v>
+      </c>
+      <c r="N268" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O268" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P268" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q268" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B269" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="D269" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E269" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F269" s="40"/>
-      <c r="G269" s="33" t="n">
-        <v>0</v>
+      <c r="F269" s="33"/>
+      <c r="G269" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H269" s="33" t="s">
         <v>27</v>
@@ -13399,83 +13386,153 @@
       </c>
       <c r="J269" s="37" t="n">
         <f aca="false">J268+D268</f>
-        <v>282</v>
+        <v>176</v>
       </c>
       <c r="K269" s="25" t="n">
         <f aca="false">J269/8</f>
-        <v>35.25</v>
+        <v>22</v>
       </c>
       <c r="L269" s="25" t="n">
         <f aca="false">J269/16</f>
-        <v>17.625</v>
+        <v>11</v>
       </c>
       <c r="M269" s="25" t="n">
         <f aca="false">J269/32</f>
-        <v>8.8125</v>
-      </c>
-      <c r="N269" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="O269" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P269" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q269" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B270" s="21"/>
-      <c r="C270" s="39"/>
-      <c r="D270" s="1"/>
-      <c r="E270" s="33"/>
-      <c r="F270" s="40"/>
-      <c r="G270" s="33"/>
-      <c r="H270" s="33"/>
-      <c r="I270" s="33"/>
-      <c r="J270" s="37"/>
-      <c r="K270" s="25"/>
-      <c r="L270" s="25"/>
-      <c r="M270" s="25"/>
-    </row>
-    <row r="271" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B271" s="21"/>
-      <c r="C271" s="39"/>
-      <c r="D271" s="1"/>
-      <c r="E271" s="33"/>
-      <c r="F271" s="40"/>
-      <c r="G271" s="33"/>
-      <c r="H271" s="33"/>
-      <c r="I271" s="33"/>
-      <c r="J271" s="37"/>
-      <c r="K271" s="25"/>
-      <c r="L271" s="25"/>
-      <c r="M271" s="25"/>
-    </row>
-    <row r="272" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="C272" s="39" t="s">
-        <v>451</v>
+        <v>5.5</v>
+      </c>
+      <c r="N269" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O269" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P269" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q269" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B270" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D270" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E270" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F270" s="33"/>
+      <c r="G270" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H270" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I270" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J270" s="37" t="n">
+        <f aca="false">J269+D269</f>
+        <v>184</v>
+      </c>
+      <c r="K270" s="25" t="n">
+        <f aca="false">J270/8</f>
+        <v>23</v>
+      </c>
+      <c r="L270" s="25" t="n">
+        <f aca="false">J270/16</f>
+        <v>11.5</v>
+      </c>
+      <c r="M270" s="25" t="n">
+        <f aca="false">J270/32</f>
+        <v>5.75</v>
+      </c>
+      <c r="N270" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O270" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P270" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q270" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B271" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D271" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E271" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F271" s="33"/>
+      <c r="G271" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H271" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I271" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J271" s="37" t="n">
+        <f aca="false">J270+D270</f>
+        <v>192</v>
+      </c>
+      <c r="K271" s="25" t="n">
+        <f aca="false">J271/8</f>
+        <v>24</v>
+      </c>
+      <c r="L271" s="25" t="n">
+        <f aca="false">J271/16</f>
+        <v>12</v>
+      </c>
+      <c r="M271" s="25" t="n">
+        <f aca="false">J271/32</f>
+        <v>6</v>
+      </c>
+      <c r="N271" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O271" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P271" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q271" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B272" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>446</v>
       </c>
       <c r="D272" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E272" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F272" s="40"/>
-      <c r="G272" s="33" t="n">
-        <v>0</v>
+      <c r="F272" s="33"/>
+      <c r="G272" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H272" s="33" t="s">
         <v>27</v>
@@ -13484,49 +13541,50 @@
         <v>405</v>
       </c>
       <c r="J272" s="37" t="n">
-        <v>224</v>
+        <f aca="false">J271+D271</f>
+        <v>200</v>
       </c>
       <c r="K272" s="25" t="n">
         <f aca="false">J272/8</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L272" s="25" t="n">
         <f aca="false">J272/16</f>
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="M272" s="25" t="n">
         <f aca="false">J272/32</f>
-        <v>7</v>
-      </c>
-      <c r="N272" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="O272" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P272" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q272" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="C273" s="39" t="s">
-        <v>449</v>
+        <v>6.25</v>
+      </c>
+      <c r="N272" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O272" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P272" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q272" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B273" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="D273" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E273" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F273" s="40"/>
-      <c r="G273" s="33" t="n">
-        <v>0</v>
+      <c r="F273" s="33"/>
+      <c r="G273" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H273" s="33" t="s">
         <v>27</v>
@@ -13536,49 +13594,51 @@
       </c>
       <c r="J273" s="37" t="n">
         <f aca="false">J272+D272</f>
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="K273" s="25" t="n">
         <f aca="false">J273/8</f>
-        <v>28.75</v>
+        <v>26</v>
       </c>
       <c r="L273" s="25" t="n">
         <f aca="false">J273/16</f>
-        <v>14.375</v>
+        <v>13</v>
       </c>
       <c r="M273" s="25" t="n">
         <f aca="false">J273/32</f>
-        <v>7.1875</v>
-      </c>
-      <c r="N273" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="O273" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P273" s="38" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q273" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="C274" s="39" t="s">
-        <v>447</v>
+        <v>6.5</v>
+      </c>
+      <c r="N273" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O273" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P273" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q273" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B274" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="D274" s="1" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E274" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F274" s="40"/>
-      <c r="G274" s="33" t="n">
-        <v>0</v>
+      <c r="F274" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G274" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H274" s="33" t="s">
         <v>27</v>
@@ -13588,47 +13648,47 @@
       </c>
       <c r="J274" s="37" t="n">
         <f aca="false">J273+D273</f>
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="K274" s="25" t="n">
         <f aca="false">J274/8</f>
-        <v>28.875</v>
+        <v>27</v>
       </c>
       <c r="L274" s="25" t="n">
         <f aca="false">J274/16</f>
-        <v>14.4375</v>
+        <v>13.5</v>
       </c>
       <c r="M274" s="25" t="n">
         <f aca="false">J274/32</f>
-        <v>7.21875</v>
-      </c>
-      <c r="N274" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="O274" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P274" s="38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q274" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="C275" s="39" t="s">
-        <v>445</v>
+        <v>6.75</v>
+      </c>
+      <c r="N274" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O274" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P274" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q274" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B275" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>450</v>
       </c>
       <c r="D275" s="1" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E275" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F275" s="40"/>
+      <c r="F275" s="33"/>
       <c r="G275" s="33" t="n">
         <v>0</v>
       </c>
@@ -13640,216 +13700,148 @@
       </c>
       <c r="J275" s="37" t="n">
         <f aca="false">J274+D274</f>
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K275" s="25" t="n">
         <f aca="false">J275/8</f>
-        <v>29.25</v>
+        <v>29</v>
       </c>
       <c r="L275" s="25" t="n">
         <f aca="false">J275/16</f>
-        <v>14.625</v>
+        <v>14.5</v>
       </c>
       <c r="M275" s="25" t="n">
         <f aca="false">J275/32</f>
-        <v>7.3125</v>
-      </c>
-      <c r="N275" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="O275" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P275" s="38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q275" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C276" s="39" t="s">
-        <v>443</v>
-      </c>
-      <c r="D276" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E276" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F276" s="40"/>
-      <c r="G276" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H276" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I276" s="33" t="s">
-        <v>405</v>
-      </c>
+        <v>7.25</v>
+      </c>
+      <c r="N275" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q275" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F276" s="33"/>
+      <c r="G276" s="33"/>
+      <c r="H276" s="33"/>
+      <c r="I276" s="33"/>
       <c r="J276" s="37" t="n">
         <f aca="false">J275+D275</f>
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="K276" s="25" t="n">
         <f aca="false">J276/8</f>
-        <v>29.75</v>
+        <v>32</v>
       </c>
       <c r="L276" s="25" t="n">
         <f aca="false">J276/16</f>
-        <v>14.875</v>
+        <v>16</v>
       </c>
       <c r="M276" s="25" t="n">
         <f aca="false">J276/32</f>
-        <v>7.4375</v>
-      </c>
-      <c r="N276" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="O276" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P276" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q276" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="C277" s="39" t="s">
-        <v>441</v>
-      </c>
-      <c r="D277" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E277" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F277" s="40"/>
-      <c r="G277" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H277" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I277" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="J277" s="37" t="n">
-        <f aca="false">J276+D276</f>
-        <v>242</v>
-      </c>
-      <c r="K277" s="25" t="n">
-        <f aca="false">J277/8</f>
-        <v>30.25</v>
-      </c>
-      <c r="L277" s="25" t="n">
-        <f aca="false">J277/16</f>
-        <v>15.125</v>
-      </c>
-      <c r="M277" s="25" t="n">
-        <f aca="false">J277/32</f>
-        <v>7.5625</v>
-      </c>
-      <c r="N277" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="O277" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P277" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q277" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="C278" s="39" t="s">
-        <v>439</v>
-      </c>
-      <c r="D278" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="K277" s="25"/>
+      <c r="L277" s="25"/>
+      <c r="M277" s="25"/>
+      <c r="N277" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B278" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E278" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F278" s="40"/>
-      <c r="G278" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H278" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I278" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="J278" s="37" t="n">
-        <f aca="false">J277+D277</f>
-        <v>247</v>
-      </c>
-      <c r="K278" s="25" t="n">
-        <f aca="false">J278/8</f>
-        <v>30.875</v>
-      </c>
-      <c r="L278" s="25" t="n">
-        <f aca="false">J278/16</f>
-        <v>15.4375</v>
-      </c>
-      <c r="M278" s="25" t="n">
-        <f aca="false">J278/32</f>
-        <v>7.71875</v>
-      </c>
-      <c r="N278" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="O278" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P278" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q278" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="38" t="s">
-        <v>58</v>
+      <c r="D278" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E278" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F278" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G278" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H278" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I278" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J278" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K278" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L278" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M278" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N278" s="5"/>
+      <c r="O278" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="P278" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q278" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B279" s="21"/>
-      <c r="C279" s="39"/>
-      <c r="D279" s="1"/>
-      <c r="E279" s="33"/>
-      <c r="F279" s="40"/>
-      <c r="G279" s="33"/>
-      <c r="H279" s="33"/>
-      <c r="I279" s="33"/>
-      <c r="J279" s="37"/>
-      <c r="K279" s="25"/>
-      <c r="L279" s="25"/>
-      <c r="M279" s="25"/>
-      <c r="N279" s="0"/>
-    </row>
-    <row r="280" s="38" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C279" s="21"/>
+      <c r="D279" s="21"/>
+      <c r="E279" s="21"/>
+      <c r="F279" s="21"/>
+      <c r="G279" s="21"/>
+      <c r="H279" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I279" s="22"/>
+      <c r="N279" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="O279" s="5"/>
+    </row>
+    <row r="280" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="21" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="C280" s="39" t="s">
         <v>453</v>
       </c>
       <c r="D280" s="1" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E280" s="33" t="s">
         <v>26</v>
@@ -13864,49 +13856,49 @@
       <c r="I280" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="J280" s="37" t="n">
-        <f aca="false">J269+D269</f>
-        <v>288</v>
+      <c r="J280" s="4" t="n">
+        <f aca="false">J276</f>
+        <v>256</v>
       </c>
       <c r="K280" s="25" t="n">
         <f aca="false">J280/8</f>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L280" s="25" t="n">
         <f aca="false">J280/16</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M280" s="25" t="n">
         <f aca="false">J280/32</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N280" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O280" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P280" s="38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q280" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="C281" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="C281" s="21" t="s">
-        <v>455</v>
-      </c>
       <c r="D281" s="1" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E281" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="F281" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="F281" s="40"/>
       <c r="G281" s="33" t="n">
         <v>0</v>
       </c>
@@ -13918,47 +13910,47 @@
       </c>
       <c r="J281" s="37" t="n">
         <f aca="false">J280+D280</f>
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="K281" s="25" t="n">
         <f aca="false">J281/8</f>
-        <v>40</v>
+        <v>33.125</v>
       </c>
       <c r="L281" s="25" t="n">
         <f aca="false">J281/16</f>
-        <v>20</v>
+        <v>16.5625</v>
       </c>
       <c r="M281" s="25" t="n">
         <f aca="false">J281/32</f>
-        <v>10</v>
+        <v>8.28125</v>
       </c>
       <c r="N281" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O281" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P281" s="38" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q281" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="C282" s="21" t="s">
-        <v>457</v>
+        <v>424</v>
+      </c>
+      <c r="C282" s="39" t="s">
+        <v>455</v>
       </c>
       <c r="D282" s="1" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E282" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F282" s="33"/>
+      <c r="F282" s="40"/>
       <c r="G282" s="33" t="n">
         <v>0</v>
       </c>
@@ -13970,47 +13962,47 @@
       </c>
       <c r="J282" s="37" t="n">
         <f aca="false">J281+D281</f>
-        <v>352</v>
+        <v>270</v>
       </c>
       <c r="K282" s="25" t="n">
         <f aca="false">J282/8</f>
-        <v>44</v>
+        <v>33.75</v>
       </c>
       <c r="L282" s="25" t="n">
         <f aca="false">J282/16</f>
-        <v>22</v>
+        <v>16.875</v>
       </c>
       <c r="M282" s="25" t="n">
         <f aca="false">J282/32</f>
-        <v>11</v>
+        <v>8.4375</v>
       </c>
       <c r="N282" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O282" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P282" s="38" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q282" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="C283" s="21" t="s">
-        <v>459</v>
+        <v>426</v>
+      </c>
+      <c r="C283" s="39" t="s">
+        <v>456</v>
       </c>
       <c r="D283" s="1" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E283" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="F283" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="F283" s="40"/>
       <c r="G283" s="33" t="n">
         <v>0</v>
       </c>
@@ -14022,47 +14014,47 @@
       </c>
       <c r="J283" s="37" t="n">
         <f aca="false">J282+D282</f>
-        <v>384</v>
+        <v>274</v>
       </c>
       <c r="K283" s="25" t="n">
         <f aca="false">J283/8</f>
-        <v>48</v>
+        <v>34.25</v>
       </c>
       <c r="L283" s="25" t="n">
         <f aca="false">J283/16</f>
-        <v>24</v>
+        <v>17.125</v>
       </c>
       <c r="M283" s="25" t="n">
         <f aca="false">J283/32</f>
-        <v>12</v>
+        <v>8.5625</v>
       </c>
       <c r="N283" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O283" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P283" s="38" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q283" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="C284" s="21" t="s">
-        <v>461</v>
+        <v>428</v>
+      </c>
+      <c r="C284" s="39" t="s">
+        <v>457</v>
       </c>
       <c r="D284" s="1" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E284" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F284" s="33"/>
+      <c r="F284" s="40"/>
       <c r="G284" s="33" t="n">
         <v>0</v>
       </c>
@@ -14074,49 +14066,49 @@
       </c>
       <c r="J284" s="37" t="n">
         <f aca="false">J283+D283</f>
-        <v>416</v>
+        <v>278</v>
       </c>
       <c r="K284" s="25" t="n">
         <f aca="false">J284/8</f>
-        <v>52</v>
+        <v>34.75</v>
       </c>
       <c r="L284" s="25" t="n">
         <f aca="false">J284/16</f>
-        <v>26</v>
+        <v>17.375</v>
       </c>
       <c r="M284" s="25" t="n">
         <f aca="false">J284/32</f>
-        <v>13</v>
+        <v>8.6875</v>
       </c>
       <c r="N284" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O284" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P284" s="38" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q284" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="C285" s="21" t="s">
-        <v>463</v>
+        <v>430</v>
+      </c>
+      <c r="C285" s="39" t="s">
+        <v>458</v>
       </c>
       <c r="D285" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E285" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F285" s="33"/>
-      <c r="G285" s="33" t="n">
-        <v>0</v>
+      <c r="F285" s="40"/>
+      <c r="G285" s="33" t="s">
+        <v>434</v>
       </c>
       <c r="H285" s="33" t="s">
         <v>27</v>
@@ -14126,47 +14118,47 @@
       </c>
       <c r="J285" s="37" t="n">
         <f aca="false">J284+D284</f>
-        <v>448</v>
+        <v>281</v>
       </c>
       <c r="K285" s="25" t="n">
         <f aca="false">J285/8</f>
-        <v>56</v>
+        <v>35.125</v>
       </c>
       <c r="L285" s="25" t="n">
         <f aca="false">J285/16</f>
-        <v>28</v>
+        <v>17.5625</v>
       </c>
       <c r="M285" s="25" t="n">
         <f aca="false">J285/32</f>
-        <v>14</v>
+        <v>8.78125</v>
       </c>
       <c r="N285" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O285" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P285" s="38" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q285" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="C286" s="21" t="s">
-        <v>465</v>
+        <v>432</v>
+      </c>
+      <c r="C286" s="39" t="s">
+        <v>459</v>
       </c>
       <c r="D286" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E286" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F286" s="33"/>
+      <c r="F286" s="40"/>
       <c r="G286" s="33" t="n">
         <v>0</v>
       </c>
@@ -14178,151 +14170,81 @@
       </c>
       <c r="J286" s="37" t="n">
         <f aca="false">J285+D285</f>
-        <v>456</v>
+        <v>282</v>
       </c>
       <c r="K286" s="25" t="n">
         <f aca="false">J286/8</f>
-        <v>57</v>
+        <v>35.25</v>
       </c>
       <c r="L286" s="25" t="n">
         <f aca="false">J286/16</f>
-        <v>28.5</v>
+        <v>17.625</v>
       </c>
       <c r="M286" s="25" t="n">
         <f aca="false">J286/32</f>
-        <v>14.25</v>
+        <v>8.8125</v>
       </c>
       <c r="N286" s="38" t="s">
-        <v>437</v>
+        <v>29</v>
       </c>
       <c r="O286" s="38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P286" s="38" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q286" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B287" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="C287" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="D287" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E287" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F287" s="33"/>
-      <c r="G287" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H287" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I287" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="J287" s="37" t="n">
-        <f aca="false">J286+D286</f>
-        <v>464</v>
-      </c>
-      <c r="K287" s="25" t="n">
-        <f aca="false">J287/8</f>
+    <row r="287" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="L287" s="25" t="n">
-        <f aca="false">J287/16</f>
-        <v>29</v>
-      </c>
-      <c r="M287" s="25" t="n">
-        <f aca="false">J287/32</f>
-        <v>14.5</v>
-      </c>
-      <c r="N287" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="O287" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P287" s="38" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q287" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B288" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="C288" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="D288" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E288" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F288" s="33"/>
-      <c r="G288" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H288" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I288" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="J288" s="37" t="n">
-        <f aca="false">J287+D287</f>
-        <v>472</v>
-      </c>
-      <c r="K288" s="25" t="n">
-        <f aca="false">J288/8</f>
+      <c r="B287" s="21"/>
+      <c r="C287" s="39"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="33"/>
+      <c r="F287" s="40"/>
+      <c r="G287" s="33"/>
+      <c r="H287" s="33"/>
+      <c r="I287" s="33"/>
+      <c r="J287" s="37"/>
+      <c r="K287" s="25"/>
+      <c r="L287" s="25"/>
+      <c r="M287" s="25"/>
+    </row>
+    <row r="288" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L288" s="25" t="n">
-        <f aca="false">J288/16</f>
-        <v>29.5</v>
-      </c>
-      <c r="M288" s="25" t="n">
-        <f aca="false">J288/32</f>
-        <v>14.75</v>
-      </c>
-      <c r="N288" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="O288" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P288" s="38" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q288" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B288" s="21"/>
+      <c r="C288" s="39"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="33"/>
+      <c r="F288" s="40"/>
+      <c r="G288" s="33"/>
+      <c r="H288" s="33"/>
+      <c r="I288" s="33"/>
+      <c r="J288" s="37"/>
+      <c r="K288" s="25"/>
+      <c r="L288" s="25"/>
+      <c r="M288" s="25"/>
+    </row>
+    <row r="289" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B289" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="C289" s="21" t="s">
-        <v>471</v>
+        <v>432</v>
+      </c>
+      <c r="C289" s="39" t="s">
+        <v>459</v>
       </c>
       <c r="D289" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E289" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F289" s="33"/>
+      <c r="F289" s="40"/>
       <c r="G289" s="33" t="n">
         <v>0</v>
       </c>
@@ -14333,50 +14255,49 @@
         <v>405</v>
       </c>
       <c r="J289" s="37" t="n">
-        <f aca="false">J288+D288</f>
-        <v>480</v>
+        <v>224</v>
       </c>
       <c r="K289" s="25" t="n">
         <f aca="false">J289/8</f>
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="L289" s="25" t="n">
         <f aca="false">J289/16</f>
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M289" s="25" t="n">
         <f aca="false">J289/32</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N289" s="38" t="s">
-        <v>437</v>
+        <v>29</v>
       </c>
       <c r="O289" s="38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P289" s="38" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q289" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="C290" s="21" t="s">
-        <v>473</v>
+        <v>430</v>
+      </c>
+      <c r="C290" s="39" t="s">
+        <v>458</v>
       </c>
       <c r="D290" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E290" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F290" s="33"/>
-      <c r="G290" s="33" t="n">
-        <v>0</v>
+      <c r="F290" s="40"/>
+      <c r="G290" s="33" t="s">
+        <v>434</v>
       </c>
       <c r="H290" s="33" t="s">
         <v>27</v>
@@ -14386,49 +14307,49 @@
       </c>
       <c r="J290" s="37" t="n">
         <f aca="false">J289+D289</f>
-        <v>488</v>
+        <v>230</v>
       </c>
       <c r="K290" s="25" t="n">
         <f aca="false">J290/8</f>
-        <v>61</v>
+        <v>28.75</v>
       </c>
       <c r="L290" s="25" t="n">
         <f aca="false">J290/16</f>
-        <v>30.5</v>
+        <v>14.375</v>
       </c>
       <c r="M290" s="25" t="n">
         <f aca="false">J290/32</f>
-        <v>15.25</v>
+        <v>7.1875</v>
       </c>
       <c r="N290" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O290" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P290" s="38" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Q290" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="C291" s="21" t="s">
-        <v>475</v>
+        <v>428</v>
+      </c>
+      <c r="C291" s="39" t="s">
+        <v>457</v>
       </c>
       <c r="D291" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E291" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F291" s="33"/>
-      <c r="G291" s="33" t="n">
-        <v>0</v>
+      <c r="F291" s="40"/>
+      <c r="G291" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H291" s="33" t="s">
         <v>27</v>
@@ -14438,49 +14359,49 @@
       </c>
       <c r="J291" s="37" t="n">
         <f aca="false">J290+D290</f>
-        <v>496</v>
+        <v>231</v>
       </c>
       <c r="K291" s="25" t="n">
         <f aca="false">J291/8</f>
-        <v>62</v>
+        <v>28.875</v>
       </c>
       <c r="L291" s="25" t="n">
         <f aca="false">J291/16</f>
-        <v>31</v>
+        <v>14.4375</v>
       </c>
       <c r="M291" s="25" t="n">
         <f aca="false">J291/32</f>
-        <v>15.5</v>
+        <v>7.21875</v>
       </c>
       <c r="N291" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O291" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P291" s="38" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Q291" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="C292" s="21" t="s">
-        <v>477</v>
+        <v>426</v>
+      </c>
+      <c r="C292" s="39" t="s">
+        <v>456</v>
       </c>
       <c r="D292" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E292" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F292" s="33"/>
-      <c r="G292" s="33" t="n">
-        <v>0</v>
+      <c r="F292" s="40"/>
+      <c r="G292" s="33" t="s">
+        <v>436</v>
       </c>
       <c r="H292" s="33" t="s">
         <v>27</v>
@@ -14490,49 +14411,49 @@
       </c>
       <c r="J292" s="37" t="n">
         <f aca="false">J291+D291</f>
-        <v>504</v>
+        <v>234</v>
       </c>
       <c r="K292" s="25" t="n">
         <f aca="false">J292/8</f>
-        <v>63</v>
+        <v>29.25</v>
       </c>
       <c r="L292" s="25" t="n">
         <f aca="false">J292/16</f>
-        <v>31.5</v>
+        <v>14.625</v>
       </c>
       <c r="M292" s="25" t="n">
         <f aca="false">J292/32</f>
-        <v>15.75</v>
+        <v>7.3125</v>
       </c>
       <c r="N292" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O292" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P292" s="38" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q292" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="C293" s="21" t="s">
-        <v>479</v>
+        <v>424</v>
+      </c>
+      <c r="C293" s="39" t="s">
+        <v>455</v>
       </c>
       <c r="D293" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E293" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F293" s="33"/>
-      <c r="G293" s="33" t="n">
-        <v>0</v>
+      <c r="F293" s="40"/>
+      <c r="G293" s="33" t="s">
+        <v>436</v>
       </c>
       <c r="H293" s="33" t="s">
         <v>27</v>
@@ -14542,49 +14463,49 @@
       </c>
       <c r="J293" s="37" t="n">
         <f aca="false">J292+D292</f>
-        <v>512</v>
+        <v>238</v>
       </c>
       <c r="K293" s="25" t="n">
         <f aca="false">J293/8</f>
-        <v>64</v>
+        <v>29.75</v>
       </c>
       <c r="L293" s="25" t="n">
         <f aca="false">J293/16</f>
-        <v>32</v>
+        <v>14.875</v>
       </c>
       <c r="M293" s="25" t="n">
         <f aca="false">J293/32</f>
-        <v>16</v>
+        <v>7.4375</v>
       </c>
       <c r="N293" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O293" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P293" s="38" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="Q293" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="C294" s="21" t="s">
-        <v>481</v>
+        <v>422</v>
+      </c>
+      <c r="C294" s="39" t="s">
+        <v>454</v>
       </c>
       <c r="D294" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E294" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F294" s="33"/>
-      <c r="G294" s="33" t="n">
-        <v>0</v>
+      <c r="F294" s="40"/>
+      <c r="G294" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H294" s="33" t="s">
         <v>27</v>
@@ -14594,49 +14515,49 @@
       </c>
       <c r="J294" s="37" t="n">
         <f aca="false">J293+D293</f>
-        <v>520</v>
+        <v>242</v>
       </c>
       <c r="K294" s="25" t="n">
         <f aca="false">J294/8</f>
-        <v>65</v>
+        <v>30.25</v>
       </c>
       <c r="L294" s="25" t="n">
         <f aca="false">J294/16</f>
-        <v>32.5</v>
+        <v>15.125</v>
       </c>
       <c r="M294" s="25" t="n">
         <f aca="false">J294/32</f>
-        <v>16.25</v>
+        <v>7.5625</v>
       </c>
       <c r="N294" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O294" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P294" s="38" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="Q294" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="C295" s="21" t="s">
-        <v>483</v>
+        <v>420</v>
+      </c>
+      <c r="C295" s="39" t="s">
+        <v>453</v>
       </c>
       <c r="D295" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E295" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F295" s="33"/>
-      <c r="G295" s="33" t="n">
-        <v>0</v>
+      <c r="F295" s="40"/>
+      <c r="G295" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H295" s="33" t="s">
         <v>27</v>
@@ -14646,101 +14567,67 @@
       </c>
       <c r="J295" s="37" t="n">
         <f aca="false">J294+D294</f>
-        <v>528</v>
+        <v>247</v>
       </c>
       <c r="K295" s="25" t="n">
         <f aca="false">J295/8</f>
-        <v>66</v>
+        <v>30.875</v>
       </c>
       <c r="L295" s="25" t="n">
         <f aca="false">J295/16</f>
-        <v>33</v>
+        <v>15.4375</v>
       </c>
       <c r="M295" s="25" t="n">
         <f aca="false">J295/32</f>
-        <v>16.5</v>
+        <v>7.71875</v>
       </c>
       <c r="N295" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O295" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P295" s="38" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="Q295" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="C296" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="D296" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E296" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F296" s="33"/>
-      <c r="G296" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H296" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I296" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="J296" s="37" t="n">
-        <f aca="false">J295+D295</f>
-        <v>536</v>
-      </c>
-      <c r="K296" s="25" t="n">
-        <f aca="false">J296/8</f>
-        <v>67</v>
-      </c>
-      <c r="L296" s="25" t="n">
-        <f aca="false">J296/16</f>
-        <v>33.5</v>
-      </c>
-      <c r="M296" s="25" t="n">
-        <f aca="false">J296/32</f>
-        <v>16.75</v>
-      </c>
-      <c r="N296" s="38" t="s">
-        <v>437</v>
-      </c>
-      <c r="O296" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P296" s="38" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q296" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B296" s="21"/>
+      <c r="C296" s="39"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="33"/>
+      <c r="F296" s="40"/>
+      <c r="G296" s="33"/>
+      <c r="H296" s="33"/>
+      <c r="I296" s="33"/>
+      <c r="J296" s="37"/>
+      <c r="K296" s="25"/>
+      <c r="L296" s="25"/>
+      <c r="M296" s="25"/>
+      <c r="N296" s="0"/>
+    </row>
+    <row r="297" s="38" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="C297" s="21" t="s">
-        <v>487</v>
+        <v>460</v>
+      </c>
+      <c r="C297" s="39" t="s">
+        <v>461</v>
       </c>
       <c r="D297" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E297" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F297" s="33"/>
-      <c r="G297" s="33" t="n">
-        <v>0</v>
+      <c r="F297" s="40"/>
+      <c r="G297" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H297" s="33" t="s">
         <v>27</v>
@@ -14749,29 +14636,29 @@
         <v>405</v>
       </c>
       <c r="J297" s="37" t="n">
-        <f aca="false">J296+D296</f>
-        <v>544</v>
+        <f aca="false">J286+D286</f>
+        <v>288</v>
       </c>
       <c r="K297" s="25" t="n">
         <f aca="false">J297/8</f>
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="L297" s="25" t="n">
         <f aca="false">J297/16</f>
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M297" s="25" t="n">
         <f aca="false">J297/32</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N297" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O297" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P297" s="38" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Q297" s="38" t="n">
         <v>0</v>
@@ -14779,20 +14666,20 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="21" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="C298" s="21" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="D298" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E298" s="33" t="s">
-        <v>26</v>
+        <v>345</v>
       </c>
       <c r="F298" s="33"/>
-      <c r="G298" s="33" t="n">
-        <v>0</v>
+      <c r="G298" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H298" s="33" t="s">
         <v>27</v>
@@ -14802,28 +14689,28 @@
       </c>
       <c r="J298" s="37" t="n">
         <f aca="false">J297+D297</f>
-        <v>552</v>
+        <v>320</v>
       </c>
       <c r="K298" s="25" t="n">
         <f aca="false">J298/8</f>
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="L298" s="25" t="n">
         <f aca="false">J298/16</f>
-        <v>34.5</v>
+        <v>20</v>
       </c>
       <c r="M298" s="25" t="n">
         <f aca="false">J298/32</f>
-        <v>17.25</v>
+        <v>10</v>
       </c>
       <c r="N298" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O298" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P298" s="38" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="Q298" s="38" t="n">
         <v>0</v>
@@ -14831,20 +14718,20 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="21" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="C299" s="21" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="D299" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E299" s="33" t="s">
         <v>26</v>
       </c>
       <c r="F299" s="33"/>
-      <c r="G299" s="33" t="n">
-        <v>0</v>
+      <c r="G299" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H299" s="33" t="s">
         <v>27</v>
@@ -14854,28 +14741,28 @@
       </c>
       <c r="J299" s="37" t="n">
         <f aca="false">J298+D298</f>
-        <v>560</v>
+        <v>352</v>
       </c>
       <c r="K299" s="25" t="n">
         <f aca="false">J299/8</f>
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="L299" s="25" t="n">
         <f aca="false">J299/16</f>
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M299" s="25" t="n">
         <f aca="false">J299/32</f>
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="N299" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O299" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P299" s="38" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="Q299" s="38" t="n">
         <v>0</v>
@@ -14883,20 +14770,20 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="21" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="C300" s="21" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="D300" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E300" s="33" t="s">
-        <v>26</v>
+        <v>345</v>
       </c>
       <c r="F300" s="33"/>
-      <c r="G300" s="33" t="n">
-        <v>0</v>
+      <c r="G300" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H300" s="33" t="s">
         <v>27</v>
@@ -14906,28 +14793,28 @@
       </c>
       <c r="J300" s="37" t="n">
         <f aca="false">J299+D299</f>
-        <v>568</v>
+        <v>384</v>
       </c>
       <c r="K300" s="25" t="n">
         <f aca="false">J300/8</f>
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="L300" s="25" t="n">
         <f aca="false">J300/16</f>
-        <v>35.5</v>
+        <v>24</v>
       </c>
       <c r="M300" s="25" t="n">
         <f aca="false">J300/32</f>
-        <v>17.75</v>
+        <v>12</v>
       </c>
       <c r="N300" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O300" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P300" s="38" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Q300" s="38" t="n">
         <v>0</v>
@@ -14935,20 +14822,20 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="21" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="C301" s="21" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="D301" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E301" s="33" t="s">
         <v>26</v>
       </c>
       <c r="F301" s="33"/>
-      <c r="G301" s="33" t="n">
-        <v>0</v>
+      <c r="G301" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H301" s="33" t="s">
         <v>27</v>
@@ -14958,28 +14845,28 @@
       </c>
       <c r="J301" s="37" t="n">
         <f aca="false">J300+D300</f>
-        <v>576</v>
+        <v>416</v>
       </c>
       <c r="K301" s="25" t="n">
         <f aca="false">J301/8</f>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="L301" s="25" t="n">
         <f aca="false">J301/16</f>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M301" s="25" t="n">
         <f aca="false">J301/32</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N301" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O301" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P301" s="38" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="Q301" s="38" t="n">
         <v>0</v>
@@ -14987,10 +14874,10 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="21" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="C302" s="21" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="D302" s="1" t="n">
         <v>8</v>
@@ -14999,8 +14886,8 @@
         <v>26</v>
       </c>
       <c r="F302" s="33"/>
-      <c r="G302" s="33" t="n">
-        <v>0</v>
+      <c r="G302" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H302" s="33" t="s">
         <v>27</v>
@@ -15010,28 +14897,28 @@
       </c>
       <c r="J302" s="37" t="n">
         <f aca="false">J301+D301</f>
-        <v>584</v>
+        <v>448</v>
       </c>
       <c r="K302" s="25" t="n">
         <f aca="false">J302/8</f>
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="L302" s="25" t="n">
         <f aca="false">J302/16</f>
-        <v>36.5</v>
+        <v>28</v>
       </c>
       <c r="M302" s="25" t="n">
         <f aca="false">J302/32</f>
-        <v>18.25</v>
+        <v>14</v>
       </c>
       <c r="N302" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O302" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P302" s="38" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="Q302" s="38" t="n">
         <v>0</v>
@@ -15039,10 +14926,10 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="21" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="C303" s="21" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="D303" s="1" t="n">
         <v>8</v>
@@ -15051,8 +14938,8 @@
         <v>26</v>
       </c>
       <c r="F303" s="33"/>
-      <c r="G303" s="33" t="n">
-        <v>0</v>
+      <c r="G303" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H303" s="33" t="s">
         <v>27</v>
@@ -15062,28 +14949,28 @@
       </c>
       <c r="J303" s="37" t="n">
         <f aca="false">J302+D302</f>
-        <v>592</v>
+        <v>456</v>
       </c>
       <c r="K303" s="25" t="n">
         <f aca="false">J303/8</f>
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="L303" s="25" t="n">
         <f aca="false">J303/16</f>
-        <v>37</v>
+        <v>28.5</v>
       </c>
       <c r="M303" s="25" t="n">
         <f aca="false">J303/32</f>
-        <v>18.5</v>
+        <v>14.25</v>
       </c>
       <c r="N303" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O303" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P303" s="38" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q303" s="38" t="n">
         <v>0</v>
@@ -15091,10 +14978,10 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="21" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="C304" s="21" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>8</v>
@@ -15103,8 +14990,8 @@
         <v>26</v>
       </c>
       <c r="F304" s="33"/>
-      <c r="G304" s="33" t="n">
-        <v>0</v>
+      <c r="G304" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H304" s="33" t="s">
         <v>27</v>
@@ -15114,28 +15001,28 @@
       </c>
       <c r="J304" s="37" t="n">
         <f aca="false">J303+D303</f>
-        <v>600</v>
+        <v>464</v>
       </c>
       <c r="K304" s="25" t="n">
         <f aca="false">J304/8</f>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="L304" s="25" t="n">
         <f aca="false">J304/16</f>
-        <v>37.5</v>
+        <v>29</v>
       </c>
       <c r="M304" s="25" t="n">
         <f aca="false">J304/32</f>
-        <v>18.75</v>
+        <v>14.5</v>
       </c>
       <c r="N304" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O304" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P304" s="38" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="Q304" s="38" t="n">
         <v>0</v>
@@ -15143,10 +15030,10 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="21" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="C305" s="21" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="D305" s="1" t="n">
         <v>8</v>
@@ -15155,8 +15042,8 @@
         <v>26</v>
       </c>
       <c r="F305" s="33"/>
-      <c r="G305" s="33" t="n">
-        <v>0</v>
+      <c r="G305" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H305" s="33" t="s">
         <v>27</v>
@@ -15166,28 +15053,28 @@
       </c>
       <c r="J305" s="37" t="n">
         <f aca="false">J304+D304</f>
-        <v>608</v>
+        <v>472</v>
       </c>
       <c r="K305" s="25" t="n">
         <f aca="false">J305/8</f>
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="L305" s="25" t="n">
         <f aca="false">J305/16</f>
-        <v>38</v>
+        <v>29.5</v>
       </c>
       <c r="M305" s="25" t="n">
         <f aca="false">J305/32</f>
-        <v>19</v>
+        <v>14.75</v>
       </c>
       <c r="N305" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O305" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P305" s="38" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="Q305" s="38" t="n">
         <v>0</v>
@@ -15195,10 +15082,10 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="21" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="C306" s="21" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="D306" s="1" t="n">
         <v>8</v>
@@ -15207,8 +15094,8 @@
         <v>26</v>
       </c>
       <c r="F306" s="33"/>
-      <c r="G306" s="33" t="n">
-        <v>0</v>
+      <c r="G306" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H306" s="33" t="s">
         <v>27</v>
@@ -15218,28 +15105,28 @@
       </c>
       <c r="J306" s="37" t="n">
         <f aca="false">J305+D305</f>
-        <v>616</v>
+        <v>480</v>
       </c>
       <c r="K306" s="25" t="n">
         <f aca="false">J306/8</f>
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="L306" s="25" t="n">
         <f aca="false">J306/16</f>
-        <v>38.5</v>
+        <v>30</v>
       </c>
       <c r="M306" s="25" t="n">
         <f aca="false">J306/32</f>
-        <v>19.25</v>
+        <v>15</v>
       </c>
       <c r="N306" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O306" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P306" s="38" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="Q306" s="38" t="n">
         <v>0</v>
@@ -15247,10 +15134,10 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="21" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="C307" s="21" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="D307" s="1" t="n">
         <v>8</v>
@@ -15259,8 +15146,8 @@
         <v>26</v>
       </c>
       <c r="F307" s="33"/>
-      <c r="G307" s="33" t="n">
-        <v>0</v>
+      <c r="G307" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H307" s="33" t="s">
         <v>27</v>
@@ -15270,28 +15157,28 @@
       </c>
       <c r="J307" s="37" t="n">
         <f aca="false">J306+D306</f>
-        <v>624</v>
+        <v>488</v>
       </c>
       <c r="K307" s="25" t="n">
         <f aca="false">J307/8</f>
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="L307" s="25" t="n">
         <f aca="false">J307/16</f>
-        <v>39</v>
+        <v>30.5</v>
       </c>
       <c r="M307" s="25" t="n">
         <f aca="false">J307/32</f>
-        <v>19.5</v>
+        <v>15.25</v>
       </c>
       <c r="N307" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O307" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P307" s="38" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="Q307" s="38" t="n">
         <v>0</v>
@@ -15299,10 +15186,10 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="21" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="C308" s="21" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="D308" s="1" t="n">
         <v>8</v>
@@ -15311,8 +15198,8 @@
         <v>26</v>
       </c>
       <c r="F308" s="33"/>
-      <c r="G308" s="33" t="n">
-        <v>0</v>
+      <c r="G308" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H308" s="33" t="s">
         <v>27</v>
@@ -15322,28 +15209,28 @@
       </c>
       <c r="J308" s="37" t="n">
         <f aca="false">J307+D307</f>
-        <v>632</v>
+        <v>496</v>
       </c>
       <c r="K308" s="25" t="n">
         <f aca="false">J308/8</f>
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="L308" s="25" t="n">
         <f aca="false">J308/16</f>
-        <v>39.5</v>
+        <v>31</v>
       </c>
       <c r="M308" s="25" t="n">
         <f aca="false">J308/32</f>
-        <v>19.75</v>
+        <v>15.5</v>
       </c>
       <c r="N308" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O308" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P308" s="38" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q308" s="38" t="n">
         <v>0</v>
@@ -15351,10 +15238,10 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="21" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="C309" s="21" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="D309" s="1" t="n">
         <v>8</v>
@@ -15363,8 +15250,8 @@
         <v>26</v>
       </c>
       <c r="F309" s="33"/>
-      <c r="G309" s="33" t="n">
-        <v>0</v>
+      <c r="G309" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H309" s="33" t="s">
         <v>27</v>
@@ -15374,28 +15261,28 @@
       </c>
       <c r="J309" s="37" t="n">
         <f aca="false">J308+D308</f>
-        <v>640</v>
+        <v>504</v>
       </c>
       <c r="K309" s="25" t="n">
         <f aca="false">J309/8</f>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="L309" s="25" t="n">
         <f aca="false">J309/16</f>
-        <v>40</v>
+        <v>31.5</v>
       </c>
       <c r="M309" s="25" t="n">
         <f aca="false">J309/32</f>
-        <v>20</v>
+        <v>15.75</v>
       </c>
       <c r="N309" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O309" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P309" s="38" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="Q309" s="38" t="n">
         <v>0</v>
@@ -15403,10 +15290,10 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="21" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="C310" s="21" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="D310" s="1" t="n">
         <v>8</v>
@@ -15415,8 +15302,8 @@
         <v>26</v>
       </c>
       <c r="F310" s="33"/>
-      <c r="G310" s="33" t="n">
-        <v>0</v>
+      <c r="G310" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H310" s="33" t="s">
         <v>27</v>
@@ -15426,28 +15313,28 @@
       </c>
       <c r="J310" s="37" t="n">
         <f aca="false">J309+D309</f>
-        <v>648</v>
+        <v>512</v>
       </c>
       <c r="K310" s="25" t="n">
         <f aca="false">J310/8</f>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="L310" s="25" t="n">
         <f aca="false">J310/16</f>
-        <v>40.5</v>
+        <v>32</v>
       </c>
       <c r="M310" s="25" t="n">
         <f aca="false">J310/32</f>
-        <v>20.25</v>
+        <v>16</v>
       </c>
       <c r="N310" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O310" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P310" s="38" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="Q310" s="38" t="n">
         <v>0</v>
@@ -15455,10 +15342,10 @@
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="21" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="C311" s="21" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="D311" s="1" t="n">
         <v>8</v>
@@ -15467,8 +15354,8 @@
         <v>26</v>
       </c>
       <c r="F311" s="33"/>
-      <c r="G311" s="33" t="n">
-        <v>0</v>
+      <c r="G311" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H311" s="33" t="s">
         <v>27</v>
@@ -15478,28 +15365,28 @@
       </c>
       <c r="J311" s="37" t="n">
         <f aca="false">J310+D310</f>
-        <v>656</v>
+        <v>520</v>
       </c>
       <c r="K311" s="25" t="n">
         <f aca="false">J311/8</f>
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="L311" s="25" t="n">
         <f aca="false">J311/16</f>
-        <v>41</v>
+        <v>32.5</v>
       </c>
       <c r="M311" s="25" t="n">
         <f aca="false">J311/32</f>
-        <v>20.5</v>
+        <v>16.25</v>
       </c>
       <c r="N311" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O311" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P311" s="38" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="Q311" s="38" t="n">
         <v>0</v>
@@ -15507,10 +15394,10 @@
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="21" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="C312" s="21" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="D312" s="1" t="n">
         <v>8</v>
@@ -15519,8 +15406,8 @@
         <v>26</v>
       </c>
       <c r="F312" s="33"/>
-      <c r="G312" s="33" t="n">
-        <v>0</v>
+      <c r="G312" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H312" s="33" t="s">
         <v>27</v>
@@ -15530,51 +15417,49 @@
       </c>
       <c r="J312" s="37" t="n">
         <f aca="false">J311+D311</f>
-        <v>664</v>
+        <v>528</v>
       </c>
       <c r="K312" s="25" t="n">
         <f aca="false">J312/8</f>
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="L312" s="25" t="n">
         <f aca="false">J312/16</f>
-        <v>41.5</v>
+        <v>33</v>
       </c>
       <c r="M312" s="25" t="n">
         <f aca="false">J312/32</f>
-        <v>20.75</v>
+        <v>16.5</v>
       </c>
       <c r="N312" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O312" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P312" s="38" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="Q312" s="38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B313" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>434</v>
+      <c r="B313" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="C313" s="21" t="s">
+        <v>493</v>
       </c>
       <c r="D313" s="1" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E313" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F313" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="G313" s="33" t="n">
-        <v>0</v>
+      <c r="F313" s="33"/>
+      <c r="G313" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H313" s="33" t="s">
         <v>27</v>
@@ -15584,49 +15469,49 @@
       </c>
       <c r="J313" s="37" t="n">
         <f aca="false">J312+D312</f>
-        <v>672</v>
+        <v>536</v>
       </c>
       <c r="K313" s="25" t="n">
         <f aca="false">J313/8</f>
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="L313" s="25" t="n">
         <f aca="false">J313/16</f>
-        <v>42</v>
+        <v>33.5</v>
       </c>
       <c r="M313" s="25" t="n">
         <f aca="false">J313/32</f>
-        <v>21</v>
+        <v>16.75</v>
       </c>
       <c r="N313" s="38" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="O313" s="38" t="n">
         <v>3</v>
       </c>
       <c r="P313" s="38" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="Q313" s="38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B314" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>354</v>
+      <c r="B314" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="C314" s="21" t="s">
+        <v>495</v>
       </c>
       <c r="D314" s="1" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E314" s="33" t="s">
-        <v>518</v>
+        <v>26</v>
       </c>
       <c r="F314" s="33"/>
-      <c r="G314" s="33" t="n">
-        <v>0</v>
+      <c r="G314" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H314" s="33" t="s">
         <v>27</v>
@@ -15636,157 +15521,257 @@
       </c>
       <c r="J314" s="37" t="n">
         <f aca="false">J313+D313</f>
-        <v>688</v>
+        <v>544</v>
       </c>
       <c r="K314" s="25" t="n">
         <f aca="false">J314/8</f>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="L314" s="25" t="n">
         <f aca="false">J314/16</f>
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M314" s="25" t="n">
         <f aca="false">J314/32</f>
-        <v>21.5</v>
+        <v>17</v>
       </c>
       <c r="N314" s="38" t="s">
-        <v>29</v>
+        <v>452</v>
       </c>
       <c r="O314" s="38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P314" s="38" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q314" s="38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="1" t="s">
-        <v>63</v>
+      <c r="B315" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="C315" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="D315" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E315" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="F315" s="33"/>
-      <c r="G315" s="33"/>
-      <c r="H315" s="33"/>
-      <c r="I315" s="33"/>
+      <c r="G315" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H315" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I315" s="33" t="s">
+        <v>405</v>
+      </c>
       <c r="J315" s="37" t="n">
         <f aca="false">J314+D314</f>
-        <v>704</v>
+        <v>552</v>
       </c>
       <c r="K315" s="25" t="n">
         <f aca="false">J315/8</f>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="L315" s="25" t="n">
         <f aca="false">J315/16</f>
-        <v>44</v>
+        <v>34.5</v>
       </c>
       <c r="M315" s="25" t="n">
         <f aca="false">J315/32</f>
-        <v>22</v>
+        <v>17.25</v>
+      </c>
+      <c r="N315" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="O315" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P315" s="38" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q315" s="38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="36" t="s">
-        <v>519</v>
+      <c r="B316" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="C316" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="D316" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E316" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="F316" s="33"/>
-      <c r="G316" s="33"/>
-      <c r="H316" s="33"/>
-      <c r="I316" s="33"/>
-      <c r="J316" s="37"/>
-      <c r="K316" s="25"/>
-      <c r="L316" s="25"/>
-      <c r="M316" s="25"/>
-      <c r="N316" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="317" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B317" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C317" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D317" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E317" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F317" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G317" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H317" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I317" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J317" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K317" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L317" s="15" t="s">
+      <c r="G316" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H316" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I316" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J316" s="37" t="n">
+        <f aca="false">J315+D315</f>
+        <v>560</v>
+      </c>
+      <c r="K316" s="25" t="n">
+        <f aca="false">J316/8</f>
+        <v>70</v>
+      </c>
+      <c r="L316" s="25" t="n">
+        <f aca="false">J316/16</f>
+        <v>35</v>
+      </c>
+      <c r="M316" s="25" t="n">
+        <f aca="false">J316/32</f>
+        <v>17.5</v>
+      </c>
+      <c r="N316" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="O316" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P316" s="38" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q316" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B317" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="C317" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="D317" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E317" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F317" s="33"/>
+      <c r="G317" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H317" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I317" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J317" s="37" t="n">
+        <f aca="false">J316+D316</f>
+        <v>568</v>
+      </c>
+      <c r="K317" s="25" t="n">
+        <f aca="false">J317/8</f>
+        <v>71</v>
+      </c>
+      <c r="L317" s="25" t="n">
+        <f aca="false">J317/16</f>
+        <v>35.5</v>
+      </c>
+      <c r="M317" s="25" t="n">
+        <f aca="false">J317/32</f>
+        <v>17.75</v>
+      </c>
+      <c r="N317" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="O317" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P317" s="38" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q317" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B318" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="C318" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="D318" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E318" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F318" s="33"/>
+      <c r="G318" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H318" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I318" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J318" s="37" t="n">
+        <f aca="false">J317+D317</f>
+        <v>576</v>
+      </c>
+      <c r="K318" s="25" t="n">
+        <f aca="false">J318/8</f>
+        <v>72</v>
+      </c>
+      <c r="L318" s="25" t="n">
+        <f aca="false">J318/16</f>
+        <v>36</v>
+      </c>
+      <c r="M318" s="25" t="n">
+        <f aca="false">J318/32</f>
         <v>18</v>
       </c>
-      <c r="M317" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="N317" s="5"/>
-      <c r="O317" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="P317" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q317" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="318" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B318" s="12"/>
-      <c r="C318" s="35"/>
-      <c r="D318" s="35"/>
-      <c r="E318" s="35"/>
-      <c r="F318" s="35"/>
-      <c r="G318" s="35"/>
-      <c r="H318" s="35"/>
-      <c r="I318" s="41"/>
-      <c r="J318" s="42"/>
-      <c r="N318" s="38"/>
-      <c r="O318" s="5"/>
-    </row>
-    <row r="319" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N318" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="O318" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P318" s="38" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q318" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="C319" s="39" t="s">
-        <v>520</v>
+        <v>504</v>
+      </c>
+      <c r="C319" s="21" t="s">
+        <v>505</v>
       </c>
       <c r="D319" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E319" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F319" s="40"/>
-      <c r="G319" s="33" t="n">
-        <v>0</v>
+      <c r="F319" s="33"/>
+      <c r="G319" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H319" s="33" t="s">
         <v>27</v>
@@ -15794,51 +15779,51 @@
       <c r="I319" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="J319" s="4" t="n">
-        <f aca="false">J315</f>
-        <v>704</v>
+      <c r="J319" s="37" t="n">
+        <f aca="false">J318+D318</f>
+        <v>584</v>
       </c>
       <c r="K319" s="25" t="n">
         <f aca="false">J319/8</f>
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="L319" s="25" t="n">
         <f aca="false">J319/16</f>
-        <v>44</v>
+        <v>36.5</v>
       </c>
       <c r="M319" s="25" t="n">
         <f aca="false">J319/32</f>
-        <v>22</v>
+        <v>18.25</v>
       </c>
       <c r="N319" s="38" t="s">
-        <v>521</v>
+        <v>452</v>
       </c>
       <c r="O319" s="38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P319" s="38" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="Q319" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="320" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="C320" s="39" t="s">
-        <v>522</v>
+        <v>506</v>
+      </c>
+      <c r="C320" s="21" t="s">
+        <v>507</v>
       </c>
       <c r="D320" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E320" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F320" s="40"/>
-      <c r="G320" s="33" t="n">
-        <v>0</v>
+      <c r="F320" s="33"/>
+      <c r="G320" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H320" s="33" t="s">
         <v>27</v>
@@ -15848,49 +15833,49 @@
       </c>
       <c r="J320" s="37" t="n">
         <f aca="false">J319+D319</f>
-        <v>713</v>
+        <v>592</v>
       </c>
       <c r="K320" s="25" t="n">
         <f aca="false">J320/8</f>
-        <v>89.125</v>
+        <v>74</v>
       </c>
       <c r="L320" s="25" t="n">
         <f aca="false">J320/16</f>
-        <v>44.5625</v>
+        <v>37</v>
       </c>
       <c r="M320" s="25" t="n">
         <f aca="false">J320/32</f>
-        <v>22.28125</v>
+        <v>18.5</v>
       </c>
       <c r="N320" s="38" t="s">
-        <v>521</v>
+        <v>452</v>
       </c>
       <c r="O320" s="38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P320" s="38" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Q320" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="321" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C321" s="39" t="s">
-        <v>523</v>
+        <v>508</v>
+      </c>
+      <c r="C321" s="21" t="s">
+        <v>509</v>
       </c>
       <c r="D321" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E321" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F321" s="40"/>
-      <c r="G321" s="33" t="n">
-        <v>0</v>
+      <c r="F321" s="33"/>
+      <c r="G321" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H321" s="33" t="s">
         <v>27</v>
@@ -15900,49 +15885,49 @@
       </c>
       <c r="J321" s="37" t="n">
         <f aca="false">J320+D320</f>
-        <v>718</v>
+        <v>600</v>
       </c>
       <c r="K321" s="25" t="n">
         <f aca="false">J321/8</f>
-        <v>89.75</v>
+        <v>75</v>
       </c>
       <c r="L321" s="25" t="n">
         <f aca="false">J321/16</f>
-        <v>44.875</v>
+        <v>37.5</v>
       </c>
       <c r="M321" s="25" t="n">
         <f aca="false">J321/32</f>
-        <v>22.4375</v>
+        <v>18.75</v>
       </c>
       <c r="N321" s="38" t="s">
-        <v>521</v>
+        <v>452</v>
       </c>
       <c r="O321" s="38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P321" s="38" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="Q321" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="322" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="C322" s="39" t="s">
-        <v>524</v>
+        <v>510</v>
+      </c>
+      <c r="C322" s="21" t="s">
+        <v>511</v>
       </c>
       <c r="D322" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E322" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F322" s="40"/>
-      <c r="G322" s="33" t="n">
-        <v>0</v>
+      <c r="F322" s="33"/>
+      <c r="G322" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H322" s="33" t="s">
         <v>27</v>
@@ -15952,49 +15937,49 @@
       </c>
       <c r="J322" s="37" t="n">
         <f aca="false">J321+D321</f>
-        <v>722</v>
+        <v>608</v>
       </c>
       <c r="K322" s="25" t="n">
         <f aca="false">J322/8</f>
-        <v>90.25</v>
+        <v>76</v>
       </c>
       <c r="L322" s="25" t="n">
         <f aca="false">J322/16</f>
-        <v>45.125</v>
+        <v>38</v>
       </c>
       <c r="M322" s="25" t="n">
         <f aca="false">J322/32</f>
-        <v>22.5625</v>
+        <v>19</v>
       </c>
       <c r="N322" s="38" t="s">
-        <v>521</v>
+        <v>452</v>
       </c>
       <c r="O322" s="38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P322" s="38" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="Q322" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="323" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="C323" s="39" t="s">
-        <v>525</v>
+        <v>512</v>
+      </c>
+      <c r="C323" s="21" t="s">
+        <v>513</v>
       </c>
       <c r="D323" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E323" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F323" s="40"/>
-      <c r="G323" s="33" t="n">
-        <v>0</v>
+      <c r="F323" s="33"/>
+      <c r="G323" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H323" s="33" t="s">
         <v>27</v>
@@ -16004,49 +15989,49 @@
       </c>
       <c r="J323" s="37" t="n">
         <f aca="false">J322+D322</f>
-        <v>726</v>
+        <v>616</v>
       </c>
       <c r="K323" s="25" t="n">
         <f aca="false">J323/8</f>
-        <v>90.75</v>
+        <v>77</v>
       </c>
       <c r="L323" s="25" t="n">
         <f aca="false">J323/16</f>
-        <v>45.375</v>
+        <v>38.5</v>
       </c>
       <c r="M323" s="25" t="n">
         <f aca="false">J323/32</f>
-        <v>22.6875</v>
+        <v>19.25</v>
       </c>
       <c r="N323" s="38" t="s">
-        <v>521</v>
+        <v>452</v>
       </c>
       <c r="O323" s="38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P323" s="38" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="Q323" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="324" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="C324" s="39" t="s">
-        <v>526</v>
+        <v>514</v>
+      </c>
+      <c r="C324" s="21" t="s">
+        <v>515</v>
       </c>
       <c r="D324" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E324" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F324" s="40"/>
-      <c r="G324" s="33" t="n">
-        <v>0</v>
+      <c r="F324" s="33"/>
+      <c r="G324" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H324" s="33" t="s">
         <v>27</v>
@@ -16056,49 +16041,49 @@
       </c>
       <c r="J324" s="37" t="n">
         <f aca="false">J323+D323</f>
-        <v>729</v>
+        <v>624</v>
       </c>
       <c r="K324" s="25" t="n">
         <f aca="false">J324/8</f>
-        <v>91.125</v>
+        <v>78</v>
       </c>
       <c r="L324" s="25" t="n">
         <f aca="false">J324/16</f>
-        <v>45.5625</v>
+        <v>39</v>
       </c>
       <c r="M324" s="25" t="n">
         <f aca="false">J324/32</f>
-        <v>22.78125</v>
+        <v>19.5</v>
       </c>
       <c r="N324" s="38" t="s">
-        <v>521</v>
+        <v>452</v>
       </c>
       <c r="O324" s="38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P324" s="38" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q324" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="325" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="C325" s="39" t="s">
-        <v>527</v>
+        <v>516</v>
+      </c>
+      <c r="C325" s="21" t="s">
+        <v>517</v>
       </c>
       <c r="D325" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E325" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F325" s="40"/>
-      <c r="G325" s="33" t="n">
-        <v>0</v>
+      <c r="F325" s="33"/>
+      <c r="G325" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H325" s="33" t="s">
         <v>27</v>
@@ -16108,83 +16093,153 @@
       </c>
       <c r="J325" s="37" t="n">
         <f aca="false">J324+D324</f>
-        <v>730</v>
+        <v>632</v>
       </c>
       <c r="K325" s="25" t="n">
         <f aca="false">J325/8</f>
-        <v>91.25</v>
+        <v>79</v>
       </c>
       <c r="L325" s="25" t="n">
         <f aca="false">J325/16</f>
-        <v>45.625</v>
+        <v>39.5</v>
       </c>
       <c r="M325" s="25" t="n">
         <f aca="false">J325/32</f>
-        <v>22.8125</v>
+        <v>19.75</v>
       </c>
       <c r="N325" s="38" t="s">
-        <v>29</v>
+        <v>452</v>
       </c>
       <c r="O325" s="38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P325" s="38" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q325" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="326" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B326" s="21"/>
-      <c r="C326" s="39"/>
-      <c r="D326" s="1"/>
-      <c r="E326" s="33"/>
-      <c r="F326" s="40"/>
-      <c r="G326" s="33"/>
-      <c r="H326" s="33"/>
-      <c r="I326" s="33"/>
-      <c r="J326" s="37"/>
-      <c r="K326" s="25"/>
-      <c r="L326" s="25"/>
-      <c r="M326" s="25"/>
-    </row>
-    <row r="327" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B327" s="21"/>
-      <c r="C327" s="39"/>
-      <c r="D327" s="1"/>
-      <c r="E327" s="33"/>
-      <c r="F327" s="40"/>
-      <c r="G327" s="33"/>
-      <c r="H327" s="33"/>
-      <c r="I327" s="33"/>
-      <c r="J327" s="37"/>
-      <c r="K327" s="25"/>
-      <c r="L327" s="25"/>
-      <c r="M327" s="25"/>
-    </row>
-    <row r="328" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B326" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="C326" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="D326" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E326" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F326" s="33"/>
+      <c r="G326" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H326" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I326" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J326" s="37" t="n">
+        <f aca="false">J325+D325</f>
+        <v>640</v>
+      </c>
+      <c r="K326" s="25" t="n">
+        <f aca="false">J326/8</f>
+        <v>80</v>
+      </c>
+      <c r="L326" s="25" t="n">
+        <f aca="false">J326/16</f>
+        <v>40</v>
+      </c>
+      <c r="M326" s="25" t="n">
+        <f aca="false">J326/32</f>
+        <v>20</v>
+      </c>
+      <c r="N326" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="O326" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P326" s="38" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q326" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B327" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="C327" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="D327" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E327" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F327" s="33"/>
+      <c r="G327" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H327" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I327" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J327" s="37" t="n">
+        <f aca="false">J326+D326</f>
+        <v>648</v>
+      </c>
+      <c r="K327" s="25" t="n">
+        <f aca="false">J327/8</f>
+        <v>81</v>
+      </c>
+      <c r="L327" s="25" t="n">
+        <f aca="false">J327/16</f>
+        <v>40.5</v>
+      </c>
+      <c r="M327" s="25" t="n">
+        <f aca="false">J327/32</f>
+        <v>20.25</v>
+      </c>
+      <c r="N327" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="O327" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P327" s="38" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q327" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="C328" s="39" t="s">
-        <v>527</v>
+        <v>522</v>
+      </c>
+      <c r="C328" s="21" t="s">
+        <v>523</v>
       </c>
       <c r="D328" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E328" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F328" s="40"/>
-      <c r="G328" s="33" t="n">
-        <v>0</v>
+      <c r="F328" s="33"/>
+      <c r="G328" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H328" s="33" t="s">
         <v>27</v>
@@ -16194,49 +16249,49 @@
       </c>
       <c r="J328" s="37" t="n">
         <f aca="false">J327+D327</f>
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="K328" s="25" t="n">
         <f aca="false">J328/8</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="L328" s="25" t="n">
         <f aca="false">J328/16</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="M328" s="25" t="n">
         <f aca="false">J328/32</f>
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="N328" s="38" t="s">
-        <v>29</v>
+        <v>452</v>
       </c>
       <c r="O328" s="38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P328" s="38" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q328" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="329" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="C329" s="39" t="s">
-        <v>526</v>
+        <v>524</v>
+      </c>
+      <c r="C329" s="21" t="s">
+        <v>525</v>
       </c>
       <c r="D329" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E329" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F329" s="40"/>
-      <c r="G329" s="33" t="n">
-        <v>0</v>
+      <c r="F329" s="33"/>
+      <c r="G329" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H329" s="33" t="s">
         <v>27</v>
@@ -16246,49 +16301,51 @@
       </c>
       <c r="J329" s="37" t="n">
         <f aca="false">J328+D328</f>
-        <v>6</v>
+        <v>664</v>
       </c>
       <c r="K329" s="25" t="n">
         <f aca="false">J329/8</f>
-        <v>0.75</v>
+        <v>83</v>
       </c>
       <c r="L329" s="25" t="n">
         <f aca="false">J329/16</f>
-        <v>0.375</v>
+        <v>41.5</v>
       </c>
       <c r="M329" s="25" t="n">
         <f aca="false">J329/32</f>
-        <v>0.1875</v>
+        <v>20.75</v>
       </c>
       <c r="N329" s="38" t="s">
-        <v>521</v>
+        <v>452</v>
       </c>
       <c r="O329" s="38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P329" s="38" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="Q329" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="330" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B330" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="C330" s="39" t="s">
-        <v>525</v>
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B330" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="D330" s="1" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E330" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F330" s="40"/>
-      <c r="G330" s="33" t="n">
-        <v>0</v>
+      <c r="F330" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G330" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H330" s="33" t="s">
         <v>27</v>
@@ -16298,47 +16355,47 @@
       </c>
       <c r="J330" s="37" t="n">
         <f aca="false">J329+D329</f>
-        <v>7</v>
+        <v>672</v>
       </c>
       <c r="K330" s="25" t="n">
         <f aca="false">J330/8</f>
-        <v>0.875</v>
+        <v>84</v>
       </c>
       <c r="L330" s="25" t="n">
         <f aca="false">J330/16</f>
-        <v>0.4375</v>
+        <v>42</v>
       </c>
       <c r="M330" s="25" t="n">
         <f aca="false">J330/32</f>
-        <v>0.21875</v>
+        <v>21</v>
       </c>
       <c r="N330" s="38" t="s">
-        <v>521</v>
+        <v>452</v>
       </c>
       <c r="O330" s="38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P330" s="38" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="Q330" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="331" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B331" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="C331" s="39" t="s">
-        <v>524</v>
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B331" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="D331" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E331" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F331" s="40"/>
+        <v>526</v>
+      </c>
+      <c r="F331" s="33"/>
       <c r="G331" s="33" t="n">
         <v>0</v>
       </c>
@@ -16350,218 +16407,150 @@
       </c>
       <c r="J331" s="37" t="n">
         <f aca="false">J330+D330</f>
-        <v>10</v>
+        <v>688</v>
       </c>
       <c r="K331" s="25" t="n">
         <f aca="false">J331/8</f>
-        <v>1.25</v>
+        <v>86</v>
       </c>
       <c r="L331" s="25" t="n">
         <f aca="false">J331/16</f>
-        <v>0.625</v>
+        <v>43</v>
       </c>
       <c r="M331" s="25" t="n">
         <f aca="false">J331/32</f>
-        <v>0.3125</v>
+        <v>21.5</v>
       </c>
       <c r="N331" s="38" t="s">
-        <v>521</v>
+        <v>29</v>
       </c>
       <c r="O331" s="38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P331" s="38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q331" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="332" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B332" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="C332" s="39" t="s">
-        <v>523</v>
-      </c>
-      <c r="D332" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E332" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F332" s="40"/>
-      <c r="G332" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H332" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I332" s="33" t="s">
-        <v>405</v>
-      </c>
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F332" s="33"/>
+      <c r="G332" s="33"/>
+      <c r="H332" s="33"/>
+      <c r="I332" s="33"/>
       <c r="J332" s="37" t="n">
         <f aca="false">J331+D331</f>
-        <v>14</v>
+        <v>704</v>
       </c>
       <c r="K332" s="25" t="n">
         <f aca="false">J332/8</f>
-        <v>1.75</v>
+        <v>88</v>
       </c>
       <c r="L332" s="25" t="n">
         <f aca="false">J332/16</f>
-        <v>0.875</v>
+        <v>44</v>
       </c>
       <c r="M332" s="25" t="n">
         <f aca="false">J332/32</f>
-        <v>0.4375</v>
-      </c>
-      <c r="N332" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="O332" s="38" t="n">
-        <v>4</v>
-      </c>
-      <c r="P332" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q332" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B333" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="C333" s="39" t="s">
-        <v>522</v>
-      </c>
-      <c r="D333" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E333" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F333" s="40"/>
-      <c r="G333" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H333" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I333" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="J333" s="37" t="n">
-        <f aca="false">J332+D332</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="F333" s="33"/>
+      <c r="G333" s="33"/>
+      <c r="H333" s="33"/>
+      <c r="I333" s="33"/>
+      <c r="J333" s="37"/>
+      <c r="K333" s="25"/>
+      <c r="L333" s="25"/>
+      <c r="M333" s="25"/>
+      <c r="N333" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="334" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B334" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C334" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D334" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E334" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F334" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G334" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H334" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I334" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J334" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K334" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L334" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K333" s="25" t="n">
-        <f aca="false">J333/8</f>
-        <v>2.25</v>
-      </c>
-      <c r="L333" s="25" t="n">
-        <f aca="false">J333/16</f>
-        <v>1.125</v>
-      </c>
-      <c r="M333" s="25" t="n">
-        <f aca="false">J333/32</f>
-        <v>0.5625</v>
-      </c>
-      <c r="N333" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="O333" s="38" t="n">
-        <v>4</v>
-      </c>
-      <c r="P333" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q333" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B334" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="C334" s="39" t="s">
-        <v>520</v>
-      </c>
-      <c r="D334" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="E334" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F334" s="40"/>
-      <c r="G334" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H334" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I334" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="J334" s="4" t="n">
-        <f aca="false">J330</f>
-        <v>7</v>
-      </c>
-      <c r="K334" s="25" t="n">
-        <f aca="false">J334/8</f>
-        <v>0.875</v>
-      </c>
-      <c r="L334" s="25" t="n">
-        <f aca="false">J334/16</f>
-        <v>0.4375</v>
-      </c>
-      <c r="M334" s="25" t="n">
-        <f aca="false">J334/32</f>
-        <v>0.21875</v>
-      </c>
-      <c r="N334" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="O334" s="38" t="n">
-        <v>4</v>
-      </c>
-      <c r="P334" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q334" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B335" s="21"/>
-      <c r="C335" s="39"/>
-      <c r="D335" s="1"/>
-      <c r="E335" s="33"/>
-      <c r="F335" s="40"/>
-      <c r="G335" s="33"/>
-      <c r="H335" s="33"/>
-      <c r="I335" s="33"/>
-      <c r="J335" s="37"/>
-      <c r="K335" s="25"/>
-      <c r="L335" s="25"/>
-      <c r="M335" s="25"/>
-      <c r="N335" s="38" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="336" s="38" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M334" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N334" s="5"/>
+      <c r="O334" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="P334" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q334" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="335" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B335" s="12"/>
+      <c r="C335" s="35"/>
+      <c r="D335" s="35"/>
+      <c r="E335" s="35"/>
+      <c r="F335" s="35"/>
+      <c r="G335" s="35"/>
+      <c r="H335" s="35"/>
+      <c r="I335" s="41"/>
+      <c r="J335" s="42"/>
+      <c r="N335" s="38"/>
+      <c r="O335" s="5"/>
+    </row>
+    <row r="336" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="21" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="C336" s="39" t="s">
         <v>528</v>
       </c>
       <c r="D336" s="1" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E336" s="33" t="s">
         <v>26</v>
@@ -16576,50 +16565,49 @@
       <c r="I336" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="J336" s="37" t="n">
-        <f aca="false">J325+D325</f>
-        <v>736</v>
+      <c r="J336" s="4" t="n">
+        <f aca="false">J332</f>
+        <v>704</v>
       </c>
       <c r="K336" s="25" t="n">
         <f aca="false">J336/8</f>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L336" s="25" t="n">
         <f aca="false">J336/16</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M336" s="25" t="n">
         <f aca="false">J336/32</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N336" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O336" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P336" s="38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q336" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="38"/>
+    <row r="337" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="21" t="s">
-        <v>529</v>
-      </c>
-      <c r="C337" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="C337" s="39" t="s">
         <v>530</v>
       </c>
       <c r="D337" s="1" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E337" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F337" s="33"/>
+      <c r="F337" s="40"/>
       <c r="G337" s="33" t="n">
         <v>0</v>
       </c>
@@ -16631,47 +16619,47 @@
       </c>
       <c r="J337" s="37" t="n">
         <f aca="false">J336+D336</f>
-        <v>768</v>
+        <v>713</v>
       </c>
       <c r="K337" s="25" t="n">
         <f aca="false">J337/8</f>
-        <v>96</v>
+        <v>89.125</v>
       </c>
       <c r="L337" s="25" t="n">
         <f aca="false">J337/16</f>
-        <v>48</v>
+        <v>44.5625</v>
       </c>
       <c r="M337" s="25" t="n">
         <f aca="false">J337/32</f>
-        <v>24</v>
+        <v>22.28125</v>
       </c>
       <c r="N337" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O337" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P337" s="38" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q337" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="C338" s="39" t="s">
         <v>531</v>
       </c>
-      <c r="C338" s="21" t="s">
-        <v>532</v>
-      </c>
       <c r="D338" s="1" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E338" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F338" s="33"/>
+      <c r="F338" s="40"/>
       <c r="G338" s="33" t="n">
         <v>0</v>
       </c>
@@ -16683,47 +16671,47 @@
       </c>
       <c r="J338" s="37" t="n">
         <f aca="false">J337+D337</f>
-        <v>800</v>
+        <v>718</v>
       </c>
       <c r="K338" s="25" t="n">
         <f aca="false">J338/8</f>
-        <v>100</v>
+        <v>89.75</v>
       </c>
       <c r="L338" s="25" t="n">
         <f aca="false">J338/16</f>
-        <v>50</v>
+        <v>44.875</v>
       </c>
       <c r="M338" s="25" t="n">
         <f aca="false">J338/32</f>
-        <v>25</v>
+        <v>22.4375</v>
       </c>
       <c r="N338" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O338" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P338" s="38" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q338" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="C339" s="21" t="s">
-        <v>534</v>
+        <v>426</v>
+      </c>
+      <c r="C339" s="39" t="s">
+        <v>532</v>
       </c>
       <c r="D339" s="1" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E339" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="F339" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="F339" s="40"/>
       <c r="G339" s="33" t="n">
         <v>0</v>
       </c>
@@ -16735,47 +16723,47 @@
       </c>
       <c r="J339" s="37" t="n">
         <f aca="false">J338+D338</f>
-        <v>832</v>
+        <v>722</v>
       </c>
       <c r="K339" s="25" t="n">
         <f aca="false">J339/8</f>
-        <v>104</v>
+        <v>90.25</v>
       </c>
       <c r="L339" s="25" t="n">
         <f aca="false">J339/16</f>
-        <v>52</v>
+        <v>45.125</v>
       </c>
       <c r="M339" s="25" t="n">
         <f aca="false">J339/32</f>
-        <v>26</v>
+        <v>22.5625</v>
       </c>
       <c r="N339" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O339" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P339" s="38" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q339" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="C340" s="21" t="s">
-        <v>536</v>
+        <v>428</v>
+      </c>
+      <c r="C340" s="39" t="s">
+        <v>533</v>
       </c>
       <c r="D340" s="1" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E340" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F340" s="33"/>
+      <c r="F340" s="40"/>
       <c r="G340" s="33" t="n">
         <v>0</v>
       </c>
@@ -16787,49 +16775,49 @@
       </c>
       <c r="J340" s="37" t="n">
         <f aca="false">J339+D339</f>
-        <v>864</v>
+        <v>726</v>
       </c>
       <c r="K340" s="25" t="n">
         <f aca="false">J340/8</f>
-        <v>108</v>
+        <v>90.75</v>
       </c>
       <c r="L340" s="25" t="n">
         <f aca="false">J340/16</f>
-        <v>54</v>
+        <v>45.375</v>
       </c>
       <c r="M340" s="25" t="n">
         <f aca="false">J340/32</f>
-        <v>27</v>
+        <v>22.6875</v>
       </c>
       <c r="N340" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O340" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P340" s="38" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q340" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="21" t="s">
-        <v>537</v>
-      </c>
-      <c r="C341" s="21" t="s">
-        <v>538</v>
+        <v>430</v>
+      </c>
+      <c r="C341" s="39" t="s">
+        <v>534</v>
       </c>
       <c r="D341" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E341" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F341" s="33"/>
-      <c r="G341" s="33" t="n">
-        <v>0</v>
+      <c r="F341" s="40"/>
+      <c r="G341" s="33" t="s">
+        <v>434</v>
       </c>
       <c r="H341" s="33" t="s">
         <v>27</v>
@@ -16839,47 +16827,47 @@
       </c>
       <c r="J341" s="37" t="n">
         <f aca="false">J340+D340</f>
-        <v>896</v>
+        <v>729</v>
       </c>
       <c r="K341" s="25" t="n">
         <f aca="false">J341/8</f>
-        <v>112</v>
+        <v>91.125</v>
       </c>
       <c r="L341" s="25" t="n">
         <f aca="false">J341/16</f>
-        <v>56</v>
+        <v>45.5625</v>
       </c>
       <c r="M341" s="25" t="n">
         <f aca="false">J341/32</f>
-        <v>28</v>
+        <v>22.78125</v>
       </c>
       <c r="N341" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O341" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P341" s="38" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q341" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="21" t="s">
-        <v>539</v>
-      </c>
-      <c r="C342" s="21" t="s">
-        <v>540</v>
+        <v>432</v>
+      </c>
+      <c r="C342" s="39" t="s">
+        <v>535</v>
       </c>
       <c r="D342" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E342" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F342" s="33"/>
+      <c r="F342" s="40"/>
       <c r="G342" s="33" t="n">
         <v>0</v>
       </c>
@@ -16891,151 +16879,81 @@
       </c>
       <c r="J342" s="37" t="n">
         <f aca="false">J341+D341</f>
-        <v>904</v>
+        <v>730</v>
       </c>
       <c r="K342" s="25" t="n">
         <f aca="false">J342/8</f>
-        <v>113</v>
+        <v>91.25</v>
       </c>
       <c r="L342" s="25" t="n">
         <f aca="false">J342/16</f>
-        <v>56.5</v>
+        <v>45.625</v>
       </c>
       <c r="M342" s="25" t="n">
         <f aca="false">J342/32</f>
-        <v>28.25</v>
+        <v>22.8125</v>
       </c>
       <c r="N342" s="38" t="s">
-        <v>521</v>
+        <v>29</v>
       </c>
       <c r="O342" s="38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P342" s="38" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q342" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B343" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="C343" s="21" t="s">
-        <v>542</v>
-      </c>
-      <c r="D343" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E343" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F343" s="33"/>
-      <c r="G343" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H343" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I343" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="J343" s="37" t="n">
-        <f aca="false">J342+D342</f>
-        <v>912</v>
-      </c>
-      <c r="K343" s="25" t="n">
-        <f aca="false">J343/8</f>
-        <v>114</v>
-      </c>
-      <c r="L343" s="25" t="n">
-        <f aca="false">J343/16</f>
-        <v>57</v>
-      </c>
-      <c r="M343" s="25" t="n">
-        <f aca="false">J343/32</f>
-        <v>28.5</v>
-      </c>
-      <c r="N343" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="O343" s="38" t="n">
-        <v>4</v>
-      </c>
-      <c r="P343" s="38" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q343" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B344" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="C344" s="21" t="s">
-        <v>544</v>
-      </c>
-      <c r="D344" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E344" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F344" s="33"/>
-      <c r="G344" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H344" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I344" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="J344" s="37" t="n">
-        <f aca="false">J343+D343</f>
-        <v>920</v>
-      </c>
-      <c r="K344" s="25" t="n">
-        <f aca="false">J344/8</f>
-        <v>115</v>
-      </c>
-      <c r="L344" s="25" t="n">
-        <f aca="false">J344/16</f>
-        <v>57.5</v>
-      </c>
-      <c r="M344" s="25" t="n">
-        <f aca="false">J344/32</f>
-        <v>28.75</v>
-      </c>
-      <c r="N344" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="O344" s="38" t="n">
-        <v>4</v>
-      </c>
-      <c r="P344" s="38" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q344" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B343" s="21"/>
+      <c r="C343" s="39"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="33"/>
+      <c r="F343" s="40"/>
+      <c r="G343" s="33"/>
+      <c r="H343" s="33"/>
+      <c r="I343" s="33"/>
+      <c r="J343" s="37"/>
+      <c r="K343" s="25"/>
+      <c r="L343" s="25"/>
+      <c r="M343" s="25"/>
+    </row>
+    <row r="344" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B344" s="21"/>
+      <c r="C344" s="39"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="33"/>
+      <c r="F344" s="40"/>
+      <c r="G344" s="33"/>
+      <c r="H344" s="33"/>
+      <c r="I344" s="33"/>
+      <c r="J344" s="37"/>
+      <c r="K344" s="25"/>
+      <c r="L344" s="25"/>
+      <c r="M344" s="25"/>
+    </row>
+    <row r="345" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="21" t="s">
-        <v>545</v>
-      </c>
-      <c r="C345" s="21" t="s">
-        <v>546</v>
+        <v>432</v>
+      </c>
+      <c r="C345" s="39" t="s">
+        <v>535</v>
       </c>
       <c r="D345" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E345" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F345" s="33"/>
+      <c r="F345" s="40"/>
       <c r="G345" s="33" t="n">
         <v>0</v>
       </c>
@@ -17046,50 +16964,50 @@
         <v>405</v>
       </c>
       <c r="J345" s="37" t="n">
-        <f aca="false">J344+D344</f>
-        <v>928</v>
+        <f aca="false">J332</f>
+        <v>704</v>
       </c>
       <c r="K345" s="25" t="n">
         <f aca="false">J345/8</f>
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="L345" s="25" t="n">
         <f aca="false">J345/16</f>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M345" s="25" t="n">
         <f aca="false">J345/32</f>
+        <v>22</v>
+      </c>
+      <c r="N345" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="N345" s="38" t="s">
-        <v>521</v>
-      </c>
       <c r="O345" s="38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P345" s="38" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q345" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="C346" s="21" t="s">
-        <v>548</v>
+        <v>430</v>
+      </c>
+      <c r="C346" s="39" t="s">
+        <v>534</v>
       </c>
       <c r="D346" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E346" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F346" s="33"/>
-      <c r="G346" s="33" t="n">
-        <v>0</v>
+      <c r="F346" s="40"/>
+      <c r="G346" s="33" t="s">
+        <v>434</v>
       </c>
       <c r="H346" s="33" t="s">
         <v>27</v>
@@ -17099,49 +17017,49 @@
       </c>
       <c r="J346" s="37" t="n">
         <f aca="false">J345+D345</f>
-        <v>936</v>
+        <v>710</v>
       </c>
       <c r="K346" s="25" t="n">
         <f aca="false">J346/8</f>
-        <v>117</v>
+        <v>88.75</v>
       </c>
       <c r="L346" s="25" t="n">
         <f aca="false">J346/16</f>
-        <v>58.5</v>
+        <v>44.375</v>
       </c>
       <c r="M346" s="25" t="n">
         <f aca="false">J346/32</f>
-        <v>29.25</v>
+        <v>22.1875</v>
       </c>
       <c r="N346" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O346" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P346" s="38" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Q346" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="21" t="s">
-        <v>549</v>
-      </c>
-      <c r="C347" s="21" t="s">
-        <v>550</v>
+        <v>428</v>
+      </c>
+      <c r="C347" s="39" t="s">
+        <v>533</v>
       </c>
       <c r="D347" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E347" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F347" s="33"/>
-      <c r="G347" s="33" t="n">
-        <v>0</v>
+      <c r="F347" s="40"/>
+      <c r="G347" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H347" s="33" t="s">
         <v>27</v>
@@ -17151,49 +17069,49 @@
       </c>
       <c r="J347" s="37" t="n">
         <f aca="false">J346+D346</f>
-        <v>944</v>
+        <v>711</v>
       </c>
       <c r="K347" s="25" t="n">
         <f aca="false">J347/8</f>
-        <v>118</v>
+        <v>88.875</v>
       </c>
       <c r="L347" s="25" t="n">
         <f aca="false">J347/16</f>
-        <v>59</v>
+        <v>44.4375</v>
       </c>
       <c r="M347" s="25" t="n">
         <f aca="false">J347/32</f>
-        <v>29.5</v>
+        <v>22.21875</v>
       </c>
       <c r="N347" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O347" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P347" s="38" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Q347" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="C348" s="21" t="s">
-        <v>552</v>
+        <v>426</v>
+      </c>
+      <c r="C348" s="39" t="s">
+        <v>532</v>
       </c>
       <c r="D348" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E348" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F348" s="33"/>
-      <c r="G348" s="33" t="n">
-        <v>0</v>
+      <c r="F348" s="40"/>
+      <c r="G348" s="33" t="s">
+        <v>436</v>
       </c>
       <c r="H348" s="33" t="s">
         <v>27</v>
@@ -17203,49 +17121,49 @@
       </c>
       <c r="J348" s="37" t="n">
         <f aca="false">J347+D347</f>
-        <v>952</v>
+        <v>714</v>
       </c>
       <c r="K348" s="25" t="n">
         <f aca="false">J348/8</f>
-        <v>119</v>
+        <v>89.25</v>
       </c>
       <c r="L348" s="25" t="n">
         <f aca="false">J348/16</f>
-        <v>59.5</v>
+        <v>44.625</v>
       </c>
       <c r="M348" s="25" t="n">
         <f aca="false">J348/32</f>
-        <v>29.75</v>
+        <v>22.3125</v>
       </c>
       <c r="N348" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O348" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P348" s="38" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q348" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="21" t="s">
-        <v>553</v>
-      </c>
-      <c r="C349" s="21" t="s">
-        <v>554</v>
+        <v>424</v>
+      </c>
+      <c r="C349" s="39" t="s">
+        <v>531</v>
       </c>
       <c r="D349" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E349" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F349" s="33"/>
-      <c r="G349" s="33" t="n">
-        <v>0</v>
+      <c r="F349" s="40"/>
+      <c r="G349" s="33" t="s">
+        <v>436</v>
       </c>
       <c r="H349" s="33" t="s">
         <v>27</v>
@@ -17255,49 +17173,49 @@
       </c>
       <c r="J349" s="37" t="n">
         <f aca="false">J348+D348</f>
-        <v>960</v>
+        <v>718</v>
       </c>
       <c r="K349" s="25" t="n">
         <f aca="false">J349/8</f>
-        <v>120</v>
+        <v>89.75</v>
       </c>
       <c r="L349" s="25" t="n">
         <f aca="false">J349/16</f>
-        <v>60</v>
+        <v>44.875</v>
       </c>
       <c r="M349" s="25" t="n">
         <f aca="false">J349/32</f>
-        <v>30</v>
+        <v>22.4375</v>
       </c>
       <c r="N349" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O349" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P349" s="38" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="Q349" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="C350" s="21" t="s">
-        <v>556</v>
+        <v>422</v>
+      </c>
+      <c r="C350" s="39" t="s">
+        <v>530</v>
       </c>
       <c r="D350" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E350" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F350" s="33"/>
-      <c r="G350" s="33" t="n">
-        <v>0</v>
+      <c r="F350" s="40"/>
+      <c r="G350" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H350" s="33" t="s">
         <v>27</v>
@@ -17307,49 +17225,49 @@
       </c>
       <c r="J350" s="37" t="n">
         <f aca="false">J349+D349</f>
-        <v>968</v>
+        <v>722</v>
       </c>
       <c r="K350" s="25" t="n">
         <f aca="false">J350/8</f>
-        <v>121</v>
+        <v>90.25</v>
       </c>
       <c r="L350" s="25" t="n">
         <f aca="false">J350/16</f>
-        <v>60.5</v>
+        <v>45.125</v>
       </c>
       <c r="M350" s="25" t="n">
         <f aca="false">J350/32</f>
-        <v>30.25</v>
+        <v>22.5625</v>
       </c>
       <c r="N350" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O350" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P350" s="38" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="Q350" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="21" t="s">
-        <v>557</v>
-      </c>
-      <c r="C351" s="21" t="s">
-        <v>558</v>
+        <v>420</v>
+      </c>
+      <c r="C351" s="39" t="s">
+        <v>528</v>
       </c>
       <c r="D351" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E351" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F351" s="33"/>
-      <c r="G351" s="33" t="n">
-        <v>0</v>
+      <c r="F351" s="40"/>
+      <c r="G351" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H351" s="33" t="s">
         <v>27</v>
@@ -17357,103 +17275,71 @@
       <c r="I351" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="J351" s="37" t="n">
-        <f aca="false">J350+D350</f>
-        <v>976</v>
+      <c r="J351" s="4" t="n">
+        <f aca="false">J347</f>
+        <v>711</v>
       </c>
       <c r="K351" s="25" t="n">
         <f aca="false">J351/8</f>
-        <v>122</v>
+        <v>88.875</v>
       </c>
       <c r="L351" s="25" t="n">
         <f aca="false">J351/16</f>
-        <v>61</v>
+        <v>44.4375</v>
       </c>
       <c r="M351" s="25" t="n">
         <f aca="false">J351/32</f>
-        <v>30.5</v>
+        <v>22.21875</v>
       </c>
       <c r="N351" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O351" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P351" s="38" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="Q351" s="38" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B352" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="C352" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="D352" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="E352" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F352" s="33"/>
-      <c r="G352" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H352" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I352" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="J352" s="37" t="n">
-        <f aca="false">J351+D351</f>
-        <v>984</v>
-      </c>
-      <c r="K352" s="25" t="n">
-        <f aca="false">J352/8</f>
-        <v>123</v>
-      </c>
-      <c r="L352" s="25" t="n">
-        <f aca="false">J352/16</f>
-        <v>61.5</v>
-      </c>
-      <c r="M352" s="25" t="n">
-        <f aca="false">J352/32</f>
-        <v>30.75</v>
-      </c>
+    <row r="352" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B352" s="21"/>
+      <c r="C352" s="39"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="33"/>
+      <c r="F352" s="40"/>
+      <c r="G352" s="33"/>
+      <c r="H352" s="33"/>
+      <c r="I352" s="33"/>
+      <c r="J352" s="37"/>
+      <c r="K352" s="25"/>
+      <c r="L352" s="25"/>
+      <c r="M352" s="25"/>
       <c r="N352" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="O352" s="38" t="n">
-        <v>4</v>
-      </c>
-      <c r="P352" s="38" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q352" s="38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="353" s="38" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="21" t="s">
-        <v>561</v>
-      </c>
-      <c r="C353" s="21" t="s">
-        <v>562</v>
+        <v>460</v>
+      </c>
+      <c r="C353" s="39" t="s">
+        <v>536</v>
       </c>
       <c r="D353" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E353" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F353" s="33"/>
-      <c r="G353" s="33" t="n">
-        <v>0</v>
+      <c r="F353" s="40"/>
+      <c r="G353" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H353" s="33" t="s">
         <v>27</v>
@@ -17462,50 +17348,51 @@
         <v>405</v>
       </c>
       <c r="J353" s="37" t="n">
-        <f aca="false">J352+D352</f>
-        <v>992</v>
+        <f aca="false">J342+D342</f>
+        <v>736</v>
       </c>
       <c r="K353" s="25" t="n">
         <f aca="false">J353/8</f>
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="L353" s="25" t="n">
         <f aca="false">J353/16</f>
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="M353" s="25" t="n">
         <f aca="false">J353/32</f>
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N353" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O353" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P353" s="38" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Q353" s="38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="38"/>
       <c r="B354" s="21" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="C354" s="21" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="D354" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E354" s="33" t="s">
         <v>26</v>
       </c>
       <c r="F354" s="33"/>
-      <c r="G354" s="33" t="n">
-        <v>0</v>
+      <c r="G354" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H354" s="33" t="s">
         <v>27</v>
@@ -17515,28 +17402,28 @@
       </c>
       <c r="J354" s="37" t="n">
         <f aca="false">J353+D353</f>
-        <v>1000</v>
+        <v>768</v>
       </c>
       <c r="K354" s="25" t="n">
         <f aca="false">J354/8</f>
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="L354" s="25" t="n">
         <f aca="false">J354/16</f>
-        <v>62.5</v>
+        <v>48</v>
       </c>
       <c r="M354" s="25" t="n">
         <f aca="false">J354/32</f>
-        <v>31.25</v>
+        <v>24</v>
       </c>
       <c r="N354" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O354" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P354" s="38" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="Q354" s="38" t="n">
         <v>0</v>
@@ -17544,20 +17431,20 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="21" t="s">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="C355" s="21" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="D355" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E355" s="33" t="s">
         <v>26</v>
       </c>
       <c r="F355" s="33"/>
-      <c r="G355" s="33" t="n">
-        <v>0</v>
+      <c r="G355" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H355" s="33" t="s">
         <v>27</v>
@@ -17567,28 +17454,28 @@
       </c>
       <c r="J355" s="37" t="n">
         <f aca="false">J354+D354</f>
-        <v>1008</v>
+        <v>800</v>
       </c>
       <c r="K355" s="25" t="n">
         <f aca="false">J355/8</f>
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="L355" s="25" t="n">
         <f aca="false">J355/16</f>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M355" s="25" t="n">
         <f aca="false">J355/32</f>
-        <v>31.5</v>
+        <v>25</v>
       </c>
       <c r="N355" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O355" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P355" s="38" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="Q355" s="38" t="n">
         <v>0</v>
@@ -17596,20 +17483,20 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="21" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
       <c r="C356" s="21" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="D356" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E356" s="33" t="s">
-        <v>26</v>
+        <v>345</v>
       </c>
       <c r="F356" s="33"/>
-      <c r="G356" s="33" t="n">
-        <v>0</v>
+      <c r="G356" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H356" s="33" t="s">
         <v>27</v>
@@ -17619,28 +17506,28 @@
       </c>
       <c r="J356" s="37" t="n">
         <f aca="false">J355+D355</f>
-        <v>1016</v>
+        <v>832</v>
       </c>
       <c r="K356" s="25" t="n">
         <f aca="false">J356/8</f>
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="L356" s="25" t="n">
         <f aca="false">J356/16</f>
-        <v>63.5</v>
+        <v>52</v>
       </c>
       <c r="M356" s="25" t="n">
         <f aca="false">J356/32</f>
-        <v>31.75</v>
+        <v>26</v>
       </c>
       <c r="N356" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O356" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P356" s="38" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Q356" s="38" t="n">
         <v>0</v>
@@ -17648,20 +17535,20 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="21" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="C357" s="21" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="D357" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E357" s="33" t="s">
         <v>26</v>
       </c>
       <c r="F357" s="33"/>
-      <c r="G357" s="33" t="n">
-        <v>0</v>
+      <c r="G357" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H357" s="33" t="s">
         <v>27</v>
@@ -17671,28 +17558,28 @@
       </c>
       <c r="J357" s="37" t="n">
         <f aca="false">J356+D356</f>
-        <v>1024</v>
+        <v>864</v>
       </c>
       <c r="K357" s="25" t="n">
         <f aca="false">J357/8</f>
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="L357" s="25" t="n">
         <f aca="false">J357/16</f>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="M357" s="25" t="n">
         <f aca="false">J357/32</f>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N357" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O357" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P357" s="38" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="Q357" s="38" t="n">
         <v>0</v>
@@ -17700,10 +17587,10 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="21" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="C358" s="21" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="D358" s="1" t="n">
         <v>8</v>
@@ -17712,8 +17599,8 @@
         <v>26</v>
       </c>
       <c r="F358" s="33"/>
-      <c r="G358" s="33" t="n">
-        <v>0</v>
+      <c r="G358" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H358" s="33" t="s">
         <v>27</v>
@@ -17723,28 +17610,28 @@
       </c>
       <c r="J358" s="37" t="n">
         <f aca="false">J357+D357</f>
-        <v>1032</v>
+        <v>896</v>
       </c>
       <c r="K358" s="25" t="n">
         <f aca="false">J358/8</f>
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L358" s="25" t="n">
         <f aca="false">J358/16</f>
-        <v>64.5</v>
+        <v>56</v>
       </c>
       <c r="M358" s="25" t="n">
         <f aca="false">J358/32</f>
-        <v>32.25</v>
+        <v>28</v>
       </c>
       <c r="N358" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O358" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P358" s="38" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="Q358" s="38" t="n">
         <v>0</v>
@@ -17752,10 +17639,10 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="21" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="C359" s="21" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="D359" s="1" t="n">
         <v>8</v>
@@ -17764,8 +17651,8 @@
         <v>26</v>
       </c>
       <c r="F359" s="33"/>
-      <c r="G359" s="33" t="n">
-        <v>0</v>
+      <c r="G359" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H359" s="33" t="s">
         <v>27</v>
@@ -17775,28 +17662,28 @@
       </c>
       <c r="J359" s="37" t="n">
         <f aca="false">J358+D358</f>
-        <v>1040</v>
+        <v>904</v>
       </c>
       <c r="K359" s="25" t="n">
         <f aca="false">J359/8</f>
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="L359" s="25" t="n">
         <f aca="false">J359/16</f>
-        <v>65</v>
+        <v>56.5</v>
       </c>
       <c r="M359" s="25" t="n">
         <f aca="false">J359/32</f>
-        <v>32.5</v>
+        <v>28.25</v>
       </c>
       <c r="N359" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O359" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P359" s="38" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q359" s="38" t="n">
         <v>0</v>
@@ -17804,10 +17691,10 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="21" t="s">
-        <v>575</v>
+        <v>549</v>
       </c>
       <c r="C360" s="21" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="D360" s="1" t="n">
         <v>8</v>
@@ -17816,8 +17703,8 @@
         <v>26</v>
       </c>
       <c r="F360" s="33"/>
-      <c r="G360" s="33" t="n">
-        <v>0</v>
+      <c r="G360" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H360" s="33" t="s">
         <v>27</v>
@@ -17827,28 +17714,28 @@
       </c>
       <c r="J360" s="37" t="n">
         <f aca="false">J359+D359</f>
-        <v>1048</v>
+        <v>912</v>
       </c>
       <c r="K360" s="25" t="n">
         <f aca="false">J360/8</f>
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="L360" s="25" t="n">
         <f aca="false">J360/16</f>
-        <v>65.5</v>
+        <v>57</v>
       </c>
       <c r="M360" s="25" t="n">
         <f aca="false">J360/32</f>
-        <v>32.75</v>
+        <v>28.5</v>
       </c>
       <c r="N360" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O360" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P360" s="38" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="Q360" s="38" t="n">
         <v>0</v>
@@ -17856,10 +17743,10 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="21" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="C361" s="21" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="D361" s="1" t="n">
         <v>8</v>
@@ -17868,8 +17755,8 @@
         <v>26</v>
       </c>
       <c r="F361" s="33"/>
-      <c r="G361" s="33" t="n">
-        <v>0</v>
+      <c r="G361" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H361" s="33" t="s">
         <v>27</v>
@@ -17879,28 +17766,28 @@
       </c>
       <c r="J361" s="37" t="n">
         <f aca="false">J360+D360</f>
-        <v>1056</v>
+        <v>920</v>
       </c>
       <c r="K361" s="25" t="n">
         <f aca="false">J361/8</f>
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="L361" s="25" t="n">
         <f aca="false">J361/16</f>
-        <v>66</v>
+        <v>57.5</v>
       </c>
       <c r="M361" s="25" t="n">
         <f aca="false">J361/32</f>
-        <v>33</v>
+        <v>28.75</v>
       </c>
       <c r="N361" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O361" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P361" s="38" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="Q361" s="38" t="n">
         <v>0</v>
@@ -17908,10 +17795,10 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="21" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="C362" s="21" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="D362" s="1" t="n">
         <v>8</v>
@@ -17920,8 +17807,8 @@
         <v>26</v>
       </c>
       <c r="F362" s="33"/>
-      <c r="G362" s="33" t="n">
-        <v>0</v>
+      <c r="G362" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H362" s="33" t="s">
         <v>27</v>
@@ -17931,28 +17818,28 @@
       </c>
       <c r="J362" s="37" t="n">
         <f aca="false">J361+D361</f>
-        <v>1064</v>
+        <v>928</v>
       </c>
       <c r="K362" s="25" t="n">
         <f aca="false">J362/8</f>
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="L362" s="25" t="n">
         <f aca="false">J362/16</f>
-        <v>66.5</v>
+        <v>58</v>
       </c>
       <c r="M362" s="25" t="n">
         <f aca="false">J362/32</f>
-        <v>33.25</v>
+        <v>29</v>
       </c>
       <c r="N362" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O362" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P362" s="38" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="Q362" s="38" t="n">
         <v>0</v>
@@ -17960,10 +17847,10 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="21" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="C363" s="21" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="D363" s="1" t="n">
         <v>8</v>
@@ -17972,8 +17859,8 @@
         <v>26</v>
       </c>
       <c r="F363" s="33"/>
-      <c r="G363" s="33" t="n">
-        <v>0</v>
+      <c r="G363" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H363" s="33" t="s">
         <v>27</v>
@@ -17983,28 +17870,28 @@
       </c>
       <c r="J363" s="37" t="n">
         <f aca="false">J362+D362</f>
-        <v>1072</v>
+        <v>936</v>
       </c>
       <c r="K363" s="25" t="n">
         <f aca="false">J363/8</f>
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="L363" s="25" t="n">
         <f aca="false">J363/16</f>
-        <v>67</v>
+        <v>58.5</v>
       </c>
       <c r="M363" s="25" t="n">
         <f aca="false">J363/32</f>
-        <v>33.5</v>
+        <v>29.25</v>
       </c>
       <c r="N363" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O363" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P363" s="38" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="Q363" s="38" t="n">
         <v>0</v>
@@ -18012,10 +17899,10 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="21" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
       <c r="C364" s="21" t="s">
-        <v>584</v>
+        <v>558</v>
       </c>
       <c r="D364" s="1" t="n">
         <v>8</v>
@@ -18024,8 +17911,8 @@
         <v>26</v>
       </c>
       <c r="F364" s="33"/>
-      <c r="G364" s="33" t="n">
-        <v>0</v>
+      <c r="G364" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H364" s="33" t="s">
         <v>27</v>
@@ -18035,28 +17922,28 @@
       </c>
       <c r="J364" s="37" t="n">
         <f aca="false">J363+D363</f>
-        <v>1080</v>
+        <v>944</v>
       </c>
       <c r="K364" s="25" t="n">
         <f aca="false">J364/8</f>
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="L364" s="25" t="n">
         <f aca="false">J364/16</f>
-        <v>67.5</v>
+        <v>59</v>
       </c>
       <c r="M364" s="25" t="n">
         <f aca="false">J364/32</f>
-        <v>33.75</v>
+        <v>29.5</v>
       </c>
       <c r="N364" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O364" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P364" s="38" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q364" s="38" t="n">
         <v>0</v>
@@ -18064,10 +17951,10 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="21" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="C365" s="21" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="D365" s="1" t="n">
         <v>8</v>
@@ -18076,8 +17963,8 @@
         <v>26</v>
       </c>
       <c r="F365" s="33"/>
-      <c r="G365" s="33" t="n">
-        <v>0</v>
+      <c r="G365" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H365" s="33" t="s">
         <v>27</v>
@@ -18087,28 +17974,28 @@
       </c>
       <c r="J365" s="37" t="n">
         <f aca="false">J364+D364</f>
-        <v>1088</v>
+        <v>952</v>
       </c>
       <c r="K365" s="25" t="n">
         <f aca="false">J365/8</f>
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="L365" s="25" t="n">
         <f aca="false">J365/16</f>
-        <v>68</v>
+        <v>59.5</v>
       </c>
       <c r="M365" s="25" t="n">
         <f aca="false">J365/32</f>
-        <v>34</v>
+        <v>29.75</v>
       </c>
       <c r="N365" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O365" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P365" s="38" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="Q365" s="38" t="n">
         <v>0</v>
@@ -18116,10 +18003,10 @@
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="21" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="C366" s="21" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="D366" s="1" t="n">
         <v>8</v>
@@ -18128,8 +18015,8 @@
         <v>26</v>
       </c>
       <c r="F366" s="33"/>
-      <c r="G366" s="33" t="n">
-        <v>0</v>
+      <c r="G366" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H366" s="33" t="s">
         <v>27</v>
@@ -18139,28 +18026,28 @@
       </c>
       <c r="J366" s="37" t="n">
         <f aca="false">J365+D365</f>
-        <v>1096</v>
+        <v>960</v>
       </c>
       <c r="K366" s="25" t="n">
         <f aca="false">J366/8</f>
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="L366" s="25" t="n">
         <f aca="false">J366/16</f>
-        <v>68.5</v>
+        <v>60</v>
       </c>
       <c r="M366" s="25" t="n">
         <f aca="false">J366/32</f>
-        <v>34.25</v>
+        <v>30</v>
       </c>
       <c r="N366" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O366" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P366" s="38" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="Q366" s="38" t="n">
         <v>0</v>
@@ -18168,10 +18055,10 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="21" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="C367" s="21" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="D367" s="1" t="n">
         <v>8</v>
@@ -18180,8 +18067,8 @@
         <v>26</v>
       </c>
       <c r="F367" s="33"/>
-      <c r="G367" s="33" t="n">
-        <v>0</v>
+      <c r="G367" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H367" s="33" t="s">
         <v>27</v>
@@ -18191,28 +18078,28 @@
       </c>
       <c r="J367" s="37" t="n">
         <f aca="false">J366+D366</f>
-        <v>1104</v>
+        <v>968</v>
       </c>
       <c r="K367" s="25" t="n">
         <f aca="false">J367/8</f>
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L367" s="25" t="n">
         <f aca="false">J367/16</f>
-        <v>69</v>
+        <v>60.5</v>
       </c>
       <c r="M367" s="25" t="n">
         <f aca="false">J367/32</f>
-        <v>34.5</v>
+        <v>30.25</v>
       </c>
       <c r="N367" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O367" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P367" s="38" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="Q367" s="38" t="n">
         <v>0</v>
@@ -18220,10 +18107,10 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="21" t="s">
-        <v>516</v>
+        <v>565</v>
       </c>
       <c r="C368" s="21" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="D368" s="1" t="n">
         <v>8</v>
@@ -18232,8 +18119,8 @@
         <v>26</v>
       </c>
       <c r="F368" s="33"/>
-      <c r="G368" s="33" t="n">
-        <v>0</v>
+      <c r="G368" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H368" s="33" t="s">
         <v>27</v>
@@ -18243,51 +18130,49 @@
       </c>
       <c r="J368" s="37" t="n">
         <f aca="false">J367+D367</f>
-        <v>1112</v>
+        <v>976</v>
       </c>
       <c r="K368" s="25" t="n">
         <f aca="false">J368/8</f>
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="L368" s="25" t="n">
         <f aca="false">J368/16</f>
-        <v>69.5</v>
+        <v>61</v>
       </c>
       <c r="M368" s="25" t="n">
         <f aca="false">J368/32</f>
-        <v>34.75</v>
+        <v>30.5</v>
       </c>
       <c r="N368" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O368" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P368" s="38" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="Q368" s="38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B369" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>434</v>
+      <c r="B369" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="C369" s="21" t="s">
+        <v>568</v>
       </c>
       <c r="D369" s="1" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E369" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F369" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="G369" s="33" t="n">
-        <v>0</v>
+      <c r="F369" s="33"/>
+      <c r="G369" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H369" s="33" t="s">
         <v>27</v>
@@ -18297,49 +18182,49 @@
       </c>
       <c r="J369" s="37" t="n">
         <f aca="false">J368+D368</f>
-        <v>1120</v>
+        <v>984</v>
       </c>
       <c r="K369" s="25" t="n">
         <f aca="false">J369/8</f>
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="L369" s="25" t="n">
         <f aca="false">J369/16</f>
-        <v>70</v>
+        <v>61.5</v>
       </c>
       <c r="M369" s="25" t="n">
         <f aca="false">J369/32</f>
-        <v>35</v>
+        <v>30.75</v>
       </c>
       <c r="N369" s="38" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="O369" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P369" s="38" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="Q369" s="38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B370" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>354</v>
+      <c r="B370" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="C370" s="21" t="s">
+        <v>570</v>
       </c>
       <c r="D370" s="1" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E370" s="33" t="s">
-        <v>518</v>
+        <v>26</v>
       </c>
       <c r="F370" s="33"/>
-      <c r="G370" s="33" t="n">
-        <v>0</v>
+      <c r="G370" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="H370" s="33" t="s">
         <v>27</v>
@@ -18349,62 +18234,949 @@
       </c>
       <c r="J370" s="37" t="n">
         <f aca="false">J369+D369</f>
-        <v>1136</v>
+        <v>992</v>
       </c>
       <c r="K370" s="25" t="n">
         <f aca="false">J370/8</f>
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="L370" s="25" t="n">
         <f aca="false">J370/16</f>
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="M370" s="25" t="n">
         <f aca="false">J370/32</f>
-        <v>35.5</v>
+        <v>31</v>
       </c>
       <c r="N370" s="38" t="s">
-        <v>29</v>
+        <v>529</v>
       </c>
       <c r="O370" s="38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P370" s="38" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q370" s="38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="1" t="s">
-        <v>63</v>
+      <c r="B371" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="C371" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="D371" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E371" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="F371" s="33"/>
-      <c r="G371" s="33"/>
-      <c r="H371" s="33"/>
-      <c r="I371" s="33"/>
+      <c r="G371" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H371" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I371" s="33" t="s">
+        <v>405</v>
+      </c>
       <c r="J371" s="37" t="n">
         <f aca="false">J370+D370</f>
-        <v>1152</v>
+        <v>1000</v>
       </c>
       <c r="K371" s="25" t="n">
         <f aca="false">J371/8</f>
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="L371" s="25" t="n">
         <f aca="false">J371/16</f>
-        <v>72</v>
+        <v>62.5</v>
       </c>
       <c r="M371" s="25" t="n">
         <f aca="false">J371/32</f>
+        <v>31.25</v>
+      </c>
+      <c r="N371" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="O371" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P371" s="38" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q371" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B372" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="C372" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="D372" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E372" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F372" s="33"/>
+      <c r="G372" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H372" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I372" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J372" s="37" t="n">
+        <f aca="false">J371+D371</f>
+        <v>1008</v>
+      </c>
+      <c r="K372" s="25" t="n">
+        <f aca="false">J372/8</f>
+        <v>126</v>
+      </c>
+      <c r="L372" s="25" t="n">
+        <f aca="false">J372/16</f>
+        <v>63</v>
+      </c>
+      <c r="M372" s="25" t="n">
+        <f aca="false">J372/32</f>
+        <v>31.5</v>
+      </c>
+      <c r="N372" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="O372" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P372" s="38" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q372" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B373" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="C373" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="D373" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E373" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F373" s="33"/>
+      <c r="G373" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H373" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I373" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J373" s="37" t="n">
+        <f aca="false">J372+D372</f>
+        <v>1016</v>
+      </c>
+      <c r="K373" s="25" t="n">
+        <f aca="false">J373/8</f>
+        <v>127</v>
+      </c>
+      <c r="L373" s="25" t="n">
+        <f aca="false">J373/16</f>
+        <v>63.5</v>
+      </c>
+      <c r="M373" s="25" t="n">
+        <f aca="false">J373/32</f>
+        <v>31.75</v>
+      </c>
+      <c r="N373" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="O373" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P373" s="38" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q373" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B374" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="C374" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="D374" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E374" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F374" s="33"/>
+      <c r="G374" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H374" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I374" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J374" s="37" t="n">
+        <f aca="false">J373+D373</f>
+        <v>1024</v>
+      </c>
+      <c r="K374" s="25" t="n">
+        <f aca="false">J374/8</f>
+        <v>128</v>
+      </c>
+      <c r="L374" s="25" t="n">
+        <f aca="false">J374/16</f>
+        <v>64</v>
+      </c>
+      <c r="M374" s="25" t="n">
+        <f aca="false">J374/32</f>
+        <v>32</v>
+      </c>
+      <c r="N374" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="O374" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P374" s="38" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q374" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B375" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="C375" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="D375" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E375" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F375" s="33"/>
+      <c r="G375" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H375" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I375" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J375" s="37" t="n">
+        <f aca="false">J374+D374</f>
+        <v>1032</v>
+      </c>
+      <c r="K375" s="25" t="n">
+        <f aca="false">J375/8</f>
+        <v>129</v>
+      </c>
+      <c r="L375" s="25" t="n">
+        <f aca="false">J375/16</f>
+        <v>64.5</v>
+      </c>
+      <c r="M375" s="25" t="n">
+        <f aca="false">J375/32</f>
+        <v>32.25</v>
+      </c>
+      <c r="N375" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="O375" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P375" s="38" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q375" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B376" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="C376" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="D376" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E376" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F376" s="33"/>
+      <c r="G376" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H376" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I376" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J376" s="37" t="n">
+        <f aca="false">J375+D375</f>
+        <v>1040</v>
+      </c>
+      <c r="K376" s="25" t="n">
+        <f aca="false">J376/8</f>
+        <v>130</v>
+      </c>
+      <c r="L376" s="25" t="n">
+        <f aca="false">J376/16</f>
+        <v>65</v>
+      </c>
+      <c r="M376" s="25" t="n">
+        <f aca="false">J376/32</f>
+        <v>32.5</v>
+      </c>
+      <c r="N376" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="O376" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P376" s="38" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q376" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B377" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="C377" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="D377" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E377" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F377" s="33"/>
+      <c r="G377" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H377" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I377" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J377" s="37" t="n">
+        <f aca="false">J376+D376</f>
+        <v>1048</v>
+      </c>
+      <c r="K377" s="25" t="n">
+        <f aca="false">J377/8</f>
+        <v>131</v>
+      </c>
+      <c r="L377" s="25" t="n">
+        <f aca="false">J377/16</f>
+        <v>65.5</v>
+      </c>
+      <c r="M377" s="25" t="n">
+        <f aca="false">J377/32</f>
+        <v>32.75</v>
+      </c>
+      <c r="N377" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="O377" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P377" s="38" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q377" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B378" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="C378" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="D378" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E378" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F378" s="33"/>
+      <c r="G378" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H378" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I378" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J378" s="37" t="n">
+        <f aca="false">J377+D377</f>
+        <v>1056</v>
+      </c>
+      <c r="K378" s="25" t="n">
+        <f aca="false">J378/8</f>
+        <v>132</v>
+      </c>
+      <c r="L378" s="25" t="n">
+        <f aca="false">J378/16</f>
+        <v>66</v>
+      </c>
+      <c r="M378" s="25" t="n">
+        <f aca="false">J378/32</f>
+        <v>33</v>
+      </c>
+      <c r="N378" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="O378" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P378" s="38" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q378" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B379" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="C379" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="D379" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E379" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F379" s="33"/>
+      <c r="G379" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H379" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I379" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J379" s="37" t="n">
+        <f aca="false">J378+D378</f>
+        <v>1064</v>
+      </c>
+      <c r="K379" s="25" t="n">
+        <f aca="false">J379/8</f>
+        <v>133</v>
+      </c>
+      <c r="L379" s="25" t="n">
+        <f aca="false">J379/16</f>
+        <v>66.5</v>
+      </c>
+      <c r="M379" s="25" t="n">
+        <f aca="false">J379/32</f>
+        <v>33.25</v>
+      </c>
+      <c r="N379" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="O379" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P379" s="38" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q379" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B380" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="C380" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="D380" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E380" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F380" s="33"/>
+      <c r="G380" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H380" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I380" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J380" s="37" t="n">
+        <f aca="false">J379+D379</f>
+        <v>1072</v>
+      </c>
+      <c r="K380" s="25" t="n">
+        <f aca="false">J380/8</f>
+        <v>134</v>
+      </c>
+      <c r="L380" s="25" t="n">
+        <f aca="false">J380/16</f>
+        <v>67</v>
+      </c>
+      <c r="M380" s="25" t="n">
+        <f aca="false">J380/32</f>
+        <v>33.5</v>
+      </c>
+      <c r="N380" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="O380" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P380" s="38" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q380" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B381" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="C381" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="D381" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E381" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F381" s="33"/>
+      <c r="G381" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H381" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I381" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J381" s="37" t="n">
+        <f aca="false">J380+D380</f>
+        <v>1080</v>
+      </c>
+      <c r="K381" s="25" t="n">
+        <f aca="false">J381/8</f>
+        <v>135</v>
+      </c>
+      <c r="L381" s="25" t="n">
+        <f aca="false">J381/16</f>
+        <v>67.5</v>
+      </c>
+      <c r="M381" s="25" t="n">
+        <f aca="false">J381/32</f>
+        <v>33.75</v>
+      </c>
+      <c r="N381" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="O381" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P381" s="38" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q381" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B382" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="C382" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="D382" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E382" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F382" s="33"/>
+      <c r="G382" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H382" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I382" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J382" s="37" t="n">
+        <f aca="false">J381+D381</f>
+        <v>1088</v>
+      </c>
+      <c r="K382" s="25" t="n">
+        <f aca="false">J382/8</f>
+        <v>136</v>
+      </c>
+      <c r="L382" s="25" t="n">
+        <f aca="false">J382/16</f>
+        <v>68</v>
+      </c>
+      <c r="M382" s="25" t="n">
+        <f aca="false">J382/32</f>
+        <v>34</v>
+      </c>
+      <c r="N382" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="O382" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P382" s="38" t="n">
         <v>36</v>
       </c>
-    </row>
-    <row r="372" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C372" s="3"/>
-      <c r="J372" s="42"/>
-    </row>
+      <c r="Q382" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B383" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="C383" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="D383" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E383" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F383" s="33"/>
+      <c r="G383" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H383" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I383" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J383" s="37" t="n">
+        <f aca="false">J382+D382</f>
+        <v>1096</v>
+      </c>
+      <c r="K383" s="25" t="n">
+        <f aca="false">J383/8</f>
+        <v>137</v>
+      </c>
+      <c r="L383" s="25" t="n">
+        <f aca="false">J383/16</f>
+        <v>68.5</v>
+      </c>
+      <c r="M383" s="25" t="n">
+        <f aca="false">J383/32</f>
+        <v>34.25</v>
+      </c>
+      <c r="N383" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="O383" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P383" s="38" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q383" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B384" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="C384" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="D384" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E384" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F384" s="33"/>
+      <c r="G384" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H384" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I384" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J384" s="37" t="n">
+        <f aca="false">J383+D383</f>
+        <v>1104</v>
+      </c>
+      <c r="K384" s="25" t="n">
+        <f aca="false">J384/8</f>
+        <v>138</v>
+      </c>
+      <c r="L384" s="25" t="n">
+        <f aca="false">J384/16</f>
+        <v>69</v>
+      </c>
+      <c r="M384" s="25" t="n">
+        <f aca="false">J384/32</f>
+        <v>34.5</v>
+      </c>
+      <c r="N384" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="O384" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P384" s="38" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q384" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B385" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="C385" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="D385" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E385" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F385" s="33"/>
+      <c r="G385" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H385" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I385" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J385" s="37" t="n">
+        <f aca="false">J384+D384</f>
+        <v>1112</v>
+      </c>
+      <c r="K385" s="25" t="n">
+        <f aca="false">J385/8</f>
+        <v>139</v>
+      </c>
+      <c r="L385" s="25" t="n">
+        <f aca="false">J385/16</f>
+        <v>69.5</v>
+      </c>
+      <c r="M385" s="25" t="n">
+        <f aca="false">J385/32</f>
+        <v>34.75</v>
+      </c>
+      <c r="N385" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="O385" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P385" s="38" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q385" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B386" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D386" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E386" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F386" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G386" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="H386" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I386" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J386" s="37" t="n">
+        <f aca="false">J385+D385</f>
+        <v>1120</v>
+      </c>
+      <c r="K386" s="25" t="n">
+        <f aca="false">J386/8</f>
+        <v>140</v>
+      </c>
+      <c r="L386" s="25" t="n">
+        <f aca="false">J386/16</f>
+        <v>70</v>
+      </c>
+      <c r="M386" s="25" t="n">
+        <f aca="false">J386/32</f>
+        <v>35</v>
+      </c>
+      <c r="N386" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="O386" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P386" s="38" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q386" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B387" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D387" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E387" s="33" t="s">
+        <v>526</v>
+      </c>
+      <c r="F387" s="33"/>
+      <c r="G387" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H387" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I387" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="J387" s="37" t="n">
+        <f aca="false">J386+D386</f>
+        <v>1136</v>
+      </c>
+      <c r="K387" s="25" t="n">
+        <f aca="false">J387/8</f>
+        <v>142</v>
+      </c>
+      <c r="L387" s="25" t="n">
+        <f aca="false">J387/16</f>
+        <v>71</v>
+      </c>
+      <c r="M387" s="25" t="n">
+        <f aca="false">J387/32</f>
+        <v>35.5</v>
+      </c>
+      <c r="N387" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O387" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P387" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q387" s="38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F388" s="33"/>
+      <c r="G388" s="33"/>
+      <c r="H388" s="33"/>
+      <c r="I388" s="33"/>
+      <c r="J388" s="37" t="n">
+        <f aca="false">J387+D387</f>
+        <v>1152</v>
+      </c>
+      <c r="K388" s="25" t="n">
+        <f aca="false">J388/8</f>
+        <v>144</v>
+      </c>
+      <c r="L388" s="25" t="n">
+        <f aca="false">J388/16</f>
+        <v>72</v>
+      </c>
+      <c r="M388" s="25" t="n">
+        <f aca="false">J388/32</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="389" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C389" s="3"/>
+      <c r="J389" s="42"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:I1"/>
@@ -18419,8 +19191,8 @@
     <hyperlink ref="A203" r:id="rId2" display="Structure:radWodSpecific_t, file:radWodSpecificDownlink.h"/>
     <hyperlink ref="A218" r:id="rId3" display="Structure:infrequentDownlink_t,file:infrequentDownlink.h"/>
     <hyperlink ref="A243" r:id="rId4" display="Structure:legacyErrors_t,file:legacyErrorsDownlink.h"/>
-    <hyperlink ref="A260" r:id="rId5" display="Structure:rt1Errors_t,file:rt1ErrorsDownlink.h"/>
-    <hyperlink ref="A316" r:id="rId6" display="Structure:rt2Errors_t,file:rt2ErrorsDownlink.h"/>
+    <hyperlink ref="A277" r:id="rId5" display="Structure:rt1Errors_t,file:rt1ErrorsDownlink.h"/>
+    <hyperlink ref="A333" r:id="rId6" display="Structure:rt2Errors_t,file:rt2ErrorsDownlink.h"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -18453,22 +19225,22 @@
     <row r="6" s="43" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="44"/>
       <c r="C6" s="44" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="I6" s="44"/>
     </row>

--- a/genSpacecraft/DownlinkSpecGolf-T.xlsx
+++ b/genSpacecraft/DownlinkSpecGolf-T.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="632">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -1283,49 +1283,49 @@
     <t xml:space="preserve">Legacy  Errors</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasks that have reported to watchdog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">legWdReports</t>
+    <t xml:space="preserve">LIHU: WDTasks Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegWdReports</t>
   </si>
   <si>
     <t xml:space="preserve">IHU Reset Info</t>
   </si>
   <si>
-    <t xml:space="preserve">Error that caused the last reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">legErrorCode</t>
+    <t xml:space="preserve">Cause of Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegErrorCode</t>
   </si>
   <si>
     <t xml:space="preserve">Task executing at reset</t>
   </si>
   <si>
-    <t xml:space="preserve">legTaskNumber</t>
+    <t xml:space="preserve">LegTaskNumber</t>
   </si>
   <si>
     <t xml:space="preserve">Previous task before reset</t>
   </si>
   <si>
-    <t xml:space="preserve">legPreviousTask</t>
+    <t xml:space="preserve">LegPreviousTask</t>
   </si>
   <si>
     <t xml:space="preserve">Resets in a row that have been too soon</t>
   </si>
   <si>
-    <t xml:space="preserve">legEarlyResetCount</t>
+    <t xml:space="preserve">LegEarlyResetCount</t>
   </si>
   <si>
     <t xml:space="preserve">Was this reset still early in boot</t>
   </si>
   <si>
-    <t xml:space="preserve">legWasStillEarlyInBoot</t>
+    <t xml:space="preserve">LegWasStillEarlyInBoot</t>
   </si>
   <si>
     <t xml:space="preserve">LIHU Data Valid</t>
   </si>
   <si>
-    <t xml:space="preserve">legValid</t>
+    <t xml:space="preserve">LegValid</t>
   </si>
   <si>
     <t xml:space="preserve">STATUS_BOOLEAN</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">pad to 32 bits</t>
   </si>
   <si>
-    <t xml:space="preserve">legFiller1</t>
+    <t xml:space="preserve">LegFiller1</t>
   </si>
   <si>
     <t xml:space="preserve">INT</t>
@@ -1346,7 +1346,7 @@
     <t xml:space="preserve">GOLF_LIHU_ERR</t>
   </si>
   <si>
-    <t xml:space="preserve">LIHU: Tasks That Reported</t>
+    <t xml:space="preserve">LIHU: WD Tasks Ok</t>
   </si>
   <si>
     <t xml:space="preserve">I2C1 Errors</t>
@@ -1391,6 +1391,9 @@
     <t xml:space="preserve">LegMramRead</t>
   </si>
   <si>
+    <t xml:space="preserve">legacy  Errors</t>
+  </si>
+  <si>
     <t xml:space="preserve">MRAM Write Error</t>
   </si>
   <si>
@@ -1418,12 +1421,18 @@
     <t xml:space="preserve">SWVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">pad11</t>
+    <t xml:space="preserve">Error Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegErrorData</t>
   </si>
   <si>
     <t xml:space="preserve">Structure:rt1Errors_t,file:rt1ErrorsDownlink.h</t>
   </si>
   <si>
+    <t xml:space="preserve">Watchdog Tasks Ok</t>
+  </si>
+  <si>
     <t xml:space="preserve">wdReports</t>
   </si>
   <si>
@@ -1454,24 +1463,21 @@
     <t xml:space="preserve">GOLF_RTIHU_ERR</t>
   </si>
   <si>
-    <t xml:space="preserve">RTIHU1: Tasks That Reported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data passed to error call that might have caused reset</t>
+    <t xml:space="preserve">RTIHU1: WD Tasks Ok</t>
   </si>
   <si>
     <t xml:space="preserve">errorData</t>
   </si>
   <si>
+    <t xml:space="preserve">Primary SRAM Corrected Addr 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMCorAddr1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Primary RT Errors</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary SRAM Corrected Addr 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAMCorAddr1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Primary SRAM Corrected Addr 2</t>
   </si>
   <si>
@@ -1658,7 +1664,7 @@
     <t xml:space="preserve">nonFatalCnt</t>
   </si>
   <si>
-    <t xml:space="preserve">Version Number</t>
+    <t xml:space="preserve">RTIHU1 Version Number</t>
   </si>
   <si>
     <t xml:space="preserve">Unisgned</t>
@@ -1667,6 +1673,9 @@
     <t xml:space="preserve">Structure:rt2Errors_t,file:rt2ErrorsDownlink.h</t>
   </si>
   <si>
+    <t xml:space="preserve">RTIHU2: Watchdog Tasks Ok</t>
+  </si>
+  <si>
     <t xml:space="preserve">RT2wdReports</t>
   </si>
   <si>
@@ -1694,9 +1703,6 @@
     <t xml:space="preserve">filler2</t>
   </si>
   <si>
-    <t xml:space="preserve">RTIHU2: Tasks That Reported</t>
-  </si>
-  <si>
     <t xml:space="preserve">Secndry RT Errors</t>
   </si>
   <si>
@@ -1890,6 +1896,9 @@
   </si>
   <si>
     <t xml:space="preserve">RT2NonFatalCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTIHU2 Version Number</t>
   </si>
   <si>
     <t xml:space="preserve">Payloads per Frame</t>
@@ -2257,8 +2266,8 @@
   </sheetPr>
   <dimension ref="A1:Q397"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D269" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N295" activeCellId="0" sqref="N295"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A275" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J361" activeCellId="0" sqref="J361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2268,10 +2277,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="31.22"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="37.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="5" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="18.66"/>
@@ -12929,7 +12938,7 @@
         <v>2</v>
       </c>
       <c r="P258" s="38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q258" s="38" t="n">
         <v>0</v>
@@ -12981,7 +12990,7 @@
         <v>2</v>
       </c>
       <c r="P259" s="38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q259" s="38" t="n">
         <v>0</v>
@@ -13033,7 +13042,7 @@
         <v>2</v>
       </c>
       <c r="P260" s="38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q260" s="38" t="n">
         <v>0</v>
@@ -13085,7 +13094,7 @@
         <v>2</v>
       </c>
       <c r="P261" s="38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q261" s="38" t="n">
         <v>0</v>
@@ -13565,7 +13574,7 @@
         <v>5.5</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="O271" s="1" t="n">
         <v>3</v>
@@ -13579,10 +13588,10 @@
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D272" s="1" t="n">
         <v>8</v>
@@ -13631,10 +13640,10 @@
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D273" s="1" t="n">
         <v>8</v>
@@ -13683,10 +13692,10 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>8</v>
@@ -13735,10 +13744,10 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>8</v>
@@ -13787,10 +13796,10 @@
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D276" s="1" t="n">
         <v>8</v>
@@ -13839,10 +13848,10 @@
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D277" s="1" t="n">
         <v>8</v>
@@ -13891,10 +13900,10 @@
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D278" s="1" t="n">
         <v>16</v>
@@ -13931,10 +13940,10 @@
         <v>7.25</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="O278" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P278" s="1" t="n">
         <v>14</v>
@@ -13945,10 +13954,10 @@
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="3" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D279" s="1" t="n">
         <v>8</v>
@@ -13957,8 +13966,8 @@
         <v>26</v>
       </c>
       <c r="F279" s="33"/>
-      <c r="G279" s="33" t="n">
-        <v>0</v>
+      <c r="G279" s="33" t="s">
+        <v>438</v>
       </c>
       <c r="H279" s="33" t="s">
         <v>27</v>
@@ -13983,13 +13992,13 @@
         <v>7.75</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>29</v>
+        <v>422</v>
       </c>
       <c r="O279" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P279" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q279" s="1" t="n">
         <v>0</v>
@@ -14022,7 +14031,7 @@
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="36" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J281" s="37"/>
       <c r="K281" s="25"/>
@@ -14104,10 +14113,10 @@
     </row>
     <row r="284" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="21" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="C284" s="39" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>9</v>
@@ -14159,7 +14168,7 @@
         <v>423</v>
       </c>
       <c r="C285" s="39" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D285" s="1" t="n">
         <v>5</v>
@@ -14211,7 +14220,7 @@
         <v>425</v>
       </c>
       <c r="C286" s="39" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D286" s="1" t="n">
         <v>4</v>
@@ -14263,7 +14272,7 @@
         <v>427</v>
       </c>
       <c r="C287" s="39" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D287" s="1" t="n">
         <v>4</v>
@@ -14315,7 +14324,7 @@
         <v>429</v>
       </c>
       <c r="C288" s="39" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D288" s="1" t="n">
         <v>3</v>
@@ -14367,7 +14376,7 @@
         <v>431</v>
       </c>
       <c r="C289" s="39" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D289" s="1" t="n">
         <v>1</v>
@@ -14416,10 +14425,10 @@
     </row>
     <row r="290" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="21" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C290" s="39" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D290" s="1" t="n">
         <v>1</v>
@@ -14471,7 +14480,7 @@
         <v>436</v>
       </c>
       <c r="C291" s="39" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>5</v>
@@ -14557,7 +14566,7 @@
         <v>436</v>
       </c>
       <c r="C294" s="39" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D294" s="1" t="n">
         <v>5</v>
@@ -14606,10 +14615,10 @@
     </row>
     <row r="295" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="21" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C295" s="39" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D295" s="1" t="n">
         <v>1</v>
@@ -14661,7 +14670,7 @@
         <v>431</v>
       </c>
       <c r="C296" s="39" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D296" s="1" t="n">
         <v>1</v>
@@ -14702,7 +14711,7 @@
         <v>2</v>
       </c>
       <c r="P296" s="38" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q296" s="38" t="n">
         <v>0</v>
@@ -14713,7 +14722,7 @@
         <v>429</v>
       </c>
       <c r="C297" s="39" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D297" s="1" t="n">
         <v>3</v>
@@ -14754,7 +14763,7 @@
         <v>2</v>
       </c>
       <c r="P297" s="38" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q297" s="38" t="n">
         <v>0</v>
@@ -14765,7 +14774,7 @@
         <v>427</v>
       </c>
       <c r="C298" s="39" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D298" s="1" t="n">
         <v>4</v>
@@ -14806,7 +14815,7 @@
         <v>2</v>
       </c>
       <c r="P298" s="38" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q298" s="38" t="n">
         <v>0</v>
@@ -14817,7 +14826,7 @@
         <v>425</v>
       </c>
       <c r="C299" s="39" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D299" s="1" t="n">
         <v>4</v>
@@ -14858,7 +14867,7 @@
         <v>2</v>
       </c>
       <c r="P299" s="38" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q299" s="38" t="n">
         <v>0</v>
@@ -14869,7 +14878,7 @@
         <v>423</v>
       </c>
       <c r="C300" s="39" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D300" s="1" t="n">
         <v>5</v>
@@ -14879,7 +14888,7 @@
       </c>
       <c r="F300" s="40"/>
       <c r="G300" s="33" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H300" s="33" t="s">
         <v>27</v>
@@ -14910,7 +14919,7 @@
         <v>2</v>
       </c>
       <c r="P300" s="38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q300" s="38" t="n">
         <v>0</v>
@@ -14918,10 +14927,10 @@
     </row>
     <row r="301" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="21" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C301" s="39" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D301" s="1" t="n">
         <v>9</v>
@@ -14962,7 +14971,7 @@
         <v>2</v>
       </c>
       <c r="P301" s="38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q301" s="38" t="n">
         <v>0</v>
@@ -14986,12 +14995,12 @@
       <c r="M302" s="25"/>
       <c r="N302" s="0"/>
     </row>
-    <row r="303" s="38" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="21" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="C303" s="39" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D303" s="1" t="n">
         <v>32</v>
@@ -15025,14 +15034,14 @@
         <f aca="false">J303/32</f>
         <v>9</v>
       </c>
-      <c r="N303" s="38" t="s">
-        <v>480</v>
+      <c r="N303" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="O303" s="38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P303" s="38" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q303" s="38" t="n">
         <v>0</v>
@@ -15040,10 +15049,10 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="21" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C304" s="21" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>32</v>
@@ -15078,13 +15087,13 @@
         <v>10</v>
       </c>
       <c r="N304" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O304" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P304" s="38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q304" s="38" t="n">
         <v>0</v>
@@ -15092,10 +15101,10 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C305" s="21" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D305" s="1" t="n">
         <v>32</v>
@@ -15130,13 +15139,13 @@
         <v>11</v>
       </c>
       <c r="N305" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O305" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P305" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q305" s="38" t="n">
         <v>0</v>
@@ -15144,10 +15153,10 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C306" s="21" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D306" s="1" t="n">
         <v>32</v>
@@ -15182,13 +15191,13 @@
         <v>12</v>
       </c>
       <c r="N306" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O306" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P306" s="38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q306" s="38" t="n">
         <v>0</v>
@@ -15196,10 +15205,10 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="21" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C307" s="21" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D307" s="1" t="n">
         <v>32</v>
@@ -15234,13 +15243,13 @@
         <v>13</v>
       </c>
       <c r="N307" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O307" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P307" s="38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q307" s="38" t="n">
         <v>0</v>
@@ -15248,10 +15257,10 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B308" s="21" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C308" s="21" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D308" s="1" t="n">
         <v>8</v>
@@ -15286,13 +15295,13 @@
         <v>14</v>
       </c>
       <c r="N308" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O308" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P308" s="38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q308" s="38" t="n">
         <v>0</v>
@@ -15300,10 +15309,10 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="21" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C309" s="21" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D309" s="1" t="n">
         <v>8</v>
@@ -15338,13 +15347,13 @@
         <v>14.25</v>
       </c>
       <c r="N309" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O309" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P309" s="38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q309" s="38" t="n">
         <v>0</v>
@@ -15352,10 +15361,10 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="21" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C310" s="21" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D310" s="1" t="n">
         <v>8</v>
@@ -15390,13 +15399,13 @@
         <v>14.5</v>
       </c>
       <c r="N310" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O310" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P310" s="38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q310" s="38" t="n">
         <v>0</v>
@@ -15404,10 +15413,10 @@
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="21" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C311" s="21" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D311" s="1" t="n">
         <v>8</v>
@@ -15442,13 +15451,13 @@
         <v>14.75</v>
       </c>
       <c r="N311" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O311" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P311" s="38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q311" s="38" t="n">
         <v>0</v>
@@ -15456,10 +15465,10 @@
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="21" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C312" s="21" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D312" s="1" t="n">
         <v>8</v>
@@ -15494,13 +15503,13 @@
         <v>15</v>
       </c>
       <c r="N312" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O312" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P312" s="38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q312" s="38" t="n">
         <v>0</v>
@@ -15508,10 +15517,10 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="21" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C313" s="21" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D313" s="1" t="n">
         <v>8</v>
@@ -15546,13 +15555,13 @@
         <v>15.25</v>
       </c>
       <c r="N313" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O313" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P313" s="38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q313" s="38" t="n">
         <v>0</v>
@@ -15560,10 +15569,10 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="21" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C314" s="21" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D314" s="1" t="n">
         <v>8</v>
@@ -15598,13 +15607,13 @@
         <v>15.5</v>
       </c>
       <c r="N314" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O314" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P314" s="38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q314" s="38" t="n">
         <v>0</v>
@@ -15612,10 +15621,10 @@
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="21" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C315" s="21" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D315" s="1" t="n">
         <v>8</v>
@@ -15650,13 +15659,13 @@
         <v>15.75</v>
       </c>
       <c r="N315" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O315" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P315" s="38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q315" s="38" t="n">
         <v>0</v>
@@ -15664,10 +15673,10 @@
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="21" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C316" s="21" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D316" s="1" t="n">
         <v>8</v>
@@ -15702,13 +15711,13 @@
         <v>16</v>
       </c>
       <c r="N316" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O316" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P316" s="38" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q316" s="38" t="n">
         <v>0</v>
@@ -15716,10 +15725,10 @@
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="21" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C317" s="21" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D317" s="1" t="n">
         <v>8</v>
@@ -15754,13 +15763,13 @@
         <v>16.25</v>
       </c>
       <c r="N317" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O317" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P317" s="38" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q317" s="38" t="n">
         <v>0</v>
@@ -15768,10 +15777,10 @@
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C318" s="21" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D318" s="1" t="n">
         <v>8</v>
@@ -15806,13 +15815,13 @@
         <v>16.5</v>
       </c>
       <c r="N318" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O318" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P318" s="38" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q318" s="38" t="n">
         <v>0</v>
@@ -15820,10 +15829,10 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="21" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C319" s="21" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D319" s="1" t="n">
         <v>8</v>
@@ -15858,13 +15867,13 @@
         <v>16.75</v>
       </c>
       <c r="N319" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O319" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P319" s="38" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q319" s="38" t="n">
         <v>0</v>
@@ -15872,10 +15881,10 @@
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="21" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C320" s="21" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D320" s="1" t="n">
         <v>8</v>
@@ -15910,13 +15919,13 @@
         <v>17</v>
       </c>
       <c r="N320" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O320" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P320" s="38" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q320" s="38" t="n">
         <v>0</v>
@@ -15924,10 +15933,10 @@
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="21" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C321" s="21" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D321" s="1" t="n">
         <v>8</v>
@@ -15962,13 +15971,13 @@
         <v>17.25</v>
       </c>
       <c r="N321" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O321" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P321" s="38" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q321" s="38" t="n">
         <v>0</v>
@@ -15976,10 +15985,10 @@
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="21" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C322" s="21" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D322" s="1" t="n">
         <v>8</v>
@@ -16014,13 +16023,13 @@
         <v>17.5</v>
       </c>
       <c r="N322" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O322" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P322" s="38" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q322" s="38" t="n">
         <v>0</v>
@@ -16028,10 +16037,10 @@
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="21" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C323" s="21" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D323" s="1" t="n">
         <v>8</v>
@@ -16066,13 +16075,13 @@
         <v>17.75</v>
       </c>
       <c r="N323" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O323" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P323" s="38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q323" s="38" t="n">
         <v>0</v>
@@ -16080,10 +16089,10 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="21" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C324" s="21" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D324" s="1" t="n">
         <v>8</v>
@@ -16118,13 +16127,13 @@
         <v>18</v>
       </c>
       <c r="N324" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O324" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P324" s="38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q324" s="38" t="n">
         <v>0</v>
@@ -16132,10 +16141,10 @@
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="21" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C325" s="21" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D325" s="1" t="n">
         <v>8</v>
@@ -16170,13 +16179,13 @@
         <v>18.25</v>
       </c>
       <c r="N325" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O325" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P325" s="38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q325" s="38" t="n">
         <v>0</v>
@@ -16184,10 +16193,10 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="21" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C326" s="21" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D326" s="1" t="n">
         <v>8</v>
@@ -16222,13 +16231,13 @@
         <v>18.5</v>
       </c>
       <c r="N326" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O326" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P326" s="38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q326" s="38" t="n">
         <v>0</v>
@@ -16236,10 +16245,10 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="21" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C327" s="21" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D327" s="1" t="n">
         <v>8</v>
@@ -16274,13 +16283,13 @@
         <v>18.75</v>
       </c>
       <c r="N327" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O327" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P327" s="38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q327" s="38" t="n">
         <v>0</v>
@@ -16288,10 +16297,10 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="21" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C328" s="21" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D328" s="1" t="n">
         <v>8</v>
@@ -16326,13 +16335,13 @@
         <v>19</v>
       </c>
       <c r="N328" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O328" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P328" s="38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q328" s="38" t="n">
         <v>0</v>
@@ -16340,10 +16349,10 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="21" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C329" s="21" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D329" s="1" t="n">
         <v>8</v>
@@ -16378,13 +16387,13 @@
         <v>19.25</v>
       </c>
       <c r="N329" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O329" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P329" s="38" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q329" s="38" t="n">
         <v>0</v>
@@ -16392,10 +16401,10 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="21" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C330" s="21" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D330" s="1" t="n">
         <v>8</v>
@@ -16430,13 +16439,13 @@
         <v>19.5</v>
       </c>
       <c r="N330" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O330" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P330" s="38" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q330" s="38" t="n">
         <v>0</v>
@@ -16444,10 +16453,10 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="21" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C331" s="21" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D331" s="1" t="n">
         <v>8</v>
@@ -16482,13 +16491,13 @@
         <v>19.75</v>
       </c>
       <c r="N331" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O331" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P331" s="38" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q331" s="38" t="n">
         <v>0</v>
@@ -16496,10 +16505,10 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="21" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C332" s="21" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D332" s="1" t="n">
         <v>8</v>
@@ -16534,13 +16543,13 @@
         <v>20</v>
       </c>
       <c r="N332" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O332" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P332" s="38" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q332" s="38" t="n">
         <v>0</v>
@@ -16548,10 +16557,10 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="21" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C333" s="21" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D333" s="1" t="n">
         <v>8</v>
@@ -16586,13 +16595,13 @@
         <v>20.25</v>
       </c>
       <c r="N333" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O333" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P333" s="38" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q333" s="38" t="n">
         <v>0</v>
@@ -16600,10 +16609,10 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="21" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C334" s="21" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D334" s="1" t="n">
         <v>8</v>
@@ -16638,13 +16647,13 @@
         <v>20.5</v>
       </c>
       <c r="N334" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O334" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P334" s="38" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q334" s="38" t="n">
         <v>0</v>
@@ -16652,10 +16661,10 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="21" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C335" s="21" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D335" s="1" t="n">
         <v>8</v>
@@ -16690,13 +16699,13 @@
         <v>20.75</v>
       </c>
       <c r="N335" s="38" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="O335" s="38" t="n">
         <v>4</v>
       </c>
       <c r="P335" s="38" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q335" s="38" t="n">
         <v>0</v>
@@ -16704,10 +16713,10 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D336" s="1" t="n">
         <v>16</v>
@@ -16744,13 +16753,13 @@
         <v>21</v>
       </c>
       <c r="N336" s="38" t="s">
-        <v>480</v>
+        <v>402</v>
       </c>
       <c r="O336" s="38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P336" s="38" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="Q336" s="38" t="n">
         <v>0</v>
@@ -16767,7 +16776,7 @@
         <v>16</v>
       </c>
       <c r="E337" s="33" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F337" s="33"/>
       <c r="G337" s="33" t="n">
@@ -16835,7 +16844,7 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="36" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F339" s="33"/>
       <c r="G339" s="33"/>
@@ -16918,10 +16927,10 @@
     </row>
     <row r="342" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="21" t="s">
-        <v>420</v>
+        <v>550</v>
       </c>
       <c r="C342" s="39" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D342" s="1" t="n">
         <v>9</v>
@@ -16973,7 +16982,7 @@
         <v>423</v>
       </c>
       <c r="C343" s="39" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D343" s="1" t="n">
         <v>5</v>
@@ -16991,7 +17000,7 @@
       <c r="I343" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="J343" s="37" t="n">
+      <c r="J343" s="4" t="n">
         <f aca="false">J342+D342</f>
         <v>713</v>
       </c>
@@ -17025,7 +17034,7 @@
         <v>425</v>
       </c>
       <c r="C344" s="39" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D344" s="1" t="n">
         <v>4</v>
@@ -17043,7 +17052,7 @@
       <c r="I344" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="J344" s="37" t="n">
+      <c r="J344" s="4" t="n">
         <f aca="false">J343+D343</f>
         <v>718</v>
       </c>
@@ -17077,7 +17086,7 @@
         <v>427</v>
       </c>
       <c r="C345" s="39" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D345" s="1" t="n">
         <v>4</v>
@@ -17095,7 +17104,7 @@
       <c r="I345" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="J345" s="37" t="n">
+      <c r="J345" s="4" t="n">
         <f aca="false">J344+D344</f>
         <v>722</v>
       </c>
@@ -17129,7 +17138,7 @@
         <v>429</v>
       </c>
       <c r="C346" s="39" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D346" s="1" t="n">
         <v>3</v>
@@ -17147,7 +17156,7 @@
       <c r="I346" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="J346" s="37" t="n">
+      <c r="J346" s="4" t="n">
         <f aca="false">J345+D345</f>
         <v>726</v>
       </c>
@@ -17181,7 +17190,7 @@
         <v>431</v>
       </c>
       <c r="C347" s="39" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D347" s="1" t="n">
         <v>1</v>
@@ -17199,7 +17208,7 @@
       <c r="I347" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="J347" s="37" t="n">
+      <c r="J347" s="4" t="n">
         <f aca="false">J346+D346</f>
         <v>729</v>
       </c>
@@ -17230,10 +17239,10 @@
     </row>
     <row r="348" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="21" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C348" s="39" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D348" s="1" t="n">
         <v>1</v>
@@ -17251,7 +17260,7 @@
       <c r="I348" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="J348" s="37" t="n">
+      <c r="J348" s="4" t="n">
         <f aca="false">J347+D347</f>
         <v>730</v>
       </c>
@@ -17285,10 +17294,10 @@
         <v>436</v>
       </c>
       <c r="C349" s="39" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D349" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E349" s="33" t="s">
         <v>26</v>
@@ -17303,21 +17312,21 @@
       <c r="I349" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="J349" s="37" t="n">
-        <f aca="false">J347+D347</f>
-        <v>730</v>
+      <c r="J349" s="4" t="n">
+        <f aca="false">J348+D348</f>
+        <v>731</v>
       </c>
       <c r="K349" s="25" t="n">
         <f aca="false">J349/8</f>
-        <v>91.25</v>
+        <v>91.375</v>
       </c>
       <c r="L349" s="25" t="n">
         <f aca="false">J349/16</f>
-        <v>45.625</v>
+        <v>45.6875</v>
       </c>
       <c r="M349" s="25" t="n">
         <f aca="false">J349/32</f>
-        <v>22.8125</v>
+        <v>22.84375</v>
       </c>
       <c r="N349" s="38" t="s">
         <v>29</v>
@@ -17344,10 +17353,22 @@
       <c r="G350" s="33"/>
       <c r="H350" s="33"/>
       <c r="I350" s="33"/>
-      <c r="J350" s="37"/>
-      <c r="K350" s="25"/>
-      <c r="L350" s="25"/>
-      <c r="M350" s="25"/>
+      <c r="J350" s="4" t="n">
+        <f aca="false">J349+D349</f>
+        <v>736</v>
+      </c>
+      <c r="K350" s="25" t="n">
+        <f aca="false">J350/8</f>
+        <v>92</v>
+      </c>
+      <c r="L350" s="25" t="n">
+        <f aca="false">J350/16</f>
+        <v>46</v>
+      </c>
+      <c r="M350" s="25" t="n">
+        <f aca="false">J350/32</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="351" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="38" t="s">
@@ -17371,7 +17392,7 @@
         <v>436</v>
       </c>
       <c r="C352" s="39" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D352" s="1" t="n">
         <v>5</v>
@@ -17420,10 +17441,10 @@
     </row>
     <row r="353" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="21" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C353" s="39" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D353" s="1" t="n">
         <v>1</v>
@@ -17475,7 +17496,7 @@
         <v>431</v>
       </c>
       <c r="C354" s="39" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D354" s="1" t="n">
         <v>1</v>
@@ -17516,7 +17537,7 @@
         <v>2</v>
       </c>
       <c r="P354" s="38" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q354" s="38" t="n">
         <v>0</v>
@@ -17527,7 +17548,7 @@
         <v>429</v>
       </c>
       <c r="C355" s="39" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D355" s="1" t="n">
         <v>3</v>
@@ -17568,7 +17589,7 @@
         <v>2</v>
       </c>
       <c r="P355" s="38" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q355" s="38" t="n">
         <v>0</v>
@@ -17579,7 +17600,7 @@
         <v>427</v>
       </c>
       <c r="C356" s="39" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D356" s="1" t="n">
         <v>4</v>
@@ -17620,7 +17641,7 @@
         <v>2</v>
       </c>
       <c r="P356" s="38" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q356" s="38" t="n">
         <v>0</v>
@@ -17631,7 +17652,7 @@
         <v>425</v>
       </c>
       <c r="C357" s="39" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D357" s="1" t="n">
         <v>4</v>
@@ -17672,7 +17693,7 @@
         <v>2</v>
       </c>
       <c r="P357" s="38" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q357" s="38" t="n">
         <v>0</v>
@@ -17683,7 +17704,7 @@
         <v>423</v>
       </c>
       <c r="C358" s="39" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D358" s="1" t="n">
         <v>5</v>
@@ -17693,7 +17714,7 @@
       </c>
       <c r="F358" s="40"/>
       <c r="G358" s="33" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H358" s="33" t="s">
         <v>27</v>
@@ -17724,7 +17745,7 @@
         <v>2</v>
       </c>
       <c r="P358" s="38" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q358" s="38" t="n">
         <v>0</v>
@@ -17732,10 +17753,10 @@
     </row>
     <row r="359" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="21" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C359" s="39" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D359" s="1" t="n">
         <v>9</v>
@@ -17776,7 +17797,7 @@
         <v>2</v>
       </c>
       <c r="P359" s="38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q359" s="38" t="n">
         <v>0</v>
@@ -17799,15 +17820,15 @@
       <c r="L360" s="25"/>
       <c r="M360" s="25"/>
       <c r="N360" s="38" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="361" s="38" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="361" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="21" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="C361" s="39" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D361" s="1" t="n">
         <v>32</v>
@@ -17842,13 +17863,13 @@
         <v>23</v>
       </c>
       <c r="N361" s="38" t="s">
-        <v>558</v>
+        <v>422</v>
       </c>
       <c r="O361" s="38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P361" s="38" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="Q361" s="38" t="n">
         <v>0</v>
@@ -17857,10 +17878,10 @@
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="38"/>
       <c r="B362" s="21" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C362" s="21" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D362" s="1" t="n">
         <v>32</v>
@@ -17895,13 +17916,13 @@
         <v>24</v>
       </c>
       <c r="N362" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O362" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P362" s="38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q362" s="38" t="n">
         <v>0</v>
@@ -17909,10 +17930,10 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="21" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C363" s="21" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D363" s="1" t="n">
         <v>32</v>
@@ -17947,13 +17968,13 @@
         <v>25</v>
       </c>
       <c r="N363" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O363" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P363" s="38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q363" s="38" t="n">
         <v>0</v>
@@ -17961,10 +17982,10 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="21" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C364" s="21" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D364" s="1" t="n">
         <v>32</v>
@@ -17999,13 +18020,13 @@
         <v>26</v>
       </c>
       <c r="N364" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O364" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P364" s="38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q364" s="38" t="n">
         <v>0</v>
@@ -18013,10 +18034,10 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="21" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C365" s="21" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D365" s="1" t="n">
         <v>32</v>
@@ -18051,13 +18072,13 @@
         <v>27</v>
       </c>
       <c r="N365" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O365" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P365" s="38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q365" s="38" t="n">
         <v>0</v>
@@ -18065,10 +18086,10 @@
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="21" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C366" s="21" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D366" s="1" t="n">
         <v>8</v>
@@ -18103,13 +18124,13 @@
         <v>28</v>
       </c>
       <c r="N366" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O366" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P366" s="38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q366" s="38" t="n">
         <v>0</v>
@@ -18117,10 +18138,10 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="21" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C367" s="21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D367" s="1" t="n">
         <v>8</v>
@@ -18155,13 +18176,13 @@
         <v>28.25</v>
       </c>
       <c r="N367" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O367" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P367" s="38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q367" s="38" t="n">
         <v>0</v>
@@ -18169,10 +18190,10 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="21" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C368" s="21" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D368" s="1" t="n">
         <v>8</v>
@@ -18207,13 +18228,13 @@
         <v>28.5</v>
       </c>
       <c r="N368" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O368" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P368" s="38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q368" s="38" t="n">
         <v>0</v>
@@ -18221,10 +18242,10 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="21" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C369" s="21" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D369" s="1" t="n">
         <v>8</v>
@@ -18259,13 +18280,13 @@
         <v>28.75</v>
       </c>
       <c r="N369" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O369" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P369" s="38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q369" s="38" t="n">
         <v>0</v>
@@ -18273,10 +18294,10 @@
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="21" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C370" s="21" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D370" s="1" t="n">
         <v>8</v>
@@ -18311,13 +18332,13 @@
         <v>29</v>
       </c>
       <c r="N370" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O370" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P370" s="38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q370" s="38" t="n">
         <v>0</v>
@@ -18325,10 +18346,10 @@
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="21" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C371" s="21" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D371" s="1" t="n">
         <v>8</v>
@@ -18363,13 +18384,13 @@
         <v>29.25</v>
       </c>
       <c r="N371" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O371" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P371" s="38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q371" s="38" t="n">
         <v>0</v>
@@ -18377,10 +18398,10 @@
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="21" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C372" s="21" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D372" s="1" t="n">
         <v>8</v>
@@ -18415,13 +18436,13 @@
         <v>29.5</v>
       </c>
       <c r="N372" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O372" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P372" s="38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q372" s="38" t="n">
         <v>0</v>
@@ -18429,10 +18450,10 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="21" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C373" s="21" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D373" s="1" t="n">
         <v>8</v>
@@ -18467,13 +18488,13 @@
         <v>29.75</v>
       </c>
       <c r="N373" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O373" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P373" s="38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q373" s="38" t="n">
         <v>0</v>
@@ -18481,10 +18502,10 @@
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="21" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C374" s="21" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D374" s="1" t="n">
         <v>8</v>
@@ -18519,13 +18540,13 @@
         <v>30</v>
       </c>
       <c r="N374" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O374" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P374" s="38" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q374" s="38" t="n">
         <v>0</v>
@@ -18533,10 +18554,10 @@
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="21" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C375" s="21" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D375" s="1" t="n">
         <v>8</v>
@@ -18571,13 +18592,13 @@
         <v>30.25</v>
       </c>
       <c r="N375" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O375" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P375" s="38" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q375" s="38" t="n">
         <v>0</v>
@@ -18585,10 +18606,10 @@
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="21" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C376" s="21" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D376" s="1" t="n">
         <v>8</v>
@@ -18623,13 +18644,13 @@
         <v>30.5</v>
       </c>
       <c r="N376" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O376" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P376" s="38" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q376" s="38" t="n">
         <v>0</v>
@@ -18637,10 +18658,10 @@
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="21" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C377" s="21" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D377" s="1" t="n">
         <v>8</v>
@@ -18675,13 +18696,13 @@
         <v>30.75</v>
       </c>
       <c r="N377" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O377" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P377" s="38" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q377" s="38" t="n">
         <v>0</v>
@@ -18689,10 +18710,10 @@
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="21" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C378" s="21" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D378" s="1" t="n">
         <v>8</v>
@@ -18727,13 +18748,13 @@
         <v>31</v>
       </c>
       <c r="N378" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O378" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P378" s="38" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q378" s="38" t="n">
         <v>0</v>
@@ -18741,10 +18762,10 @@
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="21" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C379" s="21" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D379" s="1" t="n">
         <v>8</v>
@@ -18779,13 +18800,13 @@
         <v>31.25</v>
       </c>
       <c r="N379" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O379" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P379" s="38" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q379" s="38" t="n">
         <v>0</v>
@@ -18793,10 +18814,10 @@
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="21" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C380" s="21" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D380" s="1" t="n">
         <v>8</v>
@@ -18831,13 +18852,13 @@
         <v>31.5</v>
       </c>
       <c r="N380" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O380" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P380" s="38" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q380" s="38" t="n">
         <v>0</v>
@@ -18845,10 +18866,10 @@
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="21" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C381" s="21" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D381" s="1" t="n">
         <v>8</v>
@@ -18883,13 +18904,13 @@
         <v>31.75</v>
       </c>
       <c r="N381" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O381" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P381" s="38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q381" s="38" t="n">
         <v>0</v>
@@ -18897,10 +18918,10 @@
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="21" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C382" s="21" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D382" s="1" t="n">
         <v>8</v>
@@ -18935,13 +18956,13 @@
         <v>32</v>
       </c>
       <c r="N382" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O382" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P382" s="38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q382" s="38" t="n">
         <v>0</v>
@@ -18949,10 +18970,10 @@
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="21" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C383" s="21" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D383" s="1" t="n">
         <v>8</v>
@@ -18987,13 +19008,13 @@
         <v>32.25</v>
       </c>
       <c r="N383" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O383" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P383" s="38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q383" s="38" t="n">
         <v>0</v>
@@ -19001,10 +19022,10 @@
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="21" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C384" s="21" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D384" s="1" t="n">
         <v>8</v>
@@ -19039,13 +19060,13 @@
         <v>32.5</v>
       </c>
       <c r="N384" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O384" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P384" s="38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q384" s="38" t="n">
         <v>0</v>
@@ -19053,10 +19074,10 @@
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="21" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C385" s="21" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D385" s="1" t="n">
         <v>8</v>
@@ -19091,13 +19112,13 @@
         <v>32.75</v>
       </c>
       <c r="N385" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O385" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P385" s="38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q385" s="38" t="n">
         <v>0</v>
@@ -19105,10 +19126,10 @@
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="21" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C386" s="21" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D386" s="1" t="n">
         <v>8</v>
@@ -19143,13 +19164,13 @@
         <v>33</v>
       </c>
       <c r="N386" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O386" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P386" s="38" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q386" s="38" t="n">
         <v>0</v>
@@ -19157,10 +19178,10 @@
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="21" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C387" s="21" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D387" s="1" t="n">
         <v>8</v>
@@ -19195,13 +19216,13 @@
         <v>33.25</v>
       </c>
       <c r="N387" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O387" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P387" s="38" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q387" s="38" t="n">
         <v>0</v>
@@ -19209,10 +19230,10 @@
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="21" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C388" s="21" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D388" s="1" t="n">
         <v>8</v>
@@ -19247,13 +19268,13 @@
         <v>33.5</v>
       </c>
       <c r="N388" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O388" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P388" s="38" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q388" s="38" t="n">
         <v>0</v>
@@ -19261,10 +19282,10 @@
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="21" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C389" s="21" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D389" s="1" t="n">
         <v>8</v>
@@ -19299,13 +19320,13 @@
         <v>33.75</v>
       </c>
       <c r="N389" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O389" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P389" s="38" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q389" s="38" t="n">
         <v>0</v>
@@ -19313,10 +19334,10 @@
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C390" s="21" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D390" s="1" t="n">
         <v>8</v>
@@ -19351,13 +19372,13 @@
         <v>34</v>
       </c>
       <c r="N390" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O390" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P390" s="38" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q390" s="38" t="n">
         <v>0</v>
@@ -19365,10 +19386,10 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="21" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C391" s="21" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D391" s="1" t="n">
         <v>8</v>
@@ -19403,13 +19424,13 @@
         <v>34.25</v>
       </c>
       <c r="N391" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O391" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P391" s="38" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q391" s="38" t="n">
         <v>0</v>
@@ -19417,10 +19438,10 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="21" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C392" s="21" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D392" s="1" t="n">
         <v>8</v>
@@ -19455,13 +19476,13 @@
         <v>34.5</v>
       </c>
       <c r="N392" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O392" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P392" s="38" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q392" s="38" t="n">
         <v>0</v>
@@ -19469,10 +19490,10 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="21" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C393" s="21" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D393" s="1" t="n">
         <v>8</v>
@@ -19507,13 +19528,13 @@
         <v>34.75</v>
       </c>
       <c r="N393" s="38" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O393" s="38" t="n">
         <v>5</v>
       </c>
       <c r="P393" s="38" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q393" s="38" t="n">
         <v>0</v>
@@ -19521,10 +19542,10 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="3" t="s">
-        <v>545</v>
+        <v>625</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D394" s="1" t="n">
         <v>16</v>
@@ -19561,13 +19582,13 @@
         <v>35</v>
       </c>
       <c r="N394" s="38" t="s">
-        <v>558</v>
+        <v>402</v>
       </c>
       <c r="O394" s="38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P394" s="38" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="Q394" s="38" t="n">
         <v>0</v>
@@ -19584,7 +19605,7 @@
         <v>16</v>
       </c>
       <c r="E395" s="33" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F395" s="33"/>
       <c r="G395" s="33" t="n">
@@ -19689,10 +19710,10 @@
   <dimension ref="B6:I20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="1" sqref="N295 F8"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.11"/>
@@ -19702,22 +19723,22 @@
     <row r="6" s="43" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="44"/>
       <c r="C6" s="44" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="I6" s="44"/>
     </row>

--- a/genSpacecraft/DownlinkSpecGolf-T.xlsx
+++ b/genSpacecraft/DownlinkSpecGolf-T.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="634">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -1418,255 +1418,258 @@
     <t xml:space="preserve">LIHU Version Number</t>
   </si>
   <si>
+    <t xml:space="preserve">LegSWVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LegErrorData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure:rt1Errors_t,file:rt1ErrorsDownlink.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watchdog Tasks Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wdReports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">errorCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taskNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">previousTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earlyResetCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wasStillEarlyInBoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTIHU1 Data Valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filler1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLF_RTIHU_ERR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTIHU1: WD Tasks Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">errorData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary SRAM Corrected Addr 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMCorAddr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary RT Errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary SRAM Corrected Addr 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMCorAddr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Flash Corrected Addr 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMCorAddr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Flash Corrected Addr 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMCorAddr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCT1CmdFailCRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCTCmdFailCRCCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCT1CmdFailTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCTCmdFailTimeCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCT1CmdFailAuthenticate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCTCmdFailAuthenticateCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCT1CmdFailCommand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCTCmdFailCommandCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCT1CmdFailNamespace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCTCmdFailNamespaceCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1I2C1Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C1ErrorCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1I2C2Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C2ErrorCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1I2C1Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C1ResetCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1I2C2Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C2ResetCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1 I2c1 Retry Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C1RetryCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1 I2c2 Retry Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C2RetryCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1SPIRetries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPIRetryCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1 MRAM CRC Fail count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MramCRCCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1 MRAM Read Error Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MramRdErrorCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1 MRAM Write Error Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MramWtErrorCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1FlashCorrectable Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlashCorCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1 Ram Even Bank Correctable Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RamEvenCorCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1 Ram Odd Bank Correctable Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RamOddCorCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1PLLSlip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLLSlipCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1ClockMonitorFail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClockMonitorFailCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1VIMRamParity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIMRamParityCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1CAN1RamParity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN1RamParityCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1CAN2RamParity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN2RamParityCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1DCC1Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCC1ErrorCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1DCC2Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCC2ErrorCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1N2HET2RamParity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2HET2RamParityCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1IOMMAccvio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOMMAccvioCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-fatal error count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nonFatalCnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTIHU1 Version Number</t>
+  </si>
+  <si>
     <t xml:space="preserve">SWVersion</t>
   </si>
   <si>
-    <t xml:space="preserve">Error Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LegErrorData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure:rt1Errors_t,file:rt1ErrorsDownlink.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watchdog Tasks Ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wdReports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">errorCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taskNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">previousTask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earlyResetCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wasStillEarlyInBoot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTIHU1 Data Valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filler1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOLF_RTIHU_ERR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTIHU1: WD Tasks Ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">errorData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary SRAM Corrected Addr 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAMCorAddr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary RT Errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary SRAM Corrected Addr 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAMCorAddr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Flash Corrected Addr 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMCorAddr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Flash Corrected Addr 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMCorAddr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCT1CmdFailCRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCTCmdFailCRCCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCT1CmdFailTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCTCmdFailTimeCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCT1CmdFailAuthenticate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCTCmdFailAuthenticateCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCT1CmdFailCommand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCTCmdFailCommandCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCT1CmdFailNamespace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCTCmdFailNamespaceCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1I2C1Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C1ErrorCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1I2C2Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C2ErrorCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1I2C1Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C1ResetCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1I2C2Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C2ResetCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1 I2c1 Retry Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C1RetryCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1 I2c2 Retry Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C2RetryCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1SPIRetries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPIRetryCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1 MRAM CRC Fail count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MramCRCCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1 MRAM Read Error Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MramRdErrorCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1 MRAM Write Error Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MramWtErrorCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1FlashCorrectable Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FlashCorCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1 Ram Even Bank Correctable Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RamEvenCorCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1 Ram Odd Bank Correctable Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RamOddCorCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1PLLSlip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLLSlipCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1ClockMonitorFail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClockMonitorFailCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1VIMRamParity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIMRamParityCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1CAN1RamParity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN1RamParityCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1CAN2RamParity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN2RamParityCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1DCC1Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCC1ErrorCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1DCC2Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCC2ErrorCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1N2HET2RamParity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2HET2RamParityCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1IOMMAccvio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOMMAccvioCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-fatal error count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nonFatalCnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTIHU1 Version Number</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unisgned</t>
   </si>
   <si>
@@ -1899,6 +1902,9 @@
   </si>
   <si>
     <t xml:space="preserve">RTIHU2 Version Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT2SWVersion</t>
   </si>
   <si>
     <t xml:space="preserve">Payloads per Frame</t>
@@ -2266,8 +2272,8 @@
   </sheetPr>
   <dimension ref="A1:Q397"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A275" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J361" activeCellId="0" sqref="J361"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A278" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C394" activeCellId="0" sqref="C394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16716,7 +16722,7 @@
         <v>547</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>465</v>
+        <v>548</v>
       </c>
       <c r="D336" s="1" t="n">
         <v>16</v>
@@ -16776,7 +16782,7 @@
         <v>16</v>
       </c>
       <c r="E337" s="33" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F337" s="33"/>
       <c r="G337" s="33" t="n">
@@ -16844,7 +16850,7 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="36" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F339" s="33"/>
       <c r="G339" s="33"/>
@@ -16927,10 +16933,10 @@
     </row>
     <row r="342" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="21" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C342" s="39" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D342" s="1" t="n">
         <v>9</v>
@@ -16982,7 +16988,7 @@
         <v>423</v>
       </c>
       <c r="C343" s="39" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D343" s="1" t="n">
         <v>5</v>
@@ -17034,7 +17040,7 @@
         <v>425</v>
       </c>
       <c r="C344" s="39" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D344" s="1" t="n">
         <v>4</v>
@@ -17086,7 +17092,7 @@
         <v>427</v>
       </c>
       <c r="C345" s="39" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D345" s="1" t="n">
         <v>4</v>
@@ -17138,7 +17144,7 @@
         <v>429</v>
       </c>
       <c r="C346" s="39" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D346" s="1" t="n">
         <v>3</v>
@@ -17190,7 +17196,7 @@
         <v>431</v>
       </c>
       <c r="C347" s="39" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D347" s="1" t="n">
         <v>1</v>
@@ -17239,10 +17245,10 @@
     </row>
     <row r="348" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="21" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C348" s="39" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D348" s="1" t="n">
         <v>1</v>
@@ -17294,7 +17300,7 @@
         <v>436</v>
       </c>
       <c r="C349" s="39" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D349" s="1" t="n">
         <v>5</v>
@@ -17392,7 +17398,7 @@
         <v>436</v>
       </c>
       <c r="C352" s="39" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D352" s="1" t="n">
         <v>5</v>
@@ -17441,10 +17447,10 @@
     </row>
     <row r="353" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="21" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C353" s="39" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D353" s="1" t="n">
         <v>1</v>
@@ -17496,7 +17502,7 @@
         <v>431</v>
       </c>
       <c r="C354" s="39" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D354" s="1" t="n">
         <v>1</v>
@@ -17548,7 +17554,7 @@
         <v>429</v>
       </c>
       <c r="C355" s="39" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D355" s="1" t="n">
         <v>3</v>
@@ -17600,7 +17606,7 @@
         <v>427</v>
       </c>
       <c r="C356" s="39" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D356" s="1" t="n">
         <v>4</v>
@@ -17652,7 +17658,7 @@
         <v>425</v>
       </c>
       <c r="C357" s="39" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D357" s="1" t="n">
         <v>4</v>
@@ -17704,7 +17710,7 @@
         <v>423</v>
       </c>
       <c r="C358" s="39" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D358" s="1" t="n">
         <v>5</v>
@@ -17753,10 +17759,10 @@
     </row>
     <row r="359" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="21" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C359" s="39" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D359" s="1" t="n">
         <v>9</v>
@@ -17820,7 +17826,7 @@
       <c r="L360" s="25"/>
       <c r="M360" s="25"/>
       <c r="N360" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="361" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17828,7 +17834,7 @@
         <v>466</v>
       </c>
       <c r="C361" s="39" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D361" s="1" t="n">
         <v>32</v>
@@ -17878,10 +17884,10 @@
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="38"/>
       <c r="B362" s="21" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C362" s="21" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D362" s="1" t="n">
         <v>32</v>
@@ -17916,7 +17922,7 @@
         <v>24</v>
       </c>
       <c r="N362" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O362" s="38" t="n">
         <v>5</v>
@@ -17930,10 +17936,10 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="21" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C363" s="21" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D363" s="1" t="n">
         <v>32</v>
@@ -17968,7 +17974,7 @@
         <v>25</v>
       </c>
       <c r="N363" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O363" s="38" t="n">
         <v>5</v>
@@ -17982,10 +17988,10 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="21" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C364" s="21" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D364" s="1" t="n">
         <v>32</v>
@@ -18020,7 +18026,7 @@
         <v>26</v>
       </c>
       <c r="N364" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O364" s="38" t="n">
         <v>5</v>
@@ -18034,10 +18040,10 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="21" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C365" s="21" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D365" s="1" t="n">
         <v>32</v>
@@ -18072,7 +18078,7 @@
         <v>27</v>
       </c>
       <c r="N365" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O365" s="38" t="n">
         <v>5</v>
@@ -18086,10 +18092,10 @@
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="21" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C366" s="21" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D366" s="1" t="n">
         <v>8</v>
@@ -18124,7 +18130,7 @@
         <v>28</v>
       </c>
       <c r="N366" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O366" s="38" t="n">
         <v>5</v>
@@ -18138,10 +18144,10 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="21" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C367" s="21" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D367" s="1" t="n">
         <v>8</v>
@@ -18176,7 +18182,7 @@
         <v>28.25</v>
       </c>
       <c r="N367" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O367" s="38" t="n">
         <v>5</v>
@@ -18190,10 +18196,10 @@
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="21" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C368" s="21" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D368" s="1" t="n">
         <v>8</v>
@@ -18228,7 +18234,7 @@
         <v>28.5</v>
       </c>
       <c r="N368" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O368" s="38" t="n">
         <v>5</v>
@@ -18242,10 +18248,10 @@
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="21" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C369" s="21" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D369" s="1" t="n">
         <v>8</v>
@@ -18280,7 +18286,7 @@
         <v>28.75</v>
       </c>
       <c r="N369" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O369" s="38" t="n">
         <v>5</v>
@@ -18294,10 +18300,10 @@
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="21" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C370" s="21" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D370" s="1" t="n">
         <v>8</v>
@@ -18332,7 +18338,7 @@
         <v>29</v>
       </c>
       <c r="N370" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O370" s="38" t="n">
         <v>5</v>
@@ -18346,10 +18352,10 @@
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="21" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C371" s="21" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D371" s="1" t="n">
         <v>8</v>
@@ -18384,7 +18390,7 @@
         <v>29.25</v>
       </c>
       <c r="N371" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O371" s="38" t="n">
         <v>5</v>
@@ -18398,10 +18404,10 @@
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="21" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C372" s="21" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D372" s="1" t="n">
         <v>8</v>
@@ -18436,7 +18442,7 @@
         <v>29.5</v>
       </c>
       <c r="N372" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O372" s="38" t="n">
         <v>5</v>
@@ -18450,10 +18456,10 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="21" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C373" s="21" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D373" s="1" t="n">
         <v>8</v>
@@ -18488,7 +18494,7 @@
         <v>29.75</v>
       </c>
       <c r="N373" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O373" s="38" t="n">
         <v>5</v>
@@ -18502,10 +18508,10 @@
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="21" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C374" s="21" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D374" s="1" t="n">
         <v>8</v>
@@ -18540,7 +18546,7 @@
         <v>30</v>
       </c>
       <c r="N374" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O374" s="38" t="n">
         <v>5</v>
@@ -18554,10 +18560,10 @@
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="21" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C375" s="21" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D375" s="1" t="n">
         <v>8</v>
@@ -18592,7 +18598,7 @@
         <v>30.25</v>
       </c>
       <c r="N375" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O375" s="38" t="n">
         <v>5</v>
@@ -18606,10 +18612,10 @@
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="21" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C376" s="21" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D376" s="1" t="n">
         <v>8</v>
@@ -18644,7 +18650,7 @@
         <v>30.5</v>
       </c>
       <c r="N376" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O376" s="38" t="n">
         <v>5</v>
@@ -18658,10 +18664,10 @@
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="21" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C377" s="21" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D377" s="1" t="n">
         <v>8</v>
@@ -18696,7 +18702,7 @@
         <v>30.75</v>
       </c>
       <c r="N377" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O377" s="38" t="n">
         <v>5</v>
@@ -18710,10 +18716,10 @@
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="21" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C378" s="21" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D378" s="1" t="n">
         <v>8</v>
@@ -18748,7 +18754,7 @@
         <v>31</v>
       </c>
       <c r="N378" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O378" s="38" t="n">
         <v>5</v>
@@ -18762,10 +18768,10 @@
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="21" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C379" s="21" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D379" s="1" t="n">
         <v>8</v>
@@ -18800,7 +18806,7 @@
         <v>31.25</v>
       </c>
       <c r="N379" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O379" s="38" t="n">
         <v>5</v>
@@ -18814,10 +18820,10 @@
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="21" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C380" s="21" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D380" s="1" t="n">
         <v>8</v>
@@ -18852,7 +18858,7 @@
         <v>31.5</v>
       </c>
       <c r="N380" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O380" s="38" t="n">
         <v>5</v>
@@ -18866,10 +18872,10 @@
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="21" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C381" s="21" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D381" s="1" t="n">
         <v>8</v>
@@ -18904,7 +18910,7 @@
         <v>31.75</v>
       </c>
       <c r="N381" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O381" s="38" t="n">
         <v>5</v>
@@ -18918,10 +18924,10 @@
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="21" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C382" s="21" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D382" s="1" t="n">
         <v>8</v>
@@ -18956,7 +18962,7 @@
         <v>32</v>
       </c>
       <c r="N382" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O382" s="38" t="n">
         <v>5</v>
@@ -18970,10 +18976,10 @@
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="21" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C383" s="21" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D383" s="1" t="n">
         <v>8</v>
@@ -19008,7 +19014,7 @@
         <v>32.25</v>
       </c>
       <c r="N383" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O383" s="38" t="n">
         <v>5</v>
@@ -19022,10 +19028,10 @@
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="21" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C384" s="21" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D384" s="1" t="n">
         <v>8</v>
@@ -19060,7 +19066,7 @@
         <v>32.5</v>
       </c>
       <c r="N384" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O384" s="38" t="n">
         <v>5</v>
@@ -19074,10 +19080,10 @@
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="21" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C385" s="21" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D385" s="1" t="n">
         <v>8</v>
@@ -19112,7 +19118,7 @@
         <v>32.75</v>
       </c>
       <c r="N385" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O385" s="38" t="n">
         <v>5</v>
@@ -19126,10 +19132,10 @@
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="21" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C386" s="21" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D386" s="1" t="n">
         <v>8</v>
@@ -19164,7 +19170,7 @@
         <v>33</v>
       </c>
       <c r="N386" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O386" s="38" t="n">
         <v>5</v>
@@ -19178,10 +19184,10 @@
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="21" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C387" s="21" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D387" s="1" t="n">
         <v>8</v>
@@ -19216,7 +19222,7 @@
         <v>33.25</v>
       </c>
       <c r="N387" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O387" s="38" t="n">
         <v>5</v>
@@ -19230,10 +19236,10 @@
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="21" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C388" s="21" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D388" s="1" t="n">
         <v>8</v>
@@ -19268,7 +19274,7 @@
         <v>33.5</v>
       </c>
       <c r="N388" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O388" s="38" t="n">
         <v>5</v>
@@ -19282,10 +19288,10 @@
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="21" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C389" s="21" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D389" s="1" t="n">
         <v>8</v>
@@ -19320,7 +19326,7 @@
         <v>33.75</v>
       </c>
       <c r="N389" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O389" s="38" t="n">
         <v>5</v>
@@ -19334,10 +19340,10 @@
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="21" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C390" s="21" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D390" s="1" t="n">
         <v>8</v>
@@ -19372,7 +19378,7 @@
         <v>34</v>
       </c>
       <c r="N390" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O390" s="38" t="n">
         <v>5</v>
@@ -19386,10 +19392,10 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="21" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C391" s="21" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D391" s="1" t="n">
         <v>8</v>
@@ -19424,7 +19430,7 @@
         <v>34.25</v>
       </c>
       <c r="N391" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O391" s="38" t="n">
         <v>5</v>
@@ -19438,10 +19444,10 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="21" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C392" s="21" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D392" s="1" t="n">
         <v>8</v>
@@ -19476,7 +19482,7 @@
         <v>34.5</v>
       </c>
       <c r="N392" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O392" s="38" t="n">
         <v>5</v>
@@ -19493,7 +19499,7 @@
         <v>545</v>
       </c>
       <c r="C393" s="21" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D393" s="1" t="n">
         <v>8</v>
@@ -19528,7 +19534,7 @@
         <v>34.75</v>
       </c>
       <c r="N393" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O393" s="38" t="n">
         <v>5</v>
@@ -19542,10 +19548,10 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>465</v>
+        <v>627</v>
       </c>
       <c r="D394" s="1" t="n">
         <v>16</v>
@@ -19605,7 +19611,7 @@
         <v>16</v>
       </c>
       <c r="E395" s="33" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F395" s="33"/>
       <c r="G395" s="33" t="n">
@@ -19723,22 +19729,22 @@
     <row r="6" s="43" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="44"/>
       <c r="C6" s="44" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="I6" s="44"/>
     </row>

--- a/genSpacecraft/DownlinkSpecGolf-T.xlsx
+++ b/genSpacecraft/DownlinkSpecGolf-T.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="651">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -404,7 +404,10 @@
     <t xml:space="preserve">DCT1RSSI</t>
   </si>
   <si>
-    <t xml:space="preserve">-dBm</t>
+    <t xml:space="preserve">dct_rssi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dBm</t>
   </si>
   <si>
     <t xml:space="preserve">DCT1 RSSI</t>
@@ -413,7 +416,7 @@
     <t xml:space="preserve">Secndry RSSI</t>
   </si>
   <si>
-    <t xml:space="preserve">DCT2RSSO</t>
+    <t xml:space="preserve">DCT2RSSI</t>
   </si>
   <si>
     <t xml:space="preserve">DCT2 RSSI</t>
@@ -489,9 +492,6 @@
   </si>
   <si>
     <t xml:space="preserve">RSSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dBm</t>
   </si>
   <si>
     <t xml:space="preserve">Received Signal Strength Indication</t>
@@ -2323,8 +2323,8 @@
   </sheetPr>
   <dimension ref="A1:Q405"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q87" activeCellId="0" sqref="Q87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G53" activeCellId="0" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4223,14 +4223,14 @@
         <v>26</v>
       </c>
       <c r="F49" s="22"/>
-      <c r="G49" s="22" t="n">
-        <v>1</v>
+      <c r="G49" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J49" s="26" t="n">
         <f aca="false">J48+D48</f>
@@ -4263,10 +4263,10 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D50" s="28" t="n">
         <v>8</v>
@@ -4275,14 +4275,14 @@
         <v>26</v>
       </c>
       <c r="F50" s="22"/>
-      <c r="G50" s="22" t="n">
-        <v>1</v>
+      <c r="G50" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J50" s="26" t="n">
         <f aca="false">J49+D49</f>
@@ -4315,10 +4315,10 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D51" s="28" t="n">
         <v>8</v>
@@ -4367,10 +4367,10 @@
     </row>
     <row r="52" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D52" s="28" t="n">
         <v>8</v>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="H52" s="21"/>
       <c r="I52" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J52" s="26" t="n">
         <f aca="false">J51+D51</f>
@@ -4417,10 +4417,10 @@
     </row>
     <row r="53" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D53" s="28" t="n">
         <v>8</v>
@@ -4430,13 +4430,13 @@
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I53" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J53" s="26" t="n">
         <f aca="false">J52+D52</f>
@@ -4455,7 +4455,7 @@
         <v>4.75</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O53" s="1" t="n">
         <v>6</v>
@@ -4469,10 +4469,10 @@
     </row>
     <row r="54" customFormat="false" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D54" s="28" t="n">
         <v>8</v>
@@ -4482,13 +4482,13 @@
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J54" s="26" t="n">
         <f aca="false">J53+D53</f>
@@ -4521,10 +4521,10 @@
     </row>
     <row r="55" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D55" s="28" t="n">
         <v>8</v>
@@ -4540,7 +4540,7 @@
         <v>83</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J55" s="26" t="n">
         <f aca="false">J54+D54</f>
@@ -4573,10 +4573,10 @@
     </row>
     <row r="56" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D56" s="28" t="n">
         <v>8</v>
@@ -4592,7 +4592,7 @@
         <v>68</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J56" s="26" t="n">
         <f aca="false">J55+D55</f>
@@ -4625,10 +4625,10 @@
     </row>
     <row r="57" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D57" s="28" t="n">
         <v>8</v>
@@ -4638,10 +4638,10 @@
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="I57" s="22" t="s">
         <v>157</v>
@@ -4715,7 +4715,7 @@
         <v>6</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O58" s="1" t="n">
         <v>6</v>
@@ -4767,7 +4767,7 @@
         <v>6.25</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O59" s="1" t="n">
         <v>6</v>
@@ -4819,7 +4819,7 @@
         <v>6.5</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O60" s="1" t="n">
         <v>6</v>
@@ -4871,7 +4871,7 @@
         <v>6.75</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O61" s="1" t="n">
         <v>6</v>
@@ -4923,7 +4923,7 @@
         <v>7</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O62" s="1" t="n">
         <v>6</v>
@@ -4975,7 +4975,7 @@
         <v>7.25</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O63" s="1" t="n">
         <v>6</v>
@@ -5027,7 +5027,7 @@
         <v>7.5</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O64" s="1" t="n">
         <v>6</v>
@@ -5079,7 +5079,7 @@
         <v>7.75</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O65" s="1" t="n">
         <v>6</v>
@@ -6146,13 +6146,13 @@
       </c>
       <c r="F86" s="22"/>
       <c r="G86" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I86" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J86" s="26" t="n">
         <f aca="false">J85+D85</f>
@@ -6685,7 +6685,7 @@
         <v>14.625</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O99" s="1" t="n">
         <v>6</v>
@@ -9487,7 +9487,7 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C164" s="28" t="s">
         <v>371</v>
@@ -9836,7 +9836,7 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C174" s="28" t="s">
         <v>385</v>
@@ -9886,7 +9886,7 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C175" s="28" t="s">
         <v>386</v>
@@ -20179,7 +20179,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.11"/>

--- a/genSpacecraft/DownlinkSpecGolf-T.xlsx
+++ b/genSpacecraft/DownlinkSpecGolf-T.xlsx
@@ -20608,7 +20608,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.11"/>

--- a/genSpacecraft/DownlinkSpecGolf-T.xlsx
+++ b/genSpacecraft/DownlinkSpecGolf-T.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="680">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -452,63 +452,66 @@
     <t xml:space="preserve">Vbatt Bus voltage</t>
   </si>
   <si>
+    <t xml:space="preserve">Legacy IHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TxPAi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golf-t_tx_current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmit power amplifier current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TxTemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmitter card temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fwd Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FwdPower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiver card temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICR RSSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rssi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received Signal Strength Indication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minus Y Volts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinusYVolts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left (-Y) deployable panel Voltage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Solar Panels</t>
   </si>
   <si>
-    <t xml:space="preserve">PA Current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TxPAi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golf-t_tx_current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmit power amplifier current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TX Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TxTemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmitter card temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fwd Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FwdPower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receiver card temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICR RSSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rssi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received Signal Strength Indication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minus Y Volts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinusYVolts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left (-Y) deployable panel Voltage</t>
-  </si>
-  <si>
     <t xml:space="preserve">Minus X Volts</t>
   </si>
   <si>
@@ -596,9 +599,6 @@
     <t xml:space="preserve">Internal Temperature of IHU</t>
   </si>
   <si>
-    <t xml:space="preserve">Legacy IHU</t>
-  </si>
-  <si>
     <t xml:space="preserve">Modulator Temp</t>
   </si>
   <si>
@@ -830,79 +830,82 @@
     <t xml:space="preserve">de</t>
   </si>
   <si>
+    <t xml:space="preserve">Primary Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrimaryRTActive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Primary MCU on the RTIHU is in control of the RTIHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Safe Allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoSafeAllowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autosafe Allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Safe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoSafeModeActive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autosafe Mode Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2c CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2CfailureSunSense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarse Sun Sensor I2c failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2c Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2CfailureSolarV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Voltage I2c failure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transponder Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transponderEnabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2cICR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2CfailureICR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antenna is not communicating over bus 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2c Deploy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2CFailureDeploy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antenna is not communicating over bus 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transponder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF I2C Bus failure indicator</t>
+  </si>
+  <si>
     <t xml:space="preserve">Primary RTIHU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrimaryRTActive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Primary MCU on the RTIHU is in control of the RTIHU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto Safe Allowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoSafeAllowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autosafe Allowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto Safe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoSafeModeActive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autosafe Mode Active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2c CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2CfailureSunSense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coarse Sun Sensor I2c failure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2c Solar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2CfailureSolarV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar Voltage I2c failure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transponder Enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transponderEnabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2cICR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2CfailureICR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antenna is not communicating over bus 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2c Deploy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2CFailureDeploy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antenna is not communicating over bus 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transponder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RF I2C Bus failure indicator</t>
   </si>
   <si>
     <t xml:space="preserve">Min/Max Resets</t>
@@ -2423,8 +2426,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B180" activeCellId="0" sqref="B180"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P108" activeCellId="0" sqref="P108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4558,10 +4561,10 @@
         <v>143</v>
       </c>
       <c r="O53" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P53" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="P53" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="Q53" s="1" t="n">
         <v>3</v>
@@ -4775,7 +4778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="30" t="s">
         <v>159</v>
       </c>
@@ -4815,24 +4818,24 @@
         <v>6</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O58" s="3" t="n">
         <v>6</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D59" s="30" t="n">
         <v>8</v>
@@ -4848,7 +4851,7 @@
         <v>74</v>
       </c>
       <c r="I59" s="30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J59" s="28" t="n">
         <f aca="false">J58+D58</f>
@@ -4867,24 +4870,24 @@
         <v>6.25</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O59" s="3" t="n">
         <v>6</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q59" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D60" s="30" t="n">
         <v>8</v>
@@ -4900,7 +4903,7 @@
         <v>74</v>
       </c>
       <c r="I60" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J60" s="28" t="n">
         <f aca="false">J59+D59</f>
@@ -4919,24 +4922,24 @@
         <v>6.5</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O60" s="3" t="n">
         <v>6</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q60" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D61" s="30" t="n">
         <v>8</v>
@@ -4952,7 +4955,7 @@
         <v>74</v>
       </c>
       <c r="I61" s="30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J61" s="28" t="n">
         <f aca="false">J60+D60</f>
@@ -4971,24 +4974,24 @@
         <v>6.75</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O61" s="3" t="n">
         <v>6</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q61" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D62" s="30" t="n">
         <v>8</v>
@@ -5023,24 +5026,24 @@
         <v>7</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O62" s="3" t="n">
         <v>6</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q62" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D63" s="30" t="n">
         <v>8</v>
@@ -5056,7 +5059,7 @@
         <v>80</v>
       </c>
       <c r="I63" s="30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J63" s="28" t="n">
         <f aca="false">J62+D62</f>
@@ -5075,24 +5078,24 @@
         <v>7.25</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O63" s="3" t="n">
         <v>6</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q63" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D64" s="30" t="n">
         <v>8</v>
@@ -5108,7 +5111,7 @@
         <v>80</v>
       </c>
       <c r="I64" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J64" s="28" t="n">
         <f aca="false">J63+D63</f>
@@ -5127,24 +5130,24 @@
         <v>7.5</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O64" s="3" t="n">
         <v>6</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q64" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D65" s="30" t="n">
         <v>8</v>
@@ -5160,7 +5163,7 @@
         <v>80</v>
       </c>
       <c r="I65" s="30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J65" s="28" t="n">
         <f aca="false">J64+D64</f>
@@ -5179,13 +5182,13 @@
         <v>7.75</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O65" s="3" t="n">
         <v>6</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q65" s="1" t="n">
         <v>3</v>
@@ -5193,10 +5196,10 @@
     </row>
     <row r="66" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D66" s="30" t="n">
         <v>8</v>
@@ -5212,7 +5215,7 @@
         <v>74</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J66" s="28" t="n">
         <f aca="false">J65+D65</f>
@@ -5245,10 +5248,10 @@
     </row>
     <row r="67" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D67" s="30" t="n">
         <v>8</v>
@@ -5264,7 +5267,7 @@
         <v>80</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J67" s="28" t="n">
         <f aca="false">J66+D66</f>
@@ -5297,10 +5300,10 @@
     </row>
     <row r="68" customFormat="false" ht="28.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D68" s="30" t="n">
         <v>8</v>
@@ -5316,7 +5319,7 @@
         <v>80</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J68" s="28" t="n">
         <f aca="false">J67+D67</f>
@@ -5349,10 +5352,10 @@
     </row>
     <row r="69" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D69" s="30" t="n">
         <v>8</v>
@@ -5368,7 +5371,7 @@
         <v>80</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J69" s="28" t="n">
         <f aca="false">J68+D68</f>
@@ -5387,7 +5390,7 @@
         <v>8.75</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="O69" s="3" t="n">
         <v>2</v>
@@ -7004,7 +7007,7 @@
       <c r="L103" s="27"/>
       <c r="M103" s="27"/>
     </row>
-    <row r="104" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="30" t="s">
         <v>269</v>
       </c>
@@ -7250,13 +7253,13 @@
         <v>16.625</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O108" s="3" t="n">
         <v>6</v>
       </c>
       <c r="P108" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q108" s="1" t="n">
         <v>0</v>
@@ -7300,7 +7303,7 @@
         <v>16.65625</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="O109" s="3" t="n">
         <v>2</v>
@@ -7819,7 +7822,7 @@
     </row>
     <row r="121" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="30" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="C121" s="30" t="s">
         <v>270</v>
@@ -7890,10 +7893,10 @@
     </row>
     <row r="123" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D123" s="30" t="n">
         <v>8</v>
@@ -7909,7 +7912,7 @@
         <v>27</v>
       </c>
       <c r="I123" s="23" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J123" s="28" t="n">
         <f aca="false">J121+D121</f>
@@ -7942,10 +7945,10 @@
     </row>
     <row r="124" customFormat="false" ht="113.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D124" s="30" t="n">
         <v>8</v>
@@ -7961,7 +7964,7 @@
         <v>27</v>
       </c>
       <c r="I124" s="23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J124" s="28" t="n">
         <f aca="false">J123+D123</f>
@@ -7994,10 +7997,10 @@
     </row>
     <row r="125" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D125" s="30" t="n">
         <v>32</v>
@@ -8015,7 +8018,7 @@
         <v>27</v>
       </c>
       <c r="I125" s="23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J125" s="28" t="n">
         <f aca="false">J124+D124</f>
@@ -8048,10 +8051,10 @@
     </row>
     <row r="126" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C126" s="30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D126" s="30" t="n">
         <v>8</v>
@@ -8067,7 +8070,7 @@
         <v>27</v>
       </c>
       <c r="I126" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J126" s="28" t="n">
         <f aca="false">J125+D125</f>
@@ -8100,10 +8103,10 @@
     </row>
     <row r="127" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C127" s="30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D127" s="30" t="n">
         <v>8</v>
@@ -8119,7 +8122,7 @@
         <v>27</v>
       </c>
       <c r="I127" s="23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J127" s="28" t="n">
         <f aca="false">J126+D126</f>
@@ -8152,10 +8155,10 @@
     </row>
     <row r="128" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D128" s="30" t="n">
         <v>8</v>
@@ -8171,7 +8174,7 @@
         <v>27</v>
       </c>
       <c r="I128" s="23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J128" s="28" t="n">
         <f aca="false">J127+D127</f>
@@ -8204,10 +8207,10 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="30" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D129" s="30" t="n">
         <v>8</v>
@@ -8256,10 +8259,10 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="30" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D130" s="30" t="n">
         <v>8</v>
@@ -8308,10 +8311,10 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D131" s="30" t="n">
         <v>8</v>
@@ -8346,7 +8349,7 @@
         <v>19.5</v>
       </c>
       <c r="N131" s="5" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="O131" s="24" t="n">
         <v>2</v>
@@ -8360,10 +8363,10 @@
     </row>
     <row r="132" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="30" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D132" s="30" t="n">
         <v>8</v>
@@ -8379,7 +8382,7 @@
         <v>27</v>
       </c>
       <c r="I132" s="23" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J132" s="28" t="n">
         <f aca="false">J131+D131</f>
@@ -8412,10 +8415,10 @@
     </row>
     <row r="133" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C133" s="31" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D133" s="30" t="n">
         <v>8</v>
@@ -8431,7 +8434,7 @@
         <v>27</v>
       </c>
       <c r="I133" s="23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J133" s="28" t="n">
         <f aca="false">J132+D132</f>
@@ -8464,10 +8467,10 @@
     </row>
     <row r="134" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="30" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C134" s="30" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D134" s="30" t="n">
         <v>8</v>
@@ -8483,7 +8486,7 @@
         <v>27</v>
       </c>
       <c r="I134" s="23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J134" s="28" t="n">
         <f aca="false">J133+D133</f>
@@ -8516,10 +8519,10 @@
     </row>
     <row r="135" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="30" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D135" s="30" t="n">
         <v>8</v>
@@ -8535,7 +8538,7 @@
         <v>27</v>
       </c>
       <c r="I135" s="23" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J135" s="28" t="n">
         <f aca="false">J134+D134</f>
@@ -8568,10 +8571,10 @@
     </row>
     <row r="136" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C136" s="30" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D136" s="30" t="n">
         <v>8</v>
@@ -8587,7 +8590,7 @@
         <v>27</v>
       </c>
       <c r="I136" s="23" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J136" s="28" t="n">
         <f aca="false">J135+D135</f>
@@ -8620,10 +8623,10 @@
     </row>
     <row r="137" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="30" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D137" s="30" t="n">
         <v>8</v>
@@ -8639,7 +8642,7 @@
         <v>27</v>
       </c>
       <c r="I137" s="23" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J137" s="28" t="n">
         <f aca="false">J136+D136</f>
@@ -8672,10 +8675,10 @@
     </row>
     <row r="138" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="30" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C138" s="30" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D138" s="30" t="n">
         <v>8</v>
@@ -8691,7 +8694,7 @@
         <v>27</v>
       </c>
       <c r="I138" s="23" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J138" s="28" t="n">
         <f aca="false">J137+D137</f>
@@ -8724,10 +8727,10 @@
     </row>
     <row r="139" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="30" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C139" s="30" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D139" s="30" t="n">
         <v>8</v>
@@ -8743,7 +8746,7 @@
         <v>27</v>
       </c>
       <c r="I139" s="23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J139" s="28" t="n">
         <f aca="false">J138+D138</f>
@@ -8776,10 +8779,10 @@
     </row>
     <row r="140" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D140" s="30" t="n">
         <v>8</v>
@@ -8795,7 +8798,7 @@
         <v>27</v>
       </c>
       <c r="I140" s="23" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J140" s="28" t="n">
         <f aca="false">J139+D139</f>
@@ -8828,10 +8831,10 @@
     </row>
     <row r="141" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="30" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C141" s="30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D141" s="30" t="n">
         <v>8</v>
@@ -8847,7 +8850,7 @@
         <v>27</v>
       </c>
       <c r="I141" s="23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J141" s="28" t="n">
         <f aca="false">J140+D140</f>
@@ -8880,10 +8883,10 @@
     </row>
     <row r="142" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="30" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D142" s="30" t="n">
         <v>8</v>
@@ -8899,7 +8902,7 @@
         <v>27</v>
       </c>
       <c r="I142" s="23" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J142" s="28" t="n">
         <f aca="false">J141+D141</f>
@@ -8932,10 +8935,10 @@
     </row>
     <row r="143" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="30" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D143" s="30" t="n">
         <v>8</v>
@@ -8951,7 +8954,7 @@
         <v>27</v>
       </c>
       <c r="I143" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J143" s="28" t="n">
         <f aca="false">J142+D142</f>
@@ -8990,10 +8993,10 @@
     </row>
     <row r="145" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="30" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C145" s="30" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D145" s="30" t="n">
         <v>1</v>
@@ -9009,7 +9012,7 @@
         <v>27</v>
       </c>
       <c r="I145" s="23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J145" s="28" t="n">
         <f aca="false">J143+D143</f>
@@ -9042,10 +9045,10 @@
     </row>
     <row r="146" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D146" s="30" t="n">
         <v>1</v>
@@ -9061,7 +9064,7 @@
         <v>27</v>
       </c>
       <c r="I146" s="23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J146" s="28" t="n">
         <f aca="false">J145+D145</f>
@@ -9094,10 +9097,10 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D147" s="30" t="n">
         <v>1</v>
@@ -9144,10 +9147,10 @@
     </row>
     <row r="148" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="30" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D148" s="30" t="n">
         <v>3</v>
@@ -9157,7 +9160,7 @@
       </c>
       <c r="F148" s="23"/>
       <c r="G148" s="23" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H148" s="22" t="s">
         <v>27</v>
@@ -9194,10 +9197,10 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="30" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D149" s="30" t="n">
         <v>1</v>
@@ -9242,10 +9245,10 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C150" s="30" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D150" s="30" t="n">
         <v>1</v>
@@ -9328,10 +9331,10 @@
     </row>
     <row r="153" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D153" s="30" t="n">
         <v>1</v>
@@ -9347,7 +9350,7 @@
         <v>27</v>
       </c>
       <c r="I153" s="23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J153" s="28" t="n">
         <f aca="false">J143+D143</f>
@@ -9363,7 +9366,7 @@
         <v>22.75</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="O153" s="3" t="n">
         <v>2</v>
@@ -9377,10 +9380,10 @@
     </row>
     <row r="154" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="30" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D154" s="30" t="n">
         <v>1</v>
@@ -9396,7 +9399,7 @@
         <v>27</v>
       </c>
       <c r="I154" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J154" s="28" t="n">
         <f aca="false">J153+D153</f>
@@ -9429,10 +9432,10 @@
     </row>
     <row r="155" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="30" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D155" s="30" t="n">
         <v>3</v>
@@ -9442,7 +9445,7 @@
       </c>
       <c r="F155" s="23"/>
       <c r="G155" s="23" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H155" s="22" t="s">
         <v>27</v>
@@ -9479,10 +9482,10 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D156" s="30" t="n">
         <v>1</v>
@@ -9529,10 +9532,10 @@
     </row>
     <row r="157" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D157" s="30" t="n">
         <v>1</v>
@@ -9548,7 +9551,7 @@
         <v>27</v>
       </c>
       <c r="I157" s="23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J157" s="28" t="n">
         <f aca="false">J156+D156</f>
@@ -9581,10 +9584,10 @@
     </row>
     <row r="158" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="30" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D158" s="30" t="n">
         <v>1</v>
@@ -9600,7 +9603,7 @@
         <v>27</v>
       </c>
       <c r="I158" s="23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J158" s="28" t="n">
         <f aca="false">J157+D157</f>
@@ -9650,10 +9653,10 @@
     </row>
     <row r="160" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="30" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C160" s="30" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D160" s="30" t="n">
         <v>8</v>
@@ -9667,7 +9670,7 @@
       </c>
       <c r="H160" s="22"/>
       <c r="I160" s="23" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J160" s="28" t="n">
         <f aca="false">J150+D150</f>
@@ -9686,7 +9689,7 @@
         <v>23</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="O160" s="3" t="n">
         <v>2</v>
@@ -9700,10 +9703,10 @@
     </row>
     <row r="161" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="30" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D161" s="30" t="n">
         <v>8</v>
@@ -9717,7 +9720,7 @@
       </c>
       <c r="H161" s="22"/>
       <c r="I161" s="23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J161" s="28" t="n">
         <f aca="false">J160+D160</f>
@@ -9750,10 +9753,10 @@
     </row>
     <row r="162" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="30" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D162" s="30" t="n">
         <v>8</v>
@@ -9767,7 +9770,7 @@
       </c>
       <c r="H162" s="22"/>
       <c r="I162" s="23" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J162" s="28" t="n">
         <f aca="false">J161+D161</f>
@@ -9822,7 +9825,7 @@
         <v>49</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D164" s="30" t="n">
         <v>7</v>
@@ -9869,10 +9872,10 @@
     </row>
     <row r="165" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="30" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D165" s="30" t="n">
         <v>1</v>
@@ -9886,7 +9889,7 @@
       </c>
       <c r="H165" s="22"/>
       <c r="I165" s="23" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J165" s="28" t="n">
         <f aca="false">J164+D164</f>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B166" s="30"/>
       <c r="C166" s="30"/>
@@ -9948,10 +9951,10 @@
     </row>
     <row r="168" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="30" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C168" s="30" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D168" s="30" t="n">
         <v>1</v>
@@ -9965,7 +9968,7 @@
       </c>
       <c r="H168" s="22"/>
       <c r="I168" s="23" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J168" s="28" t="n">
         <f aca="false">J162+D162</f>
@@ -9992,7 +9995,7 @@
         <v>49</v>
       </c>
       <c r="C169" s="30" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D169" s="30" t="n">
         <v>7</v>
@@ -10039,7 +10042,7 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B170" s="30"/>
       <c r="C170" s="30"/>
@@ -10068,7 +10071,7 @@
       <c r="G171" s="35"/>
       <c r="H171" s="34"/>
       <c r="I171" s="35" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J171" s="28" t="n">
         <f aca="false">J169+D169</f>
@@ -10098,7 +10101,7 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B174" s="30"/>
       <c r="C174" s="30"/>
@@ -10118,7 +10121,7 @@
         <v>49</v>
       </c>
       <c r="C175" s="30" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D175" s="30" t="n">
         <v>32</v>
@@ -10176,7 +10179,7 @@
       <c r="G176" s="35"/>
       <c r="H176" s="34"/>
       <c r="I176" s="35" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J176" s="28" t="n">
         <f aca="false">J175+D175</f>
@@ -10213,32 +10216,32 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B178" s="25"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="30" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C179" s="30" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D179" s="26" t="n">
         <v>32</v>
       </c>
       <c r="E179" s="37" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F179" s="23"/>
       <c r="G179" s="38" t="n">
         <v>1</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I179" s="27" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J179" s="28" t="n">
         <f aca="false">J97</f>
@@ -10257,7 +10260,7 @@
         <v>16</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O179" s="3" t="n">
         <v>10</v>
@@ -10271,10 +10274,10 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="30" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C180" s="30" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D180" s="26" t="n">
         <v>16</v>
@@ -10287,10 +10290,10 @@
         <v>1</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I180" s="27" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J180" s="28" t="n">
         <f aca="false">J179+D179</f>
@@ -10309,7 +10312,7 @@
         <v>17</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O180" s="3" t="n">
         <v>10</v>
@@ -10323,16 +10326,16 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="30" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C181" s="30" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D181" s="26" t="n">
         <v>8</v>
       </c>
       <c r="E181" s="37" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F181" s="23"/>
       <c r="G181" s="22" t="n">
@@ -10342,7 +10345,7 @@
         <v>27</v>
       </c>
       <c r="I181" s="27" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J181" s="28" t="n">
         <f aca="false">J180+D180</f>
@@ -10361,7 +10364,7 @@
         <v>17.5</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O181" s="3" t="n">
         <v>10</v>
@@ -10375,10 +10378,10 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="30" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C182" s="30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D182" s="26" t="n">
         <v>8</v>
@@ -10392,7 +10395,7 @@
         <v>27</v>
       </c>
       <c r="I182" s="27" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J182" s="28" t="n">
         <f aca="false">J181+D181</f>
@@ -10435,7 +10438,7 @@
       <c r="G183" s="35"/>
       <c r="H183" s="34"/>
       <c r="I183" s="35" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J183" s="28" t="n">
         <f aca="false">J182+D182</f>
@@ -10462,16 +10465,16 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B186" s="25"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="30" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C187" s="30" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D187" s="26" t="n">
         <v>32</v>
@@ -10482,10 +10485,10 @@
         <v>1</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I187" s="27" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J187" s="28" t="n">
         <f aca="false">J97</f>
@@ -10504,7 +10507,7 @@
         <v>16</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O187" s="3" t="n">
         <v>10</v>
@@ -10518,10 +10521,10 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="30" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C188" s="30" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D188" s="26" t="n">
         <v>16</v>
@@ -10534,10 +10537,10 @@
         <v>1</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I188" s="27" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J188" s="28" t="n">
         <f aca="false">J187+D187</f>
@@ -10556,7 +10559,7 @@
         <v>17</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O188" s="3" t="n">
         <v>10</v>
@@ -10570,10 +10573,10 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C189" s="30" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D189" s="26" t="n">
         <v>16</v>
@@ -10584,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="I189" s="27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J189" s="28" t="n">
         <f aca="false">J188+D188</f>
@@ -10603,7 +10606,7 @@
         <v>17.5</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O189" s="3" t="n">
         <v>10</v>
@@ -10617,10 +10620,10 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="30" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C190" s="30" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D190" s="26" t="n">
         <v>32</v>
@@ -10631,7 +10634,7 @@
         <v>1</v>
       </c>
       <c r="I190" s="27" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J190" s="28" t="n">
         <f aca="false">J189+D189</f>
@@ -10650,7 +10653,7 @@
         <v>18</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O190" s="3" t="n">
         <v>10</v>
@@ -10664,16 +10667,16 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="30" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C191" s="30" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D191" s="26" t="n">
         <v>8</v>
       </c>
       <c r="E191" s="37" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F191" s="23"/>
       <c r="G191" s="22" t="n">
@@ -10683,7 +10686,7 @@
         <v>27</v>
       </c>
       <c r="I191" s="27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J191" s="28" t="n">
         <f aca="false">J190+D190</f>
@@ -10702,7 +10705,7 @@
         <v>19</v>
       </c>
       <c r="N191" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O191" s="3" t="n">
         <v>10</v>
@@ -10716,10 +10719,10 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="30" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C192" s="30" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D192" s="26" t="n">
         <v>24</v>
@@ -10776,7 +10779,7 @@
       <c r="G193" s="35"/>
       <c r="H193" s="34"/>
       <c r="I193" s="35" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J193" s="28" t="n">
         <f aca="false">J192+D192</f>
@@ -10809,16 +10812,16 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B197" s="25"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C198" s="30" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D198" s="26" t="n">
         <v>32</v>
@@ -10831,10 +10834,10 @@
         <v>1</v>
       </c>
       <c r="H198" s="38" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I198" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J198" s="28" t="n">
         <f aca="false">J171</f>
@@ -10853,7 +10856,7 @@
         <v>24</v>
       </c>
       <c r="N198" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O198" s="3" t="n">
         <v>10</v>
@@ -10867,10 +10870,10 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C199" s="30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D199" s="26" t="n">
         <v>16</v>
@@ -10886,7 +10889,7 @@
         <v>27</v>
       </c>
       <c r="I199" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J199" s="28" t="n">
         <f aca="false">J198+D198</f>
@@ -10905,7 +10908,7 @@
         <v>25</v>
       </c>
       <c r="N199" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O199" s="3" t="n">
         <v>10</v>
@@ -10919,10 +10922,10 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="30" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C200" s="30" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D200" s="26" t="n">
         <v>8</v>
@@ -10938,7 +10941,7 @@
         <v>27</v>
       </c>
       <c r="I200" s="27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J200" s="28" t="n">
         <f aca="false">J199+D199</f>
@@ -10957,7 +10960,7 @@
         <v>25.5</v>
       </c>
       <c r="N200" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O200" s="24" t="n">
         <v>10</v>
@@ -10991,7 +10994,7 @@
         <v>47</v>
       </c>
       <c r="C202" s="22" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D202" s="22" t="n">
         <v>5</v>
@@ -11483,7 +11486,7 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B215" s="12"/>
       <c r="C215" s="39"/>
@@ -11549,10 +11552,10 @@
     </row>
     <row r="217" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="30" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C217" s="22" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D217" s="22" t="n">
         <v>464</v>
@@ -11570,7 +11573,7 @@
         <v>27</v>
       </c>
       <c r="I217" s="23" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J217" s="4" t="n">
         <v>0</v>
@@ -11602,10 +11605,10 @@
     </row>
     <row r="218" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="30" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C218" s="22" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D218" s="22" t="n">
         <v>8</v>
@@ -11621,7 +11624,7 @@
         <v>27</v>
       </c>
       <c r="I218" s="23" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J218" s="4" t="n">
         <f aca="false">J217+D217</f>
@@ -11640,7 +11643,7 @@
         <v>14.5</v>
       </c>
       <c r="N218" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O218" s="3" t="n">
         <v>1</v>
@@ -11657,7 +11660,7 @@
         <v>29</v>
       </c>
       <c r="C219" s="22" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D219" s="22" t="n">
         <v>8</v>
@@ -11720,7 +11723,7 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="40" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B222" s="12"/>
       <c r="C222" s="39"/>
@@ -11786,10 +11789,10 @@
     </row>
     <row r="224" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="30" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D224" s="22" t="n">
         <v>672</v>
@@ -11807,7 +11810,7 @@
         <v>27</v>
       </c>
       <c r="I224" s="23" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J224" s="4" t="n">
         <v>0</v>
@@ -11863,7 +11866,7 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="40" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B228" s="12"/>
       <c r="C228" s="39"/>
@@ -11929,10 +11932,10 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C230" s="30" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D230" s="26" t="n">
         <v>32</v>
@@ -11945,10 +11948,10 @@
         <v>1</v>
       </c>
       <c r="H230" s="38" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I230" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J230" s="4" t="n">
         <f aca="false">J220</f>
@@ -11967,7 +11970,7 @@
         <v>15</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O230" s="3" t="n">
         <v>8</v>
@@ -11981,10 +11984,10 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="30" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C231" s="30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D231" s="26" t="n">
         <v>16</v>
@@ -11993,7 +11996,7 @@
         <v>26</v>
       </c>
       <c r="F231" s="23" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G231" s="38" t="n">
         <v>1</v>
@@ -12002,7 +12005,7 @@
         <v>27</v>
       </c>
       <c r="I231" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J231" s="4" t="n">
         <f aca="false">J230+D230</f>
@@ -12021,7 +12024,7 @@
         <v>16</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O231" s="3" t="n">
         <v>8</v>
@@ -12038,7 +12041,7 @@
         <v>29</v>
       </c>
       <c r="C232" s="30" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D232" s="26" t="n">
         <v>8</v>
@@ -12052,7 +12055,7 @@
         <v>27</v>
       </c>
       <c r="I232" s="27" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J232" s="4" t="n">
         <f aca="false">J231+D231</f>
@@ -12071,7 +12074,7 @@
         <v>16.5</v>
       </c>
       <c r="N232" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O232" s="24" t="n">
         <v>8</v>
@@ -12088,7 +12091,7 @@
         <v>29</v>
       </c>
       <c r="C233" s="30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D233" s="26" t="n">
         <v>8</v>
@@ -12172,7 +12175,7 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="40" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B236" s="12"/>
       <c r="C236" s="39"/>
@@ -12238,10 +12241,10 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C238" s="30" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D238" s="26" t="n">
         <v>32</v>
@@ -12254,10 +12257,10 @@
         <v>1</v>
       </c>
       <c r="H238" s="38" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I238" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J238" s="4" t="n">
         <f aca="false">J225</f>
@@ -12276,7 +12279,7 @@
         <v>21</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O238" s="3" t="n">
         <v>8</v>
@@ -12290,10 +12293,10 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="30" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C239" s="30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D239" s="26" t="n">
         <v>16</v>
@@ -12302,7 +12305,7 @@
         <v>26</v>
       </c>
       <c r="F239" s="23" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G239" s="38" t="n">
         <v>1</v>
@@ -12311,7 +12314,7 @@
         <v>27</v>
       </c>
       <c r="I239" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J239" s="4" t="n">
         <f aca="false">J238+D238</f>
@@ -12330,7 +12333,7 @@
         <v>22</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O239" s="3" t="n">
         <v>8</v>
@@ -12347,7 +12350,7 @@
         <v>29</v>
       </c>
       <c r="C240" s="30" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D240" s="26" t="n">
         <v>8</v>
@@ -12361,7 +12364,7 @@
         <v>27</v>
       </c>
       <c r="I240" s="27" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J240" s="4" t="n">
         <f aca="false">J239+D239</f>
@@ -12380,7 +12383,7 @@
         <v>22.5</v>
       </c>
       <c r="N240" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O240" s="24" t="n">
         <v>8</v>
@@ -12397,7 +12400,7 @@
         <v>29</v>
       </c>
       <c r="C241" s="30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D241" s="26" t="n">
         <v>8</v>
@@ -12468,7 +12471,7 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="40" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="244" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12526,10 +12529,10 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="37" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C245" s="37" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D245" s="37" t="n">
         <v>32</v>
@@ -12545,7 +12548,7 @@
         <v>27</v>
       </c>
       <c r="I245" s="37" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J245" s="41" t="n">
         <v>0</v>
@@ -12563,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O245" s="3" t="n">
         <v>1</v>
@@ -12577,7 +12580,7 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B246" s="37"/>
       <c r="C246" s="37"/>
@@ -12594,10 +12597,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="37" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C247" s="37" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D247" s="37" t="n">
         <v>5</v>
@@ -12613,7 +12616,7 @@
         <v>27</v>
       </c>
       <c r="I247" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J247" s="41" t="n">
         <f aca="false">J245+D245</f>
@@ -12632,7 +12635,7 @@
         <v>1</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O247" s="3" t="n">
         <v>1</v>
@@ -12646,10 +12649,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="37" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C248" s="37" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D248" s="37" t="n">
         <v>6</v>
@@ -12665,7 +12668,7 @@
         <v>27</v>
       </c>
       <c r="I248" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J248" s="41" t="n">
         <f aca="false">J247+D247</f>
@@ -12684,7 +12687,7 @@
         <v>1.15625</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O248" s="3" t="n">
         <v>1</v>
@@ -12698,10 +12701,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="37" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C249" s="37" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D249" s="37" t="n">
         <v>6</v>
@@ -12717,7 +12720,7 @@
         <v>27</v>
       </c>
       <c r="I249" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J249" s="41" t="n">
         <f aca="false">J248+D248</f>
@@ -12736,7 +12739,7 @@
         <v>1.34375</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O249" s="3" t="n">
         <v>1</v>
@@ -12750,10 +12753,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="37" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C250" s="37" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D250" s="37" t="n">
         <v>5</v>
@@ -12769,7 +12772,7 @@
         <v>27</v>
       </c>
       <c r="I250" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J250" s="41" t="n">
         <f aca="false">J249+D249</f>
@@ -12788,7 +12791,7 @@
         <v>1.53125</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O250" s="3" t="n">
         <v>1</v>
@@ -12802,10 +12805,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="37" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C251" s="37" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D251" s="37" t="n">
         <v>4</v>
@@ -12821,7 +12824,7 @@
         <v>27</v>
       </c>
       <c r="I251" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J251" s="41" t="n">
         <f aca="false">J250+D250</f>
@@ -12840,7 +12843,7 @@
         <v>1.6875</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O251" s="3" t="n">
         <v>1</v>
@@ -12854,10 +12857,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="37" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C252" s="37" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D252" s="37" t="n">
         <v>5</v>
@@ -12873,7 +12876,7 @@
         <v>27</v>
       </c>
       <c r="I252" s="37" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J252" s="41" t="n">
         <f aca="false">J251+D251</f>
@@ -12892,7 +12895,7 @@
         <v>1.8125</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O252" s="3" t="n">
         <v>1</v>
@@ -12906,10 +12909,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="37" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C253" s="37" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D253" s="37" t="n">
         <v>1</v>
@@ -12925,7 +12928,7 @@
         <v>27</v>
       </c>
       <c r="I253" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J253" s="41" t="n">
         <f aca="false">J252+D252</f>
@@ -12944,7 +12947,7 @@
         <v>1.96875</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O253" s="3" t="n">
         <v>1</v>
@@ -12958,7 +12961,7 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B254" s="37"/>
       <c r="C254" s="37"/>
@@ -12975,7 +12978,7 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B255" s="37"/>
       <c r="C255" s="37"/>
@@ -12992,10 +12995,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="37" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C256" s="37" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D256" s="37" t="n">
         <v>1</v>
@@ -13011,7 +13014,7 @@
         <v>27</v>
       </c>
       <c r="I256" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J256" s="41" t="n">
         <f aca="false">J247</f>
@@ -13030,7 +13033,7 @@
         <v>1</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O256" s="3" t="n">
         <v>1</v>
@@ -13044,10 +13047,10 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="37" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C257" s="37" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D257" s="37" t="n">
         <v>5</v>
@@ -13063,7 +13066,7 @@
         <v>27</v>
       </c>
       <c r="I257" s="37" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J257" s="41" t="n">
         <f aca="false">J256+D256</f>
@@ -13082,7 +13085,7 @@
         <v>1.03125</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O257" s="3" t="n">
         <v>1</v>
@@ -13096,10 +13099,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="37" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C258" s="37" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D258" s="37" t="n">
         <v>4</v>
@@ -13115,7 +13118,7 @@
         <v>27</v>
       </c>
       <c r="I258" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J258" s="41" t="n">
         <f aca="false">J257+D257</f>
@@ -13134,7 +13137,7 @@
         <v>1.1875</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O258" s="3" t="n">
         <v>1</v>
@@ -13148,10 +13151,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="37" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C259" s="37" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D259" s="37" t="n">
         <v>5</v>
@@ -13167,7 +13170,7 @@
         <v>27</v>
       </c>
       <c r="I259" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J259" s="41" t="n">
         <f aca="false">J258+D258</f>
@@ -13186,7 +13189,7 @@
         <v>1.3125</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O259" s="3" t="n">
         <v>1</v>
@@ -13200,10 +13203,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="37" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C260" s="37" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D260" s="37" t="n">
         <v>6</v>
@@ -13219,7 +13222,7 @@
         <v>27</v>
       </c>
       <c r="I260" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J260" s="41" t="n">
         <f aca="false">J259+D259</f>
@@ -13238,7 +13241,7 @@
         <v>1.46875</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O260" s="3" t="n">
         <v>1</v>
@@ -13252,10 +13255,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="37" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C261" s="37" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D261" s="37" t="n">
         <v>6</v>
@@ -13271,7 +13274,7 @@
         <v>27</v>
       </c>
       <c r="I261" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J261" s="41" t="n">
         <f aca="false">J260+D260</f>
@@ -13290,7 +13293,7 @@
         <v>1.65625</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O261" s="3" t="n">
         <v>1</v>
@@ -13304,10 +13307,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="37" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C262" s="37" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D262" s="37" t="n">
         <v>5</v>
@@ -13323,7 +13326,7 @@
         <v>27</v>
       </c>
       <c r="I262" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J262" s="41" t="n">
         <f aca="false">J260+D260</f>
@@ -13342,7 +13345,7 @@
         <v>1.65625</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O262" s="3" t="n">
         <v>1</v>
@@ -13356,7 +13359,7 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B263" s="37"/>
       <c r="C263" s="37"/>
@@ -13373,10 +13376,10 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="37" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C264" s="37" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D264" s="37" t="n">
         <v>8</v>
@@ -13392,7 +13395,7 @@
         <v>27</v>
       </c>
       <c r="I264" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J264" s="41" t="n">
         <f aca="false">J253+D253</f>
@@ -13411,7 +13414,7 @@
         <v>2</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O264" s="3" t="n">
         <v>1</v>
@@ -13425,10 +13428,10 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="37" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C265" s="37" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D265" s="37" t="n">
         <v>8</v>
@@ -13444,7 +13447,7 @@
         <v>27</v>
       </c>
       <c r="I265" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J265" s="41" t="n">
         <f aca="false">J264+D264</f>
@@ -13463,7 +13466,7 @@
         <v>2.25</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O265" s="3" t="n">
         <v>1</v>
@@ -13477,7 +13480,7 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="37" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C266" s="37" t="s">
         <v>48</v>
@@ -13496,7 +13499,7 @@
         <v>27</v>
       </c>
       <c r="I266" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J266" s="41" t="n">
         <f aca="false">J265+D265</f>
@@ -13559,7 +13562,7 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="40" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F268" s="37"/>
       <c r="G268" s="37"/>
@@ -13638,16 +13641,16 @@
       </c>
       <c r="I270" s="23"/>
       <c r="N270" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O270" s="24"/>
     </row>
     <row r="271" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="22" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C271" s="43" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D271" s="1" t="n">
         <v>9</v>
@@ -13663,7 +13666,7 @@
         <v>27</v>
       </c>
       <c r="I271" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J271" s="4" t="n">
         <f aca="false">J267</f>
@@ -13682,7 +13685,7 @@
         <v>3</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O271" s="3" t="n">
         <v>2</v>
@@ -13696,10 +13699,10 @@
     </row>
     <row r="272" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C272" s="43" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D272" s="1" t="n">
         <v>5</v>
@@ -13715,7 +13718,7 @@
         <v>27</v>
       </c>
       <c r="I272" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J272" s="41" t="n">
         <f aca="false">J271+D271</f>
@@ -13734,7 +13737,7 @@
         <v>3.28125</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O272" s="3" t="n">
         <v>2</v>
@@ -13748,10 +13751,10 @@
     </row>
     <row r="273" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="22" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C273" s="43" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D273" s="1" t="n">
         <v>4</v>
@@ -13767,7 +13770,7 @@
         <v>27</v>
       </c>
       <c r="I273" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J273" s="41" t="n">
         <f aca="false">J272+D272</f>
@@ -13786,7 +13789,7 @@
         <v>3.4375</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O273" s="3" t="n">
         <v>2</v>
@@ -13800,10 +13803,10 @@
     </row>
     <row r="274" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="22" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C274" s="43" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>4</v>
@@ -13819,7 +13822,7 @@
         <v>27</v>
       </c>
       <c r="I274" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J274" s="41" t="n">
         <f aca="false">J273+D273</f>
@@ -13838,7 +13841,7 @@
         <v>3.5625</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O274" s="3" t="n">
         <v>2</v>
@@ -13852,10 +13855,10 @@
     </row>
     <row r="275" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="22" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C275" s="43" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>3</v>
@@ -13871,7 +13874,7 @@
         <v>27</v>
       </c>
       <c r="I275" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J275" s="41" t="n">
         <f aca="false">J274+D274</f>
@@ -13890,7 +13893,7 @@
         <v>3.6875</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O275" s="3" t="n">
         <v>2</v>
@@ -13904,10 +13907,10 @@
     </row>
     <row r="276" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="22" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C276" s="43" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D276" s="1" t="n">
         <v>1</v>
@@ -13923,7 +13926,7 @@
         <v>27</v>
       </c>
       <c r="I276" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J276" s="41" t="n">
         <f aca="false">J275+D275</f>
@@ -13942,7 +13945,7 @@
         <v>3.78125</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O276" s="3" t="n">
         <v>2</v>
@@ -13956,10 +13959,10 @@
     </row>
     <row r="277" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="22" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C277" s="43" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D277" s="1" t="n">
         <v>1</v>
@@ -13969,13 +13972,13 @@
       </c>
       <c r="F277" s="44"/>
       <c r="G277" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H277" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I277" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J277" s="41" t="n">
         <f aca="false">J276+D276</f>
@@ -13985,7 +13988,7 @@
       <c r="L277" s="27"/>
       <c r="M277" s="27"/>
       <c r="N277" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O277" s="3" t="n">
         <v>1</v>
@@ -13999,10 +14002,10 @@
     </row>
     <row r="278" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="22" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C278" s="43" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D278" s="1" t="n">
         <v>5</v>
@@ -14018,7 +14021,7 @@
         <v>27</v>
       </c>
       <c r="I278" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J278" s="41" t="n">
         <f aca="false">J277+D277</f>
@@ -14087,10 +14090,10 @@
     </row>
     <row r="281" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="22" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C281" s="43" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D281" s="1" t="n">
         <v>5</v>
@@ -14106,7 +14109,7 @@
         <v>27</v>
       </c>
       <c r="I281" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J281" s="41" t="n">
         <f aca="false">J267</f>
@@ -14139,10 +14142,10 @@
     </row>
     <row r="282" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="22" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C282" s="43" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D282" s="1" t="n">
         <v>1</v>
@@ -14152,13 +14155,13 @@
       </c>
       <c r="F282" s="44"/>
       <c r="G282" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H282" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I282" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J282" s="41" t="n">
         <f aca="false">J281+D281</f>
@@ -14177,7 +14180,7 @@
         <v>3.15625</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O282" s="3" t="n">
         <v>1</v>
@@ -14191,10 +14194,10 @@
     </row>
     <row r="283" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="22" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C283" s="43" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D283" s="1" t="n">
         <v>1</v>
@@ -14204,13 +14207,13 @@
       </c>
       <c r="F283" s="44"/>
       <c r="G283" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H283" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I283" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J283" s="41" t="n">
         <f aca="false">J282+D282</f>
@@ -14229,7 +14232,7 @@
         <v>3.1875</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O283" s="3" t="n">
         <v>2</v>
@@ -14243,10 +14246,10 @@
     </row>
     <row r="284" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="22" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C284" s="43" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>3</v>
@@ -14256,13 +14259,13 @@
       </c>
       <c r="F284" s="44"/>
       <c r="G284" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H284" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I284" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J284" s="41" t="n">
         <f aca="false">J283+D283</f>
@@ -14281,7 +14284,7 @@
         <v>3.21875</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O284" s="3" t="n">
         <v>2</v>
@@ -14295,10 +14298,10 @@
     </row>
     <row r="285" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="22" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C285" s="43" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D285" s="1" t="n">
         <v>4</v>
@@ -14308,13 +14311,13 @@
       </c>
       <c r="F285" s="44"/>
       <c r="G285" s="37" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H285" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I285" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J285" s="41" t="n">
         <f aca="false">J284+D284</f>
@@ -14333,7 +14336,7 @@
         <v>3.3125</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O285" s="3" t="n">
         <v>2</v>
@@ -14347,10 +14350,10 @@
     </row>
     <row r="286" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="22" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C286" s="43" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D286" s="1" t="n">
         <v>4</v>
@@ -14360,13 +14363,13 @@
       </c>
       <c r="F286" s="44"/>
       <c r="G286" s="37" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H286" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I286" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J286" s="41" t="n">
         <f aca="false">J285+D285</f>
@@ -14385,7 +14388,7 @@
         <v>3.4375</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O286" s="3" t="n">
         <v>2</v>
@@ -14399,10 +14402,10 @@
     </row>
     <row r="287" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C287" s="43" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D287" s="1" t="n">
         <v>5</v>
@@ -14412,13 +14415,13 @@
       </c>
       <c r="F287" s="44"/>
       <c r="G287" s="37" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H287" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I287" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J287" s="41" t="n">
         <f aca="false">J286+D286</f>
@@ -14437,7 +14440,7 @@
         <v>3.5625</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O287" s="3" t="n">
         <v>2</v>
@@ -14451,10 +14454,10 @@
     </row>
     <row r="288" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="22" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C288" s="43" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D288" s="1" t="n">
         <v>9</v>
@@ -14464,13 +14467,13 @@
       </c>
       <c r="F288" s="44"/>
       <c r="G288" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H288" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I288" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J288" s="41" t="n">
         <f aca="false">J287+D287</f>
@@ -14489,7 +14492,7 @@
         <v>3.71875</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O288" s="3" t="n">
         <v>2</v>
@@ -14522,10 +14525,10 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D290" s="1" t="n">
         <v>8</v>
@@ -14535,13 +14538,13 @@
       </c>
       <c r="F290" s="37"/>
       <c r="G290" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H290" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I290" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J290" s="41" t="n">
         <f aca="false">J278+D278</f>
@@ -14560,7 +14563,7 @@
         <v>4</v>
       </c>
       <c r="N290" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O290" s="3" t="n">
         <v>3</v>
@@ -14574,10 +14577,10 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>8</v>
@@ -14587,13 +14590,13 @@
       </c>
       <c r="F291" s="37"/>
       <c r="G291" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H291" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I291" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J291" s="41" t="n">
         <f aca="false">J290+D290</f>
@@ -14612,7 +14615,7 @@
         <v>4.25</v>
       </c>
       <c r="N291" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O291" s="3" t="n">
         <v>3</v>
@@ -14626,10 +14629,10 @@
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D292" s="1" t="n">
         <v>8</v>
@@ -14639,13 +14642,13 @@
       </c>
       <c r="F292" s="37"/>
       <c r="G292" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H292" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I292" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J292" s="41" t="n">
         <f aca="false">J291+D291</f>
@@ -14664,7 +14667,7 @@
         <v>4.5</v>
       </c>
       <c r="N292" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O292" s="3" t="n">
         <v>3</v>
@@ -14678,10 +14681,10 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D293" s="1" t="n">
         <v>8</v>
@@ -14691,13 +14694,13 @@
       </c>
       <c r="F293" s="37"/>
       <c r="G293" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H293" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I293" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J293" s="41" t="n">
         <f aca="false">J292+D292</f>
@@ -14716,7 +14719,7 @@
         <v>4.75</v>
       </c>
       <c r="N293" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O293" s="3" t="n">
         <v>3</v>
@@ -14730,10 +14733,10 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D294" s="1" t="n">
         <v>8</v>
@@ -14743,13 +14746,13 @@
       </c>
       <c r="F294" s="37"/>
       <c r="G294" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H294" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I294" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J294" s="41" t="n">
         <f aca="false">J293+D293</f>
@@ -14768,7 +14771,7 @@
         <v>5</v>
       </c>
       <c r="N294" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O294" s="3" t="n">
         <v>3</v>
@@ -14782,10 +14785,10 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D295" s="1" t="n">
         <v>8</v>
@@ -14795,13 +14798,13 @@
       </c>
       <c r="F295" s="37"/>
       <c r="G295" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H295" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I295" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J295" s="41" t="n">
         <f aca="false">J294+D294</f>
@@ -14820,7 +14823,7 @@
         <v>5.25</v>
       </c>
       <c r="N295" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O295" s="3" t="n">
         <v>3</v>
@@ -14834,10 +14837,10 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D296" s="1" t="n">
         <v>8</v>
@@ -14847,13 +14850,13 @@
       </c>
       <c r="F296" s="37"/>
       <c r="G296" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H296" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I296" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J296" s="41" t="n">
         <f aca="false">J295+D295</f>
@@ -14872,7 +14875,7 @@
         <v>5.5</v>
       </c>
       <c r="N296" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O296" s="3" t="n">
         <v>3</v>
@@ -14886,10 +14889,10 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D297" s="1" t="n">
         <v>8</v>
@@ -14899,13 +14902,13 @@
       </c>
       <c r="F297" s="37"/>
       <c r="G297" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H297" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I297" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J297" s="41" t="n">
         <f aca="false">J296+D296</f>
@@ -14924,7 +14927,7 @@
         <v>5.75</v>
       </c>
       <c r="N297" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O297" s="3" t="n">
         <v>3</v>
@@ -14938,10 +14941,10 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D298" s="1" t="n">
         <v>8</v>
@@ -14951,13 +14954,13 @@
       </c>
       <c r="F298" s="37"/>
       <c r="G298" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H298" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I298" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J298" s="41" t="n">
         <f aca="false">J297+D297</f>
@@ -14976,7 +14979,7 @@
         <v>6</v>
       </c>
       <c r="N298" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O298" s="3" t="n">
         <v>3</v>
@@ -14990,10 +14993,10 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D299" s="1" t="n">
         <v>8</v>
@@ -15003,13 +15006,13 @@
       </c>
       <c r="F299" s="37"/>
       <c r="G299" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H299" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I299" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J299" s="41" t="n">
         <f aca="false">J298+D298</f>
@@ -15028,7 +15031,7 @@
         <v>6.25</v>
       </c>
       <c r="N299" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O299" s="3" t="n">
         <v>3</v>
@@ -15042,10 +15045,10 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D300" s="1" t="n">
         <v>8</v>
@@ -15055,13 +15058,13 @@
       </c>
       <c r="F300" s="37"/>
       <c r="G300" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H300" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I300" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J300" s="41" t="n">
         <f aca="false">J299+D299</f>
@@ -15080,7 +15083,7 @@
         <v>6.5</v>
       </c>
       <c r="N300" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O300" s="3" t="n">
         <v>3</v>
@@ -15094,10 +15097,10 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D301" s="1" t="n">
         <v>8</v>
@@ -15107,13 +15110,13 @@
       </c>
       <c r="F301" s="37"/>
       <c r="G301" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H301" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I301" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J301" s="41" t="n">
         <f aca="false">J300+D300</f>
@@ -15132,7 +15135,7 @@
         <v>6.75</v>
       </c>
       <c r="N301" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O301" s="3" t="n">
         <v>3</v>
@@ -15146,10 +15149,10 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D302" s="1" t="n">
         <v>8</v>
@@ -15159,13 +15162,13 @@
       </c>
       <c r="F302" s="37"/>
       <c r="G302" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H302" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I302" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J302" s="41" t="n">
         <f aca="false">J301+D301</f>
@@ -15184,7 +15187,7 @@
         <v>7</v>
       </c>
       <c r="N302" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O302" s="3" t="n">
         <v>3</v>
@@ -15198,10 +15201,10 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D303" s="1" t="n">
         <v>16</v>
@@ -15213,13 +15216,13 @@
         <v>119</v>
       </c>
       <c r="G303" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H303" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I303" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J303" s="41" t="n">
         <f aca="false">J302+D302</f>
@@ -15238,7 +15241,7 @@
         <v>7.25</v>
       </c>
       <c r="N303" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O303" s="3" t="n">
         <v>1</v>
@@ -15252,10 +15255,10 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>8</v>
@@ -15265,13 +15268,13 @@
       </c>
       <c r="F304" s="37"/>
       <c r="G304" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H304" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I304" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J304" s="41" t="n">
         <f aca="false">J303+D303</f>
@@ -15290,7 +15293,7 @@
         <v>7.75</v>
       </c>
       <c r="N304" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O304" s="3" t="n">
         <v>2</v>
@@ -15329,7 +15332,7 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="40" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J306" s="41"/>
       <c r="K306" s="27"/>
@@ -15405,16 +15408,16 @@
       </c>
       <c r="I308" s="23"/>
       <c r="N308" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O308" s="24"/>
     </row>
     <row r="309" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="22" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C309" s="43" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D309" s="1" t="n">
         <v>9</v>
@@ -15430,7 +15433,7 @@
         <v>27</v>
       </c>
       <c r="I309" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J309" s="4" t="n">
         <f aca="false">J305</f>
@@ -15449,7 +15452,7 @@
         <v>8</v>
       </c>
       <c r="N309" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O309" s="3" t="n">
         <v>2</v>
@@ -15463,10 +15466,10 @@
     </row>
     <row r="310" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C310" s="43" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D310" s="1" t="n">
         <v>5</v>
@@ -15482,7 +15485,7 @@
         <v>27</v>
       </c>
       <c r="I310" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J310" s="41" t="n">
         <f aca="false">J309+D309</f>
@@ -15501,7 +15504,7 @@
         <v>8.28125</v>
       </c>
       <c r="N310" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O310" s="3" t="n">
         <v>2</v>
@@ -15515,10 +15518,10 @@
     </row>
     <row r="311" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="22" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C311" s="43" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D311" s="1" t="n">
         <v>4</v>
@@ -15534,7 +15537,7 @@
         <v>27</v>
       </c>
       <c r="I311" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J311" s="41" t="n">
         <f aca="false">J310+D310</f>
@@ -15553,7 +15556,7 @@
         <v>8.4375</v>
       </c>
       <c r="N311" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O311" s="3" t="n">
         <v>2</v>
@@ -15567,10 +15570,10 @@
     </row>
     <row r="312" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="22" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C312" s="43" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D312" s="1" t="n">
         <v>4</v>
@@ -15586,7 +15589,7 @@
         <v>27</v>
       </c>
       <c r="I312" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J312" s="41" t="n">
         <f aca="false">J311+D311</f>
@@ -15605,7 +15608,7 @@
         <v>8.5625</v>
       </c>
       <c r="N312" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O312" s="3" t="n">
         <v>2</v>
@@ -15619,10 +15622,10 @@
     </row>
     <row r="313" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="22" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C313" s="43" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D313" s="1" t="n">
         <v>3</v>
@@ -15638,7 +15641,7 @@
         <v>27</v>
       </c>
       <c r="I313" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J313" s="41" t="n">
         <f aca="false">J312+D312</f>
@@ -15657,7 +15660,7 @@
         <v>8.6875</v>
       </c>
       <c r="N313" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O313" s="3" t="n">
         <v>2</v>
@@ -15671,10 +15674,10 @@
     </row>
     <row r="314" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="22" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C314" s="43" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D314" s="1" t="n">
         <v>1</v>
@@ -15684,13 +15687,13 @@
       </c>
       <c r="F314" s="44"/>
       <c r="G314" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H314" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I314" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J314" s="41" t="n">
         <f aca="false">J313+D313</f>
@@ -15709,7 +15712,7 @@
         <v>8.78125</v>
       </c>
       <c r="N314" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O314" s="3" t="n">
         <v>2</v>
@@ -15723,10 +15726,10 @@
     </row>
     <row r="315" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="22" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C315" s="43" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D315" s="1" t="n">
         <v>1</v>
@@ -15736,13 +15739,13 @@
       </c>
       <c r="F315" s="44"/>
       <c r="G315" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H315" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I315" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J315" s="41" t="n">
         <f aca="false">J314+D314</f>
@@ -15761,7 +15764,7 @@
         <v>8.8125</v>
       </c>
       <c r="N315" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O315" s="3" t="n">
         <v>1</v>
@@ -15775,10 +15778,10 @@
     </row>
     <row r="316" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="22" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C316" s="43" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D316" s="1" t="n">
         <v>5</v>
@@ -15794,7 +15797,7 @@
         <v>27</v>
       </c>
       <c r="I316" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J316" s="41" t="n">
         <f aca="false">J315+D315</f>
@@ -15863,10 +15866,10 @@
     </row>
     <row r="319" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="22" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C319" s="43" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D319" s="1" t="n">
         <v>5</v>
@@ -15882,7 +15885,7 @@
         <v>27</v>
       </c>
       <c r="I319" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J319" s="41" t="n">
         <f aca="false">J305</f>
@@ -15915,10 +15918,10 @@
     </row>
     <row r="320" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="22" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C320" s="43" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D320" s="1" t="n">
         <v>1</v>
@@ -15928,13 +15931,13 @@
       </c>
       <c r="F320" s="44"/>
       <c r="G320" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H320" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I320" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J320" s="41" t="n">
         <f aca="false">J319+D319</f>
@@ -15953,7 +15956,7 @@
         <v>8.15625</v>
       </c>
       <c r="N320" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O320" s="3" t="n">
         <v>1</v>
@@ -15967,10 +15970,10 @@
     </row>
     <row r="321" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="22" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C321" s="43" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D321" s="1" t="n">
         <v>1</v>
@@ -15980,13 +15983,13 @@
       </c>
       <c r="F321" s="44"/>
       <c r="G321" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H321" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I321" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J321" s="41" t="n">
         <f aca="false">J320+D320</f>
@@ -16005,7 +16008,7 @@
         <v>8.1875</v>
       </c>
       <c r="N321" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O321" s="3" t="n">
         <v>2</v>
@@ -16019,10 +16022,10 @@
     </row>
     <row r="322" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="22" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C322" s="43" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D322" s="1" t="n">
         <v>3</v>
@@ -16032,13 +16035,13 @@
       </c>
       <c r="F322" s="44"/>
       <c r="G322" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H322" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I322" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J322" s="41" t="n">
         <f aca="false">J321+D321</f>
@@ -16057,7 +16060,7 @@
         <v>8.21875</v>
       </c>
       <c r="N322" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O322" s="3" t="n">
         <v>2</v>
@@ -16071,10 +16074,10 @@
     </row>
     <row r="323" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="22" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C323" s="43" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D323" s="1" t="n">
         <v>4</v>
@@ -16084,13 +16087,13 @@
       </c>
       <c r="F323" s="44"/>
       <c r="G323" s="37" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H323" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I323" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J323" s="41" t="n">
         <f aca="false">J322+D322</f>
@@ -16109,7 +16112,7 @@
         <v>8.3125</v>
       </c>
       <c r="N323" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O323" s="3" t="n">
         <v>2</v>
@@ -16123,10 +16126,10 @@
     </row>
     <row r="324" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="22" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C324" s="43" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D324" s="1" t="n">
         <v>4</v>
@@ -16136,13 +16139,13 @@
       </c>
       <c r="F324" s="44"/>
       <c r="G324" s="37" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H324" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I324" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J324" s="41" t="n">
         <f aca="false">J323+D323</f>
@@ -16161,7 +16164,7 @@
         <v>8.4375</v>
       </c>
       <c r="N324" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O324" s="3" t="n">
         <v>2</v>
@@ -16175,10 +16178,10 @@
     </row>
     <row r="325" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C325" s="43" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D325" s="1" t="n">
         <v>5</v>
@@ -16188,13 +16191,13 @@
       </c>
       <c r="F325" s="44"/>
       <c r="G325" s="37" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H325" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I325" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J325" s="41" t="n">
         <f aca="false">J324+D324</f>
@@ -16213,7 +16216,7 @@
         <v>8.5625</v>
       </c>
       <c r="N325" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O325" s="3" t="n">
         <v>2</v>
@@ -16227,10 +16230,10 @@
     </row>
     <row r="326" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="22" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C326" s="43" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D326" s="1" t="n">
         <v>9</v>
@@ -16240,13 +16243,13 @@
       </c>
       <c r="F326" s="44"/>
       <c r="G326" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H326" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I326" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J326" s="41" t="n">
         <f aca="false">J325+D325</f>
@@ -16265,7 +16268,7 @@
         <v>8.71875</v>
       </c>
       <c r="N326" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O326" s="3" t="n">
         <v>2</v>
@@ -16298,10 +16301,10 @@
     </row>
     <row r="328" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="22" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C328" s="43" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D328" s="1" t="n">
         <v>32</v>
@@ -16311,13 +16314,13 @@
       </c>
       <c r="F328" s="44"/>
       <c r="G328" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H328" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I328" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J328" s="41" t="n">
         <f aca="false">J316+D316</f>
@@ -16336,7 +16339,7 @@
         <v>9</v>
       </c>
       <c r="N328" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O328" s="3" t="n">
         <v>2</v>
@@ -16350,26 +16353,26 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="22" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C329" s="22" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D329" s="1" t="n">
         <v>32</v>
       </c>
       <c r="E329" s="37" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F329" s="37"/>
       <c r="G329" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H329" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I329" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J329" s="41" t="n">
         <f aca="false">J328+D328</f>
@@ -16388,7 +16391,7 @@
         <v>10</v>
       </c>
       <c r="N329" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O329" s="3" t="n">
         <v>4</v>
@@ -16402,10 +16405,10 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="22" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C330" s="22" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D330" s="1" t="n">
         <v>32</v>
@@ -16415,13 +16418,13 @@
       </c>
       <c r="F330" s="37"/>
       <c r="G330" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H330" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I330" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J330" s="41" t="n">
         <f aca="false">J329+D329</f>
@@ -16440,7 +16443,7 @@
         <v>11</v>
       </c>
       <c r="N330" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O330" s="3" t="n">
         <v>4</v>
@@ -16454,26 +16457,26 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="22" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C331" s="22" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D331" s="1" t="n">
         <v>32</v>
       </c>
       <c r="E331" s="37" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F331" s="37"/>
       <c r="G331" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H331" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I331" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J331" s="41" t="n">
         <f aca="false">J330+D330</f>
@@ -16492,7 +16495,7 @@
         <v>12</v>
       </c>
       <c r="N331" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O331" s="3" t="n">
         <v>4</v>
@@ -16506,10 +16509,10 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="22" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C332" s="22" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D332" s="1" t="n">
         <v>32</v>
@@ -16519,13 +16522,13 @@
       </c>
       <c r="F332" s="37"/>
       <c r="G332" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H332" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I332" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J332" s="41" t="n">
         <f aca="false">J331+D331</f>
@@ -16544,7 +16547,7 @@
         <v>13</v>
       </c>
       <c r="N332" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O332" s="3" t="n">
         <v>4</v>
@@ -16558,10 +16561,10 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="22" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C333" s="22" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D333" s="1" t="n">
         <v>8</v>
@@ -16571,13 +16574,13 @@
       </c>
       <c r="F333" s="37"/>
       <c r="G333" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H333" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I333" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J333" s="41" t="n">
         <f aca="false">J332+D332</f>
@@ -16596,7 +16599,7 @@
         <v>14</v>
       </c>
       <c r="N333" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O333" s="3" t="n">
         <v>4</v>
@@ -16610,10 +16613,10 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="22" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C334" s="22" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D334" s="1" t="n">
         <v>8</v>
@@ -16623,13 +16626,13 @@
       </c>
       <c r="F334" s="37"/>
       <c r="G334" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H334" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I334" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J334" s="41" t="n">
         <f aca="false">J333+D333</f>
@@ -16648,7 +16651,7 @@
         <v>14.25</v>
       </c>
       <c r="N334" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O334" s="3" t="n">
         <v>4</v>
@@ -16662,10 +16665,10 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="22" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C335" s="22" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D335" s="1" t="n">
         <v>8</v>
@@ -16675,13 +16678,13 @@
       </c>
       <c r="F335" s="37"/>
       <c r="G335" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H335" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I335" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J335" s="41" t="n">
         <f aca="false">J334+D334</f>
@@ -16700,7 +16703,7 @@
         <v>14.5</v>
       </c>
       <c r="N335" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O335" s="3" t="n">
         <v>4</v>
@@ -16714,10 +16717,10 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="22" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C336" s="22" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D336" s="1" t="n">
         <v>8</v>
@@ -16727,13 +16730,13 @@
       </c>
       <c r="F336" s="37"/>
       <c r="G336" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H336" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I336" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J336" s="41" t="n">
         <f aca="false">J335+D335</f>
@@ -16752,7 +16755,7 @@
         <v>14.75</v>
       </c>
       <c r="N336" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O336" s="3" t="n">
         <v>4</v>
@@ -16766,10 +16769,10 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="22" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C337" s="22" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D337" s="1" t="n">
         <v>8</v>
@@ -16779,13 +16782,13 @@
       </c>
       <c r="F337" s="37"/>
       <c r="G337" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H337" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I337" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J337" s="41" t="n">
         <f aca="false">J336+D336</f>
@@ -16804,7 +16807,7 @@
         <v>15</v>
       </c>
       <c r="N337" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O337" s="3" t="n">
         <v>4</v>
@@ -16818,10 +16821,10 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="22" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C338" s="22" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D338" s="1" t="n">
         <v>8</v>
@@ -16831,13 +16834,13 @@
       </c>
       <c r="F338" s="37"/>
       <c r="G338" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H338" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I338" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J338" s="41" t="n">
         <f aca="false">J337+D337</f>
@@ -16856,7 +16859,7 @@
         <v>15.25</v>
       </c>
       <c r="N338" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O338" s="3" t="n">
         <v>4</v>
@@ -16870,10 +16873,10 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="22" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C339" s="22" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D339" s="1" t="n">
         <v>8</v>
@@ -16883,13 +16886,13 @@
       </c>
       <c r="F339" s="37"/>
       <c r="G339" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H339" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I339" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J339" s="41" t="n">
         <f aca="false">J338+D338</f>
@@ -16908,7 +16911,7 @@
         <v>15.5</v>
       </c>
       <c r="N339" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O339" s="3" t="n">
         <v>4</v>
@@ -16922,10 +16925,10 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="22" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C340" s="22" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D340" s="1" t="n">
         <v>8</v>
@@ -16935,13 +16938,13 @@
       </c>
       <c r="F340" s="37"/>
       <c r="G340" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H340" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I340" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J340" s="41" t="n">
         <f aca="false">J339+D339</f>
@@ -16960,7 +16963,7 @@
         <v>15.75</v>
       </c>
       <c r="N340" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O340" s="3" t="n">
         <v>4</v>
@@ -16974,10 +16977,10 @@
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="22" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C341" s="22" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D341" s="1" t="n">
         <v>8</v>
@@ -16987,13 +16990,13 @@
       </c>
       <c r="F341" s="37"/>
       <c r="G341" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H341" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I341" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J341" s="41" t="n">
         <f aca="false">J340+D340</f>
@@ -17012,7 +17015,7 @@
         <v>16</v>
       </c>
       <c r="N341" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O341" s="3" t="n">
         <v>4</v>
@@ -17026,10 +17029,10 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="22" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C342" s="22" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D342" s="1" t="n">
         <v>8</v>
@@ -17039,13 +17042,13 @@
       </c>
       <c r="F342" s="37"/>
       <c r="G342" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H342" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I342" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J342" s="41" t="n">
         <f aca="false">J341+D341</f>
@@ -17064,7 +17067,7 @@
         <v>16.25</v>
       </c>
       <c r="N342" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O342" s="3" t="n">
         <v>4</v>
@@ -17078,10 +17081,10 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="22" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C343" s="22" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D343" s="1" t="n">
         <v>8</v>
@@ -17091,13 +17094,13 @@
       </c>
       <c r="F343" s="37"/>
       <c r="G343" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H343" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I343" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J343" s="41" t="n">
         <f aca="false">J342+D342</f>
@@ -17116,7 +17119,7 @@
         <v>16.5</v>
       </c>
       <c r="N343" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O343" s="3" t="n">
         <v>4</v>
@@ -17130,10 +17133,10 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="22" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C344" s="22" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D344" s="1" t="n">
         <v>8</v>
@@ -17143,13 +17146,13 @@
       </c>
       <c r="F344" s="37"/>
       <c r="G344" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H344" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I344" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J344" s="41" t="n">
         <f aca="false">J343+D343</f>
@@ -17168,7 +17171,7 @@
         <v>16.75</v>
       </c>
       <c r="N344" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O344" s="3" t="n">
         <v>4</v>
@@ -17182,10 +17185,10 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="22" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C345" s="22" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D345" s="1" t="n">
         <v>8</v>
@@ -17195,13 +17198,13 @@
       </c>
       <c r="F345" s="37"/>
       <c r="G345" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H345" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I345" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J345" s="41" t="n">
         <f aca="false">J344+D344</f>
@@ -17220,7 +17223,7 @@
         <v>17</v>
       </c>
       <c r="N345" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O345" s="3" t="n">
         <v>4</v>
@@ -17234,10 +17237,10 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="22" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D346" s="1" t="n">
         <v>8</v>
@@ -17247,13 +17250,13 @@
       </c>
       <c r="F346" s="37"/>
       <c r="G346" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H346" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I346" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J346" s="41" t="n">
         <f aca="false">J345+D345</f>
@@ -17272,7 +17275,7 @@
         <v>17.25</v>
       </c>
       <c r="N346" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O346" s="3" t="n">
         <v>4</v>
@@ -17286,10 +17289,10 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="22" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C347" s="22" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D347" s="1" t="n">
         <v>8</v>
@@ -17299,13 +17302,13 @@
       </c>
       <c r="F347" s="37"/>
       <c r="G347" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H347" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I347" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J347" s="41" t="n">
         <f aca="false">J346+D346</f>
@@ -17324,7 +17327,7 @@
         <v>17.5</v>
       </c>
       <c r="N347" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O347" s="3" t="n">
         <v>4</v>
@@ -17338,10 +17341,10 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="22" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C348" s="22" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D348" s="1" t="n">
         <v>8</v>
@@ -17351,13 +17354,13 @@
       </c>
       <c r="F348" s="37"/>
       <c r="G348" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H348" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I348" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J348" s="41" t="n">
         <f aca="false">J347+D347</f>
@@ -17376,7 +17379,7 @@
         <v>17.75</v>
       </c>
       <c r="N348" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O348" s="3" t="n">
         <v>4</v>
@@ -17390,10 +17393,10 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="22" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C349" s="22" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D349" s="1" t="n">
         <v>8</v>
@@ -17403,13 +17406,13 @@
       </c>
       <c r="F349" s="37"/>
       <c r="G349" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H349" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I349" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J349" s="41" t="n">
         <f aca="false">J348+D348</f>
@@ -17428,7 +17431,7 @@
         <v>18</v>
       </c>
       <c r="N349" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O349" s="3" t="n">
         <v>4</v>
@@ -17442,10 +17445,10 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="22" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C350" s="22" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D350" s="1" t="n">
         <v>8</v>
@@ -17455,13 +17458,13 @@
       </c>
       <c r="F350" s="37"/>
       <c r="G350" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H350" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I350" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J350" s="41" t="n">
         <f aca="false">J349+D349</f>
@@ -17480,7 +17483,7 @@
         <v>18.25</v>
       </c>
       <c r="N350" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O350" s="3" t="n">
         <v>4</v>
@@ -17494,10 +17497,10 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="22" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C351" s="22" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D351" s="1" t="n">
         <v>8</v>
@@ -17507,13 +17510,13 @@
       </c>
       <c r="F351" s="37"/>
       <c r="G351" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H351" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I351" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J351" s="41" t="n">
         <f aca="false">J350+D350</f>
@@ -17532,7 +17535,7 @@
         <v>18.5</v>
       </c>
       <c r="N351" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O351" s="3" t="n">
         <v>4</v>
@@ -17546,10 +17549,10 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="22" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C352" s="22" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D352" s="1" t="n">
         <v>8</v>
@@ -17559,13 +17562,13 @@
       </c>
       <c r="F352" s="37"/>
       <c r="G352" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H352" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I352" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J352" s="41" t="n">
         <f aca="false">J351+D351</f>
@@ -17584,7 +17587,7 @@
         <v>18.75</v>
       </c>
       <c r="N352" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O352" s="3" t="n">
         <v>4</v>
@@ -17598,10 +17601,10 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="22" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C353" s="22" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D353" s="1" t="n">
         <v>8</v>
@@ -17611,13 +17614,13 @@
       </c>
       <c r="F353" s="37"/>
       <c r="G353" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H353" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I353" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J353" s="41" t="n">
         <f aca="false">J352+D352</f>
@@ -17636,7 +17639,7 @@
         <v>19</v>
       </c>
       <c r="N353" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O353" s="3" t="n">
         <v>4</v>
@@ -17650,10 +17653,10 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="22" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C354" s="22" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D354" s="1" t="n">
         <v>8</v>
@@ -17663,13 +17666,13 @@
       </c>
       <c r="F354" s="37"/>
       <c r="G354" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H354" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I354" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J354" s="41" t="n">
         <f aca="false">J353+D353</f>
@@ -17688,7 +17691,7 @@
         <v>19.25</v>
       </c>
       <c r="N354" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O354" s="3" t="n">
         <v>4</v>
@@ -17702,10 +17705,10 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="22" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C355" s="22" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D355" s="1" t="n">
         <v>8</v>
@@ -17715,13 +17718,13 @@
       </c>
       <c r="F355" s="37"/>
       <c r="G355" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H355" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I355" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J355" s="41" t="n">
         <f aca="false">J354+D354</f>
@@ -17740,7 +17743,7 @@
         <v>19.5</v>
       </c>
       <c r="N355" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O355" s="3" t="n">
         <v>4</v>
@@ -17754,10 +17757,10 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="22" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C356" s="22" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D356" s="1" t="n">
         <v>8</v>
@@ -17767,13 +17770,13 @@
       </c>
       <c r="F356" s="37"/>
       <c r="G356" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H356" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I356" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J356" s="41" t="n">
         <f aca="false">J355+D355</f>
@@ -17792,7 +17795,7 @@
         <v>19.75</v>
       </c>
       <c r="N356" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O356" s="3" t="n">
         <v>4</v>
@@ -17806,10 +17809,10 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="22" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C357" s="22" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D357" s="1" t="n">
         <v>8</v>
@@ -17819,13 +17822,13 @@
       </c>
       <c r="F357" s="37"/>
       <c r="G357" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H357" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I357" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J357" s="41" t="n">
         <f aca="false">J356+D356</f>
@@ -17844,7 +17847,7 @@
         <v>20</v>
       </c>
       <c r="N357" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O357" s="3" t="n">
         <v>4</v>
@@ -17858,10 +17861,10 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="22" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C358" s="22" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D358" s="1" t="n">
         <v>8</v>
@@ -17871,13 +17874,13 @@
       </c>
       <c r="F358" s="37"/>
       <c r="G358" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H358" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I358" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J358" s="41" t="n">
         <f aca="false">J357+D357</f>
@@ -17896,7 +17899,7 @@
         <v>20.25</v>
       </c>
       <c r="N358" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O358" s="3" t="n">
         <v>4</v>
@@ -17910,10 +17913,10 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="22" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C359" s="22" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D359" s="1" t="n">
         <v>8</v>
@@ -17923,13 +17926,13 @@
       </c>
       <c r="F359" s="37"/>
       <c r="G359" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H359" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I359" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J359" s="41" t="n">
         <f aca="false">J358+D358</f>
@@ -17948,7 +17951,7 @@
         <v>20.5</v>
       </c>
       <c r="N359" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O359" s="3" t="n">
         <v>4</v>
@@ -17962,10 +17965,10 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="22" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C360" s="22" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D360" s="1" t="n">
         <v>8</v>
@@ -17975,13 +17978,13 @@
       </c>
       <c r="F360" s="37"/>
       <c r="G360" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H360" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I360" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J360" s="41" t="n">
         <f aca="false">J359+D359</f>
@@ -18000,7 +18003,7 @@
         <v>20.75</v>
       </c>
       <c r="N360" s="42" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O360" s="3" t="n">
         <v>4</v>
@@ -18014,10 +18017,10 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D361" s="1" t="n">
         <v>16</v>
@@ -18029,13 +18032,13 @@
         <v>119</v>
       </c>
       <c r="G361" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H361" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I361" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J361" s="41" t="n">
         <f aca="false">J360+D360</f>
@@ -18054,7 +18057,7 @@
         <v>21</v>
       </c>
       <c r="N361" s="42" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O361" s="3" t="n">
         <v>1</v>
@@ -18068,16 +18071,16 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D362" s="1" t="n">
         <v>16</v>
       </c>
       <c r="E362" s="37" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F362" s="37"/>
       <c r="G362" s="37" t="n">
@@ -18087,7 +18090,7 @@
         <v>27</v>
       </c>
       <c r="I362" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J362" s="41" t="n">
         <f aca="false">J361+D361</f>
@@ -18145,7 +18148,7 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="40" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F364" s="37"/>
       <c r="G364" s="37"/>
@@ -18228,10 +18231,10 @@
     </row>
     <row r="367" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="22" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C367" s="43" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D367" s="1" t="n">
         <v>9</v>
@@ -18247,7 +18250,7 @@
         <v>27</v>
       </c>
       <c r="I367" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J367" s="4" t="n">
         <f aca="false">J363</f>
@@ -18266,7 +18269,7 @@
         <v>22</v>
       </c>
       <c r="N367" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O367" s="3" t="n">
         <v>2</v>
@@ -18280,10 +18283,10 @@
     </row>
     <row r="368" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C368" s="43" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D368" s="1" t="n">
         <v>5</v>
@@ -18299,7 +18302,7 @@
         <v>27</v>
       </c>
       <c r="I368" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J368" s="4" t="n">
         <f aca="false">J367+D367</f>
@@ -18318,7 +18321,7 @@
         <v>22.28125</v>
       </c>
       <c r="N368" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O368" s="3" t="n">
         <v>2</v>
@@ -18332,10 +18335,10 @@
     </row>
     <row r="369" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="22" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C369" s="43" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D369" s="1" t="n">
         <v>4</v>
@@ -18351,7 +18354,7 @@
         <v>27</v>
       </c>
       <c r="I369" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J369" s="4" t="n">
         <f aca="false">J368+D368</f>
@@ -18370,7 +18373,7 @@
         <v>22.4375</v>
       </c>
       <c r="N369" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O369" s="3" t="n">
         <v>2</v>
@@ -18384,10 +18387,10 @@
     </row>
     <row r="370" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="22" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C370" s="43" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D370" s="1" t="n">
         <v>4</v>
@@ -18403,7 +18406,7 @@
         <v>27</v>
       </c>
       <c r="I370" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J370" s="4" t="n">
         <f aca="false">J369+D369</f>
@@ -18422,7 +18425,7 @@
         <v>22.5625</v>
       </c>
       <c r="N370" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O370" s="3" t="n">
         <v>2</v>
@@ -18436,10 +18439,10 @@
     </row>
     <row r="371" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="22" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C371" s="43" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D371" s="1" t="n">
         <v>3</v>
@@ -18455,7 +18458,7 @@
         <v>27</v>
       </c>
       <c r="I371" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J371" s="4" t="n">
         <f aca="false">J370+D370</f>
@@ -18474,7 +18477,7 @@
         <v>22.6875</v>
       </c>
       <c r="N371" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O371" s="3" t="n">
         <v>2</v>
@@ -18488,10 +18491,10 @@
     </row>
     <row r="372" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="22" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C372" s="43" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D372" s="1" t="n">
         <v>1</v>
@@ -18501,13 +18504,13 @@
       </c>
       <c r="F372" s="44"/>
       <c r="G372" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H372" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I372" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J372" s="4" t="n">
         <f aca="false">J371+D371</f>
@@ -18526,7 +18529,7 @@
         <v>22.78125</v>
       </c>
       <c r="N372" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O372" s="3" t="n">
         <v>2</v>
@@ -18540,10 +18543,10 @@
     </row>
     <row r="373" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="22" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C373" s="43" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D373" s="1" t="n">
         <v>1</v>
@@ -18553,13 +18556,13 @@
       </c>
       <c r="F373" s="44"/>
       <c r="G373" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H373" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I373" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J373" s="4" t="n">
         <f aca="false">J372+D372</f>
@@ -18578,7 +18581,7 @@
         <v>22.8125</v>
       </c>
       <c r="N373" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O373" s="3" t="n">
         <v>1</v>
@@ -18592,10 +18595,10 @@
     </row>
     <row r="374" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="22" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C374" s="43" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D374" s="1" t="n">
         <v>5</v>
@@ -18611,7 +18614,7 @@
         <v>27</v>
       </c>
       <c r="I374" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J374" s="4" t="n">
         <f aca="false">J373+D373</f>
@@ -18692,10 +18695,10 @@
     </row>
     <row r="377" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="22" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C377" s="43" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D377" s="1" t="n">
         <v>5</v>
@@ -18711,7 +18714,7 @@
         <v>27</v>
       </c>
       <c r="I377" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J377" s="41" t="n">
         <f aca="false">J363</f>
@@ -18744,10 +18747,10 @@
     </row>
     <row r="378" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="22" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C378" s="43" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D378" s="1" t="n">
         <v>1</v>
@@ -18757,13 +18760,13 @@
       </c>
       <c r="F378" s="44"/>
       <c r="G378" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H378" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I378" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J378" s="41" t="n">
         <f aca="false">J377+D377</f>
@@ -18782,7 +18785,7 @@
         <v>22.15625</v>
       </c>
       <c r="N378" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O378" s="3" t="n">
         <v>1</v>
@@ -18796,10 +18799,10 @@
     </row>
     <row r="379" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="22" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C379" s="43" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D379" s="1" t="n">
         <v>1</v>
@@ -18809,13 +18812,13 @@
       </c>
       <c r="F379" s="44"/>
       <c r="G379" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H379" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I379" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J379" s="41" t="n">
         <f aca="false">J378+D378</f>
@@ -18834,7 +18837,7 @@
         <v>22.1875</v>
       </c>
       <c r="N379" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O379" s="3" t="n">
         <v>2</v>
@@ -18848,10 +18851,10 @@
     </row>
     <row r="380" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="22" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C380" s="43" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D380" s="1" t="n">
         <v>3</v>
@@ -18861,13 +18864,13 @@
       </c>
       <c r="F380" s="44"/>
       <c r="G380" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H380" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I380" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J380" s="41" t="n">
         <f aca="false">J379+D379</f>
@@ -18886,7 +18889,7 @@
         <v>22.21875</v>
       </c>
       <c r="N380" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O380" s="3" t="n">
         <v>2</v>
@@ -18900,10 +18903,10 @@
     </row>
     <row r="381" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="22" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C381" s="43" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D381" s="1" t="n">
         <v>4</v>
@@ -18913,13 +18916,13 @@
       </c>
       <c r="F381" s="44"/>
       <c r="G381" s="37" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H381" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I381" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J381" s="41" t="n">
         <f aca="false">J380+D380</f>
@@ -18938,7 +18941,7 @@
         <v>22.3125</v>
       </c>
       <c r="N381" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O381" s="3" t="n">
         <v>2</v>
@@ -18952,10 +18955,10 @@
     </row>
     <row r="382" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="22" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C382" s="43" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D382" s="1" t="n">
         <v>4</v>
@@ -18965,13 +18968,13 @@
       </c>
       <c r="F382" s="44"/>
       <c r="G382" s="37" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H382" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I382" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J382" s="41" t="n">
         <f aca="false">J381+D381</f>
@@ -18990,7 +18993,7 @@
         <v>22.4375</v>
       </c>
       <c r="N382" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O382" s="3" t="n">
         <v>2</v>
@@ -19004,10 +19007,10 @@
     </row>
     <row r="383" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C383" s="43" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D383" s="1" t="n">
         <v>5</v>
@@ -19017,13 +19020,13 @@
       </c>
       <c r="F383" s="44"/>
       <c r="G383" s="37" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H383" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I383" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J383" s="41" t="n">
         <f aca="false">J382+D382</f>
@@ -19042,7 +19045,7 @@
         <v>22.5625</v>
       </c>
       <c r="N383" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O383" s="3" t="n">
         <v>2</v>
@@ -19056,10 +19059,10 @@
     </row>
     <row r="384" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="22" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C384" s="43" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D384" s="1" t="n">
         <v>9</v>
@@ -19069,13 +19072,13 @@
       </c>
       <c r="F384" s="44"/>
       <c r="G384" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H384" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I384" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J384" s="41" t="n">
         <f aca="false">J383+D383</f>
@@ -19094,7 +19097,7 @@
         <v>22.71875</v>
       </c>
       <c r="N384" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O384" s="3" t="n">
         <v>2</v>
@@ -19126,10 +19129,10 @@
     </row>
     <row r="386" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="22" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C386" s="43" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D386" s="1" t="n">
         <v>32</v>
@@ -19139,13 +19142,13 @@
       </c>
       <c r="F386" s="44"/>
       <c r="G386" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H386" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I386" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J386" s="41" t="n">
         <f aca="false">J374+D374</f>
@@ -19164,7 +19167,7 @@
         <v>23</v>
       </c>
       <c r="N386" s="42" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O386" s="3" t="n">
         <v>2</v>
@@ -19179,10 +19182,10 @@
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="42"/>
       <c r="B387" s="22" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C387" s="22" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D387" s="1" t="n">
         <v>32</v>
@@ -19192,13 +19195,13 @@
       </c>
       <c r="F387" s="37"/>
       <c r="G387" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H387" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I387" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J387" s="41" t="n">
         <f aca="false">J386+D386</f>
@@ -19217,7 +19220,7 @@
         <v>24</v>
       </c>
       <c r="N387" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O387" s="3" t="n">
         <v>5</v>
@@ -19231,10 +19234,10 @@
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="22" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C388" s="22" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D388" s="1" t="n">
         <v>32</v>
@@ -19244,13 +19247,13 @@
       </c>
       <c r="F388" s="37"/>
       <c r="G388" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H388" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I388" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J388" s="41" t="n">
         <f aca="false">J387+D387</f>
@@ -19269,7 +19272,7 @@
         <v>25</v>
       </c>
       <c r="N388" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O388" s="3" t="n">
         <v>5</v>
@@ -19283,26 +19286,26 @@
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="22" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C389" s="22" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D389" s="1" t="n">
         <v>32</v>
       </c>
       <c r="E389" s="37" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F389" s="37"/>
       <c r="G389" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H389" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I389" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J389" s="41" t="n">
         <f aca="false">J388+D388</f>
@@ -19321,7 +19324,7 @@
         <v>26</v>
       </c>
       <c r="N389" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O389" s="3" t="n">
         <v>5</v>
@@ -19335,10 +19338,10 @@
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="22" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C390" s="22" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D390" s="1" t="n">
         <v>32</v>
@@ -19348,13 +19351,13 @@
       </c>
       <c r="F390" s="37"/>
       <c r="G390" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H390" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I390" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J390" s="41" t="n">
         <f aca="false">J389+D389</f>
@@ -19373,7 +19376,7 @@
         <v>27</v>
       </c>
       <c r="N390" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O390" s="3" t="n">
         <v>5</v>
@@ -19387,10 +19390,10 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="22" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C391" s="22" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D391" s="1" t="n">
         <v>8</v>
@@ -19400,13 +19403,13 @@
       </c>
       <c r="F391" s="37"/>
       <c r="G391" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H391" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I391" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J391" s="41" t="n">
         <f aca="false">J390+D390</f>
@@ -19425,7 +19428,7 @@
         <v>28</v>
       </c>
       <c r="N391" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O391" s="3" t="n">
         <v>5</v>
@@ -19439,10 +19442,10 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="22" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C392" s="22" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D392" s="1" t="n">
         <v>8</v>
@@ -19452,13 +19455,13 @@
       </c>
       <c r="F392" s="37"/>
       <c r="G392" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H392" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I392" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J392" s="41" t="n">
         <f aca="false">J391+D391</f>
@@ -19477,7 +19480,7 @@
         <v>28.25</v>
       </c>
       <c r="N392" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O392" s="3" t="n">
         <v>5</v>
@@ -19491,10 +19494,10 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="22" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C393" s="22" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D393" s="1" t="n">
         <v>8</v>
@@ -19504,13 +19507,13 @@
       </c>
       <c r="F393" s="37"/>
       <c r="G393" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H393" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I393" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J393" s="41" t="n">
         <f aca="false">J392+D392</f>
@@ -19529,7 +19532,7 @@
         <v>28.5</v>
       </c>
       <c r="N393" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O393" s="3" t="n">
         <v>5</v>
@@ -19543,10 +19546,10 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="22" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C394" s="22" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D394" s="1" t="n">
         <v>8</v>
@@ -19556,13 +19559,13 @@
       </c>
       <c r="F394" s="37"/>
       <c r="G394" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H394" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I394" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J394" s="41" t="n">
         <f aca="false">J393+D393</f>
@@ -19581,7 +19584,7 @@
         <v>28.75</v>
       </c>
       <c r="N394" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O394" s="3" t="n">
         <v>5</v>
@@ -19595,10 +19598,10 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="22" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C395" s="22" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D395" s="1" t="n">
         <v>8</v>
@@ -19608,13 +19611,13 @@
       </c>
       <c r="F395" s="37"/>
       <c r="G395" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H395" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I395" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J395" s="41" t="n">
         <f aca="false">J394+D394</f>
@@ -19633,7 +19636,7 @@
         <v>29</v>
       </c>
       <c r="N395" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O395" s="3" t="n">
         <v>5</v>
@@ -19647,10 +19650,10 @@
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="22" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C396" s="22" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D396" s="1" t="n">
         <v>8</v>
@@ -19660,13 +19663,13 @@
       </c>
       <c r="F396" s="37"/>
       <c r="G396" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H396" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I396" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J396" s="41" t="n">
         <f aca="false">J395+D395</f>
@@ -19685,7 +19688,7 @@
         <v>29.25</v>
       </c>
       <c r="N396" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O396" s="3" t="n">
         <v>5</v>
@@ -19699,10 +19702,10 @@
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="22" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C397" s="22" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D397" s="1" t="n">
         <v>8</v>
@@ -19712,13 +19715,13 @@
       </c>
       <c r="F397" s="37"/>
       <c r="G397" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H397" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I397" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J397" s="41" t="n">
         <f aca="false">J396+D396</f>
@@ -19737,7 +19740,7 @@
         <v>29.5</v>
       </c>
       <c r="N397" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O397" s="3" t="n">
         <v>5</v>
@@ -19751,10 +19754,10 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="22" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C398" s="22" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D398" s="1" t="n">
         <v>8</v>
@@ -19764,13 +19767,13 @@
       </c>
       <c r="F398" s="37"/>
       <c r="G398" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H398" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I398" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J398" s="41" t="n">
         <f aca="false">J397+D397</f>
@@ -19789,7 +19792,7 @@
         <v>29.75</v>
       </c>
       <c r="N398" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O398" s="3" t="n">
         <v>5</v>
@@ -19803,10 +19806,10 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="22" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C399" s="22" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D399" s="1" t="n">
         <v>8</v>
@@ -19816,13 +19819,13 @@
       </c>
       <c r="F399" s="37"/>
       <c r="G399" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H399" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I399" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J399" s="41" t="n">
         <f aca="false">J398+D398</f>
@@ -19841,7 +19844,7 @@
         <v>30</v>
       </c>
       <c r="N399" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O399" s="3" t="n">
         <v>5</v>
@@ -19855,10 +19858,10 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="22" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C400" s="22" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D400" s="1" t="n">
         <v>8</v>
@@ -19868,13 +19871,13 @@
       </c>
       <c r="F400" s="37"/>
       <c r="G400" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H400" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I400" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J400" s="41" t="n">
         <f aca="false">J399+D399</f>
@@ -19893,7 +19896,7 @@
         <v>30.25</v>
       </c>
       <c r="N400" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O400" s="3" t="n">
         <v>5</v>
@@ -19907,10 +19910,10 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="22" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C401" s="22" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D401" s="1" t="n">
         <v>8</v>
@@ -19920,13 +19923,13 @@
       </c>
       <c r="F401" s="37"/>
       <c r="G401" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H401" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I401" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J401" s="41" t="n">
         <f aca="false">J400+D400</f>
@@ -19945,7 +19948,7 @@
         <v>30.5</v>
       </c>
       <c r="N401" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O401" s="3" t="n">
         <v>5</v>
@@ -19959,10 +19962,10 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="22" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C402" s="22" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D402" s="1" t="n">
         <v>8</v>
@@ -19972,13 +19975,13 @@
       </c>
       <c r="F402" s="37"/>
       <c r="G402" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H402" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I402" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J402" s="41" t="n">
         <f aca="false">J401+D401</f>
@@ -19997,7 +20000,7 @@
         <v>30.75</v>
       </c>
       <c r="N402" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O402" s="3" t="n">
         <v>5</v>
@@ -20011,10 +20014,10 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="22" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C403" s="22" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D403" s="1" t="n">
         <v>8</v>
@@ -20024,13 +20027,13 @@
       </c>
       <c r="F403" s="37"/>
       <c r="G403" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H403" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I403" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J403" s="41" t="n">
         <f aca="false">J402+D402</f>
@@ -20049,7 +20052,7 @@
         <v>31</v>
       </c>
       <c r="N403" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O403" s="3" t="n">
         <v>5</v>
@@ -20063,10 +20066,10 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="22" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C404" s="22" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D404" s="1" t="n">
         <v>8</v>
@@ -20076,13 +20079,13 @@
       </c>
       <c r="F404" s="37"/>
       <c r="G404" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H404" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I404" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J404" s="41" t="n">
         <f aca="false">J403+D403</f>
@@ -20101,7 +20104,7 @@
         <v>31.25</v>
       </c>
       <c r="N404" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O404" s="3" t="n">
         <v>5</v>
@@ -20115,10 +20118,10 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="22" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C405" s="22" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D405" s="1" t="n">
         <v>8</v>
@@ -20128,13 +20131,13 @@
       </c>
       <c r="F405" s="37"/>
       <c r="G405" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H405" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I405" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J405" s="41" t="n">
         <f aca="false">J404+D404</f>
@@ -20153,7 +20156,7 @@
         <v>31.5</v>
       </c>
       <c r="N405" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O405" s="3" t="n">
         <v>5</v>
@@ -20167,10 +20170,10 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="22" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C406" s="22" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D406" s="1" t="n">
         <v>8</v>
@@ -20180,13 +20183,13 @@
       </c>
       <c r="F406" s="37"/>
       <c r="G406" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H406" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I406" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J406" s="41" t="n">
         <f aca="false">J405+D405</f>
@@ -20205,7 +20208,7 @@
         <v>31.75</v>
       </c>
       <c r="N406" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O406" s="3" t="n">
         <v>5</v>
@@ -20219,10 +20222,10 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="22" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C407" s="22" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D407" s="1" t="n">
         <v>8</v>
@@ -20232,13 +20235,13 @@
       </c>
       <c r="F407" s="37"/>
       <c r="G407" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H407" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I407" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J407" s="41" t="n">
         <f aca="false">J406+D406</f>
@@ -20257,7 +20260,7 @@
         <v>32</v>
       </c>
       <c r="N407" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O407" s="3" t="n">
         <v>5</v>
@@ -20271,10 +20274,10 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="22" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C408" s="22" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D408" s="1" t="n">
         <v>8</v>
@@ -20284,13 +20287,13 @@
       </c>
       <c r="F408" s="37"/>
       <c r="G408" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H408" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I408" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J408" s="41" t="n">
         <f aca="false">J407+D407</f>
@@ -20309,7 +20312,7 @@
         <v>32.25</v>
       </c>
       <c r="N408" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O408" s="3" t="n">
         <v>5</v>
@@ -20323,10 +20326,10 @@
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="22" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C409" s="22" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D409" s="1" t="n">
         <v>8</v>
@@ -20336,13 +20339,13 @@
       </c>
       <c r="F409" s="37"/>
       <c r="G409" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H409" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I409" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J409" s="41" t="n">
         <f aca="false">J408+D408</f>
@@ -20361,7 +20364,7 @@
         <v>32.5</v>
       </c>
       <c r="N409" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O409" s="3" t="n">
         <v>5</v>
@@ -20375,10 +20378,10 @@
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="22" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C410" s="22" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D410" s="1" t="n">
         <v>8</v>
@@ -20388,13 +20391,13 @@
       </c>
       <c r="F410" s="37"/>
       <c r="G410" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H410" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I410" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J410" s="41" t="n">
         <f aca="false">J409+D409</f>
@@ -20413,7 +20416,7 @@
         <v>32.75</v>
       </c>
       <c r="N410" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O410" s="3" t="n">
         <v>5</v>
@@ -20427,10 +20430,10 @@
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="22" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C411" s="22" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D411" s="1" t="n">
         <v>8</v>
@@ -20440,13 +20443,13 @@
       </c>
       <c r="F411" s="37"/>
       <c r="G411" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H411" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I411" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J411" s="41" t="n">
         <f aca="false">J410+D410</f>
@@ -20465,7 +20468,7 @@
         <v>33</v>
       </c>
       <c r="N411" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O411" s="3" t="n">
         <v>5</v>
@@ -20479,10 +20482,10 @@
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="22" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C412" s="22" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D412" s="1" t="n">
         <v>8</v>
@@ -20492,13 +20495,13 @@
       </c>
       <c r="F412" s="37"/>
       <c r="G412" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H412" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I412" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J412" s="41" t="n">
         <f aca="false">J411+D411</f>
@@ -20517,7 +20520,7 @@
         <v>33.25</v>
       </c>
       <c r="N412" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O412" s="3" t="n">
         <v>5</v>
@@ -20531,10 +20534,10 @@
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="22" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C413" s="22" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D413" s="1" t="n">
         <v>8</v>
@@ -20544,13 +20547,13 @@
       </c>
       <c r="F413" s="37"/>
       <c r="G413" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H413" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I413" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J413" s="41" t="n">
         <f aca="false">J412+D412</f>
@@ -20569,7 +20572,7 @@
         <v>33.5</v>
       </c>
       <c r="N413" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O413" s="3" t="n">
         <v>5</v>
@@ -20583,10 +20586,10 @@
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="22" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C414" s="22" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D414" s="1" t="n">
         <v>8</v>
@@ -20596,13 +20599,13 @@
       </c>
       <c r="F414" s="37"/>
       <c r="G414" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H414" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I414" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J414" s="41" t="n">
         <f aca="false">J413+D413</f>
@@ -20621,7 +20624,7 @@
         <v>33.75</v>
       </c>
       <c r="N414" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O414" s="3" t="n">
         <v>5</v>
@@ -20635,10 +20638,10 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="22" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C415" s="22" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D415" s="1" t="n">
         <v>8</v>
@@ -20648,13 +20651,13 @@
       </c>
       <c r="F415" s="37"/>
       <c r="G415" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H415" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I415" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J415" s="41" t="n">
         <f aca="false">J414+D414</f>
@@ -20673,7 +20676,7 @@
         <v>34</v>
       </c>
       <c r="N415" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O415" s="3" t="n">
         <v>5</v>
@@ -20687,10 +20690,10 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="22" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C416" s="22" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D416" s="1" t="n">
         <v>8</v>
@@ -20700,13 +20703,13 @@
       </c>
       <c r="F416" s="37"/>
       <c r="G416" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H416" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I416" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J416" s="41" t="n">
         <f aca="false">J415+D415</f>
@@ -20725,7 +20728,7 @@
         <v>34.25</v>
       </c>
       <c r="N416" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O416" s="3" t="n">
         <v>5</v>
@@ -20739,10 +20742,10 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="22" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C417" s="22" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D417" s="1" t="n">
         <v>8</v>
@@ -20752,13 +20755,13 @@
       </c>
       <c r="F417" s="37"/>
       <c r="G417" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H417" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I417" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J417" s="41" t="n">
         <f aca="false">J416+D416</f>
@@ -20777,7 +20780,7 @@
         <v>34.5</v>
       </c>
       <c r="N417" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O417" s="3" t="n">
         <v>5</v>
@@ -20791,10 +20794,10 @@
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="22" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C418" s="22" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D418" s="1" t="n">
         <v>8</v>
@@ -20804,13 +20807,13 @@
       </c>
       <c r="F418" s="37"/>
       <c r="G418" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H418" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I418" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J418" s="41" t="n">
         <f aca="false">J417+D417</f>
@@ -20829,7 +20832,7 @@
         <v>34.75</v>
       </c>
       <c r="N418" s="42" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O418" s="3" t="n">
         <v>5</v>
@@ -20843,10 +20846,10 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="3" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D419" s="1" t="n">
         <v>16</v>
@@ -20858,13 +20861,13 @@
         <v>119</v>
       </c>
       <c r="G419" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H419" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I419" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J419" s="41" t="n">
         <f aca="false">J418+D418</f>
@@ -20883,7 +20886,7 @@
         <v>35</v>
       </c>
       <c r="N419" s="42" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O419" s="3" t="n">
         <v>1</v>
@@ -20897,16 +20900,16 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D420" s="1" t="n">
         <v>16</v>
       </c>
       <c r="E420" s="37" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F420" s="37"/>
       <c r="G420" s="37" t="n">
@@ -20916,7 +20919,7 @@
         <v>27</v>
       </c>
       <c r="I420" s="37" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J420" s="41" t="n">
         <f aca="false">J419+D419</f>
@@ -21019,7 +21022,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.11"/>
@@ -21029,22 +21032,22 @@
     <row r="6" s="47" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="48"/>
       <c r="C6" s="48" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="I6" s="48"/>
     </row>

--- a/genSpacecraft/DownlinkSpecGolf-T.xlsx
+++ b/genSpacecraft/DownlinkSpecGolf-T.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="682">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">Zmag</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary RF Power</t>
+    <t xml:space="preserve">RF1 Power</t>
   </si>
   <si>
     <t xml:space="preserve">DCT1Power</t>
@@ -386,201 +386,204 @@
     <t xml:space="preserve">Primary DCT RF Power</t>
   </si>
   <si>
+    <t xml:space="preserve">DCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF2 Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCT2Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary DCT RF Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary RSSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCT1RSSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dct_rssi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dBm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCT1 RSSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secndry RSSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCT2RSSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCT2 RSSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Reflected Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCT1RlftdPower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary DCT Reflected Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deorbit temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deorbitTemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deorbit Device Temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golf-t_bus_voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vbatt Bus voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legacy IHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA Current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TxPAi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golf-t_tx_current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmit power amplifier current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TxTemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmitter card temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fwd Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FwdPower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiver card temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICR RSSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rssi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received Signal Strength Indication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minus Y Volts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinusYVolts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left (-Y) deployable panel Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar Panels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minus X Volts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinusXVolts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-sun Fixed Panel Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus X Volts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XVolts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun-side Fixed Panel Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus Y Volts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YVolts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right (+Y) Deployable Panel Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minus Y Temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinusYTemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minus X Temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinusXTemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus X Temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XTemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus Y Temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YTemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VGA Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LtVGACtl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control Voltage to the Variable Gain Amplifier (VGA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT1Temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary RT-IHU Board Temp</t>
+  </si>
+  <si>
     <t xml:space="preserve">RT-IHU</t>
   </si>
   <si>
-    <t xml:space="preserve">Secndry RF Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCT2Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary DCT RF Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary RSSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCT1RSSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dct_rssi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dBm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCT1 RSSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secndry RSSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCT2RSSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCT2 RSSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Reflected Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCT1RlftdPower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary DCT Reflected Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deorbit temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deorbitTemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deorbit Device Temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bus Voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">busV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golf-t_bus_voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vbatt Bus voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legacy IHU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA Current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TxPAi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">golf-t_tx_current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmit power amplifier current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TX Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TxTemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmitter card temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fwd Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FwdPower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receiver card temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICR RSSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rssi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received Signal Strength Indication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minus Y Volts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinusYVolts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left (-Y) deployable panel Voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar Panels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minus X Volts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinusXVolts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti-sun Fixed Panel Voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus X Volts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XVolts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun-side Fixed Panel Voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus Y Volts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YVolts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right (+Y) Deployable Panel Voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minus Y Temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinusYTemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minus X Temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinusXTemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus X Temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XTemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus Y Temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YTemp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VGA Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LtVGACtl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control Voltage to the Variable Gain Amplifier (VGA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT1Temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary RT-IHU Board Temp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Secndry Temp</t>
   </si>
   <si>
@@ -917,6 +920,9 @@
     <t xml:space="preserve">Number of times command stations reset stored telemetry</t>
   </si>
   <si>
+    <t xml:space="preserve">Min Max</t>
+  </si>
+  <si>
     <t xml:space="preserve">WOD Stored</t>
   </si>
   <si>
@@ -1163,24 +1169,27 @@
     <t xml:space="preserve">Secondary RT-IHU Reset Count</t>
   </si>
   <si>
+    <t xml:space="preserve">Pad6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VUC Disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vucDisabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#endif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure: realtimeSpecific_t, file:realtimeDownlink.h</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pad5</t>
   </si>
   <si>
-    <t xml:space="preserve">VUC Disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vucDisabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#endif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure: realtimeSpecific_t, file:realtimeDownlink.h</t>
-  </si>
-  <si>
     <t xml:space="preserve">Structure: maxSpecific_t, file: maxDownlink.h</t>
   </si>
   <si>
@@ -1197,9 +1206,6 @@
   </si>
   <si>
     <t xml:space="preserve">Timestamp Resets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Max</t>
   </si>
   <si>
     <t xml:space="preserve">Max Last Chg Epoch</t>
@@ -2426,8 +2432,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A96" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P108" activeCellId="0" sqref="P108"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C192" activeCellId="0" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4208,7 +4214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="30" t="s">
         <v>117</v>
       </c>
@@ -4251,16 +4257,16 @@
         <v>121</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="30" t="s">
         <v>122</v>
       </c>
@@ -4303,10 +4309,10 @@
         <v>121</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q48" s="1" t="n">
         <v>3</v>
@@ -4355,10 +4361,10 @@
         <v>121</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q49" s="1" t="n">
         <v>3</v>
@@ -4407,10 +4413,10 @@
         <v>121</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Q50" s="1" t="n">
         <v>3</v>
@@ -4459,10 +4465,10 @@
         <v>121</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="1" t="n">
         <v>3</v>
@@ -5286,7 +5292,7 @@
         <v>8.25</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="O67" s="3" t="n">
         <v>7</v>
@@ -5300,10 +5306,10 @@
     </row>
     <row r="68" customFormat="false" ht="28.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D68" s="30" t="n">
         <v>8</v>
@@ -5319,7 +5325,7 @@
         <v>80</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J68" s="28" t="n">
         <f aca="false">J67+D67</f>
@@ -5338,7 +5344,7 @@
         <v>8.5</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="O68" s="3" t="n">
         <v>7</v>
@@ -5352,10 +5358,10 @@
     </row>
     <row r="69" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D69" s="30" t="n">
         <v>8</v>
@@ -5371,7 +5377,7 @@
         <v>80</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J69" s="28" t="n">
         <f aca="false">J68+D68</f>
@@ -5404,10 +5410,10 @@
     </row>
     <row r="70" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D70" s="30" t="n">
         <v>8</v>
@@ -5423,7 +5429,7 @@
         <v>80</v>
       </c>
       <c r="I70" s="30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J70" s="28" t="n">
         <f aca="false">J69+D69</f>
@@ -5456,10 +5462,10 @@
     </row>
     <row r="71" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D71" s="30" t="n">
         <v>8</v>
@@ -5475,7 +5481,7 @@
         <v>27</v>
       </c>
       <c r="I71" s="30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J71" s="28" t="n">
         <f aca="false">J70+D70</f>
@@ -5494,7 +5500,7 @@
         <v>9.25</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O71" s="24" t="n">
         <v>8</v>
@@ -5508,10 +5514,10 @@
     </row>
     <row r="72" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D72" s="30" t="n">
         <v>8</v>
@@ -5527,7 +5533,7 @@
         <v>27</v>
       </c>
       <c r="I72" s="30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J72" s="28" t="n">
         <f aca="false">J71+D71</f>
@@ -5546,7 +5552,7 @@
         <v>9.5</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O72" s="24" t="n">
         <v>8</v>
@@ -5560,10 +5566,10 @@
     </row>
     <row r="73" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D73" s="30" t="n">
         <v>8</v>
@@ -5579,7 +5585,7 @@
         <v>27</v>
       </c>
       <c r="I73" s="30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J73" s="28" t="n">
         <f aca="false">J72+D72</f>
@@ -5598,7 +5604,7 @@
         <v>9.75</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O73" s="24" t="n">
         <v>8</v>
@@ -5612,10 +5618,10 @@
     </row>
     <row r="74" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D74" s="30" t="n">
         <v>8</v>
@@ -5631,7 +5637,7 @@
         <v>27</v>
       </c>
       <c r="I74" s="30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J74" s="28" t="n">
         <f aca="false">J73+D73</f>
@@ -5650,7 +5656,7 @@
         <v>10</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O74" s="24" t="n">
         <v>8</v>
@@ -5664,10 +5670,10 @@
     </row>
     <row r="75" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D75" s="30" t="n">
         <v>8</v>
@@ -5683,7 +5689,7 @@
         <v>27</v>
       </c>
       <c r="I75" s="30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J75" s="28" t="n">
         <f aca="false">J74+D74</f>
@@ -5702,7 +5708,7 @@
         <v>10.25</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O75" s="24" t="n">
         <v>8</v>
@@ -5716,10 +5722,10 @@
     </row>
     <row r="76" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D76" s="30" t="n">
         <v>8</v>
@@ -5735,7 +5741,7 @@
         <v>27</v>
       </c>
       <c r="I76" s="30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J76" s="28" t="n">
         <f aca="false">J75+D75</f>
@@ -5754,7 +5760,7 @@
         <v>10.5</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O76" s="24" t="n">
         <v>8</v>
@@ -5768,10 +5774,10 @@
     </row>
     <row r="77" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D77" s="30" t="n">
         <v>8</v>
@@ -5787,7 +5793,7 @@
         <v>27</v>
       </c>
       <c r="I77" s="30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J77" s="28" t="n">
         <f aca="false">J76+D76</f>
@@ -5806,7 +5812,7 @@
         <v>10.75</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O77" s="24" t="n">
         <v>8</v>
@@ -5820,10 +5826,10 @@
     </row>
     <row r="78" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D78" s="30" t="n">
         <v>8</v>
@@ -5839,7 +5845,7 @@
         <v>27</v>
       </c>
       <c r="I78" s="30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J78" s="28" t="n">
         <f aca="false">J77+D77</f>
@@ -5858,7 +5864,7 @@
         <v>11</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O78" s="24" t="n">
         <v>8</v>
@@ -5872,10 +5878,10 @@
     </row>
     <row r="79" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D79" s="30" t="n">
         <v>8</v>
@@ -5891,7 +5897,7 @@
         <v>74</v>
       </c>
       <c r="I79" s="30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J79" s="28" t="n">
         <f aca="false">J78+D78</f>
@@ -5910,7 +5916,7 @@
         <v>11.25</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O79" s="24" t="n">
         <v>9</v>
@@ -5924,10 +5930,10 @@
     </row>
     <row r="80" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D80" s="30" t="n">
         <v>8</v>
@@ -5943,7 +5949,7 @@
         <v>74</v>
       </c>
       <c r="I80" s="30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J80" s="28" t="n">
         <f aca="false">J79+D79</f>
@@ -5962,7 +5968,7 @@
         <v>11.5</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O80" s="24" t="n">
         <v>9</v>
@@ -5976,10 +5982,10 @@
     </row>
     <row r="81" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D81" s="30" t="n">
         <v>8</v>
@@ -5995,7 +6001,7 @@
         <v>74</v>
       </c>
       <c r="I81" s="30" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J81" s="28" t="n">
         <f aca="false">J80+D80</f>
@@ -6014,7 +6020,7 @@
         <v>11.75</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O81" s="24" t="n">
         <v>9</v>
@@ -6028,10 +6034,10 @@
     </row>
     <row r="82" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D82" s="30" t="n">
         <v>8</v>
@@ -6047,7 +6053,7 @@
         <v>74</v>
       </c>
       <c r="I82" s="30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J82" s="28" t="n">
         <f aca="false">J81+D81</f>
@@ -6066,7 +6072,7 @@
         <v>12</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O82" s="24" t="n">
         <v>9</v>
@@ -6080,10 +6086,10 @@
     </row>
     <row r="83" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D83" s="30" t="n">
         <v>8</v>
@@ -6099,7 +6105,7 @@
         <v>68</v>
       </c>
       <c r="I83" s="30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J83" s="28" t="n">
         <f aca="false">J82+D82</f>
@@ -6118,7 +6124,7 @@
         <v>12.25</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O83" s="24" t="n">
         <v>11</v>
@@ -6132,10 +6138,10 @@
     </row>
     <row r="84" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D84" s="30" t="n">
         <v>8</v>
@@ -6148,10 +6154,10 @@
         <v>79</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I84" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J84" s="28" t="n">
         <f aca="false">J83+D83</f>
@@ -6170,7 +6176,7 @@
         <v>12.5</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O84" s="24" t="n">
         <v>11</v>
@@ -6184,10 +6190,10 @@
     </row>
     <row r="85" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" s="30" t="n">
         <v>8</v>
@@ -6200,10 +6206,10 @@
         <v>79</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I85" s="30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J85" s="28" t="n">
         <f aca="false">J84+D84</f>
@@ -6222,7 +6228,7 @@
         <v>12.75</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O85" s="24" t="n">
         <v>11</v>
@@ -6236,10 +6242,10 @@
     </row>
     <row r="86" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D86" s="30" t="n">
         <v>8</v>
@@ -6274,7 +6280,7 @@
         <v>13</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O86" s="24" t="n">
         <v>11</v>
@@ -6288,10 +6294,10 @@
     </row>
     <row r="87" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D87" s="30" t="n">
         <v>8</v>
@@ -6329,10 +6335,10 @@
         <v>121</v>
       </c>
       <c r="O87" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P87" s="1" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q87" s="1" t="n">
         <v>3</v>
@@ -6340,10 +6346,10 @@
     </row>
     <row r="88" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D88" s="30" t="n">
         <v>8</v>
@@ -6378,7 +6384,7 @@
         <v>13.5</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O88" s="24" t="n">
         <v>11</v>
@@ -6392,10 +6398,10 @@
     </row>
     <row r="89" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D89" s="30" t="n">
         <v>8</v>
@@ -6430,7 +6436,7 @@
         <v>13.75</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O89" s="24" t="n">
         <v>11</v>
@@ -6444,10 +6450,10 @@
     </row>
     <row r="90" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="30" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D90" s="30" t="n">
         <v>8</v>
@@ -6482,7 +6488,7 @@
         <v>14</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O90" s="24" t="n">
         <v>11</v>
@@ -6496,10 +6502,10 @@
     </row>
     <row r="91" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D91" s="30" t="n">
         <v>8</v>
@@ -6534,7 +6540,7 @@
         <v>14.25</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O91" s="24" t="n">
         <v>11</v>
@@ -6548,10 +6554,10 @@
     </row>
     <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D92" s="30" t="n">
         <v>8</v>
@@ -6586,7 +6592,7 @@
         <v>14.5</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O92" s="24" t="n">
         <v>11</v>
@@ -6600,10 +6606,10 @@
     </row>
     <row r="93" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D93" s="30" t="n">
         <v>8</v>
@@ -6638,7 +6644,7 @@
         <v>14.75</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O93" s="24" t="n">
         <v>11</v>
@@ -6652,10 +6658,10 @@
     </row>
     <row r="94" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D94" s="30" t="n">
         <v>8</v>
@@ -6690,7 +6696,7 @@
         <v>15</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O94" s="24" t="n">
         <v>11</v>
@@ -6704,10 +6710,10 @@
     </row>
     <row r="95" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="30" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D95" s="30" t="n">
         <v>8</v>
@@ -6742,7 +6748,7 @@
         <v>15.25</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O95" s="24" t="n">
         <v>11</v>
@@ -6756,10 +6762,10 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D96" s="30" t="n">
         <v>16</v>
@@ -6815,7 +6821,7 @@
       <c r="G97" s="23"/>
       <c r="H97" s="23"/>
       <c r="I97" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J97" s="28" t="n">
         <f aca="false">J96+D96</f>
@@ -6853,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -6865,7 +6871,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B100" s="30"/>
       <c r="C100" s="30"/>
@@ -6882,10 +6888,10 @@
     </row>
     <row r="101" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="30" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D101" s="30" t="n">
         <v>8</v>
@@ -6894,7 +6900,7 @@
         <v>26</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G101" s="22" t="n">
         <v>16</v>
@@ -6903,7 +6909,7 @@
         <v>27</v>
       </c>
       <c r="I101" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J101" s="28" t="n">
         <f aca="false">J97</f>
@@ -6922,7 +6928,7 @@
         <v>16</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O101" s="24" t="n">
         <v>3</v>
@@ -6936,10 +6942,10 @@
     </row>
     <row r="102" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D102" s="30" t="n">
         <v>8</v>
@@ -6948,7 +6954,7 @@
         <v>26</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G102" s="22" t="n">
         <v>16</v>
@@ -6957,7 +6963,7 @@
         <v>27</v>
       </c>
       <c r="I102" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J102" s="28" t="n">
         <f aca="false">J101+D101</f>
@@ -6976,7 +6982,7 @@
         <v>16.25</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O102" s="24" t="n">
         <v>3</v>
@@ -6996,7 +7002,7 @@
       <c r="C103" s="30"/>
       <c r="D103" s="30"/>
       <c r="E103" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F103" s="23"/>
       <c r="G103" s="23"/>
@@ -7009,10 +7015,10 @@
     </row>
     <row r="104" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D104" s="30" t="n">
         <v>1</v>
@@ -7026,7 +7032,7 @@
         <v>27</v>
       </c>
       <c r="I104" s="23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J104" s="28" t="n">
         <f aca="false">J102+D102</f>
@@ -7045,13 +7051,13 @@
         <v>16.5</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="O104" s="24" t="n">
         <v>7</v>
       </c>
       <c r="P104" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q104" s="1" t="n">
         <v>0</v>
@@ -7059,10 +7065,10 @@
     </row>
     <row r="105" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D105" s="30" t="n">
         <v>1</v>
@@ -7078,7 +7084,7 @@
         <v>27</v>
       </c>
       <c r="I105" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J105" s="28" t="n">
         <f aca="false">J104+D104</f>
@@ -7097,7 +7103,7 @@
         <v>16.53125</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O105" s="24" t="n">
         <v>3</v>
@@ -7111,10 +7117,10 @@
     </row>
     <row r="106" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="30" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D106" s="30" t="n">
         <v>1</v>
@@ -7130,7 +7136,7 @@
         <v>27</v>
       </c>
       <c r="I106" s="23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J106" s="28" t="n">
         <f aca="false">J105+D105</f>
@@ -7149,7 +7155,7 @@
         <v>16.5625</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O106" s="24" t="n">
         <v>3</v>
@@ -7163,10 +7169,10 @@
     </row>
     <row r="107" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D107" s="30" t="n">
         <v>1</v>
@@ -7182,7 +7188,7 @@
         <v>27</v>
       </c>
       <c r="I107" s="23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J107" s="28" t="n">
         <f aca="false">J106+D106</f>
@@ -7201,7 +7207,7 @@
         <v>16.59375</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O107" s="3" t="n">
         <v>8</v>
@@ -7215,10 +7221,10 @@
     </row>
     <row r="108" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D108" s="30" t="n">
         <v>1</v>
@@ -7234,7 +7240,7 @@
         <v>27</v>
       </c>
       <c r="I108" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J108" s="28" t="n">
         <f aca="false">J107+D107</f>
@@ -7267,10 +7273,10 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="30" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D109" s="30" t="n">
         <v>1</v>
@@ -7317,10 +7323,10 @@
     </row>
     <row r="110" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="23" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D110" s="30" t="n">
         <v>1</v>
@@ -7336,7 +7342,7 @@
         <v>27</v>
       </c>
       <c r="I110" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J110" s="28" t="n">
         <f aca="false">J109+D109</f>
@@ -7369,10 +7375,10 @@
     </row>
     <row r="111" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D111" s="30" t="n">
         <v>1</v>
@@ -7388,7 +7394,7 @@
         <v>27</v>
       </c>
       <c r="I111" s="23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J111" s="28" t="n">
         <f aca="false">J110+D110</f>
@@ -7407,7 +7413,7 @@
         <v>16.71875</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O111" s="3" t="n">
         <v>3</v>
@@ -7458,10 +7464,10 @@
     </row>
     <row r="114" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D114" s="30" t="n">
         <v>1</v>
@@ -7477,7 +7483,7 @@
         <v>27</v>
       </c>
       <c r="I114" s="23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J114" s="28" t="n">
         <f aca="false">J102+D102</f>
@@ -7510,10 +7516,10 @@
     </row>
     <row r="115" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="23" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D115" s="30" t="n">
         <v>1</v>
@@ -7529,7 +7535,7 @@
         <v>27</v>
       </c>
       <c r="I115" s="23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J115" s="28" t="n">
         <f aca="false">J114+D114</f>
@@ -7562,10 +7568,10 @@
     </row>
     <row r="116" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D116" s="30" t="n">
         <v>1</v>
@@ -7581,7 +7587,7 @@
         <v>27</v>
       </c>
       <c r="I116" s="23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J116" s="28" t="n">
         <f aca="false">J115+D115</f>
@@ -7614,10 +7620,10 @@
     </row>
     <row r="117" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D117" s="30" t="n">
         <v>1</v>
@@ -7633,7 +7639,7 @@
         <v>27</v>
       </c>
       <c r="I117" s="23" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J117" s="28" t="n">
         <f aca="false">J116+D116</f>
@@ -7666,10 +7672,10 @@
     </row>
     <row r="118" customFormat="false" ht="28.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D118" s="30" t="n">
         <v>1</v>
@@ -7685,7 +7691,7 @@
         <v>27</v>
       </c>
       <c r="I118" s="23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J118" s="28" t="n">
         <f aca="false">J117+D117</f>
@@ -7718,10 +7724,10 @@
     </row>
     <row r="119" customFormat="false" ht="28.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="30" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D119" s="30" t="n">
         <v>1</v>
@@ -7737,7 +7743,7 @@
         <v>27</v>
       </c>
       <c r="I119" s="23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J119" s="28" t="n">
         <f aca="false">J118+D118</f>
@@ -7770,10 +7776,10 @@
     </row>
     <row r="120" customFormat="false" ht="28.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D120" s="30" t="n">
         <v>1</v>
@@ -7789,7 +7795,7 @@
         <v>27</v>
       </c>
       <c r="I120" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J120" s="28" t="n">
         <f aca="false">J119+D119</f>
@@ -7822,10 +7828,10 @@
     </row>
     <row r="121" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D121" s="30" t="n">
         <v>1</v>
@@ -7839,7 +7845,7 @@
         <v>27</v>
       </c>
       <c r="I121" s="23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J121" s="28" t="n">
         <f aca="false">J120+D120</f>
@@ -7893,10 +7899,10 @@
     </row>
     <row r="123" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D123" s="30" t="n">
         <v>8</v>
@@ -7912,7 +7918,7 @@
         <v>27</v>
       </c>
       <c r="I123" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J123" s="28" t="n">
         <f aca="false">J121+D121</f>
@@ -7931,13 +7937,13 @@
         <v>16.75</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="O123" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P123" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q123" s="1" t="n">
         <v>0</v>
@@ -7945,10 +7951,10 @@
     </row>
     <row r="124" customFormat="false" ht="113.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="30" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D124" s="30" t="n">
         <v>8</v>
@@ -7964,7 +7970,7 @@
         <v>27</v>
       </c>
       <c r="I124" s="23" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J124" s="28" t="n">
         <f aca="false">J123+D123</f>
@@ -7983,7 +7989,7 @@
         <v>17</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O124" s="3" t="n">
         <v>3</v>
@@ -7997,10 +8003,10 @@
     </row>
     <row r="125" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="30" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D125" s="30" t="n">
         <v>32</v>
@@ -8018,7 +8024,7 @@
         <v>27</v>
       </c>
       <c r="I125" s="23" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J125" s="28" t="n">
         <f aca="false">J124+D124</f>
@@ -8051,10 +8057,10 @@
     </row>
     <row r="126" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="30" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C126" s="30" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D126" s="30" t="n">
         <v>8</v>
@@ -8070,7 +8076,7 @@
         <v>27</v>
       </c>
       <c r="I126" s="23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J126" s="28" t="n">
         <f aca="false">J125+D125</f>
@@ -8103,10 +8109,10 @@
     </row>
     <row r="127" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="30" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C127" s="30" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D127" s="30" t="n">
         <v>8</v>
@@ -8122,7 +8128,7 @@
         <v>27</v>
       </c>
       <c r="I127" s="23" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J127" s="28" t="n">
         <f aca="false">J126+D126</f>
@@ -8155,10 +8161,10 @@
     </row>
     <row r="128" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="30" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D128" s="30" t="n">
         <v>8</v>
@@ -8174,7 +8180,7 @@
         <v>27</v>
       </c>
       <c r="I128" s="23" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J128" s="28" t="n">
         <f aca="false">J127+D127</f>
@@ -8207,10 +8213,10 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="30" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D129" s="30" t="n">
         <v>8</v>
@@ -8226,7 +8232,7 @@
         <v>27</v>
       </c>
       <c r="I129" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J129" s="28" t="n">
         <f aca="false">J128+D128</f>
@@ -8248,10 +8254,10 @@
         <v>121</v>
       </c>
       <c r="O129" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="P129" s="1" t="n">
         <v>7</v>
-      </c>
-      <c r="P129" s="1" t="n">
-        <v>12</v>
       </c>
       <c r="Q129" s="1" t="n">
         <v>0</v>
@@ -8259,10 +8265,10 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="30" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D130" s="30" t="n">
         <v>8</v>
@@ -8278,7 +8284,7 @@
         <v>27</v>
       </c>
       <c r="I130" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J130" s="28" t="n">
         <f aca="false">J129+D129</f>
@@ -8300,10 +8306,10 @@
         <v>121</v>
       </c>
       <c r="O130" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P130" s="1" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q130" s="1" t="n">
         <v>0</v>
@@ -8311,10 +8317,10 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="30" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D131" s="30" t="n">
         <v>8</v>
@@ -8330,7 +8336,7 @@
         <v>27</v>
       </c>
       <c r="I131" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J131" s="28" t="n">
         <f aca="false">J130+D130</f>
@@ -8363,10 +8369,10 @@
     </row>
     <row r="132" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="30" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D132" s="30" t="n">
         <v>8</v>
@@ -8382,7 +8388,7 @@
         <v>27</v>
       </c>
       <c r="I132" s="23" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J132" s="28" t="n">
         <f aca="false">J131+D131</f>
@@ -8401,13 +8407,13 @@
         <v>19.75</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="O132" s="3" t="n">
         <v>7</v>
       </c>
       <c r="P132" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q132" s="1" t="n">
         <v>0</v>
@@ -8415,10 +8421,10 @@
     </row>
     <row r="133" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="30" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C133" s="31" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D133" s="30" t="n">
         <v>8</v>
@@ -8434,7 +8440,7 @@
         <v>27</v>
       </c>
       <c r="I133" s="23" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J133" s="28" t="n">
         <f aca="false">J132+D132</f>
@@ -8453,13 +8459,13 @@
         <v>20</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="O133" s="3" t="n">
         <v>7</v>
       </c>
       <c r="P133" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q133" s="1" t="n">
         <v>0</v>
@@ -8467,10 +8473,10 @@
     </row>
     <row r="134" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="30" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C134" s="30" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D134" s="30" t="n">
         <v>8</v>
@@ -8486,7 +8492,7 @@
         <v>27</v>
       </c>
       <c r="I134" s="23" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J134" s="28" t="n">
         <f aca="false">J133+D133</f>
@@ -8519,10 +8525,10 @@
     </row>
     <row r="135" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="30" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D135" s="30" t="n">
         <v>8</v>
@@ -8538,7 +8544,7 @@
         <v>27</v>
       </c>
       <c r="I135" s="23" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J135" s="28" t="n">
         <f aca="false">J134+D134</f>
@@ -8571,10 +8577,10 @@
     </row>
     <row r="136" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="30" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C136" s="30" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D136" s="30" t="n">
         <v>8</v>
@@ -8590,7 +8596,7 @@
         <v>27</v>
       </c>
       <c r="I136" s="23" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J136" s="28" t="n">
         <f aca="false">J135+D135</f>
@@ -8623,10 +8629,10 @@
     </row>
     <row r="137" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="30" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D137" s="30" t="n">
         <v>8</v>
@@ -8642,7 +8648,7 @@
         <v>27</v>
       </c>
       <c r="I137" s="23" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J137" s="28" t="n">
         <f aca="false">J136+D136</f>
@@ -8675,10 +8681,10 @@
     </row>
     <row r="138" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="30" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C138" s="30" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D138" s="30" t="n">
         <v>8</v>
@@ -8694,7 +8700,7 @@
         <v>27</v>
       </c>
       <c r="I138" s="23" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J138" s="28" t="n">
         <f aca="false">J137+D137</f>
@@ -8713,7 +8719,7 @@
         <v>21.25</v>
       </c>
       <c r="N138" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O138" s="24" t="n">
         <v>9</v>
@@ -8727,10 +8733,10 @@
     </row>
     <row r="139" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="30" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C139" s="30" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D139" s="30" t="n">
         <v>8</v>
@@ -8746,7 +8752,7 @@
         <v>27</v>
       </c>
       <c r="I139" s="23" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J139" s="28" t="n">
         <f aca="false">J138+D138</f>
@@ -8765,7 +8771,7 @@
         <v>21.5</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O139" s="3" t="n">
         <v>9</v>
@@ -8777,12 +8783,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="30" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D140" s="30" t="n">
         <v>8</v>
@@ -8798,7 +8804,7 @@
         <v>27</v>
       </c>
       <c r="I140" s="23" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J140" s="28" t="n">
         <f aca="false">J139+D139</f>
@@ -8816,25 +8822,25 @@
         <f aca="false">J140/32</f>
         <v>21.75</v>
       </c>
-      <c r="N140" s="1" t="s">
+      <c r="N140" s="5" t="s">
         <v>121</v>
       </c>
       <c r="O140" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P140" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q140" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="30" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C141" s="30" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D141" s="30" t="n">
         <v>8</v>
@@ -8850,7 +8856,7 @@
         <v>27</v>
       </c>
       <c r="I141" s="23" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J141" s="28" t="n">
         <f aca="false">J140+D140</f>
@@ -8868,25 +8874,25 @@
         <f aca="false">J141/32</f>
         <v>22</v>
       </c>
-      <c r="N141" s="1" t="s">
+      <c r="N141" s="5" t="s">
         <v>121</v>
       </c>
       <c r="O141" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P141" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q141" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="30" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D142" s="30" t="n">
         <v>8</v>
@@ -8902,7 +8908,7 @@
         <v>27</v>
       </c>
       <c r="I142" s="23" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J142" s="28" t="n">
         <f aca="false">J141+D141</f>
@@ -8920,25 +8926,25 @@
         <f aca="false">J142/32</f>
         <v>22.25</v>
       </c>
-      <c r="N142" s="1" t="s">
+      <c r="N142" s="5" t="s">
         <v>121</v>
       </c>
       <c r="O142" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P142" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q142" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="30" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D143" s="30" t="n">
         <v>8</v>
@@ -8954,7 +8960,7 @@
         <v>27</v>
       </c>
       <c r="I143" s="23" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J143" s="28" t="n">
         <f aca="false">J142+D142</f>
@@ -8972,14 +8978,14 @@
         <f aca="false">J143/32</f>
         <v>22.5</v>
       </c>
-      <c r="N143" s="1" t="s">
+      <c r="N143" s="5" t="s">
         <v>121</v>
       </c>
       <c r="O143" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P143" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q143" s="1" t="n">
         <v>0</v>
@@ -8993,10 +8999,10 @@
     </row>
     <row r="145" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="30" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C145" s="30" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D145" s="30" t="n">
         <v>1</v>
@@ -9012,7 +9018,7 @@
         <v>27</v>
       </c>
       <c r="I145" s="23" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J145" s="28" t="n">
         <f aca="false">J143+D143</f>
@@ -9045,10 +9051,10 @@
     </row>
     <row r="146" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D146" s="30" t="n">
         <v>1</v>
@@ -9064,7 +9070,7 @@
         <v>27</v>
       </c>
       <c r="I146" s="23" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J146" s="28" t="n">
         <f aca="false">J145+D145</f>
@@ -9097,10 +9103,10 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="30" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D147" s="30" t="n">
         <v>1</v>
@@ -9133,7 +9139,7 @@
         <v>22.8125</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O147" s="3" t="n">
         <v>3</v>
@@ -9147,10 +9153,10 @@
     </row>
     <row r="148" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="30" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D148" s="30" t="n">
         <v>3</v>
@@ -9160,7 +9166,7 @@
       </c>
       <c r="F148" s="23"/>
       <c r="G148" s="23" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H148" s="22" t="s">
         <v>27</v>
@@ -9183,7 +9189,7 @@
         <v>22.84375</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O148" s="3" t="n">
         <v>3</v>
@@ -9197,10 +9203,10 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="30" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D149" s="30" t="n">
         <v>1</v>
@@ -9245,10 +9251,10 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="30" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C150" s="30" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D150" s="30" t="n">
         <v>1</v>
@@ -9331,10 +9337,10 @@
     </row>
     <row r="153" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="30" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D153" s="30" t="n">
         <v>1</v>
@@ -9350,7 +9356,7 @@
         <v>27</v>
       </c>
       <c r="I153" s="23" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J153" s="28" t="n">
         <f aca="false">J143+D143</f>
@@ -9380,10 +9386,10 @@
     </row>
     <row r="154" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="30" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D154" s="30" t="n">
         <v>1</v>
@@ -9399,7 +9405,7 @@
         <v>27</v>
       </c>
       <c r="I154" s="23" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J154" s="28" t="n">
         <f aca="false">J153+D153</f>
@@ -9432,10 +9438,10 @@
     </row>
     <row r="155" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="30" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D155" s="30" t="n">
         <v>3</v>
@@ -9445,7 +9451,7 @@
       </c>
       <c r="F155" s="23"/>
       <c r="G155" s="23" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H155" s="22" t="s">
         <v>27</v>
@@ -9468,7 +9474,7 @@
         <v>22.8125</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O155" s="3" t="n">
         <v>3</v>
@@ -9482,10 +9488,10 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="30" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D156" s="30" t="n">
         <v>1</v>
@@ -9518,7 +9524,7 @@
         <v>22.90625</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O156" s="3" t="n">
         <v>3</v>
@@ -9532,10 +9538,10 @@
     </row>
     <row r="157" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="30" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D157" s="30" t="n">
         <v>1</v>
@@ -9551,7 +9557,7 @@
         <v>27</v>
       </c>
       <c r="I157" s="23" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J157" s="28" t="n">
         <f aca="false">J156+D156</f>
@@ -9584,10 +9590,10 @@
     </row>
     <row r="158" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="30" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D158" s="30" t="n">
         <v>1</v>
@@ -9603,7 +9609,7 @@
         <v>27</v>
       </c>
       <c r="I158" s="23" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J158" s="28" t="n">
         <f aca="false">J157+D157</f>
@@ -9653,10 +9659,10 @@
     </row>
     <row r="160" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="30" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C160" s="30" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D160" s="30" t="n">
         <v>8</v>
@@ -9670,7 +9676,7 @@
       </c>
       <c r="H160" s="22"/>
       <c r="I160" s="23" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J160" s="28" t="n">
         <f aca="false">J150+D150</f>
@@ -9703,10 +9709,10 @@
     </row>
     <row r="161" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="30" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D161" s="30" t="n">
         <v>8</v>
@@ -9720,7 +9726,7 @@
       </c>
       <c r="H161" s="22"/>
       <c r="I161" s="23" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J161" s="28" t="n">
         <f aca="false">J160+D160</f>
@@ -9739,13 +9745,13 @@
         <v>23.25</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="O161" s="3" t="n">
         <v>7</v>
       </c>
       <c r="P161" s="1" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q161" s="1" t="n">
         <v>0</v>
@@ -9753,10 +9759,10 @@
     </row>
     <row r="162" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="30" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D162" s="30" t="n">
         <v>8</v>
@@ -9770,7 +9776,7 @@
       </c>
       <c r="H162" s="22"/>
       <c r="I162" s="23" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J162" s="28" t="n">
         <f aca="false">J161+D161</f>
@@ -9789,13 +9795,13 @@
         <v>23.5</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="O162" s="3" t="n">
         <v>7</v>
       </c>
       <c r="P162" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q162" s="1" t="n">
         <v>0</v>
@@ -9825,7 +9831,7 @@
         <v>49</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D164" s="30" t="n">
         <v>7</v>
@@ -9872,10 +9878,10 @@
     </row>
     <row r="165" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="30" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D165" s="30" t="n">
         <v>1</v>
@@ -9889,7 +9895,7 @@
       </c>
       <c r="H165" s="22"/>
       <c r="I165" s="23" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J165" s="28" t="n">
         <f aca="false">J164+D164</f>
@@ -9899,7 +9905,7 @@
       <c r="L165" s="27"/>
       <c r="M165" s="27"/>
       <c r="N165" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O165" s="24" t="n">
         <v>3</v>
@@ -9913,7 +9919,7 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B166" s="30"/>
       <c r="C166" s="30"/>
@@ -9951,10 +9957,10 @@
     </row>
     <row r="168" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="30" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C168" s="30" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D168" s="30" t="n">
         <v>1</v>
@@ -9968,7 +9974,7 @@
       </c>
       <c r="H168" s="22"/>
       <c r="I168" s="23" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J168" s="28" t="n">
         <f aca="false">J162+D162</f>
@@ -9978,7 +9984,7 @@
       <c r="L168" s="27"/>
       <c r="M168" s="27"/>
       <c r="N168" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O168" s="24" t="n">
         <v>3</v>
@@ -9995,7 +10001,7 @@
         <v>49</v>
       </c>
       <c r="C169" s="30" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D169" s="30" t="n">
         <v>7</v>
@@ -10042,7 +10048,7 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B170" s="30"/>
       <c r="C170" s="30"/>
@@ -10071,7 +10077,7 @@
       <c r="G171" s="35"/>
       <c r="H171" s="34"/>
       <c r="I171" s="35" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="J171" s="28" t="n">
         <f aca="false">J169+D169</f>
@@ -10101,7 +10107,7 @@
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B174" s="30"/>
       <c r="C174" s="30"/>
@@ -10121,7 +10127,7 @@
         <v>49</v>
       </c>
       <c r="C175" s="30" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D175" s="30" t="n">
         <v>32</v>
@@ -10179,7 +10185,7 @@
       <c r="G176" s="35"/>
       <c r="H176" s="34"/>
       <c r="I176" s="35" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="J176" s="28" t="n">
         <f aca="false">J175+D175</f>
@@ -10216,32 +10222,32 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B178" s="25"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="30" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C179" s="30" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D179" s="26" t="n">
         <v>32</v>
       </c>
       <c r="E179" s="37" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F179" s="23"/>
       <c r="G179" s="38" t="n">
         <v>1</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I179" s="27" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="J179" s="28" t="n">
         <f aca="false">J97</f>
@@ -10260,13 +10266,13 @@
         <v>16</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>392</v>
+        <v>299</v>
       </c>
       <c r="O179" s="3" t="n">
         <v>10</v>
       </c>
       <c r="P179" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q179" s="1" t="n">
         <v>0</v>
@@ -10274,10 +10280,10 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="30" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C180" s="30" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D180" s="26" t="n">
         <v>16</v>
@@ -10290,10 +10296,10 @@
         <v>1</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I180" s="27" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J180" s="28" t="n">
         <f aca="false">J179+D179</f>
@@ -10312,13 +10318,13 @@
         <v>17</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>392</v>
+        <v>299</v>
       </c>
       <c r="O180" s="3" t="n">
         <v>10</v>
       </c>
       <c r="P180" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q180" s="1" t="n">
         <v>0</v>
@@ -10326,16 +10332,16 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="30" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C181" s="30" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D181" s="26" t="n">
         <v>8</v>
       </c>
       <c r="E181" s="37" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F181" s="23"/>
       <c r="G181" s="22" t="n">
@@ -10345,7 +10351,7 @@
         <v>27</v>
       </c>
       <c r="I181" s="27" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J181" s="28" t="n">
         <f aca="false">J180+D180</f>
@@ -10364,13 +10370,13 @@
         <v>17.5</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>392</v>
+        <v>299</v>
       </c>
       <c r="O181" s="3" t="n">
         <v>10</v>
       </c>
       <c r="P181" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q181" s="1" t="n">
         <v>0</v>
@@ -10378,10 +10384,10 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="30" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C182" s="30" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D182" s="26" t="n">
         <v>8</v>
@@ -10395,7 +10401,7 @@
         <v>27</v>
       </c>
       <c r="I182" s="27" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J182" s="28" t="n">
         <f aca="false">J181+D181</f>
@@ -10438,7 +10444,7 @@
       <c r="G183" s="35"/>
       <c r="H183" s="34"/>
       <c r="I183" s="35" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="J183" s="28" t="n">
         <f aca="false">J182+D182</f>
@@ -10465,16 +10471,16 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B186" s="25"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="30" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C187" s="30" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D187" s="26" t="n">
         <v>32</v>
@@ -10485,10 +10491,10 @@
         <v>1</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I187" s="27" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="J187" s="28" t="n">
         <f aca="false">J97</f>
@@ -10507,13 +10513,13 @@
         <v>16</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>392</v>
+        <v>299</v>
       </c>
       <c r="O187" s="3" t="n">
         <v>10</v>
       </c>
       <c r="P187" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q187" s="1" t="n">
         <v>0</v>
@@ -10521,10 +10527,10 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="30" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C188" s="30" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D188" s="26" t="n">
         <v>16</v>
@@ -10537,10 +10543,10 @@
         <v>1</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I188" s="27" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J188" s="28" t="n">
         <f aca="false">J187+D187</f>
@@ -10559,13 +10565,13 @@
         <v>17</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>392</v>
+        <v>299</v>
       </c>
       <c r="O188" s="3" t="n">
         <v>10</v>
       </c>
       <c r="P188" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q188" s="1" t="n">
         <v>0</v>
@@ -10573,10 +10579,10 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="30" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C189" s="30" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D189" s="26" t="n">
         <v>16</v>
@@ -10587,7 +10593,7 @@
         <v>1</v>
       </c>
       <c r="I189" s="27" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="J189" s="28" t="n">
         <f aca="false">J188+D188</f>
@@ -10606,13 +10612,13 @@
         <v>17.5</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>392</v>
+        <v>299</v>
       </c>
       <c r="O189" s="3" t="n">
         <v>10</v>
       </c>
       <c r="P189" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q189" s="1" t="n">
         <v>0</v>
@@ -10620,10 +10626,10 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="30" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C190" s="30" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D190" s="26" t="n">
         <v>32</v>
@@ -10634,7 +10640,7 @@
         <v>1</v>
       </c>
       <c r="I190" s="27" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J190" s="28" t="n">
         <f aca="false">J189+D189</f>
@@ -10653,13 +10659,13 @@
         <v>18</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>392</v>
+        <v>299</v>
       </c>
       <c r="O190" s="3" t="n">
         <v>10</v>
       </c>
       <c r="P190" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q190" s="1" t="n">
         <v>0</v>
@@ -10667,16 +10673,16 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="30" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C191" s="30" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D191" s="26" t="n">
         <v>8</v>
       </c>
       <c r="E191" s="37" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F191" s="23"/>
       <c r="G191" s="22" t="n">
@@ -10686,7 +10692,7 @@
         <v>27</v>
       </c>
       <c r="I191" s="27" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="J191" s="28" t="n">
         <f aca="false">J190+D190</f>
@@ -10705,13 +10711,13 @@
         <v>19</v>
       </c>
       <c r="N191" s="1" t="s">
-        <v>392</v>
+        <v>299</v>
       </c>
       <c r="O191" s="3" t="n">
         <v>10</v>
       </c>
       <c r="P191" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q191" s="1" t="n">
         <v>0</v>
@@ -10719,10 +10725,10 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="30" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C192" s="30" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D192" s="26" t="n">
         <v>24</v>
@@ -10779,7 +10785,7 @@
       <c r="G193" s="35"/>
       <c r="H193" s="34"/>
       <c r="I193" s="35" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="J193" s="28" t="n">
         <f aca="false">J192+D192</f>
@@ -10812,16 +10818,16 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B197" s="25"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="30" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C198" s="30" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D198" s="26" t="n">
         <v>32</v>
@@ -10834,10 +10840,10 @@
         <v>1</v>
       </c>
       <c r="H198" s="38" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I198" s="27" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J198" s="28" t="n">
         <f aca="false">J171</f>
@@ -10856,7 +10862,7 @@
         <v>24</v>
       </c>
       <c r="N198" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O198" s="3" t="n">
         <v>10</v>
@@ -10870,10 +10876,10 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="30" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C199" s="30" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D199" s="26" t="n">
         <v>16</v>
@@ -10889,7 +10895,7 @@
         <v>27</v>
       </c>
       <c r="I199" s="27" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J199" s="28" t="n">
         <f aca="false">J198+D198</f>
@@ -10908,7 +10914,7 @@
         <v>25</v>
       </c>
       <c r="N199" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O199" s="3" t="n">
         <v>10</v>
@@ -10922,10 +10928,10 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="30" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C200" s="30" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D200" s="26" t="n">
         <v>8</v>
@@ -10941,7 +10947,7 @@
         <v>27</v>
       </c>
       <c r="I200" s="27" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J200" s="28" t="n">
         <f aca="false">J199+D199</f>
@@ -10960,7 +10966,7 @@
         <v>25.5</v>
       </c>
       <c r="N200" s="5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O200" s="24" t="n">
         <v>10</v>
@@ -10994,7 +11000,7 @@
         <v>47</v>
       </c>
       <c r="C202" s="22" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D202" s="22" t="n">
         <v>5</v>
@@ -11269,13 +11275,13 @@
         <v>25.75</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O208" s="24" t="n">
         <v>3</v>
       </c>
       <c r="P208" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q208" s="1" t="n">
         <v>0</v>
@@ -11321,13 +11327,13 @@
         <v>25.78125</v>
       </c>
       <c r="N209" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O209" s="24" t="n">
         <v>3</v>
       </c>
       <c r="P209" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q209" s="1" t="n">
         <v>0</v>
@@ -11373,13 +11379,13 @@
         <v>25.8125</v>
       </c>
       <c r="N210" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O210" s="24" t="n">
         <v>3</v>
       </c>
       <c r="P210" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q210" s="1" t="n">
         <v>0</v>
@@ -11458,7 +11464,7 @@
       </c>
       <c r="B213" s="30"/>
       <c r="I213" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J213" s="28" t="n">
         <f aca="false">J211+D211</f>
@@ -11486,7 +11492,7 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B215" s="12"/>
       <c r="C215" s="39"/>
@@ -11552,10 +11558,10 @@
     </row>
     <row r="217" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="30" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C217" s="22" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D217" s="22" t="n">
         <v>464</v>
@@ -11573,7 +11579,7 @@
         <v>27</v>
       </c>
       <c r="I217" s="23" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J217" s="4" t="n">
         <v>0</v>
@@ -11605,10 +11611,10 @@
     </row>
     <row r="218" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="30" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C218" s="22" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D218" s="22" t="n">
         <v>8</v>
@@ -11624,7 +11630,7 @@
         <v>27</v>
       </c>
       <c r="I218" s="23" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J218" s="4" t="n">
         <f aca="false">J217+D217</f>
@@ -11643,7 +11649,7 @@
         <v>14.5</v>
       </c>
       <c r="N218" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="O218" s="3" t="n">
         <v>1</v>
@@ -11660,7 +11666,7 @@
         <v>29</v>
       </c>
       <c r="C219" s="22" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D219" s="22" t="n">
         <v>8</v>
@@ -11674,7 +11680,7 @@
         <v>27</v>
       </c>
       <c r="I219" s="27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J219" s="4" t="n">
         <f aca="false">J218+D218</f>
@@ -11702,7 +11708,7 @@
       </c>
       <c r="B220" s="25"/>
       <c r="I220" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J220" s="4" t="n">
         <f aca="false">J219+D219</f>
@@ -11723,7 +11729,7 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="40" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B222" s="12"/>
       <c r="C222" s="39"/>
@@ -11789,10 +11795,10 @@
     </row>
     <row r="224" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="30" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D224" s="22" t="n">
         <v>672</v>
@@ -11810,7 +11816,7 @@
         <v>27</v>
       </c>
       <c r="I224" s="23" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J224" s="4" t="n">
         <v>0</v>
@@ -11845,7 +11851,7 @@
         <v>63</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J225" s="4" t="n">
         <f aca="false">J224+D224</f>
@@ -11866,7 +11872,7 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="40" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B228" s="12"/>
       <c r="C228" s="39"/>
@@ -11932,10 +11938,10 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="30" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C230" s="30" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D230" s="26" t="n">
         <v>32</v>
@@ -11948,10 +11954,10 @@
         <v>1</v>
       </c>
       <c r="H230" s="38" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I230" s="27" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J230" s="4" t="n">
         <f aca="false">J220</f>
@@ -11970,7 +11976,7 @@
         <v>15</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O230" s="3" t="n">
         <v>8</v>
@@ -11984,10 +11990,10 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="30" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C231" s="30" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D231" s="26" t="n">
         <v>16</v>
@@ -11996,7 +12002,7 @@
         <v>26</v>
       </c>
       <c r="F231" s="23" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G231" s="38" t="n">
         <v>1</v>
@@ -12005,7 +12011,7 @@
         <v>27</v>
       </c>
       <c r="I231" s="27" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J231" s="4" t="n">
         <f aca="false">J230+D230</f>
@@ -12024,7 +12030,7 @@
         <v>16</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O231" s="3" t="n">
         <v>8</v>
@@ -12041,7 +12047,7 @@
         <v>29</v>
       </c>
       <c r="C232" s="30" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D232" s="26" t="n">
         <v>8</v>
@@ -12055,7 +12061,7 @@
         <v>27</v>
       </c>
       <c r="I232" s="27" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J232" s="4" t="n">
         <f aca="false">J231+D231</f>
@@ -12074,7 +12080,7 @@
         <v>16.5</v>
       </c>
       <c r="N232" s="5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O232" s="24" t="n">
         <v>8</v>
@@ -12091,7 +12097,7 @@
         <v>29</v>
       </c>
       <c r="C233" s="30" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D233" s="26" t="n">
         <v>8</v>
@@ -12105,7 +12111,7 @@
         <v>27</v>
       </c>
       <c r="I233" s="27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J233" s="4" t="n">
         <f aca="false">J232+D232</f>
@@ -12142,7 +12148,7 @@
       </c>
       <c r="B234" s="25"/>
       <c r="I234" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J234" s="4" t="n">
         <f aca="false">J233+D233</f>
@@ -12175,7 +12181,7 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="40" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B236" s="12"/>
       <c r="C236" s="39"/>
@@ -12241,10 +12247,10 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="30" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C238" s="30" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D238" s="26" t="n">
         <v>32</v>
@@ -12257,10 +12263,10 @@
         <v>1</v>
       </c>
       <c r="H238" s="38" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I238" s="27" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J238" s="4" t="n">
         <f aca="false">J225</f>
@@ -12279,7 +12285,7 @@
         <v>21</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O238" s="3" t="n">
         <v>8</v>
@@ -12293,10 +12299,10 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="30" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C239" s="30" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D239" s="26" t="n">
         <v>16</v>
@@ -12305,7 +12311,7 @@
         <v>26</v>
       </c>
       <c r="F239" s="23" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G239" s="38" t="n">
         <v>1</v>
@@ -12314,7 +12320,7 @@
         <v>27</v>
       </c>
       <c r="I239" s="27" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J239" s="4" t="n">
         <f aca="false">J238+D238</f>
@@ -12333,7 +12339,7 @@
         <v>22</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O239" s="3" t="n">
         <v>8</v>
@@ -12350,7 +12356,7 @@
         <v>29</v>
       </c>
       <c r="C240" s="30" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D240" s="26" t="n">
         <v>8</v>
@@ -12364,7 +12370,7 @@
         <v>27</v>
       </c>
       <c r="I240" s="27" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="J240" s="4" t="n">
         <f aca="false">J239+D239</f>
@@ -12383,7 +12389,7 @@
         <v>22.5</v>
       </c>
       <c r="N240" s="5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O240" s="24" t="n">
         <v>8</v>
@@ -12400,7 +12406,7 @@
         <v>29</v>
       </c>
       <c r="C241" s="30" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D241" s="26" t="n">
         <v>8</v>
@@ -12414,7 +12420,7 @@
         <v>27</v>
       </c>
       <c r="I241" s="27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J241" s="4" t="n">
         <f aca="false">J240+D240</f>
@@ -12450,7 +12456,7 @@
         <v>63</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J242" s="4" t="n">
         <f aca="false">J241+D241</f>
@@ -12471,7 +12477,7 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="40" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="244" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12529,10 +12535,10 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="37" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C245" s="37" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D245" s="37" t="n">
         <v>32</v>
@@ -12548,7 +12554,7 @@
         <v>27</v>
       </c>
       <c r="I245" s="37" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="J245" s="41" t="n">
         <v>0</v>
@@ -12566,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O245" s="3" t="n">
         <v>1</v>
@@ -12580,7 +12586,7 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B246" s="37"/>
       <c r="C246" s="37"/>
@@ -12597,10 +12603,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="37" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C247" s="37" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D247" s="37" t="n">
         <v>5</v>
@@ -12616,7 +12622,7 @@
         <v>27</v>
       </c>
       <c r="I247" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J247" s="41" t="n">
         <f aca="false">J245+D245</f>
@@ -12635,7 +12641,7 @@
         <v>1</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O247" s="3" t="n">
         <v>1</v>
@@ -12649,10 +12655,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="37" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C248" s="37" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D248" s="37" t="n">
         <v>6</v>
@@ -12668,7 +12674,7 @@
         <v>27</v>
       </c>
       <c r="I248" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J248" s="41" t="n">
         <f aca="false">J247+D247</f>
@@ -12687,7 +12693,7 @@
         <v>1.15625</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O248" s="3" t="n">
         <v>1</v>
@@ -12701,10 +12707,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="37" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C249" s="37" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D249" s="37" t="n">
         <v>6</v>
@@ -12720,7 +12726,7 @@
         <v>27</v>
       </c>
       <c r="I249" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J249" s="41" t="n">
         <f aca="false">J248+D248</f>
@@ -12739,7 +12745,7 @@
         <v>1.34375</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O249" s="3" t="n">
         <v>1</v>
@@ -12753,10 +12759,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="37" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C250" s="37" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D250" s="37" t="n">
         <v>5</v>
@@ -12772,7 +12778,7 @@
         <v>27</v>
       </c>
       <c r="I250" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J250" s="41" t="n">
         <f aca="false">J249+D249</f>
@@ -12791,7 +12797,7 @@
         <v>1.53125</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O250" s="3" t="n">
         <v>1</v>
@@ -12805,10 +12811,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="37" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C251" s="37" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D251" s="37" t="n">
         <v>4</v>
@@ -12824,7 +12830,7 @@
         <v>27</v>
       </c>
       <c r="I251" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J251" s="41" t="n">
         <f aca="false">J250+D250</f>
@@ -12843,7 +12849,7 @@
         <v>1.6875</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O251" s="3" t="n">
         <v>1</v>
@@ -12857,10 +12863,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="37" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C252" s="37" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D252" s="37" t="n">
         <v>5</v>
@@ -12876,7 +12882,7 @@
         <v>27</v>
       </c>
       <c r="I252" s="37" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="J252" s="41" t="n">
         <f aca="false">J251+D251</f>
@@ -12895,7 +12901,7 @@
         <v>1.8125</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O252" s="3" t="n">
         <v>1</v>
@@ -12909,10 +12915,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="37" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C253" s="37" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D253" s="37" t="n">
         <v>1</v>
@@ -12928,7 +12934,7 @@
         <v>27</v>
       </c>
       <c r="I253" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J253" s="41" t="n">
         <f aca="false">J252+D252</f>
@@ -12947,7 +12953,7 @@
         <v>1.96875</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O253" s="3" t="n">
         <v>1</v>
@@ -12961,7 +12967,7 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B254" s="37"/>
       <c r="C254" s="37"/>
@@ -12978,7 +12984,7 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B255" s="37"/>
       <c r="C255" s="37"/>
@@ -12995,10 +13001,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="37" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C256" s="37" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D256" s="37" t="n">
         <v>1</v>
@@ -13014,7 +13020,7 @@
         <v>27</v>
       </c>
       <c r="I256" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J256" s="41" t="n">
         <f aca="false">J247</f>
@@ -13033,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O256" s="3" t="n">
         <v>1</v>
@@ -13047,10 +13053,10 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="37" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C257" s="37" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D257" s="37" t="n">
         <v>5</v>
@@ -13066,7 +13072,7 @@
         <v>27</v>
       </c>
       <c r="I257" s="37" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="J257" s="41" t="n">
         <f aca="false">J256+D256</f>
@@ -13085,7 +13091,7 @@
         <v>1.03125</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O257" s="3" t="n">
         <v>1</v>
@@ -13099,10 +13105,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="37" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C258" s="37" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D258" s="37" t="n">
         <v>4</v>
@@ -13118,7 +13124,7 @@
         <v>27</v>
       </c>
       <c r="I258" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J258" s="41" t="n">
         <f aca="false">J257+D257</f>
@@ -13137,7 +13143,7 @@
         <v>1.1875</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O258" s="3" t="n">
         <v>1</v>
@@ -13151,10 +13157,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="37" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C259" s="37" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D259" s="37" t="n">
         <v>5</v>
@@ -13170,7 +13176,7 @@
         <v>27</v>
       </c>
       <c r="I259" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J259" s="41" t="n">
         <f aca="false">J258+D258</f>
@@ -13189,7 +13195,7 @@
         <v>1.3125</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O259" s="3" t="n">
         <v>1</v>
@@ -13203,10 +13209,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="37" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C260" s="37" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D260" s="37" t="n">
         <v>6</v>
@@ -13222,7 +13228,7 @@
         <v>27</v>
       </c>
       <c r="I260" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J260" s="41" t="n">
         <f aca="false">J259+D259</f>
@@ -13241,7 +13247,7 @@
         <v>1.46875</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O260" s="3" t="n">
         <v>1</v>
@@ -13255,10 +13261,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="37" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C261" s="37" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D261" s="37" t="n">
         <v>6</v>
@@ -13274,7 +13280,7 @@
         <v>27</v>
       </c>
       <c r="I261" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J261" s="41" t="n">
         <f aca="false">J260+D260</f>
@@ -13293,7 +13299,7 @@
         <v>1.65625</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O261" s="3" t="n">
         <v>1</v>
@@ -13307,10 +13313,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="37" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C262" s="37" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D262" s="37" t="n">
         <v>5</v>
@@ -13326,7 +13332,7 @@
         <v>27</v>
       </c>
       <c r="I262" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J262" s="41" t="n">
         <f aca="false">J260+D260</f>
@@ -13345,7 +13351,7 @@
         <v>1.65625</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O262" s="3" t="n">
         <v>1</v>
@@ -13359,7 +13365,7 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B263" s="37"/>
       <c r="C263" s="37"/>
@@ -13376,10 +13382,10 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="37" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C264" s="37" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D264" s="37" t="n">
         <v>8</v>
@@ -13395,7 +13401,7 @@
         <v>27</v>
       </c>
       <c r="I264" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J264" s="41" t="n">
         <f aca="false">J253+D253</f>
@@ -13414,7 +13420,7 @@
         <v>2</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O264" s="3" t="n">
         <v>1</v>
@@ -13428,10 +13434,10 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="37" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C265" s="37" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D265" s="37" t="n">
         <v>8</v>
@@ -13447,7 +13453,7 @@
         <v>27</v>
       </c>
       <c r="I265" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J265" s="41" t="n">
         <f aca="false">J264+D264</f>
@@ -13466,7 +13472,7 @@
         <v>2.25</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O265" s="3" t="n">
         <v>1</v>
@@ -13480,7 +13486,7 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="37" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C266" s="37" t="s">
         <v>48</v>
@@ -13499,7 +13505,7 @@
         <v>27</v>
       </c>
       <c r="I266" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J266" s="41" t="n">
         <f aca="false">J265+D265</f>
@@ -13541,7 +13547,7 @@
       <c r="G267" s="37"/>
       <c r="H267" s="37"/>
       <c r="I267" s="37" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J267" s="41" t="n">
         <f aca="false">J266+D266</f>
@@ -13562,7 +13568,7 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="40" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F268" s="37"/>
       <c r="G268" s="37"/>
@@ -13641,16 +13647,16 @@
       </c>
       <c r="I270" s="23"/>
       <c r="N270" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O270" s="24"/>
     </row>
     <row r="271" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="22" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C271" s="43" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D271" s="1" t="n">
         <v>9</v>
@@ -13666,7 +13672,7 @@
         <v>27</v>
       </c>
       <c r="I271" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J271" s="4" t="n">
         <f aca="false">J267</f>
@@ -13685,7 +13691,7 @@
         <v>3</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O271" s="3" t="n">
         <v>2</v>
@@ -13699,10 +13705,10 @@
     </row>
     <row r="272" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="22" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C272" s="43" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D272" s="1" t="n">
         <v>5</v>
@@ -13718,7 +13724,7 @@
         <v>27</v>
       </c>
       <c r="I272" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J272" s="41" t="n">
         <f aca="false">J271+D271</f>
@@ -13737,7 +13743,7 @@
         <v>3.28125</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O272" s="3" t="n">
         <v>2</v>
@@ -13751,10 +13757,10 @@
     </row>
     <row r="273" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="22" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C273" s="43" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D273" s="1" t="n">
         <v>4</v>
@@ -13770,7 +13776,7 @@
         <v>27</v>
       </c>
       <c r="I273" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J273" s="41" t="n">
         <f aca="false">J272+D272</f>
@@ -13789,7 +13795,7 @@
         <v>3.4375</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O273" s="3" t="n">
         <v>2</v>
@@ -13803,10 +13809,10 @@
     </row>
     <row r="274" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="22" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C274" s="43" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>4</v>
@@ -13822,7 +13828,7 @@
         <v>27</v>
       </c>
       <c r="I274" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J274" s="41" t="n">
         <f aca="false">J273+D273</f>
@@ -13841,7 +13847,7 @@
         <v>3.5625</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O274" s="3" t="n">
         <v>2</v>
@@ -13855,10 +13861,10 @@
     </row>
     <row r="275" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="22" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C275" s="43" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>3</v>
@@ -13874,7 +13880,7 @@
         <v>27</v>
       </c>
       <c r="I275" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J275" s="41" t="n">
         <f aca="false">J274+D274</f>
@@ -13893,7 +13899,7 @@
         <v>3.6875</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O275" s="3" t="n">
         <v>2</v>
@@ -13907,10 +13913,10 @@
     </row>
     <row r="276" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="22" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C276" s="43" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D276" s="1" t="n">
         <v>1</v>
@@ -13926,7 +13932,7 @@
         <v>27</v>
       </c>
       <c r="I276" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J276" s="41" t="n">
         <f aca="false">J275+D275</f>
@@ -13945,7 +13951,7 @@
         <v>3.78125</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O276" s="3" t="n">
         <v>2</v>
@@ -13959,10 +13965,10 @@
     </row>
     <row r="277" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="22" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C277" s="43" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D277" s="1" t="n">
         <v>1</v>
@@ -13972,13 +13978,13 @@
       </c>
       <c r="F277" s="44"/>
       <c r="G277" s="37" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H277" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I277" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J277" s="41" t="n">
         <f aca="false">J276+D276</f>
@@ -13988,7 +13994,7 @@
       <c r="L277" s="27"/>
       <c r="M277" s="27"/>
       <c r="N277" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O277" s="3" t="n">
         <v>1</v>
@@ -14002,10 +14008,10 @@
     </row>
     <row r="278" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="22" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C278" s="43" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D278" s="1" t="n">
         <v>5</v>
@@ -14021,7 +14027,7 @@
         <v>27</v>
       </c>
       <c r="I278" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J278" s="41" t="n">
         <f aca="false">J277+D277</f>
@@ -14090,10 +14096,10 @@
     </row>
     <row r="281" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="22" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C281" s="43" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D281" s="1" t="n">
         <v>5</v>
@@ -14109,7 +14115,7 @@
         <v>27</v>
       </c>
       <c r="I281" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J281" s="41" t="n">
         <f aca="false">J267</f>
@@ -14142,10 +14148,10 @@
     </row>
     <row r="282" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="22" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C282" s="43" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D282" s="1" t="n">
         <v>1</v>
@@ -14155,13 +14161,13 @@
       </c>
       <c r="F282" s="44"/>
       <c r="G282" s="37" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H282" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I282" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J282" s="41" t="n">
         <f aca="false">J281+D281</f>
@@ -14180,7 +14186,7 @@
         <v>3.15625</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O282" s="3" t="n">
         <v>1</v>
@@ -14194,10 +14200,10 @@
     </row>
     <row r="283" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="22" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C283" s="43" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D283" s="1" t="n">
         <v>1</v>
@@ -14207,13 +14213,13 @@
       </c>
       <c r="F283" s="44"/>
       <c r="G283" s="37" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H283" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I283" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J283" s="41" t="n">
         <f aca="false">J282+D282</f>
@@ -14232,7 +14238,7 @@
         <v>3.1875</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O283" s="3" t="n">
         <v>2</v>
@@ -14246,10 +14252,10 @@
     </row>
     <row r="284" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="22" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C284" s="43" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>3</v>
@@ -14259,13 +14265,13 @@
       </c>
       <c r="F284" s="44"/>
       <c r="G284" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H284" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I284" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J284" s="41" t="n">
         <f aca="false">J283+D283</f>
@@ -14284,7 +14290,7 @@
         <v>3.21875</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O284" s="3" t="n">
         <v>2</v>
@@ -14298,10 +14304,10 @@
     </row>
     <row r="285" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="22" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C285" s="43" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D285" s="1" t="n">
         <v>4</v>
@@ -14311,13 +14317,13 @@
       </c>
       <c r="F285" s="44"/>
       <c r="G285" s="37" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H285" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I285" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J285" s="41" t="n">
         <f aca="false">J284+D284</f>
@@ -14336,7 +14342,7 @@
         <v>3.3125</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O285" s="3" t="n">
         <v>2</v>
@@ -14350,10 +14356,10 @@
     </row>
     <row r="286" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="22" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C286" s="43" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D286" s="1" t="n">
         <v>4</v>
@@ -14363,13 +14369,13 @@
       </c>
       <c r="F286" s="44"/>
       <c r="G286" s="37" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H286" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I286" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J286" s="41" t="n">
         <f aca="false">J285+D285</f>
@@ -14388,7 +14394,7 @@
         <v>3.4375</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O286" s="3" t="n">
         <v>2</v>
@@ -14402,10 +14408,10 @@
     </row>
     <row r="287" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="22" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C287" s="43" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D287" s="1" t="n">
         <v>5</v>
@@ -14415,13 +14421,13 @@
       </c>
       <c r="F287" s="44"/>
       <c r="G287" s="37" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H287" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I287" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J287" s="41" t="n">
         <f aca="false">J286+D286</f>
@@ -14440,7 +14446,7 @@
         <v>3.5625</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O287" s="3" t="n">
         <v>2</v>
@@ -14454,10 +14460,10 @@
     </row>
     <row r="288" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="22" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C288" s="43" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D288" s="1" t="n">
         <v>9</v>
@@ -14467,13 +14473,13 @@
       </c>
       <c r="F288" s="44"/>
       <c r="G288" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H288" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I288" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J288" s="41" t="n">
         <f aca="false">J287+D287</f>
@@ -14492,7 +14498,7 @@
         <v>3.71875</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O288" s="3" t="n">
         <v>2</v>
@@ -14525,10 +14531,10 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D290" s="1" t="n">
         <v>8</v>
@@ -14538,13 +14544,13 @@
       </c>
       <c r="F290" s="37"/>
       <c r="G290" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H290" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I290" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J290" s="41" t="n">
         <f aca="false">J278+D278</f>
@@ -14563,7 +14569,7 @@
         <v>4</v>
       </c>
       <c r="N290" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O290" s="3" t="n">
         <v>3</v>
@@ -14577,10 +14583,10 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>8</v>
@@ -14590,13 +14596,13 @@
       </c>
       <c r="F291" s="37"/>
       <c r="G291" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H291" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I291" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J291" s="41" t="n">
         <f aca="false">J290+D290</f>
@@ -14615,7 +14621,7 @@
         <v>4.25</v>
       </c>
       <c r="N291" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O291" s="3" t="n">
         <v>3</v>
@@ -14629,10 +14635,10 @@
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D292" s="1" t="n">
         <v>8</v>
@@ -14642,13 +14648,13 @@
       </c>
       <c r="F292" s="37"/>
       <c r="G292" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H292" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I292" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J292" s="41" t="n">
         <f aca="false">J291+D291</f>
@@ -14667,7 +14673,7 @@
         <v>4.5</v>
       </c>
       <c r="N292" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O292" s="3" t="n">
         <v>3</v>
@@ -14681,10 +14687,10 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D293" s="1" t="n">
         <v>8</v>
@@ -14694,13 +14700,13 @@
       </c>
       <c r="F293" s="37"/>
       <c r="G293" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H293" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I293" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J293" s="41" t="n">
         <f aca="false">J292+D292</f>
@@ -14719,7 +14725,7 @@
         <v>4.75</v>
       </c>
       <c r="N293" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O293" s="3" t="n">
         <v>3</v>
@@ -14733,10 +14739,10 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D294" s="1" t="n">
         <v>8</v>
@@ -14746,13 +14752,13 @@
       </c>
       <c r="F294" s="37"/>
       <c r="G294" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H294" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I294" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J294" s="41" t="n">
         <f aca="false">J293+D293</f>
@@ -14771,7 +14777,7 @@
         <v>5</v>
       </c>
       <c r="N294" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O294" s="3" t="n">
         <v>3</v>
@@ -14785,10 +14791,10 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D295" s="1" t="n">
         <v>8</v>
@@ -14798,13 +14804,13 @@
       </c>
       <c r="F295" s="37"/>
       <c r="G295" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H295" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I295" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J295" s="41" t="n">
         <f aca="false">J294+D294</f>
@@ -14823,7 +14829,7 @@
         <v>5.25</v>
       </c>
       <c r="N295" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O295" s="3" t="n">
         <v>3</v>
@@ -14837,10 +14843,10 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D296" s="1" t="n">
         <v>8</v>
@@ -14850,13 +14856,13 @@
       </c>
       <c r="F296" s="37"/>
       <c r="G296" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H296" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I296" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J296" s="41" t="n">
         <f aca="false">J295+D295</f>
@@ -14875,7 +14881,7 @@
         <v>5.5</v>
       </c>
       <c r="N296" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O296" s="3" t="n">
         <v>3</v>
@@ -14889,10 +14895,10 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D297" s="1" t="n">
         <v>8</v>
@@ -14902,13 +14908,13 @@
       </c>
       <c r="F297" s="37"/>
       <c r="G297" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H297" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I297" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J297" s="41" t="n">
         <f aca="false">J296+D296</f>
@@ -14927,7 +14933,7 @@
         <v>5.75</v>
       </c>
       <c r="N297" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O297" s="3" t="n">
         <v>3</v>
@@ -14941,10 +14947,10 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D298" s="1" t="n">
         <v>8</v>
@@ -14954,13 +14960,13 @@
       </c>
       <c r="F298" s="37"/>
       <c r="G298" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H298" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I298" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J298" s="41" t="n">
         <f aca="false">J297+D297</f>
@@ -14979,7 +14985,7 @@
         <v>6</v>
       </c>
       <c r="N298" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O298" s="3" t="n">
         <v>3</v>
@@ -14993,10 +14999,10 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D299" s="1" t="n">
         <v>8</v>
@@ -15006,13 +15012,13 @@
       </c>
       <c r="F299" s="37"/>
       <c r="G299" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H299" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I299" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J299" s="41" t="n">
         <f aca="false">J298+D298</f>
@@ -15031,7 +15037,7 @@
         <v>6.25</v>
       </c>
       <c r="N299" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O299" s="3" t="n">
         <v>3</v>
@@ -15045,10 +15051,10 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D300" s="1" t="n">
         <v>8</v>
@@ -15058,13 +15064,13 @@
       </c>
       <c r="F300" s="37"/>
       <c r="G300" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H300" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I300" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J300" s="41" t="n">
         <f aca="false">J299+D299</f>
@@ -15083,7 +15089,7 @@
         <v>6.5</v>
       </c>
       <c r="N300" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O300" s="3" t="n">
         <v>3</v>
@@ -15097,10 +15103,10 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="3" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D301" s="1" t="n">
         <v>8</v>
@@ -15110,13 +15116,13 @@
       </c>
       <c r="F301" s="37"/>
       <c r="G301" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H301" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I301" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J301" s="41" t="n">
         <f aca="false">J300+D300</f>
@@ -15135,7 +15141,7 @@
         <v>6.75</v>
       </c>
       <c r="N301" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O301" s="3" t="n">
         <v>3</v>
@@ -15149,10 +15155,10 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D302" s="1" t="n">
         <v>8</v>
@@ -15162,13 +15168,13 @@
       </c>
       <c r="F302" s="37"/>
       <c r="G302" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H302" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I302" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J302" s="41" t="n">
         <f aca="false">J301+D301</f>
@@ -15187,7 +15193,7 @@
         <v>7</v>
       </c>
       <c r="N302" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="O302" s="3" t="n">
         <v>3</v>
@@ -15201,10 +15207,10 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D303" s="1" t="n">
         <v>16</v>
@@ -15216,13 +15222,13 @@
         <v>119</v>
       </c>
       <c r="G303" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H303" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I303" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J303" s="41" t="n">
         <f aca="false">J302+D302</f>
@@ -15241,7 +15247,7 @@
         <v>7.25</v>
       </c>
       <c r="N303" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O303" s="3" t="n">
         <v>1</v>
@@ -15255,10 +15261,10 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>8</v>
@@ -15268,13 +15274,13 @@
       </c>
       <c r="F304" s="37"/>
       <c r="G304" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H304" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I304" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J304" s="41" t="n">
         <f aca="false">J303+D303</f>
@@ -15293,7 +15299,7 @@
         <v>7.75</v>
       </c>
       <c r="N304" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O304" s="3" t="n">
         <v>2</v>
@@ -15332,7 +15338,7 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="40" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="J306" s="41"/>
       <c r="K306" s="27"/>
@@ -15408,16 +15414,16 @@
       </c>
       <c r="I308" s="23"/>
       <c r="N308" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O308" s="24"/>
     </row>
     <row r="309" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="22" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C309" s="43" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D309" s="1" t="n">
         <v>9</v>
@@ -15433,7 +15439,7 @@
         <v>27</v>
       </c>
       <c r="I309" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J309" s="4" t="n">
         <f aca="false">J305</f>
@@ -15452,7 +15458,7 @@
         <v>8</v>
       </c>
       <c r="N309" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O309" s="3" t="n">
         <v>2</v>
@@ -15466,10 +15472,10 @@
     </row>
     <row r="310" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="22" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C310" s="43" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D310" s="1" t="n">
         <v>5</v>
@@ -15485,7 +15491,7 @@
         <v>27</v>
       </c>
       <c r="I310" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J310" s="41" t="n">
         <f aca="false">J309+D309</f>
@@ -15504,7 +15510,7 @@
         <v>8.28125</v>
       </c>
       <c r="N310" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O310" s="3" t="n">
         <v>2</v>
@@ -15518,10 +15524,10 @@
     </row>
     <row r="311" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="22" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C311" s="43" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D311" s="1" t="n">
         <v>4</v>
@@ -15537,7 +15543,7 @@
         <v>27</v>
       </c>
       <c r="I311" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J311" s="41" t="n">
         <f aca="false">J310+D310</f>
@@ -15556,7 +15562,7 @@
         <v>8.4375</v>
       </c>
       <c r="N311" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O311" s="3" t="n">
         <v>2</v>
@@ -15570,10 +15576,10 @@
     </row>
     <row r="312" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="22" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C312" s="43" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D312" s="1" t="n">
         <v>4</v>
@@ -15589,7 +15595,7 @@
         <v>27</v>
       </c>
       <c r="I312" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J312" s="41" t="n">
         <f aca="false">J311+D311</f>
@@ -15608,7 +15614,7 @@
         <v>8.5625</v>
       </c>
       <c r="N312" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O312" s="3" t="n">
         <v>2</v>
@@ -15622,10 +15628,10 @@
     </row>
     <row r="313" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="22" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C313" s="43" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D313" s="1" t="n">
         <v>3</v>
@@ -15641,7 +15647,7 @@
         <v>27</v>
       </c>
       <c r="I313" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J313" s="41" t="n">
         <f aca="false">J312+D312</f>
@@ -15660,7 +15666,7 @@
         <v>8.6875</v>
       </c>
       <c r="N313" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O313" s="3" t="n">
         <v>2</v>
@@ -15674,10 +15680,10 @@
     </row>
     <row r="314" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="22" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C314" s="43" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D314" s="1" t="n">
         <v>1</v>
@@ -15687,13 +15693,13 @@
       </c>
       <c r="F314" s="44"/>
       <c r="G314" s="37" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H314" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I314" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J314" s="41" t="n">
         <f aca="false">J313+D313</f>
@@ -15712,7 +15718,7 @@
         <v>8.78125</v>
       </c>
       <c r="N314" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O314" s="3" t="n">
         <v>2</v>
@@ -15726,10 +15732,10 @@
     </row>
     <row r="315" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="22" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C315" s="43" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D315" s="1" t="n">
         <v>1</v>
@@ -15739,13 +15745,13 @@
       </c>
       <c r="F315" s="44"/>
       <c r="G315" s="37" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H315" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I315" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J315" s="41" t="n">
         <f aca="false">J314+D314</f>
@@ -15764,7 +15770,7 @@
         <v>8.8125</v>
       </c>
       <c r="N315" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O315" s="3" t="n">
         <v>1</v>
@@ -15778,10 +15784,10 @@
     </row>
     <row r="316" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="22" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C316" s="43" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D316" s="1" t="n">
         <v>5</v>
@@ -15797,7 +15803,7 @@
         <v>27</v>
       </c>
       <c r="I316" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J316" s="41" t="n">
         <f aca="false">J315+D315</f>
@@ -15866,10 +15872,10 @@
     </row>
     <row r="319" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="22" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C319" s="43" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D319" s="1" t="n">
         <v>5</v>
@@ -15885,7 +15891,7 @@
         <v>27</v>
       </c>
       <c r="I319" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J319" s="41" t="n">
         <f aca="false">J305</f>
@@ -15918,10 +15924,10 @@
     </row>
     <row r="320" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="22" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C320" s="43" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D320" s="1" t="n">
         <v>1</v>
@@ -15931,13 +15937,13 @@
       </c>
       <c r="F320" s="44"/>
       <c r="G320" s="37" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H320" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I320" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J320" s="41" t="n">
         <f aca="false">J319+D319</f>
@@ -15956,7 +15962,7 @@
         <v>8.15625</v>
       </c>
       <c r="N320" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O320" s="3" t="n">
         <v>1</v>
@@ -15970,10 +15976,10 @@
     </row>
     <row r="321" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="22" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C321" s="43" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D321" s="1" t="n">
         <v>1</v>
@@ -15983,13 +15989,13 @@
       </c>
       <c r="F321" s="44"/>
       <c r="G321" s="37" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H321" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I321" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J321" s="41" t="n">
         <f aca="false">J320+D320</f>
@@ -16008,7 +16014,7 @@
         <v>8.1875</v>
       </c>
       <c r="N321" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O321" s="3" t="n">
         <v>2</v>
@@ -16022,10 +16028,10 @@
     </row>
     <row r="322" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="22" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C322" s="43" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D322" s="1" t="n">
         <v>3</v>
@@ -16035,13 +16041,13 @@
       </c>
       <c r="F322" s="44"/>
       <c r="G322" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H322" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I322" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J322" s="41" t="n">
         <f aca="false">J321+D321</f>
@@ -16060,7 +16066,7 @@
         <v>8.21875</v>
       </c>
       <c r="N322" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O322" s="3" t="n">
         <v>2</v>
@@ -16074,10 +16080,10 @@
     </row>
     <row r="323" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="22" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C323" s="43" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D323" s="1" t="n">
         <v>4</v>
@@ -16087,13 +16093,13 @@
       </c>
       <c r="F323" s="44"/>
       <c r="G323" s="37" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H323" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I323" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J323" s="41" t="n">
         <f aca="false">J322+D322</f>
@@ -16112,7 +16118,7 @@
         <v>8.3125</v>
       </c>
       <c r="N323" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O323" s="3" t="n">
         <v>2</v>
@@ -16126,10 +16132,10 @@
     </row>
     <row r="324" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="22" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C324" s="43" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D324" s="1" t="n">
         <v>4</v>
@@ -16139,13 +16145,13 @@
       </c>
       <c r="F324" s="44"/>
       <c r="G324" s="37" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H324" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I324" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J324" s="41" t="n">
         <f aca="false">J323+D323</f>
@@ -16164,7 +16170,7 @@
         <v>8.4375</v>
       </c>
       <c r="N324" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O324" s="3" t="n">
         <v>2</v>
@@ -16178,10 +16184,10 @@
     </row>
     <row r="325" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="22" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C325" s="43" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D325" s="1" t="n">
         <v>5</v>
@@ -16191,13 +16197,13 @@
       </c>
       <c r="F325" s="44"/>
       <c r="G325" s="37" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H325" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I325" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J325" s="41" t="n">
         <f aca="false">J324+D324</f>
@@ -16216,7 +16222,7 @@
         <v>8.5625</v>
       </c>
       <c r="N325" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O325" s="3" t="n">
         <v>2</v>
@@ -16230,10 +16236,10 @@
     </row>
     <row r="326" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="22" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C326" s="43" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D326" s="1" t="n">
         <v>9</v>
@@ -16243,13 +16249,13 @@
       </c>
       <c r="F326" s="44"/>
       <c r="G326" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H326" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I326" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J326" s="41" t="n">
         <f aca="false">J325+D325</f>
@@ -16268,7 +16274,7 @@
         <v>8.71875</v>
       </c>
       <c r="N326" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O326" s="3" t="n">
         <v>2</v>
@@ -16301,10 +16307,10 @@
     </row>
     <row r="328" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="22" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C328" s="43" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D328" s="1" t="n">
         <v>32</v>
@@ -16314,13 +16320,13 @@
       </c>
       <c r="F328" s="44"/>
       <c r="G328" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H328" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I328" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J328" s="41" t="n">
         <f aca="false">J316+D316</f>
@@ -16339,7 +16345,7 @@
         <v>9</v>
       </c>
       <c r="N328" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O328" s="3" t="n">
         <v>2</v>
@@ -16353,26 +16359,26 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="22" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C329" s="22" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D329" s="1" t="n">
         <v>32</v>
       </c>
       <c r="E329" s="37" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F329" s="37"/>
       <c r="G329" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H329" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I329" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J329" s="41" t="n">
         <f aca="false">J328+D328</f>
@@ -16391,7 +16397,7 @@
         <v>10</v>
       </c>
       <c r="N329" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O329" s="3" t="n">
         <v>4</v>
@@ -16405,10 +16411,10 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="22" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C330" s="22" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D330" s="1" t="n">
         <v>32</v>
@@ -16418,13 +16424,13 @@
       </c>
       <c r="F330" s="37"/>
       <c r="G330" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H330" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I330" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J330" s="41" t="n">
         <f aca="false">J329+D329</f>
@@ -16443,7 +16449,7 @@
         <v>11</v>
       </c>
       <c r="N330" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O330" s="3" t="n">
         <v>4</v>
@@ -16457,26 +16463,26 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="22" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C331" s="22" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D331" s="1" t="n">
         <v>32</v>
       </c>
       <c r="E331" s="37" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F331" s="37"/>
       <c r="G331" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H331" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I331" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J331" s="41" t="n">
         <f aca="false">J330+D330</f>
@@ -16495,7 +16501,7 @@
         <v>12</v>
       </c>
       <c r="N331" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O331" s="3" t="n">
         <v>4</v>
@@ -16509,10 +16515,10 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="22" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C332" s="22" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D332" s="1" t="n">
         <v>32</v>
@@ -16522,13 +16528,13 @@
       </c>
       <c r="F332" s="37"/>
       <c r="G332" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H332" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I332" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J332" s="41" t="n">
         <f aca="false">J331+D331</f>
@@ -16547,7 +16553,7 @@
         <v>13</v>
       </c>
       <c r="N332" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O332" s="3" t="n">
         <v>4</v>
@@ -16561,10 +16567,10 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="22" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C333" s="22" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D333" s="1" t="n">
         <v>8</v>
@@ -16574,13 +16580,13 @@
       </c>
       <c r="F333" s="37"/>
       <c r="G333" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H333" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I333" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J333" s="41" t="n">
         <f aca="false">J332+D332</f>
@@ -16599,7 +16605,7 @@
         <v>14</v>
       </c>
       <c r="N333" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O333" s="3" t="n">
         <v>4</v>
@@ -16613,10 +16619,10 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="22" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C334" s="22" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D334" s="1" t="n">
         <v>8</v>
@@ -16626,13 +16632,13 @@
       </c>
       <c r="F334" s="37"/>
       <c r="G334" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H334" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I334" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J334" s="41" t="n">
         <f aca="false">J333+D333</f>
@@ -16651,7 +16657,7 @@
         <v>14.25</v>
       </c>
       <c r="N334" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O334" s="3" t="n">
         <v>4</v>
@@ -16665,10 +16671,10 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="22" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C335" s="22" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D335" s="1" t="n">
         <v>8</v>
@@ -16678,13 +16684,13 @@
       </c>
       <c r="F335" s="37"/>
       <c r="G335" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H335" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I335" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J335" s="41" t="n">
         <f aca="false">J334+D334</f>
@@ -16703,7 +16709,7 @@
         <v>14.5</v>
       </c>
       <c r="N335" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O335" s="3" t="n">
         <v>4</v>
@@ -16717,10 +16723,10 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="22" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C336" s="22" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D336" s="1" t="n">
         <v>8</v>
@@ -16730,13 +16736,13 @@
       </c>
       <c r="F336" s="37"/>
       <c r="G336" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H336" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I336" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J336" s="41" t="n">
         <f aca="false">J335+D335</f>
@@ -16755,7 +16761,7 @@
         <v>14.75</v>
       </c>
       <c r="N336" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O336" s="3" t="n">
         <v>4</v>
@@ -16769,10 +16775,10 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="22" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C337" s="22" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D337" s="1" t="n">
         <v>8</v>
@@ -16782,13 +16788,13 @@
       </c>
       <c r="F337" s="37"/>
       <c r="G337" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H337" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I337" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J337" s="41" t="n">
         <f aca="false">J336+D336</f>
@@ -16807,7 +16813,7 @@
         <v>15</v>
       </c>
       <c r="N337" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O337" s="3" t="n">
         <v>4</v>
@@ -16821,10 +16827,10 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="22" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C338" s="22" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D338" s="1" t="n">
         <v>8</v>
@@ -16834,13 +16840,13 @@
       </c>
       <c r="F338" s="37"/>
       <c r="G338" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H338" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I338" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J338" s="41" t="n">
         <f aca="false">J337+D337</f>
@@ -16859,7 +16865,7 @@
         <v>15.25</v>
       </c>
       <c r="N338" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O338" s="3" t="n">
         <v>4</v>
@@ -16873,10 +16879,10 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="22" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C339" s="22" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D339" s="1" t="n">
         <v>8</v>
@@ -16886,13 +16892,13 @@
       </c>
       <c r="F339" s="37"/>
       <c r="G339" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H339" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I339" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J339" s="41" t="n">
         <f aca="false">J338+D338</f>
@@ -16911,7 +16917,7 @@
         <v>15.5</v>
       </c>
       <c r="N339" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O339" s="3" t="n">
         <v>4</v>
@@ -16925,10 +16931,10 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="22" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C340" s="22" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D340" s="1" t="n">
         <v>8</v>
@@ -16938,13 +16944,13 @@
       </c>
       <c r="F340" s="37"/>
       <c r="G340" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H340" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I340" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J340" s="41" t="n">
         <f aca="false">J339+D339</f>
@@ -16963,7 +16969,7 @@
         <v>15.75</v>
       </c>
       <c r="N340" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O340" s="3" t="n">
         <v>4</v>
@@ -16977,10 +16983,10 @@
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="22" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C341" s="22" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D341" s="1" t="n">
         <v>8</v>
@@ -16990,13 +16996,13 @@
       </c>
       <c r="F341" s="37"/>
       <c r="G341" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H341" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I341" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J341" s="41" t="n">
         <f aca="false">J340+D340</f>
@@ -17015,7 +17021,7 @@
         <v>16</v>
       </c>
       <c r="N341" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O341" s="3" t="n">
         <v>4</v>
@@ -17029,10 +17035,10 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="22" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C342" s="22" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D342" s="1" t="n">
         <v>8</v>
@@ -17042,13 +17048,13 @@
       </c>
       <c r="F342" s="37"/>
       <c r="G342" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H342" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I342" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J342" s="41" t="n">
         <f aca="false">J341+D341</f>
@@ -17067,7 +17073,7 @@
         <v>16.25</v>
       </c>
       <c r="N342" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O342" s="3" t="n">
         <v>4</v>
@@ -17081,10 +17087,10 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="22" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C343" s="22" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D343" s="1" t="n">
         <v>8</v>
@@ -17094,13 +17100,13 @@
       </c>
       <c r="F343" s="37"/>
       <c r="G343" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H343" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I343" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J343" s="41" t="n">
         <f aca="false">J342+D342</f>
@@ -17119,7 +17125,7 @@
         <v>16.5</v>
       </c>
       <c r="N343" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O343" s="3" t="n">
         <v>4</v>
@@ -17133,10 +17139,10 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="22" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C344" s="22" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D344" s="1" t="n">
         <v>8</v>
@@ -17146,13 +17152,13 @@
       </c>
       <c r="F344" s="37"/>
       <c r="G344" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H344" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I344" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J344" s="41" t="n">
         <f aca="false">J343+D343</f>
@@ -17171,7 +17177,7 @@
         <v>16.75</v>
       </c>
       <c r="N344" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O344" s="3" t="n">
         <v>4</v>
@@ -17185,10 +17191,10 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="22" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C345" s="22" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D345" s="1" t="n">
         <v>8</v>
@@ -17198,13 +17204,13 @@
       </c>
       <c r="F345" s="37"/>
       <c r="G345" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H345" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I345" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J345" s="41" t="n">
         <f aca="false">J344+D344</f>
@@ -17223,7 +17229,7 @@
         <v>17</v>
       </c>
       <c r="N345" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O345" s="3" t="n">
         <v>4</v>
@@ -17237,10 +17243,10 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="22" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D346" s="1" t="n">
         <v>8</v>
@@ -17250,13 +17256,13 @@
       </c>
       <c r="F346" s="37"/>
       <c r="G346" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H346" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I346" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J346" s="41" t="n">
         <f aca="false">J345+D345</f>
@@ -17275,7 +17281,7 @@
         <v>17.25</v>
       </c>
       <c r="N346" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O346" s="3" t="n">
         <v>4</v>
@@ -17289,10 +17295,10 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="22" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C347" s="22" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D347" s="1" t="n">
         <v>8</v>
@@ -17302,13 +17308,13 @@
       </c>
       <c r="F347" s="37"/>
       <c r="G347" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H347" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I347" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J347" s="41" t="n">
         <f aca="false">J346+D346</f>
@@ -17327,7 +17333,7 @@
         <v>17.5</v>
       </c>
       <c r="N347" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O347" s="3" t="n">
         <v>4</v>
@@ -17341,10 +17347,10 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="22" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C348" s="22" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D348" s="1" t="n">
         <v>8</v>
@@ -17354,13 +17360,13 @@
       </c>
       <c r="F348" s="37"/>
       <c r="G348" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H348" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I348" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J348" s="41" t="n">
         <f aca="false">J347+D347</f>
@@ -17379,7 +17385,7 @@
         <v>17.75</v>
       </c>
       <c r="N348" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O348" s="3" t="n">
         <v>4</v>
@@ -17393,10 +17399,10 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="22" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C349" s="22" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D349" s="1" t="n">
         <v>8</v>
@@ -17406,13 +17412,13 @@
       </c>
       <c r="F349" s="37"/>
       <c r="G349" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H349" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I349" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J349" s="41" t="n">
         <f aca="false">J348+D348</f>
@@ -17431,7 +17437,7 @@
         <v>18</v>
       </c>
       <c r="N349" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O349" s="3" t="n">
         <v>4</v>
@@ -17445,10 +17451,10 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="22" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C350" s="22" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D350" s="1" t="n">
         <v>8</v>
@@ -17458,13 +17464,13 @@
       </c>
       <c r="F350" s="37"/>
       <c r="G350" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H350" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I350" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J350" s="41" t="n">
         <f aca="false">J349+D349</f>
@@ -17483,7 +17489,7 @@
         <v>18.25</v>
       </c>
       <c r="N350" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O350" s="3" t="n">
         <v>4</v>
@@ -17497,10 +17503,10 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="22" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C351" s="22" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D351" s="1" t="n">
         <v>8</v>
@@ -17510,13 +17516,13 @@
       </c>
       <c r="F351" s="37"/>
       <c r="G351" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H351" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I351" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J351" s="41" t="n">
         <f aca="false">J350+D350</f>
@@ -17535,7 +17541,7 @@
         <v>18.5</v>
       </c>
       <c r="N351" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O351" s="3" t="n">
         <v>4</v>
@@ -17549,10 +17555,10 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="22" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C352" s="22" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D352" s="1" t="n">
         <v>8</v>
@@ -17562,13 +17568,13 @@
       </c>
       <c r="F352" s="37"/>
       <c r="G352" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H352" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I352" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J352" s="41" t="n">
         <f aca="false">J351+D351</f>
@@ -17587,7 +17593,7 @@
         <v>18.75</v>
       </c>
       <c r="N352" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O352" s="3" t="n">
         <v>4</v>
@@ -17601,10 +17607,10 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="22" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C353" s="22" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D353" s="1" t="n">
         <v>8</v>
@@ -17614,13 +17620,13 @@
       </c>
       <c r="F353" s="37"/>
       <c r="G353" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H353" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I353" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J353" s="41" t="n">
         <f aca="false">J352+D352</f>
@@ -17639,7 +17645,7 @@
         <v>19</v>
       </c>
       <c r="N353" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O353" s="3" t="n">
         <v>4</v>
@@ -17653,10 +17659,10 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="22" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C354" s="22" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D354" s="1" t="n">
         <v>8</v>
@@ -17666,13 +17672,13 @@
       </c>
       <c r="F354" s="37"/>
       <c r="G354" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H354" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I354" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J354" s="41" t="n">
         <f aca="false">J353+D353</f>
@@ -17691,7 +17697,7 @@
         <v>19.25</v>
       </c>
       <c r="N354" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O354" s="3" t="n">
         <v>4</v>
@@ -17705,10 +17711,10 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="22" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C355" s="22" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D355" s="1" t="n">
         <v>8</v>
@@ -17718,13 +17724,13 @@
       </c>
       <c r="F355" s="37"/>
       <c r="G355" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H355" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I355" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J355" s="41" t="n">
         <f aca="false">J354+D354</f>
@@ -17743,7 +17749,7 @@
         <v>19.5</v>
       </c>
       <c r="N355" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O355" s="3" t="n">
         <v>4</v>
@@ -17757,10 +17763,10 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="22" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C356" s="22" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D356" s="1" t="n">
         <v>8</v>
@@ -17770,13 +17776,13 @@
       </c>
       <c r="F356" s="37"/>
       <c r="G356" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H356" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I356" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J356" s="41" t="n">
         <f aca="false">J355+D355</f>
@@ -17795,7 +17801,7 @@
         <v>19.75</v>
       </c>
       <c r="N356" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O356" s="3" t="n">
         <v>4</v>
@@ -17809,10 +17815,10 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="22" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C357" s="22" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D357" s="1" t="n">
         <v>8</v>
@@ -17822,13 +17828,13 @@
       </c>
       <c r="F357" s="37"/>
       <c r="G357" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H357" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I357" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J357" s="41" t="n">
         <f aca="false">J356+D356</f>
@@ -17847,7 +17853,7 @@
         <v>20</v>
       </c>
       <c r="N357" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O357" s="3" t="n">
         <v>4</v>
@@ -17861,10 +17867,10 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="22" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C358" s="22" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D358" s="1" t="n">
         <v>8</v>
@@ -17874,13 +17880,13 @@
       </c>
       <c r="F358" s="37"/>
       <c r="G358" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H358" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I358" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J358" s="41" t="n">
         <f aca="false">J357+D357</f>
@@ -17899,7 +17905,7 @@
         <v>20.25</v>
       </c>
       <c r="N358" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O358" s="3" t="n">
         <v>4</v>
@@ -17913,10 +17919,10 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="22" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C359" s="22" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D359" s="1" t="n">
         <v>8</v>
@@ -17926,13 +17932,13 @@
       </c>
       <c r="F359" s="37"/>
       <c r="G359" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H359" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I359" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J359" s="41" t="n">
         <f aca="false">J358+D358</f>
@@ -17951,7 +17957,7 @@
         <v>20.5</v>
       </c>
       <c r="N359" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O359" s="3" t="n">
         <v>4</v>
@@ -17965,10 +17971,10 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="22" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C360" s="22" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D360" s="1" t="n">
         <v>8</v>
@@ -17978,13 +17984,13 @@
       </c>
       <c r="F360" s="37"/>
       <c r="G360" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H360" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I360" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J360" s="41" t="n">
         <f aca="false">J359+D359</f>
@@ -18003,7 +18009,7 @@
         <v>20.75</v>
       </c>
       <c r="N360" s="42" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O360" s="3" t="n">
         <v>4</v>
@@ -18017,10 +18023,10 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D361" s="1" t="n">
         <v>16</v>
@@ -18032,13 +18038,13 @@
         <v>119</v>
       </c>
       <c r="G361" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H361" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I361" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J361" s="41" t="n">
         <f aca="false">J360+D360</f>
@@ -18057,7 +18063,7 @@
         <v>21</v>
       </c>
       <c r="N361" s="42" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O361" s="3" t="n">
         <v>1</v>
@@ -18071,16 +18077,16 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D362" s="1" t="n">
         <v>16</v>
       </c>
       <c r="E362" s="37" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F362" s="37"/>
       <c r="G362" s="37" t="n">
@@ -18090,7 +18096,7 @@
         <v>27</v>
       </c>
       <c r="I362" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J362" s="41" t="n">
         <f aca="false">J361+D361</f>
@@ -18148,7 +18154,7 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="40" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F364" s="37"/>
       <c r="G364" s="37"/>
@@ -18231,10 +18237,10 @@
     </row>
     <row r="367" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="22" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C367" s="43" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D367" s="1" t="n">
         <v>9</v>
@@ -18250,7 +18256,7 @@
         <v>27</v>
       </c>
       <c r="I367" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J367" s="4" t="n">
         <f aca="false">J363</f>
@@ -18269,7 +18275,7 @@
         <v>22</v>
       </c>
       <c r="N367" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O367" s="3" t="n">
         <v>2</v>
@@ -18283,10 +18289,10 @@
     </row>
     <row r="368" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="22" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C368" s="43" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D368" s="1" t="n">
         <v>5</v>
@@ -18302,7 +18308,7 @@
         <v>27</v>
       </c>
       <c r="I368" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J368" s="4" t="n">
         <f aca="false">J367+D367</f>
@@ -18321,7 +18327,7 @@
         <v>22.28125</v>
       </c>
       <c r="N368" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O368" s="3" t="n">
         <v>2</v>
@@ -18335,10 +18341,10 @@
     </row>
     <row r="369" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="22" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C369" s="43" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D369" s="1" t="n">
         <v>4</v>
@@ -18354,7 +18360,7 @@
         <v>27</v>
       </c>
       <c r="I369" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J369" s="4" t="n">
         <f aca="false">J368+D368</f>
@@ -18373,7 +18379,7 @@
         <v>22.4375</v>
       </c>
       <c r="N369" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O369" s="3" t="n">
         <v>2</v>
@@ -18387,10 +18393,10 @@
     </row>
     <row r="370" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="22" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C370" s="43" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D370" s="1" t="n">
         <v>4</v>
@@ -18406,7 +18412,7 @@
         <v>27</v>
       </c>
       <c r="I370" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J370" s="4" t="n">
         <f aca="false">J369+D369</f>
@@ -18425,7 +18431,7 @@
         <v>22.5625</v>
       </c>
       <c r="N370" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O370" s="3" t="n">
         <v>2</v>
@@ -18439,10 +18445,10 @@
     </row>
     <row r="371" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="22" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C371" s="43" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D371" s="1" t="n">
         <v>3</v>
@@ -18458,7 +18464,7 @@
         <v>27</v>
       </c>
       <c r="I371" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J371" s="4" t="n">
         <f aca="false">J370+D370</f>
@@ -18477,7 +18483,7 @@
         <v>22.6875</v>
       </c>
       <c r="N371" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O371" s="3" t="n">
         <v>2</v>
@@ -18491,10 +18497,10 @@
     </row>
     <row r="372" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="22" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C372" s="43" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D372" s="1" t="n">
         <v>1</v>
@@ -18504,13 +18510,13 @@
       </c>
       <c r="F372" s="44"/>
       <c r="G372" s="37" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H372" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I372" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J372" s="4" t="n">
         <f aca="false">J371+D371</f>
@@ -18529,7 +18535,7 @@
         <v>22.78125</v>
       </c>
       <c r="N372" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O372" s="3" t="n">
         <v>2</v>
@@ -18543,10 +18549,10 @@
     </row>
     <row r="373" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="22" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C373" s="43" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D373" s="1" t="n">
         <v>1</v>
@@ -18556,13 +18562,13 @@
       </c>
       <c r="F373" s="44"/>
       <c r="G373" s="37" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H373" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I373" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J373" s="4" t="n">
         <f aca="false">J372+D372</f>
@@ -18581,7 +18587,7 @@
         <v>22.8125</v>
       </c>
       <c r="N373" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O373" s="3" t="n">
         <v>1</v>
@@ -18595,10 +18601,10 @@
     </row>
     <row r="374" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="22" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C374" s="43" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D374" s="1" t="n">
         <v>5</v>
@@ -18614,7 +18620,7 @@
         <v>27</v>
       </c>
       <c r="I374" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J374" s="4" t="n">
         <f aca="false">J373+D373</f>
@@ -18695,10 +18701,10 @@
     </row>
     <row r="377" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="22" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C377" s="43" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D377" s="1" t="n">
         <v>5</v>
@@ -18714,7 +18720,7 @@
         <v>27</v>
       </c>
       <c r="I377" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J377" s="41" t="n">
         <f aca="false">J363</f>
@@ -18747,10 +18753,10 @@
     </row>
     <row r="378" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="22" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C378" s="43" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D378" s="1" t="n">
         <v>1</v>
@@ -18760,13 +18766,13 @@
       </c>
       <c r="F378" s="44"/>
       <c r="G378" s="37" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H378" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I378" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J378" s="41" t="n">
         <f aca="false">J377+D377</f>
@@ -18785,7 +18791,7 @@
         <v>22.15625</v>
       </c>
       <c r="N378" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O378" s="3" t="n">
         <v>1</v>
@@ -18799,10 +18805,10 @@
     </row>
     <row r="379" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="22" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C379" s="43" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D379" s="1" t="n">
         <v>1</v>
@@ -18812,13 +18818,13 @@
       </c>
       <c r="F379" s="44"/>
       <c r="G379" s="37" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H379" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I379" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J379" s="41" t="n">
         <f aca="false">J378+D378</f>
@@ -18837,7 +18843,7 @@
         <v>22.1875</v>
       </c>
       <c r="N379" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O379" s="3" t="n">
         <v>2</v>
@@ -18851,10 +18857,10 @@
     </row>
     <row r="380" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="22" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C380" s="43" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D380" s="1" t="n">
         <v>3</v>
@@ -18864,13 +18870,13 @@
       </c>
       <c r="F380" s="44"/>
       <c r="G380" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H380" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I380" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J380" s="41" t="n">
         <f aca="false">J379+D379</f>
@@ -18889,7 +18895,7 @@
         <v>22.21875</v>
       </c>
       <c r="N380" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O380" s="3" t="n">
         <v>2</v>
@@ -18903,10 +18909,10 @@
     </row>
     <row r="381" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="22" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C381" s="43" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D381" s="1" t="n">
         <v>4</v>
@@ -18916,13 +18922,13 @@
       </c>
       <c r="F381" s="44"/>
       <c r="G381" s="37" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H381" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I381" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J381" s="41" t="n">
         <f aca="false">J380+D380</f>
@@ -18941,7 +18947,7 @@
         <v>22.3125</v>
       </c>
       <c r="N381" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O381" s="3" t="n">
         <v>2</v>
@@ -18955,10 +18961,10 @@
     </row>
     <row r="382" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="22" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C382" s="43" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D382" s="1" t="n">
         <v>4</v>
@@ -18968,13 +18974,13 @@
       </c>
       <c r="F382" s="44"/>
       <c r="G382" s="37" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H382" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I382" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J382" s="41" t="n">
         <f aca="false">J381+D381</f>
@@ -18993,7 +18999,7 @@
         <v>22.4375</v>
       </c>
       <c r="N382" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O382" s="3" t="n">
         <v>2</v>
@@ -19007,10 +19013,10 @@
     </row>
     <row r="383" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="22" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C383" s="43" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D383" s="1" t="n">
         <v>5</v>
@@ -19020,13 +19026,13 @@
       </c>
       <c r="F383" s="44"/>
       <c r="G383" s="37" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H383" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I383" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J383" s="41" t="n">
         <f aca="false">J382+D382</f>
@@ -19045,7 +19051,7 @@
         <v>22.5625</v>
       </c>
       <c r="N383" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O383" s="3" t="n">
         <v>2</v>
@@ -19059,10 +19065,10 @@
     </row>
     <row r="384" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="22" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C384" s="43" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D384" s="1" t="n">
         <v>9</v>
@@ -19072,13 +19078,13 @@
       </c>
       <c r="F384" s="44"/>
       <c r="G384" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H384" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I384" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J384" s="41" t="n">
         <f aca="false">J383+D383</f>
@@ -19097,7 +19103,7 @@
         <v>22.71875</v>
       </c>
       <c r="N384" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O384" s="3" t="n">
         <v>2</v>
@@ -19129,10 +19135,10 @@
     </row>
     <row r="386" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="22" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C386" s="43" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D386" s="1" t="n">
         <v>32</v>
@@ -19142,13 +19148,13 @@
       </c>
       <c r="F386" s="44"/>
       <c r="G386" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H386" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I386" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J386" s="41" t="n">
         <f aca="false">J374+D374</f>
@@ -19167,7 +19173,7 @@
         <v>23</v>
       </c>
       <c r="N386" s="42" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O386" s="3" t="n">
         <v>2</v>
@@ -19182,10 +19188,10 @@
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="42"/>
       <c r="B387" s="22" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C387" s="22" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D387" s="1" t="n">
         <v>32</v>
@@ -19195,13 +19201,13 @@
       </c>
       <c r="F387" s="37"/>
       <c r="G387" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H387" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I387" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J387" s="41" t="n">
         <f aca="false">J386+D386</f>
@@ -19220,7 +19226,7 @@
         <v>24</v>
       </c>
       <c r="N387" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O387" s="3" t="n">
         <v>5</v>
@@ -19234,10 +19240,10 @@
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="22" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C388" s="22" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D388" s="1" t="n">
         <v>32</v>
@@ -19247,13 +19253,13 @@
       </c>
       <c r="F388" s="37"/>
       <c r="G388" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H388" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I388" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J388" s="41" t="n">
         <f aca="false">J387+D387</f>
@@ -19272,7 +19278,7 @@
         <v>25</v>
       </c>
       <c r="N388" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O388" s="3" t="n">
         <v>5</v>
@@ -19286,26 +19292,26 @@
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="22" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C389" s="22" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D389" s="1" t="n">
         <v>32</v>
       </c>
       <c r="E389" s="37" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F389" s="37"/>
       <c r="G389" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H389" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I389" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J389" s="41" t="n">
         <f aca="false">J388+D388</f>
@@ -19324,7 +19330,7 @@
         <v>26</v>
       </c>
       <c r="N389" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O389" s="3" t="n">
         <v>5</v>
@@ -19338,10 +19344,10 @@
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="22" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C390" s="22" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D390" s="1" t="n">
         <v>32</v>
@@ -19351,13 +19357,13 @@
       </c>
       <c r="F390" s="37"/>
       <c r="G390" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H390" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I390" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J390" s="41" t="n">
         <f aca="false">J389+D389</f>
@@ -19376,7 +19382,7 @@
         <v>27</v>
       </c>
       <c r="N390" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O390" s="3" t="n">
         <v>5</v>
@@ -19390,10 +19396,10 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="22" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C391" s="22" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D391" s="1" t="n">
         <v>8</v>
@@ -19403,13 +19409,13 @@
       </c>
       <c r="F391" s="37"/>
       <c r="G391" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H391" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I391" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J391" s="41" t="n">
         <f aca="false">J390+D390</f>
@@ -19428,7 +19434,7 @@
         <v>28</v>
       </c>
       <c r="N391" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O391" s="3" t="n">
         <v>5</v>
@@ -19442,10 +19448,10 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="22" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C392" s="22" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D392" s="1" t="n">
         <v>8</v>
@@ -19455,13 +19461,13 @@
       </c>
       <c r="F392" s="37"/>
       <c r="G392" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H392" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I392" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J392" s="41" t="n">
         <f aca="false">J391+D391</f>
@@ -19480,7 +19486,7 @@
         <v>28.25</v>
       </c>
       <c r="N392" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O392" s="3" t="n">
         <v>5</v>
@@ -19494,10 +19500,10 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="22" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C393" s="22" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D393" s="1" t="n">
         <v>8</v>
@@ -19507,13 +19513,13 @@
       </c>
       <c r="F393" s="37"/>
       <c r="G393" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H393" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I393" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J393" s="41" t="n">
         <f aca="false">J392+D392</f>
@@ -19532,7 +19538,7 @@
         <v>28.5</v>
       </c>
       <c r="N393" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O393" s="3" t="n">
         <v>5</v>
@@ -19546,10 +19552,10 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="22" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C394" s="22" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D394" s="1" t="n">
         <v>8</v>
@@ -19559,13 +19565,13 @@
       </c>
       <c r="F394" s="37"/>
       <c r="G394" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H394" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I394" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J394" s="41" t="n">
         <f aca="false">J393+D393</f>
@@ -19584,7 +19590,7 @@
         <v>28.75</v>
       </c>
       <c r="N394" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O394" s="3" t="n">
         <v>5</v>
@@ -19598,10 +19604,10 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="22" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C395" s="22" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D395" s="1" t="n">
         <v>8</v>
@@ -19611,13 +19617,13 @@
       </c>
       <c r="F395" s="37"/>
       <c r="G395" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H395" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I395" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J395" s="41" t="n">
         <f aca="false">J394+D394</f>
@@ -19636,7 +19642,7 @@
         <v>29</v>
       </c>
       <c r="N395" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O395" s="3" t="n">
         <v>5</v>
@@ -19650,10 +19656,10 @@
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="22" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C396" s="22" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D396" s="1" t="n">
         <v>8</v>
@@ -19663,13 +19669,13 @@
       </c>
       <c r="F396" s="37"/>
       <c r="G396" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H396" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I396" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J396" s="41" t="n">
         <f aca="false">J395+D395</f>
@@ -19688,7 +19694,7 @@
         <v>29.25</v>
       </c>
       <c r="N396" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O396" s="3" t="n">
         <v>5</v>
@@ -19702,10 +19708,10 @@
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="22" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C397" s="22" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D397" s="1" t="n">
         <v>8</v>
@@ -19715,13 +19721,13 @@
       </c>
       <c r="F397" s="37"/>
       <c r="G397" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H397" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I397" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J397" s="41" t="n">
         <f aca="false">J396+D396</f>
@@ -19740,7 +19746,7 @@
         <v>29.5</v>
       </c>
       <c r="N397" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O397" s="3" t="n">
         <v>5</v>
@@ -19754,10 +19760,10 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="22" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C398" s="22" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D398" s="1" t="n">
         <v>8</v>
@@ -19767,13 +19773,13 @@
       </c>
       <c r="F398" s="37"/>
       <c r="G398" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H398" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I398" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J398" s="41" t="n">
         <f aca="false">J397+D397</f>
@@ -19792,7 +19798,7 @@
         <v>29.75</v>
       </c>
       <c r="N398" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O398" s="3" t="n">
         <v>5</v>
@@ -19806,10 +19812,10 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="22" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C399" s="22" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D399" s="1" t="n">
         <v>8</v>
@@ -19819,13 +19825,13 @@
       </c>
       <c r="F399" s="37"/>
       <c r="G399" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H399" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I399" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J399" s="41" t="n">
         <f aca="false">J398+D398</f>
@@ -19844,7 +19850,7 @@
         <v>30</v>
       </c>
       <c r="N399" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O399" s="3" t="n">
         <v>5</v>
@@ -19858,10 +19864,10 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="22" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C400" s="22" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D400" s="1" t="n">
         <v>8</v>
@@ -19871,13 +19877,13 @@
       </c>
       <c r="F400" s="37"/>
       <c r="G400" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H400" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I400" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J400" s="41" t="n">
         <f aca="false">J399+D399</f>
@@ -19896,7 +19902,7 @@
         <v>30.25</v>
       </c>
       <c r="N400" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O400" s="3" t="n">
         <v>5</v>
@@ -19910,10 +19916,10 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="22" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C401" s="22" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D401" s="1" t="n">
         <v>8</v>
@@ -19923,13 +19929,13 @@
       </c>
       <c r="F401" s="37"/>
       <c r="G401" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H401" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I401" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J401" s="41" t="n">
         <f aca="false">J400+D400</f>
@@ -19948,7 +19954,7 @@
         <v>30.5</v>
       </c>
       <c r="N401" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O401" s="3" t="n">
         <v>5</v>
@@ -19962,10 +19968,10 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="22" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C402" s="22" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D402" s="1" t="n">
         <v>8</v>
@@ -19975,13 +19981,13 @@
       </c>
       <c r="F402" s="37"/>
       <c r="G402" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H402" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I402" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J402" s="41" t="n">
         <f aca="false">J401+D401</f>
@@ -20000,7 +20006,7 @@
         <v>30.75</v>
       </c>
       <c r="N402" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O402" s="3" t="n">
         <v>5</v>
@@ -20014,10 +20020,10 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="22" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C403" s="22" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D403" s="1" t="n">
         <v>8</v>
@@ -20027,13 +20033,13 @@
       </c>
       <c r="F403" s="37"/>
       <c r="G403" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H403" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I403" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J403" s="41" t="n">
         <f aca="false">J402+D402</f>
@@ -20052,7 +20058,7 @@
         <v>31</v>
       </c>
       <c r="N403" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O403" s="3" t="n">
         <v>5</v>
@@ -20066,10 +20072,10 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="22" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C404" s="22" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D404" s="1" t="n">
         <v>8</v>
@@ -20079,13 +20085,13 @@
       </c>
       <c r="F404" s="37"/>
       <c r="G404" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H404" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I404" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J404" s="41" t="n">
         <f aca="false">J403+D403</f>
@@ -20104,7 +20110,7 @@
         <v>31.25</v>
       </c>
       <c r="N404" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O404" s="3" t="n">
         <v>5</v>
@@ -20118,10 +20124,10 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="22" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C405" s="22" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D405" s="1" t="n">
         <v>8</v>
@@ -20131,13 +20137,13 @@
       </c>
       <c r="F405" s="37"/>
       <c r="G405" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H405" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I405" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J405" s="41" t="n">
         <f aca="false">J404+D404</f>
@@ -20156,7 +20162,7 @@
         <v>31.5</v>
       </c>
       <c r="N405" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O405" s="3" t="n">
         <v>5</v>
@@ -20170,10 +20176,10 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="22" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C406" s="22" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D406" s="1" t="n">
         <v>8</v>
@@ -20183,13 +20189,13 @@
       </c>
       <c r="F406" s="37"/>
       <c r="G406" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H406" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I406" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J406" s="41" t="n">
         <f aca="false">J405+D405</f>
@@ -20208,7 +20214,7 @@
         <v>31.75</v>
       </c>
       <c r="N406" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O406" s="3" t="n">
         <v>5</v>
@@ -20222,10 +20228,10 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="22" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C407" s="22" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D407" s="1" t="n">
         <v>8</v>
@@ -20235,13 +20241,13 @@
       </c>
       <c r="F407" s="37"/>
       <c r="G407" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H407" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I407" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J407" s="41" t="n">
         <f aca="false">J406+D406</f>
@@ -20260,7 +20266,7 @@
         <v>32</v>
       </c>
       <c r="N407" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O407" s="3" t="n">
         <v>5</v>
@@ -20274,10 +20280,10 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="22" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C408" s="22" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D408" s="1" t="n">
         <v>8</v>
@@ -20287,13 +20293,13 @@
       </c>
       <c r="F408" s="37"/>
       <c r="G408" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H408" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I408" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J408" s="41" t="n">
         <f aca="false">J407+D407</f>
@@ -20312,7 +20318,7 @@
         <v>32.25</v>
       </c>
       <c r="N408" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O408" s="3" t="n">
         <v>5</v>
@@ -20326,10 +20332,10 @@
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="22" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C409" s="22" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D409" s="1" t="n">
         <v>8</v>
@@ -20339,13 +20345,13 @@
       </c>
       <c r="F409" s="37"/>
       <c r="G409" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H409" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I409" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J409" s="41" t="n">
         <f aca="false">J408+D408</f>
@@ -20364,7 +20370,7 @@
         <v>32.5</v>
       </c>
       <c r="N409" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O409" s="3" t="n">
         <v>5</v>
@@ -20378,10 +20384,10 @@
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="22" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C410" s="22" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D410" s="1" t="n">
         <v>8</v>
@@ -20391,13 +20397,13 @@
       </c>
       <c r="F410" s="37"/>
       <c r="G410" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H410" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I410" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J410" s="41" t="n">
         <f aca="false">J409+D409</f>
@@ -20416,7 +20422,7 @@
         <v>32.75</v>
       </c>
       <c r="N410" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O410" s="3" t="n">
         <v>5</v>
@@ -20430,10 +20436,10 @@
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="22" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C411" s="22" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D411" s="1" t="n">
         <v>8</v>
@@ -20443,13 +20449,13 @@
       </c>
       <c r="F411" s="37"/>
       <c r="G411" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H411" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I411" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J411" s="41" t="n">
         <f aca="false">J410+D410</f>
@@ -20468,7 +20474,7 @@
         <v>33</v>
       </c>
       <c r="N411" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O411" s="3" t="n">
         <v>5</v>
@@ -20482,10 +20488,10 @@
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="22" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C412" s="22" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D412" s="1" t="n">
         <v>8</v>
@@ -20495,13 +20501,13 @@
       </c>
       <c r="F412" s="37"/>
       <c r="G412" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H412" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I412" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J412" s="41" t="n">
         <f aca="false">J411+D411</f>
@@ -20520,7 +20526,7 @@
         <v>33.25</v>
       </c>
       <c r="N412" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O412" s="3" t="n">
         <v>5</v>
@@ -20534,10 +20540,10 @@
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="22" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C413" s="22" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D413" s="1" t="n">
         <v>8</v>
@@ -20547,13 +20553,13 @@
       </c>
       <c r="F413" s="37"/>
       <c r="G413" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H413" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I413" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J413" s="41" t="n">
         <f aca="false">J412+D412</f>
@@ -20572,7 +20578,7 @@
         <v>33.5</v>
       </c>
       <c r="N413" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O413" s="3" t="n">
         <v>5</v>
@@ -20586,10 +20592,10 @@
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="22" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C414" s="22" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D414" s="1" t="n">
         <v>8</v>
@@ -20599,13 +20605,13 @@
       </c>
       <c r="F414" s="37"/>
       <c r="G414" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H414" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I414" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J414" s="41" t="n">
         <f aca="false">J413+D413</f>
@@ -20624,7 +20630,7 @@
         <v>33.75</v>
       </c>
       <c r="N414" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O414" s="3" t="n">
         <v>5</v>
@@ -20638,10 +20644,10 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="22" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C415" s="22" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D415" s="1" t="n">
         <v>8</v>
@@ -20651,13 +20657,13 @@
       </c>
       <c r="F415" s="37"/>
       <c r="G415" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H415" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I415" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J415" s="41" t="n">
         <f aca="false">J414+D414</f>
@@ -20676,7 +20682,7 @@
         <v>34</v>
       </c>
       <c r="N415" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O415" s="3" t="n">
         <v>5</v>
@@ -20690,10 +20696,10 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="22" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C416" s="22" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D416" s="1" t="n">
         <v>8</v>
@@ -20703,13 +20709,13 @@
       </c>
       <c r="F416" s="37"/>
       <c r="G416" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H416" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I416" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J416" s="41" t="n">
         <f aca="false">J415+D415</f>
@@ -20728,7 +20734,7 @@
         <v>34.25</v>
       </c>
       <c r="N416" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O416" s="3" t="n">
         <v>5</v>
@@ -20742,10 +20748,10 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="22" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C417" s="22" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D417" s="1" t="n">
         <v>8</v>
@@ -20755,13 +20761,13 @@
       </c>
       <c r="F417" s="37"/>
       <c r="G417" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H417" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I417" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J417" s="41" t="n">
         <f aca="false">J416+D416</f>
@@ -20780,7 +20786,7 @@
         <v>34.5</v>
       </c>
       <c r="N417" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O417" s="3" t="n">
         <v>5</v>
@@ -20794,10 +20800,10 @@
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="22" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C418" s="22" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D418" s="1" t="n">
         <v>8</v>
@@ -20807,13 +20813,13 @@
       </c>
       <c r="F418" s="37"/>
       <c r="G418" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H418" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I418" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J418" s="41" t="n">
         <f aca="false">J417+D417</f>
@@ -20832,7 +20838,7 @@
         <v>34.75</v>
       </c>
       <c r="N418" s="42" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="O418" s="3" t="n">
         <v>5</v>
@@ -20846,10 +20852,10 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="3" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D419" s="1" t="n">
         <v>16</v>
@@ -20861,13 +20867,13 @@
         <v>119</v>
       </c>
       <c r="G419" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H419" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I419" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J419" s="41" t="n">
         <f aca="false">J418+D418</f>
@@ -20886,7 +20892,7 @@
         <v>35</v>
       </c>
       <c r="N419" s="42" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O419" s="3" t="n">
         <v>1</v>
@@ -20900,16 +20906,16 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D420" s="1" t="n">
         <v>16</v>
       </c>
       <c r="E420" s="37" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F420" s="37"/>
       <c r="G420" s="37" t="n">
@@ -20919,7 +20925,7 @@
         <v>27</v>
       </c>
       <c r="I420" s="37" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J420" s="41" t="n">
         <f aca="false">J419+D419</f>
@@ -21022,7 +21028,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.11"/>
@@ -21032,22 +21038,22 @@
     <row r="6" s="47" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="48"/>
       <c r="C6" s="48" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="I6" s="48"/>
     </row>

--- a/genSpacecraft/DownlinkSpecGolf-T.xlsx
+++ b/genSpacecraft/DownlinkSpecGolf-T.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="690">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">Pad1</t>
   </si>
   <si>
-    <t xml:space="preserve">pad1</t>
+    <t xml:space="preserve">pad17</t>
   </si>
   <si>
     <t xml:space="preserve">Pad</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">Pad10</t>
   </si>
   <si>
-    <t xml:space="preserve">pad10</t>
+    <t xml:space="preserve">pad26</t>
   </si>
   <si>
     <t xml:space="preserve">END</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">CRC Error for the min payload</t>
   </si>
   <si>
-    <t xml:space="preserve">Pad14_1</t>
+    <t xml:space="preserve">Pad192</t>
   </si>
   <si>
     <t xml:space="preserve">Structure:wodSpecific_t,file:wodSpecificDownlink.h</t>
@@ -1310,7 +1310,10 @@
     <t xml:space="preserve">CRC Error for the WOD Payload</t>
   </si>
   <si>
-    <t xml:space="preserve">pad4</t>
+    <t xml:space="preserve">pad202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pad211</t>
   </si>
   <si>
     <t xml:space="preserve">Structure:radiation_t, file:radDownlink.h</t>
@@ -1337,7 +1340,7 @@
     <t xml:space="preserve">VUC</t>
   </si>
   <si>
-    <t xml:space="preserve">pad20</t>
+    <t xml:space="preserve">pad219</t>
   </si>
   <si>
     <t xml:space="preserve">Structure:ragnarok_t, file:ragDownlink.h</t>
@@ -1361,6 +1364,9 @@
     <t xml:space="preserve">CRC Error for VU Radiataion Payload</t>
   </si>
   <si>
+    <t xml:space="preserve">pad233</t>
+  </si>
+  <si>
     <t xml:space="preserve">Structure:ragWodSpecific_t,file:ragWodSpecificDownlink.h </t>
   </si>
   <si>
@@ -1373,6 +1379,9 @@
     <t xml:space="preserve">CRC Error for ADAC WOD</t>
   </si>
   <si>
+    <t xml:space="preserve">pad241</t>
+  </si>
+  <si>
     <t xml:space="preserve">Structure:infrequentDownlink_t,file:infrequentDownlink.h</t>
   </si>
   <si>
@@ -1424,6 +1433,9 @@
     <t xml:space="preserve">Fill to 32-bits</t>
   </si>
   <si>
+    <t xml:space="preserve">pad266</t>
+  </si>
+  <si>
     <t xml:space="preserve">Structure:legacyErrors_t,file:legacyErrorsDownlink.h</t>
   </si>
   <si>
@@ -1601,7 +1613,10 @@
     <t xml:space="preserve">valid</t>
   </si>
   <si>
-    <t xml:space="preserve">filler1</t>
+    <t xml:space="preserve">pad316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pad319</t>
   </si>
   <si>
     <t xml:space="preserve">GOLF_RTIHU_ERR</t>
@@ -1814,6 +1829,9 @@
     <t xml:space="preserve">SWVersion</t>
   </si>
   <si>
+    <t xml:space="preserve">pad362</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unisgned</t>
   </si>
   <si>
@@ -1847,7 +1865,10 @@
     <t xml:space="preserve">RT2Valid</t>
   </si>
   <si>
-    <t xml:space="preserve">filler2</t>
+    <t xml:space="preserve">pad374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pad377</t>
   </si>
   <si>
     <t xml:space="preserve">RT2errorData</t>
@@ -2049,6 +2070,9 @@
   </si>
   <si>
     <t xml:space="preserve">RT2SWVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pad420</t>
   </si>
   <si>
     <t xml:space="preserve">Payloads per Frame</t>
@@ -2432,8 +2456,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C192" activeCellId="0" sqref="C192"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A399" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C427" activeCellId="0" sqref="C427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11396,7 +11420,7 @@
         <v>61</v>
       </c>
       <c r="C211" s="22" t="s">
-        <v>62</v>
+        <v>430</v>
       </c>
       <c r="D211" s="22" t="n">
         <v>5</v>
@@ -11492,7 +11516,7 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B215" s="12"/>
       <c r="C215" s="39"/>
@@ -11558,10 +11582,10 @@
     </row>
     <row r="217" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="30" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C217" s="22" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D217" s="22" t="n">
         <v>464</v>
@@ -11579,7 +11603,7 @@
         <v>27</v>
       </c>
       <c r="I217" s="23" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J217" s="4" t="n">
         <v>0</v>
@@ -11611,10 +11635,10 @@
     </row>
     <row r="218" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="30" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C218" s="22" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D218" s="22" t="n">
         <v>8</v>
@@ -11630,7 +11654,7 @@
         <v>27</v>
       </c>
       <c r="I218" s="23" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J218" s="4" t="n">
         <f aca="false">J217+D217</f>
@@ -11649,7 +11673,7 @@
         <v>14.5</v>
       </c>
       <c r="N218" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O218" s="3" t="n">
         <v>1</v>
@@ -11666,7 +11690,7 @@
         <v>29</v>
       </c>
       <c r="C219" s="22" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D219" s="22" t="n">
         <v>8</v>
@@ -11729,7 +11753,7 @@
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="40" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B222" s="12"/>
       <c r="C222" s="39"/>
@@ -11795,10 +11819,10 @@
     </row>
     <row r="224" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="30" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D224" s="22" t="n">
         <v>672</v>
@@ -11816,7 +11840,7 @@
         <v>27</v>
       </c>
       <c r="I224" s="23" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J224" s="4" t="n">
         <v>0</v>
@@ -11872,7 +11896,7 @@
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="40" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B228" s="12"/>
       <c r="C228" s="39"/>
@@ -11954,7 +11978,7 @@
         <v>1</v>
       </c>
       <c r="H230" s="38" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I230" s="27" t="s">
         <v>422</v>
@@ -11990,7 +12014,7 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="30" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C231" s="30" t="s">
         <v>425</v>
@@ -12002,7 +12026,7 @@
         <v>26</v>
       </c>
       <c r="F231" s="23" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G231" s="38" t="n">
         <v>1</v>
@@ -12061,7 +12085,7 @@
         <v>27</v>
       </c>
       <c r="I232" s="27" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J232" s="4" t="n">
         <f aca="false">J231+D231</f>
@@ -12097,7 +12121,7 @@
         <v>29</v>
       </c>
       <c r="C233" s="30" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="D233" s="26" t="n">
         <v>8</v>
@@ -12181,7 +12205,7 @@
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="40" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B236" s="12"/>
       <c r="C236" s="39"/>
@@ -12247,7 +12271,7 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="30" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C238" s="30" t="s">
         <v>421</v>
@@ -12299,7 +12323,7 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="30" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C239" s="30" t="s">
         <v>425</v>
@@ -12311,7 +12335,7 @@
         <v>26</v>
       </c>
       <c r="F239" s="23" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G239" s="38" t="n">
         <v>1</v>
@@ -12370,7 +12394,7 @@
         <v>27</v>
       </c>
       <c r="I240" s="27" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="J240" s="4" t="n">
         <f aca="false">J239+D239</f>
@@ -12406,7 +12430,7 @@
         <v>29</v>
       </c>
       <c r="C241" s="30" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="D241" s="26" t="n">
         <v>8</v>
@@ -12477,7 +12501,7 @@
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="40" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="244" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12554,7 +12578,7 @@
         <v>27</v>
       </c>
       <c r="I245" s="37" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="J245" s="41" t="n">
         <v>0</v>
@@ -12572,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O245" s="3" t="n">
         <v>1</v>
@@ -12586,7 +12610,7 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B246" s="37"/>
       <c r="C246" s="37"/>
@@ -12603,10 +12627,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="37" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C247" s="37" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D247" s="37" t="n">
         <v>5</v>
@@ -12622,7 +12646,7 @@
         <v>27</v>
       </c>
       <c r="I247" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J247" s="41" t="n">
         <f aca="false">J245+D245</f>
@@ -12641,7 +12665,7 @@
         <v>1</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O247" s="3" t="n">
         <v>1</v>
@@ -12655,10 +12679,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="37" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C248" s="37" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D248" s="37" t="n">
         <v>6</v>
@@ -12674,7 +12698,7 @@
         <v>27</v>
       </c>
       <c r="I248" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J248" s="41" t="n">
         <f aca="false">J247+D247</f>
@@ -12693,7 +12717,7 @@
         <v>1.15625</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O248" s="3" t="n">
         <v>1</v>
@@ -12707,10 +12731,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="37" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C249" s="37" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D249" s="37" t="n">
         <v>6</v>
@@ -12726,7 +12750,7 @@
         <v>27</v>
       </c>
       <c r="I249" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J249" s="41" t="n">
         <f aca="false">J248+D248</f>
@@ -12745,7 +12769,7 @@
         <v>1.34375</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O249" s="3" t="n">
         <v>1</v>
@@ -12759,10 +12783,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="37" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C250" s="37" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D250" s="37" t="n">
         <v>5</v>
@@ -12778,7 +12802,7 @@
         <v>27</v>
       </c>
       <c r="I250" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J250" s="41" t="n">
         <f aca="false">J249+D249</f>
@@ -12797,7 +12821,7 @@
         <v>1.53125</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O250" s="3" t="n">
         <v>1</v>
@@ -12811,10 +12835,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="37" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C251" s="37" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D251" s="37" t="n">
         <v>4</v>
@@ -12830,7 +12854,7 @@
         <v>27</v>
       </c>
       <c r="I251" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J251" s="41" t="n">
         <f aca="false">J250+D250</f>
@@ -12849,7 +12873,7 @@
         <v>1.6875</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O251" s="3" t="n">
         <v>1</v>
@@ -12863,10 +12887,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="37" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C252" s="37" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D252" s="37" t="n">
         <v>5</v>
@@ -12882,7 +12906,7 @@
         <v>27</v>
       </c>
       <c r="I252" s="37" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="J252" s="41" t="n">
         <f aca="false">J251+D251</f>
@@ -12901,7 +12925,7 @@
         <v>1.8125</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O252" s="3" t="n">
         <v>1</v>
@@ -12915,10 +12939,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="37" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C253" s="37" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D253" s="37" t="n">
         <v>1</v>
@@ -12934,7 +12958,7 @@
         <v>27</v>
       </c>
       <c r="I253" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J253" s="41" t="n">
         <f aca="false">J252+D252</f>
@@ -12953,7 +12977,7 @@
         <v>1.96875</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O253" s="3" t="n">
         <v>1</v>
@@ -12984,7 +13008,7 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B255" s="37"/>
       <c r="C255" s="37"/>
@@ -13001,10 +13025,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="37" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C256" s="37" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D256" s="37" t="n">
         <v>1</v>
@@ -13020,7 +13044,7 @@
         <v>27</v>
       </c>
       <c r="I256" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J256" s="41" t="n">
         <f aca="false">J247</f>
@@ -13039,7 +13063,7 @@
         <v>1</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O256" s="3" t="n">
         <v>1</v>
@@ -13053,10 +13077,10 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="37" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C257" s="37" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D257" s="37" t="n">
         <v>5</v>
@@ -13072,7 +13096,7 @@
         <v>27</v>
       </c>
       <c r="I257" s="37" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="J257" s="41" t="n">
         <f aca="false">J256+D256</f>
@@ -13091,7 +13115,7 @@
         <v>1.03125</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O257" s="3" t="n">
         <v>1</v>
@@ -13105,10 +13129,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="37" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C258" s="37" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D258" s="37" t="n">
         <v>4</v>
@@ -13124,7 +13148,7 @@
         <v>27</v>
       </c>
       <c r="I258" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J258" s="41" t="n">
         <f aca="false">J257+D257</f>
@@ -13143,7 +13167,7 @@
         <v>1.1875</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O258" s="3" t="n">
         <v>1</v>
@@ -13157,10 +13181,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="37" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C259" s="37" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D259" s="37" t="n">
         <v>5</v>
@@ -13176,7 +13200,7 @@
         <v>27</v>
       </c>
       <c r="I259" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J259" s="41" t="n">
         <f aca="false">J258+D258</f>
@@ -13195,7 +13219,7 @@
         <v>1.3125</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O259" s="3" t="n">
         <v>1</v>
@@ -13209,10 +13233,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="37" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C260" s="37" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D260" s="37" t="n">
         <v>6</v>
@@ -13228,7 +13252,7 @@
         <v>27</v>
       </c>
       <c r="I260" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J260" s="41" t="n">
         <f aca="false">J259+D259</f>
@@ -13247,7 +13271,7 @@
         <v>1.46875</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O260" s="3" t="n">
         <v>1</v>
@@ -13261,10 +13285,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="37" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C261" s="37" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D261" s="37" t="n">
         <v>6</v>
@@ -13280,7 +13304,7 @@
         <v>27</v>
       </c>
       <c r="I261" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J261" s="41" t="n">
         <f aca="false">J260+D260</f>
@@ -13299,7 +13323,7 @@
         <v>1.65625</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O261" s="3" t="n">
         <v>1</v>
@@ -13313,10 +13337,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="37" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C262" s="37" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D262" s="37" t="n">
         <v>5</v>
@@ -13332,7 +13356,7 @@
         <v>27</v>
       </c>
       <c r="I262" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J262" s="41" t="n">
         <f aca="false">J260+D260</f>
@@ -13351,7 +13375,7 @@
         <v>1.65625</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O262" s="3" t="n">
         <v>1</v>
@@ -13382,10 +13406,10 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="37" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C264" s="37" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D264" s="37" t="n">
         <v>8</v>
@@ -13401,7 +13425,7 @@
         <v>27</v>
       </c>
       <c r="I264" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J264" s="41" t="n">
         <f aca="false">J253+D253</f>
@@ -13420,7 +13444,7 @@
         <v>2</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O264" s="3" t="n">
         <v>1</v>
@@ -13434,10 +13458,10 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="37" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C265" s="37" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D265" s="37" t="n">
         <v>8</v>
@@ -13453,7 +13477,7 @@
         <v>27</v>
       </c>
       <c r="I265" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J265" s="41" t="n">
         <f aca="false">J264+D264</f>
@@ -13472,7 +13496,7 @@
         <v>2.25</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O265" s="3" t="n">
         <v>1</v>
@@ -13486,10 +13510,10 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="37" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C266" s="37" t="s">
-        <v>48</v>
+        <v>470</v>
       </c>
       <c r="D266" s="37" t="n">
         <v>16</v>
@@ -13505,7 +13529,7 @@
         <v>27</v>
       </c>
       <c r="I266" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J266" s="41" t="n">
         <f aca="false">J265+D265</f>
@@ -13568,7 +13592,7 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="40" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="F268" s="37"/>
       <c r="G268" s="37"/>
@@ -13647,16 +13671,16 @@
       </c>
       <c r="I270" s="23"/>
       <c r="N270" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O270" s="24"/>
     </row>
     <row r="271" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="22" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C271" s="43" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D271" s="1" t="n">
         <v>9</v>
@@ -13672,7 +13696,7 @@
         <v>27</v>
       </c>
       <c r="I271" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J271" s="4" t="n">
         <f aca="false">J267</f>
@@ -13691,7 +13715,7 @@
         <v>3</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O271" s="3" t="n">
         <v>2</v>
@@ -13705,10 +13729,10 @@
     </row>
     <row r="272" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="22" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C272" s="43" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D272" s="1" t="n">
         <v>5</v>
@@ -13724,7 +13748,7 @@
         <v>27</v>
       </c>
       <c r="I272" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J272" s="41" t="n">
         <f aca="false">J271+D271</f>
@@ -13743,7 +13767,7 @@
         <v>3.28125</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O272" s="3" t="n">
         <v>2</v>
@@ -13757,10 +13781,10 @@
     </row>
     <row r="273" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="22" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C273" s="43" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D273" s="1" t="n">
         <v>4</v>
@@ -13776,7 +13800,7 @@
         <v>27</v>
       </c>
       <c r="I273" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J273" s="41" t="n">
         <f aca="false">J272+D272</f>
@@ -13795,7 +13819,7 @@
         <v>3.4375</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O273" s="3" t="n">
         <v>2</v>
@@ -13809,10 +13833,10 @@
     </row>
     <row r="274" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="22" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C274" s="43" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>4</v>
@@ -13828,7 +13852,7 @@
         <v>27</v>
       </c>
       <c r="I274" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J274" s="41" t="n">
         <f aca="false">J273+D273</f>
@@ -13847,7 +13871,7 @@
         <v>3.5625</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O274" s="3" t="n">
         <v>2</v>
@@ -13861,10 +13885,10 @@
     </row>
     <row r="275" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="22" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C275" s="43" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>3</v>
@@ -13880,7 +13904,7 @@
         <v>27</v>
       </c>
       <c r="I275" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J275" s="41" t="n">
         <f aca="false">J274+D274</f>
@@ -13899,7 +13923,7 @@
         <v>3.6875</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O275" s="3" t="n">
         <v>2</v>
@@ -13913,10 +13937,10 @@
     </row>
     <row r="276" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="22" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C276" s="43" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D276" s="1" t="n">
         <v>1</v>
@@ -13932,7 +13956,7 @@
         <v>27</v>
       </c>
       <c r="I276" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J276" s="41" t="n">
         <f aca="false">J275+D275</f>
@@ -13951,7 +13975,7 @@
         <v>3.78125</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O276" s="3" t="n">
         <v>2</v>
@@ -13965,10 +13989,10 @@
     </row>
     <row r="277" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="22" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C277" s="43" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D277" s="1" t="n">
         <v>1</v>
@@ -13978,13 +14002,13 @@
       </c>
       <c r="F277" s="44"/>
       <c r="G277" s="37" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H277" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I277" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J277" s="41" t="n">
         <f aca="false">J276+D276</f>
@@ -13994,7 +14018,7 @@
       <c r="L277" s="27"/>
       <c r="M277" s="27"/>
       <c r="N277" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O277" s="3" t="n">
         <v>1</v>
@@ -14008,10 +14032,10 @@
     </row>
     <row r="278" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="22" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C278" s="43" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D278" s="1" t="n">
         <v>5</v>
@@ -14027,7 +14051,7 @@
         <v>27</v>
       </c>
       <c r="I278" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J278" s="41" t="n">
         <f aca="false">J277+D277</f>
@@ -14096,10 +14120,10 @@
     </row>
     <row r="281" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="22" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C281" s="43" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D281" s="1" t="n">
         <v>5</v>
@@ -14115,7 +14139,7 @@
         <v>27</v>
       </c>
       <c r="I281" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J281" s="41" t="n">
         <f aca="false">J267</f>
@@ -14148,10 +14172,10 @@
     </row>
     <row r="282" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="22" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C282" s="43" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D282" s="1" t="n">
         <v>1</v>
@@ -14161,13 +14185,13 @@
       </c>
       <c r="F282" s="44"/>
       <c r="G282" s="37" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H282" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I282" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J282" s="41" t="n">
         <f aca="false">J281+D281</f>
@@ -14186,7 +14210,7 @@
         <v>3.15625</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O282" s="3" t="n">
         <v>1</v>
@@ -14200,10 +14224,10 @@
     </row>
     <row r="283" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="22" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C283" s="43" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D283" s="1" t="n">
         <v>1</v>
@@ -14213,13 +14237,13 @@
       </c>
       <c r="F283" s="44"/>
       <c r="G283" s="37" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H283" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I283" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J283" s="41" t="n">
         <f aca="false">J282+D282</f>
@@ -14238,7 +14262,7 @@
         <v>3.1875</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O283" s="3" t="n">
         <v>2</v>
@@ -14252,10 +14276,10 @@
     </row>
     <row r="284" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="22" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C284" s="43" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>3</v>
@@ -14265,13 +14289,13 @@
       </c>
       <c r="F284" s="44"/>
       <c r="G284" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H284" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I284" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J284" s="41" t="n">
         <f aca="false">J283+D283</f>
@@ -14290,7 +14314,7 @@
         <v>3.21875</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O284" s="3" t="n">
         <v>2</v>
@@ -14304,10 +14328,10 @@
     </row>
     <row r="285" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="22" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C285" s="43" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D285" s="1" t="n">
         <v>4</v>
@@ -14317,13 +14341,13 @@
       </c>
       <c r="F285" s="44"/>
       <c r="G285" s="37" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H285" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I285" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J285" s="41" t="n">
         <f aca="false">J284+D284</f>
@@ -14342,7 +14366,7 @@
         <v>3.3125</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O285" s="3" t="n">
         <v>2</v>
@@ -14356,10 +14380,10 @@
     </row>
     <row r="286" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="22" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C286" s="43" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D286" s="1" t="n">
         <v>4</v>
@@ -14369,13 +14393,13 @@
       </c>
       <c r="F286" s="44"/>
       <c r="G286" s="37" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H286" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I286" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J286" s="41" t="n">
         <f aca="false">J285+D285</f>
@@ -14394,7 +14418,7 @@
         <v>3.4375</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O286" s="3" t="n">
         <v>2</v>
@@ -14408,10 +14432,10 @@
     </row>
     <row r="287" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="22" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C287" s="43" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D287" s="1" t="n">
         <v>5</v>
@@ -14421,13 +14445,13 @@
       </c>
       <c r="F287" s="44"/>
       <c r="G287" s="37" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="H287" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I287" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J287" s="41" t="n">
         <f aca="false">J286+D286</f>
@@ -14446,7 +14470,7 @@
         <v>3.5625</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O287" s="3" t="n">
         <v>2</v>
@@ -14460,10 +14484,10 @@
     </row>
     <row r="288" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="22" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C288" s="43" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D288" s="1" t="n">
         <v>9</v>
@@ -14473,13 +14497,13 @@
       </c>
       <c r="F288" s="44"/>
       <c r="G288" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H288" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I288" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J288" s="41" t="n">
         <f aca="false">J287+D287</f>
@@ -14498,7 +14522,7 @@
         <v>3.71875</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O288" s="3" t="n">
         <v>2</v>
@@ -14531,10 +14555,10 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="3" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D290" s="1" t="n">
         <v>8</v>
@@ -14544,13 +14568,13 @@
       </c>
       <c r="F290" s="37"/>
       <c r="G290" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H290" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I290" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J290" s="41" t="n">
         <f aca="false">J278+D278</f>
@@ -14569,7 +14593,7 @@
         <v>4</v>
       </c>
       <c r="N290" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O290" s="3" t="n">
         <v>3</v>
@@ -14583,10 +14607,10 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="3" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>8</v>
@@ -14596,13 +14620,13 @@
       </c>
       <c r="F291" s="37"/>
       <c r="G291" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H291" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I291" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J291" s="41" t="n">
         <f aca="false">J290+D290</f>
@@ -14621,7 +14645,7 @@
         <v>4.25</v>
       </c>
       <c r="N291" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O291" s="3" t="n">
         <v>3</v>
@@ -14635,10 +14659,10 @@
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="3" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D292" s="1" t="n">
         <v>8</v>
@@ -14648,13 +14672,13 @@
       </c>
       <c r="F292" s="37"/>
       <c r="G292" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H292" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I292" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J292" s="41" t="n">
         <f aca="false">J291+D291</f>
@@ -14673,7 +14697,7 @@
         <v>4.5</v>
       </c>
       <c r="N292" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O292" s="3" t="n">
         <v>3</v>
@@ -14687,10 +14711,10 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="3" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D293" s="1" t="n">
         <v>8</v>
@@ -14700,13 +14724,13 @@
       </c>
       <c r="F293" s="37"/>
       <c r="G293" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H293" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I293" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J293" s="41" t="n">
         <f aca="false">J292+D292</f>
@@ -14725,7 +14749,7 @@
         <v>4.75</v>
       </c>
       <c r="N293" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O293" s="3" t="n">
         <v>3</v>
@@ -14739,10 +14763,10 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="3" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D294" s="1" t="n">
         <v>8</v>
@@ -14752,13 +14776,13 @@
       </c>
       <c r="F294" s="37"/>
       <c r="G294" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H294" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I294" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J294" s="41" t="n">
         <f aca="false">J293+D293</f>
@@ -14777,7 +14801,7 @@
         <v>5</v>
       </c>
       <c r="N294" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O294" s="3" t="n">
         <v>3</v>
@@ -14791,10 +14815,10 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="3" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D295" s="1" t="n">
         <v>8</v>
@@ -14804,13 +14828,13 @@
       </c>
       <c r="F295" s="37"/>
       <c r="G295" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H295" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I295" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J295" s="41" t="n">
         <f aca="false">J294+D294</f>
@@ -14829,7 +14853,7 @@
         <v>5.25</v>
       </c>
       <c r="N295" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O295" s="3" t="n">
         <v>3</v>
@@ -14843,10 +14867,10 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D296" s="1" t="n">
         <v>8</v>
@@ -14856,13 +14880,13 @@
       </c>
       <c r="F296" s="37"/>
       <c r="G296" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H296" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I296" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J296" s="41" t="n">
         <f aca="false">J295+D295</f>
@@ -14881,7 +14905,7 @@
         <v>5.5</v>
       </c>
       <c r="N296" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O296" s="3" t="n">
         <v>3</v>
@@ -14895,10 +14919,10 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="3" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D297" s="1" t="n">
         <v>8</v>
@@ -14908,13 +14932,13 @@
       </c>
       <c r="F297" s="37"/>
       <c r="G297" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H297" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I297" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J297" s="41" t="n">
         <f aca="false">J296+D296</f>
@@ -14933,7 +14957,7 @@
         <v>5.75</v>
       </c>
       <c r="N297" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O297" s="3" t="n">
         <v>3</v>
@@ -14947,10 +14971,10 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="3" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D298" s="1" t="n">
         <v>8</v>
@@ -14960,13 +14984,13 @@
       </c>
       <c r="F298" s="37"/>
       <c r="G298" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H298" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I298" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J298" s="41" t="n">
         <f aca="false">J297+D297</f>
@@ -14985,7 +15009,7 @@
         <v>6</v>
       </c>
       <c r="N298" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O298" s="3" t="n">
         <v>3</v>
@@ -14999,10 +15023,10 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="3" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D299" s="1" t="n">
         <v>8</v>
@@ -15012,13 +15036,13 @@
       </c>
       <c r="F299" s="37"/>
       <c r="G299" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H299" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I299" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J299" s="41" t="n">
         <f aca="false">J298+D298</f>
@@ -15037,7 +15061,7 @@
         <v>6.25</v>
       </c>
       <c r="N299" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O299" s="3" t="n">
         <v>3</v>
@@ -15051,10 +15075,10 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="3" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D300" s="1" t="n">
         <v>8</v>
@@ -15064,13 +15088,13 @@
       </c>
       <c r="F300" s="37"/>
       <c r="G300" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H300" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I300" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J300" s="41" t="n">
         <f aca="false">J299+D299</f>
@@ -15089,7 +15113,7 @@
         <v>6.5</v>
       </c>
       <c r="N300" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O300" s="3" t="n">
         <v>3</v>
@@ -15103,10 +15127,10 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="3" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D301" s="1" t="n">
         <v>8</v>
@@ -15116,13 +15140,13 @@
       </c>
       <c r="F301" s="37"/>
       <c r="G301" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H301" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I301" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J301" s="41" t="n">
         <f aca="false">J300+D300</f>
@@ -15141,7 +15165,7 @@
         <v>6.75</v>
       </c>
       <c r="N301" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O301" s="3" t="n">
         <v>3</v>
@@ -15155,10 +15179,10 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="3" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D302" s="1" t="n">
         <v>8</v>
@@ -15168,13 +15192,13 @@
       </c>
       <c r="F302" s="37"/>
       <c r="G302" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H302" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I302" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J302" s="41" t="n">
         <f aca="false">J301+D301</f>
@@ -15193,7 +15217,7 @@
         <v>7</v>
       </c>
       <c r="N302" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="O302" s="3" t="n">
         <v>3</v>
@@ -15207,10 +15231,10 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="3" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D303" s="1" t="n">
         <v>16</v>
@@ -15222,13 +15246,13 @@
         <v>119</v>
       </c>
       <c r="G303" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H303" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I303" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J303" s="41" t="n">
         <f aca="false">J302+D302</f>
@@ -15247,7 +15271,7 @@
         <v>7.25</v>
       </c>
       <c r="N303" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O303" s="3" t="n">
         <v>1</v>
@@ -15261,10 +15285,10 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="3" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>8</v>
@@ -15274,13 +15298,13 @@
       </c>
       <c r="F304" s="37"/>
       <c r="G304" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H304" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I304" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J304" s="41" t="n">
         <f aca="false">J303+D303</f>
@@ -15299,7 +15323,7 @@
         <v>7.75</v>
       </c>
       <c r="N304" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O304" s="3" t="n">
         <v>2</v>
@@ -15338,7 +15362,7 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="40" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="J306" s="41"/>
       <c r="K306" s="27"/>
@@ -15414,16 +15438,16 @@
       </c>
       <c r="I308" s="23"/>
       <c r="N308" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O308" s="24"/>
     </row>
     <row r="309" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="22" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C309" s="43" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D309" s="1" t="n">
         <v>9</v>
@@ -15439,7 +15463,7 @@
         <v>27</v>
       </c>
       <c r="I309" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J309" s="4" t="n">
         <f aca="false">J305</f>
@@ -15458,7 +15482,7 @@
         <v>8</v>
       </c>
       <c r="N309" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O309" s="3" t="n">
         <v>2</v>
@@ -15472,10 +15496,10 @@
     </row>
     <row r="310" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="22" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C310" s="43" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D310" s="1" t="n">
         <v>5</v>
@@ -15491,7 +15515,7 @@
         <v>27</v>
       </c>
       <c r="I310" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J310" s="41" t="n">
         <f aca="false">J309+D309</f>
@@ -15510,7 +15534,7 @@
         <v>8.28125</v>
       </c>
       <c r="N310" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O310" s="3" t="n">
         <v>2</v>
@@ -15524,10 +15548,10 @@
     </row>
     <row r="311" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="22" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C311" s="43" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D311" s="1" t="n">
         <v>4</v>
@@ -15543,7 +15567,7 @@
         <v>27</v>
       </c>
       <c r="I311" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J311" s="41" t="n">
         <f aca="false">J310+D310</f>
@@ -15562,7 +15586,7 @@
         <v>8.4375</v>
       </c>
       <c r="N311" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O311" s="3" t="n">
         <v>2</v>
@@ -15576,10 +15600,10 @@
     </row>
     <row r="312" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="22" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C312" s="43" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D312" s="1" t="n">
         <v>4</v>
@@ -15595,7 +15619,7 @@
         <v>27</v>
       </c>
       <c r="I312" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J312" s="41" t="n">
         <f aca="false">J311+D311</f>
@@ -15614,7 +15638,7 @@
         <v>8.5625</v>
       </c>
       <c r="N312" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O312" s="3" t="n">
         <v>2</v>
@@ -15628,10 +15652,10 @@
     </row>
     <row r="313" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="22" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C313" s="43" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D313" s="1" t="n">
         <v>3</v>
@@ -15647,7 +15671,7 @@
         <v>27</v>
       </c>
       <c r="I313" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J313" s="41" t="n">
         <f aca="false">J312+D312</f>
@@ -15666,7 +15690,7 @@
         <v>8.6875</v>
       </c>
       <c r="N313" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O313" s="3" t="n">
         <v>2</v>
@@ -15680,10 +15704,10 @@
     </row>
     <row r="314" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="22" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C314" s="43" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D314" s="1" t="n">
         <v>1</v>
@@ -15693,13 +15717,13 @@
       </c>
       <c r="F314" s="44"/>
       <c r="G314" s="37" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H314" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I314" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J314" s="41" t="n">
         <f aca="false">J313+D313</f>
@@ -15718,7 +15742,7 @@
         <v>8.78125</v>
       </c>
       <c r="N314" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O314" s="3" t="n">
         <v>2</v>
@@ -15732,10 +15756,10 @@
     </row>
     <row r="315" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="22" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C315" s="43" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D315" s="1" t="n">
         <v>1</v>
@@ -15745,13 +15769,13 @@
       </c>
       <c r="F315" s="44"/>
       <c r="G315" s="37" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H315" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I315" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J315" s="41" t="n">
         <f aca="false">J314+D314</f>
@@ -15770,7 +15794,7 @@
         <v>8.8125</v>
       </c>
       <c r="N315" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O315" s="3" t="n">
         <v>1</v>
@@ -15784,10 +15808,10 @@
     </row>
     <row r="316" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="22" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C316" s="43" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D316" s="1" t="n">
         <v>5</v>
@@ -15803,7 +15827,7 @@
         <v>27</v>
       </c>
       <c r="I316" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J316" s="41" t="n">
         <f aca="false">J315+D315</f>
@@ -15872,10 +15896,10 @@
     </row>
     <row r="319" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="22" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C319" s="43" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D319" s="1" t="n">
         <v>5</v>
@@ -15891,7 +15915,7 @@
         <v>27</v>
       </c>
       <c r="I319" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J319" s="41" t="n">
         <f aca="false">J305</f>
@@ -15924,10 +15948,10 @@
     </row>
     <row r="320" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="22" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C320" s="43" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D320" s="1" t="n">
         <v>1</v>
@@ -15937,13 +15961,13 @@
       </c>
       <c r="F320" s="44"/>
       <c r="G320" s="37" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H320" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I320" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J320" s="41" t="n">
         <f aca="false">J319+D319</f>
@@ -15962,7 +15986,7 @@
         <v>8.15625</v>
       </c>
       <c r="N320" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O320" s="3" t="n">
         <v>1</v>
@@ -15976,10 +16000,10 @@
     </row>
     <row r="321" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="22" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C321" s="43" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D321" s="1" t="n">
         <v>1</v>
@@ -15989,13 +16013,13 @@
       </c>
       <c r="F321" s="44"/>
       <c r="G321" s="37" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H321" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I321" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J321" s="41" t="n">
         <f aca="false">J320+D320</f>
@@ -16014,7 +16038,7 @@
         <v>8.1875</v>
       </c>
       <c r="N321" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O321" s="3" t="n">
         <v>2</v>
@@ -16028,10 +16052,10 @@
     </row>
     <row r="322" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="22" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C322" s="43" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D322" s="1" t="n">
         <v>3</v>
@@ -16041,13 +16065,13 @@
       </c>
       <c r="F322" s="44"/>
       <c r="G322" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H322" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I322" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J322" s="41" t="n">
         <f aca="false">J321+D321</f>
@@ -16066,7 +16090,7 @@
         <v>8.21875</v>
       </c>
       <c r="N322" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O322" s="3" t="n">
         <v>2</v>
@@ -16080,10 +16104,10 @@
     </row>
     <row r="323" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="22" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C323" s="43" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D323" s="1" t="n">
         <v>4</v>
@@ -16093,13 +16117,13 @@
       </c>
       <c r="F323" s="44"/>
       <c r="G323" s="37" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H323" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I323" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J323" s="41" t="n">
         <f aca="false">J322+D322</f>
@@ -16118,7 +16142,7 @@
         <v>8.3125</v>
       </c>
       <c r="N323" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O323" s="3" t="n">
         <v>2</v>
@@ -16132,10 +16156,10 @@
     </row>
     <row r="324" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="22" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C324" s="43" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D324" s="1" t="n">
         <v>4</v>
@@ -16145,13 +16169,13 @@
       </c>
       <c r="F324" s="44"/>
       <c r="G324" s="37" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H324" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I324" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J324" s="41" t="n">
         <f aca="false">J323+D323</f>
@@ -16170,7 +16194,7 @@
         <v>8.4375</v>
       </c>
       <c r="N324" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O324" s="3" t="n">
         <v>2</v>
@@ -16184,10 +16208,10 @@
     </row>
     <row r="325" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="22" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C325" s="43" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D325" s="1" t="n">
         <v>5</v>
@@ -16197,13 +16221,13 @@
       </c>
       <c r="F325" s="44"/>
       <c r="G325" s="37" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="H325" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I325" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J325" s="41" t="n">
         <f aca="false">J324+D324</f>
@@ -16222,7 +16246,7 @@
         <v>8.5625</v>
       </c>
       <c r="N325" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O325" s="3" t="n">
         <v>2</v>
@@ -16236,10 +16260,10 @@
     </row>
     <row r="326" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="22" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C326" s="43" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D326" s="1" t="n">
         <v>9</v>
@@ -16249,13 +16273,13 @@
       </c>
       <c r="F326" s="44"/>
       <c r="G326" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H326" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I326" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J326" s="41" t="n">
         <f aca="false">J325+D325</f>
@@ -16274,7 +16298,7 @@
         <v>8.71875</v>
       </c>
       <c r="N326" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O326" s="3" t="n">
         <v>2</v>
@@ -16307,10 +16331,10 @@
     </row>
     <row r="328" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="22" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C328" s="43" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D328" s="1" t="n">
         <v>32</v>
@@ -16320,13 +16344,13 @@
       </c>
       <c r="F328" s="44"/>
       <c r="G328" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H328" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I328" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J328" s="41" t="n">
         <f aca="false">J316+D316</f>
@@ -16345,7 +16369,7 @@
         <v>9</v>
       </c>
       <c r="N328" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O328" s="3" t="n">
         <v>2</v>
@@ -16359,10 +16383,10 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="22" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C329" s="22" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="D329" s="1" t="n">
         <v>32</v>
@@ -16372,13 +16396,13 @@
       </c>
       <c r="F329" s="37"/>
       <c r="G329" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H329" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I329" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J329" s="41" t="n">
         <f aca="false">J328+D328</f>
@@ -16397,7 +16421,7 @@
         <v>10</v>
       </c>
       <c r="N329" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O329" s="3" t="n">
         <v>4</v>
@@ -16411,10 +16435,10 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="22" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C330" s="22" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D330" s="1" t="n">
         <v>32</v>
@@ -16424,13 +16448,13 @@
       </c>
       <c r="F330" s="37"/>
       <c r="G330" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H330" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I330" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J330" s="41" t="n">
         <f aca="false">J329+D329</f>
@@ -16449,7 +16473,7 @@
         <v>11</v>
       </c>
       <c r="N330" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O330" s="3" t="n">
         <v>4</v>
@@ -16463,10 +16487,10 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="22" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C331" s="22" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D331" s="1" t="n">
         <v>32</v>
@@ -16476,13 +16500,13 @@
       </c>
       <c r="F331" s="37"/>
       <c r="G331" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H331" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I331" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J331" s="41" t="n">
         <f aca="false">J330+D330</f>
@@ -16501,7 +16525,7 @@
         <v>12</v>
       </c>
       <c r="N331" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O331" s="3" t="n">
         <v>4</v>
@@ -16515,10 +16539,10 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="22" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C332" s="22" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D332" s="1" t="n">
         <v>32</v>
@@ -16528,13 +16552,13 @@
       </c>
       <c r="F332" s="37"/>
       <c r="G332" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H332" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I332" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J332" s="41" t="n">
         <f aca="false">J331+D331</f>
@@ -16553,7 +16577,7 @@
         <v>13</v>
       </c>
       <c r="N332" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O332" s="3" t="n">
         <v>4</v>
@@ -16567,10 +16591,10 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="22" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C333" s="22" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D333" s="1" t="n">
         <v>8</v>
@@ -16580,13 +16604,13 @@
       </c>
       <c r="F333" s="37"/>
       <c r="G333" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H333" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I333" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J333" s="41" t="n">
         <f aca="false">J332+D332</f>
@@ -16605,7 +16629,7 @@
         <v>14</v>
       </c>
       <c r="N333" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O333" s="3" t="n">
         <v>4</v>
@@ -16619,10 +16643,10 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="22" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C334" s="22" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D334" s="1" t="n">
         <v>8</v>
@@ -16632,13 +16656,13 @@
       </c>
       <c r="F334" s="37"/>
       <c r="G334" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H334" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I334" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J334" s="41" t="n">
         <f aca="false">J333+D333</f>
@@ -16657,7 +16681,7 @@
         <v>14.25</v>
       </c>
       <c r="N334" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O334" s="3" t="n">
         <v>4</v>
@@ -16671,10 +16695,10 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="22" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C335" s="22" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D335" s="1" t="n">
         <v>8</v>
@@ -16684,13 +16708,13 @@
       </c>
       <c r="F335" s="37"/>
       <c r="G335" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H335" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I335" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J335" s="41" t="n">
         <f aca="false">J334+D334</f>
@@ -16709,7 +16733,7 @@
         <v>14.5</v>
       </c>
       <c r="N335" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O335" s="3" t="n">
         <v>4</v>
@@ -16723,10 +16747,10 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="22" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="C336" s="22" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D336" s="1" t="n">
         <v>8</v>
@@ -16736,13 +16760,13 @@
       </c>
       <c r="F336" s="37"/>
       <c r="G336" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H336" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I336" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J336" s="41" t="n">
         <f aca="false">J335+D335</f>
@@ -16761,7 +16785,7 @@
         <v>14.75</v>
       </c>
       <c r="N336" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O336" s="3" t="n">
         <v>4</v>
@@ -16775,10 +16799,10 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="22" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C337" s="22" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D337" s="1" t="n">
         <v>8</v>
@@ -16788,13 +16812,13 @@
       </c>
       <c r="F337" s="37"/>
       <c r="G337" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H337" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I337" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J337" s="41" t="n">
         <f aca="false">J336+D336</f>
@@ -16813,7 +16837,7 @@
         <v>15</v>
       </c>
       <c r="N337" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O337" s="3" t="n">
         <v>4</v>
@@ -16827,10 +16851,10 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="22" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C338" s="22" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="D338" s="1" t="n">
         <v>8</v>
@@ -16840,13 +16864,13 @@
       </c>
       <c r="F338" s="37"/>
       <c r="G338" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H338" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I338" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J338" s="41" t="n">
         <f aca="false">J337+D337</f>
@@ -16865,7 +16889,7 @@
         <v>15.25</v>
       </c>
       <c r="N338" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O338" s="3" t="n">
         <v>4</v>
@@ -16879,10 +16903,10 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="22" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C339" s="22" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D339" s="1" t="n">
         <v>8</v>
@@ -16892,13 +16916,13 @@
       </c>
       <c r="F339" s="37"/>
       <c r="G339" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H339" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I339" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J339" s="41" t="n">
         <f aca="false">J338+D338</f>
@@ -16917,7 +16941,7 @@
         <v>15.5</v>
       </c>
       <c r="N339" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O339" s="3" t="n">
         <v>4</v>
@@ -16931,10 +16955,10 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="22" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C340" s="22" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D340" s="1" t="n">
         <v>8</v>
@@ -16944,13 +16968,13 @@
       </c>
       <c r="F340" s="37"/>
       <c r="G340" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H340" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I340" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J340" s="41" t="n">
         <f aca="false">J339+D339</f>
@@ -16969,7 +16993,7 @@
         <v>15.75</v>
       </c>
       <c r="N340" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O340" s="3" t="n">
         <v>4</v>
@@ -16983,10 +17007,10 @@
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="22" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C341" s="22" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D341" s="1" t="n">
         <v>8</v>
@@ -16996,13 +17020,13 @@
       </c>
       <c r="F341" s="37"/>
       <c r="G341" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H341" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I341" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J341" s="41" t="n">
         <f aca="false">J340+D340</f>
@@ -17021,7 +17045,7 @@
         <v>16</v>
       </c>
       <c r="N341" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O341" s="3" t="n">
         <v>4</v>
@@ -17035,10 +17059,10 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="22" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C342" s="22" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D342" s="1" t="n">
         <v>8</v>
@@ -17048,13 +17072,13 @@
       </c>
       <c r="F342" s="37"/>
       <c r="G342" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H342" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I342" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J342" s="41" t="n">
         <f aca="false">J341+D341</f>
@@ -17073,7 +17097,7 @@
         <v>16.25</v>
       </c>
       <c r="N342" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O342" s="3" t="n">
         <v>4</v>
@@ -17087,10 +17111,10 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="22" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C343" s="22" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D343" s="1" t="n">
         <v>8</v>
@@ -17100,13 +17124,13 @@
       </c>
       <c r="F343" s="37"/>
       <c r="G343" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H343" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I343" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J343" s="41" t="n">
         <f aca="false">J342+D342</f>
@@ -17125,7 +17149,7 @@
         <v>16.5</v>
       </c>
       <c r="N343" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O343" s="3" t="n">
         <v>4</v>
@@ -17139,10 +17163,10 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="22" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C344" s="22" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D344" s="1" t="n">
         <v>8</v>
@@ -17152,13 +17176,13 @@
       </c>
       <c r="F344" s="37"/>
       <c r="G344" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H344" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I344" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J344" s="41" t="n">
         <f aca="false">J343+D343</f>
@@ -17177,7 +17201,7 @@
         <v>16.75</v>
       </c>
       <c r="N344" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O344" s="3" t="n">
         <v>4</v>
@@ -17191,10 +17215,10 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="22" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C345" s="22" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="D345" s="1" t="n">
         <v>8</v>
@@ -17204,13 +17228,13 @@
       </c>
       <c r="F345" s="37"/>
       <c r="G345" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H345" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I345" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J345" s="41" t="n">
         <f aca="false">J344+D344</f>
@@ -17229,7 +17253,7 @@
         <v>17</v>
       </c>
       <c r="N345" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O345" s="3" t="n">
         <v>4</v>
@@ -17243,10 +17267,10 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="22" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D346" s="1" t="n">
         <v>8</v>
@@ -17256,13 +17280,13 @@
       </c>
       <c r="F346" s="37"/>
       <c r="G346" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H346" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I346" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J346" s="41" t="n">
         <f aca="false">J345+D345</f>
@@ -17281,7 +17305,7 @@
         <v>17.25</v>
       </c>
       <c r="N346" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O346" s="3" t="n">
         <v>4</v>
@@ -17295,10 +17319,10 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="22" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C347" s="22" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D347" s="1" t="n">
         <v>8</v>
@@ -17308,13 +17332,13 @@
       </c>
       <c r="F347" s="37"/>
       <c r="G347" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H347" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I347" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J347" s="41" t="n">
         <f aca="false">J346+D346</f>
@@ -17333,7 +17357,7 @@
         <v>17.5</v>
       </c>
       <c r="N347" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O347" s="3" t="n">
         <v>4</v>
@@ -17347,10 +17371,10 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="22" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C348" s="22" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D348" s="1" t="n">
         <v>8</v>
@@ -17360,13 +17384,13 @@
       </c>
       <c r="F348" s="37"/>
       <c r="G348" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H348" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I348" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J348" s="41" t="n">
         <f aca="false">J347+D347</f>
@@ -17385,7 +17409,7 @@
         <v>17.75</v>
       </c>
       <c r="N348" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O348" s="3" t="n">
         <v>4</v>
@@ -17399,10 +17423,10 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="22" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C349" s="22" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D349" s="1" t="n">
         <v>8</v>
@@ -17412,13 +17436,13 @@
       </c>
       <c r="F349" s="37"/>
       <c r="G349" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H349" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I349" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J349" s="41" t="n">
         <f aca="false">J348+D348</f>
@@ -17437,7 +17461,7 @@
         <v>18</v>
       </c>
       <c r="N349" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O349" s="3" t="n">
         <v>4</v>
@@ -17451,10 +17475,10 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="22" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C350" s="22" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D350" s="1" t="n">
         <v>8</v>
@@ -17464,13 +17488,13 @@
       </c>
       <c r="F350" s="37"/>
       <c r="G350" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H350" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I350" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J350" s="41" t="n">
         <f aca="false">J349+D349</f>
@@ -17489,7 +17513,7 @@
         <v>18.25</v>
       </c>
       <c r="N350" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O350" s="3" t="n">
         <v>4</v>
@@ -17503,10 +17527,10 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="22" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="C351" s="22" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D351" s="1" t="n">
         <v>8</v>
@@ -17516,13 +17540,13 @@
       </c>
       <c r="F351" s="37"/>
       <c r="G351" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H351" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I351" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J351" s="41" t="n">
         <f aca="false">J350+D350</f>
@@ -17541,7 +17565,7 @@
         <v>18.5</v>
       </c>
       <c r="N351" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O351" s="3" t="n">
         <v>4</v>
@@ -17555,10 +17579,10 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="22" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C352" s="22" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D352" s="1" t="n">
         <v>8</v>
@@ -17568,13 +17592,13 @@
       </c>
       <c r="F352" s="37"/>
       <c r="G352" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H352" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I352" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J352" s="41" t="n">
         <f aca="false">J351+D351</f>
@@ -17593,7 +17617,7 @@
         <v>18.75</v>
       </c>
       <c r="N352" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O352" s="3" t="n">
         <v>4</v>
@@ -17607,10 +17631,10 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="22" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C353" s="22" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D353" s="1" t="n">
         <v>8</v>
@@ -17620,13 +17644,13 @@
       </c>
       <c r="F353" s="37"/>
       <c r="G353" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H353" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I353" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J353" s="41" t="n">
         <f aca="false">J352+D352</f>
@@ -17645,7 +17669,7 @@
         <v>19</v>
       </c>
       <c r="N353" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O353" s="3" t="n">
         <v>4</v>
@@ -17659,10 +17683,10 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="22" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C354" s="22" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D354" s="1" t="n">
         <v>8</v>
@@ -17672,13 +17696,13 @@
       </c>
       <c r="F354" s="37"/>
       <c r="G354" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H354" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I354" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J354" s="41" t="n">
         <f aca="false">J353+D353</f>
@@ -17697,7 +17721,7 @@
         <v>19.25</v>
       </c>
       <c r="N354" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O354" s="3" t="n">
         <v>4</v>
@@ -17711,10 +17735,10 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="22" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C355" s="22" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="D355" s="1" t="n">
         <v>8</v>
@@ -17724,13 +17748,13 @@
       </c>
       <c r="F355" s="37"/>
       <c r="G355" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H355" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I355" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J355" s="41" t="n">
         <f aca="false">J354+D354</f>
@@ -17749,7 +17773,7 @@
         <v>19.5</v>
       </c>
       <c r="N355" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O355" s="3" t="n">
         <v>4</v>
@@ -17763,10 +17787,10 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="22" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C356" s="22" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D356" s="1" t="n">
         <v>8</v>
@@ -17776,13 +17800,13 @@
       </c>
       <c r="F356" s="37"/>
       <c r="G356" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H356" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I356" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J356" s="41" t="n">
         <f aca="false">J355+D355</f>
@@ -17801,7 +17825,7 @@
         <v>19.75</v>
       </c>
       <c r="N356" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O356" s="3" t="n">
         <v>4</v>
@@ -17815,10 +17839,10 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="22" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C357" s="22" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D357" s="1" t="n">
         <v>8</v>
@@ -17828,13 +17852,13 @@
       </c>
       <c r="F357" s="37"/>
       <c r="G357" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H357" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I357" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J357" s="41" t="n">
         <f aca="false">J356+D356</f>
@@ -17853,7 +17877,7 @@
         <v>20</v>
       </c>
       <c r="N357" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O357" s="3" t="n">
         <v>4</v>
@@ -17867,10 +17891,10 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="22" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C358" s="22" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="D358" s="1" t="n">
         <v>8</v>
@@ -17880,13 +17904,13 @@
       </c>
       <c r="F358" s="37"/>
       <c r="G358" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H358" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I358" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J358" s="41" t="n">
         <f aca="false">J357+D357</f>
@@ -17905,7 +17929,7 @@
         <v>20.25</v>
       </c>
       <c r="N358" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O358" s="3" t="n">
         <v>4</v>
@@ -17919,10 +17943,10 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="22" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C359" s="22" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="D359" s="1" t="n">
         <v>8</v>
@@ -17932,13 +17956,13 @@
       </c>
       <c r="F359" s="37"/>
       <c r="G359" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H359" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I359" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J359" s="41" t="n">
         <f aca="false">J358+D358</f>
@@ -17957,7 +17981,7 @@
         <v>20.5</v>
       </c>
       <c r="N359" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O359" s="3" t="n">
         <v>4</v>
@@ -17971,10 +17995,10 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="22" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="C360" s="22" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="D360" s="1" t="n">
         <v>8</v>
@@ -17984,13 +18008,13 @@
       </c>
       <c r="F360" s="37"/>
       <c r="G360" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H360" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I360" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J360" s="41" t="n">
         <f aca="false">J359+D359</f>
@@ -18009,7 +18033,7 @@
         <v>20.75</v>
       </c>
       <c r="N360" s="42" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="O360" s="3" t="n">
         <v>4</v>
@@ -18023,10 +18047,10 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="3" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="D361" s="1" t="n">
         <v>16</v>
@@ -18038,13 +18062,13 @@
         <v>119</v>
       </c>
       <c r="G361" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H361" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I361" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J361" s="41" t="n">
         <f aca="false">J360+D360</f>
@@ -18063,7 +18087,7 @@
         <v>21</v>
       </c>
       <c r="N361" s="42" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O361" s="3" t="n">
         <v>1</v>
@@ -18077,16 +18101,16 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="3" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>402</v>
+        <v>602</v>
       </c>
       <c r="D362" s="1" t="n">
         <v>16</v>
       </c>
       <c r="E362" s="37" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="F362" s="37"/>
       <c r="G362" s="37" t="n">
@@ -18096,7 +18120,7 @@
         <v>27</v>
       </c>
       <c r="I362" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J362" s="41" t="n">
         <f aca="false">J361+D361</f>
@@ -18154,7 +18178,7 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="40" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="F364" s="37"/>
       <c r="G364" s="37"/>
@@ -18237,10 +18261,10 @@
     </row>
     <row r="367" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="22" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C367" s="43" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D367" s="1" t="n">
         <v>9</v>
@@ -18256,7 +18280,7 @@
         <v>27</v>
       </c>
       <c r="I367" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J367" s="4" t="n">
         <f aca="false">J363</f>
@@ -18275,7 +18299,7 @@
         <v>22</v>
       </c>
       <c r="N367" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O367" s="3" t="n">
         <v>2</v>
@@ -18289,10 +18313,10 @@
     </row>
     <row r="368" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="22" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C368" s="43" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="D368" s="1" t="n">
         <v>5</v>
@@ -18308,7 +18332,7 @@
         <v>27</v>
       </c>
       <c r="I368" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J368" s="4" t="n">
         <f aca="false">J367+D367</f>
@@ -18327,7 +18351,7 @@
         <v>22.28125</v>
       </c>
       <c r="N368" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O368" s="3" t="n">
         <v>2</v>
@@ -18341,10 +18365,10 @@
     </row>
     <row r="369" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="22" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C369" s="43" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D369" s="1" t="n">
         <v>4</v>
@@ -18360,7 +18384,7 @@
         <v>27</v>
       </c>
       <c r="I369" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J369" s="4" t="n">
         <f aca="false">J368+D368</f>
@@ -18379,7 +18403,7 @@
         <v>22.4375</v>
       </c>
       <c r="N369" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O369" s="3" t="n">
         <v>2</v>
@@ -18393,10 +18417,10 @@
     </row>
     <row r="370" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="22" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C370" s="43" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D370" s="1" t="n">
         <v>4</v>
@@ -18412,7 +18436,7 @@
         <v>27</v>
       </c>
       <c r="I370" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J370" s="4" t="n">
         <f aca="false">J369+D369</f>
@@ -18431,7 +18455,7 @@
         <v>22.5625</v>
       </c>
       <c r="N370" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O370" s="3" t="n">
         <v>2</v>
@@ -18445,10 +18469,10 @@
     </row>
     <row r="371" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="22" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C371" s="43" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D371" s="1" t="n">
         <v>3</v>
@@ -18464,7 +18488,7 @@
         <v>27</v>
       </c>
       <c r="I371" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J371" s="4" t="n">
         <f aca="false">J370+D370</f>
@@ -18483,7 +18507,7 @@
         <v>22.6875</v>
       </c>
       <c r="N371" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O371" s="3" t="n">
         <v>2</v>
@@ -18497,10 +18521,10 @@
     </row>
     <row r="372" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="22" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C372" s="43" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="D372" s="1" t="n">
         <v>1</v>
@@ -18510,13 +18534,13 @@
       </c>
       <c r="F372" s="44"/>
       <c r="G372" s="37" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H372" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I372" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J372" s="4" t="n">
         <f aca="false">J371+D371</f>
@@ -18535,7 +18559,7 @@
         <v>22.78125</v>
       </c>
       <c r="N372" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O372" s="3" t="n">
         <v>2</v>
@@ -18549,10 +18573,10 @@
     </row>
     <row r="373" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="22" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C373" s="43" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D373" s="1" t="n">
         <v>1</v>
@@ -18562,13 +18586,13 @@
       </c>
       <c r="F373" s="44"/>
       <c r="G373" s="37" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H373" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I373" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J373" s="4" t="n">
         <f aca="false">J372+D372</f>
@@ -18587,7 +18611,7 @@
         <v>22.8125</v>
       </c>
       <c r="N373" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O373" s="3" t="n">
         <v>1</v>
@@ -18601,10 +18625,10 @@
     </row>
     <row r="374" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="22" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C374" s="43" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D374" s="1" t="n">
         <v>5</v>
@@ -18620,7 +18644,7 @@
         <v>27</v>
       </c>
       <c r="I374" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J374" s="4" t="n">
         <f aca="false">J373+D373</f>
@@ -18701,10 +18725,10 @@
     </row>
     <row r="377" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="22" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C377" s="43" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="D377" s="1" t="n">
         <v>5</v>
@@ -18720,7 +18744,7 @@
         <v>27</v>
       </c>
       <c r="I377" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J377" s="41" t="n">
         <f aca="false">J363</f>
@@ -18753,10 +18777,10 @@
     </row>
     <row r="378" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="22" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C378" s="43" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D378" s="1" t="n">
         <v>1</v>
@@ -18766,13 +18790,13 @@
       </c>
       <c r="F378" s="44"/>
       <c r="G378" s="37" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H378" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I378" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J378" s="41" t="n">
         <f aca="false">J377+D377</f>
@@ -18791,7 +18815,7 @@
         <v>22.15625</v>
       </c>
       <c r="N378" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O378" s="3" t="n">
         <v>1</v>
@@ -18805,10 +18829,10 @@
     </row>
     <row r="379" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="22" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C379" s="43" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="D379" s="1" t="n">
         <v>1</v>
@@ -18818,13 +18842,13 @@
       </c>
       <c r="F379" s="44"/>
       <c r="G379" s="37" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H379" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I379" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J379" s="41" t="n">
         <f aca="false">J378+D378</f>
@@ -18843,7 +18867,7 @@
         <v>22.1875</v>
       </c>
       <c r="N379" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O379" s="3" t="n">
         <v>2</v>
@@ -18857,10 +18881,10 @@
     </row>
     <row r="380" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="22" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C380" s="43" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D380" s="1" t="n">
         <v>3</v>
@@ -18870,13 +18894,13 @@
       </c>
       <c r="F380" s="44"/>
       <c r="G380" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H380" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I380" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J380" s="41" t="n">
         <f aca="false">J379+D379</f>
@@ -18895,7 +18919,7 @@
         <v>22.21875</v>
       </c>
       <c r="N380" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O380" s="3" t="n">
         <v>2</v>
@@ -18909,10 +18933,10 @@
     </row>
     <row r="381" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="22" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C381" s="43" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D381" s="1" t="n">
         <v>4</v>
@@ -18922,13 +18946,13 @@
       </c>
       <c r="F381" s="44"/>
       <c r="G381" s="37" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H381" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I381" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J381" s="41" t="n">
         <f aca="false">J380+D380</f>
@@ -18947,7 +18971,7 @@
         <v>22.3125</v>
       </c>
       <c r="N381" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O381" s="3" t="n">
         <v>2</v>
@@ -18961,10 +18985,10 @@
     </row>
     <row r="382" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="22" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C382" s="43" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D382" s="1" t="n">
         <v>4</v>
@@ -18974,13 +18998,13 @@
       </c>
       <c r="F382" s="44"/>
       <c r="G382" s="37" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H382" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I382" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J382" s="41" t="n">
         <f aca="false">J381+D381</f>
@@ -18999,7 +19023,7 @@
         <v>22.4375</v>
       </c>
       <c r="N382" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O382" s="3" t="n">
         <v>2</v>
@@ -19013,10 +19037,10 @@
     </row>
     <row r="383" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="22" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C383" s="43" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="D383" s="1" t="n">
         <v>5</v>
@@ -19026,13 +19050,13 @@
       </c>
       <c r="F383" s="44"/>
       <c r="G383" s="37" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="H383" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I383" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J383" s="41" t="n">
         <f aca="false">J382+D382</f>
@@ -19051,7 +19075,7 @@
         <v>22.5625</v>
       </c>
       <c r="N383" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O383" s="3" t="n">
         <v>2</v>
@@ -19065,10 +19089,10 @@
     </row>
     <row r="384" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="22" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C384" s="43" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D384" s="1" t="n">
         <v>9</v>
@@ -19078,13 +19102,13 @@
       </c>
       <c r="F384" s="44"/>
       <c r="G384" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H384" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I384" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J384" s="41" t="n">
         <f aca="false">J383+D383</f>
@@ -19103,7 +19127,7 @@
         <v>22.71875</v>
       </c>
       <c r="N384" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O384" s="3" t="n">
         <v>2</v>
@@ -19135,10 +19159,10 @@
     </row>
     <row r="386" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="22" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C386" s="43" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="D386" s="1" t="n">
         <v>32</v>
@@ -19148,13 +19172,13 @@
       </c>
       <c r="F386" s="44"/>
       <c r="G386" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H386" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I386" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J386" s="41" t="n">
         <f aca="false">J374+D374</f>
@@ -19173,7 +19197,7 @@
         <v>23</v>
       </c>
       <c r="N386" s="42" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O386" s="3" t="n">
         <v>2</v>
@@ -19188,10 +19212,10 @@
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="42"/>
       <c r="B387" s="22" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="C387" s="22" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="D387" s="1" t="n">
         <v>32</v>
@@ -19201,13 +19225,13 @@
       </c>
       <c r="F387" s="37"/>
       <c r="G387" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H387" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I387" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J387" s="41" t="n">
         <f aca="false">J386+D386</f>
@@ -19226,7 +19250,7 @@
         <v>24</v>
       </c>
       <c r="N387" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O387" s="3" t="n">
         <v>5</v>
@@ -19240,10 +19264,10 @@
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="22" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="C388" s="22" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="D388" s="1" t="n">
         <v>32</v>
@@ -19253,13 +19277,13 @@
       </c>
       <c r="F388" s="37"/>
       <c r="G388" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H388" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I388" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J388" s="41" t="n">
         <f aca="false">J387+D387</f>
@@ -19278,7 +19302,7 @@
         <v>25</v>
       </c>
       <c r="N388" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O388" s="3" t="n">
         <v>5</v>
@@ -19292,10 +19316,10 @@
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="22" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C389" s="22" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="D389" s="1" t="n">
         <v>32</v>
@@ -19305,13 +19329,13 @@
       </c>
       <c r="F389" s="37"/>
       <c r="G389" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H389" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I389" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J389" s="41" t="n">
         <f aca="false">J388+D388</f>
@@ -19330,7 +19354,7 @@
         <v>26</v>
       </c>
       <c r="N389" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O389" s="3" t="n">
         <v>5</v>
@@ -19344,10 +19368,10 @@
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="22" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C390" s="22" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="D390" s="1" t="n">
         <v>32</v>
@@ -19357,13 +19381,13 @@
       </c>
       <c r="F390" s="37"/>
       <c r="G390" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H390" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I390" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J390" s="41" t="n">
         <f aca="false">J389+D389</f>
@@ -19382,7 +19406,7 @@
         <v>27</v>
       </c>
       <c r="N390" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O390" s="3" t="n">
         <v>5</v>
@@ -19396,10 +19420,10 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="22" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="C391" s="22" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="D391" s="1" t="n">
         <v>8</v>
@@ -19409,13 +19433,13 @@
       </c>
       <c r="F391" s="37"/>
       <c r="G391" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H391" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I391" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J391" s="41" t="n">
         <f aca="false">J390+D390</f>
@@ -19434,7 +19458,7 @@
         <v>28</v>
       </c>
       <c r="N391" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O391" s="3" t="n">
         <v>5</v>
@@ -19448,10 +19472,10 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="22" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="C392" s="22" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="D392" s="1" t="n">
         <v>8</v>
@@ -19461,13 +19485,13 @@
       </c>
       <c r="F392" s="37"/>
       <c r="G392" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H392" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I392" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J392" s="41" t="n">
         <f aca="false">J391+D391</f>
@@ -19486,7 +19510,7 @@
         <v>28.25</v>
       </c>
       <c r="N392" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O392" s="3" t="n">
         <v>5</v>
@@ -19500,10 +19524,10 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="22" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="C393" s="22" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="D393" s="1" t="n">
         <v>8</v>
@@ -19513,13 +19537,13 @@
       </c>
       <c r="F393" s="37"/>
       <c r="G393" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H393" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I393" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J393" s="41" t="n">
         <f aca="false">J392+D392</f>
@@ -19538,7 +19562,7 @@
         <v>28.5</v>
       </c>
       <c r="N393" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O393" s="3" t="n">
         <v>5</v>
@@ -19552,10 +19576,10 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="22" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="C394" s="22" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="D394" s="1" t="n">
         <v>8</v>
@@ -19565,13 +19589,13 @@
       </c>
       <c r="F394" s="37"/>
       <c r="G394" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H394" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I394" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J394" s="41" t="n">
         <f aca="false">J393+D393</f>
@@ -19590,7 +19614,7 @@
         <v>28.75</v>
       </c>
       <c r="N394" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O394" s="3" t="n">
         <v>5</v>
@@ -19604,10 +19628,10 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="22" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="C395" s="22" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="D395" s="1" t="n">
         <v>8</v>
@@ -19617,13 +19641,13 @@
       </c>
       <c r="F395" s="37"/>
       <c r="G395" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H395" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I395" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J395" s="41" t="n">
         <f aca="false">J394+D394</f>
@@ -19642,7 +19666,7 @@
         <v>29</v>
       </c>
       <c r="N395" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O395" s="3" t="n">
         <v>5</v>
@@ -19656,10 +19680,10 @@
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="22" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="C396" s="22" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="D396" s="1" t="n">
         <v>8</v>
@@ -19669,13 +19693,13 @@
       </c>
       <c r="F396" s="37"/>
       <c r="G396" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H396" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I396" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J396" s="41" t="n">
         <f aca="false">J395+D395</f>
@@ -19694,7 +19718,7 @@
         <v>29.25</v>
       </c>
       <c r="N396" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O396" s="3" t="n">
         <v>5</v>
@@ -19708,10 +19732,10 @@
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="22" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="C397" s="22" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="D397" s="1" t="n">
         <v>8</v>
@@ -19721,13 +19745,13 @@
       </c>
       <c r="F397" s="37"/>
       <c r="G397" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H397" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I397" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J397" s="41" t="n">
         <f aca="false">J396+D396</f>
@@ -19746,7 +19770,7 @@
         <v>29.5</v>
       </c>
       <c r="N397" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O397" s="3" t="n">
         <v>5</v>
@@ -19760,10 +19784,10 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="22" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="C398" s="22" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D398" s="1" t="n">
         <v>8</v>
@@ -19773,13 +19797,13 @@
       </c>
       <c r="F398" s="37"/>
       <c r="G398" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H398" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I398" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J398" s="41" t="n">
         <f aca="false">J397+D397</f>
@@ -19798,7 +19822,7 @@
         <v>29.75</v>
       </c>
       <c r="N398" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O398" s="3" t="n">
         <v>5</v>
@@ -19812,10 +19836,10 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="22" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C399" s="22" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="D399" s="1" t="n">
         <v>8</v>
@@ -19825,13 +19849,13 @@
       </c>
       <c r="F399" s="37"/>
       <c r="G399" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H399" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I399" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J399" s="41" t="n">
         <f aca="false">J398+D398</f>
@@ -19850,7 +19874,7 @@
         <v>30</v>
       </c>
       <c r="N399" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O399" s="3" t="n">
         <v>5</v>
@@ -19864,10 +19888,10 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="22" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C400" s="22" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="D400" s="1" t="n">
         <v>8</v>
@@ -19877,13 +19901,13 @@
       </c>
       <c r="F400" s="37"/>
       <c r="G400" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H400" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I400" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J400" s="41" t="n">
         <f aca="false">J399+D399</f>
@@ -19902,7 +19926,7 @@
         <v>30.25</v>
       </c>
       <c r="N400" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O400" s="3" t="n">
         <v>5</v>
@@ -19916,10 +19940,10 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="22" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="C401" s="22" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="D401" s="1" t="n">
         <v>8</v>
@@ -19929,13 +19953,13 @@
       </c>
       <c r="F401" s="37"/>
       <c r="G401" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H401" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I401" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J401" s="41" t="n">
         <f aca="false">J400+D400</f>
@@ -19954,7 +19978,7 @@
         <v>30.5</v>
       </c>
       <c r="N401" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O401" s="3" t="n">
         <v>5</v>
@@ -19968,10 +19992,10 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="22" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="C402" s="22" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="D402" s="1" t="n">
         <v>8</v>
@@ -19981,13 +20005,13 @@
       </c>
       <c r="F402" s="37"/>
       <c r="G402" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H402" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I402" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J402" s="41" t="n">
         <f aca="false">J401+D401</f>
@@ -20006,7 +20030,7 @@
         <v>30.75</v>
       </c>
       <c r="N402" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O402" s="3" t="n">
         <v>5</v>
@@ -20020,10 +20044,10 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="22" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="C403" s="22" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="D403" s="1" t="n">
         <v>8</v>
@@ -20033,13 +20057,13 @@
       </c>
       <c r="F403" s="37"/>
       <c r="G403" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H403" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I403" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J403" s="41" t="n">
         <f aca="false">J402+D402</f>
@@ -20058,7 +20082,7 @@
         <v>31</v>
       </c>
       <c r="N403" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O403" s="3" t="n">
         <v>5</v>
@@ -20072,10 +20096,10 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="22" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="C404" s="22" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="D404" s="1" t="n">
         <v>8</v>
@@ -20085,13 +20109,13 @@
       </c>
       <c r="F404" s="37"/>
       <c r="G404" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H404" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I404" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J404" s="41" t="n">
         <f aca="false">J403+D403</f>
@@ -20110,7 +20134,7 @@
         <v>31.25</v>
       </c>
       <c r="N404" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O404" s="3" t="n">
         <v>5</v>
@@ -20124,10 +20148,10 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="22" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="C405" s="22" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="D405" s="1" t="n">
         <v>8</v>
@@ -20137,13 +20161,13 @@
       </c>
       <c r="F405" s="37"/>
       <c r="G405" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H405" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I405" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J405" s="41" t="n">
         <f aca="false">J404+D404</f>
@@ -20162,7 +20186,7 @@
         <v>31.5</v>
       </c>
       <c r="N405" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O405" s="3" t="n">
         <v>5</v>
@@ -20176,10 +20200,10 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="22" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="C406" s="22" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="D406" s="1" t="n">
         <v>8</v>
@@ -20189,13 +20213,13 @@
       </c>
       <c r="F406" s="37"/>
       <c r="G406" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H406" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I406" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J406" s="41" t="n">
         <f aca="false">J405+D405</f>
@@ -20214,7 +20238,7 @@
         <v>31.75</v>
       </c>
       <c r="N406" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O406" s="3" t="n">
         <v>5</v>
@@ -20228,10 +20252,10 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="22" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="C407" s="22" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="D407" s="1" t="n">
         <v>8</v>
@@ -20241,13 +20265,13 @@
       </c>
       <c r="F407" s="37"/>
       <c r="G407" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H407" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I407" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J407" s="41" t="n">
         <f aca="false">J406+D406</f>
@@ -20266,7 +20290,7 @@
         <v>32</v>
       </c>
       <c r="N407" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O407" s="3" t="n">
         <v>5</v>
@@ -20280,10 +20304,10 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="22" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="C408" s="22" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="D408" s="1" t="n">
         <v>8</v>
@@ -20293,13 +20317,13 @@
       </c>
       <c r="F408" s="37"/>
       <c r="G408" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H408" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I408" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J408" s="41" t="n">
         <f aca="false">J407+D407</f>
@@ -20318,7 +20342,7 @@
         <v>32.25</v>
       </c>
       <c r="N408" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O408" s="3" t="n">
         <v>5</v>
@@ -20332,10 +20356,10 @@
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="22" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C409" s="22" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="D409" s="1" t="n">
         <v>8</v>
@@ -20345,13 +20369,13 @@
       </c>
       <c r="F409" s="37"/>
       <c r="G409" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H409" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I409" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J409" s="41" t="n">
         <f aca="false">J408+D408</f>
@@ -20370,7 +20394,7 @@
         <v>32.5</v>
       </c>
       <c r="N409" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O409" s="3" t="n">
         <v>5</v>
@@ -20384,10 +20408,10 @@
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="22" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="C410" s="22" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="D410" s="1" t="n">
         <v>8</v>
@@ -20397,13 +20421,13 @@
       </c>
       <c r="F410" s="37"/>
       <c r="G410" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H410" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I410" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J410" s="41" t="n">
         <f aca="false">J409+D409</f>
@@ -20422,7 +20446,7 @@
         <v>32.75</v>
       </c>
       <c r="N410" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O410" s="3" t="n">
         <v>5</v>
@@ -20436,10 +20460,10 @@
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="22" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="C411" s="22" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="D411" s="1" t="n">
         <v>8</v>
@@ -20449,13 +20473,13 @@
       </c>
       <c r="F411" s="37"/>
       <c r="G411" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H411" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I411" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J411" s="41" t="n">
         <f aca="false">J410+D410</f>
@@ -20474,7 +20498,7 @@
         <v>33</v>
       </c>
       <c r="N411" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O411" s="3" t="n">
         <v>5</v>
@@ -20488,10 +20512,10 @@
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="22" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="C412" s="22" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="D412" s="1" t="n">
         <v>8</v>
@@ -20501,13 +20525,13 @@
       </c>
       <c r="F412" s="37"/>
       <c r="G412" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H412" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I412" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J412" s="41" t="n">
         <f aca="false">J411+D411</f>
@@ -20526,7 +20550,7 @@
         <v>33.25</v>
       </c>
       <c r="N412" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O412" s="3" t="n">
         <v>5</v>
@@ -20540,10 +20564,10 @@
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="22" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="C413" s="22" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="D413" s="1" t="n">
         <v>8</v>
@@ -20553,13 +20577,13 @@
       </c>
       <c r="F413" s="37"/>
       <c r="G413" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H413" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I413" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J413" s="41" t="n">
         <f aca="false">J412+D412</f>
@@ -20578,7 +20602,7 @@
         <v>33.5</v>
       </c>
       <c r="N413" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O413" s="3" t="n">
         <v>5</v>
@@ -20592,10 +20616,10 @@
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="22" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="C414" s="22" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="D414" s="1" t="n">
         <v>8</v>
@@ -20605,13 +20629,13 @@
       </c>
       <c r="F414" s="37"/>
       <c r="G414" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H414" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I414" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J414" s="41" t="n">
         <f aca="false">J413+D413</f>
@@ -20630,7 +20654,7 @@
         <v>33.75</v>
       </c>
       <c r="N414" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O414" s="3" t="n">
         <v>5</v>
@@ -20644,10 +20668,10 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="22" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="C415" s="22" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="D415" s="1" t="n">
         <v>8</v>
@@ -20657,13 +20681,13 @@
       </c>
       <c r="F415" s="37"/>
       <c r="G415" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H415" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I415" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J415" s="41" t="n">
         <f aca="false">J414+D414</f>
@@ -20682,7 +20706,7 @@
         <v>34</v>
       </c>
       <c r="N415" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O415" s="3" t="n">
         <v>5</v>
@@ -20696,10 +20720,10 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="22" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="C416" s="22" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D416" s="1" t="n">
         <v>8</v>
@@ -20709,13 +20733,13 @@
       </c>
       <c r="F416" s="37"/>
       <c r="G416" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H416" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I416" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J416" s="41" t="n">
         <f aca="false">J415+D415</f>
@@ -20734,7 +20758,7 @@
         <v>34.25</v>
       </c>
       <c r="N416" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O416" s="3" t="n">
         <v>5</v>
@@ -20748,10 +20772,10 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="22" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="C417" s="22" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="D417" s="1" t="n">
         <v>8</v>
@@ -20761,13 +20785,13 @@
       </c>
       <c r="F417" s="37"/>
       <c r="G417" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H417" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I417" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J417" s="41" t="n">
         <f aca="false">J416+D416</f>
@@ -20786,7 +20810,7 @@
         <v>34.5</v>
       </c>
       <c r="N417" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O417" s="3" t="n">
         <v>5</v>
@@ -20800,10 +20824,10 @@
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="22" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="C418" s="22" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="D418" s="1" t="n">
         <v>8</v>
@@ -20813,13 +20837,13 @@
       </c>
       <c r="F418" s="37"/>
       <c r="G418" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H418" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I418" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J418" s="41" t="n">
         <f aca="false">J417+D417</f>
@@ -20838,7 +20862,7 @@
         <v>34.75</v>
       </c>
       <c r="N418" s="42" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="O418" s="3" t="n">
         <v>5</v>
@@ -20852,10 +20876,10 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="3" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="D419" s="1" t="n">
         <v>16</v>
@@ -20867,13 +20891,13 @@
         <v>119</v>
       </c>
       <c r="G419" s="37" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H419" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I419" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J419" s="41" t="n">
         <f aca="false">J418+D418</f>
@@ -20892,7 +20916,7 @@
         <v>35</v>
       </c>
       <c r="N419" s="42" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O419" s="3" t="n">
         <v>1</v>
@@ -20906,16 +20930,16 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="3" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>402</v>
+        <v>683</v>
       </c>
       <c r="D420" s="1" t="n">
         <v>16</v>
       </c>
       <c r="E420" s="37" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="F420" s="37"/>
       <c r="G420" s="37" t="n">
@@ -20925,7 +20949,7 @@
         <v>27</v>
       </c>
       <c r="I420" s="37" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J420" s="41" t="n">
         <f aca="false">J419+D419</f>
@@ -21028,7 +21052,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.11"/>
@@ -21038,22 +21062,22 @@
     <row r="6" s="47" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="48"/>
       <c r="C6" s="48" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="I6" s="48"/>
     </row>

--- a/genSpacecraft/DownlinkSpecGolf-T.xlsx
+++ b/genSpacecraft/DownlinkSpecGolf-T.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="693">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -1208,16 +1208,19 @@
     <t xml:space="preserve">Timestamp Resets</t>
   </si>
   <si>
-    <t xml:space="preserve">Max Last Chg Epoch</t>
+    <t xml:space="preserve">Max Last Change</t>
   </si>
   <si>
     <t xml:space="preserve">maxTimestampEpoch</t>
   </si>
   <si>
+    <t xml:space="preserve">TIMESTAMP maxTimestampEpoch maxTimestampUptime</t>
+  </si>
+  <si>
     <t xml:space="preserve">Timestamp uptime</t>
   </si>
   <si>
-    <t xml:space="preserve">Max CRC Error</t>
+    <t xml:space="preserve">Max CRC Errors</t>
   </si>
   <si>
     <t xml:space="preserve">maxCRCerror</t>
@@ -1244,18 +1247,24 @@
     <t xml:space="preserve">minTimestampUptime</t>
   </si>
   <si>
-    <t xml:space="preserve">Min Last Chg Epoch</t>
+    <t xml:space="preserve">Min Last Change</t>
   </si>
   <si>
     <t xml:space="preserve">minTimestampEpoch</t>
   </si>
   <si>
-    <t xml:space="preserve">Min Max Reset Epoch</t>
+    <t xml:space="preserve">TIMESTAMP minTimestampEpoch minTimestampUptime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Reset Time</t>
   </si>
   <si>
     <t xml:space="preserve">minmaxResetEpoch</t>
   </si>
   <si>
+    <t xml:space="preserve">TIMESTAMP minmaxResetEpoch minmaxResetSecs</t>
+  </si>
+  <si>
     <t xml:space="preserve">MinMax Reset Epoch</t>
   </si>
   <si>
@@ -1268,7 +1277,7 @@
     <t xml:space="preserve">MinMax Reset Secs</t>
   </si>
   <si>
-    <t xml:space="preserve">Min CRC Error</t>
+    <t xml:space="preserve">Min CRC Errors</t>
   </si>
   <si>
     <t xml:space="preserve">minCRCerror</t>
@@ -2236,7 +2245,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2393,6 +2402,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2456,8 +2469,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A399" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C427" activeCellId="0" sqref="C427"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A194" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N240" activeCellId="0" sqref="N240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2468,7 +2481,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="67.33"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="8.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="8.89"/>
@@ -10290,13 +10303,13 @@
         <v>16</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>299</v>
+        <v>29</v>
       </c>
       <c r="O179" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P179" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q179" s="1" t="n">
         <v>0</v>
@@ -10316,14 +10329,11 @@
         <v>26</v>
       </c>
       <c r="F180" s="23"/>
-      <c r="G180" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H180" s="3" t="s">
-        <v>393</v>
+      <c r="G180" s="39" t="s">
+        <v>397</v>
       </c>
       <c r="I180" s="27" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J180" s="28" t="n">
         <f aca="false">J179+D179</f>
@@ -10348,7 +10358,7 @@
         <v>10</v>
       </c>
       <c r="P180" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q180" s="1" t="n">
         <v>0</v>
@@ -10356,10 +10366,10 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="30" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C181" s="30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D181" s="26" t="n">
         <v>8</v>
@@ -10375,7 +10385,7 @@
         <v>27</v>
       </c>
       <c r="I181" s="27" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J181" s="28" t="n">
         <f aca="false">J180+D180</f>
@@ -10400,7 +10410,7 @@
         <v>10</v>
       </c>
       <c r="P181" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q181" s="1" t="n">
         <v>0</v>
@@ -10408,10 +10418,10 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="30" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C182" s="30" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D182" s="26" t="n">
         <v>8</v>
@@ -10425,7 +10435,7 @@
         <v>27</v>
       </c>
       <c r="I182" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J182" s="28" t="n">
         <f aca="false">J181+D181</f>
@@ -10495,16 +10505,16 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B186" s="25"/>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="30" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C187" s="30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D187" s="26" t="n">
         <v>32</v>
@@ -10537,13 +10547,13 @@
         <v>16</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>299</v>
+        <v>29</v>
       </c>
       <c r="O187" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P187" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q187" s="1" t="n">
         <v>0</v>
@@ -10551,10 +10561,10 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="30" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C188" s="30" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D188" s="26" t="n">
         <v>16</v>
@@ -10563,14 +10573,11 @@
         <v>26</v>
       </c>
       <c r="F188" s="23"/>
-      <c r="G188" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H188" s="3" t="s">
-        <v>393</v>
+      <c r="G188" s="23" t="s">
+        <v>410</v>
       </c>
       <c r="I188" s="27" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J188" s="28" t="n">
         <f aca="false">J187+D187</f>
@@ -10595,7 +10602,7 @@
         <v>10</v>
       </c>
       <c r="P188" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q188" s="1" t="n">
         <v>0</v>
@@ -10603,21 +10610,21 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="30" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C189" s="30" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D189" s="26" t="n">
         <v>16</v>
       </c>
       <c r="E189" s="37"/>
       <c r="F189" s="23"/>
-      <c r="G189" s="38" t="n">
-        <v>1</v>
+      <c r="G189" s="23" t="s">
+        <v>413</v>
       </c>
       <c r="I189" s="27" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="J189" s="28" t="n">
         <f aca="false">J188+D188</f>
@@ -10650,10 +10657,10 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="30" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C190" s="30" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D190" s="26" t="n">
         <v>32</v>
@@ -10664,7 +10671,7 @@
         <v>1</v>
       </c>
       <c r="I190" s="27" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="J190" s="28" t="n">
         <f aca="false">J189+D189</f>
@@ -10683,13 +10690,13 @@
         <v>18</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>299</v>
+        <v>29</v>
       </c>
       <c r="O190" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P190" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q190" s="1" t="n">
         <v>0</v>
@@ -10697,10 +10704,10 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="30" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C191" s="30" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D191" s="26" t="n">
         <v>8</v>
@@ -10716,7 +10723,7 @@
         <v>27</v>
       </c>
       <c r="I191" s="27" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J191" s="28" t="n">
         <f aca="false">J190+D190</f>
@@ -10741,7 +10748,7 @@
         <v>10</v>
       </c>
       <c r="P191" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q191" s="1" t="n">
         <v>0</v>
@@ -10749,10 +10756,10 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="30" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C192" s="30" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D192" s="26" t="n">
         <v>24</v>
@@ -10842,16 +10849,16 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B197" s="25"/>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="30" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C198" s="30" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D198" s="26" t="n">
         <v>32</v>
@@ -10867,7 +10874,7 @@
         <v>393</v>
       </c>
       <c r="I198" s="27" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J198" s="28" t="n">
         <f aca="false">J171</f>
@@ -10886,10 +10893,10 @@
         <v>24</v>
       </c>
       <c r="N198" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="O198" s="3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P198" s="1" t="n">
         <v>1</v>
@@ -10900,10 +10907,10 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="30" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C199" s="30" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D199" s="26" t="n">
         <v>16</v>
@@ -10919,7 +10926,7 @@
         <v>27</v>
       </c>
       <c r="I199" s="27" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J199" s="28" t="n">
         <f aca="false">J198+D198</f>
@@ -10938,10 +10945,10 @@
         <v>25</v>
       </c>
       <c r="N199" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="O199" s="3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P199" s="1" t="n">
         <v>2</v>
@@ -10952,10 +10959,10 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="30" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C200" s="30" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D200" s="26" t="n">
         <v>8</v>
@@ -10971,7 +10978,7 @@
         <v>27</v>
       </c>
       <c r="I200" s="27" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="J200" s="28" t="n">
         <f aca="false">J199+D199</f>
@@ -10990,10 +10997,10 @@
         <v>25.5</v>
       </c>
       <c r="N200" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="O200" s="24" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P200" s="1" t="n">
         <v>3</v>
@@ -11024,7 +11031,7 @@
         <v>47</v>
       </c>
       <c r="C202" s="22" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D202" s="22" t="n">
         <v>5</v>
@@ -11420,7 +11427,7 @@
         <v>61</v>
       </c>
       <c r="C211" s="22" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D211" s="22" t="n">
         <v>5</v>
@@ -11516,10 +11523,10 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B215" s="12"/>
-      <c r="C215" s="39"/>
+      <c r="C215" s="40"/>
       <c r="D215" s="13"/>
       <c r="E215" s="13"/>
       <c r="F215" s="13"/>
@@ -11582,10 +11589,10 @@
     </row>
     <row r="217" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="30" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C217" s="22" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D217" s="22" t="n">
         <v>464</v>
@@ -11603,7 +11610,7 @@
         <v>27</v>
       </c>
       <c r="I217" s="23" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="J217" s="4" t="n">
         <v>0</v>
@@ -11635,10 +11642,10 @@
     </row>
     <row r="218" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="30" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C218" s="22" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D218" s="22" t="n">
         <v>8</v>
@@ -11654,7 +11661,7 @@
         <v>27</v>
       </c>
       <c r="I218" s="23" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="J218" s="4" t="n">
         <f aca="false">J217+D217</f>
@@ -11673,7 +11680,7 @@
         <v>14.5</v>
       </c>
       <c r="N218" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="O218" s="3" t="n">
         <v>1</v>
@@ -11690,7 +11697,7 @@
         <v>29</v>
       </c>
       <c r="C219" s="22" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D219" s="22" t="n">
         <v>8</v>
@@ -11752,11 +11759,11 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="40" t="s">
-        <v>440</v>
+      <c r="A222" s="41" t="s">
+        <v>443</v>
       </c>
       <c r="B222" s="12"/>
-      <c r="C222" s="39"/>
+      <c r="C222" s="40"/>
       <c r="D222" s="13"/>
       <c r="E222" s="13"/>
       <c r="F222" s="13"/>
@@ -11819,10 +11826,10 @@
     </row>
     <row r="224" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="30" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D224" s="22" t="n">
         <v>672</v>
@@ -11840,7 +11847,7 @@
         <v>27</v>
       </c>
       <c r="I224" s="23" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="J224" s="4" t="n">
         <v>0</v>
@@ -11895,11 +11902,11 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="40" t="s">
-        <v>442</v>
+      <c r="A228" s="41" t="s">
+        <v>445</v>
       </c>
       <c r="B228" s="12"/>
-      <c r="C228" s="39"/>
+      <c r="C228" s="40"/>
       <c r="D228" s="13"/>
       <c r="E228" s="13"/>
       <c r="F228" s="13"/>
@@ -11962,10 +11969,10 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="30" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C230" s="30" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D230" s="26" t="n">
         <v>32</v>
@@ -11978,10 +11985,10 @@
         <v>1</v>
       </c>
       <c r="H230" s="38" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="I230" s="27" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J230" s="4" t="n">
         <f aca="false">J220</f>
@@ -12000,10 +12007,10 @@
         <v>15</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="O230" s="3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P230" s="1" t="n">
         <v>2</v>
@@ -12014,10 +12021,10 @@
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="30" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C231" s="30" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D231" s="26" t="n">
         <v>16</v>
@@ -12026,7 +12033,7 @@
         <v>26</v>
       </c>
       <c r="F231" s="23" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G231" s="38" t="n">
         <v>1</v>
@@ -12035,7 +12042,7 @@
         <v>27</v>
       </c>
       <c r="I231" s="27" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J231" s="4" t="n">
         <f aca="false">J230+D230</f>
@@ -12054,10 +12061,10 @@
         <v>16</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="O231" s="3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P231" s="1" t="n">
         <v>1</v>
@@ -12071,7 +12078,7 @@
         <v>29</v>
       </c>
       <c r="C232" s="30" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D232" s="26" t="n">
         <v>8</v>
@@ -12085,7 +12092,7 @@
         <v>27</v>
       </c>
       <c r="I232" s="27" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="J232" s="4" t="n">
         <f aca="false">J231+D231</f>
@@ -12104,10 +12111,10 @@
         <v>16.5</v>
       </c>
       <c r="N232" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="O232" s="24" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P232" s="1" t="n">
         <v>3</v>
@@ -12121,7 +12128,7 @@
         <v>29</v>
       </c>
       <c r="C233" s="30" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D233" s="26" t="n">
         <v>8</v>
@@ -12204,11 +12211,11 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="40" t="s">
-        <v>448</v>
+      <c r="A236" s="41" t="s">
+        <v>451</v>
       </c>
       <c r="B236" s="12"/>
-      <c r="C236" s="39"/>
+      <c r="C236" s="40"/>
       <c r="D236" s="13"/>
       <c r="E236" s="13"/>
       <c r="F236" s="13"/>
@@ -12271,10 +12278,10 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="30" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C238" s="30" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D238" s="26" t="n">
         <v>32</v>
@@ -12290,7 +12297,7 @@
         <v>393</v>
       </c>
       <c r="I238" s="27" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J238" s="4" t="n">
         <f aca="false">J225</f>
@@ -12309,10 +12316,10 @@
         <v>21</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="O238" s="3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P238" s="1" t="n">
         <v>2</v>
@@ -12323,10 +12330,10 @@
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="30" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C239" s="30" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D239" s="26" t="n">
         <v>16</v>
@@ -12335,7 +12342,7 @@
         <v>26</v>
       </c>
       <c r="F239" s="23" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G239" s="38" t="n">
         <v>1</v>
@@ -12344,7 +12351,7 @@
         <v>27</v>
       </c>
       <c r="I239" s="27" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J239" s="4" t="n">
         <f aca="false">J238+D238</f>
@@ -12363,10 +12370,10 @@
         <v>22</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="O239" s="3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P239" s="1" t="n">
         <v>1</v>
@@ -12380,7 +12387,7 @@
         <v>29</v>
       </c>
       <c r="C240" s="30" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D240" s="26" t="n">
         <v>8</v>
@@ -12394,7 +12401,7 @@
         <v>27</v>
       </c>
       <c r="I240" s="27" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="J240" s="4" t="n">
         <f aca="false">J239+D239</f>
@@ -12413,10 +12420,10 @@
         <v>22.5</v>
       </c>
       <c r="N240" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="O240" s="24" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P240" s="1" t="n">
         <v>3</v>
@@ -12430,7 +12437,7 @@
         <v>29</v>
       </c>
       <c r="C241" s="30" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D241" s="26" t="n">
         <v>8</v>
@@ -12500,8 +12507,8 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="40" t="s">
-        <v>453</v>
+      <c r="A243" s="41" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="244" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12559,10 +12566,10 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="37" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C245" s="37" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D245" s="37" t="n">
         <v>32</v>
@@ -12578,9 +12585,9 @@
         <v>27</v>
       </c>
       <c r="I245" s="37" t="s">
-        <v>454</v>
-      </c>
-      <c r="J245" s="41" t="n">
+        <v>457</v>
+      </c>
+      <c r="J245" s="42" t="n">
         <v>0</v>
       </c>
       <c r="K245" s="37" t="n">
@@ -12596,7 +12603,7 @@
         <v>0</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O245" s="3" t="n">
         <v>1</v>
@@ -12610,7 +12617,7 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B246" s="37"/>
       <c r="C246" s="37"/>
@@ -12620,17 +12627,17 @@
       <c r="G246" s="37"/>
       <c r="H246" s="37"/>
       <c r="I246" s="37"/>
-      <c r="J246" s="41"/>
+      <c r="J246" s="42"/>
       <c r="K246" s="37"/>
       <c r="L246" s="27"/>
       <c r="M246" s="27"/>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="37" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C247" s="37" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D247" s="37" t="n">
         <v>5</v>
@@ -12646,9 +12653,9 @@
         <v>27</v>
       </c>
       <c r="I247" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J247" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J247" s="42" t="n">
         <f aca="false">J245+D245</f>
         <v>32</v>
       </c>
@@ -12665,7 +12672,7 @@
         <v>1</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O247" s="3" t="n">
         <v>1</v>
@@ -12679,10 +12686,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="37" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C248" s="37" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D248" s="37" t="n">
         <v>6</v>
@@ -12698,9 +12705,9 @@
         <v>27</v>
       </c>
       <c r="I248" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J248" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J248" s="42" t="n">
         <f aca="false">J247+D247</f>
         <v>37</v>
       </c>
@@ -12717,7 +12724,7 @@
         <v>1.15625</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O248" s="3" t="n">
         <v>1</v>
@@ -12731,10 +12738,10 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="37" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C249" s="37" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D249" s="37" t="n">
         <v>6</v>
@@ -12750,9 +12757,9 @@
         <v>27</v>
       </c>
       <c r="I249" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J249" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J249" s="42" t="n">
         <f aca="false">J248+D248</f>
         <v>43</v>
       </c>
@@ -12769,7 +12776,7 @@
         <v>1.34375</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O249" s="3" t="n">
         <v>1</v>
@@ -12783,10 +12790,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="37" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C250" s="37" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D250" s="37" t="n">
         <v>5</v>
@@ -12802,9 +12809,9 @@
         <v>27</v>
       </c>
       <c r="I250" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J250" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J250" s="42" t="n">
         <f aca="false">J249+D249</f>
         <v>49</v>
       </c>
@@ -12821,7 +12828,7 @@
         <v>1.53125</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O250" s="3" t="n">
         <v>1</v>
@@ -12835,10 +12842,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="37" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C251" s="37" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D251" s="37" t="n">
         <v>4</v>
@@ -12854,9 +12861,9 @@
         <v>27</v>
       </c>
       <c r="I251" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J251" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J251" s="42" t="n">
         <f aca="false">J250+D250</f>
         <v>54</v>
       </c>
@@ -12873,7 +12880,7 @@
         <v>1.6875</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O251" s="3" t="n">
         <v>1</v>
@@ -12887,10 +12894,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="37" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C252" s="37" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D252" s="37" t="n">
         <v>5</v>
@@ -12906,9 +12913,9 @@
         <v>27</v>
       </c>
       <c r="I252" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="J252" s="41" t="n">
+        <v>467</v>
+      </c>
+      <c r="J252" s="42" t="n">
         <f aca="false">J251+D251</f>
         <v>58</v>
       </c>
@@ -12925,7 +12932,7 @@
         <v>1.8125</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O252" s="3" t="n">
         <v>1</v>
@@ -12939,10 +12946,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="37" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C253" s="37" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D253" s="37" t="n">
         <v>1</v>
@@ -12958,9 +12965,9 @@
         <v>27</v>
       </c>
       <c r="I253" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J253" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J253" s="42" t="n">
         <f aca="false">J252+D252</f>
         <v>63</v>
       </c>
@@ -12977,7 +12984,7 @@
         <v>1.96875</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O253" s="3" t="n">
         <v>1</v>
@@ -13001,14 +13008,14 @@
       <c r="G254" s="37"/>
       <c r="H254" s="37"/>
       <c r="I254" s="37"/>
-      <c r="J254" s="41"/>
+      <c r="J254" s="42"/>
       <c r="K254" s="37"/>
       <c r="L254" s="27"/>
       <c r="M254" s="27"/>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B255" s="37"/>
       <c r="C255" s="37"/>
@@ -13018,17 +13025,17 @@
       <c r="G255" s="37"/>
       <c r="H255" s="37"/>
       <c r="I255" s="37"/>
-      <c r="J255" s="41"/>
+      <c r="J255" s="42"/>
       <c r="K255" s="37"/>
       <c r="L255" s="27"/>
       <c r="M255" s="27"/>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="37" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C256" s="37" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D256" s="37" t="n">
         <v>1</v>
@@ -13044,9 +13051,9 @@
         <v>27</v>
       </c>
       <c r="I256" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J256" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J256" s="42" t="n">
         <f aca="false">J247</f>
         <v>32</v>
       </c>
@@ -13063,7 +13070,7 @@
         <v>1</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O256" s="3" t="n">
         <v>1</v>
@@ -13077,10 +13084,10 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="37" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C257" s="37" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D257" s="37" t="n">
         <v>5</v>
@@ -13096,9 +13103,9 @@
         <v>27</v>
       </c>
       <c r="I257" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="J257" s="41" t="n">
+        <v>467</v>
+      </c>
+      <c r="J257" s="42" t="n">
         <f aca="false">J256+D256</f>
         <v>33</v>
       </c>
@@ -13115,7 +13122,7 @@
         <v>1.03125</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O257" s="3" t="n">
         <v>1</v>
@@ -13129,10 +13136,10 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="37" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C258" s="37" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D258" s="37" t="n">
         <v>4</v>
@@ -13148,9 +13155,9 @@
         <v>27</v>
       </c>
       <c r="I258" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J258" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J258" s="42" t="n">
         <f aca="false">J257+D257</f>
         <v>38</v>
       </c>
@@ -13167,7 +13174,7 @@
         <v>1.1875</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O258" s="3" t="n">
         <v>1</v>
@@ -13181,10 +13188,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="37" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C259" s="37" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D259" s="37" t="n">
         <v>5</v>
@@ -13200,9 +13207,9 @@
         <v>27</v>
       </c>
       <c r="I259" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J259" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J259" s="42" t="n">
         <f aca="false">J258+D258</f>
         <v>42</v>
       </c>
@@ -13219,7 +13226,7 @@
         <v>1.3125</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O259" s="3" t="n">
         <v>1</v>
@@ -13233,10 +13240,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="37" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C260" s="37" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D260" s="37" t="n">
         <v>6</v>
@@ -13252,9 +13259,9 @@
         <v>27</v>
       </c>
       <c r="I260" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J260" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J260" s="42" t="n">
         <f aca="false">J259+D259</f>
         <v>47</v>
       </c>
@@ -13271,7 +13278,7 @@
         <v>1.46875</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O260" s="3" t="n">
         <v>1</v>
@@ -13285,10 +13292,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="37" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C261" s="37" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D261" s="37" t="n">
         <v>6</v>
@@ -13304,9 +13311,9 @@
         <v>27</v>
       </c>
       <c r="I261" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J261" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J261" s="42" t="n">
         <f aca="false">J260+D260</f>
         <v>53</v>
       </c>
@@ -13323,7 +13330,7 @@
         <v>1.65625</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O261" s="3" t="n">
         <v>1</v>
@@ -13337,10 +13344,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="37" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C262" s="37" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D262" s="37" t="n">
         <v>5</v>
@@ -13356,9 +13363,9 @@
         <v>27</v>
       </c>
       <c r="I262" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J262" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J262" s="42" t="n">
         <f aca="false">J260+D260</f>
         <v>53</v>
       </c>
@@ -13375,7 +13382,7 @@
         <v>1.65625</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O262" s="3" t="n">
         <v>1</v>
@@ -13399,17 +13406,17 @@
       <c r="G263" s="37"/>
       <c r="H263" s="37"/>
       <c r="I263" s="37"/>
-      <c r="J263" s="41"/>
+      <c r="J263" s="42"/>
       <c r="K263" s="37"/>
       <c r="L263" s="27"/>
       <c r="M263" s="27"/>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="37" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C264" s="37" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D264" s="37" t="n">
         <v>8</v>
@@ -13425,9 +13432,9 @@
         <v>27</v>
       </c>
       <c r="I264" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J264" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J264" s="42" t="n">
         <f aca="false">J253+D253</f>
         <v>64</v>
       </c>
@@ -13444,7 +13451,7 @@
         <v>2</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O264" s="3" t="n">
         <v>1</v>
@@ -13458,10 +13465,10 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C265" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D265" s="37" t="n">
         <v>8</v>
@@ -13477,9 +13484,9 @@
         <v>27</v>
       </c>
       <c r="I265" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J265" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J265" s="42" t="n">
         <f aca="false">J264+D264</f>
         <v>72</v>
       </c>
@@ -13496,7 +13503,7 @@
         <v>2.25</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O265" s="3" t="n">
         <v>1</v>
@@ -13510,10 +13517,10 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="37" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C266" s="37" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D266" s="37" t="n">
         <v>16</v>
@@ -13529,9 +13536,9 @@
         <v>27</v>
       </c>
       <c r="I266" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J266" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J266" s="42" t="n">
         <f aca="false">J265+D265</f>
         <v>80</v>
       </c>
@@ -13573,7 +13580,7 @@
       <c r="I267" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="J267" s="41" t="n">
+      <c r="J267" s="42" t="n">
         <f aca="false">J266+D266</f>
         <v>96</v>
       </c>
@@ -13591,14 +13598,14 @@
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="40" t="s">
-        <v>471</v>
+      <c r="A268" s="41" t="s">
+        <v>474</v>
       </c>
       <c r="F268" s="37"/>
       <c r="G268" s="37"/>
       <c r="H268" s="37"/>
       <c r="I268" s="37"/>
-      <c r="J268" s="41"/>
+      <c r="J268" s="42"/>
       <c r="K268" s="37"/>
       <c r="L268" s="27"/>
       <c r="M268" s="27"/>
@@ -13671,16 +13678,16 @@
       </c>
       <c r="I270" s="23"/>
       <c r="N270" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O270" s="24"/>
     </row>
-    <row r="271" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="22" t="s">
-        <v>473</v>
-      </c>
-      <c r="C271" s="43" t="s">
-        <v>474</v>
+        <v>476</v>
+      </c>
+      <c r="C271" s="44" t="s">
+        <v>477</v>
       </c>
       <c r="D271" s="1" t="n">
         <v>9</v>
@@ -13688,7 +13695,7 @@
       <c r="E271" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F271" s="44"/>
+      <c r="F271" s="45"/>
       <c r="G271" s="37" t="n">
         <v>0</v>
       </c>
@@ -13696,7 +13703,7 @@
         <v>27</v>
       </c>
       <c r="I271" s="37" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="J271" s="4" t="n">
         <f aca="false">J267</f>
@@ -13715,24 +13722,24 @@
         <v>3</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O271" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P271" s="42" t="n">
+      <c r="P271" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="Q271" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q271" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="C272" s="43" t="s">
-        <v>477</v>
+        <v>479</v>
+      </c>
+      <c r="C272" s="44" t="s">
+        <v>480</v>
       </c>
       <c r="D272" s="1" t="n">
         <v>5</v>
@@ -13740,7 +13747,7 @@
       <c r="E272" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F272" s="44"/>
+      <c r="F272" s="45"/>
       <c r="G272" s="37" t="n">
         <v>0</v>
       </c>
@@ -13748,9 +13755,9 @@
         <v>27</v>
       </c>
       <c r="I272" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J272" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J272" s="42" t="n">
         <f aca="false">J271+D271</f>
         <v>105</v>
       </c>
@@ -13767,24 +13774,24 @@
         <v>3.28125</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O272" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P272" s="42" t="n">
+      <c r="P272" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="Q272" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q272" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="C273" s="43" t="s">
-        <v>479</v>
+        <v>481</v>
+      </c>
+      <c r="C273" s="44" t="s">
+        <v>482</v>
       </c>
       <c r="D273" s="1" t="n">
         <v>4</v>
@@ -13792,7 +13799,7 @@
       <c r="E273" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F273" s="44"/>
+      <c r="F273" s="45"/>
       <c r="G273" s="37" t="n">
         <v>0</v>
       </c>
@@ -13800,9 +13807,9 @@
         <v>27</v>
       </c>
       <c r="I273" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J273" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J273" s="42" t="n">
         <f aca="false">J272+D272</f>
         <v>110</v>
       </c>
@@ -13819,24 +13826,24 @@
         <v>3.4375</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O273" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P273" s="42" t="n">
+      <c r="P273" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="Q273" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q273" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="C274" s="43" t="s">
-        <v>481</v>
+        <v>483</v>
+      </c>
+      <c r="C274" s="44" t="s">
+        <v>484</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>4</v>
@@ -13844,7 +13851,7 @@
       <c r="E274" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F274" s="44"/>
+      <c r="F274" s="45"/>
       <c r="G274" s="37" t="n">
         <v>0</v>
       </c>
@@ -13852,9 +13859,9 @@
         <v>27</v>
       </c>
       <c r="I274" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J274" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J274" s="42" t="n">
         <f aca="false">J273+D273</f>
         <v>114</v>
       </c>
@@ -13871,24 +13878,24 @@
         <v>3.5625</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O274" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P274" s="42" t="n">
+      <c r="P274" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="Q274" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q274" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="C275" s="43" t="s">
-        <v>483</v>
+        <v>485</v>
+      </c>
+      <c r="C275" s="44" t="s">
+        <v>486</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>3</v>
@@ -13896,7 +13903,7 @@
       <c r="E275" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F275" s="44"/>
+      <c r="F275" s="45"/>
       <c r="G275" s="37" t="n">
         <v>0</v>
       </c>
@@ -13904,9 +13911,9 @@
         <v>27</v>
       </c>
       <c r="I275" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J275" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J275" s="42" t="n">
         <f aca="false">J274+D274</f>
         <v>118</v>
       </c>
@@ -13923,24 +13930,24 @@
         <v>3.6875</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O275" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P275" s="42" t="n">
+      <c r="P275" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="Q275" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q275" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="C276" s="43" t="s">
-        <v>485</v>
+        <v>487</v>
+      </c>
+      <c r="C276" s="44" t="s">
+        <v>488</v>
       </c>
       <c r="D276" s="1" t="n">
         <v>1</v>
@@ -13948,7 +13955,7 @@
       <c r="E276" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F276" s="44"/>
+      <c r="F276" s="45"/>
       <c r="G276" s="37" t="n">
         <v>0</v>
       </c>
@@ -13956,9 +13963,9 @@
         <v>27</v>
       </c>
       <c r="I276" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J276" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J276" s="42" t="n">
         <f aca="false">J275+D275</f>
         <v>121</v>
       </c>
@@ -13975,24 +13982,24 @@
         <v>3.78125</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O276" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P276" s="42" t="n">
+      <c r="P276" s="43" t="n">
         <v>6</v>
       </c>
-      <c r="Q276" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q276" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="C277" s="43" t="s">
-        <v>487</v>
+        <v>489</v>
+      </c>
+      <c r="C277" s="44" t="s">
+        <v>490</v>
       </c>
       <c r="D277" s="1" t="n">
         <v>1</v>
@@ -14000,17 +14007,17 @@
       <c r="E277" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F277" s="44"/>
+      <c r="F277" s="45"/>
       <c r="G277" s="37" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H277" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I277" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J277" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J277" s="42" t="n">
         <f aca="false">J276+D276</f>
         <v>122</v>
       </c>
@@ -14018,24 +14025,24 @@
       <c r="L277" s="27"/>
       <c r="M277" s="27"/>
       <c r="N277" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O277" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P277" s="42" t="n">
+      <c r="P277" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="Q277" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q277" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="C278" s="43" t="s">
-        <v>490</v>
+        <v>492</v>
+      </c>
+      <c r="C278" s="44" t="s">
+        <v>493</v>
       </c>
       <c r="D278" s="1" t="n">
         <v>5</v>
@@ -14043,7 +14050,7 @@
       <c r="E278" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F278" s="44"/>
+      <c r="F278" s="45"/>
       <c r="G278" s="37" t="n">
         <v>0</v>
       </c>
@@ -14051,9 +14058,9 @@
         <v>27</v>
       </c>
       <c r="I278" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J278" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J278" s="42" t="n">
         <f aca="false">J277+D277</f>
         <v>123</v>
       </c>
@@ -14069,61 +14076,61 @@
         <f aca="false">J278/32</f>
         <v>3.84375</v>
       </c>
-      <c r="N278" s="42" t="s">
+      <c r="N278" s="43" t="s">
         <v>29</v>
       </c>
       <c r="O278" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P278" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q278" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="42" t="s">
+      <c r="P278" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q278" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="43" t="s">
         <v>58</v>
       </c>
       <c r="B279" s="22"/>
-      <c r="C279" s="43"/>
+      <c r="C279" s="44"/>
       <c r="D279" s="1"/>
       <c r="E279" s="37"/>
-      <c r="F279" s="44"/>
+      <c r="F279" s="45"/>
       <c r="G279" s="37"/>
       <c r="H279" s="37"/>
       <c r="I279" s="37"/>
-      <c r="J279" s="41"/>
+      <c r="J279" s="42"/>
       <c r="K279" s="27"/>
       <c r="L279" s="27"/>
       <c r="M279" s="27"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B280" s="22"/>
-      <c r="C280" s="43"/>
+      <c r="C280" s="44"/>
       <c r="D280" s="1"/>
       <c r="E280" s="37"/>
-      <c r="F280" s="44"/>
+      <c r="F280" s="45"/>
       <c r="G280" s="37"/>
       <c r="H280" s="37"/>
       <c r="I280" s="37"/>
-      <c r="J280" s="41"/>
+      <c r="J280" s="42"/>
       <c r="K280" s="27"/>
       <c r="L280" s="27"/>
       <c r="M280" s="27"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="C281" s="43" t="s">
-        <v>490</v>
+        <v>492</v>
+      </c>
+      <c r="C281" s="44" t="s">
+        <v>493</v>
       </c>
       <c r="D281" s="1" t="n">
         <v>5</v>
@@ -14131,7 +14138,7 @@
       <c r="E281" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F281" s="44"/>
+      <c r="F281" s="45"/>
       <c r="G281" s="37" t="n">
         <v>0</v>
       </c>
@@ -14139,9 +14146,9 @@
         <v>27</v>
       </c>
       <c r="I281" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J281" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J281" s="42" t="n">
         <f aca="false">J267</f>
         <v>96</v>
       </c>
@@ -14157,25 +14164,25 @@
         <f aca="false">J281/32</f>
         <v>3</v>
       </c>
-      <c r="N281" s="42" t="s">
+      <c r="N281" s="43" t="s">
         <v>29</v>
       </c>
       <c r="O281" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P281" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q281" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P281" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q281" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="C282" s="43" t="s">
-        <v>487</v>
+        <v>489</v>
+      </c>
+      <c r="C282" s="44" t="s">
+        <v>490</v>
       </c>
       <c r="D282" s="1" t="n">
         <v>1</v>
@@ -14183,17 +14190,17 @@
       <c r="E282" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F282" s="44"/>
+      <c r="F282" s="45"/>
       <c r="G282" s="37" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H282" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I282" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J282" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J282" s="42" t="n">
         <f aca="false">J281+D281</f>
         <v>101</v>
       </c>
@@ -14210,24 +14217,24 @@
         <v>3.15625</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O282" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P282" s="42" t="n">
+      <c r="P282" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="Q282" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q282" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="C283" s="43" t="s">
-        <v>485</v>
+        <v>487</v>
+      </c>
+      <c r="C283" s="44" t="s">
+        <v>488</v>
       </c>
       <c r="D283" s="1" t="n">
         <v>1</v>
@@ -14235,17 +14242,17 @@
       <c r="E283" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F283" s="44"/>
+      <c r="F283" s="45"/>
       <c r="G283" s="37" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H283" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I283" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J283" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J283" s="42" t="n">
         <f aca="false">J282+D282</f>
         <v>102</v>
       </c>
@@ -14262,24 +14269,24 @@
         <v>3.1875</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O283" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P283" s="42" t="n">
+      <c r="P283" s="43" t="n">
         <v>7</v>
       </c>
-      <c r="Q283" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q283" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="C284" s="43" t="s">
-        <v>483</v>
+        <v>485</v>
+      </c>
+      <c r="C284" s="44" t="s">
+        <v>486</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>3</v>
@@ -14287,17 +14294,17 @@
       <c r="E284" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F284" s="44"/>
+      <c r="F284" s="45"/>
       <c r="G284" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H284" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I284" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J284" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J284" s="42" t="n">
         <f aca="false">J283+D283</f>
         <v>103</v>
       </c>
@@ -14314,24 +14321,24 @@
         <v>3.21875</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O284" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P284" s="42" t="n">
+      <c r="P284" s="43" t="n">
         <v>6</v>
       </c>
-      <c r="Q284" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q284" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="C285" s="43" t="s">
-        <v>481</v>
+        <v>483</v>
+      </c>
+      <c r="C285" s="44" t="s">
+        <v>484</v>
       </c>
       <c r="D285" s="1" t="n">
         <v>4</v>
@@ -14339,17 +14346,17 @@
       <c r="E285" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F285" s="44"/>
+      <c r="F285" s="45"/>
       <c r="G285" s="37" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H285" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I285" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J285" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J285" s="42" t="n">
         <f aca="false">J284+D284</f>
         <v>106</v>
       </c>
@@ -14366,24 +14373,24 @@
         <v>3.3125</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O285" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P285" s="42" t="n">
+      <c r="P285" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="Q285" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q285" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="C286" s="43" t="s">
-        <v>479</v>
+        <v>481</v>
+      </c>
+      <c r="C286" s="44" t="s">
+        <v>482</v>
       </c>
       <c r="D286" s="1" t="n">
         <v>4</v>
@@ -14391,17 +14398,17 @@
       <c r="E286" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F286" s="44"/>
+      <c r="F286" s="45"/>
       <c r="G286" s="37" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H286" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I286" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J286" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J286" s="42" t="n">
         <f aca="false">J285+D285</f>
         <v>110</v>
       </c>
@@ -14418,24 +14425,24 @@
         <v>3.4375</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O286" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P286" s="42" t="n">
+      <c r="P286" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="Q286" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q286" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="C287" s="43" t="s">
-        <v>477</v>
+        <v>479</v>
+      </c>
+      <c r="C287" s="44" t="s">
+        <v>480</v>
       </c>
       <c r="D287" s="1" t="n">
         <v>5</v>
@@ -14443,17 +14450,17 @@
       <c r="E287" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F287" s="44"/>
+      <c r="F287" s="45"/>
       <c r="G287" s="37" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H287" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I287" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J287" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J287" s="42" t="n">
         <f aca="false">J286+D286</f>
         <v>114</v>
       </c>
@@ -14470,24 +14477,24 @@
         <v>3.5625</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O287" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P287" s="42" t="n">
+      <c r="P287" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="Q287" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q287" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="C288" s="43" t="s">
-        <v>474</v>
+        <v>497</v>
+      </c>
+      <c r="C288" s="44" t="s">
+        <v>477</v>
       </c>
       <c r="D288" s="1" t="n">
         <v>9</v>
@@ -14495,17 +14502,17 @@
       <c r="E288" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F288" s="44"/>
+      <c r="F288" s="45"/>
       <c r="G288" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H288" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I288" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J288" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J288" s="42" t="n">
         <f aca="false">J287+D287</f>
         <v>119</v>
       </c>
@@ -14522,31 +14529,31 @@
         <v>3.71875</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O288" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P288" s="42" t="n">
+      <c r="P288" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="Q288" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="42" t="s">
+      <c r="Q288" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="43" t="s">
         <v>58</v>
       </c>
       <c r="B289" s="22"/>
-      <c r="C289" s="43"/>
+      <c r="C289" s="44"/>
       <c r="D289" s="1"/>
       <c r="E289" s="37"/>
-      <c r="F289" s="44"/>
+      <c r="F289" s="45"/>
       <c r="G289" s="37"/>
       <c r="H289" s="37"/>
       <c r="I289" s="37"/>
-      <c r="J289" s="41"/>
+      <c r="J289" s="42"/>
       <c r="K289" s="27"/>
       <c r="L289" s="27"/>
       <c r="M289" s="27"/>
@@ -14555,10 +14562,10 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="3" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D290" s="1" t="n">
         <v>8</v>
@@ -14568,15 +14575,15 @@
       </c>
       <c r="F290" s="37"/>
       <c r="G290" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H290" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I290" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J290" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J290" s="42" t="n">
         <f aca="false">J278+D278</f>
         <v>128</v>
       </c>
@@ -14593,7 +14600,7 @@
         <v>4</v>
       </c>
       <c r="N290" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O290" s="3" t="n">
         <v>3</v>
@@ -14607,10 +14614,10 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="3" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>8</v>
@@ -14620,15 +14627,15 @@
       </c>
       <c r="F291" s="37"/>
       <c r="G291" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H291" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I291" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J291" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J291" s="42" t="n">
         <f aca="false">J290+D290</f>
         <v>136</v>
       </c>
@@ -14645,7 +14652,7 @@
         <v>4.25</v>
       </c>
       <c r="N291" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O291" s="3" t="n">
         <v>3</v>
@@ -14659,10 +14666,10 @@
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B292" s="3" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D292" s="1" t="n">
         <v>8</v>
@@ -14672,15 +14679,15 @@
       </c>
       <c r="F292" s="37"/>
       <c r="G292" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H292" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I292" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J292" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J292" s="42" t="n">
         <f aca="false">J291+D291</f>
         <v>144</v>
       </c>
@@ -14697,7 +14704,7 @@
         <v>4.5</v>
       </c>
       <c r="N292" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O292" s="3" t="n">
         <v>3</v>
@@ -14711,10 +14718,10 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="3" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D293" s="1" t="n">
         <v>8</v>
@@ -14724,15 +14731,15 @@
       </c>
       <c r="F293" s="37"/>
       <c r="G293" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H293" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I293" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J293" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J293" s="42" t="n">
         <f aca="false">J292+D292</f>
         <v>152</v>
       </c>
@@ -14749,7 +14756,7 @@
         <v>4.75</v>
       </c>
       <c r="N293" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O293" s="3" t="n">
         <v>3</v>
@@ -14763,10 +14770,10 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="3" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D294" s="1" t="n">
         <v>8</v>
@@ -14776,15 +14783,15 @@
       </c>
       <c r="F294" s="37"/>
       <c r="G294" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H294" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I294" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J294" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J294" s="42" t="n">
         <f aca="false">J293+D293</f>
         <v>160</v>
       </c>
@@ -14801,7 +14808,7 @@
         <v>5</v>
       </c>
       <c r="N294" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O294" s="3" t="n">
         <v>3</v>
@@ -14815,10 +14822,10 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="3" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D295" s="1" t="n">
         <v>8</v>
@@ -14828,15 +14835,15 @@
       </c>
       <c r="F295" s="37"/>
       <c r="G295" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H295" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I295" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J295" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J295" s="42" t="n">
         <f aca="false">J294+D294</f>
         <v>168</v>
       </c>
@@ -14853,7 +14860,7 @@
         <v>5.25</v>
       </c>
       <c r="N295" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O295" s="3" t="n">
         <v>3</v>
@@ -14867,10 +14874,10 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="3" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D296" s="1" t="n">
         <v>8</v>
@@ -14880,15 +14887,15 @@
       </c>
       <c r="F296" s="37"/>
       <c r="G296" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H296" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I296" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J296" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J296" s="42" t="n">
         <f aca="false">J295+D295</f>
         <v>176</v>
       </c>
@@ -14905,7 +14912,7 @@
         <v>5.5</v>
       </c>
       <c r="N296" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O296" s="3" t="n">
         <v>3</v>
@@ -14919,10 +14926,10 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="3" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D297" s="1" t="n">
         <v>8</v>
@@ -14932,15 +14939,15 @@
       </c>
       <c r="F297" s="37"/>
       <c r="G297" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H297" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I297" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J297" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J297" s="42" t="n">
         <f aca="false">J296+D296</f>
         <v>184</v>
       </c>
@@ -14957,7 +14964,7 @@
         <v>5.75</v>
       </c>
       <c r="N297" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O297" s="3" t="n">
         <v>3</v>
@@ -14971,10 +14978,10 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D298" s="1" t="n">
         <v>8</v>
@@ -14984,15 +14991,15 @@
       </c>
       <c r="F298" s="37"/>
       <c r="G298" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H298" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I298" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J298" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J298" s="42" t="n">
         <f aca="false">J297+D297</f>
         <v>192</v>
       </c>
@@ -15009,7 +15016,7 @@
         <v>6</v>
       </c>
       <c r="N298" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O298" s="3" t="n">
         <v>3</v>
@@ -15023,10 +15030,10 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="3" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D299" s="1" t="n">
         <v>8</v>
@@ -15036,15 +15043,15 @@
       </c>
       <c r="F299" s="37"/>
       <c r="G299" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H299" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I299" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J299" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J299" s="42" t="n">
         <f aca="false">J298+D298</f>
         <v>200</v>
       </c>
@@ -15061,7 +15068,7 @@
         <v>6.25</v>
       </c>
       <c r="N299" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O299" s="3" t="n">
         <v>3</v>
@@ -15075,10 +15082,10 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="3" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D300" s="1" t="n">
         <v>8</v>
@@ -15088,15 +15095,15 @@
       </c>
       <c r="F300" s="37"/>
       <c r="G300" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H300" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I300" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J300" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J300" s="42" t="n">
         <f aca="false">J299+D299</f>
         <v>208</v>
       </c>
@@ -15113,7 +15120,7 @@
         <v>6.5</v>
       </c>
       <c r="N300" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O300" s="3" t="n">
         <v>3</v>
@@ -15127,10 +15134,10 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="3" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D301" s="1" t="n">
         <v>8</v>
@@ -15140,15 +15147,15 @@
       </c>
       <c r="F301" s="37"/>
       <c r="G301" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H301" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I301" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J301" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J301" s="42" t="n">
         <f aca="false">J300+D300</f>
         <v>216</v>
       </c>
@@ -15165,7 +15172,7 @@
         <v>6.75</v>
       </c>
       <c r="N301" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O301" s="3" t="n">
         <v>3</v>
@@ -15179,10 +15186,10 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="3" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D302" s="1" t="n">
         <v>8</v>
@@ -15192,15 +15199,15 @@
       </c>
       <c r="F302" s="37"/>
       <c r="G302" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H302" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I302" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J302" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J302" s="42" t="n">
         <f aca="false">J301+D301</f>
         <v>224</v>
       </c>
@@ -15217,7 +15224,7 @@
         <v>7</v>
       </c>
       <c r="N302" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O302" s="3" t="n">
         <v>3</v>
@@ -15231,10 +15238,10 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D303" s="1" t="n">
         <v>16</v>
@@ -15246,15 +15253,15 @@
         <v>119</v>
       </c>
       <c r="G303" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H303" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I303" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J303" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J303" s="42" t="n">
         <f aca="false">J302+D302</f>
         <v>232</v>
       </c>
@@ -15271,7 +15278,7 @@
         <v>7.25</v>
       </c>
       <c r="N303" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O303" s="3" t="n">
         <v>1</v>
@@ -15285,10 +15292,10 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="3" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>8</v>
@@ -15298,15 +15305,15 @@
       </c>
       <c r="F304" s="37"/>
       <c r="G304" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H304" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I304" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J304" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J304" s="42" t="n">
         <f aca="false">J303+D303</f>
         <v>248</v>
       </c>
@@ -15323,7 +15330,7 @@
         <v>7.75</v>
       </c>
       <c r="N304" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O304" s="3" t="n">
         <v>2</v>
@@ -15343,7 +15350,7 @@
       <c r="G305" s="37"/>
       <c r="H305" s="37"/>
       <c r="I305" s="37"/>
-      <c r="J305" s="41" t="n">
+      <c r="J305" s="42" t="n">
         <f aca="false">J304+D304</f>
         <v>256</v>
       </c>
@@ -15361,10 +15368,10 @@
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="40" t="s">
-        <v>520</v>
-      </c>
-      <c r="J306" s="41"/>
+      <c r="A306" s="41" t="s">
+        <v>523</v>
+      </c>
+      <c r="J306" s="42"/>
       <c r="K306" s="27"/>
       <c r="L306" s="27"/>
       <c r="M306" s="27"/>
@@ -15438,16 +15445,16 @@
       </c>
       <c r="I308" s="23"/>
       <c r="N308" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O308" s="24"/>
     </row>
-    <row r="309" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B309" s="22" t="s">
-        <v>521</v>
-      </c>
-      <c r="C309" s="43" t="s">
-        <v>522</v>
+        <v>524</v>
+      </c>
+      <c r="C309" s="44" t="s">
+        <v>525</v>
       </c>
       <c r="D309" s="1" t="n">
         <v>9</v>
@@ -15455,7 +15462,7 @@
       <c r="E309" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F309" s="44"/>
+      <c r="F309" s="45"/>
       <c r="G309" s="37" t="n">
         <v>0</v>
       </c>
@@ -15463,7 +15470,7 @@
         <v>27</v>
       </c>
       <c r="I309" s="37" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="J309" s="4" t="n">
         <f aca="false">J305</f>
@@ -15482,24 +15489,24 @@
         <v>8</v>
       </c>
       <c r="N309" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O309" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P309" s="42" t="n">
+      <c r="P309" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="Q309" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q309" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="C310" s="43" t="s">
-        <v>523</v>
+        <v>479</v>
+      </c>
+      <c r="C310" s="44" t="s">
+        <v>526</v>
       </c>
       <c r="D310" s="1" t="n">
         <v>5</v>
@@ -15507,7 +15514,7 @@
       <c r="E310" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F310" s="44"/>
+      <c r="F310" s="45"/>
       <c r="G310" s="37" t="n">
         <v>0</v>
       </c>
@@ -15515,9 +15522,9 @@
         <v>27</v>
       </c>
       <c r="I310" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J310" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J310" s="42" t="n">
         <f aca="false">J309+D309</f>
         <v>265</v>
       </c>
@@ -15534,24 +15541,24 @@
         <v>8.28125</v>
       </c>
       <c r="N310" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O310" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P310" s="42" t="n">
+      <c r="P310" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="Q310" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q310" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="C311" s="43" t="s">
-        <v>524</v>
+        <v>481</v>
+      </c>
+      <c r="C311" s="44" t="s">
+        <v>527</v>
       </c>
       <c r="D311" s="1" t="n">
         <v>4</v>
@@ -15559,7 +15566,7 @@
       <c r="E311" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F311" s="44"/>
+      <c r="F311" s="45"/>
       <c r="G311" s="37" t="n">
         <v>0</v>
       </c>
@@ -15567,9 +15574,9 @@
         <v>27</v>
       </c>
       <c r="I311" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J311" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J311" s="42" t="n">
         <f aca="false">J310+D310</f>
         <v>270</v>
       </c>
@@ -15586,24 +15593,24 @@
         <v>8.4375</v>
       </c>
       <c r="N311" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O311" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P311" s="42" t="n">
+      <c r="P311" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="Q311" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q311" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="C312" s="43" t="s">
-        <v>525</v>
+        <v>483</v>
+      </c>
+      <c r="C312" s="44" t="s">
+        <v>528</v>
       </c>
       <c r="D312" s="1" t="n">
         <v>4</v>
@@ -15611,7 +15618,7 @@
       <c r="E312" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F312" s="44"/>
+      <c r="F312" s="45"/>
       <c r="G312" s="37" t="n">
         <v>0</v>
       </c>
@@ -15619,9 +15626,9 @@
         <v>27</v>
       </c>
       <c r="I312" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J312" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J312" s="42" t="n">
         <f aca="false">J311+D311</f>
         <v>274</v>
       </c>
@@ -15638,24 +15645,24 @@
         <v>8.5625</v>
       </c>
       <c r="N312" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O312" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P312" s="42" t="n">
+      <c r="P312" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="Q312" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q312" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="C313" s="43" t="s">
-        <v>526</v>
+        <v>485</v>
+      </c>
+      <c r="C313" s="44" t="s">
+        <v>529</v>
       </c>
       <c r="D313" s="1" t="n">
         <v>3</v>
@@ -15663,7 +15670,7 @@
       <c r="E313" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F313" s="44"/>
+      <c r="F313" s="45"/>
       <c r="G313" s="37" t="n">
         <v>0</v>
       </c>
@@ -15671,9 +15678,9 @@
         <v>27</v>
       </c>
       <c r="I313" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J313" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J313" s="42" t="n">
         <f aca="false">J312+D312</f>
         <v>278</v>
       </c>
@@ -15690,24 +15697,24 @@
         <v>8.6875</v>
       </c>
       <c r="N313" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O313" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P313" s="42" t="n">
+      <c r="P313" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="Q313" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q313" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="C314" s="43" t="s">
-        <v>527</v>
+        <v>487</v>
+      </c>
+      <c r="C314" s="44" t="s">
+        <v>530</v>
       </c>
       <c r="D314" s="1" t="n">
         <v>1</v>
@@ -15715,17 +15722,17 @@
       <c r="E314" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F314" s="44"/>
+      <c r="F314" s="45"/>
       <c r="G314" s="37" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H314" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I314" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J314" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J314" s="42" t="n">
         <f aca="false">J313+D313</f>
         <v>281</v>
       </c>
@@ -15742,24 +15749,24 @@
         <v>8.78125</v>
       </c>
       <c r="N314" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O314" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P314" s="42" t="n">
+      <c r="P314" s="43" t="n">
         <v>6</v>
       </c>
-      <c r="Q314" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q314" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="C315" s="43" t="s">
-        <v>529</v>
+        <v>531</v>
+      </c>
+      <c r="C315" s="44" t="s">
+        <v>532</v>
       </c>
       <c r="D315" s="1" t="n">
         <v>1</v>
@@ -15767,17 +15774,17 @@
       <c r="E315" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F315" s="44"/>
+      <c r="F315" s="45"/>
       <c r="G315" s="37" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H315" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I315" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J315" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J315" s="42" t="n">
         <f aca="false">J314+D314</f>
         <v>282</v>
       </c>
@@ -15794,24 +15801,24 @@
         <v>8.8125</v>
       </c>
       <c r="N315" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O315" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P315" s="42" t="n">
+      <c r="P315" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="Q315" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q315" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="C316" s="43" t="s">
-        <v>530</v>
+        <v>492</v>
+      </c>
+      <c r="C316" s="44" t="s">
+        <v>533</v>
       </c>
       <c r="D316" s="1" t="n">
         <v>5</v>
@@ -15819,7 +15826,7 @@
       <c r="E316" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F316" s="44"/>
+      <c r="F316" s="45"/>
       <c r="G316" s="37" t="n">
         <v>0</v>
       </c>
@@ -15827,9 +15834,9 @@
         <v>27</v>
       </c>
       <c r="I316" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J316" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J316" s="42" t="n">
         <f aca="false">J315+D315</f>
         <v>283</v>
       </c>
@@ -15845,61 +15852,61 @@
         <f aca="false">J316/32</f>
         <v>8.84375</v>
       </c>
-      <c r="N316" s="42" t="s">
+      <c r="N316" s="43" t="s">
         <v>29</v>
       </c>
       <c r="O316" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P316" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q316" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="42" t="s">
+      <c r="P316" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q316" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="43" t="s">
         <v>58</v>
       </c>
       <c r="B317" s="22"/>
-      <c r="C317" s="43"/>
+      <c r="C317" s="44"/>
       <c r="D317" s="1"/>
       <c r="E317" s="37"/>
-      <c r="F317" s="44"/>
+      <c r="F317" s="45"/>
       <c r="G317" s="37"/>
       <c r="H317" s="37"/>
       <c r="I317" s="37"/>
-      <c r="J317" s="41"/>
+      <c r="J317" s="42"/>
       <c r="K317" s="27"/>
       <c r="L317" s="27"/>
       <c r="M317" s="27"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B318" s="22"/>
-      <c r="C318" s="43"/>
+      <c r="C318" s="44"/>
       <c r="D318" s="1"/>
       <c r="E318" s="37"/>
-      <c r="F318" s="44"/>
+      <c r="F318" s="45"/>
       <c r="G318" s="37"/>
       <c r="H318" s="37"/>
       <c r="I318" s="37"/>
-      <c r="J318" s="41"/>
+      <c r="J318" s="42"/>
       <c r="K318" s="27"/>
       <c r="L318" s="27"/>
       <c r="M318" s="27"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="C319" s="43" t="s">
-        <v>531</v>
+        <v>492</v>
+      </c>
+      <c r="C319" s="44" t="s">
+        <v>534</v>
       </c>
       <c r="D319" s="1" t="n">
         <v>5</v>
@@ -15907,7 +15914,7 @@
       <c r="E319" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F319" s="44"/>
+      <c r="F319" s="45"/>
       <c r="G319" s="37" t="n">
         <v>0</v>
       </c>
@@ -15915,9 +15922,9 @@
         <v>27</v>
       </c>
       <c r="I319" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J319" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J319" s="42" t="n">
         <f aca="false">J305</f>
         <v>256</v>
       </c>
@@ -15933,25 +15940,25 @@
         <f aca="false">J319/32</f>
         <v>8</v>
       </c>
-      <c r="N319" s="42" t="s">
+      <c r="N319" s="43" t="s">
         <v>29</v>
       </c>
       <c r="O319" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P319" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q319" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P319" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q319" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="C320" s="43" t="s">
-        <v>529</v>
+        <v>531</v>
+      </c>
+      <c r="C320" s="44" t="s">
+        <v>532</v>
       </c>
       <c r="D320" s="1" t="n">
         <v>1</v>
@@ -15959,17 +15966,17 @@
       <c r="E320" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F320" s="44"/>
+      <c r="F320" s="45"/>
       <c r="G320" s="37" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H320" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I320" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J320" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J320" s="42" t="n">
         <f aca="false">J319+D319</f>
         <v>261</v>
       </c>
@@ -15986,24 +15993,24 @@
         <v>8.15625</v>
       </c>
       <c r="N320" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O320" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P320" s="42" t="n">
+      <c r="P320" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="Q320" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q320" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="C321" s="43" t="s">
-        <v>527</v>
+        <v>487</v>
+      </c>
+      <c r="C321" s="44" t="s">
+        <v>530</v>
       </c>
       <c r="D321" s="1" t="n">
         <v>1</v>
@@ -16011,17 +16018,17 @@
       <c r="E321" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F321" s="44"/>
+      <c r="F321" s="45"/>
       <c r="G321" s="37" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H321" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I321" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J321" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J321" s="42" t="n">
         <f aca="false">J320+D320</f>
         <v>262</v>
       </c>
@@ -16038,24 +16045,24 @@
         <v>8.1875</v>
       </c>
       <c r="N321" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O321" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P321" s="42" t="n">
+      <c r="P321" s="43" t="n">
         <v>14</v>
       </c>
-      <c r="Q321" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q321" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="C322" s="43" t="s">
-        <v>526</v>
+        <v>485</v>
+      </c>
+      <c r="C322" s="44" t="s">
+        <v>529</v>
       </c>
       <c r="D322" s="1" t="n">
         <v>3</v>
@@ -16063,17 +16070,17 @@
       <c r="E322" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F322" s="44"/>
+      <c r="F322" s="45"/>
       <c r="G322" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H322" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I322" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J322" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J322" s="42" t="n">
         <f aca="false">J321+D321</f>
         <v>263</v>
       </c>
@@ -16090,24 +16097,24 @@
         <v>8.21875</v>
       </c>
       <c r="N322" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O322" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P322" s="42" t="n">
+      <c r="P322" s="43" t="n">
         <v>13</v>
       </c>
-      <c r="Q322" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q322" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="C323" s="43" t="s">
-        <v>525</v>
+        <v>483</v>
+      </c>
+      <c r="C323" s="44" t="s">
+        <v>528</v>
       </c>
       <c r="D323" s="1" t="n">
         <v>4</v>
@@ -16115,17 +16122,17 @@
       <c r="E323" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F323" s="44"/>
+      <c r="F323" s="45"/>
       <c r="G323" s="37" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H323" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I323" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J323" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J323" s="42" t="n">
         <f aca="false">J322+D322</f>
         <v>266</v>
       </c>
@@ -16142,24 +16149,24 @@
         <v>8.3125</v>
       </c>
       <c r="N323" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O323" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P323" s="42" t="n">
+      <c r="P323" s="43" t="n">
         <v>12</v>
       </c>
-      <c r="Q323" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q323" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="C324" s="43" t="s">
-        <v>524</v>
+        <v>481</v>
+      </c>
+      <c r="C324" s="44" t="s">
+        <v>527</v>
       </c>
       <c r="D324" s="1" t="n">
         <v>4</v>
@@ -16167,17 +16174,17 @@
       <c r="E324" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F324" s="44"/>
+      <c r="F324" s="45"/>
       <c r="G324" s="37" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H324" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I324" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J324" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J324" s="42" t="n">
         <f aca="false">J323+D323</f>
         <v>270</v>
       </c>
@@ -16194,24 +16201,24 @@
         <v>8.4375</v>
       </c>
       <c r="N324" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O324" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P324" s="42" t="n">
+      <c r="P324" s="43" t="n">
         <v>11</v>
       </c>
-      <c r="Q324" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q324" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="C325" s="43" t="s">
-        <v>523</v>
+        <v>479</v>
+      </c>
+      <c r="C325" s="44" t="s">
+        <v>526</v>
       </c>
       <c r="D325" s="1" t="n">
         <v>5</v>
@@ -16219,17 +16226,17 @@
       <c r="E325" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F325" s="44"/>
+      <c r="F325" s="45"/>
       <c r="G325" s="37" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H325" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I325" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J325" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J325" s="42" t="n">
         <f aca="false">J324+D324</f>
         <v>274</v>
       </c>
@@ -16246,24 +16253,24 @@
         <v>8.5625</v>
       </c>
       <c r="N325" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O325" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P325" s="42" t="n">
+      <c r="P325" s="43" t="n">
         <v>9</v>
       </c>
-      <c r="Q325" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q325" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="22" t="s">
-        <v>533</v>
-      </c>
-      <c r="C326" s="43" t="s">
-        <v>522</v>
+        <v>536</v>
+      </c>
+      <c r="C326" s="44" t="s">
+        <v>525</v>
       </c>
       <c r="D326" s="1" t="n">
         <v>9</v>
@@ -16271,17 +16278,17 @@
       <c r="E326" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F326" s="44"/>
+      <c r="F326" s="45"/>
       <c r="G326" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H326" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I326" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J326" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J326" s="42" t="n">
         <f aca="false">J325+D325</f>
         <v>279</v>
       </c>
@@ -16298,43 +16305,43 @@
         <v>8.71875</v>
       </c>
       <c r="N326" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O326" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P326" s="42" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q326" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="42" t="s">
+      <c r="P326" s="43" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q326" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="43" t="s">
         <v>58</v>
       </c>
       <c r="B327" s="22"/>
-      <c r="C327" s="43"/>
+      <c r="C327" s="44"/>
       <c r="D327" s="1"/>
       <c r="E327" s="37"/>
-      <c r="F327" s="44"/>
+      <c r="F327" s="45"/>
       <c r="G327" s="37"/>
       <c r="H327" s="37"/>
       <c r="I327" s="37"/>
-      <c r="J327" s="41"/>
+      <c r="J327" s="42"/>
       <c r="K327" s="27"/>
       <c r="L327" s="27"/>
       <c r="M327" s="27"/>
       <c r="N327" s="0"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="C328" s="43" t="s">
-        <v>534</v>
+        <v>521</v>
+      </c>
+      <c r="C328" s="44" t="s">
+        <v>537</v>
       </c>
       <c r="D328" s="1" t="n">
         <v>32</v>
@@ -16342,17 +16349,17 @@
       <c r="E328" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F328" s="44"/>
+      <c r="F328" s="45"/>
       <c r="G328" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H328" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I328" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J328" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J328" s="42" t="n">
         <f aca="false">J316+D316</f>
         <v>288</v>
       </c>
@@ -16369,24 +16376,24 @@
         <v>9</v>
       </c>
       <c r="N328" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O328" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P328" s="42" t="n">
+      <c r="P328" s="43" t="n">
         <v>10</v>
       </c>
-      <c r="Q328" s="42" t="n">
+      <c r="Q328" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="22" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C329" s="22" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D329" s="1" t="n">
         <v>32</v>
@@ -16396,15 +16403,15 @@
       </c>
       <c r="F329" s="37"/>
       <c r="G329" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H329" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I329" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J329" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J329" s="42" t="n">
         <f aca="false">J328+D328</f>
         <v>320</v>
       </c>
@@ -16420,25 +16427,25 @@
         <f aca="false">J329/32</f>
         <v>10</v>
       </c>
-      <c r="N329" s="42" t="s">
-        <v>537</v>
+      <c r="N329" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O329" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P329" s="42" t="n">
+      <c r="P329" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="Q329" s="42" t="n">
+      <c r="Q329" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="22" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C330" s="22" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D330" s="1" t="n">
         <v>32</v>
@@ -16448,15 +16455,15 @@
       </c>
       <c r="F330" s="37"/>
       <c r="G330" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H330" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I330" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J330" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J330" s="42" t="n">
         <f aca="false">J329+D329</f>
         <v>352</v>
       </c>
@@ -16472,25 +16479,25 @@
         <f aca="false">J330/32</f>
         <v>11</v>
       </c>
-      <c r="N330" s="42" t="s">
-        <v>537</v>
+      <c r="N330" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O330" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P330" s="42" t="n">
+      <c r="P330" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="Q330" s="42" t="n">
+      <c r="Q330" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="22" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C331" s="22" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D331" s="1" t="n">
         <v>32</v>
@@ -16500,15 +16507,15 @@
       </c>
       <c r="F331" s="37"/>
       <c r="G331" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H331" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I331" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J331" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J331" s="42" t="n">
         <f aca="false">J330+D330</f>
         <v>384</v>
       </c>
@@ -16524,25 +16531,25 @@
         <f aca="false">J331/32</f>
         <v>12</v>
       </c>
-      <c r="N331" s="42" t="s">
-        <v>537</v>
+      <c r="N331" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O331" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P331" s="42" t="n">
+      <c r="P331" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="Q331" s="42" t="n">
+      <c r="Q331" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="22" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C332" s="22" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D332" s="1" t="n">
         <v>32</v>
@@ -16552,15 +16559,15 @@
       </c>
       <c r="F332" s="37"/>
       <c r="G332" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H332" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I332" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J332" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J332" s="42" t="n">
         <f aca="false">J331+D331</f>
         <v>416</v>
       </c>
@@ -16576,25 +16583,25 @@
         <f aca="false">J332/32</f>
         <v>13</v>
       </c>
-      <c r="N332" s="42" t="s">
-        <v>537</v>
+      <c r="N332" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O332" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P332" s="42" t="n">
+      <c r="P332" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="Q332" s="42" t="n">
+      <c r="Q332" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="22" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C333" s="22" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D333" s="1" t="n">
         <v>8</v>
@@ -16604,15 +16611,15 @@
       </c>
       <c r="F333" s="37"/>
       <c r="G333" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H333" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I333" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J333" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J333" s="42" t="n">
         <f aca="false">J332+D332</f>
         <v>448</v>
       </c>
@@ -16628,25 +16635,25 @@
         <f aca="false">J333/32</f>
         <v>14</v>
       </c>
-      <c r="N333" s="42" t="s">
-        <v>537</v>
+      <c r="N333" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O333" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P333" s="42" t="n">
+      <c r="P333" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="Q333" s="42" t="n">
+      <c r="Q333" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="22" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C334" s="22" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D334" s="1" t="n">
         <v>8</v>
@@ -16656,15 +16663,15 @@
       </c>
       <c r="F334" s="37"/>
       <c r="G334" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H334" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I334" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J334" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J334" s="42" t="n">
         <f aca="false">J333+D333</f>
         <v>456</v>
       </c>
@@ -16680,25 +16687,25 @@
         <f aca="false">J334/32</f>
         <v>14.25</v>
       </c>
-      <c r="N334" s="42" t="s">
-        <v>537</v>
+      <c r="N334" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O334" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P334" s="42" t="n">
+      <c r="P334" s="43" t="n">
         <v>6</v>
       </c>
-      <c r="Q334" s="42" t="n">
+      <c r="Q334" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="22" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C335" s="22" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D335" s="1" t="n">
         <v>8</v>
@@ -16708,15 +16715,15 @@
       </c>
       <c r="F335" s="37"/>
       <c r="G335" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H335" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I335" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J335" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J335" s="42" t="n">
         <f aca="false">J334+D334</f>
         <v>464</v>
       </c>
@@ -16732,25 +16739,25 @@
         <f aca="false">J335/32</f>
         <v>14.5</v>
       </c>
-      <c r="N335" s="42" t="s">
-        <v>537</v>
+      <c r="N335" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O335" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P335" s="42" t="n">
+      <c r="P335" s="43" t="n">
         <v>7</v>
       </c>
-      <c r="Q335" s="42" t="n">
+      <c r="Q335" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="22" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C336" s="22" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D336" s="1" t="n">
         <v>8</v>
@@ -16760,15 +16767,15 @@
       </c>
       <c r="F336" s="37"/>
       <c r="G336" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H336" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I336" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J336" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J336" s="42" t="n">
         <f aca="false">J335+D335</f>
         <v>472</v>
       </c>
@@ -16784,25 +16791,25 @@
         <f aca="false">J336/32</f>
         <v>14.75</v>
       </c>
-      <c r="N336" s="42" t="s">
-        <v>537</v>
+      <c r="N336" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O336" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P336" s="42" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q336" s="42" t="n">
+      <c r="P336" s="43" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q336" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="22" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C337" s="22" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D337" s="1" t="n">
         <v>8</v>
@@ -16812,15 +16819,15 @@
       </c>
       <c r="F337" s="37"/>
       <c r="G337" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H337" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I337" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J337" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J337" s="42" t="n">
         <f aca="false">J336+D336</f>
         <v>480</v>
       </c>
@@ -16836,25 +16843,25 @@
         <f aca="false">J337/32</f>
         <v>15</v>
       </c>
-      <c r="N337" s="42" t="s">
-        <v>537</v>
+      <c r="N337" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O337" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P337" s="42" t="n">
+      <c r="P337" s="43" t="n">
         <v>9</v>
       </c>
-      <c r="Q337" s="42" t="n">
+      <c r="Q337" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="22" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C338" s="22" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D338" s="1" t="n">
         <v>8</v>
@@ -16864,15 +16871,15 @@
       </c>
       <c r="F338" s="37"/>
       <c r="G338" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H338" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I338" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J338" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J338" s="42" t="n">
         <f aca="false">J337+D337</f>
         <v>488</v>
       </c>
@@ -16888,25 +16895,25 @@
         <f aca="false">J338/32</f>
         <v>15.25</v>
       </c>
-      <c r="N338" s="42" t="s">
-        <v>537</v>
+      <c r="N338" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O338" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P338" s="42" t="n">
+      <c r="P338" s="43" t="n">
         <v>10</v>
       </c>
-      <c r="Q338" s="42" t="n">
+      <c r="Q338" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="22" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C339" s="22" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D339" s="1" t="n">
         <v>8</v>
@@ -16916,15 +16923,15 @@
       </c>
       <c r="F339" s="37"/>
       <c r="G339" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H339" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I339" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J339" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J339" s="42" t="n">
         <f aca="false">J338+D338</f>
         <v>496</v>
       </c>
@@ -16940,25 +16947,25 @@
         <f aca="false">J339/32</f>
         <v>15.5</v>
       </c>
-      <c r="N339" s="42" t="s">
-        <v>537</v>
+      <c r="N339" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O339" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P339" s="42" t="n">
+      <c r="P339" s="43" t="n">
         <v>11</v>
       </c>
-      <c r="Q339" s="42" t="n">
+      <c r="Q339" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="22" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C340" s="22" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D340" s="1" t="n">
         <v>8</v>
@@ -16968,15 +16975,15 @@
       </c>
       <c r="F340" s="37"/>
       <c r="G340" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H340" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I340" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J340" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J340" s="42" t="n">
         <f aca="false">J339+D339</f>
         <v>504</v>
       </c>
@@ -16992,25 +16999,25 @@
         <f aca="false">J340/32</f>
         <v>15.75</v>
       </c>
-      <c r="N340" s="42" t="s">
-        <v>537</v>
+      <c r="N340" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O340" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P340" s="42" t="n">
+      <c r="P340" s="43" t="n">
         <v>12</v>
       </c>
-      <c r="Q340" s="42" t="n">
+      <c r="Q340" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="22" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C341" s="22" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D341" s="1" t="n">
         <v>8</v>
@@ -17020,15 +17027,15 @@
       </c>
       <c r="F341" s="37"/>
       <c r="G341" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H341" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I341" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J341" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J341" s="42" t="n">
         <f aca="false">J340+D340</f>
         <v>512</v>
       </c>
@@ -17044,25 +17051,25 @@
         <f aca="false">J341/32</f>
         <v>16</v>
       </c>
-      <c r="N341" s="42" t="s">
-        <v>537</v>
+      <c r="N341" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O341" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P341" s="42" t="n">
+      <c r="P341" s="43" t="n">
         <v>13</v>
       </c>
-      <c r="Q341" s="42" t="n">
+      <c r="Q341" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="22" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C342" s="22" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D342" s="1" t="n">
         <v>8</v>
@@ -17072,15 +17079,15 @@
       </c>
       <c r="F342" s="37"/>
       <c r="G342" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H342" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I342" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J342" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J342" s="42" t="n">
         <f aca="false">J341+D341</f>
         <v>520</v>
       </c>
@@ -17096,25 +17103,25 @@
         <f aca="false">J342/32</f>
         <v>16.25</v>
       </c>
-      <c r="N342" s="42" t="s">
-        <v>537</v>
+      <c r="N342" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O342" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P342" s="42" t="n">
+      <c r="P342" s="43" t="n">
         <v>14</v>
       </c>
-      <c r="Q342" s="42" t="n">
+      <c r="Q342" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="22" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C343" s="22" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D343" s="1" t="n">
         <v>8</v>
@@ -17124,15 +17131,15 @@
       </c>
       <c r="F343" s="37"/>
       <c r="G343" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H343" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I343" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J343" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J343" s="42" t="n">
         <f aca="false">J342+D342</f>
         <v>528</v>
       </c>
@@ -17148,25 +17155,25 @@
         <f aca="false">J343/32</f>
         <v>16.5</v>
       </c>
-      <c r="N343" s="42" t="s">
-        <v>537</v>
+      <c r="N343" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O343" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P343" s="42" t="n">
+      <c r="P343" s="43" t="n">
         <v>15</v>
       </c>
-      <c r="Q343" s="42" t="n">
+      <c r="Q343" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="22" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C344" s="22" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D344" s="1" t="n">
         <v>8</v>
@@ -17176,15 +17183,15 @@
       </c>
       <c r="F344" s="37"/>
       <c r="G344" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H344" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I344" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J344" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J344" s="42" t="n">
         <f aca="false">J343+D343</f>
         <v>536</v>
       </c>
@@ -17200,25 +17207,25 @@
         <f aca="false">J344/32</f>
         <v>16.75</v>
       </c>
-      <c r="N344" s="42" t="s">
-        <v>537</v>
+      <c r="N344" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O344" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P344" s="42" t="n">
+      <c r="P344" s="43" t="n">
         <v>16</v>
       </c>
-      <c r="Q344" s="42" t="n">
+      <c r="Q344" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="22" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C345" s="22" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D345" s="1" t="n">
         <v>8</v>
@@ -17228,15 +17235,15 @@
       </c>
       <c r="F345" s="37"/>
       <c r="G345" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H345" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I345" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J345" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J345" s="42" t="n">
         <f aca="false">J344+D344</f>
         <v>544</v>
       </c>
@@ -17252,25 +17259,25 @@
         <f aca="false">J345/32</f>
         <v>17</v>
       </c>
-      <c r="N345" s="42" t="s">
-        <v>537</v>
+      <c r="N345" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O345" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P345" s="42" t="n">
+      <c r="P345" s="43" t="n">
         <v>17</v>
       </c>
-      <c r="Q345" s="42" t="n">
+      <c r="Q345" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="22" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D346" s="1" t="n">
         <v>8</v>
@@ -17280,15 +17287,15 @@
       </c>
       <c r="F346" s="37"/>
       <c r="G346" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H346" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I346" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J346" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J346" s="42" t="n">
         <f aca="false">J345+D345</f>
         <v>552</v>
       </c>
@@ -17304,25 +17311,25 @@
         <f aca="false">J346/32</f>
         <v>17.25</v>
       </c>
-      <c r="N346" s="42" t="s">
-        <v>537</v>
+      <c r="N346" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O346" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P346" s="42" t="n">
+      <c r="P346" s="43" t="n">
         <v>18</v>
       </c>
-      <c r="Q346" s="42" t="n">
+      <c r="Q346" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C347" s="22" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D347" s="1" t="n">
         <v>8</v>
@@ -17332,15 +17339,15 @@
       </c>
       <c r="F347" s="37"/>
       <c r="G347" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H347" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I347" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J347" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J347" s="42" t="n">
         <f aca="false">J346+D346</f>
         <v>560</v>
       </c>
@@ -17356,25 +17363,25 @@
         <f aca="false">J347/32</f>
         <v>17.5</v>
       </c>
-      <c r="N347" s="42" t="s">
-        <v>537</v>
+      <c r="N347" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O347" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P347" s="42" t="n">
+      <c r="P347" s="43" t="n">
         <v>19</v>
       </c>
-      <c r="Q347" s="42" t="n">
+      <c r="Q347" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="22" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C348" s="22" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D348" s="1" t="n">
         <v>8</v>
@@ -17384,15 +17391,15 @@
       </c>
       <c r="F348" s="37"/>
       <c r="G348" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H348" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I348" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J348" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J348" s="42" t="n">
         <f aca="false">J347+D347</f>
         <v>568</v>
       </c>
@@ -17408,25 +17415,25 @@
         <f aca="false">J348/32</f>
         <v>17.75</v>
       </c>
-      <c r="N348" s="42" t="s">
-        <v>537</v>
+      <c r="N348" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O348" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P348" s="42" t="n">
+      <c r="P348" s="43" t="n">
         <v>20</v>
       </c>
-      <c r="Q348" s="42" t="n">
+      <c r="Q348" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="22" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C349" s="22" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D349" s="1" t="n">
         <v>8</v>
@@ -17436,15 +17443,15 @@
       </c>
       <c r="F349" s="37"/>
       <c r="G349" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H349" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I349" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J349" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J349" s="42" t="n">
         <f aca="false">J348+D348</f>
         <v>576</v>
       </c>
@@ -17460,25 +17467,25 @@
         <f aca="false">J349/32</f>
         <v>18</v>
       </c>
-      <c r="N349" s="42" t="s">
-        <v>537</v>
+      <c r="N349" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O349" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P349" s="42" t="n">
+      <c r="P349" s="43" t="n">
         <v>21</v>
       </c>
-      <c r="Q349" s="42" t="n">
+      <c r="Q349" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="22" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C350" s="22" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D350" s="1" t="n">
         <v>8</v>
@@ -17488,15 +17495,15 @@
       </c>
       <c r="F350" s="37"/>
       <c r="G350" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H350" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I350" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J350" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J350" s="42" t="n">
         <f aca="false">J349+D349</f>
         <v>584</v>
       </c>
@@ -17512,25 +17519,25 @@
         <f aca="false">J350/32</f>
         <v>18.25</v>
       </c>
-      <c r="N350" s="42" t="s">
-        <v>537</v>
+      <c r="N350" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O350" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P350" s="42" t="n">
+      <c r="P350" s="43" t="n">
         <v>22</v>
       </c>
-      <c r="Q350" s="42" t="n">
+      <c r="Q350" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="22" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C351" s="22" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D351" s="1" t="n">
         <v>8</v>
@@ -17540,15 +17547,15 @@
       </c>
       <c r="F351" s="37"/>
       <c r="G351" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H351" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I351" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J351" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J351" s="42" t="n">
         <f aca="false">J350+D350</f>
         <v>592</v>
       </c>
@@ -17564,25 +17571,25 @@
         <f aca="false">J351/32</f>
         <v>18.5</v>
       </c>
-      <c r="N351" s="42" t="s">
-        <v>537</v>
+      <c r="N351" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O351" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P351" s="42" t="n">
+      <c r="P351" s="43" t="n">
         <v>23</v>
       </c>
-      <c r="Q351" s="42" t="n">
+      <c r="Q351" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="22" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C352" s="22" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D352" s="1" t="n">
         <v>8</v>
@@ -17592,15 +17599,15 @@
       </c>
       <c r="F352" s="37"/>
       <c r="G352" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H352" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I352" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J352" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J352" s="42" t="n">
         <f aca="false">J351+D351</f>
         <v>600</v>
       </c>
@@ -17616,25 +17623,25 @@
         <f aca="false">J352/32</f>
         <v>18.75</v>
       </c>
-      <c r="N352" s="42" t="s">
-        <v>537</v>
+      <c r="N352" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O352" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P352" s="42" t="n">
+      <c r="P352" s="43" t="n">
         <v>24</v>
       </c>
-      <c r="Q352" s="42" t="n">
+      <c r="Q352" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="22" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C353" s="22" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D353" s="1" t="n">
         <v>8</v>
@@ -17644,15 +17651,15 @@
       </c>
       <c r="F353" s="37"/>
       <c r="G353" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H353" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I353" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J353" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J353" s="42" t="n">
         <f aca="false">J352+D352</f>
         <v>608</v>
       </c>
@@ -17668,25 +17675,25 @@
         <f aca="false">J353/32</f>
         <v>19</v>
       </c>
-      <c r="N353" s="42" t="s">
-        <v>537</v>
+      <c r="N353" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O353" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P353" s="42" t="n">
+      <c r="P353" s="43" t="n">
         <v>25</v>
       </c>
-      <c r="Q353" s="42" t="n">
+      <c r="Q353" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="22" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C354" s="22" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D354" s="1" t="n">
         <v>8</v>
@@ -17696,15 +17703,15 @@
       </c>
       <c r="F354" s="37"/>
       <c r="G354" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H354" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I354" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J354" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J354" s="42" t="n">
         <f aca="false">J353+D353</f>
         <v>616</v>
       </c>
@@ -17720,25 +17727,25 @@
         <f aca="false">J354/32</f>
         <v>19.25</v>
       </c>
-      <c r="N354" s="42" t="s">
-        <v>537</v>
+      <c r="N354" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O354" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P354" s="42" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q354" s="42" t="n">
+      <c r="P354" s="43" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q354" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="22" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C355" s="22" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D355" s="1" t="n">
         <v>8</v>
@@ -17748,15 +17755,15 @@
       </c>
       <c r="F355" s="37"/>
       <c r="G355" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H355" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I355" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J355" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J355" s="42" t="n">
         <f aca="false">J354+D354</f>
         <v>624</v>
       </c>
@@ -17772,25 +17779,25 @@
         <f aca="false">J355/32</f>
         <v>19.5</v>
       </c>
-      <c r="N355" s="42" t="s">
-        <v>537</v>
+      <c r="N355" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O355" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P355" s="42" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q355" s="42" t="n">
+      <c r="P355" s="43" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q355" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="22" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C356" s="22" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D356" s="1" t="n">
         <v>8</v>
@@ -17800,15 +17807,15 @@
       </c>
       <c r="F356" s="37"/>
       <c r="G356" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H356" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I356" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J356" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J356" s="42" t="n">
         <f aca="false">J355+D355</f>
         <v>632</v>
       </c>
@@ -17824,25 +17831,25 @@
         <f aca="false">J356/32</f>
         <v>19.75</v>
       </c>
-      <c r="N356" s="42" t="s">
-        <v>537</v>
+      <c r="N356" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O356" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P356" s="42" t="n">
+      <c r="P356" s="43" t="n">
         <v>28</v>
       </c>
-      <c r="Q356" s="42" t="n">
+      <c r="Q356" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="22" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C357" s="22" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D357" s="1" t="n">
         <v>8</v>
@@ -17852,15 +17859,15 @@
       </c>
       <c r="F357" s="37"/>
       <c r="G357" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H357" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I357" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J357" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J357" s="42" t="n">
         <f aca="false">J356+D356</f>
         <v>640</v>
       </c>
@@ -17876,25 +17883,25 @@
         <f aca="false">J357/32</f>
         <v>20</v>
       </c>
-      <c r="N357" s="42" t="s">
-        <v>537</v>
+      <c r="N357" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O357" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P357" s="42" t="n">
+      <c r="P357" s="43" t="n">
         <v>29</v>
       </c>
-      <c r="Q357" s="42" t="n">
+      <c r="Q357" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="22" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C358" s="22" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D358" s="1" t="n">
         <v>8</v>
@@ -17904,15 +17911,15 @@
       </c>
       <c r="F358" s="37"/>
       <c r="G358" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H358" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I358" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J358" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J358" s="42" t="n">
         <f aca="false">J357+D357</f>
         <v>648</v>
       </c>
@@ -17928,25 +17935,25 @@
         <f aca="false">J358/32</f>
         <v>20.25</v>
       </c>
-      <c r="N358" s="42" t="s">
-        <v>537</v>
+      <c r="N358" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O358" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P358" s="42" t="n">
+      <c r="P358" s="43" t="n">
         <v>30</v>
       </c>
-      <c r="Q358" s="42" t="n">
+      <c r="Q358" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="22" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C359" s="22" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D359" s="1" t="n">
         <v>8</v>
@@ -17956,15 +17963,15 @@
       </c>
       <c r="F359" s="37"/>
       <c r="G359" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H359" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I359" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J359" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J359" s="42" t="n">
         <f aca="false">J358+D358</f>
         <v>656</v>
       </c>
@@ -17980,25 +17987,25 @@
         <f aca="false">J359/32</f>
         <v>20.5</v>
       </c>
-      <c r="N359" s="42" t="s">
-        <v>537</v>
+      <c r="N359" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O359" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P359" s="42" t="n">
+      <c r="P359" s="43" t="n">
         <v>31</v>
       </c>
-      <c r="Q359" s="42" t="n">
+      <c r="Q359" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="22" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C360" s="22" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D360" s="1" t="n">
         <v>8</v>
@@ -18008,15 +18015,15 @@
       </c>
       <c r="F360" s="37"/>
       <c r="G360" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H360" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I360" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J360" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J360" s="42" t="n">
         <f aca="false">J359+D359</f>
         <v>664</v>
       </c>
@@ -18032,25 +18039,25 @@
         <f aca="false">J360/32</f>
         <v>20.75</v>
       </c>
-      <c r="N360" s="42" t="s">
-        <v>537</v>
+      <c r="N360" s="43" t="s">
+        <v>540</v>
       </c>
       <c r="O360" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="P360" s="42" t="n">
+      <c r="P360" s="43" t="n">
         <v>32</v>
       </c>
-      <c r="Q360" s="42" t="n">
+      <c r="Q360" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="3" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D361" s="1" t="n">
         <v>16</v>
@@ -18062,15 +18069,15 @@
         <v>119</v>
       </c>
       <c r="G361" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H361" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I361" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J361" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J361" s="42" t="n">
         <f aca="false">J360+D360</f>
         <v>672</v>
       </c>
@@ -18086,31 +18093,31 @@
         <f aca="false">J361/32</f>
         <v>21</v>
       </c>
-      <c r="N361" s="42" t="s">
-        <v>455</v>
+      <c r="N361" s="43" t="s">
+        <v>458</v>
       </c>
       <c r="O361" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P361" s="42" t="n">
+      <c r="P361" s="43" t="n">
         <v>15</v>
       </c>
-      <c r="Q361" s="42" t="n">
+      <c r="Q361" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D362" s="1" t="n">
         <v>16</v>
       </c>
       <c r="E362" s="37" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F362" s="37"/>
       <c r="G362" s="37" t="n">
@@ -18120,9 +18127,9 @@
         <v>27</v>
       </c>
       <c r="I362" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J362" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J362" s="42" t="n">
         <f aca="false">J361+D361</f>
         <v>688</v>
       </c>
@@ -18138,16 +18145,16 @@
         <f aca="false">J362/32</f>
         <v>21.5</v>
       </c>
-      <c r="N362" s="42" t="s">
+      <c r="N362" s="43" t="s">
         <v>29</v>
       </c>
       <c r="O362" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P362" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q362" s="42" t="n">
+      <c r="P362" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q362" s="43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18159,7 +18166,7 @@
       <c r="G363" s="37"/>
       <c r="H363" s="37"/>
       <c r="I363" s="37"/>
-      <c r="J363" s="41" t="n">
+      <c r="J363" s="42" t="n">
         <f aca="false">J362+D362</f>
         <v>704</v>
       </c>
@@ -18177,14 +18184,14 @@
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="40" t="s">
-        <v>604</v>
+      <c r="A364" s="41" t="s">
+        <v>607</v>
       </c>
       <c r="F364" s="37"/>
       <c r="G364" s="37"/>
       <c r="H364" s="37"/>
       <c r="I364" s="37"/>
-      <c r="J364" s="41"/>
+      <c r="J364" s="42"/>
       <c r="K364" s="27"/>
       <c r="L364" s="27"/>
       <c r="M364" s="27"/>
@@ -18248,23 +18255,23 @@
         <v>46</v>
       </c>
       <c r="B366" s="12"/>
-      <c r="C366" s="39"/>
-      <c r="D366" s="39"/>
-      <c r="E366" s="39"/>
-      <c r="F366" s="39"/>
-      <c r="G366" s="39"/>
-      <c r="H366" s="39"/>
-      <c r="I366" s="45"/>
-      <c r="J366" s="46"/>
-      <c r="N366" s="42"/>
+      <c r="C366" s="40"/>
+      <c r="D366" s="40"/>
+      <c r="E366" s="40"/>
+      <c r="F366" s="40"/>
+      <c r="G366" s="40"/>
+      <c r="H366" s="40"/>
+      <c r="I366" s="46"/>
+      <c r="J366" s="47"/>
+      <c r="N366" s="43"/>
       <c r="O366" s="24"/>
     </row>
-    <row r="367" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="C367" s="43" t="s">
-        <v>606</v>
+        <v>608</v>
+      </c>
+      <c r="C367" s="44" t="s">
+        <v>609</v>
       </c>
       <c r="D367" s="1" t="n">
         <v>9</v>
@@ -18272,7 +18279,7 @@
       <c r="E367" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F367" s="44"/>
+      <c r="F367" s="45"/>
       <c r="G367" s="37" t="n">
         <v>0</v>
       </c>
@@ -18280,7 +18287,7 @@
         <v>27</v>
       </c>
       <c r="I367" s="37" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="J367" s="4" t="n">
         <f aca="false">J363</f>
@@ -18299,24 +18306,24 @@
         <v>22</v>
       </c>
       <c r="N367" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O367" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P367" s="42" t="n">
+      <c r="P367" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="Q367" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q367" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="C368" s="43" t="s">
-        <v>607</v>
+        <v>479</v>
+      </c>
+      <c r="C368" s="44" t="s">
+        <v>610</v>
       </c>
       <c r="D368" s="1" t="n">
         <v>5</v>
@@ -18324,7 +18331,7 @@
       <c r="E368" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F368" s="44"/>
+      <c r="F368" s="45"/>
       <c r="G368" s="37" t="n">
         <v>0</v>
       </c>
@@ -18332,7 +18339,7 @@
         <v>27</v>
       </c>
       <c r="I368" s="37" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="J368" s="4" t="n">
         <f aca="false">J367+D367</f>
@@ -18351,24 +18358,24 @@
         <v>22.28125</v>
       </c>
       <c r="N368" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O368" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P368" s="42" t="n">
+      <c r="P368" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="Q368" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q368" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="C369" s="43" t="s">
-        <v>608</v>
+        <v>481</v>
+      </c>
+      <c r="C369" s="44" t="s">
+        <v>611</v>
       </c>
       <c r="D369" s="1" t="n">
         <v>4</v>
@@ -18376,7 +18383,7 @@
       <c r="E369" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F369" s="44"/>
+      <c r="F369" s="45"/>
       <c r="G369" s="37" t="n">
         <v>0</v>
       </c>
@@ -18384,7 +18391,7 @@
         <v>27</v>
       </c>
       <c r="I369" s="37" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="J369" s="4" t="n">
         <f aca="false">J368+D368</f>
@@ -18403,24 +18410,24 @@
         <v>22.4375</v>
       </c>
       <c r="N369" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O369" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P369" s="42" t="n">
+      <c r="P369" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="Q369" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q369" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="C370" s="43" t="s">
-        <v>609</v>
+        <v>483</v>
+      </c>
+      <c r="C370" s="44" t="s">
+        <v>612</v>
       </c>
       <c r="D370" s="1" t="n">
         <v>4</v>
@@ -18428,7 +18435,7 @@
       <c r="E370" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F370" s="44"/>
+      <c r="F370" s="45"/>
       <c r="G370" s="37" t="n">
         <v>0</v>
       </c>
@@ -18436,7 +18443,7 @@
         <v>27</v>
       </c>
       <c r="I370" s="37" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="J370" s="4" t="n">
         <f aca="false">J369+D369</f>
@@ -18455,24 +18462,24 @@
         <v>22.5625</v>
       </c>
       <c r="N370" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O370" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P370" s="42" t="n">
+      <c r="P370" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="Q370" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q370" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="C371" s="43" t="s">
-        <v>610</v>
+        <v>485</v>
+      </c>
+      <c r="C371" s="44" t="s">
+        <v>613</v>
       </c>
       <c r="D371" s="1" t="n">
         <v>3</v>
@@ -18480,7 +18487,7 @@
       <c r="E371" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F371" s="44"/>
+      <c r="F371" s="45"/>
       <c r="G371" s="37" t="n">
         <v>0</v>
       </c>
@@ -18488,7 +18495,7 @@
         <v>27</v>
       </c>
       <c r="I371" s="37" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="J371" s="4" t="n">
         <f aca="false">J370+D370</f>
@@ -18507,24 +18514,24 @@
         <v>22.6875</v>
       </c>
       <c r="N371" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O371" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P371" s="42" t="n">
+      <c r="P371" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="Q371" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q371" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="C372" s="43" t="s">
-        <v>611</v>
+        <v>487</v>
+      </c>
+      <c r="C372" s="44" t="s">
+        <v>614</v>
       </c>
       <c r="D372" s="1" t="n">
         <v>1</v>
@@ -18532,15 +18539,15 @@
       <c r="E372" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F372" s="44"/>
+      <c r="F372" s="45"/>
       <c r="G372" s="37" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H372" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I372" s="37" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="J372" s="4" t="n">
         <f aca="false">J371+D371</f>
@@ -18559,24 +18566,24 @@
         <v>22.78125</v>
       </c>
       <c r="N372" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O372" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P372" s="42" t="n">
+      <c r="P372" s="43" t="n">
         <v>6</v>
       </c>
-      <c r="Q372" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q372" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="22" t="s">
-        <v>612</v>
-      </c>
-      <c r="C373" s="43" t="s">
-        <v>613</v>
+        <v>615</v>
+      </c>
+      <c r="C373" s="44" t="s">
+        <v>616</v>
       </c>
       <c r="D373" s="1" t="n">
         <v>1</v>
@@ -18584,15 +18591,15 @@
       <c r="E373" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F373" s="44"/>
+      <c r="F373" s="45"/>
       <c r="G373" s="37" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H373" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I373" s="37" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="J373" s="4" t="n">
         <f aca="false">J372+D372</f>
@@ -18611,24 +18618,24 @@
         <v>22.8125</v>
       </c>
       <c r="N373" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O373" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P373" s="42" t="n">
+      <c r="P373" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="Q373" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q373" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="C374" s="43" t="s">
-        <v>614</v>
+        <v>492</v>
+      </c>
+      <c r="C374" s="44" t="s">
+        <v>617</v>
       </c>
       <c r="D374" s="1" t="n">
         <v>5</v>
@@ -18636,7 +18643,7 @@
       <c r="E374" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F374" s="44"/>
+      <c r="F374" s="45"/>
       <c r="G374" s="37" t="n">
         <v>0</v>
       </c>
@@ -18644,7 +18651,7 @@
         <v>27</v>
       </c>
       <c r="I374" s="37" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="J374" s="4" t="n">
         <f aca="false">J373+D373</f>
@@ -18662,28 +18669,28 @@
         <f aca="false">J374/32</f>
         <v>22.84375</v>
       </c>
-      <c r="N374" s="42" t="s">
+      <c r="N374" s="43" t="s">
         <v>29</v>
       </c>
       <c r="O374" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P374" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q374" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="42" t="s">
+      <c r="P374" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q374" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="43" t="s">
         <v>58</v>
       </c>
       <c r="B375" s="22"/>
-      <c r="C375" s="43"/>
+      <c r="C375" s="44"/>
       <c r="D375" s="1"/>
       <c r="E375" s="37"/>
-      <c r="F375" s="44"/>
+      <c r="F375" s="45"/>
       <c r="G375" s="37"/>
       <c r="H375" s="37"/>
       <c r="I375" s="37"/>
@@ -18705,30 +18712,30 @@
       </c>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="42" t="s">
+    <row r="376" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="43" t="s">
         <v>59</v>
       </c>
       <c r="B376" s="22"/>
-      <c r="C376" s="43"/>
+      <c r="C376" s="44"/>
       <c r="D376" s="1"/>
       <c r="E376" s="37"/>
-      <c r="F376" s="44"/>
+      <c r="F376" s="45"/>
       <c r="G376" s="37"/>
       <c r="H376" s="37"/>
       <c r="I376" s="37"/>
-      <c r="J376" s="41"/>
+      <c r="J376" s="42"/>
       <c r="K376" s="27"/>
       <c r="L376" s="27"/>
       <c r="M376" s="27"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="C377" s="43" t="s">
-        <v>615</v>
+        <v>492</v>
+      </c>
+      <c r="C377" s="44" t="s">
+        <v>618</v>
       </c>
       <c r="D377" s="1" t="n">
         <v>5</v>
@@ -18736,7 +18743,7 @@
       <c r="E377" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F377" s="44"/>
+      <c r="F377" s="45"/>
       <c r="G377" s="37" t="n">
         <v>0</v>
       </c>
@@ -18744,9 +18751,9 @@
         <v>27</v>
       </c>
       <c r="I377" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J377" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J377" s="42" t="n">
         <f aca="false">J363</f>
         <v>704</v>
       </c>
@@ -18762,25 +18769,25 @@
         <f aca="false">J377/32</f>
         <v>22</v>
       </c>
-      <c r="N377" s="42" t="s">
+      <c r="N377" s="43" t="s">
         <v>29</v>
       </c>
       <c r="O377" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P377" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q377" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P377" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q377" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="22" t="s">
-        <v>612</v>
-      </c>
-      <c r="C378" s="43" t="s">
-        <v>613</v>
+        <v>615</v>
+      </c>
+      <c r="C378" s="44" t="s">
+        <v>616</v>
       </c>
       <c r="D378" s="1" t="n">
         <v>1</v>
@@ -18788,17 +18795,17 @@
       <c r="E378" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F378" s="44"/>
+      <c r="F378" s="45"/>
       <c r="G378" s="37" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H378" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I378" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J378" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J378" s="42" t="n">
         <f aca="false">J377+D377</f>
         <v>709</v>
       </c>
@@ -18815,24 +18822,24 @@
         <v>22.15625</v>
       </c>
       <c r="N378" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="O378" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P378" s="42" t="n">
+      <c r="P378" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="Q378" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q378" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="C379" s="43" t="s">
-        <v>611</v>
+        <v>487</v>
+      </c>
+      <c r="C379" s="44" t="s">
+        <v>614</v>
       </c>
       <c r="D379" s="1" t="n">
         <v>1</v>
@@ -18840,17 +18847,17 @@
       <c r="E379" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F379" s="44"/>
+      <c r="F379" s="45"/>
       <c r="G379" s="37" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H379" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I379" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J379" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J379" s="42" t="n">
         <f aca="false">J378+D378</f>
         <v>710</v>
       </c>
@@ -18867,24 +18874,24 @@
         <v>22.1875</v>
       </c>
       <c r="N379" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O379" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P379" s="42" t="n">
+      <c r="P379" s="43" t="n">
         <v>21</v>
       </c>
-      <c r="Q379" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q379" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="C380" s="43" t="s">
-        <v>610</v>
+        <v>485</v>
+      </c>
+      <c r="C380" s="44" t="s">
+        <v>613</v>
       </c>
       <c r="D380" s="1" t="n">
         <v>3</v>
@@ -18892,17 +18899,17 @@
       <c r="E380" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F380" s="44"/>
+      <c r="F380" s="45"/>
       <c r="G380" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H380" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I380" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J380" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J380" s="42" t="n">
         <f aca="false">J379+D379</f>
         <v>711</v>
       </c>
@@ -18919,24 +18926,24 @@
         <v>22.21875</v>
       </c>
       <c r="N380" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O380" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P380" s="42" t="n">
+      <c r="P380" s="43" t="n">
         <v>20</v>
       </c>
-      <c r="Q380" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q380" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="C381" s="43" t="s">
-        <v>609</v>
+        <v>483</v>
+      </c>
+      <c r="C381" s="44" t="s">
+        <v>612</v>
       </c>
       <c r="D381" s="1" t="n">
         <v>4</v>
@@ -18944,17 +18951,17 @@
       <c r="E381" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F381" s="44"/>
+      <c r="F381" s="45"/>
       <c r="G381" s="37" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H381" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I381" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J381" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J381" s="42" t="n">
         <f aca="false">J380+D380</f>
         <v>714</v>
       </c>
@@ -18971,24 +18978,24 @@
         <v>22.3125</v>
       </c>
       <c r="N381" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O381" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P381" s="42" t="n">
+      <c r="P381" s="43" t="n">
         <v>19</v>
       </c>
-      <c r="Q381" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q381" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="C382" s="43" t="s">
-        <v>608</v>
+        <v>481</v>
+      </c>
+      <c r="C382" s="44" t="s">
+        <v>611</v>
       </c>
       <c r="D382" s="1" t="n">
         <v>4</v>
@@ -18996,17 +19003,17 @@
       <c r="E382" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F382" s="44"/>
+      <c r="F382" s="45"/>
       <c r="G382" s="37" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="H382" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I382" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J382" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J382" s="42" t="n">
         <f aca="false">J381+D381</f>
         <v>718</v>
       </c>
@@ -19023,24 +19030,24 @@
         <v>22.4375</v>
       </c>
       <c r="N382" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O382" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P382" s="42" t="n">
+      <c r="P382" s="43" t="n">
         <v>18</v>
       </c>
-      <c r="Q382" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q382" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="C383" s="43" t="s">
-        <v>607</v>
+        <v>479</v>
+      </c>
+      <c r="C383" s="44" t="s">
+        <v>610</v>
       </c>
       <c r="D383" s="1" t="n">
         <v>5</v>
@@ -19048,17 +19055,17 @@
       <c r="E383" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F383" s="44"/>
+      <c r="F383" s="45"/>
       <c r="G383" s="37" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H383" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I383" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J383" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J383" s="42" t="n">
         <f aca="false">J382+D382</f>
         <v>722</v>
       </c>
@@ -19075,24 +19082,24 @@
         <v>22.5625</v>
       </c>
       <c r="N383" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O383" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P383" s="42" t="n">
+      <c r="P383" s="43" t="n">
         <v>16</v>
       </c>
-      <c r="Q383" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q383" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="C384" s="43" t="s">
-        <v>606</v>
+        <v>608</v>
+      </c>
+      <c r="C384" s="44" t="s">
+        <v>609</v>
       </c>
       <c r="D384" s="1" t="n">
         <v>9</v>
@@ -19100,17 +19107,17 @@
       <c r="E384" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F384" s="44"/>
+      <c r="F384" s="45"/>
       <c r="G384" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H384" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I384" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J384" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J384" s="42" t="n">
         <f aca="false">J383+D383</f>
         <v>727</v>
       </c>
@@ -19127,42 +19134,42 @@
         <v>22.71875</v>
       </c>
       <c r="N384" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="O384" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P384" s="42" t="n">
+      <c r="P384" s="43" t="n">
         <v>15</v>
       </c>
-      <c r="Q384" s="42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="42" t="s">
+      <c r="Q384" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="43" t="s">
         <v>58</v>
       </c>
       <c r="B385" s="22"/>
-      <c r="C385" s="43"/>
+      <c r="C385" s="44"/>
       <c r="D385" s="1"/>
       <c r="E385" s="37"/>
-      <c r="F385" s="44"/>
+      <c r="F385" s="45"/>
       <c r="G385" s="37"/>
       <c r="H385" s="37"/>
       <c r="I385" s="37"/>
-      <c r="J385" s="41"/>
+      <c r="J385" s="42"/>
       <c r="K385" s="27"/>
       <c r="L385" s="27"/>
       <c r="M385" s="27"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="C386" s="43" t="s">
-        <v>616</v>
+        <v>521</v>
+      </c>
+      <c r="C386" s="44" t="s">
+        <v>619</v>
       </c>
       <c r="D386" s="1" t="n">
         <v>32</v>
@@ -19170,17 +19177,17 @@
       <c r="E386" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F386" s="44"/>
+      <c r="F386" s="45"/>
       <c r="G386" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H386" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I386" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J386" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J386" s="42" t="n">
         <f aca="false">J374+D374</f>
         <v>736</v>
       </c>
@@ -19196,26 +19203,26 @@
         <f aca="false">J386/32</f>
         <v>23</v>
       </c>
-      <c r="N386" s="42" t="s">
-        <v>475</v>
+      <c r="N386" s="43" t="s">
+        <v>478</v>
       </c>
       <c r="O386" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="P386" s="42" t="n">
+      <c r="P386" s="43" t="n">
         <v>17</v>
       </c>
-      <c r="Q386" s="42" t="n">
+      <c r="Q386" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="42"/>
+      <c r="A387" s="43"/>
       <c r="B387" s="22" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C387" s="22" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D387" s="1" t="n">
         <v>32</v>
@@ -19225,15 +19232,15 @@
       </c>
       <c r="F387" s="37"/>
       <c r="G387" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H387" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I387" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J387" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J387" s="42" t="n">
         <f aca="false">J386+D386</f>
         <v>768</v>
       </c>
@@ -19249,25 +19256,25 @@
         <f aca="false">J387/32</f>
         <v>24</v>
       </c>
-      <c r="N387" s="42" t="s">
-        <v>619</v>
+      <c r="N387" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O387" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P387" s="42" t="n">
+      <c r="P387" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="Q387" s="42" t="n">
+      <c r="Q387" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="22" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C388" s="22" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D388" s="1" t="n">
         <v>32</v>
@@ -19277,15 +19284,15 @@
       </c>
       <c r="F388" s="37"/>
       <c r="G388" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H388" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I388" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J388" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J388" s="42" t="n">
         <f aca="false">J387+D387</f>
         <v>800</v>
       </c>
@@ -19301,25 +19308,25 @@
         <f aca="false">J388/32</f>
         <v>25</v>
       </c>
-      <c r="N388" s="42" t="s">
-        <v>619</v>
+      <c r="N388" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O388" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P388" s="42" t="n">
+      <c r="P388" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="Q388" s="42" t="n">
+      <c r="Q388" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="22" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C389" s="22" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D389" s="1" t="n">
         <v>32</v>
@@ -19329,15 +19336,15 @@
       </c>
       <c r="F389" s="37"/>
       <c r="G389" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H389" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I389" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J389" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J389" s="42" t="n">
         <f aca="false">J388+D388</f>
         <v>832</v>
       </c>
@@ -19353,25 +19360,25 @@
         <f aca="false">J389/32</f>
         <v>26</v>
       </c>
-      <c r="N389" s="42" t="s">
-        <v>619</v>
+      <c r="N389" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O389" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P389" s="42" t="n">
+      <c r="P389" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="Q389" s="42" t="n">
+      <c r="Q389" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="22" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C390" s="22" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D390" s="1" t="n">
         <v>32</v>
@@ -19381,15 +19388,15 @@
       </c>
       <c r="F390" s="37"/>
       <c r="G390" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H390" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I390" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J390" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J390" s="42" t="n">
         <f aca="false">J389+D389</f>
         <v>864</v>
       </c>
@@ -19405,25 +19412,25 @@
         <f aca="false">J390/32</f>
         <v>27</v>
       </c>
-      <c r="N390" s="42" t="s">
-        <v>619</v>
+      <c r="N390" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O390" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P390" s="42" t="n">
+      <c r="P390" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="Q390" s="42" t="n">
+      <c r="Q390" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="22" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C391" s="22" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D391" s="1" t="n">
         <v>8</v>
@@ -19433,15 +19440,15 @@
       </c>
       <c r="F391" s="37"/>
       <c r="G391" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H391" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I391" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J391" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J391" s="42" t="n">
         <f aca="false">J390+D390</f>
         <v>896</v>
       </c>
@@ -19457,25 +19464,25 @@
         <f aca="false">J391/32</f>
         <v>28</v>
       </c>
-      <c r="N391" s="42" t="s">
-        <v>619</v>
+      <c r="N391" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O391" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P391" s="42" t="n">
+      <c r="P391" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="Q391" s="42" t="n">
+      <c r="Q391" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="22" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C392" s="22" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D392" s="1" t="n">
         <v>8</v>
@@ -19485,15 +19492,15 @@
       </c>
       <c r="F392" s="37"/>
       <c r="G392" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H392" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I392" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J392" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J392" s="42" t="n">
         <f aca="false">J391+D391</f>
         <v>904</v>
       </c>
@@ -19509,25 +19516,25 @@
         <f aca="false">J392/32</f>
         <v>28.25</v>
       </c>
-      <c r="N392" s="42" t="s">
-        <v>619</v>
+      <c r="N392" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O392" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P392" s="42" t="n">
+      <c r="P392" s="43" t="n">
         <v>6</v>
       </c>
-      <c r="Q392" s="42" t="n">
+      <c r="Q392" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="22" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C393" s="22" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D393" s="1" t="n">
         <v>8</v>
@@ -19537,15 +19544,15 @@
       </c>
       <c r="F393" s="37"/>
       <c r="G393" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H393" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I393" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J393" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J393" s="42" t="n">
         <f aca="false">J392+D392</f>
         <v>912</v>
       </c>
@@ -19561,25 +19568,25 @@
         <f aca="false">J393/32</f>
         <v>28.5</v>
       </c>
-      <c r="N393" s="42" t="s">
-        <v>619</v>
+      <c r="N393" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O393" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P393" s="42" t="n">
+      <c r="P393" s="43" t="n">
         <v>7</v>
       </c>
-      <c r="Q393" s="42" t="n">
+      <c r="Q393" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="22" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C394" s="22" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D394" s="1" t="n">
         <v>8</v>
@@ -19589,15 +19596,15 @@
       </c>
       <c r="F394" s="37"/>
       <c r="G394" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H394" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I394" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J394" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J394" s="42" t="n">
         <f aca="false">J393+D393</f>
         <v>920</v>
       </c>
@@ -19613,25 +19620,25 @@
         <f aca="false">J394/32</f>
         <v>28.75</v>
       </c>
-      <c r="N394" s="42" t="s">
-        <v>619</v>
+      <c r="N394" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O394" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P394" s="42" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q394" s="42" t="n">
+      <c r="P394" s="43" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q394" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="22" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C395" s="22" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D395" s="1" t="n">
         <v>8</v>
@@ -19641,15 +19648,15 @@
       </c>
       <c r="F395" s="37"/>
       <c r="G395" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H395" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I395" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J395" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J395" s="42" t="n">
         <f aca="false">J394+D394</f>
         <v>928</v>
       </c>
@@ -19665,25 +19672,25 @@
         <f aca="false">J395/32</f>
         <v>29</v>
       </c>
-      <c r="N395" s="42" t="s">
-        <v>619</v>
+      <c r="N395" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O395" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P395" s="42" t="n">
+      <c r="P395" s="43" t="n">
         <v>9</v>
       </c>
-      <c r="Q395" s="42" t="n">
+      <c r="Q395" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="22" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C396" s="22" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D396" s="1" t="n">
         <v>8</v>
@@ -19693,15 +19700,15 @@
       </c>
       <c r="F396" s="37"/>
       <c r="G396" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H396" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I396" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J396" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J396" s="42" t="n">
         <f aca="false">J395+D395</f>
         <v>936</v>
       </c>
@@ -19717,25 +19724,25 @@
         <f aca="false">J396/32</f>
         <v>29.25</v>
       </c>
-      <c r="N396" s="42" t="s">
-        <v>619</v>
+      <c r="N396" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O396" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P396" s="42" t="n">
+      <c r="P396" s="43" t="n">
         <v>10</v>
       </c>
-      <c r="Q396" s="42" t="n">
+      <c r="Q396" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="22" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C397" s="22" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D397" s="1" t="n">
         <v>8</v>
@@ -19745,15 +19752,15 @@
       </c>
       <c r="F397" s="37"/>
       <c r="G397" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H397" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I397" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J397" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J397" s="42" t="n">
         <f aca="false">J396+D396</f>
         <v>944</v>
       </c>
@@ -19769,25 +19776,25 @@
         <f aca="false">J397/32</f>
         <v>29.5</v>
       </c>
-      <c r="N397" s="42" t="s">
-        <v>619</v>
+      <c r="N397" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O397" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P397" s="42" t="n">
+      <c r="P397" s="43" t="n">
         <v>11</v>
       </c>
-      <c r="Q397" s="42" t="n">
+      <c r="Q397" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="22" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C398" s="22" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D398" s="1" t="n">
         <v>8</v>
@@ -19797,15 +19804,15 @@
       </c>
       <c r="F398" s="37"/>
       <c r="G398" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H398" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I398" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J398" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J398" s="42" t="n">
         <f aca="false">J397+D397</f>
         <v>952</v>
       </c>
@@ -19821,25 +19828,25 @@
         <f aca="false">J398/32</f>
         <v>29.75</v>
       </c>
-      <c r="N398" s="42" t="s">
-        <v>619</v>
+      <c r="N398" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O398" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P398" s="42" t="n">
+      <c r="P398" s="43" t="n">
         <v>12</v>
       </c>
-      <c r="Q398" s="42" t="n">
+      <c r="Q398" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="22" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C399" s="22" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D399" s="1" t="n">
         <v>8</v>
@@ -19849,15 +19856,15 @@
       </c>
       <c r="F399" s="37"/>
       <c r="G399" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H399" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I399" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J399" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J399" s="42" t="n">
         <f aca="false">J398+D398</f>
         <v>960</v>
       </c>
@@ -19873,25 +19880,25 @@
         <f aca="false">J399/32</f>
         <v>30</v>
       </c>
-      <c r="N399" s="42" t="s">
-        <v>619</v>
+      <c r="N399" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O399" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P399" s="42" t="n">
+      <c r="P399" s="43" t="n">
         <v>13</v>
       </c>
-      <c r="Q399" s="42" t="n">
+      <c r="Q399" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="22" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C400" s="22" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D400" s="1" t="n">
         <v>8</v>
@@ -19901,15 +19908,15 @@
       </c>
       <c r="F400" s="37"/>
       <c r="G400" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H400" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I400" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J400" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J400" s="42" t="n">
         <f aca="false">J399+D399</f>
         <v>968</v>
       </c>
@@ -19925,25 +19932,25 @@
         <f aca="false">J400/32</f>
         <v>30.25</v>
       </c>
-      <c r="N400" s="42" t="s">
-        <v>619</v>
+      <c r="N400" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O400" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P400" s="42" t="n">
+      <c r="P400" s="43" t="n">
         <v>14</v>
       </c>
-      <c r="Q400" s="42" t="n">
+      <c r="Q400" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="22" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C401" s="22" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D401" s="1" t="n">
         <v>8</v>
@@ -19953,15 +19960,15 @@
       </c>
       <c r="F401" s="37"/>
       <c r="G401" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H401" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I401" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J401" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J401" s="42" t="n">
         <f aca="false">J400+D400</f>
         <v>976</v>
       </c>
@@ -19977,25 +19984,25 @@
         <f aca="false">J401/32</f>
         <v>30.5</v>
       </c>
-      <c r="N401" s="42" t="s">
-        <v>619</v>
+      <c r="N401" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O401" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P401" s="42" t="n">
+      <c r="P401" s="43" t="n">
         <v>15</v>
       </c>
-      <c r="Q401" s="42" t="n">
+      <c r="Q401" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="22" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C402" s="22" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D402" s="1" t="n">
         <v>8</v>
@@ -20005,15 +20012,15 @@
       </c>
       <c r="F402" s="37"/>
       <c r="G402" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H402" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I402" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J402" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J402" s="42" t="n">
         <f aca="false">J401+D401</f>
         <v>984</v>
       </c>
@@ -20029,25 +20036,25 @@
         <f aca="false">J402/32</f>
         <v>30.75</v>
       </c>
-      <c r="N402" s="42" t="s">
-        <v>619</v>
+      <c r="N402" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O402" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P402" s="42" t="n">
+      <c r="P402" s="43" t="n">
         <v>16</v>
       </c>
-      <c r="Q402" s="42" t="n">
+      <c r="Q402" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="22" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C403" s="22" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="D403" s="1" t="n">
         <v>8</v>
@@ -20057,15 +20064,15 @@
       </c>
       <c r="F403" s="37"/>
       <c r="G403" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H403" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I403" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J403" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J403" s="42" t="n">
         <f aca="false">J402+D402</f>
         <v>992</v>
       </c>
@@ -20081,25 +20088,25 @@
         <f aca="false">J403/32</f>
         <v>31</v>
       </c>
-      <c r="N403" s="42" t="s">
-        <v>619</v>
+      <c r="N403" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O403" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P403" s="42" t="n">
+      <c r="P403" s="43" t="n">
         <v>17</v>
       </c>
-      <c r="Q403" s="42" t="n">
+      <c r="Q403" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="22" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C404" s="22" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D404" s="1" t="n">
         <v>8</v>
@@ -20109,15 +20116,15 @@
       </c>
       <c r="F404" s="37"/>
       <c r="G404" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H404" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I404" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J404" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J404" s="42" t="n">
         <f aca="false">J403+D403</f>
         <v>1000</v>
       </c>
@@ -20133,25 +20140,25 @@
         <f aca="false">J404/32</f>
         <v>31.25</v>
       </c>
-      <c r="N404" s="42" t="s">
-        <v>619</v>
+      <c r="N404" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O404" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P404" s="42" t="n">
+      <c r="P404" s="43" t="n">
         <v>18</v>
       </c>
-      <c r="Q404" s="42" t="n">
+      <c r="Q404" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="22" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C405" s="22" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D405" s="1" t="n">
         <v>8</v>
@@ -20161,15 +20168,15 @@
       </c>
       <c r="F405" s="37"/>
       <c r="G405" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H405" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I405" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J405" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J405" s="42" t="n">
         <f aca="false">J404+D404</f>
         <v>1008</v>
       </c>
@@ -20185,25 +20192,25 @@
         <f aca="false">J405/32</f>
         <v>31.5</v>
       </c>
-      <c r="N405" s="42" t="s">
-        <v>619</v>
+      <c r="N405" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O405" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P405" s="42" t="n">
+      <c r="P405" s="43" t="n">
         <v>19</v>
       </c>
-      <c r="Q405" s="42" t="n">
+      <c r="Q405" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="22" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C406" s="22" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D406" s="1" t="n">
         <v>8</v>
@@ -20213,15 +20220,15 @@
       </c>
       <c r="F406" s="37"/>
       <c r="G406" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H406" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I406" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J406" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J406" s="42" t="n">
         <f aca="false">J405+D405</f>
         <v>1016</v>
       </c>
@@ -20237,25 +20244,25 @@
         <f aca="false">J406/32</f>
         <v>31.75</v>
       </c>
-      <c r="N406" s="42" t="s">
-        <v>619</v>
+      <c r="N406" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O406" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P406" s="42" t="n">
+      <c r="P406" s="43" t="n">
         <v>20</v>
       </c>
-      <c r="Q406" s="42" t="n">
+      <c r="Q406" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="22" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C407" s="22" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="D407" s="1" t="n">
         <v>8</v>
@@ -20265,15 +20272,15 @@
       </c>
       <c r="F407" s="37"/>
       <c r="G407" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H407" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I407" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J407" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J407" s="42" t="n">
         <f aca="false">J406+D406</f>
         <v>1024</v>
       </c>
@@ -20289,25 +20296,25 @@
         <f aca="false">J407/32</f>
         <v>32</v>
       </c>
-      <c r="N407" s="42" t="s">
-        <v>619</v>
+      <c r="N407" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O407" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P407" s="42" t="n">
+      <c r="P407" s="43" t="n">
         <v>21</v>
       </c>
-      <c r="Q407" s="42" t="n">
+      <c r="Q407" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="22" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C408" s="22" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D408" s="1" t="n">
         <v>8</v>
@@ -20317,15 +20324,15 @@
       </c>
       <c r="F408" s="37"/>
       <c r="G408" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H408" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I408" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J408" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J408" s="42" t="n">
         <f aca="false">J407+D407</f>
         <v>1032</v>
       </c>
@@ -20341,25 +20348,25 @@
         <f aca="false">J408/32</f>
         <v>32.25</v>
       </c>
-      <c r="N408" s="42" t="s">
-        <v>619</v>
+      <c r="N408" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O408" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P408" s="42" t="n">
+      <c r="P408" s="43" t="n">
         <v>22</v>
       </c>
-      <c r="Q408" s="42" t="n">
+      <c r="Q408" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="22" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C409" s="22" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D409" s="1" t="n">
         <v>8</v>
@@ -20369,15 +20376,15 @@
       </c>
       <c r="F409" s="37"/>
       <c r="G409" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H409" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I409" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J409" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J409" s="42" t="n">
         <f aca="false">J408+D408</f>
         <v>1040</v>
       </c>
@@ -20393,25 +20400,25 @@
         <f aca="false">J409/32</f>
         <v>32.5</v>
       </c>
-      <c r="N409" s="42" t="s">
-        <v>619</v>
+      <c r="N409" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O409" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P409" s="42" t="n">
+      <c r="P409" s="43" t="n">
         <v>23</v>
       </c>
-      <c r="Q409" s="42" t="n">
+      <c r="Q409" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="22" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C410" s="22" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D410" s="1" t="n">
         <v>8</v>
@@ -20421,15 +20428,15 @@
       </c>
       <c r="F410" s="37"/>
       <c r="G410" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H410" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I410" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J410" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J410" s="42" t="n">
         <f aca="false">J409+D409</f>
         <v>1048</v>
       </c>
@@ -20445,25 +20452,25 @@
         <f aca="false">J410/32</f>
         <v>32.75</v>
       </c>
-      <c r="N410" s="42" t="s">
-        <v>619</v>
+      <c r="N410" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O410" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P410" s="42" t="n">
+      <c r="P410" s="43" t="n">
         <v>24</v>
       </c>
-      <c r="Q410" s="42" t="n">
+      <c r="Q410" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="22" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C411" s="22" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D411" s="1" t="n">
         <v>8</v>
@@ -20473,15 +20480,15 @@
       </c>
       <c r="F411" s="37"/>
       <c r="G411" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H411" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I411" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J411" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J411" s="42" t="n">
         <f aca="false">J410+D410</f>
         <v>1056</v>
       </c>
@@ -20497,25 +20504,25 @@
         <f aca="false">J411/32</f>
         <v>33</v>
       </c>
-      <c r="N411" s="42" t="s">
-        <v>619</v>
+      <c r="N411" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O411" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P411" s="42" t="n">
+      <c r="P411" s="43" t="n">
         <v>25</v>
       </c>
-      <c r="Q411" s="42" t="n">
+      <c r="Q411" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="22" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C412" s="22" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D412" s="1" t="n">
         <v>8</v>
@@ -20525,15 +20532,15 @@
       </c>
       <c r="F412" s="37"/>
       <c r="G412" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H412" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I412" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J412" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J412" s="42" t="n">
         <f aca="false">J411+D411</f>
         <v>1064</v>
       </c>
@@ -20549,25 +20556,25 @@
         <f aca="false">J412/32</f>
         <v>33.25</v>
       </c>
-      <c r="N412" s="42" t="s">
-        <v>619</v>
+      <c r="N412" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O412" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P412" s="42" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q412" s="42" t="n">
+      <c r="P412" s="43" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q412" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="22" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C413" s="22" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D413" s="1" t="n">
         <v>8</v>
@@ -20577,15 +20584,15 @@
       </c>
       <c r="F413" s="37"/>
       <c r="G413" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H413" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I413" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J413" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J413" s="42" t="n">
         <f aca="false">J412+D412</f>
         <v>1072</v>
       </c>
@@ -20601,25 +20608,25 @@
         <f aca="false">J413/32</f>
         <v>33.5</v>
       </c>
-      <c r="N413" s="42" t="s">
-        <v>619</v>
+      <c r="N413" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O413" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P413" s="42" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q413" s="42" t="n">
+      <c r="P413" s="43" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q413" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="22" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C414" s="22" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D414" s="1" t="n">
         <v>8</v>
@@ -20629,15 +20636,15 @@
       </c>
       <c r="F414" s="37"/>
       <c r="G414" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H414" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I414" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J414" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J414" s="42" t="n">
         <f aca="false">J413+D413</f>
         <v>1080</v>
       </c>
@@ -20653,25 +20660,25 @@
         <f aca="false">J414/32</f>
         <v>33.75</v>
       </c>
-      <c r="N414" s="42" t="s">
-        <v>619</v>
+      <c r="N414" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O414" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P414" s="42" t="n">
+      <c r="P414" s="43" t="n">
         <v>28</v>
       </c>
-      <c r="Q414" s="42" t="n">
+      <c r="Q414" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="22" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C415" s="22" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D415" s="1" t="n">
         <v>8</v>
@@ -20681,15 +20688,15 @@
       </c>
       <c r="F415" s="37"/>
       <c r="G415" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H415" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I415" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J415" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J415" s="42" t="n">
         <f aca="false">J414+D414</f>
         <v>1088</v>
       </c>
@@ -20705,25 +20712,25 @@
         <f aca="false">J415/32</f>
         <v>34</v>
       </c>
-      <c r="N415" s="42" t="s">
-        <v>619</v>
+      <c r="N415" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O415" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P415" s="42" t="n">
+      <c r="P415" s="43" t="n">
         <v>29</v>
       </c>
-      <c r="Q415" s="42" t="n">
+      <c r="Q415" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="22" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C416" s="22" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D416" s="1" t="n">
         <v>8</v>
@@ -20733,15 +20740,15 @@
       </c>
       <c r="F416" s="37"/>
       <c r="G416" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H416" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I416" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J416" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J416" s="42" t="n">
         <f aca="false">J415+D415</f>
         <v>1096</v>
       </c>
@@ -20757,25 +20764,25 @@
         <f aca="false">J416/32</f>
         <v>34.25</v>
       </c>
-      <c r="N416" s="42" t="s">
-        <v>619</v>
+      <c r="N416" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O416" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P416" s="42" t="n">
+      <c r="P416" s="43" t="n">
         <v>30</v>
       </c>
-      <c r="Q416" s="42" t="n">
+      <c r="Q416" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="22" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C417" s="22" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D417" s="1" t="n">
         <v>8</v>
@@ -20785,15 +20792,15 @@
       </c>
       <c r="F417" s="37"/>
       <c r="G417" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H417" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I417" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J417" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J417" s="42" t="n">
         <f aca="false">J416+D416</f>
         <v>1104</v>
       </c>
@@ -20809,25 +20816,25 @@
         <f aca="false">J417/32</f>
         <v>34.5</v>
       </c>
-      <c r="N417" s="42" t="s">
-        <v>619</v>
+      <c r="N417" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O417" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P417" s="42" t="n">
+      <c r="P417" s="43" t="n">
         <v>31</v>
       </c>
-      <c r="Q417" s="42" t="n">
+      <c r="Q417" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="22" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C418" s="22" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D418" s="1" t="n">
         <v>8</v>
@@ -20837,15 +20844,15 @@
       </c>
       <c r="F418" s="37"/>
       <c r="G418" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H418" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I418" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J418" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J418" s="42" t="n">
         <f aca="false">J417+D417</f>
         <v>1112</v>
       </c>
@@ -20861,25 +20868,25 @@
         <f aca="false">J418/32</f>
         <v>34.75</v>
       </c>
-      <c r="N418" s="42" t="s">
-        <v>619</v>
+      <c r="N418" s="43" t="s">
+        <v>622</v>
       </c>
       <c r="O418" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P418" s="42" t="n">
+      <c r="P418" s="43" t="n">
         <v>32</v>
       </c>
-      <c r="Q418" s="42" t="n">
+      <c r="Q418" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D419" s="1" t="n">
         <v>16</v>
@@ -20891,15 +20898,15 @@
         <v>119</v>
       </c>
       <c r="G419" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H419" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I419" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J419" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J419" s="42" t="n">
         <f aca="false">J418+D418</f>
         <v>1120</v>
       </c>
@@ -20915,31 +20922,31 @@
         <f aca="false">J419/32</f>
         <v>35</v>
       </c>
-      <c r="N419" s="42" t="s">
-        <v>455</v>
+      <c r="N419" s="43" t="s">
+        <v>458</v>
       </c>
       <c r="O419" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P419" s="42" t="n">
+      <c r="P419" s="43" t="n">
         <v>16</v>
       </c>
-      <c r="Q419" s="42" t="n">
+      <c r="Q419" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="D420" s="1" t="n">
         <v>16</v>
       </c>
       <c r="E420" s="37" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F420" s="37"/>
       <c r="G420" s="37" t="n">
@@ -20949,9 +20956,9 @@
         <v>27</v>
       </c>
       <c r="I420" s="37" t="s">
-        <v>458</v>
-      </c>
-      <c r="J420" s="41" t="n">
+        <v>461</v>
+      </c>
+      <c r="J420" s="42" t="n">
         <f aca="false">J419+D419</f>
         <v>1136</v>
       </c>
@@ -20967,16 +20974,16 @@
         <f aca="false">J420/32</f>
         <v>35.5</v>
       </c>
-      <c r="N420" s="42" t="s">
+      <c r="N420" s="43" t="s">
         <v>29</v>
       </c>
       <c r="O420" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P420" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q420" s="42" t="n">
+      <c r="P420" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q420" s="43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20988,7 +20995,7 @@
       <c r="G421" s="37"/>
       <c r="H421" s="37"/>
       <c r="I421" s="37"/>
-      <c r="J421" s="41" t="n">
+      <c r="J421" s="42" t="n">
         <f aca="false">J420+D420</f>
         <v>1152</v>
       </c>
@@ -21008,7 +21015,7 @@
     <row r="422" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C422" s="3"/>
       <c r="H422" s="3"/>
-      <c r="J422" s="46"/>
+      <c r="J422" s="47"/>
       <c r="O422" s="3"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -21052,398 +21059,398 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.66"/>
   </cols>
   <sheetData>
-    <row r="6" s="47" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48" t="s">
-        <v>684</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>685</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>686</v>
-      </c>
-      <c r="F6" s="48" t="s">
+    <row r="6" s="48" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49" t="s">
         <v>687</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="D6" s="49" t="s">
         <v>688</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="E6" s="49" t="s">
         <v>689</v>
       </c>
-      <c r="I6" s="48"/>
+      <c r="F6" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>691</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>692</v>
+      </c>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="49"/>
-      <c r="C7" s="49" t="n">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="49" t="n">
+      <c r="D7" s="50" t="n">
         <f aca="false">C7*64+8</f>
         <v>72</v>
       </c>
-      <c r="E7" s="49" t="n">
+      <c r="E7" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="49" t="n">
+      <c r="F7" s="50" t="n">
         <f aca="false">(D7+(E7*32))</f>
         <v>104</v>
       </c>
-      <c r="G7" s="49" t="n">
+      <c r="G7" s="50" t="n">
         <f aca="false">(D7+(E7*32))*10</f>
         <v>1040</v>
       </c>
-      <c r="H7" s="49" t="n">
+      <c r="H7" s="50" t="n">
         <f aca="false">G7/1200</f>
         <v>0.866666666666667</v>
       </c>
-      <c r="I7" s="49"/>
+      <c r="I7" s="50"/>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49" t="n">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50" t="n">
         <v>6</v>
       </c>
-      <c r="D8" s="49" t="n">
+      <c r="D8" s="50" t="n">
         <f aca="false">C8*64+8</f>
         <v>392</v>
       </c>
-      <c r="E8" s="49" t="n">
+      <c r="E8" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="49" t="n">
+      <c r="F8" s="50" t="n">
         <f aca="false">(D8+(E8*32))</f>
         <v>456</v>
       </c>
-      <c r="G8" s="49" t="n">
+      <c r="G8" s="50" t="n">
         <f aca="false">(D8+(E8*32))*10</f>
         <v>4560</v>
       </c>
-      <c r="H8" s="49" t="n">
+      <c r="H8" s="50" t="n">
         <f aca="false">G8/1200</f>
         <v>3.8</v>
       </c>
-      <c r="I8" s="49"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="49"/>
-      <c r="C9" s="49" t="n">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50" t="n">
         <v>7</v>
       </c>
-      <c r="D9" s="49" t="n">
+      <c r="D9" s="50" t="n">
         <f aca="false">C9*64+8</f>
         <v>456</v>
       </c>
-      <c r="E9" s="49" t="n">
+      <c r="E9" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="49" t="n">
+      <c r="F9" s="50" t="n">
         <f aca="false">(D9+(E9*32))</f>
         <v>552</v>
       </c>
-      <c r="G9" s="49" t="n">
+      <c r="G9" s="50" t="n">
         <f aca="false">(D9+(E9*32))*10</f>
         <v>5520</v>
       </c>
-      <c r="H9" s="49" t="n">
+      <c r="H9" s="50" t="n">
         <f aca="false">G9/1200</f>
         <v>4.6</v>
       </c>
-      <c r="I9" s="49"/>
+      <c r="I9" s="50"/>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="49"/>
-      <c r="C10" s="49" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" s="49" t="n">
+      <c r="B10" s="50"/>
+      <c r="C10" s="50" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" s="50" t="n">
         <f aca="false">C10*64+8</f>
         <v>520</v>
       </c>
-      <c r="E10" s="49" t="n">
+      <c r="E10" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="49" t="n">
+      <c r="F10" s="50" t="n">
         <f aca="false">(D10+(E10*32))</f>
         <v>616</v>
       </c>
-      <c r="G10" s="49" t="n">
+      <c r="G10" s="50" t="n">
         <f aca="false">(D10+(E10*32))*10</f>
         <v>6160</v>
       </c>
-      <c r="H10" s="49" t="n">
+      <c r="H10" s="50" t="n">
         <f aca="false">G10/1200</f>
         <v>5.13333333333333</v>
       </c>
-      <c r="I10" s="49"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49" t="n">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50" t="n">
         <v>9</v>
       </c>
-      <c r="D11" s="49" t="n">
+      <c r="D11" s="50" t="n">
         <f aca="false">C11*64+8</f>
         <v>584</v>
       </c>
-      <c r="E11" s="49" t="n">
+      <c r="E11" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="49" t="n">
+      <c r="F11" s="50" t="n">
         <f aca="false">(D11+(E11*32))</f>
         <v>680</v>
       </c>
-      <c r="G11" s="49" t="n">
+      <c r="G11" s="50" t="n">
         <f aca="false">(D11+(E11*32))*10</f>
         <v>6800</v>
       </c>
-      <c r="H11" s="49" t="n">
+      <c r="H11" s="50" t="n">
         <f aca="false">G11/1200</f>
         <v>5.66666666666667</v>
       </c>
-      <c r="I11" s="49"/>
+      <c r="I11" s="50"/>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49" t="n">
+      <c r="B12" s="50"/>
+      <c r="C12" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="D12" s="49" t="n">
+      <c r="D12" s="50" t="n">
         <f aca="false">C12*64+8</f>
         <v>648</v>
       </c>
-      <c r="E12" s="49" t="n">
+      <c r="E12" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="49" t="n">
+      <c r="F12" s="50" t="n">
         <f aca="false">(D12+(E12*32))</f>
         <v>744</v>
       </c>
-      <c r="G12" s="49" t="n">
+      <c r="G12" s="50" t="n">
         <f aca="false">(D12+(E12*32))*10</f>
         <v>7440</v>
       </c>
-      <c r="H12" s="49" t="n">
+      <c r="H12" s="50" t="n">
         <f aca="false">G12/1200</f>
         <v>6.2</v>
       </c>
-      <c r="I12" s="49"/>
+      <c r="I12" s="50"/>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49" t="n">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50" t="n">
         <v>11</v>
       </c>
-      <c r="D13" s="49" t="n">
+      <c r="D13" s="50" t="n">
         <f aca="false">C13*64+8</f>
         <v>712</v>
       </c>
-      <c r="E13" s="49" t="n">
+      <c r="E13" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="F13" s="49" t="n">
+      <c r="F13" s="50" t="n">
         <f aca="false">(D13+(E13*32))</f>
         <v>840</v>
       </c>
-      <c r="G13" s="49" t="n">
+      <c r="G13" s="50" t="n">
         <f aca="false">(D13+(E13*32))*10</f>
         <v>8400</v>
       </c>
-      <c r="H13" s="49" t="n">
+      <c r="H13" s="50" t="n">
         <f aca="false">G13/1200</f>
         <v>7</v>
       </c>
-      <c r="I13" s="49"/>
+      <c r="I13" s="50"/>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="49"/>
-      <c r="C14" s="49" t="n">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50" t="n">
         <v>12</v>
       </c>
-      <c r="D14" s="49" t="n">
+      <c r="D14" s="50" t="n">
         <f aca="false">C14*64+8</f>
         <v>776</v>
       </c>
-      <c r="E14" s="49" t="n">
+      <c r="E14" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="F14" s="49" t="n">
+      <c r="F14" s="50" t="n">
         <f aca="false">(D14+(E14*32))</f>
         <v>904</v>
       </c>
-      <c r="G14" s="49" t="n">
+      <c r="G14" s="50" t="n">
         <f aca="false">(D14+(E14*32))*10</f>
         <v>9040</v>
       </c>
-      <c r="H14" s="49" t="n">
+      <c r="H14" s="50" t="n">
         <f aca="false">G14/1200</f>
         <v>7.53333333333333</v>
       </c>
-      <c r="I14" s="49"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49" t="n">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50" t="n">
         <v>13</v>
       </c>
-      <c r="D15" s="49" t="n">
+      <c r="D15" s="50" t="n">
         <f aca="false">C15*64+8</f>
         <v>840</v>
       </c>
-      <c r="E15" s="49" t="n">
+      <c r="E15" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="F15" s="49" t="n">
+      <c r="F15" s="50" t="n">
         <f aca="false">(D15+(E15*32))</f>
         <v>968</v>
       </c>
-      <c r="G15" s="49" t="n">
+      <c r="G15" s="50" t="n">
         <f aca="false">(D15+(E15*32))*10</f>
         <v>9680</v>
       </c>
-      <c r="H15" s="49" t="n">
+      <c r="H15" s="50" t="n">
         <f aca="false">G15/1200</f>
         <v>8.06666666666667</v>
       </c>
-      <c r="I15" s="49"/>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49" t="n">
+      <c r="B16" s="50"/>
+      <c r="C16" s="50" t="n">
         <v>14</v>
       </c>
-      <c r="D16" s="49" t="n">
+      <c r="D16" s="50" t="n">
         <f aca="false">C16*64+8</f>
         <v>904</v>
       </c>
-      <c r="E16" s="49" t="n">
+      <c r="E16" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="49" t="n">
+      <c r="F16" s="50" t="n">
         <f aca="false">(D16+(E16*32))</f>
         <v>1064</v>
       </c>
-      <c r="G16" s="49" t="n">
+      <c r="G16" s="50" t="n">
         <f aca="false">(D16+(E16*32))*10</f>
         <v>10640</v>
       </c>
-      <c r="H16" s="49" t="n">
+      <c r="H16" s="50" t="n">
         <f aca="false">G16/1200</f>
         <v>8.86666666666667</v>
       </c>
-      <c r="I16" s="49"/>
+      <c r="I16" s="50"/>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49" t="n">
+      <c r="B17" s="50"/>
+      <c r="C17" s="50" t="n">
         <v>15</v>
       </c>
-      <c r="D17" s="49" t="n">
+      <c r="D17" s="50" t="n">
         <f aca="false">C17*64+8</f>
         <v>968</v>
       </c>
-      <c r="E17" s="49" t="n">
+      <c r="E17" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="F17" s="49" t="n">
+      <c r="F17" s="50" t="n">
         <f aca="false">(D17+(E17*32))</f>
         <v>1128</v>
       </c>
-      <c r="G17" s="49" t="n">
+      <c r="G17" s="50" t="n">
         <f aca="false">(D17+(E17*32))*10</f>
         <v>11280</v>
       </c>
-      <c r="H17" s="49" t="n">
+      <c r="H17" s="50" t="n">
         <f aca="false">G17/1200</f>
         <v>9.4</v>
       </c>
-      <c r="I17" s="49"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49" t="n">
+      <c r="B18" s="50"/>
+      <c r="C18" s="50" t="n">
         <v>16</v>
       </c>
-      <c r="D18" s="49" t="n">
+      <c r="D18" s="50" t="n">
         <f aca="false">C18*64+8</f>
         <v>1032</v>
       </c>
-      <c r="E18" s="49" t="n">
+      <c r="E18" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="49" t="n">
+      <c r="F18" s="50" t="n">
         <f aca="false">(D18+(E18*32))</f>
         <v>1192</v>
       </c>
-      <c r="G18" s="49" t="n">
+      <c r="G18" s="50" t="n">
         <f aca="false">(D18+(E18*32))*10</f>
         <v>11920</v>
       </c>
-      <c r="H18" s="49" t="n">
+      <c r="H18" s="50" t="n">
         <f aca="false">G18/1200</f>
         <v>9.93333333333333</v>
       </c>
-      <c r="I18" s="49"/>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49" t="n">
+      <c r="B19" s="50"/>
+      <c r="C19" s="50" t="n">
         <v>17</v>
       </c>
-      <c r="D19" s="49" t="n">
+      <c r="D19" s="50" t="n">
         <f aca="false">C19*64+8</f>
         <v>1096</v>
       </c>
-      <c r="E19" s="49" t="n">
+      <c r="E19" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="F19" s="49" t="n">
+      <c r="F19" s="50" t="n">
         <f aca="false">(D19+(E19*32))</f>
         <v>1256</v>
       </c>
-      <c r="G19" s="49" t="n">
+      <c r="G19" s="50" t="n">
         <f aca="false">(D19+(E19*32))*10</f>
         <v>12560</v>
       </c>
-      <c r="H19" s="49" t="n">
+      <c r="H19" s="50" t="n">
         <f aca="false">G19/1200</f>
         <v>10.4666666666667</v>
       </c>
-      <c r="I19" s="49"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="49"/>
-      <c r="C20" s="49" t="n">
+      <c r="B20" s="50"/>
+      <c r="C20" s="50" t="n">
         <v>18</v>
       </c>
-      <c r="D20" s="49" t="n">
+      <c r="D20" s="50" t="n">
         <f aca="false">C20*64+8</f>
         <v>1160</v>
       </c>
-      <c r="E20" s="49" t="n">
+      <c r="E20" s="50" t="n">
         <v>6</v>
       </c>
-      <c r="F20" s="49" t="n">
+      <c r="F20" s="50" t="n">
         <f aca="false">(D20+(E20*32))</f>
         <v>1352</v>
       </c>
-      <c r="G20" s="49" t="n">
+      <c r="G20" s="50" t="n">
         <f aca="false">(D20+(E20*32))*10</f>
         <v>13520</v>
       </c>
-      <c r="H20" s="49" t="n">
+      <c r="H20" s="50" t="n">
         <f aca="false">G20/1200</f>
         <v>11.2666666666667</v>
       </c>
-      <c r="I20" s="49"/>
+      <c r="I20" s="50"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/genSpacecraft/DownlinkSpecGolf-T.xlsx
+++ b/genSpacecraft/DownlinkSpecGolf-T.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="703">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">ICR3VProt</t>
   </si>
   <si>
-    <t xml:space="preserve">8_bit_voltage</t>
+    <t xml:space="preserve">icr_8bit_volts</t>
   </si>
   <si>
     <t xml:space="preserve">V</t>
@@ -575,9 +575,6 @@
     <t xml:space="preserve">LtVGACtl</t>
   </si>
   <si>
-    <t xml:space="preserve">icr_8bit_volts</t>
-  </si>
-  <si>
     <t xml:space="preserve">Control Voltage to the Variable Gain Amplifier (VGA)</t>
   </si>
   <si>
@@ -624,6 +621,9 @@
   </si>
   <si>
     <t xml:space="preserve">CSS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ciu_8bit_volts</t>
   </si>
   <si>
     <t xml:space="preserve">Coarse Sun Sensor Values</t>
@@ -2499,8 +2499,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A141" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G71" activeCellId="0" sqref="G71:G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3657,7 +3657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="30" t="s">
         <v>72</v>
       </c>
@@ -5282,13 +5282,13 @@
       </c>
       <c r="F66" s="23"/>
       <c r="G66" s="23" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>75</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J66" s="28" t="n">
         <f aca="false">J65+D65</f>
@@ -5321,10 +5321,10 @@
     </row>
     <row r="67" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" s="30" t="s">
         <v>186</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>187</v>
       </c>
       <c r="D67" s="30" t="n">
         <v>8</v>
@@ -5340,7 +5340,7 @@
         <v>81</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J67" s="28" t="n">
         <f aca="false">J66+D66</f>
@@ -5359,7 +5359,7 @@
         <v>8.25</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O67" s="3" t="n">
         <v>7</v>
@@ -5373,10 +5373,10 @@
     </row>
     <row r="68" customFormat="false" ht="28.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="30" t="s">
         <v>190</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>191</v>
       </c>
       <c r="D68" s="30" t="n">
         <v>8</v>
@@ -5392,7 +5392,7 @@
         <v>81</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J68" s="28" t="n">
         <f aca="false">J67+D67</f>
@@ -5411,7 +5411,7 @@
         <v>8.5</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O68" s="3" t="n">
         <v>7</v>
@@ -5425,10 +5425,10 @@
     </row>
     <row r="69" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="30" t="s">
         <v>193</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>194</v>
       </c>
       <c r="D69" s="30" t="n">
         <v>8</v>
@@ -5444,7 +5444,7 @@
         <v>81</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J69" s="28" t="n">
         <f aca="false">J68+D68</f>
@@ -5477,10 +5477,10 @@
     </row>
     <row r="70" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" s="30" t="s">
         <v>196</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>197</v>
       </c>
       <c r="D70" s="30" t="n">
         <v>8</v>
@@ -5496,7 +5496,7 @@
         <v>81</v>
       </c>
       <c r="I70" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J70" s="28" t="n">
         <f aca="false">J69+D69</f>
@@ -5527,22 +5527,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="D71" s="30" t="n">
+        <v>8</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="23"/>
+      <c r="G71" s="22" t="s">
         <v>200</v>
-      </c>
-      <c r="D71" s="30" t="n">
-        <v>8</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F71" s="23"/>
-      <c r="G71" s="22" t="n">
-        <v>0</v>
       </c>
       <c r="H71" s="22" t="s">
         <v>27</v>
@@ -5579,7 +5579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="30" t="s">
         <v>203</v>
       </c>
@@ -5593,8 +5593,8 @@
         <v>26</v>
       </c>
       <c r="F72" s="23"/>
-      <c r="G72" s="22" t="n">
-        <v>0</v>
+      <c r="G72" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="H72" s="22" t="s">
         <v>27</v>
@@ -5631,7 +5631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="30" t="s">
         <v>205</v>
       </c>
@@ -5645,8 +5645,8 @@
         <v>26</v>
       </c>
       <c r="F73" s="23"/>
-      <c r="G73" s="22" t="n">
-        <v>0</v>
+      <c r="G73" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="H73" s="22" t="s">
         <v>27</v>
@@ -5683,7 +5683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="30" t="s">
         <v>207</v>
       </c>
@@ -5697,8 +5697,8 @@
         <v>26</v>
       </c>
       <c r="F74" s="23"/>
-      <c r="G74" s="22" t="n">
-        <v>0</v>
+      <c r="G74" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="H74" s="22" t="s">
         <v>27</v>
@@ -5735,7 +5735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="30" t="s">
         <v>209</v>
       </c>
@@ -5749,8 +5749,8 @@
         <v>26</v>
       </c>
       <c r="F75" s="23"/>
-      <c r="G75" s="22" t="n">
-        <v>0</v>
+      <c r="G75" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="H75" s="22" t="s">
         <v>27</v>
@@ -5787,7 +5787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="30" t="s">
         <v>211</v>
       </c>
@@ -5801,8 +5801,8 @@
         <v>26</v>
       </c>
       <c r="F76" s="23"/>
-      <c r="G76" s="22" t="n">
-        <v>0</v>
+      <c r="G76" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="H76" s="22" t="s">
         <v>27</v>
@@ -5839,7 +5839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="30" t="s">
         <v>213</v>
       </c>
@@ -5853,8 +5853,8 @@
         <v>26</v>
       </c>
       <c r="F77" s="23"/>
-      <c r="G77" s="22" t="n">
-        <v>0</v>
+      <c r="G77" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="H77" s="22" t="s">
         <v>27</v>
@@ -5891,7 +5891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="30" t="s">
         <v>215</v>
       </c>
@@ -5905,8 +5905,8 @@
         <v>26</v>
       </c>
       <c r="F78" s="23"/>
-      <c r="G78" s="22" t="n">
-        <v>0</v>
+      <c r="G78" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="H78" s="22" t="s">
         <v>27</v>
@@ -5943,7 +5943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="30" t="s">
         <v>217</v>
       </c>
@@ -5957,8 +5957,8 @@
         <v>26</v>
       </c>
       <c r="F79" s="23"/>
-      <c r="G79" s="23" t="s">
-        <v>74</v>
+      <c r="G79" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="H79" s="22" t="s">
         <v>75</v>
@@ -5995,7 +5995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="30" t="s">
         <v>221</v>
       </c>
@@ -6009,8 +6009,8 @@
         <v>26</v>
       </c>
       <c r="F80" s="23"/>
-      <c r="G80" s="23" t="s">
-        <v>74</v>
+      <c r="G80" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="H80" s="22" t="s">
         <v>75</v>
@@ -6047,7 +6047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="30" t="s">
         <v>224</v>
       </c>
@@ -6061,8 +6061,8 @@
         <v>26</v>
       </c>
       <c r="F81" s="23"/>
-      <c r="G81" s="23" t="s">
-        <v>74</v>
+      <c r="G81" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="H81" s="22" t="s">
         <v>75</v>
@@ -6099,7 +6099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="30" t="s">
         <v>227</v>
       </c>
@@ -6113,8 +6113,8 @@
         <v>26</v>
       </c>
       <c r="F82" s="23"/>
-      <c r="G82" s="22" t="n">
-        <v>0</v>
+      <c r="G82" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="H82" s="22" t="s">
         <v>75</v>
@@ -7118,7 +7118,7 @@
         <v>16.5</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O104" s="24" t="n">
         <v>7</v>
@@ -8474,7 +8474,7 @@
         <v>19.75</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O132" s="3" t="n">
         <v>7</v>
@@ -8526,7 +8526,7 @@
         <v>20</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O133" s="3" t="n">
         <v>7</v>
@@ -9812,7 +9812,7 @@
         <v>23.25</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O161" s="3" t="n">
         <v>7</v>
@@ -9862,7 +9862,7 @@
         <v>23.5</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O162" s="3" t="n">
         <v>7</v>
@@ -21137,10 +21137,10 @@
   <dimension ref="B6:I20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="1" sqref="G71:G82 F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.11"/>

--- a/genSpacecraft/DownlinkSpecGolf-T.xlsx
+++ b/genSpacecraft/DownlinkSpecGolf-T.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="708">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -680,6 +680,9 @@
     <t xml:space="preserve">CIU3V3_1</t>
   </si>
   <si>
+    <t xml:space="preserve">psoc_8bit_volts</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.3V Power for part 1 of CIU</t>
   </si>
   <si>
@@ -695,7 +698,7 @@
     <t xml:space="preserve">3.3V power for part 2 of CIU</t>
   </si>
   <si>
-    <t xml:space="preserve">CIU 6V Vsys</t>
+    <t xml:space="preserve">CIU 5.2V Vsys</t>
   </si>
   <si>
     <t xml:space="preserve">CIUVsys</t>
@@ -2511,8 +2514,8 @@
   </sheetPr>
   <dimension ref="A1:Q425"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C186" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I165" activeCellId="0" sqref="I165"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B82" activeCellId="0" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5970,13 +5973,13 @@
       </c>
       <c r="F79" s="23"/>
       <c r="G79" s="22" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H79" s="22" t="s">
         <v>75</v>
       </c>
       <c r="I79" s="30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J79" s="28" t="n">
         <f aca="false">J78+D78</f>
@@ -5995,7 +5998,7 @@
         <v>11.25</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O79" s="24" t="n">
         <v>9</v>
@@ -6007,12 +6010,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D80" s="30" t="n">
         <v>8</v>
@@ -6022,13 +6025,13 @@
       </c>
       <c r="F80" s="23"/>
       <c r="G80" s="22" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H80" s="22" t="s">
         <v>75</v>
       </c>
       <c r="I80" s="30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J80" s="28" t="n">
         <f aca="false">J79+D79</f>
@@ -6047,7 +6050,7 @@
         <v>11.5</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O80" s="24" t="n">
         <v>9</v>
@@ -6061,10 +6064,10 @@
     </row>
     <row r="81" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D81" s="30" t="n">
         <v>8</v>
@@ -6074,13 +6077,13 @@
       </c>
       <c r="F81" s="23"/>
       <c r="G81" s="22" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H81" s="22" t="s">
         <v>75</v>
       </c>
       <c r="I81" s="30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J81" s="28" t="n">
         <f aca="false">J80+D80</f>
@@ -6099,7 +6102,7 @@
         <v>11.75</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O81" s="24" t="n">
         <v>9</v>
@@ -6111,12 +6114,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D82" s="30" t="n">
         <v>8</v>
@@ -6126,13 +6129,13 @@
       </c>
       <c r="F82" s="23"/>
       <c r="G82" s="22" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H82" s="22" t="s">
         <v>75</v>
       </c>
       <c r="I82" s="30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J82" s="28" t="n">
         <f aca="false">J81+D81</f>
@@ -6151,7 +6154,7 @@
         <v>12</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O82" s="24" t="n">
         <v>9</v>
@@ -6165,10 +6168,10 @@
     </row>
     <row r="83" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="30" t="n">
         <v>8</v>
@@ -6184,7 +6187,7 @@
         <v>69</v>
       </c>
       <c r="I83" s="30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J83" s="28" t="n">
         <f aca="false">J82+D82</f>
@@ -6203,7 +6206,7 @@
         <v>12.25</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O83" s="24" t="n">
         <v>11</v>
@@ -6217,10 +6220,10 @@
     </row>
     <row r="84" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="30" t="n">
         <v>8</v>
@@ -6233,10 +6236,10 @@
         <v>80</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I84" s="30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J84" s="28" t="n">
         <f aca="false">J83+D83</f>
@@ -6255,7 +6258,7 @@
         <v>12.5</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O84" s="24" t="n">
         <v>11</v>
@@ -6269,10 +6272,10 @@
     </row>
     <row r="85" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="30" t="n">
         <v>8</v>
@@ -6285,10 +6288,10 @@
         <v>80</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I85" s="30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J85" s="28" t="n">
         <f aca="false">J84+D84</f>
@@ -6307,7 +6310,7 @@
         <v>12.75</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O85" s="24" t="n">
         <v>11</v>
@@ -6321,10 +6324,10 @@
     </row>
     <row r="86" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="30" t="n">
         <v>8</v>
@@ -6359,7 +6362,7 @@
         <v>13</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O86" s="24" t="n">
         <v>11</v>
@@ -6373,10 +6376,10 @@
     </row>
     <row r="87" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="30" t="n">
         <v>8</v>
@@ -6425,10 +6428,10 @@
     </row>
     <row r="88" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="30" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="30" t="n">
         <v>8</v>
@@ -6463,7 +6466,7 @@
         <v>13.5</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O88" s="24" t="n">
         <v>11</v>
@@ -6477,10 +6480,10 @@
     </row>
     <row r="89" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="30" t="n">
         <v>8</v>
@@ -6515,7 +6518,7 @@
         <v>13.75</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O89" s="24" t="n">
         <v>11</v>
@@ -6529,10 +6532,10 @@
     </row>
     <row r="90" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="30" t="n">
         <v>8</v>
@@ -6567,7 +6570,7 @@
         <v>14</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O90" s="24" t="n">
         <v>11</v>
@@ -6581,10 +6584,10 @@
     </row>
     <row r="91" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D91" s="30" t="n">
         <v>8</v>
@@ -6619,7 +6622,7 @@
         <v>14.25</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O91" s="24" t="n">
         <v>11</v>
@@ -6633,10 +6636,10 @@
     </row>
     <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D92" s="30" t="n">
         <v>8</v>
@@ -6671,7 +6674,7 @@
         <v>14.5</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O92" s="24" t="n">
         <v>11</v>
@@ -6685,10 +6688,10 @@
     </row>
     <row r="93" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="30" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D93" s="30" t="n">
         <v>8</v>
@@ -6723,7 +6726,7 @@
         <v>14.75</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O93" s="24" t="n">
         <v>11</v>
@@ -6737,10 +6740,10 @@
     </row>
     <row r="94" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D94" s="30" t="n">
         <v>8</v>
@@ -6775,7 +6778,7 @@
         <v>15</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O94" s="24" t="n">
         <v>11</v>
@@ -6789,10 +6792,10 @@
     </row>
     <row r="95" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="30" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D95" s="30" t="n">
         <v>8</v>
@@ -6827,7 +6830,7 @@
         <v>15.25</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O95" s="24" t="n">
         <v>11</v>
@@ -6841,10 +6844,10 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" s="30" t="n">
         <v>16</v>
@@ -6900,7 +6903,7 @@
       <c r="G97" s="23"/>
       <c r="H97" s="23"/>
       <c r="I97" s="23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J97" s="28" t="n">
         <f aca="false">J96+D96</f>
@@ -6938,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -6950,7 +6953,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B100" s="30"/>
       <c r="C100" s="30"/>
@@ -6967,10 +6970,10 @@
     </row>
     <row r="101" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="30" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D101" s="30" t="n">
         <v>8</v>
@@ -6979,7 +6982,7 @@
         <v>26</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G101" s="22" t="n">
         <v>16</v>
@@ -6988,7 +6991,7 @@
         <v>27</v>
       </c>
       <c r="I101" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J101" s="28" t="n">
         <f aca="false">J97</f>
@@ -7007,7 +7010,7 @@
         <v>16</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O101" s="24" t="n">
         <v>3</v>
@@ -7021,10 +7024,10 @@
     </row>
     <row r="102" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D102" s="30" t="n">
         <v>8</v>
@@ -7033,7 +7036,7 @@
         <v>26</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G102" s="22" t="n">
         <v>16</v>
@@ -7042,7 +7045,7 @@
         <v>27</v>
       </c>
       <c r="I102" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J102" s="28" t="n">
         <f aca="false">J101+D101</f>
@@ -7061,7 +7064,7 @@
         <v>16.25</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O102" s="24" t="n">
         <v>3</v>
@@ -7081,7 +7084,7 @@
       <c r="C103" s="30"/>
       <c r="D103" s="30"/>
       <c r="E103" s="23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F103" s="23"/>
       <c r="G103" s="23"/>
@@ -7094,10 +7097,10 @@
     </row>
     <row r="104" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D104" s="30" t="n">
         <v>1</v>
@@ -7111,7 +7114,7 @@
         <v>27</v>
       </c>
       <c r="I104" s="23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J104" s="28" t="n">
         <f aca="false">J102+D102</f>
@@ -7144,10 +7147,10 @@
     </row>
     <row r="105" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D105" s="30" t="n">
         <v>1</v>
@@ -7163,7 +7166,7 @@
         <v>27</v>
       </c>
       <c r="I105" s="23" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J105" s="28" t="n">
         <f aca="false">J104+D104</f>
@@ -7182,7 +7185,7 @@
         <v>16.53125</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O105" s="24" t="n">
         <v>3</v>
@@ -7196,10 +7199,10 @@
     </row>
     <row r="106" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D106" s="30" t="n">
         <v>1</v>
@@ -7215,7 +7218,7 @@
         <v>27</v>
       </c>
       <c r="I106" s="23" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J106" s="28" t="n">
         <f aca="false">J105+D105</f>
@@ -7234,7 +7237,7 @@
         <v>16.5625</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O106" s="24" t="n">
         <v>3</v>
@@ -7248,10 +7251,10 @@
     </row>
     <row r="107" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D107" s="30" t="n">
         <v>1</v>
@@ -7267,7 +7270,7 @@
         <v>27</v>
       </c>
       <c r="I107" s="23" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J107" s="28" t="n">
         <f aca="false">J106+D106</f>
@@ -7300,10 +7303,10 @@
     </row>
     <row r="108" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="30" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D108" s="30" t="n">
         <v>1</v>
@@ -7319,7 +7322,7 @@
         <v>27</v>
       </c>
       <c r="I108" s="23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J108" s="28" t="n">
         <f aca="false">J107+D107</f>
@@ -7352,10 +7355,10 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="30" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D109" s="30" t="n">
         <v>1</v>
@@ -7402,10 +7405,10 @@
     </row>
     <row r="110" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D110" s="30" t="n">
         <v>1</v>
@@ -7421,7 +7424,7 @@
         <v>27</v>
       </c>
       <c r="I110" s="23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J110" s="28" t="n">
         <f aca="false">J109+D109</f>
@@ -7454,10 +7457,10 @@
     </row>
     <row r="111" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D111" s="30" t="n">
         <v>1</v>
@@ -7473,7 +7476,7 @@
         <v>27</v>
       </c>
       <c r="I111" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J111" s="28" t="n">
         <f aca="false">J110+D110</f>
@@ -7492,7 +7495,7 @@
         <v>16.71875</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O111" s="3" t="n">
         <v>3</v>
@@ -7543,10 +7546,10 @@
     </row>
     <row r="114" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D114" s="30" t="n">
         <v>1</v>
@@ -7562,7 +7565,7 @@
         <v>27</v>
       </c>
       <c r="I114" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J114" s="28" t="n">
         <f aca="false">J102+D102</f>
@@ -7595,10 +7598,10 @@
     </row>
     <row r="115" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D115" s="30" t="n">
         <v>1</v>
@@ -7614,7 +7617,7 @@
         <v>27</v>
       </c>
       <c r="I115" s="23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J115" s="28" t="n">
         <f aca="false">J114+D114</f>
@@ -7647,10 +7650,10 @@
     </row>
     <row r="116" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D116" s="30" t="n">
         <v>1</v>
@@ -7666,7 +7669,7 @@
         <v>27</v>
       </c>
       <c r="I116" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J116" s="28" t="n">
         <f aca="false">J115+D115</f>
@@ -7699,10 +7702,10 @@
     </row>
     <row r="117" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="30" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D117" s="30" t="n">
         <v>1</v>
@@ -7718,7 +7721,7 @@
         <v>27</v>
       </c>
       <c r="I117" s="23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J117" s="28" t="n">
         <f aca="false">J116+D116</f>
@@ -7751,10 +7754,10 @@
     </row>
     <row r="118" customFormat="false" ht="28.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D118" s="30" t="n">
         <v>1</v>
@@ -7770,7 +7773,7 @@
         <v>27</v>
       </c>
       <c r="I118" s="23" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J118" s="28" t="n">
         <f aca="false">J117+D117</f>
@@ -7803,10 +7806,10 @@
     </row>
     <row r="119" customFormat="false" ht="28.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D119" s="30" t="n">
         <v>1</v>
@@ -7822,7 +7825,7 @@
         <v>27</v>
       </c>
       <c r="I119" s="23" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J119" s="28" t="n">
         <f aca="false">J118+D118</f>
@@ -7855,10 +7858,10 @@
     </row>
     <row r="120" customFormat="false" ht="28.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D120" s="30" t="n">
         <v>1</v>
@@ -7874,7 +7877,7 @@
         <v>27</v>
       </c>
       <c r="I120" s="23" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J120" s="28" t="n">
         <f aca="false">J119+D119</f>
@@ -7907,10 +7910,10 @@
     </row>
     <row r="121" customFormat="false" ht="39.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D121" s="30" t="n">
         <v>1</v>
@@ -7924,7 +7927,7 @@
         <v>27</v>
       </c>
       <c r="I121" s="23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J121" s="28" t="n">
         <f aca="false">J120+D120</f>
@@ -7978,10 +7981,10 @@
     </row>
     <row r="123" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D123" s="30" t="n">
         <v>8</v>
@@ -7997,7 +8000,7 @@
         <v>27</v>
       </c>
       <c r="I123" s="23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J123" s="28" t="n">
         <f aca="false">J121+D121</f>
@@ -8016,7 +8019,7 @@
         <v>16.75</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O123" s="3" t="n">
         <v>10</v>
@@ -8030,10 +8033,10 @@
     </row>
     <row r="124" customFormat="false" ht="113.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D124" s="30" t="n">
         <v>8</v>
@@ -8049,7 +8052,7 @@
         <v>27</v>
       </c>
       <c r="I124" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J124" s="28" t="n">
         <f aca="false">J123+D123</f>
@@ -8068,7 +8071,7 @@
         <v>17</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O124" s="3" t="n">
         <v>3</v>
@@ -8082,10 +8085,10 @@
     </row>
     <row r="125" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D125" s="30" t="n">
         <v>32</v>
@@ -8103,7 +8106,7 @@
         <v>27</v>
       </c>
       <c r="I125" s="23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J125" s="28" t="n">
         <f aca="false">J124+D124</f>
@@ -8136,10 +8139,10 @@
     </row>
     <row r="126" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C126" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D126" s="30" t="n">
         <v>8</v>
@@ -8155,7 +8158,7 @@
         <v>27</v>
       </c>
       <c r="I126" s="23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J126" s="28" t="n">
         <f aca="false">J125+D125</f>
@@ -8188,10 +8191,10 @@
     </row>
     <row r="127" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C127" s="30" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D127" s="30" t="n">
         <v>8</v>
@@ -8207,7 +8210,7 @@
         <v>27</v>
       </c>
       <c r="I127" s="23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J127" s="28" t="n">
         <f aca="false">J126+D126</f>
@@ -8240,10 +8243,10 @@
     </row>
     <row r="128" customFormat="false" ht="63.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D128" s="30" t="n">
         <v>8</v>
@@ -8259,7 +8262,7 @@
         <v>27</v>
       </c>
       <c r="I128" s="23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J128" s="28" t="n">
         <f aca="false">J127+D127</f>
@@ -8292,10 +8295,10 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="30" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D129" s="30" t="n">
         <v>8</v>
@@ -8311,7 +8314,7 @@
         <v>27</v>
       </c>
       <c r="I129" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J129" s="28" t="n">
         <f aca="false">J128+D128</f>
@@ -8344,10 +8347,10 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="30" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D130" s="30" t="n">
         <v>8</v>
@@ -8363,7 +8366,7 @@
         <v>27</v>
       </c>
       <c r="I130" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J130" s="28" t="n">
         <f aca="false">J129+D129</f>
@@ -8396,10 +8399,10 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="30" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D131" s="30" t="n">
         <v>8</v>
@@ -8415,7 +8418,7 @@
         <v>27</v>
       </c>
       <c r="I131" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J131" s="28" t="n">
         <f aca="false">J130+D130</f>
@@ -8448,10 +8451,10 @@
     </row>
     <row r="132" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="30" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D132" s="30" t="n">
         <v>8</v>
@@ -8467,7 +8470,7 @@
         <v>27</v>
       </c>
       <c r="I132" s="23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J132" s="28" t="n">
         <f aca="false">J131+D131</f>
@@ -8500,10 +8503,10 @@
     </row>
     <row r="133" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="30" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C133" s="31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D133" s="30" t="n">
         <v>8</v>
@@ -8519,7 +8522,7 @@
         <v>27</v>
       </c>
       <c r="I133" s="23" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J133" s="28" t="n">
         <f aca="false">J132+D132</f>
@@ -8552,10 +8555,10 @@
     </row>
     <row r="134" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C134" s="30" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D134" s="30" t="n">
         <v>8</v>
@@ -8571,7 +8574,7 @@
         <v>27</v>
       </c>
       <c r="I134" s="23" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J134" s="28" t="n">
         <f aca="false">J133+D133</f>
@@ -8604,10 +8607,10 @@
     </row>
     <row r="135" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="30" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D135" s="30" t="n">
         <v>8</v>
@@ -8623,7 +8626,7 @@
         <v>27</v>
       </c>
       <c r="I135" s="23" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J135" s="28" t="n">
         <f aca="false">J134+D134</f>
@@ -8656,10 +8659,10 @@
     </row>
     <row r="136" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="30" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C136" s="30" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D136" s="30" t="n">
         <v>8</v>
@@ -8675,7 +8678,7 @@
         <v>27</v>
       </c>
       <c r="I136" s="23" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J136" s="28" t="n">
         <f aca="false">J135+D135</f>
@@ -8708,10 +8711,10 @@
     </row>
     <row r="137" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="30" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D137" s="30" t="n">
         <v>8</v>
@@ -8727,7 +8730,7 @@
         <v>27</v>
       </c>
       <c r="I137" s="23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J137" s="28" t="n">
         <f aca="false">J136+D136</f>
@@ -8760,10 +8763,10 @@
     </row>
     <row r="138" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C138" s="30" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D138" s="30" t="n">
         <v>8</v>
@@ -8779,7 +8782,7 @@
         <v>27</v>
       </c>
       <c r="I138" s="23" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J138" s="28" t="n">
         <f aca="false">J137+D137</f>
@@ -8798,7 +8801,7 @@
         <v>21.25</v>
       </c>
       <c r="N138" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O138" s="24" t="n">
         <v>9</v>
@@ -8812,10 +8815,10 @@
     </row>
     <row r="139" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="30" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C139" s="30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D139" s="30" t="n">
         <v>8</v>
@@ -8831,7 +8834,7 @@
         <v>27</v>
       </c>
       <c r="I139" s="23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J139" s="28" t="n">
         <f aca="false">J138+D138</f>
@@ -8850,7 +8853,7 @@
         <v>21.5</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O139" s="3" t="n">
         <v>9</v>
@@ -8864,10 +8867,10 @@
     </row>
     <row r="140" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="30" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D140" s="30" t="n">
         <v>8</v>
@@ -8883,7 +8886,7 @@
         <v>27</v>
       </c>
       <c r="I140" s="23" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J140" s="28" t="n">
         <f aca="false">J139+D139</f>
@@ -8916,10 +8919,10 @@
     </row>
     <row r="141" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="30" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C141" s="30" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D141" s="30" t="n">
         <v>8</v>
@@ -8935,7 +8938,7 @@
         <v>27</v>
       </c>
       <c r="I141" s="23" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J141" s="28" t="n">
         <f aca="false">J140+D140</f>
@@ -8968,10 +8971,10 @@
     </row>
     <row r="142" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="30" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D142" s="30" t="n">
         <v>8</v>
@@ -8987,7 +8990,7 @@
         <v>27</v>
       </c>
       <c r="I142" s="23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J142" s="28" t="n">
         <f aca="false">J141+D141</f>
@@ -9020,10 +9023,10 @@
     </row>
     <row r="143" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D143" s="30" t="n">
         <v>8</v>
@@ -9039,7 +9042,7 @@
         <v>27</v>
       </c>
       <c r="I143" s="23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J143" s="28" t="n">
         <f aca="false">J142+D142</f>
@@ -9078,10 +9081,10 @@
     </row>
     <row r="145" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C145" s="30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D145" s="30" t="n">
         <v>1</v>
@@ -9097,7 +9100,7 @@
         <v>27</v>
       </c>
       <c r="I145" s="23" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J145" s="28" t="n">
         <f aca="false">J143+D143</f>
@@ -9130,10 +9133,10 @@
     </row>
     <row r="146" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D146" s="30" t="n">
         <v>1</v>
@@ -9149,7 +9152,7 @@
         <v>27</v>
       </c>
       <c r="I146" s="23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J146" s="28" t="n">
         <f aca="false">J145+D145</f>
@@ -9182,10 +9185,10 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="30" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C147" s="32" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D147" s="30" t="n">
         <v>1</v>
@@ -9218,7 +9221,7 @@
         <v>22.8125</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O147" s="3" t="n">
         <v>3</v>
@@ -9232,10 +9235,10 @@
     </row>
     <row r="148" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="30" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D148" s="30" t="n">
         <v>3</v>
@@ -9245,7 +9248,7 @@
       </c>
       <c r="F148" s="23"/>
       <c r="G148" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H148" s="22" t="s">
         <v>27</v>
@@ -9268,7 +9271,7 @@
         <v>22.84375</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O148" s="3" t="n">
         <v>3</v>
@@ -9282,10 +9285,10 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="30" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D149" s="30" t="n">
         <v>1</v>
@@ -9330,10 +9333,10 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="30" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C150" s="30" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D150" s="30" t="n">
         <v>1</v>
@@ -9416,10 +9419,10 @@
     </row>
     <row r="153" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="30" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D153" s="30" t="n">
         <v>1</v>
@@ -9435,7 +9438,7 @@
         <v>27</v>
       </c>
       <c r="I153" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J153" s="28" t="n">
         <f aca="false">J143+D143</f>
@@ -9465,10 +9468,10 @@
     </row>
     <row r="154" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="30" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D154" s="30" t="n">
         <v>1</v>
@@ -9484,7 +9487,7 @@
         <v>27</v>
       </c>
       <c r="I154" s="23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J154" s="28" t="n">
         <f aca="false">J153+D153</f>
@@ -9517,10 +9520,10 @@
     </row>
     <row r="155" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="30" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D155" s="30" t="n">
         <v>3</v>
@@ -9530,7 +9533,7 @@
       </c>
       <c r="F155" s="23"/>
       <c r="G155" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H155" s="22" t="s">
         <v>27</v>
@@ -9553,7 +9556,7 @@
         <v>22.8125</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O155" s="3" t="n">
         <v>3</v>
@@ -9567,10 +9570,10 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="30" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D156" s="30" t="n">
         <v>1</v>
@@ -9603,7 +9606,7 @@
         <v>22.90625</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O156" s="3" t="n">
         <v>3</v>
@@ -9617,10 +9620,10 @@
     </row>
     <row r="157" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D157" s="30" t="n">
         <v>1</v>
@@ -9636,7 +9639,7 @@
         <v>27</v>
       </c>
       <c r="I157" s="23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J157" s="28" t="n">
         <f aca="false">J156+D156</f>
@@ -9669,10 +9672,10 @@
     </row>
     <row r="158" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D158" s="30" t="n">
         <v>1</v>
@@ -9688,7 +9691,7 @@
         <v>27</v>
       </c>
       <c r="I158" s="23" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J158" s="28" t="n">
         <f aca="false">J157+D157</f>
@@ -9738,10 +9741,10 @@
     </row>
     <row r="160" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="30" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C160" s="30" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D160" s="30" t="n">
         <v>8</v>
@@ -9755,7 +9758,7 @@
       </c>
       <c r="H160" s="22"/>
       <c r="I160" s="23" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J160" s="28" t="n">
         <f aca="false">J150+D150</f>
@@ -9788,10 +9791,10 @@
     </row>
     <row r="161" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="30" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D161" s="30" t="n">
         <v>8</v>
@@ -9805,7 +9808,7 @@
       </c>
       <c r="H161" s="22"/>
       <c r="I161" s="23" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J161" s="28" t="n">
         <f aca="false">J160+D160</f>
@@ -9838,10 +9841,10 @@
     </row>
     <row r="162" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D162" s="30" t="n">
         <v>8</v>
@@ -9855,7 +9858,7 @@
       </c>
       <c r="H162" s="22"/>
       <c r="I162" s="23" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J162" s="28" t="n">
         <f aca="false">J161+D161</f>
@@ -9910,7 +9913,7 @@
         <v>49</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D164" s="30" t="n">
         <v>6</v>
@@ -9957,10 +9960,10 @@
     </row>
     <row r="165" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="30" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D165" s="30" t="n">
         <v>1</v>
@@ -9970,11 +9973,11 @@
       </c>
       <c r="F165" s="23"/>
       <c r="G165" s="23" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H165" s="22"/>
       <c r="I165" s="23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J165" s="28"/>
       <c r="K165" s="27"/>
@@ -9995,10 +9998,10 @@
     </row>
     <row r="166" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="30" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D166" s="30" t="n">
         <v>1</v>
@@ -10012,7 +10015,7 @@
       </c>
       <c r="H166" s="22"/>
       <c r="I166" s="23" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J166" s="28" t="n">
         <f aca="false">J164+D164</f>
@@ -10022,7 +10025,7 @@
       <c r="L166" s="27"/>
       <c r="M166" s="27"/>
       <c r="N166" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O166" s="24" t="n">
         <v>3</v>
@@ -10036,7 +10039,7 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B167" s="30"/>
       <c r="C167" s="30"/>
@@ -10074,10 +10077,10 @@
     </row>
     <row r="169" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="30" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C169" s="30" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D169" s="30" t="n">
         <v>1</v>
@@ -10091,7 +10094,7 @@
       </c>
       <c r="H169" s="22"/>
       <c r="I169" s="23" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J169" s="28" t="n">
         <f aca="false">J162+D162</f>
@@ -10101,7 +10104,7 @@
       <c r="L169" s="27"/>
       <c r="M169" s="27"/>
       <c r="N169" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O169" s="24" t="n">
         <v>3</v>
@@ -10115,10 +10118,10 @@
     </row>
     <row r="170" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="30" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C170" s="30" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D170" s="30" t="n">
         <v>1</v>
@@ -10128,11 +10131,11 @@
       </c>
       <c r="F170" s="23"/>
       <c r="G170" s="23" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H170" s="22"/>
       <c r="I170" s="23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J170" s="28" t="n">
         <f aca="false">J168+D168</f>
@@ -10168,7 +10171,7 @@
         <v>49</v>
       </c>
       <c r="C171" s="30" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D171" s="30" t="n">
         <v>6</v>
@@ -10215,7 +10218,7 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B172" s="30"/>
       <c r="C172" s="30"/>
@@ -10244,7 +10247,7 @@
       <c r="G173" s="35"/>
       <c r="H173" s="34"/>
       <c r="I173" s="35" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J173" s="28" t="n">
         <f aca="false">J171+D171</f>
@@ -10274,7 +10277,7 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B176" s="30"/>
       <c r="C176" s="30"/>
@@ -10294,7 +10297,7 @@
         <v>49</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D177" s="30" t="n">
         <v>32</v>
@@ -10352,7 +10355,7 @@
       <c r="G178" s="35"/>
       <c r="H178" s="34"/>
       <c r="I178" s="35" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J178" s="28" t="n">
         <f aca="false">J177+D177</f>
@@ -10389,32 +10392,32 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B180" s="25"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="30" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C181" s="30" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D181" s="26" t="n">
         <v>32</v>
       </c>
       <c r="E181" s="37" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F181" s="23"/>
       <c r="G181" s="38" t="n">
         <v>1</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I181" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J181" s="28" t="n">
         <f aca="false">J97</f>
@@ -10447,10 +10450,10 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="30" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C182" s="30" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D182" s="26" t="n">
         <v>16</v>
@@ -10460,10 +10463,10 @@
       </c>
       <c r="F182" s="23"/>
       <c r="G182" s="39" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I182" s="27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J182" s="28" t="n">
         <f aca="false">J181+D181</f>
@@ -10482,7 +10485,7 @@
         <v>17</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O182" s="3" t="n">
         <v>10</v>
@@ -10496,16 +10499,16 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C183" s="30" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D183" s="26" t="n">
         <v>8</v>
       </c>
       <c r="E183" s="37" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F183" s="23"/>
       <c r="G183" s="22" t="n">
@@ -10515,7 +10518,7 @@
         <v>27</v>
       </c>
       <c r="I183" s="27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J183" s="28" t="n">
         <f aca="false">J182+D182</f>
@@ -10534,7 +10537,7 @@
         <v>17.5</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O183" s="3" t="n">
         <v>10</v>
@@ -10548,10 +10551,10 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="30" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C184" s="30" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D184" s="26" t="n">
         <v>8</v>
@@ -10565,7 +10568,7 @@
         <v>27</v>
       </c>
       <c r="I184" s="27" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J184" s="28" t="n">
         <f aca="false">J183+D183</f>
@@ -10608,7 +10611,7 @@
       <c r="G185" s="35"/>
       <c r="H185" s="34"/>
       <c r="I185" s="35" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J185" s="28" t="n">
         <f aca="false">J184+D184</f>
@@ -10635,16 +10638,16 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B188" s="25"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="30" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C189" s="30" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D189" s="26" t="n">
         <v>32</v>
@@ -10655,10 +10658,10 @@
         <v>1</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I189" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J189" s="28" t="n">
         <f aca="false">J97</f>
@@ -10691,10 +10694,10 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="30" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C190" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D190" s="26" t="n">
         <v>16</v>
@@ -10704,10 +10707,10 @@
       </c>
       <c r="F190" s="23"/>
       <c r="G190" s="23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I190" s="27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J190" s="28" t="n">
         <f aca="false">J189+D189</f>
@@ -10726,7 +10729,7 @@
         <v>17</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O190" s="3" t="n">
         <v>10</v>
@@ -10740,10 +10743,10 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="30" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C191" s="30" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D191" s="26" t="n">
         <v>16</v>
@@ -10751,10 +10754,10 @@
       <c r="E191" s="37"/>
       <c r="F191" s="23"/>
       <c r="G191" s="23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I191" s="27" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J191" s="28" t="n">
         <f aca="false">J190+D190</f>
@@ -10773,7 +10776,7 @@
         <v>17.5</v>
       </c>
       <c r="N191" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O191" s="3" t="n">
         <v>10</v>
@@ -10787,10 +10790,10 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C192" s="30" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D192" s="26" t="n">
         <v>32</v>
@@ -10801,7 +10804,7 @@
         <v>1</v>
       </c>
       <c r="I192" s="27" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J192" s="28" t="n">
         <f aca="false">J191+D191</f>
@@ -10834,16 +10837,16 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="30" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C193" s="30" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D193" s="26" t="n">
         <v>8</v>
       </c>
       <c r="E193" s="37" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F193" s="23"/>
       <c r="G193" s="22" t="n">
@@ -10853,7 +10856,7 @@
         <v>27</v>
       </c>
       <c r="I193" s="27" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J193" s="28" t="n">
         <f aca="false">J192+D192</f>
@@ -10872,7 +10875,7 @@
         <v>19</v>
       </c>
       <c r="N193" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O193" s="3" t="n">
         <v>10</v>
@@ -10886,10 +10889,10 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="30" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C194" s="30" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D194" s="26" t="n">
         <v>24</v>
@@ -10946,7 +10949,7 @@
       <c r="G195" s="35"/>
       <c r="H195" s="34"/>
       <c r="I195" s="35" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J195" s="28" t="n">
         <f aca="false">J194+D194</f>
@@ -10979,16 +10982,16 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B199" s="25"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="30" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C200" s="30" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D200" s="26" t="n">
         <v>32</v>
@@ -11001,10 +11004,10 @@
         <v>1</v>
       </c>
       <c r="H200" s="38" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I200" s="27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J200" s="28" t="n">
         <f aca="false">J173</f>
@@ -11023,7 +11026,7 @@
         <v>23.96875</v>
       </c>
       <c r="N200" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O200" s="3" t="n">
         <v>13</v>
@@ -11037,10 +11040,10 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="30" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C201" s="30" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D201" s="26" t="n">
         <v>16</v>
@@ -11050,13 +11053,13 @@
       </c>
       <c r="F201" s="23"/>
       <c r="G201" s="38" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H201" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I201" s="27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J201" s="28" t="n">
         <f aca="false">J200+D200</f>
@@ -11075,7 +11078,7 @@
         <v>24.96875</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O201" s="3" t="n">
         <v>13</v>
@@ -11089,10 +11092,10 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="30" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C202" s="30" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D202" s="26" t="n">
         <v>8</v>
@@ -11102,13 +11105,13 @@
       </c>
       <c r="F202" s="23"/>
       <c r="G202" s="22" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H202" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I202" s="27" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J202" s="28" t="n">
         <f aca="false">J201+D201</f>
@@ -11127,7 +11130,7 @@
         <v>25.46875</v>
       </c>
       <c r="N202" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O202" s="24" t="n">
         <v>13</v>
@@ -11161,7 +11164,7 @@
         <v>47</v>
       </c>
       <c r="C204" s="22" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D204" s="22" t="n">
         <v>5</v>
@@ -11436,7 +11439,7 @@
         <v>25.71875</v>
       </c>
       <c r="N210" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O210" s="24" t="n">
         <v>3</v>
@@ -11488,7 +11491,7 @@
         <v>25.75</v>
       </c>
       <c r="N211" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O211" s="24" t="n">
         <v>3</v>
@@ -11540,7 +11543,7 @@
         <v>25.78125</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O212" s="24" t="n">
         <v>3</v>
@@ -11557,7 +11560,7 @@
         <v>61</v>
       </c>
       <c r="C213" s="22" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D213" s="22" t="n">
         <v>5</v>
@@ -11625,7 +11628,7 @@
       </c>
       <c r="B215" s="30"/>
       <c r="I215" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J215" s="28" t="n">
         <f aca="false">J213+D213</f>
@@ -11653,7 +11656,7 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B217" s="12"/>
       <c r="C217" s="40"/>
@@ -11719,10 +11722,10 @@
     </row>
     <row r="219" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C219" s="22" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D219" s="22" t="n">
         <v>464</v>
@@ -11740,7 +11743,7 @@
         <v>27</v>
       </c>
       <c r="I219" s="23" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J219" s="4" t="n">
         <v>0</v>
@@ -11772,10 +11775,10 @@
     </row>
     <row r="220" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="30" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C220" s="22" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D220" s="22" t="n">
         <v>8</v>
@@ -11791,7 +11794,7 @@
         <v>27</v>
       </c>
       <c r="I220" s="23" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J220" s="4" t="n">
         <f aca="false">J219+D219</f>
@@ -11810,7 +11813,7 @@
         <v>14.5</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O220" s="3" t="n">
         <v>1</v>
@@ -11827,7 +11830,7 @@
         <v>29</v>
       </c>
       <c r="C221" s="22" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D221" s="22" t="n">
         <v>8</v>
@@ -11841,7 +11844,7 @@
         <v>27</v>
       </c>
       <c r="I221" s="27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J221" s="4" t="n">
         <f aca="false">J220+D220</f>
@@ -11869,7 +11872,7 @@
       </c>
       <c r="B222" s="25"/>
       <c r="I222" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J222" s="4" t="n">
         <f aca="false">J221+D221</f>
@@ -11890,7 +11893,7 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="41" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B224" s="12"/>
       <c r="C224" s="40"/>
@@ -11956,10 +11959,10 @@
     </row>
     <row r="226" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="30" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C226" s="22" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D226" s="22" t="n">
         <v>672</v>
@@ -11977,7 +11980,7 @@
         <v>27</v>
       </c>
       <c r="I226" s="23" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J226" s="4" t="n">
         <v>0</v>
@@ -12012,7 +12015,7 @@
         <v>63</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J227" s="4" t="n">
         <f aca="false">J226+D226</f>
@@ -12033,7 +12036,7 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="41" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B230" s="12"/>
       <c r="C230" s="40"/>
@@ -12099,10 +12102,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="30" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C232" s="30" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D232" s="26" t="n">
         <v>32</v>
@@ -12115,10 +12118,10 @@
         <v>1</v>
       </c>
       <c r="H232" s="38" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I232" s="27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J232" s="4" t="n">
         <f aca="false">J222</f>
@@ -12137,7 +12140,7 @@
         <v>15</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O232" s="3" t="n">
         <v>13</v>
@@ -12151,10 +12154,10 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="30" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C233" s="30" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D233" s="26" t="n">
         <v>16</v>
@@ -12163,16 +12166,16 @@
         <v>26</v>
       </c>
       <c r="F233" s="23" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G233" s="23" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H233" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I233" s="27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J233" s="4" t="n">
         <f aca="false">J232+D232</f>
@@ -12191,7 +12194,7 @@
         <v>16</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O233" s="3" t="n">
         <v>13</v>
@@ -12205,10 +12208,10 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="30" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C234" s="30" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D234" s="26" t="n">
         <v>8</v>
@@ -12216,13 +12219,13 @@
       <c r="E234" s="37"/>
       <c r="F234" s="23"/>
       <c r="G234" s="38" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H234" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I234" s="27" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J234" s="4" t="n">
         <f aca="false">J233+D233</f>
@@ -12241,7 +12244,7 @@
         <v>16.5</v>
       </c>
       <c r="N234" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O234" s="24" t="n">
         <v>13</v>
@@ -12258,7 +12261,7 @@
         <v>29</v>
       </c>
       <c r="C235" s="30" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D235" s="26" t="n">
         <v>8</v>
@@ -12272,7 +12275,7 @@
         <v>27</v>
       </c>
       <c r="I235" s="27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J235" s="4" t="n">
         <f aca="false">J234+D234</f>
@@ -12309,7 +12312,7 @@
       </c>
       <c r="B236" s="25"/>
       <c r="I236" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J236" s="4" t="n">
         <f aca="false">J235+D235</f>
@@ -12342,7 +12345,7 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="41" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B238" s="12"/>
       <c r="C238" s="40"/>
@@ -12408,10 +12411,10 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="30" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C240" s="30" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D240" s="26" t="n">
         <v>32</v>
@@ -12424,10 +12427,10 @@
         <v>1</v>
       </c>
       <c r="H240" s="38" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I240" s="27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J240" s="4" t="n">
         <f aca="false">J227</f>
@@ -12446,7 +12449,7 @@
         <v>21</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O240" s="3" t="n">
         <v>13</v>
@@ -12460,10 +12463,10 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="30" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C241" s="30" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D241" s="26" t="n">
         <v>16</v>
@@ -12472,7 +12475,7 @@
         <v>26</v>
       </c>
       <c r="F241" s="23" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G241" s="38" t="n">
         <v>1</v>
@@ -12481,7 +12484,7 @@
         <v>27</v>
       </c>
       <c r="I241" s="27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J241" s="4" t="n">
         <f aca="false">J240+D240</f>
@@ -12500,7 +12503,7 @@
         <v>22</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O241" s="3" t="n">
         <v>13</v>
@@ -12517,7 +12520,7 @@
         <v>29</v>
       </c>
       <c r="C242" s="30" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D242" s="26" t="n">
         <v>8</v>
@@ -12531,7 +12534,7 @@
         <v>27</v>
       </c>
       <c r="I242" s="27" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J242" s="4" t="n">
         <f aca="false">J241+D241</f>
@@ -12550,7 +12553,7 @@
         <v>22.5</v>
       </c>
       <c r="N242" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O242" s="24" t="n">
         <v>13</v>
@@ -12567,7 +12570,7 @@
         <v>29</v>
       </c>
       <c r="C243" s="30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D243" s="26" t="n">
         <v>8</v>
@@ -12581,7 +12584,7 @@
         <v>27</v>
       </c>
       <c r="I243" s="27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J243" s="4" t="n">
         <f aca="false">J242+D242</f>
@@ -12617,7 +12620,7 @@
         <v>63</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J244" s="4" t="n">
         <f aca="false">J243+D243</f>
@@ -12638,7 +12641,7 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="41" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="246" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12696,10 +12699,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="37" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C247" s="37" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D247" s="37" t="n">
         <v>32</v>
@@ -12709,13 +12712,13 @@
       </c>
       <c r="F247" s="37"/>
       <c r="G247" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H247" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I247" s="37" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J247" s="42" t="n">
         <v>0</v>
@@ -12733,7 +12736,7 @@
         <v>0</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O247" s="3" t="n">
         <v>1</v>
@@ -12747,10 +12750,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="37" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C248" s="37" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D248" s="37" t="n">
         <v>32</v>
@@ -12760,13 +12763,13 @@
       </c>
       <c r="F248" s="37"/>
       <c r="G248" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H248" s="37" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I248" s="37" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J248" s="42" t="n">
         <f aca="false">J247+D247</f>
@@ -12785,7 +12788,7 @@
         <v>1</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O248" s="3" t="n">
         <v>1</v>
@@ -12799,7 +12802,7 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B249" s="37"/>
       <c r="C249" s="37"/>
@@ -12816,10 +12819,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="37" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C250" s="37" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D250" s="37" t="n">
         <v>5</v>
@@ -12835,7 +12838,7 @@
         <v>27</v>
       </c>
       <c r="I250" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J250" s="42" t="n">
         <f aca="false">J247+D247</f>
@@ -12854,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O250" s="3" t="n">
         <v>1</v>
@@ -12868,10 +12871,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="37" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C251" s="37" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D251" s="37" t="n">
         <v>6</v>
@@ -12887,7 +12890,7 @@
         <v>27</v>
       </c>
       <c r="I251" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J251" s="42" t="n">
         <f aca="false">J250+D250</f>
@@ -12906,7 +12909,7 @@
         <v>1.15625</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O251" s="3" t="n">
         <v>1</v>
@@ -12920,10 +12923,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="37" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C252" s="37" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D252" s="37" t="n">
         <v>6</v>
@@ -12939,7 +12942,7 @@
         <v>27</v>
       </c>
       <c r="I252" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J252" s="42" t="n">
         <f aca="false">J251+D251</f>
@@ -12958,7 +12961,7 @@
         <v>1.34375</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O252" s="3" t="n">
         <v>1</v>
@@ -12972,10 +12975,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="37" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C253" s="37" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D253" s="37" t="n">
         <v>5</v>
@@ -12991,7 +12994,7 @@
         <v>27</v>
       </c>
       <c r="I253" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J253" s="42" t="n">
         <f aca="false">J252+D252</f>
@@ -13010,7 +13013,7 @@
         <v>1.53125</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O253" s="3" t="n">
         <v>1</v>
@@ -13024,10 +13027,10 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="37" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C254" s="37" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D254" s="37" t="n">
         <v>4</v>
@@ -13043,7 +13046,7 @@
         <v>27</v>
       </c>
       <c r="I254" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J254" s="42" t="n">
         <f aca="false">J253+D253</f>
@@ -13062,7 +13065,7 @@
         <v>1.6875</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O254" s="3" t="n">
         <v>1</v>
@@ -13076,10 +13079,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C255" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D255" s="37" t="n">
         <v>5</v>
@@ -13095,7 +13098,7 @@
         <v>27</v>
       </c>
       <c r="I255" s="37" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J255" s="42" t="n">
         <f aca="false">J254+D254</f>
@@ -13114,7 +13117,7 @@
         <v>1.8125</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O255" s="3" t="n">
         <v>1</v>
@@ -13128,10 +13131,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="37" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C256" s="37" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D256" s="37" t="n">
         <v>1</v>
@@ -13141,13 +13144,13 @@
       </c>
       <c r="F256" s="37"/>
       <c r="G256" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H256" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I256" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J256" s="42" t="n">
         <f aca="false">J255+D255</f>
@@ -13166,7 +13169,7 @@
         <v>1.96875</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O256" s="3" t="n">
         <v>1</v>
@@ -13180,7 +13183,7 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B257" s="37"/>
       <c r="C257" s="37"/>
@@ -13197,7 +13200,7 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B258" s="37"/>
       <c r="C258" s="37"/>
@@ -13214,10 +13217,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="37" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C259" s="37" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D259" s="37" t="n">
         <v>1</v>
@@ -13227,13 +13230,13 @@
       </c>
       <c r="F259" s="37"/>
       <c r="G259" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H259" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I259" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J259" s="42" t="n">
         <f aca="false">J250</f>
@@ -13252,7 +13255,7 @@
         <v>1</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O259" s="3" t="n">
         <v>1</v>
@@ -13266,10 +13269,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C260" s="37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D260" s="37" t="n">
         <v>5</v>
@@ -13285,7 +13288,7 @@
         <v>27</v>
       </c>
       <c r="I260" s="37" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J260" s="42" t="n">
         <f aca="false">J259+D259</f>
@@ -13304,7 +13307,7 @@
         <v>1.03125</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O260" s="3" t="n">
         <v>1</v>
@@ -13318,10 +13321,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="37" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C261" s="37" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D261" s="37" t="n">
         <v>4</v>
@@ -13337,7 +13340,7 @@
         <v>27</v>
       </c>
       <c r="I261" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J261" s="42" t="n">
         <f aca="false">J260+D260</f>
@@ -13356,7 +13359,7 @@
         <v>1.1875</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O261" s="3" t="n">
         <v>1</v>
@@ -13370,10 +13373,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="37" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C262" s="37" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D262" s="37" t="n">
         <v>5</v>
@@ -13389,7 +13392,7 @@
         <v>27</v>
       </c>
       <c r="I262" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J262" s="42" t="n">
         <f aca="false">J261+D261</f>
@@ -13408,7 +13411,7 @@
         <v>1.3125</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O262" s="3" t="n">
         <v>1</v>
@@ -13422,10 +13425,10 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="37" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C263" s="37" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D263" s="37" t="n">
         <v>6</v>
@@ -13441,7 +13444,7 @@
         <v>27</v>
       </c>
       <c r="I263" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J263" s="42" t="n">
         <f aca="false">J262+D262</f>
@@ -13460,7 +13463,7 @@
         <v>1.46875</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O263" s="3" t="n">
         <v>1</v>
@@ -13474,10 +13477,10 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="37" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C264" s="37" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D264" s="37" t="n">
         <v>6</v>
@@ -13493,7 +13496,7 @@
         <v>27</v>
       </c>
       <c r="I264" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J264" s="42" t="n">
         <f aca="false">J263+D263</f>
@@ -13512,7 +13515,7 @@
         <v>1.65625</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O264" s="3" t="n">
         <v>1</v>
@@ -13526,10 +13529,10 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="37" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C265" s="37" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D265" s="37" t="n">
         <v>5</v>
@@ -13545,7 +13548,7 @@
         <v>27</v>
       </c>
       <c r="I265" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J265" s="42" t="n">
         <f aca="false">J263+D263</f>
@@ -13564,7 +13567,7 @@
         <v>1.65625</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O265" s="3" t="n">
         <v>1</v>
@@ -13578,7 +13581,7 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B266" s="37"/>
       <c r="C266" s="37"/>
@@ -13595,10 +13598,10 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="37" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C267" s="37" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D267" s="37" t="n">
         <v>8</v>
@@ -13614,7 +13617,7 @@
         <v>27</v>
       </c>
       <c r="I267" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J267" s="42" t="n">
         <f aca="false">J256+D256</f>
@@ -13633,7 +13636,7 @@
         <v>2</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O267" s="3" t="n">
         <v>1</v>
@@ -13647,10 +13650,10 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="37" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C268" s="37" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D268" s="37" t="n">
         <v>8</v>
@@ -13666,7 +13669,7 @@
         <v>27</v>
       </c>
       <c r="I268" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J268" s="42" t="n">
         <f aca="false">J267+D267</f>
@@ -13685,7 +13688,7 @@
         <v>2.25</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O268" s="3" t="n">
         <v>1</v>
@@ -13699,10 +13702,10 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="37" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C269" s="37" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D269" s="37" t="n">
         <v>16</v>
@@ -13718,7 +13721,7 @@
         <v>27</v>
       </c>
       <c r="I269" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J269" s="42" t="n">
         <f aca="false">J268+D268</f>
@@ -13760,7 +13763,7 @@
       <c r="G270" s="37"/>
       <c r="H270" s="37"/>
       <c r="I270" s="37" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J270" s="42" t="n">
         <f aca="false">J269+D269</f>
@@ -13781,7 +13784,7 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="41" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F271" s="37"/>
       <c r="G271" s="37"/>
@@ -13860,16 +13863,16 @@
       </c>
       <c r="I273" s="23"/>
       <c r="N273" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O273" s="24"/>
     </row>
     <row r="274" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="22" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C274" s="44" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>9</v>
@@ -13885,7 +13888,7 @@
         <v>27</v>
       </c>
       <c r="I274" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J274" s="4" t="n">
         <f aca="false">J270</f>
@@ -13904,7 +13907,7 @@
         <v>3</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O274" s="3" t="n">
         <v>2</v>
@@ -13918,10 +13921,10 @@
     </row>
     <row r="275" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="22" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C275" s="44" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>5</v>
@@ -13937,7 +13940,7 @@
         <v>27</v>
       </c>
       <c r="I275" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J275" s="42" t="n">
         <f aca="false">J274+D274</f>
@@ -13956,7 +13959,7 @@
         <v>3.28125</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O275" s="3" t="n">
         <v>2</v>
@@ -13970,10 +13973,10 @@
     </row>
     <row r="276" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C276" s="44" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D276" s="1" t="n">
         <v>4</v>
@@ -13989,7 +13992,7 @@
         <v>27</v>
       </c>
       <c r="I276" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J276" s="42" t="n">
         <f aca="false">J275+D275</f>
@@ -14008,7 +14011,7 @@
         <v>3.4375</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O276" s="3" t="n">
         <v>2</v>
@@ -14022,10 +14025,10 @@
     </row>
     <row r="277" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="22" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C277" s="44" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D277" s="1" t="n">
         <v>4</v>
@@ -14041,7 +14044,7 @@
         <v>27</v>
       </c>
       <c r="I277" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J277" s="42" t="n">
         <f aca="false">J276+D276</f>
@@ -14060,7 +14063,7 @@
         <v>3.5625</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O277" s="3" t="n">
         <v>2</v>
@@ -14074,10 +14077,10 @@
     </row>
     <row r="278" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C278" s="44" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D278" s="1" t="n">
         <v>3</v>
@@ -14093,7 +14096,7 @@
         <v>27</v>
       </c>
       <c r="I278" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J278" s="42" t="n">
         <f aca="false">J277+D277</f>
@@ -14112,7 +14115,7 @@
         <v>3.6875</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O278" s="3" t="n">
         <v>2</v>
@@ -14126,10 +14129,10 @@
     </row>
     <row r="279" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="22" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C279" s="44" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D279" s="1" t="n">
         <v>1</v>
@@ -14145,7 +14148,7 @@
         <v>27</v>
       </c>
       <c r="I279" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J279" s="42" t="n">
         <f aca="false">J278+D278</f>
@@ -14164,7 +14167,7 @@
         <v>3.78125</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O279" s="3" t="n">
         <v>2</v>
@@ -14178,10 +14181,10 @@
     </row>
     <row r="280" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="22" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C280" s="44" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D280" s="1" t="n">
         <v>1</v>
@@ -14191,13 +14194,13 @@
       </c>
       <c r="F280" s="45"/>
       <c r="G280" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H280" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I280" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J280" s="42" t="n">
         <f aca="false">J279+D279</f>
@@ -14207,7 +14210,7 @@
       <c r="L280" s="27"/>
       <c r="M280" s="27"/>
       <c r="N280" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O280" s="3" t="n">
         <v>1</v>
@@ -14221,10 +14224,10 @@
     </row>
     <row r="281" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="22" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C281" s="44" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D281" s="1" t="n">
         <v>5</v>
@@ -14240,7 +14243,7 @@
         <v>27</v>
       </c>
       <c r="I281" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J281" s="42" t="n">
         <f aca="false">J280+D280</f>
@@ -14309,10 +14312,10 @@
     </row>
     <row r="284" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="22" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C284" s="44" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>5</v>
@@ -14328,7 +14331,7 @@
         <v>27</v>
       </c>
       <c r="I284" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J284" s="42" t="n">
         <f aca="false">J270</f>
@@ -14361,10 +14364,10 @@
     </row>
     <row r="285" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="22" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C285" s="44" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D285" s="1" t="n">
         <v>1</v>
@@ -14374,13 +14377,13 @@
       </c>
       <c r="F285" s="45"/>
       <c r="G285" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H285" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I285" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J285" s="42" t="n">
         <f aca="false">J284+D284</f>
@@ -14399,7 +14402,7 @@
         <v>3.15625</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O285" s="3" t="n">
         <v>1</v>
@@ -14413,10 +14416,10 @@
     </row>
     <row r="286" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="22" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C286" s="44" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D286" s="1" t="n">
         <v>1</v>
@@ -14426,13 +14429,13 @@
       </c>
       <c r="F286" s="45"/>
       <c r="G286" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H286" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I286" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J286" s="42" t="n">
         <f aca="false">J285+D285</f>
@@ -14451,7 +14454,7 @@
         <v>3.1875</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O286" s="3" t="n">
         <v>2</v>
@@ -14465,10 +14468,10 @@
     </row>
     <row r="287" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C287" s="44" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D287" s="1" t="n">
         <v>3</v>
@@ -14478,13 +14481,13 @@
       </c>
       <c r="F287" s="45"/>
       <c r="G287" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H287" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I287" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J287" s="42" t="n">
         <f aca="false">J286+D286</f>
@@ -14503,7 +14506,7 @@
         <v>3.21875</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O287" s="3" t="n">
         <v>2</v>
@@ -14517,10 +14520,10 @@
     </row>
     <row r="288" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="22" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C288" s="44" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D288" s="1" t="n">
         <v>4</v>
@@ -14530,13 +14533,13 @@
       </c>
       <c r="F288" s="45"/>
       <c r="G288" s="37" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H288" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I288" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J288" s="42" t="n">
         <f aca="false">J287+D287</f>
@@ -14555,7 +14558,7 @@
         <v>3.3125</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O288" s="3" t="n">
         <v>2</v>
@@ -14569,10 +14572,10 @@
     </row>
     <row r="289" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B289" s="22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C289" s="44" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D289" s="1" t="n">
         <v>4</v>
@@ -14582,13 +14585,13 @@
       </c>
       <c r="F289" s="45"/>
       <c r="G289" s="37" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H289" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I289" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J289" s="42" t="n">
         <f aca="false">J288+D288</f>
@@ -14607,7 +14610,7 @@
         <v>3.4375</v>
       </c>
       <c r="N289" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O289" s="3" t="n">
         <v>2</v>
@@ -14621,10 +14624,10 @@
     </row>
     <row r="290" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="22" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C290" s="44" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D290" s="1" t="n">
         <v>5</v>
@@ -14634,13 +14637,13 @@
       </c>
       <c r="F290" s="45"/>
       <c r="G290" s="37" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H290" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I290" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J290" s="42" t="n">
         <f aca="false">J289+D289</f>
@@ -14659,7 +14662,7 @@
         <v>3.5625</v>
       </c>
       <c r="N290" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O290" s="3" t="n">
         <v>2</v>
@@ -14673,10 +14676,10 @@
     </row>
     <row r="291" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="22" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C291" s="44" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>9</v>
@@ -14686,13 +14689,13 @@
       </c>
       <c r="F291" s="45"/>
       <c r="G291" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H291" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I291" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J291" s="42" t="n">
         <f aca="false">J290+D290</f>
@@ -14711,7 +14714,7 @@
         <v>3.71875</v>
       </c>
       <c r="N291" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O291" s="3" t="n">
         <v>2</v>
@@ -14744,10 +14747,10 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D293" s="1" t="n">
         <v>8</v>
@@ -14757,13 +14760,13 @@
       </c>
       <c r="F293" s="37"/>
       <c r="G293" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H293" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I293" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J293" s="42" t="n">
         <f aca="false">J281+D281</f>
@@ -14782,7 +14785,7 @@
         <v>4</v>
       </c>
       <c r="N293" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O293" s="3" t="n">
         <v>3</v>
@@ -14796,10 +14799,10 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D294" s="1" t="n">
         <v>8</v>
@@ -14809,13 +14812,13 @@
       </c>
       <c r="F294" s="37"/>
       <c r="G294" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H294" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I294" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J294" s="42" t="n">
         <f aca="false">J293+D293</f>
@@ -14834,7 +14837,7 @@
         <v>4.25</v>
       </c>
       <c r="N294" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O294" s="3" t="n">
         <v>3</v>
@@ -14848,10 +14851,10 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D295" s="1" t="n">
         <v>8</v>
@@ -14861,13 +14864,13 @@
       </c>
       <c r="F295" s="37"/>
       <c r="G295" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H295" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I295" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J295" s="42" t="n">
         <f aca="false">J294+D294</f>
@@ -14886,7 +14889,7 @@
         <v>4.5</v>
       </c>
       <c r="N295" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O295" s="3" t="n">
         <v>3</v>
@@ -14900,10 +14903,10 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D296" s="1" t="n">
         <v>8</v>
@@ -14913,13 +14916,13 @@
       </c>
       <c r="F296" s="37"/>
       <c r="G296" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H296" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I296" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J296" s="42" t="n">
         <f aca="false">J295+D295</f>
@@ -14938,7 +14941,7 @@
         <v>4.75</v>
       </c>
       <c r="N296" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O296" s="3" t="n">
         <v>3</v>
@@ -14952,10 +14955,10 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D297" s="1" t="n">
         <v>8</v>
@@ -14965,13 +14968,13 @@
       </c>
       <c r="F297" s="37"/>
       <c r="G297" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H297" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I297" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J297" s="42" t="n">
         <f aca="false">J296+D296</f>
@@ -14990,7 +14993,7 @@
         <v>5</v>
       </c>
       <c r="N297" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O297" s="3" t="n">
         <v>3</v>
@@ -15004,10 +15007,10 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D298" s="1" t="n">
         <v>8</v>
@@ -15017,13 +15020,13 @@
       </c>
       <c r="F298" s="37"/>
       <c r="G298" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H298" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I298" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J298" s="42" t="n">
         <f aca="false">J297+D297</f>
@@ -15042,7 +15045,7 @@
         <v>5.25</v>
       </c>
       <c r="N298" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O298" s="3" t="n">
         <v>3</v>
@@ -15056,10 +15059,10 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D299" s="1" t="n">
         <v>8</v>
@@ -15069,13 +15072,13 @@
       </c>
       <c r="F299" s="37"/>
       <c r="G299" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H299" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I299" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J299" s="42" t="n">
         <f aca="false">J298+D298</f>
@@ -15094,7 +15097,7 @@
         <v>5.5</v>
       </c>
       <c r="N299" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O299" s="3" t="n">
         <v>3</v>
@@ -15108,10 +15111,10 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D300" s="1" t="n">
         <v>8</v>
@@ -15121,13 +15124,13 @@
       </c>
       <c r="F300" s="37"/>
       <c r="G300" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H300" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I300" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J300" s="42" t="n">
         <f aca="false">J299+D299</f>
@@ -15146,7 +15149,7 @@
         <v>5.75</v>
       </c>
       <c r="N300" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O300" s="3" t="n">
         <v>3</v>
@@ -15160,10 +15163,10 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D301" s="1" t="n">
         <v>8</v>
@@ -15173,13 +15176,13 @@
       </c>
       <c r="F301" s="37"/>
       <c r="G301" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H301" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I301" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J301" s="42" t="n">
         <f aca="false">J300+D300</f>
@@ -15198,7 +15201,7 @@
         <v>6</v>
       </c>
       <c r="N301" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O301" s="3" t="n">
         <v>3</v>
@@ -15212,10 +15215,10 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D302" s="1" t="n">
         <v>8</v>
@@ -15225,13 +15228,13 @@
       </c>
       <c r="F302" s="37"/>
       <c r="G302" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H302" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I302" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J302" s="42" t="n">
         <f aca="false">J301+D301</f>
@@ -15250,7 +15253,7 @@
         <v>6.25</v>
       </c>
       <c r="N302" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O302" s="3" t="n">
         <v>3</v>
@@ -15264,10 +15267,10 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D303" s="1" t="n">
         <v>8</v>
@@ -15277,13 +15280,13 @@
       </c>
       <c r="F303" s="37"/>
       <c r="G303" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H303" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I303" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J303" s="42" t="n">
         <f aca="false">J302+D302</f>
@@ -15302,7 +15305,7 @@
         <v>6.5</v>
       </c>
       <c r="N303" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O303" s="3" t="n">
         <v>3</v>
@@ -15316,10 +15319,10 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>8</v>
@@ -15329,13 +15332,13 @@
       </c>
       <c r="F304" s="37"/>
       <c r="G304" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H304" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I304" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J304" s="42" t="n">
         <f aca="false">J303+D303</f>
@@ -15354,7 +15357,7 @@
         <v>6.75</v>
       </c>
       <c r="N304" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O304" s="3" t="n">
         <v>3</v>
@@ -15368,10 +15371,10 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D305" s="1" t="n">
         <v>8</v>
@@ -15381,13 +15384,13 @@
       </c>
       <c r="F305" s="37"/>
       <c r="G305" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H305" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I305" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J305" s="42" t="n">
         <f aca="false">J304+D304</f>
@@ -15406,7 +15409,7 @@
         <v>7</v>
       </c>
       <c r="N305" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O305" s="3" t="n">
         <v>3</v>
@@ -15420,10 +15423,10 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D306" s="1" t="n">
         <v>16</v>
@@ -15435,13 +15438,13 @@
         <v>120</v>
       </c>
       <c r="G306" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H306" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I306" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J306" s="42" t="n">
         <f aca="false">J305+D305</f>
@@ -15460,7 +15463,7 @@
         <v>7.25</v>
       </c>
       <c r="N306" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O306" s="3" t="n">
         <v>1</v>
@@ -15474,10 +15477,10 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D307" s="1" t="n">
         <v>8</v>
@@ -15487,13 +15490,13 @@
       </c>
       <c r="F307" s="37"/>
       <c r="G307" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H307" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I307" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J307" s="42" t="n">
         <f aca="false">J306+D306</f>
@@ -15512,7 +15515,7 @@
         <v>7.75</v>
       </c>
       <c r="N307" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O307" s="3" t="n">
         <v>2</v>
@@ -15551,7 +15554,7 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="41" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J309" s="42"/>
       <c r="K309" s="27"/>
@@ -15627,16 +15630,16 @@
       </c>
       <c r="I311" s="23"/>
       <c r="N311" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O311" s="24"/>
     </row>
     <row r="312" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="22" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C312" s="44" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D312" s="1" t="n">
         <v>9</v>
@@ -15652,7 +15655,7 @@
         <v>27</v>
       </c>
       <c r="I312" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J312" s="4" t="n">
         <f aca="false">J308</f>
@@ -15671,7 +15674,7 @@
         <v>8</v>
       </c>
       <c r="N312" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O312" s="3" t="n">
         <v>2</v>
@@ -15685,10 +15688,10 @@
     </row>
     <row r="313" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="22" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C313" s="44" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D313" s="1" t="n">
         <v>5</v>
@@ -15704,7 +15707,7 @@
         <v>27</v>
       </c>
       <c r="I313" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J313" s="42" t="n">
         <f aca="false">J312+D312</f>
@@ -15723,7 +15726,7 @@
         <v>8.28125</v>
       </c>
       <c r="N313" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O313" s="3" t="n">
         <v>2</v>
@@ -15737,10 +15740,10 @@
     </row>
     <row r="314" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C314" s="44" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D314" s="1" t="n">
         <v>4</v>
@@ -15756,7 +15759,7 @@
         <v>27</v>
       </c>
       <c r="I314" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J314" s="42" t="n">
         <f aca="false">J313+D313</f>
@@ -15775,7 +15778,7 @@
         <v>8.4375</v>
       </c>
       <c r="N314" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O314" s="3" t="n">
         <v>2</v>
@@ -15789,10 +15792,10 @@
     </row>
     <row r="315" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="22" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C315" s="44" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D315" s="1" t="n">
         <v>4</v>
@@ -15808,7 +15811,7 @@
         <v>27</v>
       </c>
       <c r="I315" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J315" s="42" t="n">
         <f aca="false">J314+D314</f>
@@ -15827,7 +15830,7 @@
         <v>8.5625</v>
       </c>
       <c r="N315" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O315" s="3" t="n">
         <v>2</v>
@@ -15841,10 +15844,10 @@
     </row>
     <row r="316" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C316" s="44" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D316" s="1" t="n">
         <v>3</v>
@@ -15860,7 +15863,7 @@
         <v>27</v>
       </c>
       <c r="I316" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J316" s="42" t="n">
         <f aca="false">J315+D315</f>
@@ -15879,7 +15882,7 @@
         <v>8.6875</v>
       </c>
       <c r="N316" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O316" s="3" t="n">
         <v>2</v>
@@ -15893,10 +15896,10 @@
     </row>
     <row r="317" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="22" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C317" s="44" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D317" s="1" t="n">
         <v>1</v>
@@ -15906,13 +15909,13 @@
       </c>
       <c r="F317" s="45"/>
       <c r="G317" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H317" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I317" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J317" s="42" t="n">
         <f aca="false">J316+D316</f>
@@ -15931,7 +15934,7 @@
         <v>8.78125</v>
       </c>
       <c r="N317" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O317" s="3" t="n">
         <v>2</v>
@@ -15945,10 +15948,10 @@
     </row>
     <row r="318" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="22" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C318" s="44" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D318" s="1" t="n">
         <v>1</v>
@@ -15958,13 +15961,13 @@
       </c>
       <c r="F318" s="45"/>
       <c r="G318" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H318" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I318" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J318" s="42" t="n">
         <f aca="false">J317+D317</f>
@@ -15983,7 +15986,7 @@
         <v>8.8125</v>
       </c>
       <c r="N318" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O318" s="3" t="n">
         <v>1</v>
@@ -15997,10 +16000,10 @@
     </row>
     <row r="319" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="22" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C319" s="44" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D319" s="1" t="n">
         <v>5</v>
@@ -16016,7 +16019,7 @@
         <v>27</v>
       </c>
       <c r="I319" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J319" s="42" t="n">
         <f aca="false">J318+D318</f>
@@ -16085,10 +16088,10 @@
     </row>
     <row r="322" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="22" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C322" s="44" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D322" s="1" t="n">
         <v>5</v>
@@ -16104,7 +16107,7 @@
         <v>27</v>
       </c>
       <c r="I322" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J322" s="42" t="n">
         <f aca="false">J308</f>
@@ -16137,10 +16140,10 @@
     </row>
     <row r="323" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="22" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C323" s="44" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D323" s="1" t="n">
         <v>1</v>
@@ -16150,13 +16153,13 @@
       </c>
       <c r="F323" s="45"/>
       <c r="G323" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H323" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I323" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J323" s="42" t="n">
         <f aca="false">J322+D322</f>
@@ -16175,7 +16178,7 @@
         <v>8.15625</v>
       </c>
       <c r="N323" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O323" s="3" t="n">
         <v>1</v>
@@ -16189,10 +16192,10 @@
     </row>
     <row r="324" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="22" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C324" s="44" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D324" s="1" t="n">
         <v>1</v>
@@ -16202,13 +16205,13 @@
       </c>
       <c r="F324" s="45"/>
       <c r="G324" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H324" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I324" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J324" s="42" t="n">
         <f aca="false">J323+D323</f>
@@ -16227,7 +16230,7 @@
         <v>8.1875</v>
       </c>
       <c r="N324" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O324" s="3" t="n">
         <v>2</v>
@@ -16241,10 +16244,10 @@
     </row>
     <row r="325" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C325" s="44" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D325" s="1" t="n">
         <v>3</v>
@@ -16254,13 +16257,13 @@
       </c>
       <c r="F325" s="45"/>
       <c r="G325" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H325" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I325" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J325" s="42" t="n">
         <f aca="false">J324+D324</f>
@@ -16279,7 +16282,7 @@
         <v>8.21875</v>
       </c>
       <c r="N325" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O325" s="3" t="n">
         <v>2</v>
@@ -16293,10 +16296,10 @@
     </row>
     <row r="326" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="22" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C326" s="44" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D326" s="1" t="n">
         <v>4</v>
@@ -16306,13 +16309,13 @@
       </c>
       <c r="F326" s="45"/>
       <c r="G326" s="37" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H326" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I326" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J326" s="42" t="n">
         <f aca="false">J325+D325</f>
@@ -16331,7 +16334,7 @@
         <v>8.3125</v>
       </c>
       <c r="N326" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O326" s="3" t="n">
         <v>2</v>
@@ -16345,10 +16348,10 @@
     </row>
     <row r="327" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C327" s="44" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D327" s="1" t="n">
         <v>4</v>
@@ -16358,13 +16361,13 @@
       </c>
       <c r="F327" s="45"/>
       <c r="G327" s="37" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H327" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I327" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J327" s="42" t="n">
         <f aca="false">J326+D326</f>
@@ -16383,7 +16386,7 @@
         <v>8.4375</v>
       </c>
       <c r="N327" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O327" s="3" t="n">
         <v>2</v>
@@ -16397,10 +16400,10 @@
     </row>
     <row r="328" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="22" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C328" s="44" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D328" s="1" t="n">
         <v>5</v>
@@ -16410,13 +16413,13 @@
       </c>
       <c r="F328" s="45"/>
       <c r="G328" s="37" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H328" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I328" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J328" s="42" t="n">
         <f aca="false">J327+D327</f>
@@ -16435,7 +16438,7 @@
         <v>8.5625</v>
       </c>
       <c r="N328" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O328" s="3" t="n">
         <v>2</v>
@@ -16449,10 +16452,10 @@
     </row>
     <row r="329" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="22" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C329" s="44" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D329" s="1" t="n">
         <v>9</v>
@@ -16462,13 +16465,13 @@
       </c>
       <c r="F329" s="45"/>
       <c r="G329" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H329" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I329" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J329" s="42" t="n">
         <f aca="false">J328+D328</f>
@@ -16487,7 +16490,7 @@
         <v>8.71875</v>
       </c>
       <c r="N329" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O329" s="3" t="n">
         <v>2</v>
@@ -16520,10 +16523,10 @@
     </row>
     <row r="331" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="22" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C331" s="44" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D331" s="1" t="n">
         <v>32</v>
@@ -16533,13 +16536,13 @@
       </c>
       <c r="F331" s="45"/>
       <c r="G331" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H331" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I331" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J331" s="42" t="n">
         <f aca="false">J319+D319</f>
@@ -16558,7 +16561,7 @@
         <v>9</v>
       </c>
       <c r="N331" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O331" s="3" t="n">
         <v>2</v>
@@ -16572,26 +16575,26 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="22" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C332" s="22" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D332" s="1" t="n">
         <v>32</v>
       </c>
       <c r="E332" s="37" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F332" s="37"/>
       <c r="G332" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H332" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I332" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J332" s="42" t="n">
         <f aca="false">J331+D331</f>
@@ -16610,7 +16613,7 @@
         <v>10</v>
       </c>
       <c r="N332" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O332" s="3" t="n">
         <v>4</v>
@@ -16624,10 +16627,10 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="22" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C333" s="22" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D333" s="1" t="n">
         <v>32</v>
@@ -16637,13 +16640,13 @@
       </c>
       <c r="F333" s="37"/>
       <c r="G333" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H333" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I333" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J333" s="42" t="n">
         <f aca="false">J332+D332</f>
@@ -16662,7 +16665,7 @@
         <v>11</v>
       </c>
       <c r="N333" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O333" s="3" t="n">
         <v>4</v>
@@ -16676,26 +16679,26 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="22" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C334" s="22" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D334" s="1" t="n">
         <v>32</v>
       </c>
       <c r="E334" s="37" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F334" s="37"/>
       <c r="G334" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H334" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I334" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J334" s="42" t="n">
         <f aca="false">J333+D333</f>
@@ -16714,7 +16717,7 @@
         <v>12</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O334" s="3" t="n">
         <v>4</v>
@@ -16728,10 +16731,10 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="22" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C335" s="22" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D335" s="1" t="n">
         <v>32</v>
@@ -16741,13 +16744,13 @@
       </c>
       <c r="F335" s="37"/>
       <c r="G335" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H335" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I335" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J335" s="42" t="n">
         <f aca="false">J334+D334</f>
@@ -16766,7 +16769,7 @@
         <v>13</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O335" s="3" t="n">
         <v>4</v>
@@ -16780,10 +16783,10 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="22" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C336" s="22" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D336" s="1" t="n">
         <v>8</v>
@@ -16793,13 +16796,13 @@
       </c>
       <c r="F336" s="37"/>
       <c r="G336" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H336" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I336" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J336" s="42" t="n">
         <f aca="false">J335+D335</f>
@@ -16818,7 +16821,7 @@
         <v>14</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O336" s="3" t="n">
         <v>4</v>
@@ -16832,10 +16835,10 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="22" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C337" s="22" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D337" s="1" t="n">
         <v>8</v>
@@ -16845,13 +16848,13 @@
       </c>
       <c r="F337" s="37"/>
       <c r="G337" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H337" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I337" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J337" s="42" t="n">
         <f aca="false">J336+D336</f>
@@ -16870,7 +16873,7 @@
         <v>14.25</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O337" s="3" t="n">
         <v>4</v>
@@ -16884,10 +16887,10 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="22" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C338" s="22" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D338" s="1" t="n">
         <v>8</v>
@@ -16897,13 +16900,13 @@
       </c>
       <c r="F338" s="37"/>
       <c r="G338" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H338" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I338" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J338" s="42" t="n">
         <f aca="false">J337+D337</f>
@@ -16922,7 +16925,7 @@
         <v>14.5</v>
       </c>
       <c r="N338" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O338" s="3" t="n">
         <v>4</v>
@@ -16936,10 +16939,10 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="22" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C339" s="22" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D339" s="1" t="n">
         <v>8</v>
@@ -16949,13 +16952,13 @@
       </c>
       <c r="F339" s="37"/>
       <c r="G339" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H339" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I339" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J339" s="42" t="n">
         <f aca="false">J338+D338</f>
@@ -16974,7 +16977,7 @@
         <v>14.75</v>
       </c>
       <c r="N339" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O339" s="3" t="n">
         <v>4</v>
@@ -16988,10 +16991,10 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="22" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C340" s="22" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D340" s="1" t="n">
         <v>8</v>
@@ -17001,13 +17004,13 @@
       </c>
       <c r="F340" s="37"/>
       <c r="G340" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H340" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I340" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J340" s="42" t="n">
         <f aca="false">J339+D339</f>
@@ -17026,7 +17029,7 @@
         <v>15</v>
       </c>
       <c r="N340" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O340" s="3" t="n">
         <v>4</v>
@@ -17040,10 +17043,10 @@
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="22" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C341" s="22" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D341" s="1" t="n">
         <v>8</v>
@@ -17053,13 +17056,13 @@
       </c>
       <c r="F341" s="37"/>
       <c r="G341" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H341" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I341" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J341" s="42" t="n">
         <f aca="false">J340+D340</f>
@@ -17078,7 +17081,7 @@
         <v>15.25</v>
       </c>
       <c r="N341" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O341" s="3" t="n">
         <v>4</v>
@@ -17092,10 +17095,10 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="22" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C342" s="22" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D342" s="1" t="n">
         <v>8</v>
@@ -17105,13 +17108,13 @@
       </c>
       <c r="F342" s="37"/>
       <c r="G342" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H342" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I342" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J342" s="42" t="n">
         <f aca="false">J341+D341</f>
@@ -17130,7 +17133,7 @@
         <v>15.5</v>
       </c>
       <c r="N342" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O342" s="3" t="n">
         <v>4</v>
@@ -17144,10 +17147,10 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="22" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C343" s="22" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D343" s="1" t="n">
         <v>8</v>
@@ -17157,13 +17160,13 @@
       </c>
       <c r="F343" s="37"/>
       <c r="G343" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H343" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I343" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J343" s="42" t="n">
         <f aca="false">J342+D342</f>
@@ -17182,7 +17185,7 @@
         <v>15.75</v>
       </c>
       <c r="N343" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O343" s="3" t="n">
         <v>4</v>
@@ -17196,10 +17199,10 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="22" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C344" s="22" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D344" s="1" t="n">
         <v>8</v>
@@ -17209,13 +17212,13 @@
       </c>
       <c r="F344" s="37"/>
       <c r="G344" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H344" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I344" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J344" s="42" t="n">
         <f aca="false">J343+D343</f>
@@ -17234,7 +17237,7 @@
         <v>16</v>
       </c>
       <c r="N344" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O344" s="3" t="n">
         <v>4</v>
@@ -17248,10 +17251,10 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="22" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C345" s="22" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D345" s="1" t="n">
         <v>8</v>
@@ -17261,13 +17264,13 @@
       </c>
       <c r="F345" s="37"/>
       <c r="G345" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H345" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I345" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J345" s="42" t="n">
         <f aca="false">J344+D344</f>
@@ -17286,7 +17289,7 @@
         <v>16.25</v>
       </c>
       <c r="N345" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O345" s="3" t="n">
         <v>4</v>
@@ -17300,10 +17303,10 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="22" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D346" s="1" t="n">
         <v>8</v>
@@ -17313,13 +17316,13 @@
       </c>
       <c r="F346" s="37"/>
       <c r="G346" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H346" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I346" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J346" s="42" t="n">
         <f aca="false">J345+D345</f>
@@ -17338,7 +17341,7 @@
         <v>16.5</v>
       </c>
       <c r="N346" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O346" s="3" t="n">
         <v>4</v>
@@ -17352,10 +17355,10 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="22" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C347" s="22" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D347" s="1" t="n">
         <v>8</v>
@@ -17365,13 +17368,13 @@
       </c>
       <c r="F347" s="37"/>
       <c r="G347" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H347" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I347" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J347" s="42" t="n">
         <f aca="false">J346+D346</f>
@@ -17390,7 +17393,7 @@
         <v>16.75</v>
       </c>
       <c r="N347" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O347" s="3" t="n">
         <v>4</v>
@@ -17404,10 +17407,10 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="22" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C348" s="22" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D348" s="1" t="n">
         <v>8</v>
@@ -17417,13 +17420,13 @@
       </c>
       <c r="F348" s="37"/>
       <c r="G348" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H348" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I348" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J348" s="42" t="n">
         <f aca="false">J347+D347</f>
@@ -17442,7 +17445,7 @@
         <v>17</v>
       </c>
       <c r="N348" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O348" s="3" t="n">
         <v>4</v>
@@ -17456,10 +17459,10 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="22" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C349" s="22" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D349" s="1" t="n">
         <v>8</v>
@@ -17469,13 +17472,13 @@
       </c>
       <c r="F349" s="37"/>
       <c r="G349" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H349" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I349" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J349" s="42" t="n">
         <f aca="false">J348+D348</f>
@@ -17494,7 +17497,7 @@
         <v>17.25</v>
       </c>
       <c r="N349" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O349" s="3" t="n">
         <v>4</v>
@@ -17508,10 +17511,10 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="22" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C350" s="22" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D350" s="1" t="n">
         <v>8</v>
@@ -17521,13 +17524,13 @@
       </c>
       <c r="F350" s="37"/>
       <c r="G350" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H350" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I350" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J350" s="42" t="n">
         <f aca="false">J349+D349</f>
@@ -17546,7 +17549,7 @@
         <v>17.5</v>
       </c>
       <c r="N350" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O350" s="3" t="n">
         <v>4</v>
@@ -17560,10 +17563,10 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="22" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C351" s="22" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D351" s="1" t="n">
         <v>8</v>
@@ -17573,13 +17576,13 @@
       </c>
       <c r="F351" s="37"/>
       <c r="G351" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H351" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I351" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J351" s="42" t="n">
         <f aca="false">J350+D350</f>
@@ -17598,7 +17601,7 @@
         <v>17.75</v>
       </c>
       <c r="N351" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O351" s="3" t="n">
         <v>4</v>
@@ -17612,10 +17615,10 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="22" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C352" s="22" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D352" s="1" t="n">
         <v>8</v>
@@ -17625,13 +17628,13 @@
       </c>
       <c r="F352" s="37"/>
       <c r="G352" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H352" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I352" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J352" s="42" t="n">
         <f aca="false">J351+D351</f>
@@ -17650,7 +17653,7 @@
         <v>18</v>
       </c>
       <c r="N352" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O352" s="3" t="n">
         <v>4</v>
@@ -17664,10 +17667,10 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="22" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C353" s="22" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D353" s="1" t="n">
         <v>8</v>
@@ -17677,13 +17680,13 @@
       </c>
       <c r="F353" s="37"/>
       <c r="G353" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H353" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I353" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J353" s="42" t="n">
         <f aca="false">J352+D352</f>
@@ -17702,7 +17705,7 @@
         <v>18.25</v>
       </c>
       <c r="N353" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O353" s="3" t="n">
         <v>4</v>
@@ -17716,10 +17719,10 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="22" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C354" s="22" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D354" s="1" t="n">
         <v>8</v>
@@ -17729,13 +17732,13 @@
       </c>
       <c r="F354" s="37"/>
       <c r="G354" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H354" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I354" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J354" s="42" t="n">
         <f aca="false">J353+D353</f>
@@ -17754,7 +17757,7 @@
         <v>18.5</v>
       </c>
       <c r="N354" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O354" s="3" t="n">
         <v>4</v>
@@ -17768,10 +17771,10 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="22" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C355" s="22" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D355" s="1" t="n">
         <v>8</v>
@@ -17781,13 +17784,13 @@
       </c>
       <c r="F355" s="37"/>
       <c r="G355" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H355" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I355" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J355" s="42" t="n">
         <f aca="false">J354+D354</f>
@@ -17806,7 +17809,7 @@
         <v>18.75</v>
       </c>
       <c r="N355" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O355" s="3" t="n">
         <v>4</v>
@@ -17820,10 +17823,10 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="22" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C356" s="22" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D356" s="1" t="n">
         <v>8</v>
@@ -17833,13 +17836,13 @@
       </c>
       <c r="F356" s="37"/>
       <c r="G356" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H356" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I356" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J356" s="42" t="n">
         <f aca="false">J355+D355</f>
@@ -17858,7 +17861,7 @@
         <v>19</v>
       </c>
       <c r="N356" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O356" s="3" t="n">
         <v>4</v>
@@ -17872,10 +17875,10 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="22" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C357" s="22" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D357" s="1" t="n">
         <v>8</v>
@@ -17885,13 +17888,13 @@
       </c>
       <c r="F357" s="37"/>
       <c r="G357" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H357" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I357" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J357" s="42" t="n">
         <f aca="false">J356+D356</f>
@@ -17910,7 +17913,7 @@
         <v>19.25</v>
       </c>
       <c r="N357" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O357" s="3" t="n">
         <v>4</v>
@@ -17924,10 +17927,10 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="22" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C358" s="22" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D358" s="1" t="n">
         <v>8</v>
@@ -17937,13 +17940,13 @@
       </c>
       <c r="F358" s="37"/>
       <c r="G358" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H358" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I358" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J358" s="42" t="n">
         <f aca="false">J357+D357</f>
@@ -17962,7 +17965,7 @@
         <v>19.5</v>
       </c>
       <c r="N358" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O358" s="3" t="n">
         <v>4</v>
@@ -17976,10 +17979,10 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="22" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C359" s="22" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D359" s="1" t="n">
         <v>8</v>
@@ -17989,13 +17992,13 @@
       </c>
       <c r="F359" s="37"/>
       <c r="G359" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H359" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I359" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J359" s="42" t="n">
         <f aca="false">J358+D358</f>
@@ -18014,7 +18017,7 @@
         <v>19.75</v>
       </c>
       <c r="N359" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O359" s="3" t="n">
         <v>4</v>
@@ -18028,10 +18031,10 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="22" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C360" s="22" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D360" s="1" t="n">
         <v>8</v>
@@ -18041,13 +18044,13 @@
       </c>
       <c r="F360" s="37"/>
       <c r="G360" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H360" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I360" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J360" s="42" t="n">
         <f aca="false">J359+D359</f>
@@ -18066,7 +18069,7 @@
         <v>20</v>
       </c>
       <c r="N360" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O360" s="3" t="n">
         <v>4</v>
@@ -18080,10 +18083,10 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="22" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C361" s="22" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D361" s="1" t="n">
         <v>8</v>
@@ -18093,13 +18096,13 @@
       </c>
       <c r="F361" s="37"/>
       <c r="G361" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H361" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I361" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J361" s="42" t="n">
         <f aca="false">J360+D360</f>
@@ -18118,7 +18121,7 @@
         <v>20.25</v>
       </c>
       <c r="N361" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O361" s="3" t="n">
         <v>4</v>
@@ -18132,10 +18135,10 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="22" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C362" s="22" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D362" s="1" t="n">
         <v>8</v>
@@ -18145,13 +18148,13 @@
       </c>
       <c r="F362" s="37"/>
       <c r="G362" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H362" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I362" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J362" s="42" t="n">
         <f aca="false">J361+D361</f>
@@ -18170,7 +18173,7 @@
         <v>20.5</v>
       </c>
       <c r="N362" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O362" s="3" t="n">
         <v>4</v>
@@ -18184,10 +18187,10 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="22" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C363" s="22" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D363" s="1" t="n">
         <v>8</v>
@@ -18197,13 +18200,13 @@
       </c>
       <c r="F363" s="37"/>
       <c r="G363" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H363" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I363" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J363" s="42" t="n">
         <f aca="false">J362+D362</f>
@@ -18222,7 +18225,7 @@
         <v>20.75</v>
       </c>
       <c r="N363" s="43" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O363" s="3" t="n">
         <v>4</v>
@@ -18236,10 +18239,10 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D364" s="1" t="n">
         <v>16</v>
@@ -18251,13 +18254,13 @@
         <v>120</v>
       </c>
       <c r="G364" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H364" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I364" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J364" s="42" t="n">
         <f aca="false">J363+D363</f>
@@ -18276,7 +18279,7 @@
         <v>21</v>
       </c>
       <c r="N364" s="43" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O364" s="3" t="n">
         <v>1</v>
@@ -18290,16 +18293,16 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D365" s="1" t="n">
         <v>16</v>
       </c>
       <c r="E365" s="37" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F365" s="37"/>
       <c r="G365" s="37" t="n">
@@ -18309,7 +18312,7 @@
         <v>27</v>
       </c>
       <c r="I365" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J365" s="42" t="n">
         <f aca="false">J364+D364</f>
@@ -18367,7 +18370,7 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="41" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F367" s="37"/>
       <c r="G367" s="37"/>
@@ -18450,10 +18453,10 @@
     </row>
     <row r="370" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="22" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C370" s="44" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D370" s="1" t="n">
         <v>9</v>
@@ -18469,7 +18472,7 @@
         <v>27</v>
       </c>
       <c r="I370" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J370" s="4" t="n">
         <f aca="false">J366</f>
@@ -18488,7 +18491,7 @@
         <v>22</v>
       </c>
       <c r="N370" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O370" s="3" t="n">
         <v>2</v>
@@ -18502,10 +18505,10 @@
     </row>
     <row r="371" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="22" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C371" s="44" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D371" s="1" t="n">
         <v>5</v>
@@ -18521,7 +18524,7 @@
         <v>27</v>
       </c>
       <c r="I371" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J371" s="4" t="n">
         <f aca="false">J370+D370</f>
@@ -18540,7 +18543,7 @@
         <v>22.28125</v>
       </c>
       <c r="N371" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O371" s="3" t="n">
         <v>2</v>
@@ -18554,10 +18557,10 @@
     </row>
     <row r="372" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C372" s="44" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D372" s="1" t="n">
         <v>4</v>
@@ -18573,7 +18576,7 @@
         <v>27</v>
       </c>
       <c r="I372" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J372" s="4" t="n">
         <f aca="false">J371+D371</f>
@@ -18592,7 +18595,7 @@
         <v>22.4375</v>
       </c>
       <c r="N372" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O372" s="3" t="n">
         <v>2</v>
@@ -18606,10 +18609,10 @@
     </row>
     <row r="373" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="22" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C373" s="44" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D373" s="1" t="n">
         <v>4</v>
@@ -18625,7 +18628,7 @@
         <v>27</v>
       </c>
       <c r="I373" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J373" s="4" t="n">
         <f aca="false">J372+D372</f>
@@ -18644,7 +18647,7 @@
         <v>22.5625</v>
       </c>
       <c r="N373" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O373" s="3" t="n">
         <v>2</v>
@@ -18658,10 +18661,10 @@
     </row>
     <row r="374" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C374" s="44" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D374" s="1" t="n">
         <v>3</v>
@@ -18677,7 +18680,7 @@
         <v>27</v>
       </c>
       <c r="I374" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J374" s="4" t="n">
         <f aca="false">J373+D373</f>
@@ -18696,7 +18699,7 @@
         <v>22.6875</v>
       </c>
       <c r="N374" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O374" s="3" t="n">
         <v>2</v>
@@ -18710,10 +18713,10 @@
     </row>
     <row r="375" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="22" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C375" s="44" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D375" s="1" t="n">
         <v>1</v>
@@ -18723,13 +18726,13 @@
       </c>
       <c r="F375" s="45"/>
       <c r="G375" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H375" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I375" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J375" s="4" t="n">
         <f aca="false">J374+D374</f>
@@ -18748,7 +18751,7 @@
         <v>22.78125</v>
       </c>
       <c r="N375" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O375" s="3" t="n">
         <v>2</v>
@@ -18762,10 +18765,10 @@
     </row>
     <row r="376" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="22" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C376" s="44" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D376" s="1" t="n">
         <v>1</v>
@@ -18775,13 +18778,13 @@
       </c>
       <c r="F376" s="45"/>
       <c r="G376" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H376" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I376" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J376" s="4" t="n">
         <f aca="false">J375+D375</f>
@@ -18800,7 +18803,7 @@
         <v>22.8125</v>
       </c>
       <c r="N376" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O376" s="3" t="n">
         <v>1</v>
@@ -18814,10 +18817,10 @@
     </row>
     <row r="377" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="22" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C377" s="44" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D377" s="1" t="n">
         <v>5</v>
@@ -18833,7 +18836,7 @@
         <v>27</v>
       </c>
       <c r="I377" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J377" s="4" t="n">
         <f aca="false">J376+D376</f>
@@ -18914,10 +18917,10 @@
     </row>
     <row r="380" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="22" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C380" s="44" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D380" s="1" t="n">
         <v>5</v>
@@ -18933,7 +18936,7 @@
         <v>27</v>
       </c>
       <c r="I380" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J380" s="42" t="n">
         <f aca="false">J366</f>
@@ -18966,10 +18969,10 @@
     </row>
     <row r="381" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="22" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C381" s="44" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D381" s="1" t="n">
         <v>1</v>
@@ -18979,13 +18982,13 @@
       </c>
       <c r="F381" s="45"/>
       <c r="G381" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H381" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I381" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J381" s="42" t="n">
         <f aca="false">J380+D380</f>
@@ -19004,7 +19007,7 @@
         <v>22.15625</v>
       </c>
       <c r="N381" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O381" s="3" t="n">
         <v>1</v>
@@ -19018,10 +19021,10 @@
     </row>
     <row r="382" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="22" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C382" s="44" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D382" s="1" t="n">
         <v>1</v>
@@ -19031,13 +19034,13 @@
       </c>
       <c r="F382" s="45"/>
       <c r="G382" s="37" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H382" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I382" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J382" s="42" t="n">
         <f aca="false">J381+D381</f>
@@ -19056,7 +19059,7 @@
         <v>22.1875</v>
       </c>
       <c r="N382" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O382" s="3" t="n">
         <v>2</v>
@@ -19070,10 +19073,10 @@
     </row>
     <row r="383" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C383" s="44" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D383" s="1" t="n">
         <v>3</v>
@@ -19083,13 +19086,13 @@
       </c>
       <c r="F383" s="45"/>
       <c r="G383" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H383" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I383" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J383" s="42" t="n">
         <f aca="false">J382+D382</f>
@@ -19108,7 +19111,7 @@
         <v>22.21875</v>
       </c>
       <c r="N383" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O383" s="3" t="n">
         <v>2</v>
@@ -19122,10 +19125,10 @@
     </row>
     <row r="384" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="22" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C384" s="44" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D384" s="1" t="n">
         <v>4</v>
@@ -19135,13 +19138,13 @@
       </c>
       <c r="F384" s="45"/>
       <c r="G384" s="37" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H384" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I384" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J384" s="42" t="n">
         <f aca="false">J383+D383</f>
@@ -19160,7 +19163,7 @@
         <v>22.3125</v>
       </c>
       <c r="N384" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O384" s="3" t="n">
         <v>2</v>
@@ -19174,10 +19177,10 @@
     </row>
     <row r="385" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C385" s="44" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D385" s="1" t="n">
         <v>4</v>
@@ -19187,13 +19190,13 @@
       </c>
       <c r="F385" s="45"/>
       <c r="G385" s="37" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H385" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I385" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J385" s="42" t="n">
         <f aca="false">J384+D384</f>
@@ -19212,7 +19215,7 @@
         <v>22.4375</v>
       </c>
       <c r="N385" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O385" s="3" t="n">
         <v>2</v>
@@ -19226,10 +19229,10 @@
     </row>
     <row r="386" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="22" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C386" s="44" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D386" s="1" t="n">
         <v>5</v>
@@ -19239,13 +19242,13 @@
       </c>
       <c r="F386" s="45"/>
       <c r="G386" s="37" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H386" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I386" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J386" s="42" t="n">
         <f aca="false">J385+D385</f>
@@ -19264,7 +19267,7 @@
         <v>22.5625</v>
       </c>
       <c r="N386" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O386" s="3" t="n">
         <v>2</v>
@@ -19278,10 +19281,10 @@
     </row>
     <row r="387" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="22" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C387" s="44" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D387" s="1" t="n">
         <v>9</v>
@@ -19291,13 +19294,13 @@
       </c>
       <c r="F387" s="45"/>
       <c r="G387" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H387" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I387" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J387" s="42" t="n">
         <f aca="false">J386+D386</f>
@@ -19316,7 +19319,7 @@
         <v>22.71875</v>
       </c>
       <c r="N387" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O387" s="3" t="n">
         <v>2</v>
@@ -19348,10 +19351,10 @@
     </row>
     <row r="389" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="22" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C389" s="44" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D389" s="1" t="n">
         <v>32</v>
@@ -19361,13 +19364,13 @@
       </c>
       <c r="F389" s="45"/>
       <c r="G389" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H389" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I389" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J389" s="42" t="n">
         <f aca="false">J377+D377</f>
@@ -19386,7 +19389,7 @@
         <v>23</v>
       </c>
       <c r="N389" s="43" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O389" s="3" t="n">
         <v>2</v>
@@ -19401,10 +19404,10 @@
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="43"/>
       <c r="B390" s="22" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C390" s="22" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D390" s="1" t="n">
         <v>32</v>
@@ -19414,13 +19417,13 @@
       </c>
       <c r="F390" s="37"/>
       <c r="G390" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H390" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I390" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J390" s="42" t="n">
         <f aca="false">J389+D389</f>
@@ -19439,7 +19442,7 @@
         <v>24</v>
       </c>
       <c r="N390" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O390" s="3" t="n">
         <v>5</v>
@@ -19453,10 +19456,10 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="22" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C391" s="22" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D391" s="1" t="n">
         <v>32</v>
@@ -19466,13 +19469,13 @@
       </c>
       <c r="F391" s="37"/>
       <c r="G391" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H391" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I391" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J391" s="42" t="n">
         <f aca="false">J390+D390</f>
@@ -19491,7 +19494,7 @@
         <v>25</v>
       </c>
       <c r="N391" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O391" s="3" t="n">
         <v>5</v>
@@ -19505,26 +19508,26 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="22" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C392" s="22" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D392" s="1" t="n">
         <v>32</v>
       </c>
       <c r="E392" s="37" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F392" s="37"/>
       <c r="G392" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H392" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I392" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J392" s="42" t="n">
         <f aca="false">J391+D391</f>
@@ -19543,7 +19546,7 @@
         <v>26</v>
       </c>
       <c r="N392" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O392" s="3" t="n">
         <v>5</v>
@@ -19557,10 +19560,10 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="22" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C393" s="22" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D393" s="1" t="n">
         <v>32</v>
@@ -19570,13 +19573,13 @@
       </c>
       <c r="F393" s="37"/>
       <c r="G393" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H393" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I393" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J393" s="42" t="n">
         <f aca="false">J392+D392</f>
@@ -19595,7 +19598,7 @@
         <v>27</v>
       </c>
       <c r="N393" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O393" s="3" t="n">
         <v>5</v>
@@ -19609,10 +19612,10 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="22" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C394" s="22" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D394" s="1" t="n">
         <v>8</v>
@@ -19622,13 +19625,13 @@
       </c>
       <c r="F394" s="37"/>
       <c r="G394" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H394" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I394" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J394" s="42" t="n">
         <f aca="false">J393+D393</f>
@@ -19647,7 +19650,7 @@
         <v>28</v>
       </c>
       <c r="N394" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O394" s="3" t="n">
         <v>5</v>
@@ -19661,10 +19664,10 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="22" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C395" s="22" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D395" s="1" t="n">
         <v>8</v>
@@ -19674,13 +19677,13 @@
       </c>
       <c r="F395" s="37"/>
       <c r="G395" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H395" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I395" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J395" s="42" t="n">
         <f aca="false">J394+D394</f>
@@ -19699,7 +19702,7 @@
         <v>28.25</v>
       </c>
       <c r="N395" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O395" s="3" t="n">
         <v>5</v>
@@ -19713,10 +19716,10 @@
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="22" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C396" s="22" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D396" s="1" t="n">
         <v>8</v>
@@ -19726,13 +19729,13 @@
       </c>
       <c r="F396" s="37"/>
       <c r="G396" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H396" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I396" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J396" s="42" t="n">
         <f aca="false">J395+D395</f>
@@ -19751,7 +19754,7 @@
         <v>28.5</v>
       </c>
       <c r="N396" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O396" s="3" t="n">
         <v>5</v>
@@ -19765,10 +19768,10 @@
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="22" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C397" s="22" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D397" s="1" t="n">
         <v>8</v>
@@ -19778,13 +19781,13 @@
       </c>
       <c r="F397" s="37"/>
       <c r="G397" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H397" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I397" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J397" s="42" t="n">
         <f aca="false">J396+D396</f>
@@ -19803,7 +19806,7 @@
         <v>28.75</v>
       </c>
       <c r="N397" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O397" s="3" t="n">
         <v>5</v>
@@ -19817,10 +19820,10 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="22" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C398" s="22" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D398" s="1" t="n">
         <v>8</v>
@@ -19830,13 +19833,13 @@
       </c>
       <c r="F398" s="37"/>
       <c r="G398" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H398" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I398" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J398" s="42" t="n">
         <f aca="false">J397+D397</f>
@@ -19855,7 +19858,7 @@
         <v>29</v>
       </c>
       <c r="N398" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O398" s="3" t="n">
         <v>5</v>
@@ -19869,10 +19872,10 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="22" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C399" s="22" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D399" s="1" t="n">
         <v>8</v>
@@ -19882,13 +19885,13 @@
       </c>
       <c r="F399" s="37"/>
       <c r="G399" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H399" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I399" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J399" s="42" t="n">
         <f aca="false">J398+D398</f>
@@ -19907,7 +19910,7 @@
         <v>29.25</v>
       </c>
       <c r="N399" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O399" s="3" t="n">
         <v>5</v>
@@ -19921,10 +19924,10 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="22" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C400" s="22" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D400" s="1" t="n">
         <v>8</v>
@@ -19934,13 +19937,13 @@
       </c>
       <c r="F400" s="37"/>
       <c r="G400" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H400" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I400" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J400" s="42" t="n">
         <f aca="false">J399+D399</f>
@@ -19959,7 +19962,7 @@
         <v>29.5</v>
       </c>
       <c r="N400" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O400" s="3" t="n">
         <v>5</v>
@@ -19973,10 +19976,10 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="22" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C401" s="22" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D401" s="1" t="n">
         <v>8</v>
@@ -19986,13 +19989,13 @@
       </c>
       <c r="F401" s="37"/>
       <c r="G401" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H401" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I401" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J401" s="42" t="n">
         <f aca="false">J400+D400</f>
@@ -20011,7 +20014,7 @@
         <v>29.75</v>
       </c>
       <c r="N401" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O401" s="3" t="n">
         <v>5</v>
@@ -20025,10 +20028,10 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="22" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C402" s="22" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D402" s="1" t="n">
         <v>8</v>
@@ -20038,13 +20041,13 @@
       </c>
       <c r="F402" s="37"/>
       <c r="G402" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H402" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I402" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J402" s="42" t="n">
         <f aca="false">J401+D401</f>
@@ -20063,7 +20066,7 @@
         <v>30</v>
       </c>
       <c r="N402" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O402" s="3" t="n">
         <v>5</v>
@@ -20077,10 +20080,10 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="22" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C403" s="22" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D403" s="1" t="n">
         <v>8</v>
@@ -20090,13 +20093,13 @@
       </c>
       <c r="F403" s="37"/>
       <c r="G403" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H403" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I403" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J403" s="42" t="n">
         <f aca="false">J402+D402</f>
@@ -20115,7 +20118,7 @@
         <v>30.25</v>
       </c>
       <c r="N403" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O403" s="3" t="n">
         <v>5</v>
@@ -20129,10 +20132,10 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="22" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C404" s="22" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D404" s="1" t="n">
         <v>8</v>
@@ -20142,13 +20145,13 @@
       </c>
       <c r="F404" s="37"/>
       <c r="G404" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H404" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I404" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J404" s="42" t="n">
         <f aca="false">J403+D403</f>
@@ -20167,7 +20170,7 @@
         <v>30.5</v>
       </c>
       <c r="N404" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O404" s="3" t="n">
         <v>5</v>
@@ -20181,10 +20184,10 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="22" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C405" s="22" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D405" s="1" t="n">
         <v>8</v>
@@ -20194,13 +20197,13 @@
       </c>
       <c r="F405" s="37"/>
       <c r="G405" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H405" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I405" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J405" s="42" t="n">
         <f aca="false">J404+D404</f>
@@ -20219,7 +20222,7 @@
         <v>30.75</v>
       </c>
       <c r="N405" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O405" s="3" t="n">
         <v>5</v>
@@ -20233,10 +20236,10 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="22" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C406" s="22" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D406" s="1" t="n">
         <v>8</v>
@@ -20246,13 +20249,13 @@
       </c>
       <c r="F406" s="37"/>
       <c r="G406" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H406" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I406" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J406" s="42" t="n">
         <f aca="false">J405+D405</f>
@@ -20271,7 +20274,7 @@
         <v>31</v>
       </c>
       <c r="N406" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O406" s="3" t="n">
         <v>5</v>
@@ -20285,10 +20288,10 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="22" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C407" s="22" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D407" s="1" t="n">
         <v>8</v>
@@ -20298,13 +20301,13 @@
       </c>
       <c r="F407" s="37"/>
       <c r="G407" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H407" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I407" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J407" s="42" t="n">
         <f aca="false">J406+D406</f>
@@ -20323,7 +20326,7 @@
         <v>31.25</v>
       </c>
       <c r="N407" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O407" s="3" t="n">
         <v>5</v>
@@ -20337,10 +20340,10 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="22" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C408" s="22" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D408" s="1" t="n">
         <v>8</v>
@@ -20350,13 +20353,13 @@
       </c>
       <c r="F408" s="37"/>
       <c r="G408" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H408" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I408" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J408" s="42" t="n">
         <f aca="false">J407+D407</f>
@@ -20375,7 +20378,7 @@
         <v>31.5</v>
       </c>
       <c r="N408" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O408" s="3" t="n">
         <v>5</v>
@@ -20389,10 +20392,10 @@
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="22" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C409" s="22" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D409" s="1" t="n">
         <v>8</v>
@@ -20402,13 +20405,13 @@
       </c>
       <c r="F409" s="37"/>
       <c r="G409" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H409" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I409" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J409" s="42" t="n">
         <f aca="false">J408+D408</f>
@@ -20427,7 +20430,7 @@
         <v>31.75</v>
       </c>
       <c r="N409" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O409" s="3" t="n">
         <v>5</v>
@@ -20441,10 +20444,10 @@
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="22" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C410" s="22" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D410" s="1" t="n">
         <v>8</v>
@@ -20454,13 +20457,13 @@
       </c>
       <c r="F410" s="37"/>
       <c r="G410" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H410" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I410" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J410" s="42" t="n">
         <f aca="false">J409+D409</f>
@@ -20479,7 +20482,7 @@
         <v>32</v>
       </c>
       <c r="N410" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O410" s="3" t="n">
         <v>5</v>
@@ -20493,10 +20496,10 @@
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="22" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C411" s="22" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D411" s="1" t="n">
         <v>8</v>
@@ -20506,13 +20509,13 @@
       </c>
       <c r="F411" s="37"/>
       <c r="G411" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H411" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I411" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J411" s="42" t="n">
         <f aca="false">J410+D410</f>
@@ -20531,7 +20534,7 @@
         <v>32.25</v>
       </c>
       <c r="N411" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O411" s="3" t="n">
         <v>5</v>
@@ -20545,10 +20548,10 @@
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="22" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C412" s="22" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D412" s="1" t="n">
         <v>8</v>
@@ -20558,13 +20561,13 @@
       </c>
       <c r="F412" s="37"/>
       <c r="G412" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H412" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I412" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J412" s="42" t="n">
         <f aca="false">J411+D411</f>
@@ -20583,7 +20586,7 @@
         <v>32.5</v>
       </c>
       <c r="N412" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O412" s="3" t="n">
         <v>5</v>
@@ -20597,10 +20600,10 @@
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="22" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C413" s="22" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D413" s="1" t="n">
         <v>8</v>
@@ -20610,13 +20613,13 @@
       </c>
       <c r="F413" s="37"/>
       <c r="G413" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H413" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I413" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J413" s="42" t="n">
         <f aca="false">J412+D412</f>
@@ -20635,7 +20638,7 @@
         <v>32.75</v>
       </c>
       <c r="N413" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O413" s="3" t="n">
         <v>5</v>
@@ -20649,10 +20652,10 @@
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="22" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C414" s="22" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D414" s="1" t="n">
         <v>8</v>
@@ -20662,13 +20665,13 @@
       </c>
       <c r="F414" s="37"/>
       <c r="G414" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H414" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I414" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J414" s="42" t="n">
         <f aca="false">J413+D413</f>
@@ -20687,7 +20690,7 @@
         <v>33</v>
       </c>
       <c r="N414" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O414" s="3" t="n">
         <v>5</v>
@@ -20701,10 +20704,10 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="22" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C415" s="22" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D415" s="1" t="n">
         <v>8</v>
@@ -20714,13 +20717,13 @@
       </c>
       <c r="F415" s="37"/>
       <c r="G415" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H415" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I415" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J415" s="42" t="n">
         <f aca="false">J414+D414</f>
@@ -20739,7 +20742,7 @@
         <v>33.25</v>
       </c>
       <c r="N415" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O415" s="3" t="n">
         <v>5</v>
@@ -20753,10 +20756,10 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="22" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C416" s="22" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D416" s="1" t="n">
         <v>8</v>
@@ -20766,13 +20769,13 @@
       </c>
       <c r="F416" s="37"/>
       <c r="G416" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H416" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I416" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J416" s="42" t="n">
         <f aca="false">J415+D415</f>
@@ -20791,7 +20794,7 @@
         <v>33.5</v>
       </c>
       <c r="N416" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O416" s="3" t="n">
         <v>5</v>
@@ -20805,10 +20808,10 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="22" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C417" s="22" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D417" s="1" t="n">
         <v>8</v>
@@ -20818,13 +20821,13 @@
       </c>
       <c r="F417" s="37"/>
       <c r="G417" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H417" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I417" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J417" s="42" t="n">
         <f aca="false">J416+D416</f>
@@ -20843,7 +20846,7 @@
         <v>33.75</v>
       </c>
       <c r="N417" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O417" s="3" t="n">
         <v>5</v>
@@ -20857,10 +20860,10 @@
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="22" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C418" s="22" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D418" s="1" t="n">
         <v>8</v>
@@ -20870,13 +20873,13 @@
       </c>
       <c r="F418" s="37"/>
       <c r="G418" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H418" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I418" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J418" s="42" t="n">
         <f aca="false">J417+D417</f>
@@ -20895,7 +20898,7 @@
         <v>34</v>
       </c>
       <c r="N418" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O418" s="3" t="n">
         <v>5</v>
@@ -20909,10 +20912,10 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="22" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C419" s="22" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D419" s="1" t="n">
         <v>8</v>
@@ -20922,13 +20925,13 @@
       </c>
       <c r="F419" s="37"/>
       <c r="G419" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H419" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I419" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J419" s="42" t="n">
         <f aca="false">J418+D418</f>
@@ -20947,7 +20950,7 @@
         <v>34.25</v>
       </c>
       <c r="N419" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O419" s="3" t="n">
         <v>5</v>
@@ -20961,10 +20964,10 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="22" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C420" s="22" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D420" s="1" t="n">
         <v>8</v>
@@ -20974,13 +20977,13 @@
       </c>
       <c r="F420" s="37"/>
       <c r="G420" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H420" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I420" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J420" s="42" t="n">
         <f aca="false">J419+D419</f>
@@ -20999,7 +21002,7 @@
         <v>34.5</v>
       </c>
       <c r="N420" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O420" s="3" t="n">
         <v>5</v>
@@ -21013,10 +21016,10 @@
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B421" s="22" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C421" s="22" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D421" s="1" t="n">
         <v>8</v>
@@ -21026,13 +21029,13 @@
       </c>
       <c r="F421" s="37"/>
       <c r="G421" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H421" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I421" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J421" s="42" t="n">
         <f aca="false">J420+D420</f>
@@ -21051,7 +21054,7 @@
         <v>34.75</v>
       </c>
       <c r="N421" s="43" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O421" s="3" t="n">
         <v>5</v>
@@ -21065,10 +21068,10 @@
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B422" s="3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D422" s="1" t="n">
         <v>16</v>
@@ -21080,13 +21083,13 @@
         <v>120</v>
       </c>
       <c r="G422" s="37" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H422" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I422" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J422" s="42" t="n">
         <f aca="false">J421+D421</f>
@@ -21105,7 +21108,7 @@
         <v>35</v>
       </c>
       <c r="N422" s="43" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O422" s="3" t="n">
         <v>1</v>
@@ -21119,16 +21122,16 @@
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B423" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D423" s="1" t="n">
         <v>16</v>
       </c>
       <c r="E423" s="37" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F423" s="37"/>
       <c r="G423" s="37" t="n">
@@ -21138,7 +21141,7 @@
         <v>27</v>
       </c>
       <c r="I423" s="37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J423" s="42" t="n">
         <f aca="false">J422+D422</f>
@@ -21235,10 +21238,10 @@
   <dimension ref="B6:I20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="1" sqref="I165 F8"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.11"/>
@@ -21248,22 +21251,22 @@
     <row r="6" s="48" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="49"/>
       <c r="C6" s="49" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="I6" s="49"/>
     </row>

--- a/genSpacecraft/DownlinkSpecGolf-T.xlsx
+++ b/genSpacecraft/DownlinkSpecGolf-T.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="711">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -1181,7 +1181,13 @@
     <t xml:space="preserve">Secondary RT-IHU Reset Count</t>
   </si>
   <si>
-    <t xml:space="preserve">Pad6</t>
+    <t xml:space="preserve">RF Matrix Reset Cnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIUResetCnt3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Half Duplex Mode</t>
@@ -1203,6 +1209,9 @@
   </si>
   <si>
     <t xml:space="preserve">#endif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF Matrix Power Cycle Cnt</t>
   </si>
   <si>
     <t xml:space="preserve">Total Length</t>
@@ -2514,8 +2523,8 @@
   </sheetPr>
   <dimension ref="A1:Q425"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B82" activeCellId="0" sqref="B82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A248" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G268" activeCellId="0" sqref="G268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9910,10 +9919,10 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="30" t="s">
-        <v>49</v>
+        <v>386</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D164" s="30" t="n">
         <v>6</v>
@@ -9923,10 +9932,10 @@
       </c>
       <c r="F164" s="23"/>
       <c r="G164" s="23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" s="22" t="s">
-        <v>27</v>
+        <v>388</v>
       </c>
       <c r="I164" s="23"/>
       <c r="J164" s="28" t="n">
@@ -9945,25 +9954,25 @@
         <f aca="false">J164/32</f>
         <v>23.75</v>
       </c>
-      <c r="N164" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O164" s="24" t="n">
-        <v>0</v>
+      <c r="N164" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O164" s="3" t="n">
+        <v>9</v>
       </c>
       <c r="P164" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q164" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="30" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D165" s="30" t="n">
         <v>1</v>
@@ -9973,16 +9982,28 @@
       </c>
       <c r="F165" s="23"/>
       <c r="G165" s="23" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H165" s="22"/>
       <c r="I165" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="J165" s="28"/>
-      <c r="K165" s="27"/>
-      <c r="L165" s="27"/>
-      <c r="M165" s="27"/>
+        <v>392</v>
+      </c>
+      <c r="J165" s="28" t="n">
+        <f aca="false">J164+D164</f>
+        <v>766</v>
+      </c>
+      <c r="K165" s="27" t="n">
+        <f aca="false">J165/8</f>
+        <v>95.75</v>
+      </c>
+      <c r="L165" s="27" t="n">
+        <f aca="false">J165/16</f>
+        <v>47.875</v>
+      </c>
+      <c r="M165" s="27" t="n">
+        <f aca="false">J165/32</f>
+        <v>23.9375</v>
+      </c>
       <c r="N165" s="5" t="s">
         <v>122</v>
       </c>
@@ -9996,12 +10017,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="30" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D166" s="30" t="n">
         <v>1</v>
@@ -10015,15 +10036,24 @@
       </c>
       <c r="H166" s="22"/>
       <c r="I166" s="23" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J166" s="28" t="n">
-        <f aca="false">J164+D164</f>
-        <v>766</v>
-      </c>
-      <c r="K166" s="27"/>
-      <c r="L166" s="27"/>
-      <c r="M166" s="27"/>
+        <f aca="false">J165+D165</f>
+        <v>767</v>
+      </c>
+      <c r="K166" s="27" t="n">
+        <f aca="false">J166/8</f>
+        <v>95.875</v>
+      </c>
+      <c r="L166" s="27" t="n">
+        <f aca="false">J166/16</f>
+        <v>47.9375</v>
+      </c>
+      <c r="M166" s="27" t="n">
+        <f aca="false">J166/32</f>
+        <v>23.96875</v>
+      </c>
       <c r="N166" s="5" t="s">
         <v>270</v>
       </c>
@@ -10039,7 +10069,7 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B167" s="30"/>
       <c r="C167" s="30"/>
@@ -10050,9 +10080,15 @@
       <c r="H167" s="22"/>
       <c r="I167" s="23"/>
       <c r="J167" s="28"/>
-      <c r="K167" s="27"/>
-      <c r="L167" s="27"/>
-      <c r="M167" s="27"/>
+      <c r="K167" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="L167" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="M167" s="27" t="s">
+        <v>388</v>
+      </c>
       <c r="N167" s="5"/>
       <c r="O167" s="24"/>
     </row>
@@ -10069,18 +10105,24 @@
       <c r="H168" s="22"/>
       <c r="I168" s="23"/>
       <c r="J168" s="28"/>
-      <c r="K168" s="27"/>
-      <c r="L168" s="27"/>
-      <c r="M168" s="27"/>
+      <c r="K168" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="L168" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="M168" s="27" t="s">
+        <v>388</v>
+      </c>
       <c r="N168" s="5"/>
       <c r="O168" s="24"/>
     </row>
-    <row r="169" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="30" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C169" s="30" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D169" s="30" t="n">
         <v>1</v>
@@ -10094,15 +10136,24 @@
       </c>
       <c r="H169" s="22"/>
       <c r="I169" s="23" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J169" s="28" t="n">
         <f aca="false">J162+D162</f>
         <v>760</v>
       </c>
-      <c r="K169" s="27"/>
-      <c r="L169" s="27"/>
-      <c r="M169" s="27"/>
+      <c r="K169" s="27" t="n">
+        <f aca="false">J169/8</f>
+        <v>95</v>
+      </c>
+      <c r="L169" s="27" t="n">
+        <f aca="false">J169/16</f>
+        <v>47.5</v>
+      </c>
+      <c r="M169" s="27" t="n">
+        <f aca="false">J169/32</f>
+        <v>23.75</v>
+      </c>
       <c r="N169" s="5" t="s">
         <v>270</v>
       </c>
@@ -10118,10 +10169,10 @@
     </row>
     <row r="170" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="30" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C170" s="30" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D170" s="30" t="n">
         <v>1</v>
@@ -10131,27 +10182,27 @@
       </c>
       <c r="F170" s="23"/>
       <c r="G170" s="23" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H170" s="22"/>
       <c r="I170" s="23" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J170" s="28" t="n">
-        <f aca="false">J168+D168</f>
-        <v>0</v>
+        <f aca="false">J169+D169</f>
+        <v>761</v>
       </c>
       <c r="K170" s="27" t="n">
         <f aca="false">J170/8</f>
-        <v>0</v>
+        <v>95.125</v>
       </c>
       <c r="L170" s="27" t="n">
         <f aca="false">J170/16</f>
-        <v>0</v>
+        <v>47.5625</v>
       </c>
       <c r="M170" s="27" t="n">
         <f aca="false">J170/32</f>
-        <v>0</v>
+        <v>23.78125</v>
       </c>
       <c r="N170" s="5" t="s">
         <v>122</v>
@@ -10166,12 +10217,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="37.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="30" t="s">
-        <v>49</v>
+        <v>386</v>
       </c>
       <c r="C171" s="30" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D171" s="30" t="n">
         <v>6</v>
@@ -10181,36 +10232,38 @@
       </c>
       <c r="F171" s="23"/>
       <c r="G171" s="23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I171" s="23"/>
+      <c r="I171" s="23" t="s">
+        <v>396</v>
+      </c>
       <c r="J171" s="28" t="n">
-        <f aca="false">J169+D169</f>
-        <v>761</v>
+        <f aca="false">J170+D170</f>
+        <v>762</v>
       </c>
       <c r="K171" s="27" t="n">
         <f aca="false">J171/8</f>
-        <v>95.125</v>
+        <v>95.25</v>
       </c>
       <c r="L171" s="27" t="n">
         <f aca="false">J171/16</f>
-        <v>47.5625</v>
+        <v>47.625</v>
       </c>
       <c r="M171" s="27" t="n">
         <f aca="false">J171/32</f>
-        <v>23.78125</v>
-      </c>
-      <c r="N171" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O171" s="24" t="n">
-        <v>0</v>
+        <v>23.8125</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O171" s="3" t="n">
+        <v>9</v>
       </c>
       <c r="P171" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q171" s="1" t="n">
         <v>0</v>
@@ -10218,7 +10271,7 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B172" s="30"/>
       <c r="C172" s="30"/>
@@ -10247,23 +10300,23 @@
       <c r="G173" s="35"/>
       <c r="H173" s="34"/>
       <c r="I173" s="35" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="J173" s="28" t="n">
         <f aca="false">J171+D171</f>
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="K173" s="27" t="n">
         <f aca="false">J173/8</f>
-        <v>95.875</v>
+        <v>96</v>
       </c>
       <c r="L173" s="27" t="n">
         <f aca="false">J173/16</f>
-        <v>47.9375</v>
+        <v>48</v>
       </c>
       <c r="M173" s="27" t="n">
         <f aca="false">J173/32</f>
-        <v>23.96875</v>
+        <v>24</v>
       </c>
       <c r="O173" s="36"/>
     </row>
@@ -10277,7 +10330,7 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B176" s="30"/>
       <c r="C176" s="30"/>
@@ -10297,7 +10350,7 @@
         <v>49</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D177" s="30" t="n">
         <v>32</v>
@@ -10355,7 +10408,7 @@
       <c r="G178" s="35"/>
       <c r="H178" s="34"/>
       <c r="I178" s="35" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="J178" s="28" t="n">
         <f aca="false">J177+D177</f>
@@ -10392,32 +10445,32 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B180" s="25"/>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="30" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C181" s="30" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D181" s="26" t="n">
         <v>32</v>
       </c>
       <c r="E181" s="37" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F181" s="23"/>
       <c r="G181" s="38" t="n">
         <v>1</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="I181" s="27" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="J181" s="28" t="n">
         <f aca="false">J97</f>
@@ -10450,10 +10503,10 @@
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="30" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C182" s="30" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D182" s="26" t="n">
         <v>16</v>
@@ -10463,10 +10516,10 @@
       </c>
       <c r="F182" s="23"/>
       <c r="G182" s="39" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="I182" s="27" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="J182" s="28" t="n">
         <f aca="false">J181+D181</f>
@@ -10499,16 +10552,16 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="30" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C183" s="30" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D183" s="26" t="n">
         <v>8</v>
       </c>
       <c r="E183" s="37" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F183" s="23"/>
       <c r="G183" s="22" t="n">
@@ -10518,7 +10571,7 @@
         <v>27</v>
       </c>
       <c r="I183" s="27" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="J183" s="28" t="n">
         <f aca="false">J182+D182</f>
@@ -10551,10 +10604,10 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="30" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C184" s="30" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D184" s="26" t="n">
         <v>8</v>
@@ -10568,7 +10621,7 @@
         <v>27</v>
       </c>
       <c r="I184" s="27" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="J184" s="28" t="n">
         <f aca="false">J183+D183</f>
@@ -10611,7 +10664,7 @@
       <c r="G185" s="35"/>
       <c r="H185" s="34"/>
       <c r="I185" s="35" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="J185" s="28" t="n">
         <f aca="false">J184+D184</f>
@@ -10638,16 +10691,16 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B188" s="25"/>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="30" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C189" s="30" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D189" s="26" t="n">
         <v>32</v>
@@ -10658,10 +10711,10 @@
         <v>1</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="I189" s="27" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="J189" s="28" t="n">
         <f aca="false">J97</f>
@@ -10694,10 +10747,10 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="30" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C190" s="30" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D190" s="26" t="n">
         <v>16</v>
@@ -10707,10 +10760,10 @@
       </c>
       <c r="F190" s="23"/>
       <c r="G190" s="23" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="I190" s="27" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="J190" s="28" t="n">
         <f aca="false">J189+D189</f>
@@ -10743,10 +10796,10 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="30" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C191" s="30" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D191" s="26" t="n">
         <v>16</v>
@@ -10754,10 +10807,10 @@
       <c r="E191" s="37"/>
       <c r="F191" s="23"/>
       <c r="G191" s="23" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="I191" s="27" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J191" s="28" t="n">
         <f aca="false">J190+D190</f>
@@ -10790,10 +10843,10 @@
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="30" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C192" s="30" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D192" s="26" t="n">
         <v>32</v>
@@ -10804,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="I192" s="27" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="J192" s="28" t="n">
         <f aca="false">J191+D191</f>
@@ -10837,16 +10890,16 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="30" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C193" s="30" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D193" s="26" t="n">
         <v>8</v>
       </c>
       <c r="E193" s="37" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F193" s="23"/>
       <c r="G193" s="22" t="n">
@@ -10856,7 +10909,7 @@
         <v>27</v>
       </c>
       <c r="I193" s="27" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="J193" s="28" t="n">
         <f aca="false">J192+D192</f>
@@ -10889,10 +10942,10 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="30" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C194" s="30" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D194" s="26" t="n">
         <v>24</v>
@@ -10949,7 +11002,7 @@
       <c r="G195" s="35"/>
       <c r="H195" s="34"/>
       <c r="I195" s="35" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="J195" s="28" t="n">
         <f aca="false">J194+D194</f>
@@ -10982,16 +11035,16 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B199" s="25"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="30" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C200" s="30" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D200" s="26" t="n">
         <v>32</v>
@@ -11004,29 +11057,29 @@
         <v>1</v>
       </c>
       <c r="H200" s="38" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="I200" s="27" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="J200" s="28" t="n">
         <f aca="false">J173</f>
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="K200" s="27" t="n">
         <f aca="false">J200/8</f>
-        <v>95.875</v>
+        <v>96</v>
       </c>
       <c r="L200" s="27" t="n">
         <f aca="false">J200/16</f>
-        <v>47.9375</v>
+        <v>48</v>
       </c>
       <c r="M200" s="27" t="n">
         <f aca="false">J200/32</f>
-        <v>23.96875</v>
+        <v>24</v>
       </c>
       <c r="N200" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O200" s="3" t="n">
         <v>13</v>
@@ -11040,10 +11093,10 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="30" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C201" s="30" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D201" s="26" t="n">
         <v>16</v>
@@ -11053,32 +11106,32 @@
       </c>
       <c r="F201" s="23"/>
       <c r="G201" s="38" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H201" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I201" s="27" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="J201" s="28" t="n">
         <f aca="false">J200+D200</f>
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="K201" s="27" t="n">
         <f aca="false">J201/8</f>
-        <v>99.875</v>
+        <v>100</v>
       </c>
       <c r="L201" s="27" t="n">
         <f aca="false">J201/16</f>
-        <v>49.9375</v>
+        <v>50</v>
       </c>
       <c r="M201" s="27" t="n">
         <f aca="false">J201/32</f>
-        <v>24.96875</v>
+        <v>25</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O201" s="3" t="n">
         <v>13</v>
@@ -11092,10 +11145,10 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="30" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C202" s="30" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D202" s="26" t="n">
         <v>8</v>
@@ -11105,32 +11158,32 @@
       </c>
       <c r="F202" s="23"/>
       <c r="G202" s="22" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H202" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I202" s="27" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="J202" s="28" t="n">
         <f aca="false">J201+D201</f>
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="K202" s="27" t="n">
         <f aca="false">J202/8</f>
-        <v>101.875</v>
+        <v>102</v>
       </c>
       <c r="L202" s="27" t="n">
         <f aca="false">J202/16</f>
-        <v>50.9375</v>
+        <v>51</v>
       </c>
       <c r="M202" s="27" t="n">
         <f aca="false">J202/32</f>
-        <v>25.46875</v>
+        <v>25.5</v>
       </c>
       <c r="N202" s="5" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O202" s="24" t="n">
         <v>13</v>
@@ -11164,7 +11217,7 @@
         <v>47</v>
       </c>
       <c r="C204" s="22" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D204" s="22" t="n">
         <v>5</v>
@@ -11184,19 +11237,19 @@
       </c>
       <c r="J204" s="4" t="n">
         <f aca="false">J202+D202</f>
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="K204" s="5" t="n">
         <f aca="false">J204/8</f>
-        <v>102.875</v>
+        <v>103</v>
       </c>
       <c r="L204" s="5" t="n">
         <f aca="false">J204/16</f>
-        <v>51.4375</v>
+        <v>51.5</v>
       </c>
       <c r="M204" s="5" t="n">
         <f aca="false">J204/32</f>
-        <v>25.71875</v>
+        <v>25.75</v>
       </c>
       <c r="N204" s="5" t="s">
         <v>29</v>
@@ -11234,19 +11287,19 @@
       </c>
       <c r="J205" s="4" t="n">
         <f aca="false">J204+D204</f>
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="K205" s="5" t="n">
         <f aca="false">J205/8</f>
-        <v>103.5</v>
+        <v>103.625</v>
       </c>
       <c r="L205" s="5" t="n">
         <f aca="false">J205/16</f>
-        <v>51.75</v>
+        <v>51.8125</v>
       </c>
       <c r="M205" s="5" t="n">
         <f aca="false">J205/32</f>
-        <v>25.875</v>
+        <v>25.90625</v>
       </c>
       <c r="N205" s="5" t="s">
         <v>29</v>
@@ -11286,19 +11339,19 @@
       </c>
       <c r="J206" s="4" t="n">
         <f aca="false">J205+D205</f>
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="K206" s="5" t="n">
         <f aca="false">J206/8</f>
-        <v>103.625</v>
+        <v>103.75</v>
       </c>
       <c r="L206" s="5" t="n">
         <f aca="false">J206/16</f>
-        <v>51.8125</v>
+        <v>51.875</v>
       </c>
       <c r="M206" s="5" t="n">
         <f aca="false">J206/32</f>
-        <v>25.90625</v>
+        <v>25.9375</v>
       </c>
       <c r="N206" s="5" t="s">
         <v>29</v>
@@ -11338,19 +11391,19 @@
       </c>
       <c r="J207" s="4" t="n">
         <f aca="false">J206+D206</f>
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="K207" s="5" t="n">
         <f aca="false">J207/8</f>
-        <v>103.75</v>
+        <v>103.875</v>
       </c>
       <c r="L207" s="5" t="n">
         <f aca="false">J207/16</f>
-        <v>51.875</v>
+        <v>51.9375</v>
       </c>
       <c r="M207" s="5" t="n">
         <f aca="false">J207/32</f>
-        <v>25.9375</v>
+        <v>25.96875</v>
       </c>
       <c r="N207" s="5" t="s">
         <v>29</v>
@@ -11424,19 +11477,19 @@
       </c>
       <c r="J210" s="4" t="n">
         <f aca="false">J202+D202</f>
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="K210" s="5" t="n">
         <f aca="false">J210/8</f>
-        <v>102.875</v>
+        <v>103</v>
       </c>
       <c r="L210" s="5" t="n">
         <f aca="false">J210/16</f>
-        <v>51.4375</v>
+        <v>51.5</v>
       </c>
       <c r="M210" s="5" t="n">
         <f aca="false">J210/32</f>
-        <v>25.71875</v>
+        <v>25.75</v>
       </c>
       <c r="N210" s="1" t="s">
         <v>270</v>
@@ -11476,19 +11529,19 @@
       </c>
       <c r="J211" s="4" t="n">
         <f aca="false">J210+D210</f>
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="K211" s="5" t="n">
         <f aca="false">J211/8</f>
-        <v>103</v>
+        <v>103.125</v>
       </c>
       <c r="L211" s="5" t="n">
         <f aca="false">J211/16</f>
-        <v>51.5</v>
+        <v>51.5625</v>
       </c>
       <c r="M211" s="5" t="n">
         <f aca="false">J211/32</f>
-        <v>25.75</v>
+        <v>25.78125</v>
       </c>
       <c r="N211" s="1" t="s">
         <v>270</v>
@@ -11528,19 +11581,19 @@
       </c>
       <c r="J212" s="4" t="n">
         <f aca="false">J211+D211</f>
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="K212" s="5" t="n">
         <f aca="false">J212/8</f>
-        <v>103.125</v>
+        <v>103.25</v>
       </c>
       <c r="L212" s="5" t="n">
         <f aca="false">J212/16</f>
-        <v>51.5625</v>
+        <v>51.625</v>
       </c>
       <c r="M212" s="5" t="n">
         <f aca="false">J212/32</f>
-        <v>25.78125</v>
+        <v>25.8125</v>
       </c>
       <c r="N212" s="1" t="s">
         <v>270</v>
@@ -11560,7 +11613,7 @@
         <v>61</v>
       </c>
       <c r="C213" s="22" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D213" s="22" t="n">
         <v>5</v>
@@ -11580,19 +11633,19 @@
       </c>
       <c r="J213" s="4" t="n">
         <f aca="false">J212+D212</f>
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K213" s="5" t="n">
         <f aca="false">J213/8</f>
-        <v>103.25</v>
+        <v>103.375</v>
       </c>
       <c r="L213" s="5" t="n">
         <f aca="false">J213/16</f>
-        <v>51.625</v>
+        <v>51.6875</v>
       </c>
       <c r="M213" s="5" t="n">
         <f aca="false">J213/32</f>
-        <v>25.8125</v>
+        <v>25.84375</v>
       </c>
       <c r="N213" s="5" t="s">
         <v>29</v>
@@ -11632,19 +11685,19 @@
       </c>
       <c r="J215" s="28" t="n">
         <f aca="false">J213+D213</f>
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="K215" s="27" t="n">
         <f aca="false">J215/8</f>
-        <v>103.875</v>
+        <v>104</v>
       </c>
       <c r="L215" s="27" t="n">
         <f aca="false">J215/16</f>
-        <v>51.9375</v>
+        <v>52</v>
       </c>
       <c r="M215" s="27" t="n">
         <f aca="false">J215/32</f>
-        <v>25.96875</v>
+        <v>26</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11656,7 +11709,7 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B217" s="12"/>
       <c r="C217" s="40"/>
@@ -11722,10 +11775,10 @@
     </row>
     <row r="219" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="30" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C219" s="22" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D219" s="22" t="n">
         <v>464</v>
@@ -11743,7 +11796,7 @@
         <v>27</v>
       </c>
       <c r="I219" s="23" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="J219" s="4" t="n">
         <v>0</v>
@@ -11775,10 +11828,10 @@
     </row>
     <row r="220" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="30" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C220" s="22" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D220" s="22" t="n">
         <v>8</v>
@@ -11794,7 +11847,7 @@
         <v>27</v>
       </c>
       <c r="I220" s="23" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="J220" s="4" t="n">
         <f aca="false">J219+D219</f>
@@ -11813,7 +11866,7 @@
         <v>14.5</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="O220" s="3" t="n">
         <v>1</v>
@@ -11830,7 +11883,7 @@
         <v>29</v>
       </c>
       <c r="C221" s="22" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D221" s="22" t="n">
         <v>8</v>
@@ -11893,7 +11946,7 @@
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="41" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B224" s="12"/>
       <c r="C224" s="40"/>
@@ -11959,10 +12012,10 @@
     </row>
     <row r="226" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="30" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C226" s="22" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D226" s="22" t="n">
         <v>672</v>
@@ -11980,7 +12033,7 @@
         <v>27</v>
       </c>
       <c r="I226" s="23" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="J226" s="4" t="n">
         <v>0</v>
@@ -12036,7 +12089,7 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="41" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B230" s="12"/>
       <c r="C230" s="40"/>
@@ -12102,10 +12155,10 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="30" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C232" s="30" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D232" s="26" t="n">
         <v>32</v>
@@ -12118,10 +12171,10 @@
         <v>1</v>
       </c>
       <c r="H232" s="38" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="I232" s="27" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="J232" s="4" t="n">
         <f aca="false">J222</f>
@@ -12140,7 +12193,7 @@
         <v>15</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O232" s="3" t="n">
         <v>13</v>
@@ -12154,10 +12207,10 @@
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="30" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C233" s="30" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D233" s="26" t="n">
         <v>16</v>
@@ -12166,16 +12219,16 @@
         <v>26</v>
       </c>
       <c r="F233" s="23" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G233" s="23" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H233" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I233" s="27" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="J233" s="4" t="n">
         <f aca="false">J232+D232</f>
@@ -12194,7 +12247,7 @@
         <v>16</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O233" s="3" t="n">
         <v>13</v>
@@ -12208,10 +12261,10 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="30" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C234" s="30" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D234" s="26" t="n">
         <v>8</v>
@@ -12219,13 +12272,13 @@
       <c r="E234" s="37"/>
       <c r="F234" s="23"/>
       <c r="G234" s="38" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H234" s="38" t="s">
         <v>27</v>
       </c>
       <c r="I234" s="27" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="J234" s="4" t="n">
         <f aca="false">J233+D233</f>
@@ -12244,7 +12297,7 @@
         <v>16.5</v>
       </c>
       <c r="N234" s="5" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O234" s="24" t="n">
         <v>13</v>
@@ -12261,7 +12314,7 @@
         <v>29</v>
       </c>
       <c r="C235" s="30" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D235" s="26" t="n">
         <v>8</v>
@@ -12345,7 +12398,7 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="41" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B238" s="12"/>
       <c r="C238" s="40"/>
@@ -12411,10 +12464,10 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="30" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C240" s="30" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D240" s="26" t="n">
         <v>32</v>
@@ -12427,10 +12480,10 @@
         <v>1</v>
       </c>
       <c r="H240" s="38" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="I240" s="27" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="J240" s="4" t="n">
         <f aca="false">J227</f>
@@ -12449,7 +12502,7 @@
         <v>21</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O240" s="3" t="n">
         <v>13</v>
@@ -12463,10 +12516,10 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="30" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C241" s="30" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D241" s="26" t="n">
         <v>16</v>
@@ -12475,7 +12528,7 @@
         <v>26</v>
       </c>
       <c r="F241" s="23" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G241" s="38" t="n">
         <v>1</v>
@@ -12484,7 +12537,7 @@
         <v>27</v>
       </c>
       <c r="I241" s="27" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="J241" s="4" t="n">
         <f aca="false">J240+D240</f>
@@ -12503,7 +12556,7 @@
         <v>22</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O241" s="3" t="n">
         <v>13</v>
@@ -12520,7 +12573,7 @@
         <v>29</v>
       </c>
       <c r="C242" s="30" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D242" s="26" t="n">
         <v>8</v>
@@ -12534,7 +12587,7 @@
         <v>27</v>
       </c>
       <c r="I242" s="27" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="J242" s="4" t="n">
         <f aca="false">J241+D241</f>
@@ -12553,7 +12606,7 @@
         <v>22.5</v>
       </c>
       <c r="N242" s="5" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O242" s="24" t="n">
         <v>13</v>
@@ -12570,7 +12623,7 @@
         <v>29</v>
       </c>
       <c r="C243" s="30" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D243" s="26" t="n">
         <v>8</v>
@@ -12641,7 +12694,7 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="41" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="246" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12699,10 +12752,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="37" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C247" s="37" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D247" s="37" t="n">
         <v>32</v>
@@ -12712,13 +12765,13 @@
       </c>
       <c r="F247" s="37"/>
       <c r="G247" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H247" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I247" s="37" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="J247" s="42" t="n">
         <v>0</v>
@@ -12736,7 +12789,7 @@
         <v>0</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O247" s="3" t="n">
         <v>1</v>
@@ -12750,10 +12803,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="37" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C248" s="37" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D248" s="37" t="n">
         <v>32</v>
@@ -12763,13 +12816,13 @@
       </c>
       <c r="F248" s="37"/>
       <c r="G248" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H248" s="37" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="I248" s="37" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="J248" s="42" t="n">
         <f aca="false">J247+D247</f>
@@ -12788,7 +12841,7 @@
         <v>1</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O248" s="3" t="n">
         <v>1</v>
@@ -12802,7 +12855,7 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B249" s="37"/>
       <c r="C249" s="37"/>
@@ -12819,10 +12872,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="37" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C250" s="37" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D250" s="37" t="n">
         <v>5</v>
@@ -12838,7 +12891,7 @@
         <v>27</v>
       </c>
       <c r="I250" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J250" s="42" t="n">
         <f aca="false">J247+D247</f>
@@ -12857,7 +12910,7 @@
         <v>1</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O250" s="3" t="n">
         <v>1</v>
@@ -12871,10 +12924,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="37" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C251" s="37" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D251" s="37" t="n">
         <v>6</v>
@@ -12890,7 +12943,7 @@
         <v>27</v>
       </c>
       <c r="I251" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J251" s="42" t="n">
         <f aca="false">J250+D250</f>
@@ -12909,7 +12962,7 @@
         <v>1.15625</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O251" s="3" t="n">
         <v>1</v>
@@ -12923,10 +12976,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="37" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C252" s="37" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D252" s="37" t="n">
         <v>6</v>
@@ -12942,7 +12995,7 @@
         <v>27</v>
       </c>
       <c r="I252" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J252" s="42" t="n">
         <f aca="false">J251+D251</f>
@@ -12961,7 +13014,7 @@
         <v>1.34375</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O252" s="3" t="n">
         <v>1</v>
@@ -12975,10 +13028,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="37" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C253" s="37" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D253" s="37" t="n">
         <v>5</v>
@@ -12994,7 +13047,7 @@
         <v>27</v>
       </c>
       <c r="I253" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J253" s="42" t="n">
         <f aca="false">J252+D252</f>
@@ -13013,7 +13066,7 @@
         <v>1.53125</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O253" s="3" t="n">
         <v>1</v>
@@ -13027,10 +13080,10 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="37" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C254" s="37" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D254" s="37" t="n">
         <v>4</v>
@@ -13046,7 +13099,7 @@
         <v>27</v>
       </c>
       <c r="I254" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J254" s="42" t="n">
         <f aca="false">J253+D253</f>
@@ -13065,7 +13118,7 @@
         <v>1.6875</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O254" s="3" t="n">
         <v>1</v>
@@ -13079,10 +13132,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="37" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C255" s="37" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D255" s="37" t="n">
         <v>5</v>
@@ -13098,7 +13151,7 @@
         <v>27</v>
       </c>
       <c r="I255" s="37" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J255" s="42" t="n">
         <f aca="false">J254+D254</f>
@@ -13117,7 +13170,7 @@
         <v>1.8125</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O255" s="3" t="n">
         <v>1</v>
@@ -13131,10 +13184,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="37" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C256" s="37" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D256" s="37" t="n">
         <v>1</v>
@@ -13144,13 +13197,13 @@
       </c>
       <c r="F256" s="37"/>
       <c r="G256" s="37" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H256" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I256" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J256" s="42" t="n">
         <f aca="false">J255+D255</f>
@@ -13169,7 +13222,7 @@
         <v>1.96875</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O256" s="3" t="n">
         <v>1</v>
@@ -13183,7 +13236,7 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B257" s="37"/>
       <c r="C257" s="37"/>
@@ -13200,7 +13253,7 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B258" s="37"/>
       <c r="C258" s="37"/>
@@ -13217,10 +13270,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="37" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C259" s="37" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D259" s="37" t="n">
         <v>1</v>
@@ -13230,13 +13283,13 @@
       </c>
       <c r="F259" s="37"/>
       <c r="G259" s="37" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H259" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I259" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J259" s="42" t="n">
         <f aca="false">J250</f>
@@ -13255,7 +13308,7 @@
         <v>1</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O259" s="3" t="n">
         <v>1</v>
@@ -13269,10 +13322,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="37" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C260" s="37" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D260" s="37" t="n">
         <v>5</v>
@@ -13288,7 +13341,7 @@
         <v>27</v>
       </c>
       <c r="I260" s="37" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J260" s="42" t="n">
         <f aca="false">J259+D259</f>
@@ -13307,7 +13360,7 @@
         <v>1.03125</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O260" s="3" t="n">
         <v>1</v>
@@ -13321,10 +13374,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="37" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C261" s="37" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D261" s="37" t="n">
         <v>4</v>
@@ -13340,7 +13393,7 @@
         <v>27</v>
       </c>
       <c r="I261" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J261" s="42" t="n">
         <f aca="false">J260+D260</f>
@@ -13359,7 +13412,7 @@
         <v>1.1875</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O261" s="3" t="n">
         <v>1</v>
@@ -13373,10 +13426,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="37" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C262" s="37" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D262" s="37" t="n">
         <v>5</v>
@@ -13392,7 +13445,7 @@
         <v>27</v>
       </c>
       <c r="I262" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J262" s="42" t="n">
         <f aca="false">J261+D261</f>
@@ -13411,7 +13464,7 @@
         <v>1.3125</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O262" s="3" t="n">
         <v>1</v>
@@ -13425,10 +13478,10 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="37" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C263" s="37" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D263" s="37" t="n">
         <v>6</v>
@@ -13444,7 +13497,7 @@
         <v>27</v>
       </c>
       <c r="I263" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J263" s="42" t="n">
         <f aca="false">J262+D262</f>
@@ -13463,7 +13516,7 @@
         <v>1.46875</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O263" s="3" t="n">
         <v>1</v>
@@ -13477,10 +13530,10 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="37" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C264" s="37" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D264" s="37" t="n">
         <v>6</v>
@@ -13496,7 +13549,7 @@
         <v>27</v>
       </c>
       <c r="I264" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J264" s="42" t="n">
         <f aca="false">J263+D263</f>
@@ -13515,7 +13568,7 @@
         <v>1.65625</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O264" s="3" t="n">
         <v>1</v>
@@ -13529,10 +13582,10 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="37" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C265" s="37" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D265" s="37" t="n">
         <v>5</v>
@@ -13548,7 +13601,7 @@
         <v>27</v>
       </c>
       <c r="I265" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J265" s="42" t="n">
         <f aca="false">J263+D263</f>
@@ -13567,7 +13620,7 @@
         <v>1.65625</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O265" s="3" t="n">
         <v>1</v>
@@ -13581,7 +13634,7 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B266" s="37"/>
       <c r="C266" s="37"/>
@@ -13598,10 +13651,10 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="37" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C267" s="37" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D267" s="37" t="n">
         <v>8</v>
@@ -13611,13 +13664,13 @@
       </c>
       <c r="F267" s="37"/>
       <c r="G267" s="37" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="H267" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I267" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J267" s="42" t="n">
         <f aca="false">J256+D256</f>
@@ -13636,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O267" s="3" t="n">
         <v>1</v>
@@ -13650,10 +13703,10 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="37" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C268" s="37" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D268" s="37" t="n">
         <v>8</v>
@@ -13663,13 +13716,13 @@
       </c>
       <c r="F268" s="37"/>
       <c r="G268" s="37" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="H268" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I268" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J268" s="42" t="n">
         <f aca="false">J267+D267</f>
@@ -13688,7 +13741,7 @@
         <v>2.25</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O268" s="3" t="n">
         <v>1</v>
@@ -13702,10 +13755,10 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="37" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C269" s="37" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D269" s="37" t="n">
         <v>16</v>
@@ -13721,7 +13774,7 @@
         <v>27</v>
       </c>
       <c r="I269" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J269" s="42" t="n">
         <f aca="false">J268+D268</f>
@@ -13784,7 +13837,7 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="41" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F271" s="37"/>
       <c r="G271" s="37"/>
@@ -13863,16 +13916,16 @@
       </c>
       <c r="I273" s="23"/>
       <c r="N273" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O273" s="24"/>
     </row>
     <row r="274" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="22" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C274" s="44" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>9</v>
@@ -13888,7 +13941,7 @@
         <v>27</v>
       </c>
       <c r="I274" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J274" s="4" t="n">
         <f aca="false">J270</f>
@@ -13907,7 +13960,7 @@
         <v>3</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O274" s="3" t="n">
         <v>2</v>
@@ -13921,10 +13974,10 @@
     </row>
     <row r="275" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="22" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C275" s="44" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>5</v>
@@ -13940,7 +13993,7 @@
         <v>27</v>
       </c>
       <c r="I275" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J275" s="42" t="n">
         <f aca="false">J274+D274</f>
@@ -13959,7 +14012,7 @@
         <v>3.28125</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O275" s="3" t="n">
         <v>2</v>
@@ -13973,10 +14026,10 @@
     </row>
     <row r="276" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="22" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C276" s="44" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D276" s="1" t="n">
         <v>4</v>
@@ -13992,7 +14045,7 @@
         <v>27</v>
       </c>
       <c r="I276" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J276" s="42" t="n">
         <f aca="false">J275+D275</f>
@@ -14011,7 +14064,7 @@
         <v>3.4375</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O276" s="3" t="n">
         <v>2</v>
@@ -14025,10 +14078,10 @@
     </row>
     <row r="277" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="22" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C277" s="44" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D277" s="1" t="n">
         <v>4</v>
@@ -14044,7 +14097,7 @@
         <v>27</v>
       </c>
       <c r="I277" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J277" s="42" t="n">
         <f aca="false">J276+D276</f>
@@ -14063,7 +14116,7 @@
         <v>3.5625</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O277" s="3" t="n">
         <v>2</v>
@@ -14077,10 +14130,10 @@
     </row>
     <row r="278" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="22" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C278" s="44" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D278" s="1" t="n">
         <v>3</v>
@@ -14096,7 +14149,7 @@
         <v>27</v>
       </c>
       <c r="I278" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J278" s="42" t="n">
         <f aca="false">J277+D277</f>
@@ -14115,7 +14168,7 @@
         <v>3.6875</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O278" s="3" t="n">
         <v>2</v>
@@ -14129,10 +14182,10 @@
     </row>
     <row r="279" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="22" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C279" s="44" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D279" s="1" t="n">
         <v>1</v>
@@ -14148,7 +14201,7 @@
         <v>27</v>
       </c>
       <c r="I279" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J279" s="42" t="n">
         <f aca="false">J278+D278</f>
@@ -14167,7 +14220,7 @@
         <v>3.78125</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O279" s="3" t="n">
         <v>2</v>
@@ -14181,10 +14234,10 @@
     </row>
     <row r="280" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="22" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C280" s="44" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D280" s="1" t="n">
         <v>1</v>
@@ -14194,13 +14247,13 @@
       </c>
       <c r="F280" s="45"/>
       <c r="G280" s="37" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H280" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I280" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J280" s="42" t="n">
         <f aca="false">J279+D279</f>
@@ -14210,7 +14263,7 @@
       <c r="L280" s="27"/>
       <c r="M280" s="27"/>
       <c r="N280" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O280" s="3" t="n">
         <v>1</v>
@@ -14224,10 +14277,10 @@
     </row>
     <row r="281" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="22" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C281" s="44" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D281" s="1" t="n">
         <v>5</v>
@@ -14243,7 +14296,7 @@
         <v>27</v>
       </c>
       <c r="I281" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J281" s="42" t="n">
         <f aca="false">J280+D280</f>
@@ -14312,10 +14365,10 @@
     </row>
     <row r="284" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="22" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C284" s="44" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>5</v>
@@ -14331,7 +14384,7 @@
         <v>27</v>
       </c>
       <c r="I284" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J284" s="42" t="n">
         <f aca="false">J270</f>
@@ -14364,10 +14417,10 @@
     </row>
     <row r="285" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="22" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C285" s="44" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D285" s="1" t="n">
         <v>1</v>
@@ -14377,13 +14430,13 @@
       </c>
       <c r="F285" s="45"/>
       <c r="G285" s="37" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H285" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I285" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J285" s="42" t="n">
         <f aca="false">J284+D284</f>
@@ -14402,7 +14455,7 @@
         <v>3.15625</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O285" s="3" t="n">
         <v>1</v>
@@ -14416,10 +14469,10 @@
     </row>
     <row r="286" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="22" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C286" s="44" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D286" s="1" t="n">
         <v>1</v>
@@ -14429,13 +14482,13 @@
       </c>
       <c r="F286" s="45"/>
       <c r="G286" s="37" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H286" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I286" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J286" s="42" t="n">
         <f aca="false">J285+D285</f>
@@ -14454,7 +14507,7 @@
         <v>3.1875</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O286" s="3" t="n">
         <v>2</v>
@@ -14468,10 +14521,10 @@
     </row>
     <row r="287" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="22" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C287" s="44" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D287" s="1" t="n">
         <v>3</v>
@@ -14481,13 +14534,13 @@
       </c>
       <c r="F287" s="45"/>
       <c r="G287" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H287" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I287" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J287" s="42" t="n">
         <f aca="false">J286+D286</f>
@@ -14506,7 +14559,7 @@
         <v>3.21875</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O287" s="3" t="n">
         <v>2</v>
@@ -14520,10 +14573,10 @@
     </row>
     <row r="288" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="22" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C288" s="44" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D288" s="1" t="n">
         <v>4</v>
@@ -14533,13 +14586,13 @@
       </c>
       <c r="F288" s="45"/>
       <c r="G288" s="37" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H288" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I288" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J288" s="42" t="n">
         <f aca="false">J287+D287</f>
@@ -14558,7 +14611,7 @@
         <v>3.3125</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O288" s="3" t="n">
         <v>2</v>
@@ -14572,10 +14625,10 @@
     </row>
     <row r="289" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B289" s="22" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C289" s="44" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D289" s="1" t="n">
         <v>4</v>
@@ -14585,13 +14638,13 @@
       </c>
       <c r="F289" s="45"/>
       <c r="G289" s="37" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H289" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I289" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J289" s="42" t="n">
         <f aca="false">J288+D288</f>
@@ -14610,7 +14663,7 @@
         <v>3.4375</v>
       </c>
       <c r="N289" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O289" s="3" t="n">
         <v>2</v>
@@ -14624,10 +14677,10 @@
     </row>
     <row r="290" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="22" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C290" s="44" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D290" s="1" t="n">
         <v>5</v>
@@ -14637,13 +14690,13 @@
       </c>
       <c r="F290" s="45"/>
       <c r="G290" s="37" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="H290" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I290" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J290" s="42" t="n">
         <f aca="false">J289+D289</f>
@@ -14662,7 +14715,7 @@
         <v>3.5625</v>
       </c>
       <c r="N290" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O290" s="3" t="n">
         <v>2</v>
@@ -14676,10 +14729,10 @@
     </row>
     <row r="291" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="22" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C291" s="44" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>9</v>
@@ -14689,13 +14742,13 @@
       </c>
       <c r="F291" s="45"/>
       <c r="G291" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H291" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I291" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J291" s="42" t="n">
         <f aca="false">J290+D290</f>
@@ -14714,7 +14767,7 @@
         <v>3.71875</v>
       </c>
       <c r="N291" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O291" s="3" t="n">
         <v>2</v>
@@ -14747,10 +14800,10 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="3" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D293" s="1" t="n">
         <v>8</v>
@@ -14760,13 +14813,13 @@
       </c>
       <c r="F293" s="37"/>
       <c r="G293" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H293" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I293" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J293" s="42" t="n">
         <f aca="false">J281+D281</f>
@@ -14785,7 +14838,7 @@
         <v>4</v>
       </c>
       <c r="N293" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O293" s="3" t="n">
         <v>3</v>
@@ -14799,10 +14852,10 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="3" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D294" s="1" t="n">
         <v>8</v>
@@ -14812,13 +14865,13 @@
       </c>
       <c r="F294" s="37"/>
       <c r="G294" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H294" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I294" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J294" s="42" t="n">
         <f aca="false">J293+D293</f>
@@ -14837,7 +14890,7 @@
         <v>4.25</v>
       </c>
       <c r="N294" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O294" s="3" t="n">
         <v>3</v>
@@ -14851,10 +14904,10 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="3" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D295" s="1" t="n">
         <v>8</v>
@@ -14864,13 +14917,13 @@
       </c>
       <c r="F295" s="37"/>
       <c r="G295" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H295" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I295" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J295" s="42" t="n">
         <f aca="false">J294+D294</f>
@@ -14889,7 +14942,7 @@
         <v>4.5</v>
       </c>
       <c r="N295" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O295" s="3" t="n">
         <v>3</v>
@@ -14903,10 +14956,10 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="3" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D296" s="1" t="n">
         <v>8</v>
@@ -14916,13 +14969,13 @@
       </c>
       <c r="F296" s="37"/>
       <c r="G296" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H296" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I296" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J296" s="42" t="n">
         <f aca="false">J295+D295</f>
@@ -14941,7 +14994,7 @@
         <v>4.75</v>
       </c>
       <c r="N296" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O296" s="3" t="n">
         <v>3</v>
@@ -14955,10 +15008,10 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="3" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D297" s="1" t="n">
         <v>8</v>
@@ -14968,13 +15021,13 @@
       </c>
       <c r="F297" s="37"/>
       <c r="G297" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H297" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I297" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J297" s="42" t="n">
         <f aca="false">J296+D296</f>
@@ -14993,7 +15046,7 @@
         <v>5</v>
       </c>
       <c r="N297" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O297" s="3" t="n">
         <v>3</v>
@@ -15007,10 +15060,10 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="3" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D298" s="1" t="n">
         <v>8</v>
@@ -15020,13 +15073,13 @@
       </c>
       <c r="F298" s="37"/>
       <c r="G298" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H298" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I298" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J298" s="42" t="n">
         <f aca="false">J297+D297</f>
@@ -15045,7 +15098,7 @@
         <v>5.25</v>
       </c>
       <c r="N298" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O298" s="3" t="n">
         <v>3</v>
@@ -15059,10 +15112,10 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="3" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D299" s="1" t="n">
         <v>8</v>
@@ -15072,13 +15125,13 @@
       </c>
       <c r="F299" s="37"/>
       <c r="G299" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H299" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I299" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J299" s="42" t="n">
         <f aca="false">J298+D298</f>
@@ -15097,7 +15150,7 @@
         <v>5.5</v>
       </c>
       <c r="N299" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O299" s="3" t="n">
         <v>3</v>
@@ -15111,10 +15164,10 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="3" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D300" s="1" t="n">
         <v>8</v>
@@ -15124,13 +15177,13 @@
       </c>
       <c r="F300" s="37"/>
       <c r="G300" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H300" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I300" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J300" s="42" t="n">
         <f aca="false">J299+D299</f>
@@ -15149,7 +15202,7 @@
         <v>5.75</v>
       </c>
       <c r="N300" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O300" s="3" t="n">
         <v>3</v>
@@ -15163,10 +15216,10 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="3" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D301" s="1" t="n">
         <v>8</v>
@@ -15176,13 +15229,13 @@
       </c>
       <c r="F301" s="37"/>
       <c r="G301" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H301" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I301" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J301" s="42" t="n">
         <f aca="false">J300+D300</f>
@@ -15201,7 +15254,7 @@
         <v>6</v>
       </c>
       <c r="N301" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O301" s="3" t="n">
         <v>3</v>
@@ -15215,10 +15268,10 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="3" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D302" s="1" t="n">
         <v>8</v>
@@ -15228,13 +15281,13 @@
       </c>
       <c r="F302" s="37"/>
       <c r="G302" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H302" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I302" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J302" s="42" t="n">
         <f aca="false">J301+D301</f>
@@ -15253,7 +15306,7 @@
         <v>6.25</v>
       </c>
       <c r="N302" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O302" s="3" t="n">
         <v>3</v>
@@ -15267,10 +15320,10 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="3" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D303" s="1" t="n">
         <v>8</v>
@@ -15280,13 +15333,13 @@
       </c>
       <c r="F303" s="37"/>
       <c r="G303" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H303" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I303" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J303" s="42" t="n">
         <f aca="false">J302+D302</f>
@@ -15305,7 +15358,7 @@
         <v>6.5</v>
       </c>
       <c r="N303" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O303" s="3" t="n">
         <v>3</v>
@@ -15319,10 +15372,10 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="3" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>8</v>
@@ -15332,13 +15385,13 @@
       </c>
       <c r="F304" s="37"/>
       <c r="G304" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H304" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I304" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J304" s="42" t="n">
         <f aca="false">J303+D303</f>
@@ -15357,7 +15410,7 @@
         <v>6.75</v>
       </c>
       <c r="N304" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O304" s="3" t="n">
         <v>3</v>
@@ -15371,10 +15424,10 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="3" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D305" s="1" t="n">
         <v>8</v>
@@ -15384,13 +15437,13 @@
       </c>
       <c r="F305" s="37"/>
       <c r="G305" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H305" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I305" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J305" s="42" t="n">
         <f aca="false">J304+D304</f>
@@ -15409,7 +15462,7 @@
         <v>7</v>
       </c>
       <c r="N305" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O305" s="3" t="n">
         <v>3</v>
@@ -15423,10 +15476,10 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="3" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D306" s="1" t="n">
         <v>16</v>
@@ -15438,13 +15491,13 @@
         <v>120</v>
       </c>
       <c r="G306" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H306" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I306" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J306" s="42" t="n">
         <f aca="false">J305+D305</f>
@@ -15463,7 +15516,7 @@
         <v>7.25</v>
       </c>
       <c r="N306" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O306" s="3" t="n">
         <v>1</v>
@@ -15477,10 +15530,10 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="3" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D307" s="1" t="n">
         <v>8</v>
@@ -15490,13 +15543,13 @@
       </c>
       <c r="F307" s="37"/>
       <c r="G307" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H307" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I307" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J307" s="42" t="n">
         <f aca="false">J306+D306</f>
@@ -15515,7 +15568,7 @@
         <v>7.75</v>
       </c>
       <c r="N307" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O307" s="3" t="n">
         <v>2</v>
@@ -15554,7 +15607,7 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="41" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="J309" s="42"/>
       <c r="K309" s="27"/>
@@ -15630,16 +15683,16 @@
       </c>
       <c r="I311" s="23"/>
       <c r="N311" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O311" s="24"/>
     </row>
     <row r="312" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="22" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C312" s="44" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D312" s="1" t="n">
         <v>9</v>
@@ -15655,7 +15708,7 @@
         <v>27</v>
       </c>
       <c r="I312" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J312" s="4" t="n">
         <f aca="false">J308</f>
@@ -15674,7 +15727,7 @@
         <v>8</v>
       </c>
       <c r="N312" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O312" s="3" t="n">
         <v>2</v>
@@ -15688,10 +15741,10 @@
     </row>
     <row r="313" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="22" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C313" s="44" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D313" s="1" t="n">
         <v>5</v>
@@ -15707,7 +15760,7 @@
         <v>27</v>
       </c>
       <c r="I313" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J313" s="42" t="n">
         <f aca="false">J312+D312</f>
@@ -15726,7 +15779,7 @@
         <v>8.28125</v>
       </c>
       <c r="N313" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O313" s="3" t="n">
         <v>2</v>
@@ -15740,10 +15793,10 @@
     </row>
     <row r="314" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="22" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C314" s="44" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D314" s="1" t="n">
         <v>4</v>
@@ -15759,7 +15812,7 @@
         <v>27</v>
       </c>
       <c r="I314" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J314" s="42" t="n">
         <f aca="false">J313+D313</f>
@@ -15778,7 +15831,7 @@
         <v>8.4375</v>
       </c>
       <c r="N314" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O314" s="3" t="n">
         <v>2</v>
@@ -15792,10 +15845,10 @@
     </row>
     <row r="315" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="22" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C315" s="44" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D315" s="1" t="n">
         <v>4</v>
@@ -15811,7 +15864,7 @@
         <v>27</v>
       </c>
       <c r="I315" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J315" s="42" t="n">
         <f aca="false">J314+D314</f>
@@ -15830,7 +15883,7 @@
         <v>8.5625</v>
       </c>
       <c r="N315" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O315" s="3" t="n">
         <v>2</v>
@@ -15844,10 +15897,10 @@
     </row>
     <row r="316" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="22" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C316" s="44" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D316" s="1" t="n">
         <v>3</v>
@@ -15863,7 +15916,7 @@
         <v>27</v>
       </c>
       <c r="I316" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J316" s="42" t="n">
         <f aca="false">J315+D315</f>
@@ -15882,7 +15935,7 @@
         <v>8.6875</v>
       </c>
       <c r="N316" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O316" s="3" t="n">
         <v>2</v>
@@ -15896,10 +15949,10 @@
     </row>
     <row r="317" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="22" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C317" s="44" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D317" s="1" t="n">
         <v>1</v>
@@ -15909,13 +15962,13 @@
       </c>
       <c r="F317" s="45"/>
       <c r="G317" s="37" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H317" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I317" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J317" s="42" t="n">
         <f aca="false">J316+D316</f>
@@ -15934,7 +15987,7 @@
         <v>8.78125</v>
       </c>
       <c r="N317" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O317" s="3" t="n">
         <v>2</v>
@@ -15948,10 +16001,10 @@
     </row>
     <row r="318" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="22" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C318" s="44" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D318" s="1" t="n">
         <v>1</v>
@@ -15961,13 +16014,13 @@
       </c>
       <c r="F318" s="45"/>
       <c r="G318" s="37" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H318" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I318" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J318" s="42" t="n">
         <f aca="false">J317+D317</f>
@@ -15986,7 +16039,7 @@
         <v>8.8125</v>
       </c>
       <c r="N318" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O318" s="3" t="n">
         <v>1</v>
@@ -16000,10 +16053,10 @@
     </row>
     <row r="319" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="22" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C319" s="44" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D319" s="1" t="n">
         <v>5</v>
@@ -16019,7 +16072,7 @@
         <v>27</v>
       </c>
       <c r="I319" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J319" s="42" t="n">
         <f aca="false">J318+D318</f>
@@ -16088,10 +16141,10 @@
     </row>
     <row r="322" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="22" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C322" s="44" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D322" s="1" t="n">
         <v>5</v>
@@ -16107,7 +16160,7 @@
         <v>27</v>
       </c>
       <c r="I322" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J322" s="42" t="n">
         <f aca="false">J308</f>
@@ -16140,10 +16193,10 @@
     </row>
     <row r="323" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="22" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C323" s="44" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D323" s="1" t="n">
         <v>1</v>
@@ -16153,13 +16206,13 @@
       </c>
       <c r="F323" s="45"/>
       <c r="G323" s="37" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H323" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I323" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J323" s="42" t="n">
         <f aca="false">J322+D322</f>
@@ -16178,7 +16231,7 @@
         <v>8.15625</v>
       </c>
       <c r="N323" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O323" s="3" t="n">
         <v>1</v>
@@ -16192,10 +16245,10 @@
     </row>
     <row r="324" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="22" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C324" s="44" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D324" s="1" t="n">
         <v>1</v>
@@ -16205,13 +16258,13 @@
       </c>
       <c r="F324" s="45"/>
       <c r="G324" s="37" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H324" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I324" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J324" s="42" t="n">
         <f aca="false">J323+D323</f>
@@ -16230,7 +16283,7 @@
         <v>8.1875</v>
       </c>
       <c r="N324" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O324" s="3" t="n">
         <v>2</v>
@@ -16244,10 +16297,10 @@
     </row>
     <row r="325" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="22" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C325" s="44" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D325" s="1" t="n">
         <v>3</v>
@@ -16257,13 +16310,13 @@
       </c>
       <c r="F325" s="45"/>
       <c r="G325" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H325" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I325" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J325" s="42" t="n">
         <f aca="false">J324+D324</f>
@@ -16282,7 +16335,7 @@
         <v>8.21875</v>
       </c>
       <c r="N325" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O325" s="3" t="n">
         <v>2</v>
@@ -16296,10 +16349,10 @@
     </row>
     <row r="326" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="22" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C326" s="44" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D326" s="1" t="n">
         <v>4</v>
@@ -16309,13 +16362,13 @@
       </c>
       <c r="F326" s="45"/>
       <c r="G326" s="37" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H326" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I326" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J326" s="42" t="n">
         <f aca="false">J325+D325</f>
@@ -16334,7 +16387,7 @@
         <v>8.3125</v>
       </c>
       <c r="N326" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O326" s="3" t="n">
         <v>2</v>
@@ -16348,10 +16401,10 @@
     </row>
     <row r="327" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="22" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C327" s="44" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D327" s="1" t="n">
         <v>4</v>
@@ -16361,13 +16414,13 @@
       </c>
       <c r="F327" s="45"/>
       <c r="G327" s="37" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H327" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I327" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J327" s="42" t="n">
         <f aca="false">J326+D326</f>
@@ -16386,7 +16439,7 @@
         <v>8.4375</v>
       </c>
       <c r="N327" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O327" s="3" t="n">
         <v>2</v>
@@ -16400,10 +16453,10 @@
     </row>
     <row r="328" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="22" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C328" s="44" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D328" s="1" t="n">
         <v>5</v>
@@ -16413,13 +16466,13 @@
       </c>
       <c r="F328" s="45"/>
       <c r="G328" s="37" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H328" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I328" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J328" s="42" t="n">
         <f aca="false">J327+D327</f>
@@ -16438,7 +16491,7 @@
         <v>8.5625</v>
       </c>
       <c r="N328" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O328" s="3" t="n">
         <v>2</v>
@@ -16452,10 +16505,10 @@
     </row>
     <row r="329" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="22" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C329" s="44" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D329" s="1" t="n">
         <v>9</v>
@@ -16465,13 +16518,13 @@
       </c>
       <c r="F329" s="45"/>
       <c r="G329" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H329" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I329" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J329" s="42" t="n">
         <f aca="false">J328+D328</f>
@@ -16490,7 +16543,7 @@
         <v>8.71875</v>
       </c>
       <c r="N329" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O329" s="3" t="n">
         <v>2</v>
@@ -16523,10 +16576,10 @@
     </row>
     <row r="331" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="22" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C331" s="44" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D331" s="1" t="n">
         <v>32</v>
@@ -16536,13 +16589,13 @@
       </c>
       <c r="F331" s="45"/>
       <c r="G331" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H331" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I331" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J331" s="42" t="n">
         <f aca="false">J319+D319</f>
@@ -16561,7 +16614,7 @@
         <v>9</v>
       </c>
       <c r="N331" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O331" s="3" t="n">
         <v>2</v>
@@ -16575,26 +16628,26 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="22" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C332" s="22" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D332" s="1" t="n">
         <v>32</v>
       </c>
       <c r="E332" s="37" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F332" s="37"/>
       <c r="G332" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H332" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I332" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J332" s="42" t="n">
         <f aca="false">J331+D331</f>
@@ -16613,7 +16666,7 @@
         <v>10</v>
       </c>
       <c r="N332" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O332" s="3" t="n">
         <v>4</v>
@@ -16627,10 +16680,10 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="22" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C333" s="22" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D333" s="1" t="n">
         <v>32</v>
@@ -16640,13 +16693,13 @@
       </c>
       <c r="F333" s="37"/>
       <c r="G333" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H333" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I333" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J333" s="42" t="n">
         <f aca="false">J332+D332</f>
@@ -16665,7 +16718,7 @@
         <v>11</v>
       </c>
       <c r="N333" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O333" s="3" t="n">
         <v>4</v>
@@ -16679,26 +16732,26 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="22" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C334" s="22" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D334" s="1" t="n">
         <v>32</v>
       </c>
       <c r="E334" s="37" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F334" s="37"/>
       <c r="G334" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H334" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I334" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J334" s="42" t="n">
         <f aca="false">J333+D333</f>
@@ -16717,7 +16770,7 @@
         <v>12</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O334" s="3" t="n">
         <v>4</v>
@@ -16731,10 +16784,10 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="22" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C335" s="22" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D335" s="1" t="n">
         <v>32</v>
@@ -16744,13 +16797,13 @@
       </c>
       <c r="F335" s="37"/>
       <c r="G335" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H335" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I335" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J335" s="42" t="n">
         <f aca="false">J334+D334</f>
@@ -16769,7 +16822,7 @@
         <v>13</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O335" s="3" t="n">
         <v>4</v>
@@ -16783,10 +16836,10 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="22" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C336" s="22" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D336" s="1" t="n">
         <v>8</v>
@@ -16796,13 +16849,13 @@
       </c>
       <c r="F336" s="37"/>
       <c r="G336" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H336" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I336" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J336" s="42" t="n">
         <f aca="false">J335+D335</f>
@@ -16821,7 +16874,7 @@
         <v>14</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O336" s="3" t="n">
         <v>4</v>
@@ -16835,10 +16888,10 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="22" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C337" s="22" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D337" s="1" t="n">
         <v>8</v>
@@ -16848,13 +16901,13 @@
       </c>
       <c r="F337" s="37"/>
       <c r="G337" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H337" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I337" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J337" s="42" t="n">
         <f aca="false">J336+D336</f>
@@ -16873,7 +16926,7 @@
         <v>14.25</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O337" s="3" t="n">
         <v>4</v>
@@ -16887,10 +16940,10 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="22" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C338" s="22" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D338" s="1" t="n">
         <v>8</v>
@@ -16900,13 +16953,13 @@
       </c>
       <c r="F338" s="37"/>
       <c r="G338" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H338" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I338" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J338" s="42" t="n">
         <f aca="false">J337+D337</f>
@@ -16925,7 +16978,7 @@
         <v>14.5</v>
       </c>
       <c r="N338" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O338" s="3" t="n">
         <v>4</v>
@@ -16939,10 +16992,10 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="22" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C339" s="22" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D339" s="1" t="n">
         <v>8</v>
@@ -16952,13 +17005,13 @@
       </c>
       <c r="F339" s="37"/>
       <c r="G339" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H339" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I339" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J339" s="42" t="n">
         <f aca="false">J338+D338</f>
@@ -16977,7 +17030,7 @@
         <v>14.75</v>
       </c>
       <c r="N339" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O339" s="3" t="n">
         <v>4</v>
@@ -16991,10 +17044,10 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="22" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C340" s="22" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D340" s="1" t="n">
         <v>8</v>
@@ -17004,13 +17057,13 @@
       </c>
       <c r="F340" s="37"/>
       <c r="G340" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H340" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I340" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J340" s="42" t="n">
         <f aca="false">J339+D339</f>
@@ -17029,7 +17082,7 @@
         <v>15</v>
       </c>
       <c r="N340" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O340" s="3" t="n">
         <v>4</v>
@@ -17043,10 +17096,10 @@
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="22" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C341" s="22" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D341" s="1" t="n">
         <v>8</v>
@@ -17056,13 +17109,13 @@
       </c>
       <c r="F341" s="37"/>
       <c r="G341" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H341" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I341" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J341" s="42" t="n">
         <f aca="false">J340+D340</f>
@@ -17081,7 +17134,7 @@
         <v>15.25</v>
       </c>
       <c r="N341" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O341" s="3" t="n">
         <v>4</v>
@@ -17095,10 +17148,10 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="22" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C342" s="22" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D342" s="1" t="n">
         <v>8</v>
@@ -17108,13 +17161,13 @@
       </c>
       <c r="F342" s="37"/>
       <c r="G342" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H342" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I342" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J342" s="42" t="n">
         <f aca="false">J341+D341</f>
@@ -17133,7 +17186,7 @@
         <v>15.5</v>
       </c>
       <c r="N342" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O342" s="3" t="n">
         <v>4</v>
@@ -17147,10 +17200,10 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="22" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C343" s="22" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D343" s="1" t="n">
         <v>8</v>
@@ -17160,13 +17213,13 @@
       </c>
       <c r="F343" s="37"/>
       <c r="G343" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H343" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I343" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J343" s="42" t="n">
         <f aca="false">J342+D342</f>
@@ -17185,7 +17238,7 @@
         <v>15.75</v>
       </c>
       <c r="N343" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O343" s="3" t="n">
         <v>4</v>
@@ -17199,10 +17252,10 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="22" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C344" s="22" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D344" s="1" t="n">
         <v>8</v>
@@ -17212,13 +17265,13 @@
       </c>
       <c r="F344" s="37"/>
       <c r="G344" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H344" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I344" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J344" s="42" t="n">
         <f aca="false">J343+D343</f>
@@ -17237,7 +17290,7 @@
         <v>16</v>
       </c>
       <c r="N344" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O344" s="3" t="n">
         <v>4</v>
@@ -17251,10 +17304,10 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="22" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C345" s="22" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D345" s="1" t="n">
         <v>8</v>
@@ -17264,13 +17317,13 @@
       </c>
       <c r="F345" s="37"/>
       <c r="G345" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H345" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I345" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J345" s="42" t="n">
         <f aca="false">J344+D344</f>
@@ -17289,7 +17342,7 @@
         <v>16.25</v>
       </c>
       <c r="N345" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O345" s="3" t="n">
         <v>4</v>
@@ -17303,10 +17356,10 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="22" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D346" s="1" t="n">
         <v>8</v>
@@ -17316,13 +17369,13 @@
       </c>
       <c r="F346" s="37"/>
       <c r="G346" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H346" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I346" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J346" s="42" t="n">
         <f aca="false">J345+D345</f>
@@ -17341,7 +17394,7 @@
         <v>16.5</v>
       </c>
       <c r="N346" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O346" s="3" t="n">
         <v>4</v>
@@ -17355,10 +17408,10 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="22" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C347" s="22" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D347" s="1" t="n">
         <v>8</v>
@@ -17368,13 +17421,13 @@
       </c>
       <c r="F347" s="37"/>
       <c r="G347" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H347" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I347" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J347" s="42" t="n">
         <f aca="false">J346+D346</f>
@@ -17393,7 +17446,7 @@
         <v>16.75</v>
       </c>
       <c r="N347" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O347" s="3" t="n">
         <v>4</v>
@@ -17407,10 +17460,10 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="22" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C348" s="22" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D348" s="1" t="n">
         <v>8</v>
@@ -17420,13 +17473,13 @@
       </c>
       <c r="F348" s="37"/>
       <c r="G348" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H348" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I348" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J348" s="42" t="n">
         <f aca="false">J347+D347</f>
@@ -17445,7 +17498,7 @@
         <v>17</v>
       </c>
       <c r="N348" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O348" s="3" t="n">
         <v>4</v>
@@ -17459,10 +17512,10 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="22" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C349" s="22" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D349" s="1" t="n">
         <v>8</v>
@@ -17472,13 +17525,13 @@
       </c>
       <c r="F349" s="37"/>
       <c r="G349" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H349" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I349" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J349" s="42" t="n">
         <f aca="false">J348+D348</f>
@@ -17497,7 +17550,7 @@
         <v>17.25</v>
       </c>
       <c r="N349" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O349" s="3" t="n">
         <v>4</v>
@@ -17511,10 +17564,10 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="22" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C350" s="22" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D350" s="1" t="n">
         <v>8</v>
@@ -17524,13 +17577,13 @@
       </c>
       <c r="F350" s="37"/>
       <c r="G350" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H350" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I350" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J350" s="42" t="n">
         <f aca="false">J349+D349</f>
@@ -17549,7 +17602,7 @@
         <v>17.5</v>
       </c>
       <c r="N350" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O350" s="3" t="n">
         <v>4</v>
@@ -17563,10 +17616,10 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="22" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C351" s="22" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D351" s="1" t="n">
         <v>8</v>
@@ -17576,13 +17629,13 @@
       </c>
       <c r="F351" s="37"/>
       <c r="G351" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H351" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I351" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J351" s="42" t="n">
         <f aca="false">J350+D350</f>
@@ -17601,7 +17654,7 @@
         <v>17.75</v>
       </c>
       <c r="N351" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O351" s="3" t="n">
         <v>4</v>
@@ -17615,10 +17668,10 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="22" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C352" s="22" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D352" s="1" t="n">
         <v>8</v>
@@ -17628,13 +17681,13 @@
       </c>
       <c r="F352" s="37"/>
       <c r="G352" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H352" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I352" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J352" s="42" t="n">
         <f aca="false">J351+D351</f>
@@ -17653,7 +17706,7 @@
         <v>18</v>
       </c>
       <c r="N352" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O352" s="3" t="n">
         <v>4</v>
@@ -17667,10 +17720,10 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="22" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C353" s="22" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D353" s="1" t="n">
         <v>8</v>
@@ -17680,13 +17733,13 @@
       </c>
       <c r="F353" s="37"/>
       <c r="G353" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H353" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I353" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J353" s="42" t="n">
         <f aca="false">J352+D352</f>
@@ -17705,7 +17758,7 @@
         <v>18.25</v>
       </c>
       <c r="N353" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O353" s="3" t="n">
         <v>4</v>
@@ -17719,10 +17772,10 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="22" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C354" s="22" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D354" s="1" t="n">
         <v>8</v>
@@ -17732,13 +17785,13 @@
       </c>
       <c r="F354" s="37"/>
       <c r="G354" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H354" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I354" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J354" s="42" t="n">
         <f aca="false">J353+D353</f>
@@ -17757,7 +17810,7 @@
         <v>18.5</v>
       </c>
       <c r="N354" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O354" s="3" t="n">
         <v>4</v>
@@ -17771,10 +17824,10 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="22" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C355" s="22" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D355" s="1" t="n">
         <v>8</v>
@@ -17784,13 +17837,13 @@
       </c>
       <c r="F355" s="37"/>
       <c r="G355" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H355" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I355" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J355" s="42" t="n">
         <f aca="false">J354+D354</f>
@@ -17809,7 +17862,7 @@
         <v>18.75</v>
       </c>
       <c r="N355" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O355" s="3" t="n">
         <v>4</v>
@@ -17823,10 +17876,10 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="22" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C356" s="22" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D356" s="1" t="n">
         <v>8</v>
@@ -17836,13 +17889,13 @@
       </c>
       <c r="F356" s="37"/>
       <c r="G356" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H356" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I356" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J356" s="42" t="n">
         <f aca="false">J355+D355</f>
@@ -17861,7 +17914,7 @@
         <v>19</v>
       </c>
       <c r="N356" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O356" s="3" t="n">
         <v>4</v>
@@ -17875,10 +17928,10 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="22" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C357" s="22" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D357" s="1" t="n">
         <v>8</v>
@@ -17888,13 +17941,13 @@
       </c>
       <c r="F357" s="37"/>
       <c r="G357" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H357" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I357" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J357" s="42" t="n">
         <f aca="false">J356+D356</f>
@@ -17913,7 +17966,7 @@
         <v>19.25</v>
       </c>
       <c r="N357" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O357" s="3" t="n">
         <v>4</v>
@@ -17927,10 +17980,10 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="22" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C358" s="22" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D358" s="1" t="n">
         <v>8</v>
@@ -17940,13 +17993,13 @@
       </c>
       <c r="F358" s="37"/>
       <c r="G358" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H358" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I358" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J358" s="42" t="n">
         <f aca="false">J357+D357</f>
@@ -17965,7 +18018,7 @@
         <v>19.5</v>
       </c>
       <c r="N358" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O358" s="3" t="n">
         <v>4</v>
@@ -17979,10 +18032,10 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="22" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C359" s="22" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D359" s="1" t="n">
         <v>8</v>
@@ -17992,13 +18045,13 @@
       </c>
       <c r="F359" s="37"/>
       <c r="G359" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H359" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I359" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J359" s="42" t="n">
         <f aca="false">J358+D358</f>
@@ -18017,7 +18070,7 @@
         <v>19.75</v>
       </c>
       <c r="N359" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O359" s="3" t="n">
         <v>4</v>
@@ -18031,10 +18084,10 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="22" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C360" s="22" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D360" s="1" t="n">
         <v>8</v>
@@ -18044,13 +18097,13 @@
       </c>
       <c r="F360" s="37"/>
       <c r="G360" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H360" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I360" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J360" s="42" t="n">
         <f aca="false">J359+D359</f>
@@ -18069,7 +18122,7 @@
         <v>20</v>
       </c>
       <c r="N360" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O360" s="3" t="n">
         <v>4</v>
@@ -18083,10 +18136,10 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="22" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C361" s="22" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D361" s="1" t="n">
         <v>8</v>
@@ -18096,13 +18149,13 @@
       </c>
       <c r="F361" s="37"/>
       <c r="G361" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H361" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I361" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J361" s="42" t="n">
         <f aca="false">J360+D360</f>
@@ -18121,7 +18174,7 @@
         <v>20.25</v>
       </c>
       <c r="N361" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O361" s="3" t="n">
         <v>4</v>
@@ -18135,10 +18188,10 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="22" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C362" s="22" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D362" s="1" t="n">
         <v>8</v>
@@ -18148,13 +18201,13 @@
       </c>
       <c r="F362" s="37"/>
       <c r="G362" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H362" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I362" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J362" s="42" t="n">
         <f aca="false">J361+D361</f>
@@ -18173,7 +18226,7 @@
         <v>20.5</v>
       </c>
       <c r="N362" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O362" s="3" t="n">
         <v>4</v>
@@ -18187,10 +18240,10 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="22" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C363" s="22" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D363" s="1" t="n">
         <v>8</v>
@@ -18200,13 +18253,13 @@
       </c>
       <c r="F363" s="37"/>
       <c r="G363" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H363" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I363" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J363" s="42" t="n">
         <f aca="false">J362+D362</f>
@@ -18225,7 +18278,7 @@
         <v>20.75</v>
       </c>
       <c r="N363" s="43" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="O363" s="3" t="n">
         <v>4</v>
@@ -18239,10 +18292,10 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="3" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D364" s="1" t="n">
         <v>16</v>
@@ -18254,13 +18307,13 @@
         <v>120</v>
       </c>
       <c r="G364" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H364" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I364" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J364" s="42" t="n">
         <f aca="false">J363+D363</f>
@@ -18279,7 +18332,7 @@
         <v>21</v>
       </c>
       <c r="N364" s="43" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O364" s="3" t="n">
         <v>1</v>
@@ -18293,16 +18346,16 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="3" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D365" s="1" t="n">
         <v>16</v>
       </c>
       <c r="E365" s="37" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F365" s="37"/>
       <c r="G365" s="37" t="n">
@@ -18312,7 +18365,7 @@
         <v>27</v>
       </c>
       <c r="I365" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J365" s="42" t="n">
         <f aca="false">J364+D364</f>
@@ -18370,7 +18423,7 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="41" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="F367" s="37"/>
       <c r="G367" s="37"/>
@@ -18453,10 +18506,10 @@
     </row>
     <row r="370" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="22" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C370" s="44" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D370" s="1" t="n">
         <v>9</v>
@@ -18472,7 +18525,7 @@
         <v>27</v>
       </c>
       <c r="I370" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J370" s="4" t="n">
         <f aca="false">J366</f>
@@ -18491,7 +18544,7 @@
         <v>22</v>
       </c>
       <c r="N370" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O370" s="3" t="n">
         <v>2</v>
@@ -18505,10 +18558,10 @@
     </row>
     <row r="371" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="22" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C371" s="44" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D371" s="1" t="n">
         <v>5</v>
@@ -18524,7 +18577,7 @@
         <v>27</v>
       </c>
       <c r="I371" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J371" s="4" t="n">
         <f aca="false">J370+D370</f>
@@ -18543,7 +18596,7 @@
         <v>22.28125</v>
       </c>
       <c r="N371" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O371" s="3" t="n">
         <v>2</v>
@@ -18557,10 +18610,10 @@
     </row>
     <row r="372" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="22" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C372" s="44" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D372" s="1" t="n">
         <v>4</v>
@@ -18576,7 +18629,7 @@
         <v>27</v>
       </c>
       <c r="I372" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J372" s="4" t="n">
         <f aca="false">J371+D371</f>
@@ -18595,7 +18648,7 @@
         <v>22.4375</v>
       </c>
       <c r="N372" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O372" s="3" t="n">
         <v>2</v>
@@ -18609,10 +18662,10 @@
     </row>
     <row r="373" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="22" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C373" s="44" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D373" s="1" t="n">
         <v>4</v>
@@ -18628,7 +18681,7 @@
         <v>27</v>
       </c>
       <c r="I373" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J373" s="4" t="n">
         <f aca="false">J372+D372</f>
@@ -18647,7 +18700,7 @@
         <v>22.5625</v>
       </c>
       <c r="N373" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O373" s="3" t="n">
         <v>2</v>
@@ -18661,10 +18714,10 @@
     </row>
     <row r="374" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="22" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C374" s="44" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D374" s="1" t="n">
         <v>3</v>
@@ -18680,7 +18733,7 @@
         <v>27</v>
       </c>
       <c r="I374" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J374" s="4" t="n">
         <f aca="false">J373+D373</f>
@@ -18699,7 +18752,7 @@
         <v>22.6875</v>
       </c>
       <c r="N374" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O374" s="3" t="n">
         <v>2</v>
@@ -18713,10 +18766,10 @@
     </row>
     <row r="375" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="22" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C375" s="44" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D375" s="1" t="n">
         <v>1</v>
@@ -18726,13 +18779,13 @@
       </c>
       <c r="F375" s="45"/>
       <c r="G375" s="37" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H375" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I375" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J375" s="4" t="n">
         <f aca="false">J374+D374</f>
@@ -18751,7 +18804,7 @@
         <v>22.78125</v>
       </c>
       <c r="N375" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O375" s="3" t="n">
         <v>2</v>
@@ -18765,10 +18818,10 @@
     </row>
     <row r="376" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="22" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C376" s="44" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D376" s="1" t="n">
         <v>1</v>
@@ -18778,13 +18831,13 @@
       </c>
       <c r="F376" s="45"/>
       <c r="G376" s="37" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H376" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I376" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J376" s="4" t="n">
         <f aca="false">J375+D375</f>
@@ -18803,7 +18856,7 @@
         <v>22.8125</v>
       </c>
       <c r="N376" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O376" s="3" t="n">
         <v>1</v>
@@ -18817,10 +18870,10 @@
     </row>
     <row r="377" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="22" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C377" s="44" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D377" s="1" t="n">
         <v>5</v>
@@ -18836,7 +18889,7 @@
         <v>27</v>
       </c>
       <c r="I377" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J377" s="4" t="n">
         <f aca="false">J376+D376</f>
@@ -18917,10 +18970,10 @@
     </row>
     <row r="380" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="22" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C380" s="44" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D380" s="1" t="n">
         <v>5</v>
@@ -18936,7 +18989,7 @@
         <v>27</v>
       </c>
       <c r="I380" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J380" s="42" t="n">
         <f aca="false">J366</f>
@@ -18969,10 +19022,10 @@
     </row>
     <row r="381" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="22" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C381" s="44" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D381" s="1" t="n">
         <v>1</v>
@@ -18982,13 +19035,13 @@
       </c>
       <c r="F381" s="45"/>
       <c r="G381" s="37" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H381" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I381" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J381" s="42" t="n">
         <f aca="false">J380+D380</f>
@@ -19007,7 +19060,7 @@
         <v>22.15625</v>
       </c>
       <c r="N381" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O381" s="3" t="n">
         <v>1</v>
@@ -19021,10 +19074,10 @@
     </row>
     <row r="382" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="22" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C382" s="44" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D382" s="1" t="n">
         <v>1</v>
@@ -19034,13 +19087,13 @@
       </c>
       <c r="F382" s="45"/>
       <c r="G382" s="37" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H382" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I382" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J382" s="42" t="n">
         <f aca="false">J381+D381</f>
@@ -19059,7 +19112,7 @@
         <v>22.1875</v>
       </c>
       <c r="N382" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O382" s="3" t="n">
         <v>2</v>
@@ -19073,10 +19126,10 @@
     </row>
     <row r="383" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="22" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C383" s="44" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D383" s="1" t="n">
         <v>3</v>
@@ -19086,13 +19139,13 @@
       </c>
       <c r="F383" s="45"/>
       <c r="G383" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H383" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I383" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J383" s="42" t="n">
         <f aca="false">J382+D382</f>
@@ -19111,7 +19164,7 @@
         <v>22.21875</v>
       </c>
       <c r="N383" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O383" s="3" t="n">
         <v>2</v>
@@ -19125,10 +19178,10 @@
     </row>
     <row r="384" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="22" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C384" s="44" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D384" s="1" t="n">
         <v>4</v>
@@ -19138,13 +19191,13 @@
       </c>
       <c r="F384" s="45"/>
       <c r="G384" s="37" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H384" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I384" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J384" s="42" t="n">
         <f aca="false">J383+D383</f>
@@ -19163,7 +19216,7 @@
         <v>22.3125</v>
       </c>
       <c r="N384" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O384" s="3" t="n">
         <v>2</v>
@@ -19177,10 +19230,10 @@
     </row>
     <row r="385" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="22" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C385" s="44" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D385" s="1" t="n">
         <v>4</v>
@@ -19190,13 +19243,13 @@
       </c>
       <c r="F385" s="45"/>
       <c r="G385" s="37" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H385" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I385" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J385" s="42" t="n">
         <f aca="false">J384+D384</f>
@@ -19215,7 +19268,7 @@
         <v>22.4375</v>
       </c>
       <c r="N385" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O385" s="3" t="n">
         <v>2</v>
@@ -19229,10 +19282,10 @@
     </row>
     <row r="386" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="22" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C386" s="44" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D386" s="1" t="n">
         <v>5</v>
@@ -19242,13 +19295,13 @@
       </c>
       <c r="F386" s="45"/>
       <c r="G386" s="37" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H386" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I386" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J386" s="42" t="n">
         <f aca="false">J385+D385</f>
@@ -19267,7 +19320,7 @@
         <v>22.5625</v>
       </c>
       <c r="N386" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O386" s="3" t="n">
         <v>2</v>
@@ -19281,10 +19334,10 @@
     </row>
     <row r="387" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="22" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C387" s="44" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D387" s="1" t="n">
         <v>9</v>
@@ -19294,13 +19347,13 @@
       </c>
       <c r="F387" s="45"/>
       <c r="G387" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H387" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I387" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J387" s="42" t="n">
         <f aca="false">J386+D386</f>
@@ -19319,7 +19372,7 @@
         <v>22.71875</v>
       </c>
       <c r="N387" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O387" s="3" t="n">
         <v>2</v>
@@ -19351,10 +19404,10 @@
     </row>
     <row r="389" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="22" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C389" s="44" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D389" s="1" t="n">
         <v>32</v>
@@ -19364,13 +19417,13 @@
       </c>
       <c r="F389" s="45"/>
       <c r="G389" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H389" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I389" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J389" s="42" t="n">
         <f aca="false">J377+D377</f>
@@ -19389,7 +19442,7 @@
         <v>23</v>
       </c>
       <c r="N389" s="43" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O389" s="3" t="n">
         <v>2</v>
@@ -19404,10 +19457,10 @@
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="43"/>
       <c r="B390" s="22" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C390" s="22" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D390" s="1" t="n">
         <v>32</v>
@@ -19417,13 +19470,13 @@
       </c>
       <c r="F390" s="37"/>
       <c r="G390" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H390" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I390" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J390" s="42" t="n">
         <f aca="false">J389+D389</f>
@@ -19442,7 +19495,7 @@
         <v>24</v>
       </c>
       <c r="N390" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O390" s="3" t="n">
         <v>5</v>
@@ -19456,10 +19509,10 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="22" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C391" s="22" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D391" s="1" t="n">
         <v>32</v>
@@ -19469,13 +19522,13 @@
       </c>
       <c r="F391" s="37"/>
       <c r="G391" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H391" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I391" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J391" s="42" t="n">
         <f aca="false">J390+D390</f>
@@ -19494,7 +19547,7 @@
         <v>25</v>
       </c>
       <c r="N391" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O391" s="3" t="n">
         <v>5</v>
@@ -19508,26 +19561,26 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="22" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C392" s="22" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D392" s="1" t="n">
         <v>32</v>
       </c>
       <c r="E392" s="37" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F392" s="37"/>
       <c r="G392" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H392" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I392" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J392" s="42" t="n">
         <f aca="false">J391+D391</f>
@@ -19546,7 +19599,7 @@
         <v>26</v>
       </c>
       <c r="N392" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O392" s="3" t="n">
         <v>5</v>
@@ -19560,10 +19613,10 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="22" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C393" s="22" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D393" s="1" t="n">
         <v>32</v>
@@ -19573,13 +19626,13 @@
       </c>
       <c r="F393" s="37"/>
       <c r="G393" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H393" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I393" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J393" s="42" t="n">
         <f aca="false">J392+D392</f>
@@ -19598,7 +19651,7 @@
         <v>27</v>
       </c>
       <c r="N393" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O393" s="3" t="n">
         <v>5</v>
@@ -19612,10 +19665,10 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="22" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C394" s="22" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D394" s="1" t="n">
         <v>8</v>
@@ -19625,13 +19678,13 @@
       </c>
       <c r="F394" s="37"/>
       <c r="G394" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H394" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I394" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J394" s="42" t="n">
         <f aca="false">J393+D393</f>
@@ -19650,7 +19703,7 @@
         <v>28</v>
       </c>
       <c r="N394" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O394" s="3" t="n">
         <v>5</v>
@@ -19664,10 +19717,10 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="22" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C395" s="22" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D395" s="1" t="n">
         <v>8</v>
@@ -19677,13 +19730,13 @@
       </c>
       <c r="F395" s="37"/>
       <c r="G395" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H395" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I395" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J395" s="42" t="n">
         <f aca="false">J394+D394</f>
@@ -19702,7 +19755,7 @@
         <v>28.25</v>
       </c>
       <c r="N395" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O395" s="3" t="n">
         <v>5</v>
@@ -19716,10 +19769,10 @@
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="22" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C396" s="22" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D396" s="1" t="n">
         <v>8</v>
@@ -19729,13 +19782,13 @@
       </c>
       <c r="F396" s="37"/>
       <c r="G396" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H396" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I396" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J396" s="42" t="n">
         <f aca="false">J395+D395</f>
@@ -19754,7 +19807,7 @@
         <v>28.5</v>
       </c>
       <c r="N396" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O396" s="3" t="n">
         <v>5</v>
@@ -19768,10 +19821,10 @@
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="22" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C397" s="22" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="D397" s="1" t="n">
         <v>8</v>
@@ -19781,13 +19834,13 @@
       </c>
       <c r="F397" s="37"/>
       <c r="G397" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H397" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I397" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J397" s="42" t="n">
         <f aca="false">J396+D396</f>
@@ -19806,7 +19859,7 @@
         <v>28.75</v>
       </c>
       <c r="N397" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O397" s="3" t="n">
         <v>5</v>
@@ -19820,10 +19873,10 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="22" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C398" s="22" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D398" s="1" t="n">
         <v>8</v>
@@ -19833,13 +19886,13 @@
       </c>
       <c r="F398" s="37"/>
       <c r="G398" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H398" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I398" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J398" s="42" t="n">
         <f aca="false">J397+D397</f>
@@ -19858,7 +19911,7 @@
         <v>29</v>
       </c>
       <c r="N398" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O398" s="3" t="n">
         <v>5</v>
@@ -19872,10 +19925,10 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="22" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C399" s="22" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D399" s="1" t="n">
         <v>8</v>
@@ -19885,13 +19938,13 @@
       </c>
       <c r="F399" s="37"/>
       <c r="G399" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H399" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I399" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J399" s="42" t="n">
         <f aca="false">J398+D398</f>
@@ -19910,7 +19963,7 @@
         <v>29.25</v>
       </c>
       <c r="N399" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O399" s="3" t="n">
         <v>5</v>
@@ -19924,10 +19977,10 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="22" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C400" s="22" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D400" s="1" t="n">
         <v>8</v>
@@ -19937,13 +19990,13 @@
       </c>
       <c r="F400" s="37"/>
       <c r="G400" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H400" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I400" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J400" s="42" t="n">
         <f aca="false">J399+D399</f>
@@ -19962,7 +20015,7 @@
         <v>29.5</v>
       </c>
       <c r="N400" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O400" s="3" t="n">
         <v>5</v>
@@ -19976,10 +20029,10 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="22" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C401" s="22" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="D401" s="1" t="n">
         <v>8</v>
@@ -19989,13 +20042,13 @@
       </c>
       <c r="F401" s="37"/>
       <c r="G401" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H401" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I401" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J401" s="42" t="n">
         <f aca="false">J400+D400</f>
@@ -20014,7 +20067,7 @@
         <v>29.75</v>
       </c>
       <c r="N401" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O401" s="3" t="n">
         <v>5</v>
@@ -20028,10 +20081,10 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="22" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C402" s="22" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D402" s="1" t="n">
         <v>8</v>
@@ -20041,13 +20094,13 @@
       </c>
       <c r="F402" s="37"/>
       <c r="G402" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H402" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I402" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J402" s="42" t="n">
         <f aca="false">J401+D401</f>
@@ -20066,7 +20119,7 @@
         <v>30</v>
       </c>
       <c r="N402" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O402" s="3" t="n">
         <v>5</v>
@@ -20080,10 +20133,10 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="22" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C403" s="22" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D403" s="1" t="n">
         <v>8</v>
@@ -20093,13 +20146,13 @@
       </c>
       <c r="F403" s="37"/>
       <c r="G403" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H403" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I403" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J403" s="42" t="n">
         <f aca="false">J402+D402</f>
@@ -20118,7 +20171,7 @@
         <v>30.25</v>
       </c>
       <c r="N403" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O403" s="3" t="n">
         <v>5</v>
@@ -20132,10 +20185,10 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="22" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C404" s="22" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D404" s="1" t="n">
         <v>8</v>
@@ -20145,13 +20198,13 @@
       </c>
       <c r="F404" s="37"/>
       <c r="G404" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H404" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I404" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J404" s="42" t="n">
         <f aca="false">J403+D403</f>
@@ -20170,7 +20223,7 @@
         <v>30.5</v>
       </c>
       <c r="N404" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O404" s="3" t="n">
         <v>5</v>
@@ -20184,10 +20237,10 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="22" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C405" s="22" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D405" s="1" t="n">
         <v>8</v>
@@ -20197,13 +20250,13 @@
       </c>
       <c r="F405" s="37"/>
       <c r="G405" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H405" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I405" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J405" s="42" t="n">
         <f aca="false">J404+D404</f>
@@ -20222,7 +20275,7 @@
         <v>30.75</v>
       </c>
       <c r="N405" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O405" s="3" t="n">
         <v>5</v>
@@ -20236,10 +20289,10 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="22" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C406" s="22" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D406" s="1" t="n">
         <v>8</v>
@@ -20249,13 +20302,13 @@
       </c>
       <c r="F406" s="37"/>
       <c r="G406" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H406" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I406" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J406" s="42" t="n">
         <f aca="false">J405+D405</f>
@@ -20274,7 +20327,7 @@
         <v>31</v>
       </c>
       <c r="N406" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O406" s="3" t="n">
         <v>5</v>
@@ -20288,10 +20341,10 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="22" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C407" s="22" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D407" s="1" t="n">
         <v>8</v>
@@ -20301,13 +20354,13 @@
       </c>
       <c r="F407" s="37"/>
       <c r="G407" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H407" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I407" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J407" s="42" t="n">
         <f aca="false">J406+D406</f>
@@ -20326,7 +20379,7 @@
         <v>31.25</v>
       </c>
       <c r="N407" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O407" s="3" t="n">
         <v>5</v>
@@ -20340,10 +20393,10 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="22" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C408" s="22" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D408" s="1" t="n">
         <v>8</v>
@@ -20353,13 +20406,13 @@
       </c>
       <c r="F408" s="37"/>
       <c r="G408" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H408" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I408" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J408" s="42" t="n">
         <f aca="false">J407+D407</f>
@@ -20378,7 +20431,7 @@
         <v>31.5</v>
       </c>
       <c r="N408" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O408" s="3" t="n">
         <v>5</v>
@@ -20392,10 +20445,10 @@
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="22" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C409" s="22" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D409" s="1" t="n">
         <v>8</v>
@@ -20405,13 +20458,13 @@
       </c>
       <c r="F409" s="37"/>
       <c r="G409" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H409" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I409" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J409" s="42" t="n">
         <f aca="false">J408+D408</f>
@@ -20430,7 +20483,7 @@
         <v>31.75</v>
       </c>
       <c r="N409" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O409" s="3" t="n">
         <v>5</v>
@@ -20444,10 +20497,10 @@
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="22" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C410" s="22" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D410" s="1" t="n">
         <v>8</v>
@@ -20457,13 +20510,13 @@
       </c>
       <c r="F410" s="37"/>
       <c r="G410" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H410" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I410" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J410" s="42" t="n">
         <f aca="false">J409+D409</f>
@@ -20482,7 +20535,7 @@
         <v>32</v>
       </c>
       <c r="N410" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O410" s="3" t="n">
         <v>5</v>
@@ -20496,10 +20549,10 @@
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="22" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C411" s="22" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D411" s="1" t="n">
         <v>8</v>
@@ -20509,13 +20562,13 @@
       </c>
       <c r="F411" s="37"/>
       <c r="G411" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H411" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I411" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J411" s="42" t="n">
         <f aca="false">J410+D410</f>
@@ -20534,7 +20587,7 @@
         <v>32.25</v>
       </c>
       <c r="N411" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O411" s="3" t="n">
         <v>5</v>
@@ -20548,10 +20601,10 @@
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="22" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C412" s="22" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D412" s="1" t="n">
         <v>8</v>
@@ -20561,13 +20614,13 @@
       </c>
       <c r="F412" s="37"/>
       <c r="G412" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H412" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I412" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J412" s="42" t="n">
         <f aca="false">J411+D411</f>
@@ -20586,7 +20639,7 @@
         <v>32.5</v>
       </c>
       <c r="N412" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O412" s="3" t="n">
         <v>5</v>
@@ -20600,10 +20653,10 @@
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="22" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C413" s="22" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="D413" s="1" t="n">
         <v>8</v>
@@ -20613,13 +20666,13 @@
       </c>
       <c r="F413" s="37"/>
       <c r="G413" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H413" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I413" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J413" s="42" t="n">
         <f aca="false">J412+D412</f>
@@ -20638,7 +20691,7 @@
         <v>32.75</v>
       </c>
       <c r="N413" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O413" s="3" t="n">
         <v>5</v>
@@ -20652,10 +20705,10 @@
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="22" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C414" s="22" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="D414" s="1" t="n">
         <v>8</v>
@@ -20665,13 +20718,13 @@
       </c>
       <c r="F414" s="37"/>
       <c r="G414" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H414" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I414" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J414" s="42" t="n">
         <f aca="false">J413+D413</f>
@@ -20690,7 +20743,7 @@
         <v>33</v>
       </c>
       <c r="N414" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O414" s="3" t="n">
         <v>5</v>
@@ -20704,10 +20757,10 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="22" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C415" s="22" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="D415" s="1" t="n">
         <v>8</v>
@@ -20717,13 +20770,13 @@
       </c>
       <c r="F415" s="37"/>
       <c r="G415" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H415" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I415" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J415" s="42" t="n">
         <f aca="false">J414+D414</f>
@@ -20742,7 +20795,7 @@
         <v>33.25</v>
       </c>
       <c r="N415" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O415" s="3" t="n">
         <v>5</v>
@@ -20756,10 +20809,10 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="22" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C416" s="22" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="D416" s="1" t="n">
         <v>8</v>
@@ -20769,13 +20822,13 @@
       </c>
       <c r="F416" s="37"/>
       <c r="G416" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H416" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I416" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J416" s="42" t="n">
         <f aca="false">J415+D415</f>
@@ -20794,7 +20847,7 @@
         <v>33.5</v>
       </c>
       <c r="N416" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O416" s="3" t="n">
         <v>5</v>
@@ -20808,10 +20861,10 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="22" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C417" s="22" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="D417" s="1" t="n">
         <v>8</v>
@@ -20821,13 +20874,13 @@
       </c>
       <c r="F417" s="37"/>
       <c r="G417" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H417" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I417" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J417" s="42" t="n">
         <f aca="false">J416+D416</f>
@@ -20846,7 +20899,7 @@
         <v>33.75</v>
       </c>
       <c r="N417" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O417" s="3" t="n">
         <v>5</v>
@@ -20860,10 +20913,10 @@
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="22" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C418" s="22" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="D418" s="1" t="n">
         <v>8</v>
@@ -20873,13 +20926,13 @@
       </c>
       <c r="F418" s="37"/>
       <c r="G418" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H418" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I418" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J418" s="42" t="n">
         <f aca="false">J417+D417</f>
@@ -20898,7 +20951,7 @@
         <v>34</v>
       </c>
       <c r="N418" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O418" s="3" t="n">
         <v>5</v>
@@ -20912,10 +20965,10 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="22" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C419" s="22" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="D419" s="1" t="n">
         <v>8</v>
@@ -20925,13 +20978,13 @@
       </c>
       <c r="F419" s="37"/>
       <c r="G419" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H419" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I419" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J419" s="42" t="n">
         <f aca="false">J418+D418</f>
@@ -20950,7 +21003,7 @@
         <v>34.25</v>
       </c>
       <c r="N419" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O419" s="3" t="n">
         <v>5</v>
@@ -20964,10 +21017,10 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="22" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C420" s="22" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D420" s="1" t="n">
         <v>8</v>
@@ -20977,13 +21030,13 @@
       </c>
       <c r="F420" s="37"/>
       <c r="G420" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H420" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I420" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J420" s="42" t="n">
         <f aca="false">J419+D419</f>
@@ -21002,7 +21055,7 @@
         <v>34.5</v>
       </c>
       <c r="N420" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O420" s="3" t="n">
         <v>5</v>
@@ -21016,10 +21069,10 @@
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B421" s="22" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C421" s="22" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="D421" s="1" t="n">
         <v>8</v>
@@ -21029,13 +21082,13 @@
       </c>
       <c r="F421" s="37"/>
       <c r="G421" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H421" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I421" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J421" s="42" t="n">
         <f aca="false">J420+D420</f>
@@ -21054,7 +21107,7 @@
         <v>34.75</v>
       </c>
       <c r="N421" s="43" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="O421" s="3" t="n">
         <v>5</v>
@@ -21068,10 +21121,10 @@
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B422" s="3" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="D422" s="1" t="n">
         <v>16</v>
@@ -21083,13 +21136,13 @@
         <v>120</v>
       </c>
       <c r="G422" s="37" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H422" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I422" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J422" s="42" t="n">
         <f aca="false">J421+D421</f>
@@ -21108,7 +21161,7 @@
         <v>35</v>
       </c>
       <c r="N422" s="43" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="O422" s="3" t="n">
         <v>1</v>
@@ -21122,16 +21175,16 @@
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B423" s="3" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D423" s="1" t="n">
         <v>16</v>
       </c>
       <c r="E423" s="37" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F423" s="37"/>
       <c r="G423" s="37" t="n">
@@ -21141,7 +21194,7 @@
         <v>27</v>
       </c>
       <c r="I423" s="37" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="J423" s="42" t="n">
         <f aca="false">J422+D422</f>
@@ -21241,7 +21294,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.11"/>
@@ -21251,22 +21304,22 @@
     <row r="6" s="48" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="49"/>
       <c r="C6" s="49" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="I6" s="49"/>
     </row>

--- a/genSpacecraft/DownlinkSpecGolf-T.xlsx
+++ b/genSpacecraft/DownlinkSpecGolf-T.xlsx
@@ -941,7 +941,7 @@
     <t xml:space="preserve">wodSize</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of WOD data payloads kept for each of Science and Housekeeping.  In hundreds</t>
+    <t xml:space="preserve">Number of WOD data payloads kept for each of Science and Housekeeping</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostic</t>
@@ -2523,8 +2523,8 @@
   </sheetPr>
   <dimension ref="A1:Q425"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A248" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G268" activeCellId="0" sqref="G268"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I184" activeCellId="0" sqref="I184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="113.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="30" t="s">
         <v>304</v>
       </c>
@@ -21294,7 +21294,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.11"/>

--- a/genSpacecraft/DownlinkSpecGolf-T.xlsx
+++ b/genSpacecraft/DownlinkSpecGolf-T.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="713">
   <si>
     <t xml:space="preserve">//</t>
   </si>
@@ -1394,7 +1394,10 @@
     <t xml:space="preserve">Structure:ragnarok_t, file:ragDownlink.h</t>
   </si>
   <si>
-    <t xml:space="preserve">Ragnarok Data</t>
+    <t xml:space="preserve">ADAC Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opaque data from ADAC experiment</t>
   </si>
   <si>
     <t xml:space="preserve">Structure:radWodSpecific_t, file:radWodSpecificDownlink.h</t>
@@ -1418,10 +1421,10 @@
     <t xml:space="preserve">Structure:ragWodSpecific_t,file:ragWodSpecificDownlink.h </t>
   </si>
   <si>
-    <t xml:space="preserve">Rag WOD Uptime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rag WOD Reset Count</t>
+    <t xml:space="preserve">WOD Uptime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOD Reset Count</t>
   </si>
   <si>
     <t xml:space="preserve">CRC Error for ADAC WOD</t>
@@ -1434,6 +1437,9 @@
   </si>
   <si>
     <t xml:space="preserve">Secs Since Launch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missionUptime</t>
   </si>
   <si>
     <t xml:space="preserve">INT</t>
@@ -2523,8 +2529,8 @@
   </sheetPr>
   <dimension ref="A1:Q425"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I184" activeCellId="0" sqref="I184"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A215" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I226" activeCellId="0" sqref="I226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12010,7 +12016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="30" t="s">
         <v>457</v>
       </c>
@@ -12033,7 +12039,7 @@
         <v>27</v>
       </c>
       <c r="I226" s="23" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="J226" s="4" t="n">
         <v>0</v>
@@ -12089,7 +12095,7 @@
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="41" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B230" s="12"/>
       <c r="C230" s="40"/>
@@ -12171,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="H232" s="38" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I232" s="27" t="s">
         <v>436</v>
@@ -12219,7 +12225,7 @@
         <v>26</v>
       </c>
       <c r="F233" s="23" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G233" s="23" t="s">
         <v>440</v>
@@ -12261,7 +12267,7 @@
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="30" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C234" s="30" t="s">
         <v>442</v>
@@ -12278,7 +12284,7 @@
         <v>27</v>
       </c>
       <c r="I234" s="27" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J234" s="4" t="n">
         <f aca="false">J233+D233</f>
@@ -12314,7 +12320,7 @@
         <v>29</v>
       </c>
       <c r="C235" s="30" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D235" s="26" t="n">
         <v>8</v>
@@ -12398,7 +12404,7 @@
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="41" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B238" s="12"/>
       <c r="C238" s="40"/>
@@ -12464,7 +12470,7 @@
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="30" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C240" s="30" t="s">
         <v>435</v>
@@ -12516,7 +12522,7 @@
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="30" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C241" s="30" t="s">
         <v>439</v>
@@ -12528,7 +12534,7 @@
         <v>26</v>
       </c>
       <c r="F241" s="23" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G241" s="38" t="n">
         <v>1</v>
@@ -12587,7 +12593,7 @@
         <v>27</v>
       </c>
       <c r="I242" s="27" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J242" s="4" t="n">
         <f aca="false">J241+D241</f>
@@ -12623,7 +12629,7 @@
         <v>29</v>
       </c>
       <c r="C243" s="30" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D243" s="26" t="n">
         <v>8</v>
@@ -12694,7 +12700,7 @@
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="41" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="246" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12752,10 +12758,10 @@
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="37" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C247" s="37" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="D247" s="37" t="n">
         <v>32</v>
@@ -12765,13 +12771,13 @@
       </c>
       <c r="F247" s="37"/>
       <c r="G247" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H247" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I247" s="37" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J247" s="42" t="n">
         <v>0</v>
@@ -12789,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O247" s="3" t="n">
         <v>1</v>
@@ -12803,10 +12809,10 @@
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="37" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C248" s="37" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D248" s="37" t="n">
         <v>32</v>
@@ -12816,13 +12822,13 @@
       </c>
       <c r="F248" s="37"/>
       <c r="G248" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H248" s="37" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="I248" s="37" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J248" s="42" t="n">
         <f aca="false">J247+D247</f>
@@ -12841,7 +12847,7 @@
         <v>1</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O248" s="3" t="n">
         <v>1</v>
@@ -12855,7 +12861,7 @@
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B249" s="37"/>
       <c r="C249" s="37"/>
@@ -12872,10 +12878,10 @@
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="37" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C250" s="37" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D250" s="37" t="n">
         <v>5</v>
@@ -12891,7 +12897,7 @@
         <v>27</v>
       </c>
       <c r="I250" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J250" s="42" t="n">
         <f aca="false">J247+D247</f>
@@ -12910,7 +12916,7 @@
         <v>1</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O250" s="3" t="n">
         <v>1</v>
@@ -12924,10 +12930,10 @@
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="37" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C251" s="37" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D251" s="37" t="n">
         <v>6</v>
@@ -12943,7 +12949,7 @@
         <v>27</v>
       </c>
       <c r="I251" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J251" s="42" t="n">
         <f aca="false">J250+D250</f>
@@ -12962,7 +12968,7 @@
         <v>1.15625</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O251" s="3" t="n">
         <v>1</v>
@@ -12976,10 +12982,10 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="37" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C252" s="37" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D252" s="37" t="n">
         <v>6</v>
@@ -12995,7 +13001,7 @@
         <v>27</v>
       </c>
       <c r="I252" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J252" s="42" t="n">
         <f aca="false">J251+D251</f>
@@ -13014,7 +13020,7 @@
         <v>1.34375</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O252" s="3" t="n">
         <v>1</v>
@@ -13028,10 +13034,10 @@
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="37" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C253" s="37" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D253" s="37" t="n">
         <v>5</v>
@@ -13047,7 +13053,7 @@
         <v>27</v>
       </c>
       <c r="I253" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J253" s="42" t="n">
         <f aca="false">J252+D252</f>
@@ -13066,7 +13072,7 @@
         <v>1.53125</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O253" s="3" t="n">
         <v>1</v>
@@ -13080,10 +13086,10 @@
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="37" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C254" s="37" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D254" s="37" t="n">
         <v>4</v>
@@ -13099,7 +13105,7 @@
         <v>27</v>
       </c>
       <c r="I254" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J254" s="42" t="n">
         <f aca="false">J253+D253</f>
@@ -13118,7 +13124,7 @@
         <v>1.6875</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O254" s="3" t="n">
         <v>1</v>
@@ -13132,10 +13138,10 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C255" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D255" s="37" t="n">
         <v>5</v>
@@ -13151,7 +13157,7 @@
         <v>27</v>
       </c>
       <c r="I255" s="37" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J255" s="42" t="n">
         <f aca="false">J254+D254</f>
@@ -13170,7 +13176,7 @@
         <v>1.8125</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O255" s="3" t="n">
         <v>1</v>
@@ -13184,10 +13190,10 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="37" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C256" s="37" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D256" s="37" t="n">
         <v>1</v>
@@ -13197,13 +13203,13 @@
       </c>
       <c r="F256" s="37"/>
       <c r="G256" s="37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H256" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I256" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J256" s="42" t="n">
         <f aca="false">J255+D255</f>
@@ -13222,7 +13228,7 @@
         <v>1.96875</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O256" s="3" t="n">
         <v>1</v>
@@ -13253,7 +13259,7 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B258" s="37"/>
       <c r="C258" s="37"/>
@@ -13270,10 +13276,10 @@
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="37" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C259" s="37" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D259" s="37" t="n">
         <v>1</v>
@@ -13283,13 +13289,13 @@
       </c>
       <c r="F259" s="37"/>
       <c r="G259" s="37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H259" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I259" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J259" s="42" t="n">
         <f aca="false">J250</f>
@@ -13308,7 +13314,7 @@
         <v>1</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O259" s="3" t="n">
         <v>1</v>
@@ -13322,10 +13328,10 @@
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C260" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D260" s="37" t="n">
         <v>5</v>
@@ -13341,7 +13347,7 @@
         <v>27</v>
       </c>
       <c r="I260" s="37" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="J260" s="42" t="n">
         <f aca="false">J259+D259</f>
@@ -13360,7 +13366,7 @@
         <v>1.03125</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O260" s="3" t="n">
         <v>1</v>
@@ -13374,10 +13380,10 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="37" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C261" s="37" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D261" s="37" t="n">
         <v>4</v>
@@ -13393,7 +13399,7 @@
         <v>27</v>
       </c>
       <c r="I261" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J261" s="42" t="n">
         <f aca="false">J260+D260</f>
@@ -13412,7 +13418,7 @@
         <v>1.1875</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O261" s="3" t="n">
         <v>1</v>
@@ -13426,10 +13432,10 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="37" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C262" s="37" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D262" s="37" t="n">
         <v>5</v>
@@ -13445,7 +13451,7 @@
         <v>27</v>
       </c>
       <c r="I262" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J262" s="42" t="n">
         <f aca="false">J261+D261</f>
@@ -13464,7 +13470,7 @@
         <v>1.3125</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O262" s="3" t="n">
         <v>1</v>
@@ -13478,10 +13484,10 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="37" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C263" s="37" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D263" s="37" t="n">
         <v>6</v>
@@ -13497,7 +13503,7 @@
         <v>27</v>
       </c>
       <c r="I263" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J263" s="42" t="n">
         <f aca="false">J262+D262</f>
@@ -13516,7 +13522,7 @@
         <v>1.46875</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O263" s="3" t="n">
         <v>1</v>
@@ -13530,10 +13536,10 @@
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="37" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C264" s="37" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D264" s="37" t="n">
         <v>6</v>
@@ -13549,7 +13555,7 @@
         <v>27</v>
       </c>
       <c r="I264" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J264" s="42" t="n">
         <f aca="false">J263+D263</f>
@@ -13568,7 +13574,7 @@
         <v>1.65625</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O264" s="3" t="n">
         <v>1</v>
@@ -13582,10 +13588,10 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="37" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C265" s="37" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D265" s="37" t="n">
         <v>5</v>
@@ -13601,7 +13607,7 @@
         <v>27</v>
       </c>
       <c r="I265" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J265" s="42" t="n">
         <f aca="false">J263+D263</f>
@@ -13620,7 +13626,7 @@
         <v>1.65625</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O265" s="3" t="n">
         <v>1</v>
@@ -13651,10 +13657,10 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="37" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C267" s="37" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D267" s="37" t="n">
         <v>8</v>
@@ -13670,7 +13676,7 @@
         <v>27</v>
       </c>
       <c r="I267" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J267" s="42" t="n">
         <f aca="false">J256+D256</f>
@@ -13689,7 +13695,7 @@
         <v>2</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O267" s="3" t="n">
         <v>1</v>
@@ -13703,10 +13709,10 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="37" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C268" s="37" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D268" s="37" t="n">
         <v>8</v>
@@ -13722,7 +13728,7 @@
         <v>27</v>
       </c>
       <c r="I268" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J268" s="42" t="n">
         <f aca="false">J267+D267</f>
@@ -13741,7 +13747,7 @@
         <v>2.25</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O268" s="3" t="n">
         <v>1</v>
@@ -13755,10 +13761,10 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="37" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C269" s="37" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D269" s="37" t="n">
         <v>16</v>
@@ -13774,7 +13780,7 @@
         <v>27</v>
       </c>
       <c r="I269" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J269" s="42" t="n">
         <f aca="false">J268+D268</f>
@@ -13837,7 +13843,7 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="41" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F271" s="37"/>
       <c r="G271" s="37"/>
@@ -13916,16 +13922,16 @@
       </c>
       <c r="I273" s="23"/>
       <c r="N273" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O273" s="24"/>
     </row>
     <row r="274" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="22" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C274" s="44" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D274" s="1" t="n">
         <v>9</v>
@@ -13941,7 +13947,7 @@
         <v>27</v>
       </c>
       <c r="I274" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J274" s="4" t="n">
         <f aca="false">J270</f>
@@ -13960,7 +13966,7 @@
         <v>3</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O274" s="3" t="n">
         <v>2</v>
@@ -13974,10 +13980,10 @@
     </row>
     <row r="275" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="22" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C275" s="44" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D275" s="1" t="n">
         <v>5</v>
@@ -13993,7 +13999,7 @@
         <v>27</v>
       </c>
       <c r="I275" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J275" s="42" t="n">
         <f aca="false">J274+D274</f>
@@ -14012,7 +14018,7 @@
         <v>3.28125</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O275" s="3" t="n">
         <v>2</v>
@@ -14026,10 +14032,10 @@
     </row>
     <row r="276" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="22" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C276" s="44" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D276" s="1" t="n">
         <v>4</v>
@@ -14045,7 +14051,7 @@
         <v>27</v>
       </c>
       <c r="I276" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J276" s="42" t="n">
         <f aca="false">J275+D275</f>
@@ -14064,7 +14070,7 @@
         <v>3.4375</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O276" s="3" t="n">
         <v>2</v>
@@ -14078,10 +14084,10 @@
     </row>
     <row r="277" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="22" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C277" s="44" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D277" s="1" t="n">
         <v>4</v>
@@ -14097,7 +14103,7 @@
         <v>27</v>
       </c>
       <c r="I277" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J277" s="42" t="n">
         <f aca="false">J276+D276</f>
@@ -14116,7 +14122,7 @@
         <v>3.5625</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O277" s="3" t="n">
         <v>2</v>
@@ -14130,10 +14136,10 @@
     </row>
     <row r="278" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="22" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C278" s="44" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D278" s="1" t="n">
         <v>3</v>
@@ -14149,7 +14155,7 @@
         <v>27</v>
       </c>
       <c r="I278" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J278" s="42" t="n">
         <f aca="false">J277+D277</f>
@@ -14168,7 +14174,7 @@
         <v>3.6875</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O278" s="3" t="n">
         <v>2</v>
@@ -14182,10 +14188,10 @@
     </row>
     <row r="279" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="22" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C279" s="44" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D279" s="1" t="n">
         <v>1</v>
@@ -14201,7 +14207,7 @@
         <v>27</v>
       </c>
       <c r="I279" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J279" s="42" t="n">
         <f aca="false">J278+D278</f>
@@ -14220,7 +14226,7 @@
         <v>3.78125</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O279" s="3" t="n">
         <v>2</v>
@@ -14234,10 +14240,10 @@
     </row>
     <row r="280" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="22" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C280" s="44" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D280" s="1" t="n">
         <v>1</v>
@@ -14247,13 +14253,13 @@
       </c>
       <c r="F280" s="45"/>
       <c r="G280" s="37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H280" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I280" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J280" s="42" t="n">
         <f aca="false">J279+D279</f>
@@ -14263,7 +14269,7 @@
       <c r="L280" s="27"/>
       <c r="M280" s="27"/>
       <c r="N280" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O280" s="3" t="n">
         <v>1</v>
@@ -14277,10 +14283,10 @@
     </row>
     <row r="281" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="22" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C281" s="44" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D281" s="1" t="n">
         <v>5</v>
@@ -14296,7 +14302,7 @@
         <v>27</v>
       </c>
       <c r="I281" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J281" s="42" t="n">
         <f aca="false">J280+D280</f>
@@ -14365,10 +14371,10 @@
     </row>
     <row r="284" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B284" s="22" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C284" s="44" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D284" s="1" t="n">
         <v>5</v>
@@ -14384,7 +14390,7 @@
         <v>27</v>
       </c>
       <c r="I284" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J284" s="42" t="n">
         <f aca="false">J270</f>
@@ -14417,10 +14423,10 @@
     </row>
     <row r="285" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B285" s="22" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C285" s="44" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D285" s="1" t="n">
         <v>1</v>
@@ -14430,13 +14436,13 @@
       </c>
       <c r="F285" s="45"/>
       <c r="G285" s="37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H285" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I285" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J285" s="42" t="n">
         <f aca="false">J284+D284</f>
@@ -14455,7 +14461,7 @@
         <v>3.15625</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O285" s="3" t="n">
         <v>1</v>
@@ -14469,10 +14475,10 @@
     </row>
     <row r="286" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B286" s="22" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C286" s="44" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D286" s="1" t="n">
         <v>1</v>
@@ -14482,13 +14488,13 @@
       </c>
       <c r="F286" s="45"/>
       <c r="G286" s="37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H286" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I286" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J286" s="42" t="n">
         <f aca="false">J285+D285</f>
@@ -14507,7 +14513,7 @@
         <v>3.1875</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O286" s="3" t="n">
         <v>2</v>
@@ -14521,10 +14527,10 @@
     </row>
     <row r="287" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B287" s="22" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C287" s="44" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D287" s="1" t="n">
         <v>3</v>
@@ -14534,13 +14540,13 @@
       </c>
       <c r="F287" s="45"/>
       <c r="G287" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H287" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I287" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J287" s="42" t="n">
         <f aca="false">J286+D286</f>
@@ -14559,7 +14565,7 @@
         <v>3.21875</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O287" s="3" t="n">
         <v>2</v>
@@ -14573,10 +14579,10 @@
     </row>
     <row r="288" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B288" s="22" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C288" s="44" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D288" s="1" t="n">
         <v>4</v>
@@ -14586,13 +14592,13 @@
       </c>
       <c r="F288" s="45"/>
       <c r="G288" s="37" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H288" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I288" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J288" s="42" t="n">
         <f aca="false">J287+D287</f>
@@ -14611,7 +14617,7 @@
         <v>3.3125</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O288" s="3" t="n">
         <v>2</v>
@@ -14625,10 +14631,10 @@
     </row>
     <row r="289" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B289" s="22" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C289" s="44" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D289" s="1" t="n">
         <v>4</v>
@@ -14638,13 +14644,13 @@
       </c>
       <c r="F289" s="45"/>
       <c r="G289" s="37" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H289" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I289" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J289" s="42" t="n">
         <f aca="false">J288+D288</f>
@@ -14663,7 +14669,7 @@
         <v>3.4375</v>
       </c>
       <c r="N289" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O289" s="3" t="n">
         <v>2</v>
@@ -14677,10 +14683,10 @@
     </row>
     <row r="290" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B290" s="22" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C290" s="44" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D290" s="1" t="n">
         <v>5</v>
@@ -14690,13 +14696,13 @@
       </c>
       <c r="F290" s="45"/>
       <c r="G290" s="37" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H290" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I290" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J290" s="42" t="n">
         <f aca="false">J289+D289</f>
@@ -14715,7 +14721,7 @@
         <v>3.5625</v>
       </c>
       <c r="N290" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O290" s="3" t="n">
         <v>2</v>
@@ -14729,10 +14735,10 @@
     </row>
     <row r="291" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="22" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C291" s="44" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D291" s="1" t="n">
         <v>9</v>
@@ -14742,13 +14748,13 @@
       </c>
       <c r="F291" s="45"/>
       <c r="G291" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H291" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I291" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J291" s="42" t="n">
         <f aca="false">J290+D290</f>
@@ -14767,7 +14773,7 @@
         <v>3.71875</v>
       </c>
       <c r="N291" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O291" s="3" t="n">
         <v>2</v>
@@ -14800,10 +14806,10 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B293" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D293" s="1" t="n">
         <v>8</v>
@@ -14813,13 +14819,13 @@
       </c>
       <c r="F293" s="37"/>
       <c r="G293" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H293" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I293" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J293" s="42" t="n">
         <f aca="false">J281+D281</f>
@@ -14838,7 +14844,7 @@
         <v>4</v>
       </c>
       <c r="N293" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O293" s="3" t="n">
         <v>3</v>
@@ -14852,10 +14858,10 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D294" s="1" t="n">
         <v>8</v>
@@ -14865,13 +14871,13 @@
       </c>
       <c r="F294" s="37"/>
       <c r="G294" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H294" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I294" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J294" s="42" t="n">
         <f aca="false">J293+D293</f>
@@ -14890,7 +14896,7 @@
         <v>4.25</v>
       </c>
       <c r="N294" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O294" s="3" t="n">
         <v>3</v>
@@ -14904,10 +14910,10 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="3" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D295" s="1" t="n">
         <v>8</v>
@@ -14917,13 +14923,13 @@
       </c>
       <c r="F295" s="37"/>
       <c r="G295" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H295" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I295" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J295" s="42" t="n">
         <f aca="false">J294+D294</f>
@@ -14942,7 +14948,7 @@
         <v>4.5</v>
       </c>
       <c r="N295" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O295" s="3" t="n">
         <v>3</v>
@@ -14956,10 +14962,10 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D296" s="1" t="n">
         <v>8</v>
@@ -14969,13 +14975,13 @@
       </c>
       <c r="F296" s="37"/>
       <c r="G296" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H296" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I296" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J296" s="42" t="n">
         <f aca="false">J295+D295</f>
@@ -14994,7 +15000,7 @@
         <v>4.75</v>
       </c>
       <c r="N296" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O296" s="3" t="n">
         <v>3</v>
@@ -15008,10 +15014,10 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B297" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D297" s="1" t="n">
         <v>8</v>
@@ -15021,13 +15027,13 @@
       </c>
       <c r="F297" s="37"/>
       <c r="G297" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H297" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I297" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J297" s="42" t="n">
         <f aca="false">J296+D296</f>
@@ -15046,7 +15052,7 @@
         <v>5</v>
       </c>
       <c r="N297" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O297" s="3" t="n">
         <v>3</v>
@@ -15060,10 +15066,10 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B298" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D298" s="1" t="n">
         <v>8</v>
@@ -15073,13 +15079,13 @@
       </c>
       <c r="F298" s="37"/>
       <c r="G298" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H298" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I298" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J298" s="42" t="n">
         <f aca="false">J297+D297</f>
@@ -15098,7 +15104,7 @@
         <v>5.25</v>
       </c>
       <c r="N298" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O298" s="3" t="n">
         <v>3</v>
@@ -15112,10 +15118,10 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="3" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D299" s="1" t="n">
         <v>8</v>
@@ -15125,13 +15131,13 @@
       </c>
       <c r="F299" s="37"/>
       <c r="G299" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H299" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I299" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J299" s="42" t="n">
         <f aca="false">J298+D298</f>
@@ -15150,7 +15156,7 @@
         <v>5.5</v>
       </c>
       <c r="N299" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O299" s="3" t="n">
         <v>3</v>
@@ -15164,10 +15170,10 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D300" s="1" t="n">
         <v>8</v>
@@ -15177,13 +15183,13 @@
       </c>
       <c r="F300" s="37"/>
       <c r="G300" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H300" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I300" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J300" s="42" t="n">
         <f aca="false">J299+D299</f>
@@ -15202,7 +15208,7 @@
         <v>5.75</v>
       </c>
       <c r="N300" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O300" s="3" t="n">
         <v>3</v>
@@ -15216,10 +15222,10 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="3" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D301" s="1" t="n">
         <v>8</v>
@@ -15229,13 +15235,13 @@
       </c>
       <c r="F301" s="37"/>
       <c r="G301" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H301" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I301" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J301" s="42" t="n">
         <f aca="false">J300+D300</f>
@@ -15254,7 +15260,7 @@
         <v>6</v>
       </c>
       <c r="N301" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O301" s="3" t="n">
         <v>3</v>
@@ -15268,10 +15274,10 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B302" s="3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D302" s="1" t="n">
         <v>8</v>
@@ -15281,13 +15287,13 @@
       </c>
       <c r="F302" s="37"/>
       <c r="G302" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H302" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I302" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J302" s="42" t="n">
         <f aca="false">J301+D301</f>
@@ -15306,7 +15312,7 @@
         <v>6.25</v>
       </c>
       <c r="N302" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O302" s="3" t="n">
         <v>3</v>
@@ -15320,10 +15326,10 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D303" s="1" t="n">
         <v>8</v>
@@ -15333,13 +15339,13 @@
       </c>
       <c r="F303" s="37"/>
       <c r="G303" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H303" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I303" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J303" s="42" t="n">
         <f aca="false">J302+D302</f>
@@ -15358,7 +15364,7 @@
         <v>6.5</v>
       </c>
       <c r="N303" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O303" s="3" t="n">
         <v>3</v>
@@ -15372,10 +15378,10 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B304" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D304" s="1" t="n">
         <v>8</v>
@@ -15385,13 +15391,13 @@
       </c>
       <c r="F304" s="37"/>
       <c r="G304" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H304" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I304" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J304" s="42" t="n">
         <f aca="false">J303+D303</f>
@@ -15410,7 +15416,7 @@
         <v>6.75</v>
       </c>
       <c r="N304" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O304" s="3" t="n">
         <v>3</v>
@@ -15424,10 +15430,10 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D305" s="1" t="n">
         <v>8</v>
@@ -15437,13 +15443,13 @@
       </c>
       <c r="F305" s="37"/>
       <c r="G305" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H305" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I305" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J305" s="42" t="n">
         <f aca="false">J304+D304</f>
@@ -15462,7 +15468,7 @@
         <v>7</v>
       </c>
       <c r="N305" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O305" s="3" t="n">
         <v>3</v>
@@ -15476,10 +15482,10 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D306" s="1" t="n">
         <v>16</v>
@@ -15491,13 +15497,13 @@
         <v>120</v>
       </c>
       <c r="G306" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H306" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I306" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J306" s="42" t="n">
         <f aca="false">J305+D305</f>
@@ -15516,7 +15522,7 @@
         <v>7.25</v>
       </c>
       <c r="N306" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O306" s="3" t="n">
         <v>1</v>
@@ -15530,10 +15536,10 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D307" s="1" t="n">
         <v>8</v>
@@ -15543,13 +15549,13 @@
       </c>
       <c r="F307" s="37"/>
       <c r="G307" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H307" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I307" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J307" s="42" t="n">
         <f aca="false">J306+D306</f>
@@ -15568,7 +15574,7 @@
         <v>7.75</v>
       </c>
       <c r="N307" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O307" s="3" t="n">
         <v>2</v>
@@ -15607,7 +15613,7 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="41" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="J309" s="42"/>
       <c r="K309" s="27"/>
@@ -15683,16 +15689,16 @@
       </c>
       <c r="I311" s="23"/>
       <c r="N311" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O311" s="24"/>
     </row>
     <row r="312" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="22" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C312" s="44" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D312" s="1" t="n">
         <v>9</v>
@@ -15708,7 +15714,7 @@
         <v>27</v>
       </c>
       <c r="I312" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J312" s="4" t="n">
         <f aca="false">J308</f>
@@ -15727,7 +15733,7 @@
         <v>8</v>
       </c>
       <c r="N312" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O312" s="3" t="n">
         <v>2</v>
@@ -15741,10 +15747,10 @@
     </row>
     <row r="313" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B313" s="22" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C313" s="44" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D313" s="1" t="n">
         <v>5</v>
@@ -15760,7 +15766,7 @@
         <v>27</v>
       </c>
       <c r="I313" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J313" s="42" t="n">
         <f aca="false">J312+D312</f>
@@ -15779,7 +15785,7 @@
         <v>8.28125</v>
       </c>
       <c r="N313" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O313" s="3" t="n">
         <v>2</v>
@@ -15793,10 +15799,10 @@
     </row>
     <row r="314" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B314" s="22" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C314" s="44" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D314" s="1" t="n">
         <v>4</v>
@@ -15812,7 +15818,7 @@
         <v>27</v>
       </c>
       <c r="I314" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J314" s="42" t="n">
         <f aca="false">J313+D313</f>
@@ -15831,7 +15837,7 @@
         <v>8.4375</v>
       </c>
       <c r="N314" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O314" s="3" t="n">
         <v>2</v>
@@ -15845,10 +15851,10 @@
     </row>
     <row r="315" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B315" s="22" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C315" s="44" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D315" s="1" t="n">
         <v>4</v>
@@ -15864,7 +15870,7 @@
         <v>27</v>
       </c>
       <c r="I315" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J315" s="42" t="n">
         <f aca="false">J314+D314</f>
@@ -15883,7 +15889,7 @@
         <v>8.5625</v>
       </c>
       <c r="N315" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O315" s="3" t="n">
         <v>2</v>
@@ -15897,10 +15903,10 @@
     </row>
     <row r="316" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B316" s="22" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C316" s="44" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D316" s="1" t="n">
         <v>3</v>
@@ -15916,7 +15922,7 @@
         <v>27</v>
       </c>
       <c r="I316" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J316" s="42" t="n">
         <f aca="false">J315+D315</f>
@@ -15935,7 +15941,7 @@
         <v>8.6875</v>
       </c>
       <c r="N316" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O316" s="3" t="n">
         <v>2</v>
@@ -15949,10 +15955,10 @@
     </row>
     <row r="317" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="22" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C317" s="44" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D317" s="1" t="n">
         <v>1</v>
@@ -15962,13 +15968,13 @@
       </c>
       <c r="F317" s="45"/>
       <c r="G317" s="37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H317" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I317" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J317" s="42" t="n">
         <f aca="false">J316+D316</f>
@@ -15987,7 +15993,7 @@
         <v>8.78125</v>
       </c>
       <c r="N317" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O317" s="3" t="n">
         <v>2</v>
@@ -16001,10 +16007,10 @@
     </row>
     <row r="318" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="22" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C318" s="44" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D318" s="1" t="n">
         <v>1</v>
@@ -16014,13 +16020,13 @@
       </c>
       <c r="F318" s="45"/>
       <c r="G318" s="37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H318" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I318" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J318" s="42" t="n">
         <f aca="false">J317+D317</f>
@@ -16039,7 +16045,7 @@
         <v>8.8125</v>
       </c>
       <c r="N318" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O318" s="3" t="n">
         <v>1</v>
@@ -16053,10 +16059,10 @@
     </row>
     <row r="319" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B319" s="22" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C319" s="44" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D319" s="1" t="n">
         <v>5</v>
@@ -16072,7 +16078,7 @@
         <v>27</v>
       </c>
       <c r="I319" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J319" s="42" t="n">
         <f aca="false">J318+D318</f>
@@ -16141,10 +16147,10 @@
     </row>
     <row r="322" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="22" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C322" s="44" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D322" s="1" t="n">
         <v>5</v>
@@ -16160,7 +16166,7 @@
         <v>27</v>
       </c>
       <c r="I322" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J322" s="42" t="n">
         <f aca="false">J308</f>
@@ -16193,10 +16199,10 @@
     </row>
     <row r="323" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B323" s="22" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C323" s="44" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D323" s="1" t="n">
         <v>1</v>
@@ -16206,13 +16212,13 @@
       </c>
       <c r="F323" s="45"/>
       <c r="G323" s="37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H323" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I323" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J323" s="42" t="n">
         <f aca="false">J322+D322</f>
@@ -16231,7 +16237,7 @@
         <v>8.15625</v>
       </c>
       <c r="N323" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O323" s="3" t="n">
         <v>1</v>
@@ -16245,10 +16251,10 @@
     </row>
     <row r="324" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="22" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C324" s="44" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D324" s="1" t="n">
         <v>1</v>
@@ -16258,13 +16264,13 @@
       </c>
       <c r="F324" s="45"/>
       <c r="G324" s="37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H324" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I324" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J324" s="42" t="n">
         <f aca="false">J323+D323</f>
@@ -16283,7 +16289,7 @@
         <v>8.1875</v>
       </c>
       <c r="N324" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O324" s="3" t="n">
         <v>2</v>
@@ -16297,10 +16303,10 @@
     </row>
     <row r="325" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B325" s="22" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C325" s="44" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D325" s="1" t="n">
         <v>3</v>
@@ -16310,13 +16316,13 @@
       </c>
       <c r="F325" s="45"/>
       <c r="G325" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H325" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I325" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J325" s="42" t="n">
         <f aca="false">J324+D324</f>
@@ -16335,7 +16341,7 @@
         <v>8.21875</v>
       </c>
       <c r="N325" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O325" s="3" t="n">
         <v>2</v>
@@ -16349,10 +16355,10 @@
     </row>
     <row r="326" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="22" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C326" s="44" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D326" s="1" t="n">
         <v>4</v>
@@ -16362,13 +16368,13 @@
       </c>
       <c r="F326" s="45"/>
       <c r="G326" s="37" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H326" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I326" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J326" s="42" t="n">
         <f aca="false">J325+D325</f>
@@ -16387,7 +16393,7 @@
         <v>8.3125</v>
       </c>
       <c r="N326" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O326" s="3" t="n">
         <v>2</v>
@@ -16401,10 +16407,10 @@
     </row>
     <row r="327" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="22" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C327" s="44" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D327" s="1" t="n">
         <v>4</v>
@@ -16414,13 +16420,13 @@
       </c>
       <c r="F327" s="45"/>
       <c r="G327" s="37" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H327" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I327" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J327" s="42" t="n">
         <f aca="false">J326+D326</f>
@@ -16439,7 +16445,7 @@
         <v>8.4375</v>
       </c>
       <c r="N327" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O327" s="3" t="n">
         <v>2</v>
@@ -16453,10 +16459,10 @@
     </row>
     <row r="328" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="22" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C328" s="44" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D328" s="1" t="n">
         <v>5</v>
@@ -16466,13 +16472,13 @@
       </c>
       <c r="F328" s="45"/>
       <c r="G328" s="37" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H328" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I328" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J328" s="42" t="n">
         <f aca="false">J327+D327</f>
@@ -16491,7 +16497,7 @@
         <v>8.5625</v>
       </c>
       <c r="N328" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O328" s="3" t="n">
         <v>2</v>
@@ -16505,10 +16511,10 @@
     </row>
     <row r="329" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B329" s="22" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C329" s="44" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D329" s="1" t="n">
         <v>9</v>
@@ -16518,13 +16524,13 @@
       </c>
       <c r="F329" s="45"/>
       <c r="G329" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H329" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I329" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J329" s="42" t="n">
         <f aca="false">J328+D328</f>
@@ -16543,7 +16549,7 @@
         <v>8.71875</v>
       </c>
       <c r="N329" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O329" s="3" t="n">
         <v>2</v>
@@ -16576,10 +16582,10 @@
     </row>
     <row r="331" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="22" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C331" s="44" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D331" s="1" t="n">
         <v>32</v>
@@ -16589,13 +16595,13 @@
       </c>
       <c r="F331" s="45"/>
       <c r="G331" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H331" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I331" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J331" s="42" t="n">
         <f aca="false">J319+D319</f>
@@ -16614,7 +16620,7 @@
         <v>9</v>
       </c>
       <c r="N331" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O331" s="3" t="n">
         <v>2</v>
@@ -16628,10 +16634,10 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B332" s="22" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C332" s="22" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D332" s="1" t="n">
         <v>32</v>
@@ -16641,13 +16647,13 @@
       </c>
       <c r="F332" s="37"/>
       <c r="G332" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H332" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I332" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J332" s="42" t="n">
         <f aca="false">J331+D331</f>
@@ -16666,7 +16672,7 @@
         <v>10</v>
       </c>
       <c r="N332" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O332" s="3" t="n">
         <v>4</v>
@@ -16680,10 +16686,10 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B333" s="22" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C333" s="22" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D333" s="1" t="n">
         <v>32</v>
@@ -16693,13 +16699,13 @@
       </c>
       <c r="F333" s="37"/>
       <c r="G333" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H333" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I333" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J333" s="42" t="n">
         <f aca="false">J332+D332</f>
@@ -16718,7 +16724,7 @@
         <v>11</v>
       </c>
       <c r="N333" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O333" s="3" t="n">
         <v>4</v>
@@ -16732,10 +16738,10 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="22" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C334" s="22" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D334" s="1" t="n">
         <v>32</v>
@@ -16745,13 +16751,13 @@
       </c>
       <c r="F334" s="37"/>
       <c r="G334" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H334" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I334" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J334" s="42" t="n">
         <f aca="false">J333+D333</f>
@@ -16770,7 +16776,7 @@
         <v>12</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O334" s="3" t="n">
         <v>4</v>
@@ -16784,10 +16790,10 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="22" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C335" s="22" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D335" s="1" t="n">
         <v>32</v>
@@ -16797,13 +16803,13 @@
       </c>
       <c r="F335" s="37"/>
       <c r="G335" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H335" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I335" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J335" s="42" t="n">
         <f aca="false">J334+D334</f>
@@ -16822,7 +16828,7 @@
         <v>13</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O335" s="3" t="n">
         <v>4</v>
@@ -16836,10 +16842,10 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="22" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C336" s="22" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D336" s="1" t="n">
         <v>8</v>
@@ -16849,13 +16855,13 @@
       </c>
       <c r="F336" s="37"/>
       <c r="G336" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H336" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I336" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J336" s="42" t="n">
         <f aca="false">J335+D335</f>
@@ -16874,7 +16880,7 @@
         <v>14</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O336" s="3" t="n">
         <v>4</v>
@@ -16888,10 +16894,10 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B337" s="22" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C337" s="22" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D337" s="1" t="n">
         <v>8</v>
@@ -16901,13 +16907,13 @@
       </c>
       <c r="F337" s="37"/>
       <c r="G337" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H337" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I337" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J337" s="42" t="n">
         <f aca="false">J336+D336</f>
@@ -16926,7 +16932,7 @@
         <v>14.25</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O337" s="3" t="n">
         <v>4</v>
@@ -16940,10 +16946,10 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B338" s="22" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C338" s="22" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D338" s="1" t="n">
         <v>8</v>
@@ -16953,13 +16959,13 @@
       </c>
       <c r="F338" s="37"/>
       <c r="G338" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H338" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I338" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J338" s="42" t="n">
         <f aca="false">J337+D337</f>
@@ -16978,7 +16984,7 @@
         <v>14.5</v>
       </c>
       <c r="N338" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O338" s="3" t="n">
         <v>4</v>
@@ -16992,10 +16998,10 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B339" s="22" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C339" s="22" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D339" s="1" t="n">
         <v>8</v>
@@ -17005,13 +17011,13 @@
       </c>
       <c r="F339" s="37"/>
       <c r="G339" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H339" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I339" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J339" s="42" t="n">
         <f aca="false">J338+D338</f>
@@ -17030,7 +17036,7 @@
         <v>14.75</v>
       </c>
       <c r="N339" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O339" s="3" t="n">
         <v>4</v>
@@ -17044,10 +17050,10 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="22" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C340" s="22" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D340" s="1" t="n">
         <v>8</v>
@@ -17057,13 +17063,13 @@
       </c>
       <c r="F340" s="37"/>
       <c r="G340" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H340" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I340" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J340" s="42" t="n">
         <f aca="false">J339+D339</f>
@@ -17082,7 +17088,7 @@
         <v>15</v>
       </c>
       <c r="N340" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O340" s="3" t="n">
         <v>4</v>
@@ -17096,10 +17102,10 @@
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B341" s="22" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C341" s="22" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D341" s="1" t="n">
         <v>8</v>
@@ -17109,13 +17115,13 @@
       </c>
       <c r="F341" s="37"/>
       <c r="G341" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H341" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I341" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J341" s="42" t="n">
         <f aca="false">J340+D340</f>
@@ -17134,7 +17140,7 @@
         <v>15.25</v>
       </c>
       <c r="N341" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O341" s="3" t="n">
         <v>4</v>
@@ -17148,10 +17154,10 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B342" s="22" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C342" s="22" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D342" s="1" t="n">
         <v>8</v>
@@ -17161,13 +17167,13 @@
       </c>
       <c r="F342" s="37"/>
       <c r="G342" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H342" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I342" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J342" s="42" t="n">
         <f aca="false">J341+D341</f>
@@ -17186,7 +17192,7 @@
         <v>15.5</v>
       </c>
       <c r="N342" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O342" s="3" t="n">
         <v>4</v>
@@ -17200,10 +17206,10 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B343" s="22" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C343" s="22" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D343" s="1" t="n">
         <v>8</v>
@@ -17213,13 +17219,13 @@
       </c>
       <c r="F343" s="37"/>
       <c r="G343" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H343" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I343" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J343" s="42" t="n">
         <f aca="false">J342+D342</f>
@@ -17238,7 +17244,7 @@
         <v>15.75</v>
       </c>
       <c r="N343" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O343" s="3" t="n">
         <v>4</v>
@@ -17252,10 +17258,10 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="22" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C344" s="22" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D344" s="1" t="n">
         <v>8</v>
@@ -17265,13 +17271,13 @@
       </c>
       <c r="F344" s="37"/>
       <c r="G344" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H344" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I344" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J344" s="42" t="n">
         <f aca="false">J343+D343</f>
@@ -17290,7 +17296,7 @@
         <v>16</v>
       </c>
       <c r="N344" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O344" s="3" t="n">
         <v>4</v>
@@ -17304,10 +17310,10 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B345" s="22" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C345" s="22" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D345" s="1" t="n">
         <v>8</v>
@@ -17317,13 +17323,13 @@
       </c>
       <c r="F345" s="37"/>
       <c r="G345" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H345" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I345" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J345" s="42" t="n">
         <f aca="false">J344+D344</f>
@@ -17342,7 +17348,7 @@
         <v>16.25</v>
       </c>
       <c r="N345" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O345" s="3" t="n">
         <v>4</v>
@@ -17356,10 +17362,10 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="22" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C346" s="22" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D346" s="1" t="n">
         <v>8</v>
@@ -17369,13 +17375,13 @@
       </c>
       <c r="F346" s="37"/>
       <c r="G346" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H346" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I346" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J346" s="42" t="n">
         <f aca="false">J345+D345</f>
@@ -17394,7 +17400,7 @@
         <v>16.5</v>
       </c>
       <c r="N346" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O346" s="3" t="n">
         <v>4</v>
@@ -17408,10 +17414,10 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="22" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C347" s="22" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D347" s="1" t="n">
         <v>8</v>
@@ -17421,13 +17427,13 @@
       </c>
       <c r="F347" s="37"/>
       <c r="G347" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H347" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I347" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J347" s="42" t="n">
         <f aca="false">J346+D346</f>
@@ -17446,7 +17452,7 @@
         <v>16.75</v>
       </c>
       <c r="N347" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O347" s="3" t="n">
         <v>4</v>
@@ -17460,10 +17466,10 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B348" s="22" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C348" s="22" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D348" s="1" t="n">
         <v>8</v>
@@ -17473,13 +17479,13 @@
       </c>
       <c r="F348" s="37"/>
       <c r="G348" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H348" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I348" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J348" s="42" t="n">
         <f aca="false">J347+D347</f>
@@ -17498,7 +17504,7 @@
         <v>17</v>
       </c>
       <c r="N348" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O348" s="3" t="n">
         <v>4</v>
@@ -17512,10 +17518,10 @@
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="22" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C349" s="22" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D349" s="1" t="n">
         <v>8</v>
@@ -17525,13 +17531,13 @@
       </c>
       <c r="F349" s="37"/>
       <c r="G349" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H349" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I349" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J349" s="42" t="n">
         <f aca="false">J348+D348</f>
@@ -17550,7 +17556,7 @@
         <v>17.25</v>
       </c>
       <c r="N349" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O349" s="3" t="n">
         <v>4</v>
@@ -17564,10 +17570,10 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B350" s="22" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C350" s="22" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D350" s="1" t="n">
         <v>8</v>
@@ -17577,13 +17583,13 @@
       </c>
       <c r="F350" s="37"/>
       <c r="G350" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H350" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I350" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J350" s="42" t="n">
         <f aca="false">J349+D349</f>
@@ -17602,7 +17608,7 @@
         <v>17.5</v>
       </c>
       <c r="N350" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O350" s="3" t="n">
         <v>4</v>
@@ -17616,10 +17622,10 @@
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B351" s="22" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C351" s="22" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D351" s="1" t="n">
         <v>8</v>
@@ -17629,13 +17635,13 @@
       </c>
       <c r="F351" s="37"/>
       <c r="G351" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H351" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I351" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J351" s="42" t="n">
         <f aca="false">J350+D350</f>
@@ -17654,7 +17660,7 @@
         <v>17.75</v>
       </c>
       <c r="N351" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O351" s="3" t="n">
         <v>4</v>
@@ -17668,10 +17674,10 @@
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B352" s="22" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C352" s="22" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D352" s="1" t="n">
         <v>8</v>
@@ -17681,13 +17687,13 @@
       </c>
       <c r="F352" s="37"/>
       <c r="G352" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H352" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I352" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J352" s="42" t="n">
         <f aca="false">J351+D351</f>
@@ -17706,7 +17712,7 @@
         <v>18</v>
       </c>
       <c r="N352" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O352" s="3" t="n">
         <v>4</v>
@@ -17720,10 +17726,10 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B353" s="22" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C353" s="22" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D353" s="1" t="n">
         <v>8</v>
@@ -17733,13 +17739,13 @@
       </c>
       <c r="F353" s="37"/>
       <c r="G353" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H353" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I353" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J353" s="42" t="n">
         <f aca="false">J352+D352</f>
@@ -17758,7 +17764,7 @@
         <v>18.25</v>
       </c>
       <c r="N353" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O353" s="3" t="n">
         <v>4</v>
@@ -17772,10 +17778,10 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="22" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C354" s="22" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D354" s="1" t="n">
         <v>8</v>
@@ -17785,13 +17791,13 @@
       </c>
       <c r="F354" s="37"/>
       <c r="G354" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H354" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I354" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J354" s="42" t="n">
         <f aca="false">J353+D353</f>
@@ -17810,7 +17816,7 @@
         <v>18.5</v>
       </c>
       <c r="N354" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O354" s="3" t="n">
         <v>4</v>
@@ -17824,10 +17830,10 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="22" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C355" s="22" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D355" s="1" t="n">
         <v>8</v>
@@ -17837,13 +17843,13 @@
       </c>
       <c r="F355" s="37"/>
       <c r="G355" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H355" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I355" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J355" s="42" t="n">
         <f aca="false">J354+D354</f>
@@ -17862,7 +17868,7 @@
         <v>18.75</v>
       </c>
       <c r="N355" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O355" s="3" t="n">
         <v>4</v>
@@ -17876,10 +17882,10 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B356" s="22" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C356" s="22" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D356" s="1" t="n">
         <v>8</v>
@@ -17889,13 +17895,13 @@
       </c>
       <c r="F356" s="37"/>
       <c r="G356" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H356" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I356" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J356" s="42" t="n">
         <f aca="false">J355+D355</f>
@@ -17914,7 +17920,7 @@
         <v>19</v>
       </c>
       <c r="N356" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O356" s="3" t="n">
         <v>4</v>
@@ -17928,10 +17934,10 @@
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B357" s="22" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C357" s="22" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D357" s="1" t="n">
         <v>8</v>
@@ -17941,13 +17947,13 @@
       </c>
       <c r="F357" s="37"/>
       <c r="G357" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H357" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I357" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J357" s="42" t="n">
         <f aca="false">J356+D356</f>
@@ -17966,7 +17972,7 @@
         <v>19.25</v>
       </c>
       <c r="N357" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O357" s="3" t="n">
         <v>4</v>
@@ -17980,10 +17986,10 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B358" s="22" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C358" s="22" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D358" s="1" t="n">
         <v>8</v>
@@ -17993,13 +17999,13 @@
       </c>
       <c r="F358" s="37"/>
       <c r="G358" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H358" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I358" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J358" s="42" t="n">
         <f aca="false">J357+D357</f>
@@ -18018,7 +18024,7 @@
         <v>19.5</v>
       </c>
       <c r="N358" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O358" s="3" t="n">
         <v>4</v>
@@ -18032,10 +18038,10 @@
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B359" s="22" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C359" s="22" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D359" s="1" t="n">
         <v>8</v>
@@ -18045,13 +18051,13 @@
       </c>
       <c r="F359" s="37"/>
       <c r="G359" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H359" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I359" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J359" s="42" t="n">
         <f aca="false">J358+D358</f>
@@ -18070,7 +18076,7 @@
         <v>19.75</v>
       </c>
       <c r="N359" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O359" s="3" t="n">
         <v>4</v>
@@ -18084,10 +18090,10 @@
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B360" s="22" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C360" s="22" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D360" s="1" t="n">
         <v>8</v>
@@ -18097,13 +18103,13 @@
       </c>
       <c r="F360" s="37"/>
       <c r="G360" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H360" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I360" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J360" s="42" t="n">
         <f aca="false">J359+D359</f>
@@ -18122,7 +18128,7 @@
         <v>20</v>
       </c>
       <c r="N360" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O360" s="3" t="n">
         <v>4</v>
@@ -18136,10 +18142,10 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B361" s="22" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C361" s="22" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D361" s="1" t="n">
         <v>8</v>
@@ -18149,13 +18155,13 @@
       </c>
       <c r="F361" s="37"/>
       <c r="G361" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H361" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I361" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J361" s="42" t="n">
         <f aca="false">J360+D360</f>
@@ -18174,7 +18180,7 @@
         <v>20.25</v>
       </c>
       <c r="N361" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O361" s="3" t="n">
         <v>4</v>
@@ -18188,10 +18194,10 @@
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B362" s="22" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C362" s="22" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D362" s="1" t="n">
         <v>8</v>
@@ -18201,13 +18207,13 @@
       </c>
       <c r="F362" s="37"/>
       <c r="G362" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H362" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I362" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J362" s="42" t="n">
         <f aca="false">J361+D361</f>
@@ -18226,7 +18232,7 @@
         <v>20.5</v>
       </c>
       <c r="N362" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O362" s="3" t="n">
         <v>4</v>
@@ -18240,10 +18246,10 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B363" s="22" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C363" s="22" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D363" s="1" t="n">
         <v>8</v>
@@ -18253,13 +18259,13 @@
       </c>
       <c r="F363" s="37"/>
       <c r="G363" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H363" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I363" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J363" s="42" t="n">
         <f aca="false">J362+D362</f>
@@ -18278,7 +18284,7 @@
         <v>20.75</v>
       </c>
       <c r="N363" s="43" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O363" s="3" t="n">
         <v>4</v>
@@ -18292,10 +18298,10 @@
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="3" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D364" s="1" t="n">
         <v>16</v>
@@ -18307,13 +18313,13 @@
         <v>120</v>
       </c>
       <c r="G364" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H364" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I364" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J364" s="42" t="n">
         <f aca="false">J363+D363</f>
@@ -18332,7 +18338,7 @@
         <v>21</v>
       </c>
       <c r="N364" s="43" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O364" s="3" t="n">
         <v>1</v>
@@ -18346,16 +18352,16 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D365" s="1" t="n">
         <v>16</v>
       </c>
       <c r="E365" s="37" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F365" s="37"/>
       <c r="G365" s="37" t="n">
@@ -18365,7 +18371,7 @@
         <v>27</v>
       </c>
       <c r="I365" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J365" s="42" t="n">
         <f aca="false">J364+D364</f>
@@ -18423,7 +18429,7 @@
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="41" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F367" s="37"/>
       <c r="G367" s="37"/>
@@ -18506,10 +18512,10 @@
     </row>
     <row r="370" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="22" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C370" s="44" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D370" s="1" t="n">
         <v>9</v>
@@ -18525,7 +18531,7 @@
         <v>27</v>
       </c>
       <c r="I370" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J370" s="4" t="n">
         <f aca="false">J366</f>
@@ -18544,7 +18550,7 @@
         <v>22</v>
       </c>
       <c r="N370" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O370" s="3" t="n">
         <v>2</v>
@@ -18558,10 +18564,10 @@
     </row>
     <row r="371" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="22" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C371" s="44" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D371" s="1" t="n">
         <v>5</v>
@@ -18577,7 +18583,7 @@
         <v>27</v>
       </c>
       <c r="I371" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J371" s="4" t="n">
         <f aca="false">J370+D370</f>
@@ -18596,7 +18602,7 @@
         <v>22.28125</v>
       </c>
       <c r="N371" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O371" s="3" t="n">
         <v>2</v>
@@ -18610,10 +18616,10 @@
     </row>
     <row r="372" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="22" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C372" s="44" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D372" s="1" t="n">
         <v>4</v>
@@ -18629,7 +18635,7 @@
         <v>27</v>
       </c>
       <c r="I372" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J372" s="4" t="n">
         <f aca="false">J371+D371</f>
@@ -18648,7 +18654,7 @@
         <v>22.4375</v>
       </c>
       <c r="N372" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O372" s="3" t="n">
         <v>2</v>
@@ -18662,10 +18668,10 @@
     </row>
     <row r="373" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="22" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C373" s="44" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D373" s="1" t="n">
         <v>4</v>
@@ -18681,7 +18687,7 @@
         <v>27</v>
       </c>
       <c r="I373" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J373" s="4" t="n">
         <f aca="false">J372+D372</f>
@@ -18700,7 +18706,7 @@
         <v>22.5625</v>
       </c>
       <c r="N373" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O373" s="3" t="n">
         <v>2</v>
@@ -18714,10 +18720,10 @@
     </row>
     <row r="374" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="22" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C374" s="44" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D374" s="1" t="n">
         <v>3</v>
@@ -18733,7 +18739,7 @@
         <v>27</v>
       </c>
       <c r="I374" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J374" s="4" t="n">
         <f aca="false">J373+D373</f>
@@ -18752,7 +18758,7 @@
         <v>22.6875</v>
       </c>
       <c r="N374" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O374" s="3" t="n">
         <v>2</v>
@@ -18766,10 +18772,10 @@
     </row>
     <row r="375" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="22" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C375" s="44" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D375" s="1" t="n">
         <v>1</v>
@@ -18779,13 +18785,13 @@
       </c>
       <c r="F375" s="45"/>
       <c r="G375" s="37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H375" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I375" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J375" s="4" t="n">
         <f aca="false">J374+D374</f>
@@ -18804,7 +18810,7 @@
         <v>22.78125</v>
       </c>
       <c r="N375" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O375" s="3" t="n">
         <v>2</v>
@@ -18818,10 +18824,10 @@
     </row>
     <row r="376" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="22" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C376" s="44" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D376" s="1" t="n">
         <v>1</v>
@@ -18831,13 +18837,13 @@
       </c>
       <c r="F376" s="45"/>
       <c r="G376" s="37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H376" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I376" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J376" s="4" t="n">
         <f aca="false">J375+D375</f>
@@ -18856,7 +18862,7 @@
         <v>22.8125</v>
       </c>
       <c r="N376" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O376" s="3" t="n">
         <v>1</v>
@@ -18870,10 +18876,10 @@
     </row>
     <row r="377" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="22" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C377" s="44" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="D377" s="1" t="n">
         <v>5</v>
@@ -18889,7 +18895,7 @@
         <v>27</v>
       </c>
       <c r="I377" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J377" s="4" t="n">
         <f aca="false">J376+D376</f>
@@ -18970,10 +18976,10 @@
     </row>
     <row r="380" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="22" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C380" s="44" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D380" s="1" t="n">
         <v>5</v>
@@ -18989,7 +18995,7 @@
         <v>27</v>
       </c>
       <c r="I380" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J380" s="42" t="n">
         <f aca="false">J366</f>
@@ -19022,10 +19028,10 @@
     </row>
     <row r="381" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="22" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C381" s="44" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D381" s="1" t="n">
         <v>1</v>
@@ -19035,13 +19041,13 @@
       </c>
       <c r="F381" s="45"/>
       <c r="G381" s="37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H381" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I381" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J381" s="42" t="n">
         <f aca="false">J380+D380</f>
@@ -19060,7 +19066,7 @@
         <v>22.15625</v>
       </c>
       <c r="N381" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O381" s="3" t="n">
         <v>1</v>
@@ -19074,10 +19080,10 @@
     </row>
     <row r="382" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="22" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C382" s="44" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D382" s="1" t="n">
         <v>1</v>
@@ -19087,13 +19093,13 @@
       </c>
       <c r="F382" s="45"/>
       <c r="G382" s="37" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H382" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I382" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J382" s="42" t="n">
         <f aca="false">J381+D381</f>
@@ -19112,7 +19118,7 @@
         <v>22.1875</v>
       </c>
       <c r="N382" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O382" s="3" t="n">
         <v>2</v>
@@ -19126,10 +19132,10 @@
     </row>
     <row r="383" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="22" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C383" s="44" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D383" s="1" t="n">
         <v>3</v>
@@ -19139,13 +19145,13 @@
       </c>
       <c r="F383" s="45"/>
       <c r="G383" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H383" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I383" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J383" s="42" t="n">
         <f aca="false">J382+D382</f>
@@ -19164,7 +19170,7 @@
         <v>22.21875</v>
       </c>
       <c r="N383" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O383" s="3" t="n">
         <v>2</v>
@@ -19178,10 +19184,10 @@
     </row>
     <row r="384" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B384" s="22" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C384" s="44" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D384" s="1" t="n">
         <v>4</v>
@@ -19191,13 +19197,13 @@
       </c>
       <c r="F384" s="45"/>
       <c r="G384" s="37" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H384" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I384" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J384" s="42" t="n">
         <f aca="false">J383+D383</f>
@@ -19216,7 +19222,7 @@
         <v>22.3125</v>
       </c>
       <c r="N384" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O384" s="3" t="n">
         <v>2</v>
@@ -19230,10 +19236,10 @@
     </row>
     <row r="385" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="22" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C385" s="44" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D385" s="1" t="n">
         <v>4</v>
@@ -19243,13 +19249,13 @@
       </c>
       <c r="F385" s="45"/>
       <c r="G385" s="37" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H385" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I385" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J385" s="42" t="n">
         <f aca="false">J384+D384</f>
@@ -19268,7 +19274,7 @@
         <v>22.4375</v>
       </c>
       <c r="N385" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O385" s="3" t="n">
         <v>2</v>
@@ -19282,10 +19288,10 @@
     </row>
     <row r="386" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="22" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C386" s="44" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D386" s="1" t="n">
         <v>5</v>
@@ -19295,13 +19301,13 @@
       </c>
       <c r="F386" s="45"/>
       <c r="G386" s="37" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H386" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I386" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J386" s="42" t="n">
         <f aca="false">J385+D385</f>
@@ -19320,7 +19326,7 @@
         <v>22.5625</v>
       </c>
       <c r="N386" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O386" s="3" t="n">
         <v>2</v>
@@ -19334,10 +19340,10 @@
     </row>
     <row r="387" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="22" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C387" s="44" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D387" s="1" t="n">
         <v>9</v>
@@ -19347,13 +19353,13 @@
       </c>
       <c r="F387" s="45"/>
       <c r="G387" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H387" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I387" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J387" s="42" t="n">
         <f aca="false">J386+D386</f>
@@ -19372,7 +19378,7 @@
         <v>22.71875</v>
       </c>
       <c r="N387" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O387" s="3" t="n">
         <v>2</v>
@@ -19404,10 +19410,10 @@
     </row>
     <row r="389" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="22" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C389" s="44" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D389" s="1" t="n">
         <v>32</v>
@@ -19417,13 +19423,13 @@
       </c>
       <c r="F389" s="45"/>
       <c r="G389" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H389" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I389" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J389" s="42" t="n">
         <f aca="false">J377+D377</f>
@@ -19442,7 +19448,7 @@
         <v>23</v>
       </c>
       <c r="N389" s="43" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O389" s="3" t="n">
         <v>2</v>
@@ -19457,10 +19463,10 @@
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="43"/>
       <c r="B390" s="22" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C390" s="22" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D390" s="1" t="n">
         <v>32</v>
@@ -19470,13 +19476,13 @@
       </c>
       <c r="F390" s="37"/>
       <c r="G390" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H390" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I390" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J390" s="42" t="n">
         <f aca="false">J389+D389</f>
@@ -19495,7 +19501,7 @@
         <v>24</v>
       </c>
       <c r="N390" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O390" s="3" t="n">
         <v>5</v>
@@ -19509,10 +19515,10 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="22" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C391" s="22" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D391" s="1" t="n">
         <v>32</v>
@@ -19522,13 +19528,13 @@
       </c>
       <c r="F391" s="37"/>
       <c r="G391" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H391" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I391" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J391" s="42" t="n">
         <f aca="false">J390+D390</f>
@@ -19547,7 +19553,7 @@
         <v>25</v>
       </c>
       <c r="N391" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O391" s="3" t="n">
         <v>5</v>
@@ -19561,10 +19567,10 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="22" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C392" s="22" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D392" s="1" t="n">
         <v>32</v>
@@ -19574,13 +19580,13 @@
       </c>
       <c r="F392" s="37"/>
       <c r="G392" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H392" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I392" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J392" s="42" t="n">
         <f aca="false">J391+D391</f>
@@ -19599,7 +19605,7 @@
         <v>26</v>
       </c>
       <c r="N392" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O392" s="3" t="n">
         <v>5</v>
@@ -19613,10 +19619,10 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="22" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C393" s="22" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D393" s="1" t="n">
         <v>32</v>
@@ -19626,13 +19632,13 @@
       </c>
       <c r="F393" s="37"/>
       <c r="G393" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H393" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I393" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J393" s="42" t="n">
         <f aca="false">J392+D392</f>
@@ -19651,7 +19657,7 @@
         <v>27</v>
       </c>
       <c r="N393" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O393" s="3" t="n">
         <v>5</v>
@@ -19665,10 +19671,10 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B394" s="22" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C394" s="22" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D394" s="1" t="n">
         <v>8</v>
@@ -19678,13 +19684,13 @@
       </c>
       <c r="F394" s="37"/>
       <c r="G394" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H394" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I394" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J394" s="42" t="n">
         <f aca="false">J393+D393</f>
@@ -19703,7 +19709,7 @@
         <v>28</v>
       </c>
       <c r="N394" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O394" s="3" t="n">
         <v>5</v>
@@ -19717,10 +19723,10 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B395" s="22" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C395" s="22" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D395" s="1" t="n">
         <v>8</v>
@@ -19730,13 +19736,13 @@
       </c>
       <c r="F395" s="37"/>
       <c r="G395" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H395" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I395" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J395" s="42" t="n">
         <f aca="false">J394+D394</f>
@@ -19755,7 +19761,7 @@
         <v>28.25</v>
       </c>
       <c r="N395" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O395" s="3" t="n">
         <v>5</v>
@@ -19769,10 +19775,10 @@
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B396" s="22" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C396" s="22" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D396" s="1" t="n">
         <v>8</v>
@@ -19782,13 +19788,13 @@
       </c>
       <c r="F396" s="37"/>
       <c r="G396" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H396" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I396" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J396" s="42" t="n">
         <f aca="false">J395+D395</f>
@@ -19807,7 +19813,7 @@
         <v>28.5</v>
       </c>
       <c r="N396" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O396" s="3" t="n">
         <v>5</v>
@@ -19821,10 +19827,10 @@
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B397" s="22" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C397" s="22" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D397" s="1" t="n">
         <v>8</v>
@@ -19834,13 +19840,13 @@
       </c>
       <c r="F397" s="37"/>
       <c r="G397" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H397" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I397" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J397" s="42" t="n">
         <f aca="false">J396+D396</f>
@@ -19859,7 +19865,7 @@
         <v>28.75</v>
       </c>
       <c r="N397" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O397" s="3" t="n">
         <v>5</v>
@@ -19873,10 +19879,10 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B398" s="22" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C398" s="22" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D398" s="1" t="n">
         <v>8</v>
@@ -19886,13 +19892,13 @@
       </c>
       <c r="F398" s="37"/>
       <c r="G398" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H398" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I398" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J398" s="42" t="n">
         <f aca="false">J397+D397</f>
@@ -19911,7 +19917,7 @@
         <v>29</v>
       </c>
       <c r="N398" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O398" s="3" t="n">
         <v>5</v>
@@ -19925,10 +19931,10 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B399" s="22" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C399" s="22" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D399" s="1" t="n">
         <v>8</v>
@@ -19938,13 +19944,13 @@
       </c>
       <c r="F399" s="37"/>
       <c r="G399" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H399" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I399" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J399" s="42" t="n">
         <f aca="false">J398+D398</f>
@@ -19963,7 +19969,7 @@
         <v>29.25</v>
       </c>
       <c r="N399" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O399" s="3" t="n">
         <v>5</v>
@@ -19977,10 +19983,10 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="22" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C400" s="22" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D400" s="1" t="n">
         <v>8</v>
@@ -19990,13 +19996,13 @@
       </c>
       <c r="F400" s="37"/>
       <c r="G400" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H400" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I400" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J400" s="42" t="n">
         <f aca="false">J399+D399</f>
@@ -20015,7 +20021,7 @@
         <v>29.5</v>
       </c>
       <c r="N400" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O400" s="3" t="n">
         <v>5</v>
@@ -20029,10 +20035,10 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="22" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C401" s="22" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D401" s="1" t="n">
         <v>8</v>
@@ -20042,13 +20048,13 @@
       </c>
       <c r="F401" s="37"/>
       <c r="G401" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H401" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I401" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J401" s="42" t="n">
         <f aca="false">J400+D400</f>
@@ -20067,7 +20073,7 @@
         <v>29.75</v>
       </c>
       <c r="N401" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O401" s="3" t="n">
         <v>5</v>
@@ -20081,10 +20087,10 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="22" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C402" s="22" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D402" s="1" t="n">
         <v>8</v>
@@ -20094,13 +20100,13 @@
       </c>
       <c r="F402" s="37"/>
       <c r="G402" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H402" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I402" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J402" s="42" t="n">
         <f aca="false">J401+D401</f>
@@ -20119,7 +20125,7 @@
         <v>30</v>
       </c>
       <c r="N402" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O402" s="3" t="n">
         <v>5</v>
@@ -20133,10 +20139,10 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B403" s="22" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C403" s="22" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D403" s="1" t="n">
         <v>8</v>
@@ -20146,13 +20152,13 @@
       </c>
       <c r="F403" s="37"/>
       <c r="G403" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H403" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I403" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J403" s="42" t="n">
         <f aca="false">J402+D402</f>
@@ -20171,7 +20177,7 @@
         <v>30.25</v>
       </c>
       <c r="N403" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O403" s="3" t="n">
         <v>5</v>
@@ -20185,10 +20191,10 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B404" s="22" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C404" s="22" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D404" s="1" t="n">
         <v>8</v>
@@ -20198,13 +20204,13 @@
       </c>
       <c r="F404" s="37"/>
       <c r="G404" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H404" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I404" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J404" s="42" t="n">
         <f aca="false">J403+D403</f>
@@ -20223,7 +20229,7 @@
         <v>30.5</v>
       </c>
       <c r="N404" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O404" s="3" t="n">
         <v>5</v>
@@ -20237,10 +20243,10 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B405" s="22" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C405" s="22" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D405" s="1" t="n">
         <v>8</v>
@@ -20250,13 +20256,13 @@
       </c>
       <c r="F405" s="37"/>
       <c r="G405" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H405" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I405" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J405" s="42" t="n">
         <f aca="false">J404+D404</f>
@@ -20275,7 +20281,7 @@
         <v>30.75</v>
       </c>
       <c r="N405" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O405" s="3" t="n">
         <v>5</v>
@@ -20289,10 +20295,10 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B406" s="22" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C406" s="22" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D406" s="1" t="n">
         <v>8</v>
@@ -20302,13 +20308,13 @@
       </c>
       <c r="F406" s="37"/>
       <c r="G406" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H406" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I406" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J406" s="42" t="n">
         <f aca="false">J405+D405</f>
@@ -20327,7 +20333,7 @@
         <v>31</v>
       </c>
       <c r="N406" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O406" s="3" t="n">
         <v>5</v>
@@ -20341,10 +20347,10 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B407" s="22" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C407" s="22" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D407" s="1" t="n">
         <v>8</v>
@@ -20354,13 +20360,13 @@
       </c>
       <c r="F407" s="37"/>
       <c r="G407" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H407" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I407" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J407" s="42" t="n">
         <f aca="false">J406+D406</f>
@@ -20379,7 +20385,7 @@
         <v>31.25</v>
       </c>
       <c r="N407" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O407" s="3" t="n">
         <v>5</v>
@@ -20393,10 +20399,10 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="22" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C408" s="22" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D408" s="1" t="n">
         <v>8</v>
@@ -20406,13 +20412,13 @@
       </c>
       <c r="F408" s="37"/>
       <c r="G408" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H408" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I408" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J408" s="42" t="n">
         <f aca="false">J407+D407</f>
@@ -20431,7 +20437,7 @@
         <v>31.5</v>
       </c>
       <c r="N408" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O408" s="3" t="n">
         <v>5</v>
@@ -20445,10 +20451,10 @@
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="22" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C409" s="22" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D409" s="1" t="n">
         <v>8</v>
@@ -20458,13 +20464,13 @@
       </c>
       <c r="F409" s="37"/>
       <c r="G409" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H409" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I409" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J409" s="42" t="n">
         <f aca="false">J408+D408</f>
@@ -20483,7 +20489,7 @@
         <v>31.75</v>
       </c>
       <c r="N409" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O409" s="3" t="n">
         <v>5</v>
@@ -20497,10 +20503,10 @@
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B410" s="22" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C410" s="22" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D410" s="1" t="n">
         <v>8</v>
@@ -20510,13 +20516,13 @@
       </c>
       <c r="F410" s="37"/>
       <c r="G410" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H410" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I410" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J410" s="42" t="n">
         <f aca="false">J409+D409</f>
@@ -20535,7 +20541,7 @@
         <v>32</v>
       </c>
       <c r="N410" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O410" s="3" t="n">
         <v>5</v>
@@ -20549,10 +20555,10 @@
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B411" s="22" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C411" s="22" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D411" s="1" t="n">
         <v>8</v>
@@ -20562,13 +20568,13 @@
       </c>
       <c r="F411" s="37"/>
       <c r="G411" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H411" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I411" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J411" s="42" t="n">
         <f aca="false">J410+D410</f>
@@ -20587,7 +20593,7 @@
         <v>32.25</v>
       </c>
       <c r="N411" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O411" s="3" t="n">
         <v>5</v>
@@ -20601,10 +20607,10 @@
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="22" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C412" s="22" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D412" s="1" t="n">
         <v>8</v>
@@ -20614,13 +20620,13 @@
       </c>
       <c r="F412" s="37"/>
       <c r="G412" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H412" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I412" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J412" s="42" t="n">
         <f aca="false">J411+D411</f>
@@ -20639,7 +20645,7 @@
         <v>32.5</v>
       </c>
       <c r="N412" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O412" s="3" t="n">
         <v>5</v>
@@ -20653,10 +20659,10 @@
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="22" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C413" s="22" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D413" s="1" t="n">
         <v>8</v>
@@ -20666,13 +20672,13 @@
       </c>
       <c r="F413" s="37"/>
       <c r="G413" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H413" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I413" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J413" s="42" t="n">
         <f aca="false">J412+D412</f>
@@ -20691,7 +20697,7 @@
         <v>32.75</v>
       </c>
       <c r="N413" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O413" s="3" t="n">
         <v>5</v>
@@ -20705,10 +20711,10 @@
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B414" s="22" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C414" s="22" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D414" s="1" t="n">
         <v>8</v>
@@ -20718,13 +20724,13 @@
       </c>
       <c r="F414" s="37"/>
       <c r="G414" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H414" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I414" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J414" s="42" t="n">
         <f aca="false">J413+D413</f>
@@ -20743,7 +20749,7 @@
         <v>33</v>
       </c>
       <c r="N414" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O414" s="3" t="n">
         <v>5</v>
@@ -20757,10 +20763,10 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="22" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C415" s="22" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D415" s="1" t="n">
         <v>8</v>
@@ -20770,13 +20776,13 @@
       </c>
       <c r="F415" s="37"/>
       <c r="G415" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H415" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I415" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J415" s="42" t="n">
         <f aca="false">J414+D414</f>
@@ -20795,7 +20801,7 @@
         <v>33.25</v>
       </c>
       <c r="N415" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O415" s="3" t="n">
         <v>5</v>
@@ -20809,10 +20815,10 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B416" s="22" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C416" s="22" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D416" s="1" t="n">
         <v>8</v>
@@ -20822,13 +20828,13 @@
       </c>
       <c r="F416" s="37"/>
       <c r="G416" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H416" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I416" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J416" s="42" t="n">
         <f aca="false">J415+D415</f>
@@ -20847,7 +20853,7 @@
         <v>33.5</v>
       </c>
       <c r="N416" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O416" s="3" t="n">
         <v>5</v>
@@ -20861,10 +20867,10 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="22" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C417" s="22" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D417" s="1" t="n">
         <v>8</v>
@@ -20874,13 +20880,13 @@
       </c>
       <c r="F417" s="37"/>
       <c r="G417" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H417" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I417" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J417" s="42" t="n">
         <f aca="false">J416+D416</f>
@@ -20899,7 +20905,7 @@
         <v>33.75</v>
       </c>
       <c r="N417" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O417" s="3" t="n">
         <v>5</v>
@@ -20913,10 +20919,10 @@
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="22" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C418" s="22" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D418" s="1" t="n">
         <v>8</v>
@@ -20926,13 +20932,13 @@
       </c>
       <c r="F418" s="37"/>
       <c r="G418" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H418" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I418" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J418" s="42" t="n">
         <f aca="false">J417+D417</f>
@@ -20951,7 +20957,7 @@
         <v>34</v>
       </c>
       <c r="N418" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O418" s="3" t="n">
         <v>5</v>
@@ -20965,10 +20971,10 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="22" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C419" s="22" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D419" s="1" t="n">
         <v>8</v>
@@ -20978,13 +20984,13 @@
       </c>
       <c r="F419" s="37"/>
       <c r="G419" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H419" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I419" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J419" s="42" t="n">
         <f aca="false">J418+D418</f>
@@ -21003,7 +21009,7 @@
         <v>34.25</v>
       </c>
       <c r="N419" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O419" s="3" t="n">
         <v>5</v>
@@ -21017,10 +21023,10 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="22" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C420" s="22" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D420" s="1" t="n">
         <v>8</v>
@@ -21030,13 +21036,13 @@
       </c>
       <c r="F420" s="37"/>
       <c r="G420" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H420" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I420" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J420" s="42" t="n">
         <f aca="false">J419+D419</f>
@@ -21055,7 +21061,7 @@
         <v>34.5</v>
       </c>
       <c r="N420" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O420" s="3" t="n">
         <v>5</v>
@@ -21069,10 +21075,10 @@
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B421" s="22" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C421" s="22" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D421" s="1" t="n">
         <v>8</v>
@@ -21082,13 +21088,13 @@
       </c>
       <c r="F421" s="37"/>
       <c r="G421" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H421" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I421" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J421" s="42" t="n">
         <f aca="false">J420+D420</f>
@@ -21107,7 +21113,7 @@
         <v>34.75</v>
       </c>
       <c r="N421" s="43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O421" s="3" t="n">
         <v>5</v>
@@ -21121,10 +21127,10 @@
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B422" s="3" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D422" s="1" t="n">
         <v>16</v>
@@ -21136,13 +21142,13 @@
         <v>120</v>
       </c>
       <c r="G422" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="H422" s="37" t="s">
         <v>27</v>
       </c>
       <c r="I422" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J422" s="42" t="n">
         <f aca="false">J421+D421</f>
@@ -21161,7 +21167,7 @@
         <v>35</v>
       </c>
       <c r="N422" s="43" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O422" s="3" t="n">
         <v>1</v>
@@ -21175,16 +21181,16 @@
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B423" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D423" s="1" t="n">
         <v>16</v>
       </c>
       <c r="E423" s="37" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F423" s="37"/>
       <c r="G423" s="37" t="n">
@@ -21194,7 +21200,7 @@
         <v>27</v>
       </c>
       <c r="I423" s="37" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J423" s="42" t="n">
         <f aca="false">J422+D422</f>
@@ -21269,9 +21275,7 @@
     <hyperlink ref="A224" r:id="rId1" display="Structure:ragnarok_t, file:ragDownlink.h"/>
     <hyperlink ref="A230" r:id="rId2" display="Structure:radWodSpecific_t, file:radWodSpecificDownlink.h"/>
     <hyperlink ref="A245" r:id="rId3" display="Structure:infrequentDownlink_t,file:infrequentDownlink.h"/>
-    <hyperlink ref="A271" r:id="rId4" display="Structure:legacyErrors_t,file:legacyErrorsDownlink.h"/>
-    <hyperlink ref="A309" r:id="rId5" display="Structure:rt1Errors_t,file:rt1ErrorsDownlink.h"/>
-    <hyperlink ref="A367" r:id="rId6" display="Structure:rt2Errors_t,file:rt2ErrorsDownlink.h"/>
+    <hyperlink ref="A309" r:id="rId4" display="Structure:rt1Errors_t,file:rt1ErrorsDownlink.h"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -21294,7 +21298,7 @@
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.11"/>
@@ -21304,22 +21308,22 @@
     <row r="6" s="48" customFormat="true" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="49"/>
       <c r="C6" s="49" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="I6" s="49"/>
     </row>
